--- a/LME/parser_beta/data/shmet_historical.xlsx
+++ b/LME/parser_beta/data/shmet_historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="4">
   <si>
     <t>date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D662"/>
+  <dimension ref="A1:D663"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,10 +409,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>45142</v>
+        <v>45145</v>
       </c>
       <c r="C2">
-        <v>69875</v>
+        <v>69290</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -423,10 +423,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="C3">
-        <v>69425</v>
+        <v>69875</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -437,10 +437,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="C4">
-        <v>69990</v>
+        <v>69425</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -451,10 +451,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="C5">
-        <v>70925</v>
+        <v>69990</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -465,10 +465,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="C6">
-        <v>69830</v>
+        <v>70925</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -479,10 +479,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>45135</v>
+        <v>45138</v>
       </c>
       <c r="C7">
-        <v>68950</v>
+        <v>69830</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -493,10 +493,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="C8">
-        <v>69460</v>
+        <v>68950</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -507,10 +507,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="C9">
-        <v>69200</v>
+        <v>69460</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="C10">
-        <v>68980</v>
+        <v>69200</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -535,10 +535,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>45128</v>
+        <v>45132</v>
       </c>
       <c r="C11">
-        <v>68670</v>
+        <v>68980</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -549,10 +549,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="C12">
-        <v>68650</v>
+        <v>68670</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -563,10 +563,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="C13">
-        <v>68580</v>
+        <v>68650</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -577,10 +577,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="C14">
-        <v>68750</v>
+        <v>68580</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -591,10 +591,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>45121</v>
+        <v>45125</v>
       </c>
       <c r="C15">
-        <v>69825</v>
+        <v>68750</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -605,10 +605,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="C16">
-        <v>68760</v>
+        <v>69825</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -619,10 +619,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="C17">
-        <v>68040</v>
+        <v>68760</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
@@ -633,10 +633,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="C18">
-        <v>68370</v>
+        <v>68040</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -647,10 +647,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>45114</v>
+        <v>45118</v>
       </c>
       <c r="C19">
-        <v>68150</v>
+        <v>68370</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -661,10 +661,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="C20">
-        <v>68300</v>
+        <v>68150</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -675,10 +675,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="C21">
-        <v>68500</v>
+        <v>68300</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -689,10 +689,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="C22">
-        <v>68775</v>
+        <v>68500</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -703,10 +703,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>45107</v>
+        <v>45111</v>
       </c>
       <c r="C23">
-        <v>68000</v>
+        <v>68775</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
@@ -717,10 +717,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="C24">
-        <v>68025</v>
+        <v>68000</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
@@ -731,10 +731,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="C25">
-        <v>68300</v>
+        <v>68025</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
@@ -745,10 +745,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="C26">
-        <v>68660</v>
+        <v>68300</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
@@ -759,10 +759,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>45098</v>
+        <v>45104</v>
       </c>
       <c r="C27">
-        <v>69650</v>
+        <v>68660</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
@@ -773,10 +773,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="C28">
-        <v>69100</v>
+        <v>69650</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
@@ -787,10 +787,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>45093</v>
+        <v>45097</v>
       </c>
       <c r="C29">
-        <v>68960</v>
+        <v>69100</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
@@ -801,10 +801,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="C30">
-        <v>68275</v>
+        <v>68960</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
@@ -815,10 +815,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="C31">
-        <v>68350</v>
+        <v>68275</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
@@ -829,10 +829,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>45086</v>
+        <v>45091</v>
       </c>
       <c r="C32">
-        <v>67370</v>
+        <v>68350</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
@@ -843,10 +843,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="C33">
-        <v>67180</v>
+        <v>67370</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -857,10 +857,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="C34">
-        <v>67300</v>
+        <v>67180</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="C35">
-        <v>67160</v>
+        <v>67300</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
@@ -885,10 +885,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>45079</v>
+        <v>45083</v>
       </c>
       <c r="C36">
-        <v>66425</v>
+        <v>67160</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
@@ -899,10 +899,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="C37">
-        <v>65850</v>
+        <v>66425</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
@@ -913,10 +913,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="C38">
-        <v>65260</v>
+        <v>65850</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
@@ -927,10 +927,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="C39">
-        <v>65600</v>
+        <v>65260</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
@@ -941,10 +941,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>45072</v>
+        <v>45076</v>
       </c>
       <c r="C40">
-        <v>64150</v>
+        <v>65600</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
@@ -955,10 +955,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="C41">
-        <v>63750</v>
+        <v>64150</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
@@ -969,10 +969,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>45070</v>
+        <v>45071</v>
       </c>
       <c r="C42">
-        <v>64300</v>
+        <v>63750</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="C43">
-        <v>65280</v>
+        <v>64300</v>
       </c>
       <c r="D43" t="s">
         <v>3</v>
@@ -997,10 +997,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>45065</v>
+        <v>45069</v>
       </c>
       <c r="C44">
-        <v>65675</v>
+        <v>65280</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
@@ -1011,10 +1011,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="C45">
-        <v>66025</v>
+        <v>65675</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
@@ -1025,10 +1025,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="C46">
-        <v>64680</v>
+        <v>66025</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
@@ -1039,10 +1039,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="C47">
-        <v>65200</v>
+        <v>64680</v>
       </c>
       <c r="D47" t="s">
         <v>3</v>
@@ -1053,10 +1053,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>45058</v>
+        <v>45062</v>
       </c>
       <c r="C48">
-        <v>64690</v>
+        <v>65200</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
@@ -1067,10 +1067,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="C49">
-        <v>66590</v>
+        <v>64690</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
@@ -1081,10 +1081,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>45051</v>
+        <v>45057</v>
       </c>
       <c r="C50">
-        <v>66675</v>
+        <v>66590</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
@@ -1095,10 +1095,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="C51">
-        <v>67290</v>
+        <v>66675</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
@@ -1109,10 +1109,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>45044</v>
+        <v>45050</v>
       </c>
       <c r="C52">
-        <v>67420</v>
+        <v>67290</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
@@ -1123,10 +1123,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="C53">
-        <v>66625</v>
+        <v>67420</v>
       </c>
       <c r="D53" t="s">
         <v>3</v>
@@ -1137,10 +1137,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="C54">
-        <v>67540</v>
+        <v>66625</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
@@ -1151,10 +1151,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="C55">
-        <v>68290</v>
+        <v>67540</v>
       </c>
       <c r="D55" t="s">
         <v>3</v>
@@ -1165,10 +1165,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>45037</v>
+        <v>45041</v>
       </c>
       <c r="C56">
-        <v>68890</v>
+        <v>68290</v>
       </c>
       <c r="D56" t="s">
         <v>3</v>
@@ -1179,10 +1179,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="C57">
-        <v>69500</v>
+        <v>68890</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
@@ -1193,10 +1193,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="C58">
-        <v>69680</v>
+        <v>69500</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
@@ -1207,10 +1207,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="C59">
-        <v>69650</v>
+        <v>69680</v>
       </c>
       <c r="D59" t="s">
         <v>3</v>
@@ -1221,10 +1221,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>45030</v>
+        <v>45034</v>
       </c>
       <c r="C60">
-        <v>70310</v>
+        <v>69650</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
@@ -1235,10 +1235,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="C61">
-        <v>69405</v>
+        <v>70310</v>
       </c>
       <c r="D61" t="s">
         <v>3</v>
@@ -1249,10 +1249,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="C62">
-        <v>69150</v>
+        <v>69405</v>
       </c>
       <c r="D62" t="s">
         <v>3</v>
@@ -1263,10 +1263,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="C63">
-        <v>68580</v>
+        <v>69150</v>
       </c>
       <c r="D63" t="s">
         <v>3</v>
@@ -1277,10 +1277,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>45023</v>
+        <v>45027</v>
       </c>
       <c r="C64">
-        <v>68875</v>
+        <v>68580</v>
       </c>
       <c r="D64" t="s">
         <v>3</v>
@@ -1291,10 +1291,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="C65">
-        <v>68830</v>
+        <v>68875</v>
       </c>
       <c r="D65" t="s">
         <v>3</v>
@@ -1305,10 +1305,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>45020</v>
+        <v>45022</v>
       </c>
       <c r="C66">
-        <v>69225</v>
+        <v>68830</v>
       </c>
       <c r="D66" t="s">
         <v>3</v>
@@ -1319,10 +1319,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>45016</v>
+        <v>45020</v>
       </c>
       <c r="C67">
-        <v>69650</v>
+        <v>69225</v>
       </c>
       <c r="D67" t="s">
         <v>3</v>
@@ -1333,10 +1333,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="C68">
-        <v>69620</v>
+        <v>69650</v>
       </c>
       <c r="D68" t="s">
         <v>3</v>
@@ -1347,10 +1347,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="C69">
-        <v>69580</v>
+        <v>69620</v>
       </c>
       <c r="D69" t="s">
         <v>3</v>
@@ -1361,10 +1361,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="C70">
-        <v>69770</v>
+        <v>69580</v>
       </c>
       <c r="D70" t="s">
         <v>3</v>
@@ -1375,10 +1375,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>45009</v>
+        <v>45013</v>
       </c>
       <c r="C71">
-        <v>69230</v>
+        <v>69770</v>
       </c>
       <c r="D71" t="s">
         <v>3</v>
@@ -1389,10 +1389,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="C72">
-        <v>68630</v>
+        <v>69230</v>
       </c>
       <c r="D72" t="s">
         <v>3</v>
@@ -1403,10 +1403,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="C73">
-        <v>68100</v>
+        <v>68630</v>
       </c>
       <c r="D73" t="s">
         <v>3</v>
@@ -1417,10 +1417,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="C74">
-        <v>67575</v>
+        <v>68100</v>
       </c>
       <c r="D74" t="s">
         <v>3</v>
@@ -1431,10 +1431,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>45002</v>
+        <v>45006</v>
       </c>
       <c r="C75">
-        <v>67340</v>
+        <v>67575</v>
       </c>
       <c r="D75" t="s">
         <v>3</v>
@@ -1445,10 +1445,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="C76">
-        <v>67100</v>
+        <v>67340</v>
       </c>
       <c r="D76" t="s">
         <v>3</v>
@@ -1459,10 +1459,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="C77">
-        <v>68925</v>
+        <v>67100</v>
       </c>
       <c r="D77" t="s">
         <v>3</v>
@@ -1473,10 +1473,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="C78">
-        <v>68600</v>
+        <v>68925</v>
       </c>
       <c r="D78" t="s">
         <v>3</v>
@@ -1487,10 +1487,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>44995</v>
+        <v>44999</v>
       </c>
       <c r="C79">
-        <v>69025</v>
+        <v>68600</v>
       </c>
       <c r="D79" t="s">
         <v>3</v>
@@ -1501,10 +1501,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>44993</v>
+        <v>44995</v>
       </c>
       <c r="C80">
-        <v>68840</v>
+        <v>69025</v>
       </c>
       <c r="D80" t="s">
         <v>3</v>
@@ -1515,10 +1515,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="C81">
-        <v>69610</v>
+        <v>68840</v>
       </c>
       <c r="D81" t="s">
         <v>3</v>
@@ -1529,10 +1529,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="C82">
-        <v>69400</v>
+        <v>69610</v>
       </c>
       <c r="D82" t="s">
         <v>3</v>
@@ -1543,10 +1543,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="C83">
-        <v>69865</v>
+        <v>69400</v>
       </c>
       <c r="D83" t="s">
         <v>3</v>
@@ -1557,10 +1557,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="C84">
-        <v>69710</v>
+        <v>69865</v>
       </c>
       <c r="D84" t="s">
         <v>3</v>
@@ -1571,10 +1571,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="C85">
-        <v>68550</v>
+        <v>69710</v>
       </c>
       <c r="D85" t="s">
         <v>3</v>
@@ -1585,10 +1585,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="C86">
-        <v>70050</v>
+        <v>68550</v>
       </c>
       <c r="D86" t="s">
         <v>3</v>
@@ -1599,10 +1599,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="C87">
-        <v>70400</v>
+        <v>70050</v>
       </c>
       <c r="D87" t="s">
         <v>3</v>
@@ -1613,10 +1613,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="C88">
-        <v>69705</v>
+        <v>70400</v>
       </c>
       <c r="D88" t="s">
         <v>3</v>
@@ -1627,10 +1627,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>44974</v>
+        <v>44978</v>
       </c>
       <c r="C89">
-        <v>69080</v>
+        <v>69705</v>
       </c>
       <c r="D89" t="s">
         <v>3</v>
@@ -1641,10 +1641,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="C90">
-        <v>68370</v>
+        <v>69080</v>
       </c>
       <c r="D90" t="s">
         <v>3</v>
@@ -1655,10 +1655,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="C91">
-        <v>68950</v>
+        <v>68370</v>
       </c>
       <c r="D91" t="s">
         <v>3</v>
@@ -1669,10 +1669,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="C92">
-        <v>68510</v>
+        <v>68950</v>
       </c>
       <c r="D92" t="s">
         <v>3</v>
@@ -1683,10 +1683,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>44967</v>
+        <v>44971</v>
       </c>
       <c r="C93">
-        <v>68225</v>
+        <v>68510</v>
       </c>
       <c r="D93" t="s">
         <v>3</v>
@@ -1697,10 +1697,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="C94">
-        <v>68240</v>
+        <v>68225</v>
       </c>
       <c r="D94" t="s">
         <v>3</v>
@@ -1711,10 +1711,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="C95">
-        <v>68250</v>
+        <v>68240</v>
       </c>
       <c r="D95" t="s">
         <v>3</v>
@@ -1725,10 +1725,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="C96">
-        <v>67860</v>
+        <v>68250</v>
       </c>
       <c r="D96" t="s">
         <v>3</v>
@@ -1739,10 +1739,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>44960</v>
+        <v>44964</v>
       </c>
       <c r="C97">
-        <v>68425</v>
+        <v>67860</v>
       </c>
       <c r="D97" t="s">
         <v>3</v>
@@ -1753,10 +1753,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="C98">
-        <v>69070</v>
+        <v>68425</v>
       </c>
       <c r="D98" t="s">
         <v>3</v>
@@ -1767,10 +1767,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="C99">
-        <v>69560</v>
+        <v>69070</v>
       </c>
       <c r="D99" t="s">
         <v>3</v>
@@ -1781,10 +1781,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="C100">
-        <v>69425</v>
+        <v>69560</v>
       </c>
       <c r="D100" t="s">
         <v>3</v>
@@ -1795,10 +1795,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>44946</v>
+        <v>44957</v>
       </c>
       <c r="C101">
-        <v>70150</v>
+        <v>69425</v>
       </c>
       <c r="D101" t="s">
         <v>3</v>
@@ -1809,10 +1809,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="2">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="C102">
-        <v>69570</v>
+        <v>70150</v>
       </c>
       <c r="D102" t="s">
         <v>3</v>
@@ -1823,10 +1823,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="2">
-        <v>44944</v>
+        <v>44945</v>
       </c>
       <c r="C103">
-        <v>69750</v>
+        <v>69570</v>
       </c>
       <c r="D103" t="s">
         <v>3</v>
@@ -1837,10 +1837,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>44943</v>
+        <v>44944</v>
       </c>
       <c r="C104">
-        <v>68410</v>
+        <v>69750</v>
       </c>
       <c r="D104" t="s">
         <v>3</v>
@@ -1851,10 +1851,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>44939</v>
+        <v>44943</v>
       </c>
       <c r="C105">
-        <v>68725</v>
+        <v>68410</v>
       </c>
       <c r="D105" t="s">
         <v>3</v>
@@ -1865,10 +1865,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="2">
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="C106">
-        <v>68430</v>
+        <v>68725</v>
       </c>
       <c r="D106" t="s">
         <v>3</v>
@@ -1879,10 +1879,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="2">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="C107">
-        <v>67500</v>
+        <v>68430</v>
       </c>
       <c r="D107" t="s">
         <v>3</v>
@@ -1893,10 +1893,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="2">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="C108">
-        <v>66475</v>
+        <v>67500</v>
       </c>
       <c r="D108" t="s">
         <v>3</v>
@@ -1907,10 +1907,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="2">
-        <v>44925</v>
+        <v>44936</v>
       </c>
       <c r="C109">
-        <v>66175</v>
+        <v>66475</v>
       </c>
       <c r="D109" t="s">
         <v>3</v>
@@ -1921,10 +1921,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="2">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="C110">
-        <v>66200</v>
+        <v>66175</v>
       </c>
       <c r="D110" t="s">
         <v>3</v>
@@ -1935,10 +1935,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="2">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="C111">
-        <v>66270</v>
+        <v>66200</v>
       </c>
       <c r="D111" t="s">
         <v>3</v>
@@ -1949,10 +1949,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="2">
-        <v>44922</v>
+        <v>44923</v>
       </c>
       <c r="C112">
-        <v>66400</v>
+        <v>66270</v>
       </c>
       <c r="D112" t="s">
         <v>3</v>
@@ -1963,10 +1963,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>44918</v>
+        <v>44922</v>
       </c>
       <c r="C113">
-        <v>66000</v>
+        <v>66400</v>
       </c>
       <c r="D113" t="s">
         <v>3</v>
@@ -1977,10 +1977,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="C114">
-        <v>66750</v>
+        <v>66000</v>
       </c>
       <c r="D114" t="s">
         <v>3</v>
@@ -1991,10 +1991,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="C115">
-        <v>66225</v>
+        <v>66750</v>
       </c>
       <c r="D115" t="s">
         <v>3</v>
@@ -2005,10 +2005,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="C116">
-        <v>65575</v>
+        <v>66225</v>
       </c>
       <c r="D116" t="s">
         <v>3</v>
@@ -2019,10 +2019,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>44911</v>
+        <v>44915</v>
       </c>
       <c r="C117">
-        <v>65750</v>
+        <v>65575</v>
       </c>
       <c r="D117" t="s">
         <v>3</v>
@@ -2033,10 +2033,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="C118">
-        <v>66125</v>
+        <v>65750</v>
       </c>
       <c r="D118" t="s">
         <v>3</v>
@@ -2047,10 +2047,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>44909</v>
+        <v>44910</v>
       </c>
       <c r="C119">
-        <v>66625</v>
+        <v>66125</v>
       </c>
       <c r="D119" t="s">
         <v>3</v>
@@ -2061,10 +2061,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="C120">
-        <v>66175</v>
+        <v>66625</v>
       </c>
       <c r="D120" t="s">
         <v>3</v>
@@ -2075,10 +2075,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>44904</v>
+        <v>44908</v>
       </c>
       <c r="C121">
-        <v>67000</v>
+        <v>66175</v>
       </c>
       <c r="D121" t="s">
         <v>3</v>
@@ -2089,10 +2089,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="C122">
-        <v>66290</v>
+        <v>67000</v>
       </c>
       <c r="D122" t="s">
         <v>3</v>
@@ -2103,10 +2103,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="C123">
-        <v>66225</v>
+        <v>66290</v>
       </c>
       <c r="D123" t="s">
         <v>3</v>
@@ -2117,10 +2117,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="C124">
-        <v>66575</v>
+        <v>66225</v>
       </c>
       <c r="D124" t="s">
         <v>3</v>
@@ -2131,10 +2131,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>44897</v>
+        <v>44901</v>
       </c>
       <c r="C125">
-        <v>66400</v>
+        <v>66575</v>
       </c>
       <c r="D125" t="s">
         <v>3</v>
@@ -2145,10 +2145,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="C126">
-        <v>66380</v>
+        <v>66400</v>
       </c>
       <c r="D126" t="s">
         <v>3</v>
@@ -2159,10 +2159,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="C127">
-        <v>65290</v>
+        <v>66380</v>
       </c>
       <c r="D127" t="s">
         <v>3</v>
@@ -2173,10 +2173,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="C128">
-        <v>65525</v>
+        <v>65290</v>
       </c>
       <c r="D128" t="s">
         <v>3</v>
@@ -2187,10 +2187,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="C129">
-        <v>65640</v>
+        <v>65525</v>
       </c>
       <c r="D129" t="s">
         <v>3</v>
@@ -2201,10 +2201,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="C130">
-        <v>65490</v>
+        <v>65640</v>
       </c>
       <c r="D130" t="s">
         <v>3</v>
@@ -2215,10 +2215,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="C131">
-        <v>65260</v>
+        <v>65490</v>
       </c>
       <c r="D131" t="s">
         <v>3</v>
@@ -2229,10 +2229,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="C132">
-        <v>65170</v>
+        <v>65260</v>
       </c>
       <c r="D132" t="s">
         <v>3</v>
@@ -2243,10 +2243,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>44883</v>
+        <v>44887</v>
       </c>
       <c r="C133">
-        <v>66275</v>
+        <v>65170</v>
       </c>
       <c r="D133" t="s">
         <v>3</v>
@@ -2257,10 +2257,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="C134">
-        <v>66540</v>
+        <v>66275</v>
       </c>
       <c r="D134" t="s">
         <v>3</v>
@@ -2271,10 +2271,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="C135">
-        <v>67050</v>
+        <v>66540</v>
       </c>
       <c r="D135" t="s">
         <v>3</v>
@@ -2285,10 +2285,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="C136">
-        <v>67275</v>
+        <v>67050</v>
       </c>
       <c r="D136" t="s">
         <v>3</v>
@@ -2299,10 +2299,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>44876</v>
+        <v>44880</v>
       </c>
       <c r="C137">
-        <v>68575</v>
+        <v>67275</v>
       </c>
       <c r="D137" t="s">
         <v>3</v>
@@ -2313,10 +2313,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="C138">
-        <v>67400</v>
+        <v>68575</v>
       </c>
       <c r="D138" t="s">
         <v>3</v>
@@ -2327,10 +2327,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="C139">
-        <v>66800</v>
+        <v>67400</v>
       </c>
       <c r="D139" t="s">
         <v>3</v>
@@ -2341,10 +2341,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="C140">
-        <v>66225</v>
+        <v>66800</v>
       </c>
       <c r="D140" t="s">
         <v>3</v>
@@ -2355,10 +2355,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>44869</v>
+        <v>44873</v>
       </c>
       <c r="C141">
-        <v>64700</v>
+        <v>66225</v>
       </c>
       <c r="D141" t="s">
         <v>3</v>
@@ -2369,10 +2369,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="C142">
-        <v>64690</v>
+        <v>64700</v>
       </c>
       <c r="D142" t="s">
         <v>3</v>
@@ -2383,10 +2383,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="C143">
-        <v>64950</v>
+        <v>64690</v>
       </c>
       <c r="D143" t="s">
         <v>3</v>
@@ -2397,10 +2397,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>44866</v>
+        <v>44867</v>
       </c>
       <c r="C144">
-        <v>64300</v>
+        <v>64950</v>
       </c>
       <c r="D144" t="s">
         <v>3</v>
@@ -2411,10 +2411,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>44862</v>
+        <v>44866</v>
       </c>
       <c r="C145">
-        <v>64650</v>
+        <v>64300</v>
       </c>
       <c r="D145" t="s">
         <v>3</v>
@@ -2425,10 +2425,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>44861</v>
+        <v>44862</v>
       </c>
       <c r="C146">
-        <v>64690</v>
+        <v>64650</v>
       </c>
       <c r="D146" t="s">
         <v>3</v>
@@ -2439,10 +2439,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="C147">
-        <v>63950</v>
+        <v>64690</v>
       </c>
       <c r="D147" t="s">
         <v>3</v>
@@ -2453,10 +2453,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="C148">
-        <v>64300</v>
+        <v>63950</v>
       </c>
       <c r="D148" t="s">
         <v>3</v>
@@ -2467,10 +2467,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>44855</v>
+        <v>44859</v>
       </c>
       <c r="C149">
-        <v>64000</v>
+        <v>64300</v>
       </c>
       <c r="D149" t="s">
         <v>3</v>
@@ -2481,10 +2481,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="C150">
-        <v>62895</v>
+        <v>64000</v>
       </c>
       <c r="D150" t="s">
         <v>3</v>
@@ -2495,10 +2495,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>44853</v>
+        <v>44854</v>
       </c>
       <c r="C151">
-        <v>62950</v>
+        <v>62895</v>
       </c>
       <c r="D151" t="s">
         <v>3</v>
@@ -2509,10 +2509,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="C152">
-        <v>63550</v>
+        <v>62950</v>
       </c>
       <c r="D152" t="s">
         <v>3</v>
@@ -2523,10 +2523,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>44848</v>
+        <v>44852</v>
       </c>
       <c r="C153">
-        <v>64760</v>
+        <v>63550</v>
       </c>
       <c r="D153" t="s">
         <v>3</v>
@@ -2537,10 +2537,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="C154">
-        <v>63960</v>
+        <v>64760</v>
       </c>
       <c r="D154" t="s">
         <v>3</v>
@@ -2551,10 +2551,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="C155">
-        <v>63800</v>
+        <v>63960</v>
       </c>
       <c r="D155" t="s">
         <v>3</v>
@@ -2565,10 +2565,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>44845</v>
+        <v>44846</v>
       </c>
       <c r="C156">
-        <v>63975</v>
+        <v>63800</v>
       </c>
       <c r="D156" t="s">
         <v>3</v>
@@ -2579,10 +2579,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>44834</v>
+        <v>44845</v>
       </c>
       <c r="C157">
-        <v>62670</v>
+        <v>63975</v>
       </c>
       <c r="D157" t="s">
         <v>3</v>
@@ -2593,10 +2593,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="C158">
-        <v>62430</v>
+        <v>62670</v>
       </c>
       <c r="D158" t="s">
         <v>3</v>
@@ -2607,10 +2607,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="C159">
-        <v>61430</v>
+        <v>62430</v>
       </c>
       <c r="D159" t="s">
         <v>3</v>
@@ -2621,10 +2621,10 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="C160">
-        <v>61485</v>
+        <v>61430</v>
       </c>
       <c r="D160" t="s">
         <v>3</v>
@@ -2635,10 +2635,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>44827</v>
+        <v>44831</v>
       </c>
       <c r="C161">
-        <v>63025</v>
+        <v>61485</v>
       </c>
       <c r="D161" t="s">
         <v>3</v>
@@ -2649,10 +2649,10 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="C162">
-        <v>63120</v>
+        <v>63025</v>
       </c>
       <c r="D162" t="s">
         <v>3</v>
@@ -2663,7 +2663,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="C163">
         <v>63120</v>
@@ -2677,10 +2677,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="C164">
-        <v>63370</v>
+        <v>63120</v>
       </c>
       <c r="D164" t="s">
         <v>3</v>
@@ -2691,10 +2691,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>44820</v>
+        <v>44824</v>
       </c>
       <c r="C165">
-        <v>62865</v>
+        <v>63370</v>
       </c>
       <c r="D165" t="s">
         <v>3</v>
@@ -2705,10 +2705,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="C166">
-        <v>63370</v>
+        <v>62865</v>
       </c>
       <c r="D166" t="s">
         <v>3</v>
@@ -2719,10 +2719,10 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="C167">
-        <v>63050</v>
+        <v>63370</v>
       </c>
       <c r="D167" t="s">
         <v>3</v>
@@ -2733,10 +2733,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="C168">
-        <v>63850</v>
+        <v>63050</v>
       </c>
       <c r="D168" t="s">
         <v>3</v>
@@ -2747,10 +2747,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>44813</v>
+        <v>44817</v>
       </c>
       <c r="C169">
-        <v>63650</v>
+        <v>63850</v>
       </c>
       <c r="D169" t="s">
         <v>3</v>
@@ -2761,10 +2761,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="C170">
-        <v>61910</v>
+        <v>63650</v>
       </c>
       <c r="D170" t="s">
         <v>3</v>
@@ -2775,10 +2775,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="C171">
-        <v>61700</v>
+        <v>61910</v>
       </c>
       <c r="D171" t="s">
         <v>3</v>
@@ -2789,10 +2789,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="C172">
-        <v>61750</v>
+        <v>61700</v>
       </c>
       <c r="D172" t="s">
         <v>3</v>
@@ -2803,10 +2803,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>44806</v>
+        <v>44810</v>
       </c>
       <c r="C173">
-        <v>60500</v>
+        <v>61750</v>
       </c>
       <c r="D173" t="s">
         <v>3</v>
@@ -2817,10 +2817,10 @@
         <v>172</v>
       </c>
       <c r="B174" s="2">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="C174">
-        <v>61775</v>
+        <v>60500</v>
       </c>
       <c r="D174" t="s">
         <v>3</v>
@@ -2831,10 +2831,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="2">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="C175">
-        <v>62770</v>
+        <v>61775</v>
       </c>
       <c r="D175" t="s">
         <v>3</v>
@@ -2845,10 +2845,10 @@
         <v>174</v>
       </c>
       <c r="B176" s="2">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="C176">
-        <v>63120</v>
+        <v>62770</v>
       </c>
       <c r="D176" t="s">
         <v>3</v>
@@ -2859,10 +2859,10 @@
         <v>175</v>
       </c>
       <c r="B177" s="2">
-        <v>44799</v>
+        <v>44803</v>
       </c>
       <c r="C177">
-        <v>64270</v>
+        <v>63120</v>
       </c>
       <c r="D177" t="s">
         <v>3</v>
@@ -2873,10 +2873,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="2">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="C178">
-        <v>63330</v>
+        <v>64270</v>
       </c>
       <c r="D178" t="s">
         <v>3</v>
@@ -2887,10 +2887,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="2">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="C179">
-        <v>63715</v>
+        <v>63330</v>
       </c>
       <c r="D179" t="s">
         <v>3</v>
@@ -2901,10 +2901,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="2">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="C180">
-        <v>63570</v>
+        <v>63715</v>
       </c>
       <c r="D180" t="s">
         <v>3</v>
@@ -2915,10 +2915,10 @@
         <v>179</v>
       </c>
       <c r="B181" s="2">
-        <v>44792</v>
+        <v>44796</v>
       </c>
       <c r="C181">
-        <v>62950</v>
+        <v>63570</v>
       </c>
       <c r="D181" t="s">
         <v>3</v>
@@ -2929,10 +2929,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="2">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="C182">
-        <v>62300</v>
+        <v>62950</v>
       </c>
       <c r="D182" t="s">
         <v>3</v>
@@ -2943,10 +2943,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="2">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="C183">
-        <v>62470</v>
+        <v>62300</v>
       </c>
       <c r="D183" t="s">
         <v>3</v>
@@ -2957,10 +2957,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="2">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="C184">
-        <v>62460</v>
+        <v>62470</v>
       </c>
       <c r="D184" t="s">
         <v>3</v>
@@ -2971,10 +2971,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="2">
-        <v>44785</v>
+        <v>44789</v>
       </c>
       <c r="C185">
-        <v>63000</v>
+        <v>62460</v>
       </c>
       <c r="D185" t="s">
         <v>3</v>
@@ -2985,10 +2985,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="2">
-        <v>44784</v>
+        <v>44785</v>
       </c>
       <c r="C186">
-        <v>62520</v>
+        <v>63000</v>
       </c>
       <c r="D186" t="s">
         <v>3</v>
@@ -2999,10 +2999,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="2">
-        <v>44783</v>
+        <v>44784</v>
       </c>
       <c r="C187">
-        <v>61780</v>
+        <v>62520</v>
       </c>
       <c r="D187" t="s">
         <v>3</v>
@@ -3013,10 +3013,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="2">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="C188">
-        <v>61540</v>
+        <v>61780</v>
       </c>
       <c r="D188" t="s">
         <v>3</v>
@@ -3027,10 +3027,10 @@
         <v>187</v>
       </c>
       <c r="B189" s="2">
-        <v>44778</v>
+        <v>44782</v>
       </c>
       <c r="C189">
-        <v>60520</v>
+        <v>61540</v>
       </c>
       <c r="D189" t="s">
         <v>3</v>
@@ -3041,10 +3041,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="2">
-        <v>44777</v>
+        <v>44778</v>
       </c>
       <c r="C190">
-        <v>59930</v>
+        <v>60520</v>
       </c>
       <c r="D190" t="s">
         <v>3</v>
@@ -3055,10 +3055,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="2">
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="C191">
-        <v>60260</v>
+        <v>59930</v>
       </c>
       <c r="D191" t="s">
         <v>3</v>
@@ -3069,10 +3069,10 @@
         <v>190</v>
       </c>
       <c r="B192" s="2">
-        <v>44775</v>
+        <v>44776</v>
       </c>
       <c r="C192">
-        <v>60180</v>
+        <v>60260</v>
       </c>
       <c r="D192" t="s">
         <v>3</v>
@@ -3083,10 +3083,10 @@
         <v>191</v>
       </c>
       <c r="B193" s="2">
-        <v>44771</v>
+        <v>44775</v>
       </c>
       <c r="C193">
-        <v>60315</v>
+        <v>60180</v>
       </c>
       <c r="D193" t="s">
         <v>3</v>
@@ -3097,10 +3097,10 @@
         <v>192</v>
       </c>
       <c r="B194" s="2">
-        <v>44770</v>
+        <v>44771</v>
       </c>
       <c r="C194">
-        <v>60090</v>
+        <v>60315</v>
       </c>
       <c r="D194" t="s">
         <v>3</v>
@@ -3111,10 +3111,10 @@
         <v>193</v>
       </c>
       <c r="B195" s="2">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="C195">
-        <v>58710</v>
+        <v>60090</v>
       </c>
       <c r="D195" t="s">
         <v>3</v>
@@ -3125,10 +3125,10 @@
         <v>194</v>
       </c>
       <c r="B196" s="2">
-        <v>44768</v>
+        <v>44769</v>
       </c>
       <c r="C196">
-        <v>58930</v>
+        <v>58710</v>
       </c>
       <c r="D196" t="s">
         <v>3</v>
@@ -3139,10 +3139,10 @@
         <v>195</v>
       </c>
       <c r="B197" s="2">
-        <v>44764</v>
+        <v>44768</v>
       </c>
       <c r="C197">
-        <v>57030</v>
+        <v>58930</v>
       </c>
       <c r="D197" t="s">
         <v>3</v>
@@ -3153,10 +3153,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="2">
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="C198">
-        <v>56360</v>
+        <v>57030</v>
       </c>
       <c r="D198" t="s">
         <v>3</v>
@@ -3167,10 +3167,10 @@
         <v>197</v>
       </c>
       <c r="B199" s="2">
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="C199">
-        <v>56920</v>
+        <v>56360</v>
       </c>
       <c r="D199" t="s">
         <v>3</v>
@@ -3181,10 +3181,10 @@
         <v>198</v>
       </c>
       <c r="B200" s="2">
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="C200">
-        <v>56210</v>
+        <v>56920</v>
       </c>
       <c r="D200" t="s">
         <v>3</v>
@@ -3195,10 +3195,10 @@
         <v>199</v>
       </c>
       <c r="B201" s="2">
-        <v>44757</v>
+        <v>44761</v>
       </c>
       <c r="C201">
-        <v>54890</v>
+        <v>56210</v>
       </c>
       <c r="D201" t="s">
         <v>3</v>
@@ -3209,10 +3209,10 @@
         <v>200</v>
       </c>
       <c r="B202" s="2">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="C202">
-        <v>56300</v>
+        <v>54890</v>
       </c>
       <c r="D202" t="s">
         <v>3</v>
@@ -3223,10 +3223,10 @@
         <v>201</v>
       </c>
       <c r="B203" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="C203">
-        <v>56460</v>
+        <v>56300</v>
       </c>
       <c r="D203" t="s">
         <v>3</v>
@@ -3237,10 +3237,10 @@
         <v>202</v>
       </c>
       <c r="B204" s="2">
-        <v>44754</v>
+        <v>44755</v>
       </c>
       <c r="C204">
-        <v>58430</v>
+        <v>56460</v>
       </c>
       <c r="D204" t="s">
         <v>3</v>
@@ -3251,10 +3251,10 @@
         <v>203</v>
       </c>
       <c r="B205" s="2">
-        <v>44750</v>
+        <v>44754</v>
       </c>
       <c r="C205">
-        <v>59600</v>
+        <v>58430</v>
       </c>
       <c r="D205" t="s">
         <v>3</v>
@@ -3265,10 +3265,10 @@
         <v>204</v>
       </c>
       <c r="B206" s="2">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="C206">
-        <v>58600</v>
+        <v>59600</v>
       </c>
       <c r="D206" t="s">
         <v>3</v>
@@ -3279,10 +3279,10 @@
         <v>205</v>
       </c>
       <c r="B207" s="2">
-        <v>44748</v>
+        <v>44749</v>
       </c>
       <c r="C207">
-        <v>58125</v>
+        <v>58600</v>
       </c>
       <c r="D207" t="s">
         <v>3</v>
@@ -3293,10 +3293,10 @@
         <v>206</v>
       </c>
       <c r="B208" s="2">
-        <v>44747</v>
+        <v>44748</v>
       </c>
       <c r="C208">
-        <v>61225</v>
+        <v>58125</v>
       </c>
       <c r="D208" t="s">
         <v>3</v>
@@ -3307,10 +3307,10 @@
         <v>207</v>
       </c>
       <c r="B209" s="2">
-        <v>44743</v>
+        <v>44747</v>
       </c>
       <c r="C209">
-        <v>62930</v>
+        <v>61225</v>
       </c>
       <c r="D209" t="s">
         <v>3</v>
@@ -3321,10 +3321,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="2">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="C210">
-        <v>64230</v>
+        <v>62930</v>
       </c>
       <c r="D210" t="s">
         <v>3</v>
@@ -3335,10 +3335,10 @@
         <v>209</v>
       </c>
       <c r="B211" s="2">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="C211">
-        <v>63940</v>
+        <v>64230</v>
       </c>
       <c r="D211" t="s">
         <v>3</v>
@@ -3349,10 +3349,10 @@
         <v>210</v>
       </c>
       <c r="B212" s="2">
-        <v>44740</v>
+        <v>44741</v>
       </c>
       <c r="C212">
-        <v>64150</v>
+        <v>63940</v>
       </c>
       <c r="D212" t="s">
         <v>3</v>
@@ -3363,10 +3363,10 @@
         <v>211</v>
       </c>
       <c r="B213" s="2">
-        <v>44736</v>
+        <v>44740</v>
       </c>
       <c r="C213">
-        <v>64340</v>
+        <v>64150</v>
       </c>
       <c r="D213" t="s">
         <v>3</v>
@@ -3377,10 +3377,10 @@
         <v>212</v>
       </c>
       <c r="B214" s="2">
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="C214">
-        <v>66050</v>
+        <v>64340</v>
       </c>
       <c r="D214" t="s">
         <v>3</v>
@@ -3391,10 +3391,10 @@
         <v>213</v>
       </c>
       <c r="B215" s="2">
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="C215">
-        <v>68160</v>
+        <v>66050</v>
       </c>
       <c r="D215" t="s">
         <v>3</v>
@@ -3405,10 +3405,10 @@
         <v>214</v>
       </c>
       <c r="B216" s="2">
-        <v>44733</v>
+        <v>44734</v>
       </c>
       <c r="C216">
-        <v>68700</v>
+        <v>68160</v>
       </c>
       <c r="D216" t="s">
         <v>3</v>
@@ -3419,10 +3419,10 @@
         <v>215</v>
       </c>
       <c r="B217" s="2">
-        <v>44729</v>
+        <v>44733</v>
       </c>
       <c r="C217">
-        <v>69975</v>
+        <v>68700</v>
       </c>
       <c r="D217" t="s">
         <v>3</v>
@@ -3433,10 +3433,10 @@
         <v>216</v>
       </c>
       <c r="B218" s="2">
-        <v>44728</v>
+        <v>44729</v>
       </c>
       <c r="C218">
-        <v>71255</v>
+        <v>69975</v>
       </c>
       <c r="D218" t="s">
         <v>3</v>
@@ -3447,10 +3447,10 @@
         <v>217</v>
       </c>
       <c r="B219" s="2">
-        <v>44727</v>
+        <v>44728</v>
       </c>
       <c r="C219">
-        <v>71250</v>
+        <v>71255</v>
       </c>
       <c r="D219" t="s">
         <v>3</v>
@@ -3461,10 +3461,10 @@
         <v>218</v>
       </c>
       <c r="B220" s="2">
-        <v>44722</v>
+        <v>44727</v>
       </c>
       <c r="C220">
-        <v>72750</v>
+        <v>71250</v>
       </c>
       <c r="D220" t="s">
         <v>3</v>
@@ -3475,10 +3475,10 @@
         <v>219</v>
       </c>
       <c r="B221" s="2">
-        <v>44721</v>
+        <v>44722</v>
       </c>
       <c r="C221">
-        <v>73030</v>
+        <v>72750</v>
       </c>
       <c r="D221" t="s">
         <v>3</v>
@@ -3489,10 +3489,10 @@
         <v>220</v>
       </c>
       <c r="B222" s="2">
-        <v>44720</v>
+        <v>44721</v>
       </c>
       <c r="C222">
-        <v>72890</v>
+        <v>73030</v>
       </c>
       <c r="D222" t="s">
         <v>3</v>
@@ -3503,10 +3503,10 @@
         <v>221</v>
       </c>
       <c r="B223" s="2">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="C223">
-        <v>72975</v>
+        <v>72890</v>
       </c>
       <c r="D223" t="s">
         <v>3</v>
@@ -3517,10 +3517,10 @@
         <v>222</v>
       </c>
       <c r="B224" s="2">
-        <v>44714</v>
+        <v>44719</v>
       </c>
       <c r="C224">
-        <v>72530</v>
+        <v>72975</v>
       </c>
       <c r="D224" t="s">
         <v>3</v>
@@ -3531,10 +3531,10 @@
         <v>223</v>
       </c>
       <c r="B225" s="2">
-        <v>44713</v>
+        <v>44714</v>
       </c>
       <c r="C225">
-        <v>72150</v>
+        <v>72530</v>
       </c>
       <c r="D225" t="s">
         <v>3</v>
@@ -3545,10 +3545,10 @@
         <v>224</v>
       </c>
       <c r="B226" s="2">
-        <v>44712</v>
+        <v>44713</v>
       </c>
       <c r="C226">
-        <v>72630</v>
+        <v>72150</v>
       </c>
       <c r="D226" t="s">
         <v>3</v>
@@ -3559,10 +3559,10 @@
         <v>225</v>
       </c>
       <c r="B227" s="2">
-        <v>44708</v>
+        <v>44712</v>
       </c>
       <c r="C227">
-        <v>72625</v>
+        <v>72630</v>
       </c>
       <c r="D227" t="s">
         <v>3</v>
@@ -3573,10 +3573,10 @@
         <v>226</v>
       </c>
       <c r="B228" s="2">
-        <v>44707</v>
+        <v>44708</v>
       </c>
       <c r="C228">
-        <v>71950</v>
+        <v>72625</v>
       </c>
       <c r="D228" t="s">
         <v>3</v>
@@ -3587,10 +3587,10 @@
         <v>227</v>
       </c>
       <c r="B229" s="2">
-        <v>44706</v>
+        <v>44707</v>
       </c>
       <c r="C229">
-        <v>72220</v>
+        <v>71950</v>
       </c>
       <c r="D229" t="s">
         <v>3</v>
@@ -3601,10 +3601,10 @@
         <v>228</v>
       </c>
       <c r="B230" s="2">
-        <v>44705</v>
+        <v>44706</v>
       </c>
       <c r="C230">
-        <v>72500</v>
+        <v>72220</v>
       </c>
       <c r="D230" t="s">
         <v>3</v>
@@ -3615,10 +3615,10 @@
         <v>229</v>
       </c>
       <c r="B231" s="2">
-        <v>44701</v>
+        <v>44705</v>
       </c>
       <c r="C231">
-        <v>72150</v>
+        <v>72500</v>
       </c>
       <c r="D231" t="s">
         <v>3</v>
@@ -3629,10 +3629,10 @@
         <v>230</v>
       </c>
       <c r="B232" s="2">
-        <v>44700</v>
+        <v>44701</v>
       </c>
       <c r="C232">
-        <v>71775</v>
+        <v>72150</v>
       </c>
       <c r="D232" t="s">
         <v>3</v>
@@ -3643,10 +3643,10 @@
         <v>231</v>
       </c>
       <c r="B233" s="2">
-        <v>44699</v>
+        <v>44700</v>
       </c>
       <c r="C233">
-        <v>72070</v>
+        <v>71775</v>
       </c>
       <c r="D233" t="s">
         <v>3</v>
@@ -3657,10 +3657,10 @@
         <v>232</v>
       </c>
       <c r="B234" s="2">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="C234">
-        <v>72175</v>
+        <v>72070</v>
       </c>
       <c r="D234" t="s">
         <v>3</v>
@@ -3671,10 +3671,10 @@
         <v>233</v>
       </c>
       <c r="B235" s="2">
-        <v>44694</v>
+        <v>44698</v>
       </c>
       <c r="C235">
-        <v>71160</v>
+        <v>72175</v>
       </c>
       <c r="D235" t="s">
         <v>3</v>
@@ -3685,10 +3685,10 @@
         <v>234</v>
       </c>
       <c r="B236" s="2">
-        <v>44693</v>
+        <v>44694</v>
       </c>
       <c r="C236">
-        <v>72050</v>
+        <v>71160</v>
       </c>
       <c r="D236" t="s">
         <v>3</v>
@@ -3699,10 +3699,10 @@
         <v>235</v>
       </c>
       <c r="B237" s="2">
-        <v>44687</v>
+        <v>44693</v>
       </c>
       <c r="C237">
-        <v>72875</v>
+        <v>72050</v>
       </c>
       <c r="D237" t="s">
         <v>3</v>
@@ -3713,10 +3713,10 @@
         <v>236</v>
       </c>
       <c r="B238" s="2">
-        <v>44686</v>
+        <v>44687</v>
       </c>
       <c r="C238">
-        <v>73760</v>
+        <v>72875</v>
       </c>
       <c r="D238" t="s">
         <v>3</v>
@@ -3727,10 +3727,10 @@
         <v>237</v>
       </c>
       <c r="B239" s="2">
-        <v>44680</v>
+        <v>44686</v>
       </c>
       <c r="C239">
-        <v>73930</v>
+        <v>73760</v>
       </c>
       <c r="D239" t="s">
         <v>3</v>
@@ -3741,10 +3741,10 @@
         <v>238</v>
       </c>
       <c r="B240" s="2">
-        <v>44679</v>
+        <v>44680</v>
       </c>
       <c r="C240">
-        <v>74005</v>
+        <v>73930</v>
       </c>
       <c r="D240" t="s">
         <v>3</v>
@@ -3755,10 +3755,10 @@
         <v>239</v>
       </c>
       <c r="B241" s="2">
-        <v>44678</v>
+        <v>44679</v>
       </c>
       <c r="C241">
-        <v>73770</v>
+        <v>74005</v>
       </c>
       <c r="D241" t="s">
         <v>3</v>
@@ -3769,10 +3769,10 @@
         <v>240</v>
       </c>
       <c r="B242" s="2">
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="C242">
-        <v>73950</v>
+        <v>73770</v>
       </c>
       <c r="D242" t="s">
         <v>3</v>
@@ -3783,10 +3783,10 @@
         <v>241</v>
       </c>
       <c r="B243" s="2">
-        <v>44673</v>
+        <v>44677</v>
       </c>
       <c r="C243">
-        <v>75070</v>
+        <v>73950</v>
       </c>
       <c r="D243" t="s">
         <v>3</v>
@@ -3797,10 +3797,10 @@
         <v>242</v>
       </c>
       <c r="B244" s="2">
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="C244">
-        <v>74850</v>
+        <v>75070</v>
       </c>
       <c r="D244" t="s">
         <v>3</v>
@@ -3811,10 +3811,10 @@
         <v>243</v>
       </c>
       <c r="B245" s="2">
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="C245">
-        <v>74740</v>
+        <v>74850</v>
       </c>
       <c r="D245" t="s">
         <v>3</v>
@@ -3825,10 +3825,10 @@
         <v>244</v>
       </c>
       <c r="B246" s="2">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="C246">
-        <v>75575</v>
+        <v>74740</v>
       </c>
       <c r="D246" t="s">
         <v>3</v>
@@ -3839,10 +3839,10 @@
         <v>245</v>
       </c>
       <c r="B247" s="2">
-        <v>44666</v>
+        <v>44670</v>
       </c>
       <c r="C247">
-        <v>75385</v>
+        <v>75575</v>
       </c>
       <c r="D247" t="s">
         <v>3</v>
@@ -3853,10 +3853,10 @@
         <v>246</v>
       </c>
       <c r="B248" s="2">
-        <v>44665</v>
+        <v>44666</v>
       </c>
       <c r="C248">
-        <v>74370</v>
+        <v>75385</v>
       </c>
       <c r="D248" t="s">
         <v>3</v>
@@ -3867,10 +3867,10 @@
         <v>247</v>
       </c>
       <c r="B249" s="2">
-        <v>44664</v>
+        <v>44665</v>
       </c>
       <c r="C249">
-        <v>74550</v>
+        <v>74370</v>
       </c>
       <c r="D249" t="s">
         <v>3</v>
@@ -3881,10 +3881,10 @@
         <v>248</v>
       </c>
       <c r="B250" s="2">
-        <v>44663</v>
+        <v>44664</v>
       </c>
       <c r="C250">
-        <v>73790</v>
+        <v>74550</v>
       </c>
       <c r="D250" t="s">
         <v>3</v>
@@ -3895,10 +3895,10 @@
         <v>249</v>
       </c>
       <c r="B251" s="2">
-        <v>44659</v>
+        <v>44663</v>
       </c>
       <c r="C251">
-        <v>73765</v>
+        <v>73790</v>
       </c>
       <c r="D251" t="s">
         <v>3</v>
@@ -3909,10 +3909,10 @@
         <v>250</v>
       </c>
       <c r="B252" s="2">
-        <v>44658</v>
+        <v>44659</v>
       </c>
       <c r="C252">
-        <v>73690</v>
+        <v>73765</v>
       </c>
       <c r="D252" t="s">
         <v>3</v>
@@ -3923,10 +3923,10 @@
         <v>251</v>
       </c>
       <c r="B253" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C253">
-        <v>74000</v>
+        <v>73690</v>
       </c>
       <c r="D253" t="s">
         <v>3</v>
@@ -3937,10 +3937,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="2">
-        <v>44652</v>
+        <v>44657</v>
       </c>
       <c r="C254">
-        <v>73635</v>
+        <v>74000</v>
       </c>
       <c r="D254" t="s">
         <v>3</v>
@@ -3951,10 +3951,10 @@
         <v>253</v>
       </c>
       <c r="B255" s="2">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="C255">
-        <v>73575</v>
+        <v>73635</v>
       </c>
       <c r="D255" t="s">
         <v>3</v>
@@ -3965,10 +3965,10 @@
         <v>254</v>
       </c>
       <c r="B256" s="2">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="C256">
-        <v>73980</v>
+        <v>73575</v>
       </c>
       <c r="D256" t="s">
         <v>3</v>
@@ -3979,10 +3979,10 @@
         <v>255</v>
       </c>
       <c r="B257" s="2">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="C257">
-        <v>74100</v>
+        <v>73980</v>
       </c>
       <c r="D257" t="s">
         <v>3</v>
@@ -3993,10 +3993,10 @@
         <v>256</v>
       </c>
       <c r="B258" s="2">
-        <v>44645</v>
+        <v>44649</v>
       </c>
       <c r="C258">
-        <v>73775</v>
+        <v>74100</v>
       </c>
       <c r="D258" t="s">
         <v>3</v>
@@ -4007,10 +4007,10 @@
         <v>257</v>
       </c>
       <c r="B259" s="2">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="C259">
-        <v>73880</v>
+        <v>73775</v>
       </c>
       <c r="D259" t="s">
         <v>3</v>
@@ -4021,10 +4021,10 @@
         <v>258</v>
       </c>
       <c r="B260" s="2">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="C260">
-        <v>73410</v>
+        <v>73880</v>
       </c>
       <c r="D260" t="s">
         <v>3</v>
@@ -4035,10 +4035,10 @@
         <v>259</v>
       </c>
       <c r="B261" s="2">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="C261">
-        <v>73510</v>
+        <v>73410</v>
       </c>
       <c r="D261" t="s">
         <v>3</v>
@@ -4049,10 +4049,10 @@
         <v>260</v>
       </c>
       <c r="B262" s="2">
-        <v>44638</v>
+        <v>44642</v>
       </c>
       <c r="C262">
-        <v>73310</v>
+        <v>73510</v>
       </c>
       <c r="D262" t="s">
         <v>3</v>
@@ -4063,10 +4063,10 @@
         <v>261</v>
       </c>
       <c r="B263" s="2">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="C263">
-        <v>72740</v>
+        <v>73310</v>
       </c>
       <c r="D263" t="s">
         <v>3</v>
@@ -4077,10 +4077,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="C264">
-        <v>72060</v>
+        <v>72740</v>
       </c>
       <c r="D264" t="s">
         <v>3</v>
@@ -4091,10 +4091,10 @@
         <v>263</v>
       </c>
       <c r="B265" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="C265">
-        <v>71790</v>
+        <v>72060</v>
       </c>
       <c r="D265" t="s">
         <v>3</v>
@@ -4105,10 +4105,10 @@
         <v>264</v>
       </c>
       <c r="B266" s="2">
-        <v>44631</v>
+        <v>44635</v>
       </c>
       <c r="C266">
-        <v>72170</v>
+        <v>71790</v>
       </c>
       <c r="D266" t="s">
         <v>3</v>
@@ -4119,10 +4119,10 @@
         <v>265</v>
       </c>
       <c r="B267" s="2">
-        <v>44630</v>
+        <v>44631</v>
       </c>
       <c r="C267">
-        <v>72080</v>
+        <v>72170</v>
       </c>
       <c r="D267" t="s">
         <v>3</v>
@@ -4133,10 +4133,10 @@
         <v>266</v>
       </c>
       <c r="B268" s="2">
-        <v>44624</v>
+        <v>44630</v>
       </c>
       <c r="C268">
-        <v>72930</v>
+        <v>72080</v>
       </c>
       <c r="D268" t="s">
         <v>3</v>
@@ -4147,10 +4147,10 @@
         <v>267</v>
       </c>
       <c r="B269" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="C269">
-        <v>72540</v>
+        <v>72930</v>
       </c>
       <c r="D269" t="s">
         <v>3</v>
@@ -4161,10 +4161,10 @@
         <v>268</v>
       </c>
       <c r="B270" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="C270">
-        <v>71520</v>
+        <v>72540</v>
       </c>
       <c r="D270" t="s">
         <v>3</v>
@@ -4175,10 +4175,10 @@
         <v>269</v>
       </c>
       <c r="B271" s="2">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="C271">
-        <v>70880</v>
+        <v>71520</v>
       </c>
       <c r="D271" t="s">
         <v>3</v>
@@ -4189,10 +4189,10 @@
         <v>270</v>
       </c>
       <c r="B272" s="2">
-        <v>44617</v>
+        <v>44621</v>
       </c>
       <c r="C272">
-        <v>71010</v>
+        <v>70880</v>
       </c>
       <c r="D272" t="s">
         <v>3</v>
@@ -4203,10 +4203,10 @@
         <v>271</v>
       </c>
       <c r="B273" s="2">
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="C273">
-        <v>71170</v>
+        <v>71010</v>
       </c>
       <c r="D273" t="s">
         <v>3</v>
@@ -4217,10 +4217,10 @@
         <v>272</v>
       </c>
       <c r="B274" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="C274">
-        <v>71140</v>
+        <v>71170</v>
       </c>
       <c r="D274" t="s">
         <v>3</v>
@@ -4231,10 +4231,10 @@
         <v>273</v>
       </c>
       <c r="B275" s="2">
-        <v>44610</v>
+        <v>44614</v>
       </c>
       <c r="C275">
-        <v>71525</v>
+        <v>71140</v>
       </c>
       <c r="D275" t="s">
         <v>3</v>
@@ -4245,10 +4245,10 @@
         <v>274</v>
       </c>
       <c r="B276" s="2">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="C276">
-        <v>71550</v>
+        <v>71525</v>
       </c>
       <c r="D276" t="s">
         <v>3</v>
@@ -4259,7 +4259,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="C277">
         <v>71550</v>
@@ -4273,10 +4273,10 @@
         <v>276</v>
       </c>
       <c r="B278" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="C278">
-        <v>71090</v>
+        <v>71550</v>
       </c>
       <c r="D278" t="s">
         <v>3</v>
@@ -4287,10 +4287,10 @@
         <v>277</v>
       </c>
       <c r="B279" s="2">
-        <v>44603</v>
+        <v>44607</v>
       </c>
       <c r="C279">
-        <v>72580</v>
+        <v>71090</v>
       </c>
       <c r="D279" t="s">
         <v>3</v>
@@ -4301,10 +4301,10 @@
         <v>278</v>
       </c>
       <c r="B280" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="C280">
-        <v>72210</v>
+        <v>72580</v>
       </c>
       <c r="D280" t="s">
         <v>3</v>
@@ -4315,10 +4315,10 @@
         <v>279</v>
       </c>
       <c r="B281" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="C281">
-        <v>70500</v>
+        <v>72210</v>
       </c>
       <c r="D281" t="s">
         <v>3</v>
@@ -4329,10 +4329,10 @@
         <v>280</v>
       </c>
       <c r="B282" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="C282">
-        <v>70690</v>
+        <v>70500</v>
       </c>
       <c r="D282" t="s">
         <v>3</v>
@@ -4343,10 +4343,10 @@
         <v>281</v>
       </c>
       <c r="B283" s="2">
-        <v>44589</v>
+        <v>44600</v>
       </c>
       <c r="C283">
-        <v>70480</v>
+        <v>70690</v>
       </c>
       <c r="D283" t="s">
         <v>3</v>
@@ -4357,10 +4357,10 @@
         <v>282</v>
       </c>
       <c r="B284" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="C284">
-        <v>70400</v>
+        <v>70480</v>
       </c>
       <c r="D284" t="s">
         <v>3</v>
@@ -4371,10 +4371,10 @@
         <v>283</v>
       </c>
       <c r="B285" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="C285">
-        <v>70270</v>
+        <v>70400</v>
       </c>
       <c r="D285" t="s">
         <v>3</v>
@@ -4385,10 +4385,10 @@
         <v>284</v>
       </c>
       <c r="B286" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="C286">
-        <v>70040</v>
+        <v>70270</v>
       </c>
       <c r="D286" t="s">
         <v>3</v>
@@ -4399,10 +4399,10 @@
         <v>285</v>
       </c>
       <c r="B287" s="2">
-        <v>44582</v>
+        <v>44586</v>
       </c>
       <c r="C287">
-        <v>71000</v>
+        <v>70040</v>
       </c>
       <c r="D287" t="s">
         <v>3</v>
@@ -4413,10 +4413,10 @@
         <v>286</v>
       </c>
       <c r="B288" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="C288">
-        <v>70930</v>
+        <v>71000</v>
       </c>
       <c r="D288" t="s">
         <v>3</v>
@@ -4427,10 +4427,10 @@
         <v>287</v>
       </c>
       <c r="B289" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="C289">
-        <v>70330</v>
+        <v>70930</v>
       </c>
       <c r="D289" t="s">
         <v>3</v>
@@ -4441,10 +4441,10 @@
         <v>288</v>
       </c>
       <c r="B290" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="C290">
-        <v>70525</v>
+        <v>70330</v>
       </c>
       <c r="D290" t="s">
         <v>3</v>
@@ -4455,10 +4455,10 @@
         <v>289</v>
       </c>
       <c r="B291" s="2">
-        <v>44575</v>
+        <v>44579</v>
       </c>
       <c r="C291">
-        <v>71570</v>
+        <v>70525</v>
       </c>
       <c r="D291" t="s">
         <v>3</v>
@@ -4469,10 +4469,10 @@
         <v>290</v>
       </c>
       <c r="B292" s="2">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C292">
-        <v>72130</v>
+        <v>71570</v>
       </c>
       <c r="D292" t="s">
         <v>3</v>
@@ -4483,10 +4483,10 @@
         <v>291</v>
       </c>
       <c r="B293" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C293">
-        <v>70850</v>
+        <v>72130</v>
       </c>
       <c r="D293" t="s">
         <v>3</v>
@@ -4497,10 +4497,10 @@
         <v>292</v>
       </c>
       <c r="B294" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="C294">
-        <v>69900</v>
+        <v>70850</v>
       </c>
       <c r="D294" t="s">
         <v>3</v>
@@ -4511,10 +4511,10 @@
         <v>293</v>
       </c>
       <c r="B295" s="2">
-        <v>44561</v>
+        <v>44572</v>
       </c>
       <c r="C295">
-        <v>69910</v>
+        <v>69900</v>
       </c>
       <c r="D295" t="s">
         <v>3</v>
@@ -4525,10 +4525,10 @@
         <v>294</v>
       </c>
       <c r="B296" s="2">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="C296">
-        <v>70020</v>
+        <v>69910</v>
       </c>
       <c r="D296" t="s">
         <v>3</v>
@@ -4539,10 +4539,10 @@
         <v>295</v>
       </c>
       <c r="B297" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="C297">
-        <v>70060</v>
+        <v>70020</v>
       </c>
       <c r="D297" t="s">
         <v>3</v>
@@ -4553,10 +4553,10 @@
         <v>296</v>
       </c>
       <c r="B298" s="2">
-        <v>44558</v>
+        <v>44559</v>
       </c>
       <c r="C298">
-        <v>70270</v>
+        <v>70060</v>
       </c>
       <c r="D298" t="s">
         <v>3</v>
@@ -4567,10 +4567,10 @@
         <v>297</v>
       </c>
       <c r="B299" s="2">
-        <v>44554</v>
+        <v>44558</v>
       </c>
       <c r="C299">
-        <v>69840</v>
+        <v>70270</v>
       </c>
       <c r="D299" t="s">
         <v>3</v>
@@ -4581,10 +4581,10 @@
         <v>298</v>
       </c>
       <c r="B300" s="2">
-        <v>44553</v>
+        <v>44554</v>
       </c>
       <c r="C300">
-        <v>69850</v>
+        <v>69840</v>
       </c>
       <c r="D300" t="s">
         <v>3</v>
@@ -4595,10 +4595,10 @@
         <v>299</v>
       </c>
       <c r="B301" s="2">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="C301">
-        <v>69520</v>
+        <v>69850</v>
       </c>
       <c r="D301" t="s">
         <v>3</v>
@@ -4609,10 +4609,10 @@
         <v>300</v>
       </c>
       <c r="B302" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="C302">
-        <v>69385</v>
+        <v>69520</v>
       </c>
       <c r="D302" t="s">
         <v>3</v>
@@ -4623,10 +4623,10 @@
         <v>301</v>
       </c>
       <c r="B303" s="2">
-        <v>44547</v>
+        <v>44551</v>
       </c>
       <c r="C303">
-        <v>69525</v>
+        <v>69385</v>
       </c>
       <c r="D303" t="s">
         <v>3</v>
@@ -4637,10 +4637,10 @@
         <v>302</v>
       </c>
       <c r="B304" s="2">
-        <v>44546</v>
+        <v>44547</v>
       </c>
       <c r="C304">
-        <v>68570</v>
+        <v>69525</v>
       </c>
       <c r="D304" t="s">
         <v>3</v>
@@ -4651,10 +4651,10 @@
         <v>303</v>
       </c>
       <c r="B305" s="2">
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="C305">
-        <v>68875</v>
+        <v>68570</v>
       </c>
       <c r="D305" t="s">
         <v>3</v>
@@ -4665,10 +4665,10 @@
         <v>304</v>
       </c>
       <c r="B306" s="2">
-        <v>44544</v>
+        <v>44545</v>
       </c>
       <c r="C306">
-        <v>68900</v>
+        <v>68875</v>
       </c>
       <c r="D306" t="s">
         <v>3</v>
@@ -4679,10 +4679,10 @@
         <v>305</v>
       </c>
       <c r="B307" s="2">
-        <v>44540</v>
+        <v>44544</v>
       </c>
       <c r="C307">
-        <v>69750</v>
+        <v>68900</v>
       </c>
       <c r="D307" t="s">
         <v>3</v>
@@ -4693,10 +4693,10 @@
         <v>306</v>
       </c>
       <c r="B308" s="2">
-        <v>44539</v>
+        <v>44540</v>
       </c>
       <c r="C308">
-        <v>69980</v>
+        <v>69750</v>
       </c>
       <c r="D308" t="s">
         <v>3</v>
@@ -4707,10 +4707,10 @@
         <v>307</v>
       </c>
       <c r="B309" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="C309">
-        <v>69815</v>
+        <v>69980</v>
       </c>
       <c r="D309" t="s">
         <v>3</v>
@@ -4721,10 +4721,10 @@
         <v>308</v>
       </c>
       <c r="B310" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="C310">
-        <v>69760</v>
+        <v>69815</v>
       </c>
       <c r="D310" t="s">
         <v>3</v>
@@ -4735,10 +4735,10 @@
         <v>309</v>
       </c>
       <c r="B311" s="2">
-        <v>44533</v>
+        <v>44537</v>
       </c>
       <c r="C311">
-        <v>69830</v>
+        <v>69760</v>
       </c>
       <c r="D311" t="s">
         <v>3</v>
@@ -4749,10 +4749,10 @@
         <v>310</v>
       </c>
       <c r="B312" s="2">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="C312">
-        <v>69900</v>
+        <v>69830</v>
       </c>
       <c r="D312" t="s">
         <v>3</v>
@@ -4763,10 +4763,10 @@
         <v>311</v>
       </c>
       <c r="B313" s="2">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="C313">
-        <v>70180</v>
+        <v>69900</v>
       </c>
       <c r="D313" t="s">
         <v>3</v>
@@ -4777,10 +4777,10 @@
         <v>312</v>
       </c>
       <c r="B314" s="2">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="C314">
-        <v>70650</v>
+        <v>70180</v>
       </c>
       <c r="D314" t="s">
         <v>3</v>
@@ -4791,10 +4791,10 @@
         <v>313</v>
       </c>
       <c r="B315" s="2">
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="C315">
-        <v>71610</v>
+        <v>70650</v>
       </c>
       <c r="D315" t="s">
         <v>3</v>
@@ -4805,10 +4805,10 @@
         <v>314</v>
       </c>
       <c r="B316" s="2">
-        <v>44525</v>
+        <v>44526</v>
       </c>
       <c r="C316">
-        <v>72330</v>
+        <v>71610</v>
       </c>
       <c r="D316" t="s">
         <v>3</v>
@@ -4819,10 +4819,10 @@
         <v>315</v>
       </c>
       <c r="B317" s="2">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="C317">
-        <v>71820</v>
+        <v>72330</v>
       </c>
       <c r="D317" t="s">
         <v>3</v>
@@ -4833,10 +4833,10 @@
         <v>316</v>
       </c>
       <c r="B318" s="2">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="C318">
-        <v>72510</v>
+        <v>71820</v>
       </c>
       <c r="D318" t="s">
         <v>3</v>
@@ -4847,10 +4847,10 @@
         <v>317</v>
       </c>
       <c r="B319" s="2">
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="C319">
-        <v>72250</v>
+        <v>72510</v>
       </c>
       <c r="D319" t="s">
         <v>3</v>
@@ -4861,10 +4861,10 @@
         <v>318</v>
       </c>
       <c r="B320" s="2">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="C320">
-        <v>70350</v>
+        <v>72250</v>
       </c>
       <c r="D320" t="s">
         <v>3</v>
@@ -4875,10 +4875,10 @@
         <v>319</v>
       </c>
       <c r="B321" s="2">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="C321">
-        <v>70955</v>
+        <v>70350</v>
       </c>
       <c r="D321" t="s">
         <v>3</v>
@@ -4889,10 +4889,10 @@
         <v>320</v>
       </c>
       <c r="B322" s="2">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="C322">
-        <v>71750</v>
+        <v>70955</v>
       </c>
       <c r="D322" t="s">
         <v>3</v>
@@ -4903,10 +4903,10 @@
         <v>321</v>
       </c>
       <c r="B323" s="2">
-        <v>44512</v>
+        <v>44516</v>
       </c>
       <c r="C323">
-        <v>71435</v>
+        <v>71750</v>
       </c>
       <c r="D323" t="s">
         <v>3</v>
@@ -4917,10 +4917,10 @@
         <v>322</v>
       </c>
       <c r="B324" s="2">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="C324">
-        <v>70780</v>
+        <v>71435</v>
       </c>
       <c r="D324" t="s">
         <v>3</v>
@@ -4931,10 +4931,10 @@
         <v>323</v>
       </c>
       <c r="B325" s="2">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="C325">
-        <v>70650</v>
+        <v>70780</v>
       </c>
       <c r="D325" t="s">
         <v>3</v>
@@ -4945,10 +4945,10 @@
         <v>324</v>
       </c>
       <c r="B326" s="2">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="C326">
-        <v>71110</v>
+        <v>70650</v>
       </c>
       <c r="D326" t="s">
         <v>3</v>
@@ -4959,10 +4959,10 @@
         <v>325</v>
       </c>
       <c r="B327" s="2">
-        <v>44504</v>
+        <v>44509</v>
       </c>
       <c r="C327">
-        <v>71270</v>
+        <v>71110</v>
       </c>
       <c r="D327" t="s">
         <v>3</v>
@@ -4973,10 +4973,10 @@
         <v>326</v>
       </c>
       <c r="B328" s="2">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="C328">
-        <v>70910</v>
+        <v>71270</v>
       </c>
       <c r="D328" t="s">
         <v>3</v>
@@ -4987,10 +4987,10 @@
         <v>327</v>
       </c>
       <c r="B329" s="2">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="C329">
-        <v>71180</v>
+        <v>70910</v>
       </c>
       <c r="D329" t="s">
         <v>3</v>
@@ -5001,10 +5001,10 @@
         <v>328</v>
       </c>
       <c r="B330" s="2">
-        <v>44498</v>
+        <v>44502</v>
       </c>
       <c r="C330">
-        <v>71575</v>
+        <v>71180</v>
       </c>
       <c r="D330" t="s">
         <v>3</v>
@@ -5015,10 +5015,10 @@
         <v>329</v>
       </c>
       <c r="B331" s="2">
-        <v>44497</v>
+        <v>44498</v>
       </c>
       <c r="C331">
-        <v>70770</v>
+        <v>71575</v>
       </c>
       <c r="D331" t="s">
         <v>3</v>
@@ -5029,10 +5029,10 @@
         <v>330</v>
       </c>
       <c r="B332" s="2">
-        <v>44496</v>
+        <v>44497</v>
       </c>
       <c r="C332">
-        <v>72060</v>
+        <v>70770</v>
       </c>
       <c r="D332" t="s">
         <v>3</v>
@@ -5043,10 +5043,10 @@
         <v>331</v>
       </c>
       <c r="B333" s="2">
-        <v>44495</v>
+        <v>44496</v>
       </c>
       <c r="C333">
-        <v>72585</v>
+        <v>72060</v>
       </c>
       <c r="D333" t="s">
         <v>3</v>
@@ -5057,10 +5057,10 @@
         <v>332</v>
       </c>
       <c r="B334" s="2">
-        <v>44491</v>
+        <v>44495</v>
       </c>
       <c r="C334">
-        <v>73125</v>
+        <v>72585</v>
       </c>
       <c r="D334" t="s">
         <v>3</v>
@@ -5071,10 +5071,10 @@
         <v>333</v>
       </c>
       <c r="B335" s="2">
-        <v>44490</v>
+        <v>44491</v>
       </c>
       <c r="C335">
-        <v>75190</v>
+        <v>73125</v>
       </c>
       <c r="D335" t="s">
         <v>3</v>
@@ -5085,10 +5085,10 @@
         <v>334</v>
       </c>
       <c r="B336" s="2">
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="C336">
-        <v>73430</v>
+        <v>75190</v>
       </c>
       <c r="D336" t="s">
         <v>3</v>
@@ -5099,10 +5099,10 @@
         <v>335</v>
       </c>
       <c r="B337" s="2">
-        <v>44488</v>
+        <v>44489</v>
       </c>
       <c r="C337">
-        <v>75750</v>
+        <v>73430</v>
       </c>
       <c r="D337" t="s">
         <v>3</v>
@@ -5113,10 +5113,10 @@
         <v>336</v>
       </c>
       <c r="B338" s="2">
-        <v>44484</v>
+        <v>44488</v>
       </c>
       <c r="C338">
-        <v>74060</v>
+        <v>75750</v>
       </c>
       <c r="D338" t="s">
         <v>3</v>
@@ -5127,10 +5127,10 @@
         <v>337</v>
       </c>
       <c r="B339" s="2">
-        <v>44483</v>
+        <v>44484</v>
       </c>
       <c r="C339">
-        <v>72540</v>
+        <v>74060</v>
       </c>
       <c r="D339" t="s">
         <v>3</v>
@@ -5141,10 +5141,10 @@
         <v>338</v>
       </c>
       <c r="B340" s="2">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="C340">
-        <v>70160</v>
+        <v>72540</v>
       </c>
       <c r="D340" t="s">
         <v>3</v>
@@ -5155,10 +5155,10 @@
         <v>339</v>
       </c>
       <c r="B341" s="2">
-        <v>44481</v>
+        <v>44482</v>
       </c>
       <c r="C341">
-        <v>70320</v>
+        <v>70160</v>
       </c>
       <c r="D341" t="s">
         <v>3</v>
@@ -5169,10 +5169,10 @@
         <v>340</v>
       </c>
       <c r="B342" s="2">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="C342">
-        <v>69940</v>
+        <v>70320</v>
       </c>
       <c r="D342" t="s">
         <v>3</v>
@@ -5183,10 +5183,10 @@
         <v>341</v>
       </c>
       <c r="B343" s="2">
-        <v>44469</v>
+        <v>44477</v>
       </c>
       <c r="C343">
-        <v>68700</v>
+        <v>69940</v>
       </c>
       <c r="D343" t="s">
         <v>3</v>
@@ -5197,10 +5197,10 @@
         <v>342</v>
       </c>
       <c r="B344" s="2">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="C344">
-        <v>68965</v>
+        <v>68700</v>
       </c>
       <c r="D344" t="s">
         <v>3</v>
@@ -5211,10 +5211,10 @@
         <v>343</v>
       </c>
       <c r="B345" s="2">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="C345">
-        <v>69520</v>
+        <v>68965</v>
       </c>
       <c r="D345" t="s">
         <v>3</v>
@@ -5225,10 +5225,10 @@
         <v>344</v>
       </c>
       <c r="B346" s="2">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="C346">
-        <v>69375</v>
+        <v>69520</v>
       </c>
       <c r="D346" t="s">
         <v>3</v>
@@ -5239,10 +5239,10 @@
         <v>345</v>
       </c>
       <c r="B347" s="2">
-        <v>44462</v>
+        <v>44463</v>
       </c>
       <c r="C347">
-        <v>69040</v>
+        <v>69375</v>
       </c>
       <c r="D347" t="s">
         <v>3</v>
@@ -5253,10 +5253,10 @@
         <v>346</v>
       </c>
       <c r="B348" s="2">
-        <v>44461</v>
+        <v>44462</v>
       </c>
       <c r="C348">
-        <v>69075</v>
+        <v>69040</v>
       </c>
       <c r="D348" t="s">
         <v>3</v>
@@ -5267,10 +5267,10 @@
         <v>347</v>
       </c>
       <c r="B349" s="2">
-        <v>44456</v>
+        <v>44461</v>
       </c>
       <c r="C349">
-        <v>69810</v>
+        <v>69075</v>
       </c>
       <c r="D349" t="s">
         <v>3</v>
@@ -5281,10 +5281,10 @@
         <v>348</v>
       </c>
       <c r="B350" s="2">
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="C350">
-        <v>70460</v>
+        <v>69810</v>
       </c>
       <c r="D350" t="s">
         <v>3</v>
@@ -5295,10 +5295,10 @@
         <v>349</v>
       </c>
       <c r="B351" s="2">
-        <v>44454</v>
+        <v>44455</v>
       </c>
       <c r="C351">
-        <v>69860</v>
+        <v>70460</v>
       </c>
       <c r="D351" t="s">
         <v>3</v>
@@ -5309,10 +5309,10 @@
         <v>350</v>
       </c>
       <c r="B352" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="C352">
-        <v>70520</v>
+        <v>69860</v>
       </c>
       <c r="D352" t="s">
         <v>3</v>
@@ -5323,10 +5323,10 @@
         <v>351</v>
       </c>
       <c r="B353" s="2">
-        <v>44449</v>
+        <v>44453</v>
       </c>
       <c r="C353">
-        <v>70035</v>
+        <v>70520</v>
       </c>
       <c r="D353" t="s">
         <v>3</v>
@@ -5337,10 +5337,10 @@
         <v>352</v>
       </c>
       <c r="B354" s="2">
-        <v>44448</v>
+        <v>44449</v>
       </c>
       <c r="C354">
-        <v>68850</v>
+        <v>70035</v>
       </c>
       <c r="D354" t="s">
         <v>3</v>
@@ -5351,10 +5351,10 @@
         <v>353</v>
       </c>
       <c r="B355" s="2">
-        <v>44447</v>
+        <v>44448</v>
       </c>
       <c r="C355">
-        <v>69250</v>
+        <v>68850</v>
       </c>
       <c r="D355" t="s">
         <v>3</v>
@@ -5365,10 +5365,10 @@
         <v>354</v>
       </c>
       <c r="B356" s="2">
-        <v>44446</v>
+        <v>44447</v>
       </c>
       <c r="C356">
-        <v>69580</v>
+        <v>69250</v>
       </c>
       <c r="D356" t="s">
         <v>3</v>
@@ -5379,10 +5379,10 @@
         <v>355</v>
       </c>
       <c r="B357" s="2">
-        <v>44442</v>
+        <v>44446</v>
       </c>
       <c r="C357">
-        <v>69575</v>
+        <v>69580</v>
       </c>
       <c r="D357" t="s">
         <v>3</v>
@@ -5393,10 +5393,10 @@
         <v>356</v>
       </c>
       <c r="B358" s="2">
-        <v>44441</v>
+        <v>44442</v>
       </c>
       <c r="C358">
-        <v>69460</v>
+        <v>69575</v>
       </c>
       <c r="D358" t="s">
         <v>3</v>
@@ -5407,10 +5407,10 @@
         <v>357</v>
       </c>
       <c r="B359" s="2">
-        <v>44440</v>
+        <v>44441</v>
       </c>
       <c r="C359">
-        <v>69940</v>
+        <v>69460</v>
       </c>
       <c r="D359" t="s">
         <v>3</v>
@@ -5421,10 +5421,10 @@
         <v>358</v>
       </c>
       <c r="B360" s="2">
-        <v>44439</v>
+        <v>44440</v>
       </c>
       <c r="C360">
-        <v>70315</v>
+        <v>69940</v>
       </c>
       <c r="D360" t="s">
         <v>3</v>
@@ -5435,10 +5435,10 @@
         <v>359</v>
       </c>
       <c r="B361" s="2">
-        <v>44435</v>
+        <v>44439</v>
       </c>
       <c r="C361">
-        <v>69185</v>
+        <v>70315</v>
       </c>
       <c r="D361" t="s">
         <v>3</v>
@@ -5449,10 +5449,10 @@
         <v>360</v>
       </c>
       <c r="B362" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="C362">
-        <v>69260</v>
+        <v>69185</v>
       </c>
       <c r="D362" t="s">
         <v>3</v>
@@ -5463,10 +5463,10 @@
         <v>361</v>
       </c>
       <c r="B363" s="2">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="C363">
-        <v>69600</v>
+        <v>69260</v>
       </c>
       <c r="D363" t="s">
         <v>3</v>
@@ -5477,10 +5477,10 @@
         <v>362</v>
       </c>
       <c r="B364" s="2">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="C364">
-        <v>68940</v>
+        <v>69600</v>
       </c>
       <c r="D364" t="s">
         <v>3</v>
@@ -5491,10 +5491,10 @@
         <v>363</v>
       </c>
       <c r="B365" s="2">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="C365">
-        <v>67260</v>
+        <v>68940</v>
       </c>
       <c r="D365" t="s">
         <v>3</v>
@@ -5505,10 +5505,10 @@
         <v>364</v>
       </c>
       <c r="B366" s="2">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="C366">
-        <v>67700</v>
+        <v>67260</v>
       </c>
       <c r="D366" t="s">
         <v>3</v>
@@ -5519,10 +5519,10 @@
         <v>365</v>
       </c>
       <c r="B367" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="C367">
-        <v>69240</v>
+        <v>67700</v>
       </c>
       <c r="D367" t="s">
         <v>3</v>
@@ -5533,10 +5533,10 @@
         <v>366</v>
       </c>
       <c r="B368" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="C368">
-        <v>70080</v>
+        <v>69240</v>
       </c>
       <c r="D368" t="s">
         <v>3</v>
@@ -5547,10 +5547,10 @@
         <v>367</v>
       </c>
       <c r="B369" s="2">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="C369">
-        <v>70240</v>
+        <v>70080</v>
       </c>
       <c r="D369" t="s">
         <v>3</v>
@@ -5561,10 +5561,10 @@
         <v>368</v>
       </c>
       <c r="B370" s="2">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="C370">
-        <v>70430</v>
+        <v>70240</v>
       </c>
       <c r="D370" t="s">
         <v>3</v>
@@ -5575,10 +5575,10 @@
         <v>369</v>
       </c>
       <c r="B371" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="C371">
-        <v>70000</v>
+        <v>70430</v>
       </c>
       <c r="D371" t="s">
         <v>3</v>
@@ -5589,10 +5589,10 @@
         <v>370</v>
       </c>
       <c r="B372" s="2">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="C372">
-        <v>69560</v>
+        <v>70000</v>
       </c>
       <c r="D372" t="s">
         <v>3</v>
@@ -5603,10 +5603,10 @@
         <v>371</v>
       </c>
       <c r="B373" s="2">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="C373">
-        <v>69800</v>
+        <v>69560</v>
       </c>
       <c r="D373" t="s">
         <v>3</v>
@@ -5617,10 +5617,10 @@
         <v>372</v>
       </c>
       <c r="B374" s="2">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="C374">
-        <v>69660</v>
+        <v>69800</v>
       </c>
       <c r="D374" t="s">
         <v>3</v>
@@ -5631,10 +5631,10 @@
         <v>373</v>
       </c>
       <c r="B375" s="2">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="C375">
-        <v>70290</v>
+        <v>69660</v>
       </c>
       <c r="D375" t="s">
         <v>3</v>
@@ -5645,10 +5645,10 @@
         <v>374</v>
       </c>
       <c r="B376" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="C376">
-        <v>71030</v>
+        <v>70290</v>
       </c>
       <c r="D376" t="s">
         <v>3</v>
@@ -5659,10 +5659,10 @@
         <v>375</v>
       </c>
       <c r="B377" s="2">
-        <v>44407</v>
+        <v>44411</v>
       </c>
       <c r="C377">
-        <v>71900</v>
+        <v>71030</v>
       </c>
       <c r="D377" t="s">
         <v>3</v>
@@ -5673,10 +5673,10 @@
         <v>376</v>
       </c>
       <c r="B378" s="2">
-        <v>44406</v>
+        <v>44407</v>
       </c>
       <c r="C378">
-        <v>71700</v>
+        <v>71900</v>
       </c>
       <c r="D378" t="s">
         <v>3</v>
@@ -5687,10 +5687,10 @@
         <v>377</v>
       </c>
       <c r="B379" s="2">
-        <v>44405</v>
+        <v>44406</v>
       </c>
       <c r="C379">
-        <v>72365</v>
+        <v>71700</v>
       </c>
       <c r="D379" t="s">
         <v>3</v>
@@ -5701,10 +5701,10 @@
         <v>378</v>
       </c>
       <c r="B380" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="C380">
-        <v>72520</v>
+        <v>72365</v>
       </c>
       <c r="D380" t="s">
         <v>3</v>
@@ -5715,10 +5715,10 @@
         <v>379</v>
       </c>
       <c r="B381" s="2">
-        <v>44400</v>
+        <v>44404</v>
       </c>
       <c r="C381">
-        <v>70090</v>
+        <v>72520</v>
       </c>
       <c r="D381" t="s">
         <v>3</v>
@@ -5729,10 +5729,10 @@
         <v>380</v>
       </c>
       <c r="B382" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="C382">
-        <v>69040</v>
+        <v>70090</v>
       </c>
       <c r="D382" t="s">
         <v>3</v>
@@ -5743,10 +5743,10 @@
         <v>381</v>
       </c>
       <c r="B383" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="C383">
-        <v>68600</v>
+        <v>69040</v>
       </c>
       <c r="D383" t="s">
         <v>3</v>
@@ -5757,10 +5757,10 @@
         <v>382</v>
       </c>
       <c r="B384" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="C384">
-        <v>68390</v>
+        <v>68600</v>
       </c>
       <c r="D384" t="s">
         <v>3</v>
@@ -5771,10 +5771,10 @@
         <v>383</v>
       </c>
       <c r="B385" s="2">
-        <v>44393</v>
+        <v>44397</v>
       </c>
       <c r="C385">
-        <v>69660</v>
+        <v>68390</v>
       </c>
       <c r="D385" t="s">
         <v>3</v>
@@ -5785,10 +5785,10 @@
         <v>384</v>
       </c>
       <c r="B386" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="C386">
-        <v>68830</v>
+        <v>69660</v>
       </c>
       <c r="D386" t="s">
         <v>3</v>
@@ -5799,10 +5799,10 @@
         <v>385</v>
       </c>
       <c r="B387" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="C387">
-        <v>68810</v>
+        <v>68830</v>
       </c>
       <c r="D387" t="s">
         <v>3</v>
@@ -5813,10 +5813,10 @@
         <v>386</v>
       </c>
       <c r="B388" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="C388">
-        <v>69370</v>
+        <v>68810</v>
       </c>
       <c r="D388" t="s">
         <v>3</v>
@@ -5827,10 +5827,10 @@
         <v>387</v>
       </c>
       <c r="B389" s="2">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="C389">
-        <v>68800</v>
+        <v>69370</v>
       </c>
       <c r="D389" t="s">
         <v>3</v>
@@ -5841,10 +5841,10 @@
         <v>388</v>
       </c>
       <c r="B390" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="C390">
-        <v>68900</v>
+        <v>68800</v>
       </c>
       <c r="D390" t="s">
         <v>3</v>
@@ -5855,10 +5855,10 @@
         <v>389</v>
       </c>
       <c r="B391" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="C391">
-        <v>68540</v>
+        <v>68900</v>
       </c>
       <c r="D391" t="s">
         <v>3</v>
@@ -5869,10 +5869,10 @@
         <v>390</v>
       </c>
       <c r="B392" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="C392">
-        <v>69700</v>
+        <v>68540</v>
       </c>
       <c r="D392" t="s">
         <v>3</v>
@@ -5883,10 +5883,10 @@
         <v>391</v>
       </c>
       <c r="B393" s="2">
-        <v>44379</v>
+        <v>44383</v>
       </c>
       <c r="C393">
-        <v>68050</v>
+        <v>69700</v>
       </c>
       <c r="D393" t="s">
         <v>3</v>
@@ -5897,10 +5897,10 @@
         <v>392</v>
       </c>
       <c r="B394" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="C394">
-        <v>68490</v>
+        <v>68050</v>
       </c>
       <c r="D394" t="s">
         <v>3</v>
@@ -5911,10 +5911,10 @@
         <v>393</v>
       </c>
       <c r="B395" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="C395">
-        <v>68380</v>
+        <v>68490</v>
       </c>
       <c r="D395" t="s">
         <v>3</v>
@@ -5925,10 +5925,10 @@
         <v>394</v>
       </c>
       <c r="B396" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="C396">
-        <v>68050</v>
+        <v>68380</v>
       </c>
       <c r="D396" t="s">
         <v>3</v>
@@ -5939,10 +5939,10 @@
         <v>395</v>
       </c>
       <c r="B397" s="2">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="C397">
-        <v>68825</v>
+        <v>68050</v>
       </c>
       <c r="D397" t="s">
         <v>3</v>
@@ -5953,10 +5953,10 @@
         <v>396</v>
       </c>
       <c r="B398" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="C398">
-        <v>68600</v>
+        <v>68825</v>
       </c>
       <c r="D398" t="s">
         <v>3</v>
@@ -5967,10 +5967,10 @@
         <v>397</v>
       </c>
       <c r="B399" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="C399">
-        <v>68270</v>
+        <v>68600</v>
       </c>
       <c r="D399" t="s">
         <v>3</v>
@@ -5981,10 +5981,10 @@
         <v>398</v>
       </c>
       <c r="B400" s="2">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="C400">
-        <v>67400</v>
+        <v>68270</v>
       </c>
       <c r="D400" t="s">
         <v>3</v>
@@ -5995,10 +5995,10 @@
         <v>399</v>
       </c>
       <c r="B401" s="2">
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="C401">
-        <v>67730</v>
+        <v>67400</v>
       </c>
       <c r="D401" t="s">
         <v>3</v>
@@ -6009,10 +6009,10 @@
         <v>400</v>
       </c>
       <c r="B402" s="2">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="C402">
-        <v>69170</v>
+        <v>67730</v>
       </c>
       <c r="D402" t="s">
         <v>3</v>
@@ -6023,10 +6023,10 @@
         <v>401</v>
       </c>
       <c r="B403" s="2">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="C403">
-        <v>69260</v>
+        <v>69170</v>
       </c>
       <c r="D403" t="s">
         <v>3</v>
@@ -6037,10 +6037,10 @@
         <v>402</v>
       </c>
       <c r="B404" s="2">
-        <v>44358</v>
+        <v>44363</v>
       </c>
       <c r="C404">
-        <v>70800</v>
+        <v>69260</v>
       </c>
       <c r="D404" t="s">
         <v>3</v>
@@ -6051,10 +6051,10 @@
         <v>403</v>
       </c>
       <c r="B405" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="C405">
-        <v>71210</v>
+        <v>70800</v>
       </c>
       <c r="D405" t="s">
         <v>3</v>
@@ -6065,10 +6065,10 @@
         <v>404</v>
       </c>
       <c r="B406" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="C406">
-        <v>71710</v>
+        <v>71210</v>
       </c>
       <c r="D406" t="s">
         <v>3</v>
@@ -6079,10 +6079,10 @@
         <v>405</v>
       </c>
       <c r="B407" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="C407">
-        <v>71310</v>
+        <v>71710</v>
       </c>
       <c r="D407" t="s">
         <v>3</v>
@@ -6093,10 +6093,10 @@
         <v>406</v>
       </c>
       <c r="B408" s="2">
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="C408">
-        <v>71090</v>
+        <v>71310</v>
       </c>
       <c r="D408" t="s">
         <v>3</v>
@@ -6107,10 +6107,10 @@
         <v>407</v>
       </c>
       <c r="B409" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="C409">
-        <v>72950</v>
+        <v>71090</v>
       </c>
       <c r="D409" t="s">
         <v>3</v>
@@ -6121,10 +6121,10 @@
         <v>408</v>
       </c>
       <c r="B410" s="2">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="C410">
-        <v>73580</v>
+        <v>72950</v>
       </c>
       <c r="D410" t="s">
         <v>3</v>
@@ -6135,10 +6135,10 @@
         <v>409</v>
       </c>
       <c r="B411" s="2">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="C411">
-        <v>73790</v>
+        <v>73580</v>
       </c>
       <c r="D411" t="s">
         <v>3</v>
@@ -6149,10 +6149,10 @@
         <v>410</v>
       </c>
       <c r="B412" s="2">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="C412">
-        <v>73380</v>
+        <v>73790</v>
       </c>
       <c r="D412" t="s">
         <v>3</v>
@@ -6163,10 +6163,10 @@
         <v>411</v>
       </c>
       <c r="B413" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="C413">
-        <v>71350</v>
+        <v>73380</v>
       </c>
       <c r="D413" t="s">
         <v>3</v>
@@ -6177,10 +6177,10 @@
         <v>412</v>
       </c>
       <c r="B414" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="C414">
-        <v>71720</v>
+        <v>71350</v>
       </c>
       <c r="D414" t="s">
         <v>3</v>
@@ -6191,10 +6191,10 @@
         <v>413</v>
       </c>
       <c r="B415" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="C415">
-        <v>72360</v>
+        <v>71720</v>
       </c>
       <c r="D415" t="s">
         <v>3</v>
@@ -6205,10 +6205,10 @@
         <v>414</v>
       </c>
       <c r="B416" s="2">
-        <v>44337</v>
+        <v>44341</v>
       </c>
       <c r="C416">
-        <v>71950</v>
+        <v>72360</v>
       </c>
       <c r="D416" t="s">
         <v>3</v>
@@ -6219,10 +6219,10 @@
         <v>415</v>
       </c>
       <c r="B417" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="C417">
-        <v>72525</v>
+        <v>71950</v>
       </c>
       <c r="D417" t="s">
         <v>3</v>
@@ -6233,10 +6233,10 @@
         <v>416</v>
       </c>
       <c r="B418" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="C418">
-        <v>74840</v>
+        <v>72525</v>
       </c>
       <c r="D418" t="s">
         <v>3</v>
@@ -6247,10 +6247,10 @@
         <v>417</v>
       </c>
       <c r="B419" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="C419">
-        <v>75720</v>
+        <v>74840</v>
       </c>
       <c r="D419" t="s">
         <v>3</v>
@@ -6261,10 +6261,10 @@
         <v>418</v>
       </c>
       <c r="B420" s="2">
-        <v>44330</v>
+        <v>44334</v>
       </c>
       <c r="C420">
-        <v>74760</v>
+        <v>75720</v>
       </c>
       <c r="D420" t="s">
         <v>3</v>
@@ -6275,10 +6275,10 @@
         <v>419</v>
       </c>
       <c r="B421" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="C421">
-        <v>75910</v>
+        <v>74760</v>
       </c>
       <c r="D421" t="s">
         <v>3</v>
@@ -6289,10 +6289,10 @@
         <v>420</v>
       </c>
       <c r="B422" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="C422">
-        <v>76150</v>
+        <v>75910</v>
       </c>
       <c r="D422" t="s">
         <v>3</v>
@@ -6303,10 +6303,10 @@
         <v>421</v>
       </c>
       <c r="B423" s="2">
-        <v>44323</v>
+        <v>44328</v>
       </c>
       <c r="C423">
-        <v>74200</v>
+        <v>76150</v>
       </c>
       <c r="D423" t="s">
         <v>3</v>
@@ -6317,10 +6317,10 @@
         <v>422</v>
       </c>
       <c r="B424" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="C424">
-        <v>72690</v>
+        <v>74200</v>
       </c>
       <c r="D424" t="s">
         <v>3</v>
@@ -6331,10 +6331,10 @@
         <v>423</v>
       </c>
       <c r="B425" s="2">
-        <v>44316</v>
+        <v>44322</v>
       </c>
       <c r="C425">
-        <v>71680</v>
+        <v>72690</v>
       </c>
       <c r="D425" t="s">
         <v>3</v>
@@ -6345,10 +6345,10 @@
         <v>424</v>
       </c>
       <c r="B426" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="C426">
-        <v>72335</v>
+        <v>71680</v>
       </c>
       <c r="D426" t="s">
         <v>3</v>
@@ -6359,10 +6359,10 @@
         <v>425</v>
       </c>
       <c r="B427" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="C427">
-        <v>70920</v>
+        <v>72335</v>
       </c>
       <c r="D427" t="s">
         <v>3</v>
@@ -6373,10 +6373,10 @@
         <v>426</v>
       </c>
       <c r="B428" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="C428">
-        <v>71940</v>
+        <v>70920</v>
       </c>
       <c r="D428" t="s">
         <v>3</v>
@@ -6387,10 +6387,10 @@
         <v>427</v>
       </c>
       <c r="B429" s="2">
-        <v>44309</v>
+        <v>44313</v>
       </c>
       <c r="C429">
-        <v>69120</v>
+        <v>71940</v>
       </c>
       <c r="D429" t="s">
         <v>3</v>
@@ -6401,10 +6401,10 @@
         <v>428</v>
       </c>
       <c r="B430" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="C430">
-        <v>68840</v>
+        <v>69120</v>
       </c>
       <c r="D430" t="s">
         <v>3</v>
@@ -6415,10 +6415,10 @@
         <v>429</v>
       </c>
       <c r="B431" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="C431">
-        <v>68550</v>
+        <v>68840</v>
       </c>
       <c r="D431" t="s">
         <v>3</v>
@@ -6429,10 +6429,10 @@
         <v>430</v>
       </c>
       <c r="B432" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="C432">
-        <v>68990</v>
+        <v>68550</v>
       </c>
       <c r="D432" t="s">
         <v>3</v>
@@ -6443,10 +6443,10 @@
         <v>431</v>
       </c>
       <c r="B433" s="2">
-        <v>44302</v>
+        <v>44306</v>
       </c>
       <c r="C433">
-        <v>68550</v>
+        <v>68990</v>
       </c>
       <c r="D433" t="s">
         <v>3</v>
@@ -6457,10 +6457,10 @@
         <v>432</v>
       </c>
       <c r="B434" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="C434">
-        <v>67260</v>
+        <v>68550</v>
       </c>
       <c r="D434" t="s">
         <v>3</v>
@@ -6471,10 +6471,10 @@
         <v>433</v>
       </c>
       <c r="B435" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="C435">
-        <v>66125</v>
+        <v>67260</v>
       </c>
       <c r="D435" t="s">
         <v>3</v>
@@ -6485,10 +6485,10 @@
         <v>434</v>
       </c>
       <c r="B436" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="C436">
-        <v>65720</v>
+        <v>66125</v>
       </c>
       <c r="D436" t="s">
         <v>3</v>
@@ -6499,10 +6499,10 @@
         <v>435</v>
       </c>
       <c r="B437" s="2">
-        <v>44295</v>
+        <v>44299</v>
       </c>
       <c r="C437">
-        <v>66750</v>
+        <v>65720</v>
       </c>
       <c r="D437" t="s">
         <v>3</v>
@@ -6513,10 +6513,10 @@
         <v>436</v>
       </c>
       <c r="B438" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="C438">
-        <v>66500</v>
+        <v>66750</v>
       </c>
       <c r="D438" t="s">
         <v>3</v>
@@ -6527,10 +6527,10 @@
         <v>437</v>
       </c>
       <c r="B439" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="C439">
-        <v>66890</v>
+        <v>66500</v>
       </c>
       <c r="D439" t="s">
         <v>3</v>
@@ -6541,10 +6541,10 @@
         <v>438</v>
       </c>
       <c r="B440" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="C440">
-        <v>67140</v>
+        <v>66890</v>
       </c>
       <c r="D440" t="s">
         <v>3</v>
@@ -6555,10 +6555,10 @@
         <v>439</v>
       </c>
       <c r="B441" s="2">
-        <v>44288</v>
+        <v>44292</v>
       </c>
       <c r="C441">
-        <v>66040</v>
+        <v>67140</v>
       </c>
       <c r="D441" t="s">
         <v>3</v>
@@ -6569,10 +6569,10 @@
         <v>440</v>
       </c>
       <c r="B442" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="C442">
-        <v>65490</v>
+        <v>66040</v>
       </c>
       <c r="D442" t="s">
         <v>3</v>
@@ -6583,10 +6583,10 @@
         <v>441</v>
       </c>
       <c r="B443" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="C443">
-        <v>65175</v>
+        <v>65490</v>
       </c>
       <c r="D443" t="s">
         <v>3</v>
@@ -6597,10 +6597,10 @@
         <v>442</v>
       </c>
       <c r="B444" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="C444">
-        <v>66190</v>
+        <v>65175</v>
       </c>
       <c r="D444" t="s">
         <v>3</v>
@@ -6611,10 +6611,10 @@
         <v>443</v>
       </c>
       <c r="B445" s="2">
-        <v>44281</v>
+        <v>44285</v>
       </c>
       <c r="C445">
-        <v>65680</v>
+        <v>66190</v>
       </c>
       <c r="D445" t="s">
         <v>3</v>
@@ -6625,10 +6625,10 @@
         <v>444</v>
       </c>
       <c r="B446" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="C446">
-        <v>65770</v>
+        <v>65680</v>
       </c>
       <c r="D446" t="s">
         <v>3</v>
@@ -6639,10 +6639,10 @@
         <v>445</v>
       </c>
       <c r="B447" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="C447">
-        <v>66075</v>
+        <v>65770</v>
       </c>
       <c r="D447" t="s">
         <v>3</v>
@@ -6653,10 +6653,10 @@
         <v>446</v>
       </c>
       <c r="B448" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="C448">
-        <v>66740</v>
+        <v>66075</v>
       </c>
       <c r="D448" t="s">
         <v>3</v>
@@ -6667,10 +6667,10 @@
         <v>447</v>
       </c>
       <c r="B449" s="2">
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="C449">
-        <v>66550</v>
+        <v>66740</v>
       </c>
       <c r="D449" t="s">
         <v>3</v>
@@ -6681,10 +6681,10 @@
         <v>448</v>
       </c>
       <c r="B450" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="C450">
-        <v>67050</v>
+        <v>66550</v>
       </c>
       <c r="D450" t="s">
         <v>3</v>
@@ -6695,10 +6695,10 @@
         <v>449</v>
       </c>
       <c r="B451" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="C451">
-        <v>66200</v>
+        <v>67050</v>
       </c>
       <c r="D451" t="s">
         <v>3</v>
@@ -6709,10 +6709,10 @@
         <v>450</v>
       </c>
       <c r="B452" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="C452">
-        <v>67150</v>
+        <v>66200</v>
       </c>
       <c r="D452" t="s">
         <v>3</v>
@@ -6723,10 +6723,10 @@
         <v>451</v>
       </c>
       <c r="B453" s="2">
-        <v>44267</v>
+        <v>44271</v>
       </c>
       <c r="C453">
-        <v>66660</v>
+        <v>67150</v>
       </c>
       <c r="D453" t="s">
         <v>3</v>
@@ -6737,10 +6737,10 @@
         <v>452</v>
       </c>
       <c r="B454" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="C454">
-        <v>65580</v>
+        <v>66660</v>
       </c>
       <c r="D454" t="s">
         <v>3</v>
@@ -6751,10 +6751,10 @@
         <v>453</v>
       </c>
       <c r="B455" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="C455">
-        <v>65530</v>
+        <v>65580</v>
       </c>
       <c r="D455" t="s">
         <v>3</v>
@@ -6765,10 +6765,10 @@
         <v>454</v>
       </c>
       <c r="B456" s="2">
-        <v>44260</v>
+        <v>44265</v>
       </c>
       <c r="C456">
-        <v>64810</v>
+        <v>65530</v>
       </c>
       <c r="D456" t="s">
         <v>3</v>
@@ -6779,10 +6779,10 @@
         <v>455</v>
       </c>
       <c r="B457" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="C457">
-        <v>67020</v>
+        <v>64810</v>
       </c>
       <c r="D457" t="s">
         <v>3</v>
@@ -6793,10 +6793,10 @@
         <v>456</v>
       </c>
       <c r="B458" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="C458">
-        <v>67790</v>
+        <v>67020</v>
       </c>
       <c r="D458" t="s">
         <v>3</v>
@@ -6807,10 +6807,10 @@
         <v>457</v>
       </c>
       <c r="B459" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="C459">
-        <v>66140</v>
+        <v>67790</v>
       </c>
       <c r="D459" t="s">
         <v>3</v>
@@ -6821,10 +6821,10 @@
         <v>458</v>
       </c>
       <c r="B460" s="2">
-        <v>44253</v>
+        <v>44257</v>
       </c>
       <c r="C460">
-        <v>68410</v>
+        <v>66140</v>
       </c>
       <c r="D460" t="s">
         <v>3</v>
@@ -6835,10 +6835,10 @@
         <v>459</v>
       </c>
       <c r="B461" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="C461">
-        <v>69900</v>
+        <v>68410</v>
       </c>
       <c r="D461" t="s">
         <v>3</v>
@@ -6849,10 +6849,10 @@
         <v>460</v>
       </c>
       <c r="B462" s="2">
-        <v>44246</v>
+        <v>44252</v>
       </c>
       <c r="C462">
-        <v>63240</v>
+        <v>69900</v>
       </c>
       <c r="D462" t="s">
         <v>3</v>
@@ -6863,10 +6863,10 @@
         <v>461</v>
       </c>
       <c r="B463" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="C463">
-        <v>62690</v>
+        <v>63240</v>
       </c>
       <c r="D463" t="s">
         <v>3</v>
@@ -6877,10 +6877,10 @@
         <v>462</v>
       </c>
       <c r="B464" s="2">
-        <v>44237</v>
+        <v>44245</v>
       </c>
       <c r="C464">
-        <v>60230</v>
+        <v>62690</v>
       </c>
       <c r="D464" t="s">
         <v>3</v>
@@ -6891,10 +6891,10 @@
         <v>463</v>
       </c>
       <c r="B465" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="C465">
-        <v>59410</v>
+        <v>60230</v>
       </c>
       <c r="D465" t="s">
         <v>3</v>
@@ -6905,10 +6905,10 @@
         <v>464</v>
       </c>
       <c r="B466" s="2">
-        <v>44232</v>
+        <v>44236</v>
       </c>
       <c r="C466">
-        <v>58040</v>
+        <v>59410</v>
       </c>
       <c r="D466" t="s">
         <v>3</v>
@@ -6919,10 +6919,10 @@
         <v>465</v>
       </c>
       <c r="B467" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="C467">
-        <v>57825</v>
+        <v>58040</v>
       </c>
       <c r="D467" t="s">
         <v>3</v>
@@ -6933,10 +6933,10 @@
         <v>466</v>
       </c>
       <c r="B468" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="C468">
-        <v>57170</v>
+        <v>57825</v>
       </c>
       <c r="D468" t="s">
         <v>3</v>
@@ -6947,10 +6947,10 @@
         <v>467</v>
       </c>
       <c r="B469" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="C469">
-        <v>57700</v>
+        <v>57170</v>
       </c>
       <c r="D469" t="s">
         <v>3</v>
@@ -6961,10 +6961,10 @@
         <v>468</v>
       </c>
       <c r="B470" s="2">
-        <v>44225</v>
+        <v>44229</v>
       </c>
       <c r="C470">
-        <v>58180</v>
+        <v>57700</v>
       </c>
       <c r="D470" t="s">
         <v>3</v>
@@ -6975,10 +6975,10 @@
         <v>469</v>
       </c>
       <c r="B471" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="C471">
-        <v>57950</v>
+        <v>58180</v>
       </c>
       <c r="D471" t="s">
         <v>3</v>
@@ -6989,10 +6989,10 @@
         <v>470</v>
       </c>
       <c r="B472" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="C472">
-        <v>58745</v>
+        <v>57950</v>
       </c>
       <c r="D472" t="s">
         <v>3</v>
@@ -7003,10 +7003,10 @@
         <v>471</v>
       </c>
       <c r="B473" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="C473">
-        <v>58820</v>
+        <v>58745</v>
       </c>
       <c r="D473" t="s">
         <v>3</v>
@@ -7017,10 +7017,10 @@
         <v>472</v>
       </c>
       <c r="B474" s="2">
-        <v>44218</v>
+        <v>44222</v>
       </c>
       <c r="C474">
-        <v>58920</v>
+        <v>58820</v>
       </c>
       <c r="D474" t="s">
         <v>3</v>
@@ -7031,10 +7031,10 @@
         <v>473</v>
       </c>
       <c r="B475" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="C475">
-        <v>59280</v>
+        <v>58920</v>
       </c>
       <c r="D475" t="s">
         <v>3</v>
@@ -7045,10 +7045,10 @@
         <v>474</v>
       </c>
       <c r="B476" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="C476">
-        <v>59025</v>
+        <v>59280</v>
       </c>
       <c r="D476" t="s">
         <v>3</v>
@@ -7059,10 +7059,10 @@
         <v>475</v>
       </c>
       <c r="B477" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="C477">
-        <v>59030</v>
+        <v>59025</v>
       </c>
       <c r="D477" t="s">
         <v>3</v>
@@ -7073,10 +7073,10 @@
         <v>476</v>
       </c>
       <c r="B478" s="2">
-        <v>44211</v>
+        <v>44215</v>
       </c>
       <c r="C478">
-        <v>59560</v>
+        <v>59030</v>
       </c>
       <c r="D478" t="s">
         <v>3</v>
@@ -7087,10 +7087,10 @@
         <v>477</v>
       </c>
       <c r="B479" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="C479">
-        <v>58675</v>
+        <v>59560</v>
       </c>
       <c r="D479" t="s">
         <v>3</v>
@@ -7101,10 +7101,10 @@
         <v>478</v>
       </c>
       <c r="B480" s="2">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="C480">
-        <v>58840</v>
+        <v>58675</v>
       </c>
       <c r="D480" t="s">
         <v>3</v>
@@ -7115,10 +7115,10 @@
         <v>479</v>
       </c>
       <c r="B481" s="2">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="C481">
-        <v>58225</v>
+        <v>58840</v>
       </c>
       <c r="D481" t="s">
         <v>3</v>
@@ -7129,10 +7129,10 @@
         <v>480</v>
       </c>
       <c r="B482" s="2">
-        <v>44196</v>
+        <v>44208</v>
       </c>
       <c r="C482">
-        <v>57810</v>
+        <v>58225</v>
       </c>
       <c r="D482" t="s">
         <v>3</v>
@@ -7143,10 +7143,10 @@
         <v>481</v>
       </c>
       <c r="B483" s="2">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="C483">
-        <v>58150</v>
+        <v>57810</v>
       </c>
       <c r="D483" t="s">
         <v>3</v>
@@ -7157,10 +7157,10 @@
         <v>482</v>
       </c>
       <c r="B484" s="2">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="C484">
-        <v>58450</v>
+        <v>58150</v>
       </c>
       <c r="D484" t="s">
         <v>3</v>
@@ -7171,10 +7171,10 @@
         <v>483</v>
       </c>
       <c r="B485" s="2">
-        <v>44190</v>
+        <v>44194</v>
       </c>
       <c r="C485">
-        <v>58180</v>
+        <v>58450</v>
       </c>
       <c r="D485" t="s">
         <v>3</v>
@@ -7185,10 +7185,10 @@
         <v>484</v>
       </c>
       <c r="B486" s="2">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="C486">
-        <v>58110</v>
+        <v>58180</v>
       </c>
       <c r="D486" t="s">
         <v>3</v>
@@ -7199,10 +7199,10 @@
         <v>485</v>
       </c>
       <c r="B487" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="C487">
-        <v>57610</v>
+        <v>58110</v>
       </c>
       <c r="D487" t="s">
         <v>3</v>
@@ -7213,10 +7213,10 @@
         <v>486</v>
       </c>
       <c r="B488" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="C488">
-        <v>58550</v>
+        <v>57610</v>
       </c>
       <c r="D488" t="s">
         <v>3</v>
@@ -7227,10 +7227,10 @@
         <v>487</v>
       </c>
       <c r="B489" s="2">
-        <v>44183</v>
+        <v>44187</v>
       </c>
       <c r="C489">
-        <v>59090</v>
+        <v>58550</v>
       </c>
       <c r="D489" t="s">
         <v>3</v>
@@ -7241,10 +7241,10 @@
         <v>488</v>
       </c>
       <c r="B490" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="C490">
-        <v>58120</v>
+        <v>59090</v>
       </c>
       <c r="D490" t="s">
         <v>3</v>
@@ -7255,10 +7255,10 @@
         <v>489</v>
       </c>
       <c r="B491" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="C491">
-        <v>57850</v>
+        <v>58120</v>
       </c>
       <c r="D491" t="s">
         <v>3</v>
@@ -7269,10 +7269,10 @@
         <v>490</v>
       </c>
       <c r="B492" s="2">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="C492">
-        <v>57420</v>
+        <v>57850</v>
       </c>
       <c r="D492" t="s">
         <v>3</v>
@@ -7283,10 +7283,10 @@
         <v>491</v>
       </c>
       <c r="B493" s="2">
-        <v>44176</v>
+        <v>44180</v>
       </c>
       <c r="C493">
-        <v>58285</v>
+        <v>57420</v>
       </c>
       <c r="D493" t="s">
         <v>3</v>
@@ -7297,10 +7297,10 @@
         <v>492</v>
       </c>
       <c r="B494" s="2">
-        <v>44175</v>
+        <v>44176</v>
       </c>
       <c r="C494">
-        <v>57010</v>
+        <v>58285</v>
       </c>
       <c r="D494" t="s">
         <v>3</v>
@@ -7311,10 +7311,10 @@
         <v>493</v>
       </c>
       <c r="B495" s="2">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="C495">
-        <v>57270</v>
+        <v>57010</v>
       </c>
       <c r="D495" t="s">
         <v>3</v>
@@ -7325,10 +7325,10 @@
         <v>494</v>
       </c>
       <c r="B496" s="2">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="C496">
-        <v>57000</v>
+        <v>57270</v>
       </c>
       <c r="D496" t="s">
         <v>3</v>
@@ -7339,10 +7339,10 @@
         <v>495</v>
       </c>
       <c r="B497" s="2">
-        <v>44169</v>
+        <v>44173</v>
       </c>
       <c r="C497">
-        <v>57290</v>
+        <v>57000</v>
       </c>
       <c r="D497" t="s">
         <v>3</v>
@@ -7353,10 +7353,10 @@
         <v>496</v>
       </c>
       <c r="B498" s="2">
-        <v>44168</v>
+        <v>44169</v>
       </c>
       <c r="C498">
-        <v>57300</v>
+        <v>57290</v>
       </c>
       <c r="D498" t="s">
         <v>3</v>
@@ -7367,10 +7367,10 @@
         <v>497</v>
       </c>
       <c r="B499" s="2">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="C499">
-        <v>57280</v>
+        <v>57300</v>
       </c>
       <c r="D499" t="s">
         <v>3</v>
@@ -7381,10 +7381,10 @@
         <v>498</v>
       </c>
       <c r="B500" s="2">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="C500">
-        <v>57375</v>
+        <v>57280</v>
       </c>
       <c r="D500" t="s">
         <v>3</v>
@@ -7395,10 +7395,10 @@
         <v>499</v>
       </c>
       <c r="B501" s="2">
-        <v>44162</v>
+        <v>44166</v>
       </c>
       <c r="C501">
-        <v>55685</v>
+        <v>57375</v>
       </c>
       <c r="D501" t="s">
         <v>3</v>
@@ -7409,10 +7409,10 @@
         <v>500</v>
       </c>
       <c r="B502" s="2">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="C502">
-        <v>55120</v>
+        <v>55685</v>
       </c>
       <c r="D502" t="s">
         <v>3</v>
@@ -7423,10 +7423,10 @@
         <v>501</v>
       </c>
       <c r="B503" s="2">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="C503">
-        <v>54890</v>
+        <v>55120</v>
       </c>
       <c r="D503" t="s">
         <v>3</v>
@@ -7437,10 +7437,10 @@
         <v>502</v>
       </c>
       <c r="B504" s="2">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="C504">
-        <v>54110</v>
+        <v>54890</v>
       </c>
       <c r="D504" t="s">
         <v>3</v>
@@ -7451,10 +7451,10 @@
         <v>503</v>
       </c>
       <c r="B505" s="2">
-        <v>44155</v>
+        <v>44159</v>
       </c>
       <c r="C505">
-        <v>53220</v>
+        <v>54110</v>
       </c>
       <c r="D505" t="s">
         <v>3</v>
@@ -7465,10 +7465,10 @@
         <v>504</v>
       </c>
       <c r="B506" s="2">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="C506">
-        <v>52820</v>
+        <v>53220</v>
       </c>
       <c r="D506" t="s">
         <v>3</v>
@@ -7479,10 +7479,10 @@
         <v>505</v>
       </c>
       <c r="B507" s="2">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="C507">
-        <v>52740</v>
+        <v>52820</v>
       </c>
       <c r="D507" t="s">
         <v>3</v>
@@ -7493,10 +7493,10 @@
         <v>506</v>
       </c>
       <c r="B508" s="2">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="C508">
-        <v>53220</v>
+        <v>52740</v>
       </c>
       <c r="D508" t="s">
         <v>3</v>
@@ -7507,10 +7507,10 @@
         <v>507</v>
       </c>
       <c r="B509" s="2">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="C509">
-        <v>52025</v>
+        <v>53220</v>
       </c>
       <c r="D509" t="s">
         <v>3</v>
@@ -7521,10 +7521,10 @@
         <v>508</v>
       </c>
       <c r="B510" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="C510">
-        <v>51880</v>
+        <v>52025</v>
       </c>
       <c r="D510" t="s">
         <v>3</v>
@@ -7535,10 +7535,10 @@
         <v>509</v>
       </c>
       <c r="B511" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="C511">
-        <v>51990</v>
+        <v>51880</v>
       </c>
       <c r="D511" t="s">
         <v>3</v>
@@ -7549,10 +7549,10 @@
         <v>510</v>
       </c>
       <c r="B512" s="2">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="C512">
-        <v>52120</v>
+        <v>51990</v>
       </c>
       <c r="D512" t="s">
         <v>3</v>
@@ -7563,10 +7563,10 @@
         <v>511</v>
       </c>
       <c r="B513" s="2">
-        <v>44141</v>
+        <v>44145</v>
       </c>
       <c r="C513">
-        <v>51640</v>
+        <v>52120</v>
       </c>
       <c r="D513" t="s">
         <v>3</v>
@@ -7577,10 +7577,10 @@
         <v>512</v>
       </c>
       <c r="B514" s="2">
-        <v>44139</v>
+        <v>44141</v>
       </c>
       <c r="C514">
-        <v>51680</v>
+        <v>51640</v>
       </c>
       <c r="D514" t="s">
         <v>3</v>
@@ -7591,10 +7591,10 @@
         <v>513</v>
       </c>
       <c r="B515" s="2">
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C515">
-        <v>51750</v>
+        <v>51680</v>
       </c>
       <c r="D515" t="s">
         <v>3</v>
@@ -7605,10 +7605,10 @@
         <v>514</v>
       </c>
       <c r="B516" s="2">
-        <v>44134</v>
+        <v>44138</v>
       </c>
       <c r="C516">
-        <v>51530</v>
+        <v>51750</v>
       </c>
       <c r="D516" t="s">
         <v>3</v>
@@ -7619,10 +7619,10 @@
         <v>515</v>
       </c>
       <c r="B517" s="2">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="C517">
-        <v>51585</v>
+        <v>51530</v>
       </c>
       <c r="D517" t="s">
         <v>3</v>
@@ -7633,10 +7633,10 @@
         <v>516</v>
       </c>
       <c r="B518" s="2">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="C518">
-        <v>51730</v>
+        <v>51585</v>
       </c>
       <c r="D518" t="s">
         <v>3</v>
@@ -7647,10 +7647,10 @@
         <v>517</v>
       </c>
       <c r="B519" s="2">
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="C519">
-        <v>51540</v>
+        <v>51730</v>
       </c>
       <c r="D519" t="s">
         <v>3</v>
@@ -7661,10 +7661,10 @@
         <v>518</v>
       </c>
       <c r="B520" s="2">
-        <v>44127</v>
+        <v>44131</v>
       </c>
       <c r="C520">
-        <v>52210</v>
+        <v>51540</v>
       </c>
       <c r="D520" t="s">
         <v>3</v>
@@ -7675,10 +7675,10 @@
         <v>519</v>
       </c>
       <c r="B521" s="2">
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="C521">
-        <v>52370</v>
+        <v>52210</v>
       </c>
       <c r="D521" t="s">
         <v>3</v>
@@ -7689,10 +7689,10 @@
         <v>520</v>
       </c>
       <c r="B522" s="2">
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="C522">
-        <v>52250</v>
+        <v>52370</v>
       </c>
       <c r="D522" t="s">
         <v>3</v>
@@ -7703,10 +7703,10 @@
         <v>521</v>
       </c>
       <c r="B523" s="2">
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="C523">
-        <v>51450</v>
+        <v>52250</v>
       </c>
       <c r="D523" t="s">
         <v>3</v>
@@ -7717,10 +7717,10 @@
         <v>522</v>
       </c>
       <c r="B524" s="2">
-        <v>44120</v>
+        <v>44124</v>
       </c>
       <c r="C524">
-        <v>51800</v>
+        <v>51450</v>
       </c>
       <c r="D524" t="s">
         <v>3</v>
@@ -7731,10 +7731,10 @@
         <v>523</v>
       </c>
       <c r="B525" s="2">
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="C525">
-        <v>51370</v>
+        <v>51800</v>
       </c>
       <c r="D525" t="s">
         <v>3</v>
@@ -7745,10 +7745,10 @@
         <v>524</v>
       </c>
       <c r="B526" s="2">
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="C526">
-        <v>51470</v>
+        <v>51370</v>
       </c>
       <c r="D526" t="s">
         <v>3</v>
@@ -7759,10 +7759,10 @@
         <v>525</v>
       </c>
       <c r="B527" s="2">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="C527">
-        <v>51540</v>
+        <v>51470</v>
       </c>
       <c r="D527" t="s">
         <v>3</v>
@@ -7773,10 +7773,10 @@
         <v>526</v>
       </c>
       <c r="B528" s="2">
-        <v>44113</v>
+        <v>44117</v>
       </c>
       <c r="C528">
-        <v>51565</v>
+        <v>51540</v>
       </c>
       <c r="D528" t="s">
         <v>3</v>
@@ -7787,10 +7787,10 @@
         <v>527</v>
       </c>
       <c r="B529" s="2">
-        <v>44104</v>
+        <v>44113</v>
       </c>
       <c r="C529">
-        <v>51185</v>
+        <v>51565</v>
       </c>
       <c r="D529" t="s">
         <v>3</v>
@@ -7801,10 +7801,10 @@
         <v>528</v>
       </c>
       <c r="B530" s="2">
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C530">
-        <v>51110</v>
+        <v>51185</v>
       </c>
       <c r="D530" t="s">
         <v>3</v>
@@ -7815,10 +7815,10 @@
         <v>529</v>
       </c>
       <c r="B531" s="2">
-        <v>44099</v>
+        <v>44103</v>
       </c>
       <c r="C531">
-        <v>50890</v>
+        <v>51110</v>
       </c>
       <c r="D531" t="s">
         <v>3</v>
@@ -7829,10 +7829,10 @@
         <v>530</v>
       </c>
       <c r="B532" s="2">
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C532">
-        <v>50745</v>
+        <v>50890</v>
       </c>
       <c r="D532" t="s">
         <v>3</v>
@@ -7843,10 +7843,10 @@
         <v>531</v>
       </c>
       <c r="B533" s="2">
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C533">
-        <v>51620</v>
+        <v>50745</v>
       </c>
       <c r="D533" t="s">
         <v>3</v>
@@ -7857,10 +7857,10 @@
         <v>532</v>
       </c>
       <c r="B534" s="2">
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C534">
-        <v>51920</v>
+        <v>51620</v>
       </c>
       <c r="D534" t="s">
         <v>3</v>
@@ -7871,10 +7871,10 @@
         <v>533</v>
       </c>
       <c r="B535" s="2">
-        <v>44092</v>
+        <v>44096</v>
       </c>
       <c r="C535">
-        <v>52210</v>
+        <v>51920</v>
       </c>
       <c r="D535" t="s">
         <v>3</v>
@@ -7885,10 +7885,10 @@
         <v>534</v>
       </c>
       <c r="B536" s="2">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C536">
-        <v>51455</v>
+        <v>52210</v>
       </c>
       <c r="D536" t="s">
         <v>3</v>
@@ -7899,10 +7899,10 @@
         <v>535</v>
       </c>
       <c r="B537" s="2">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C537">
-        <v>51900</v>
+        <v>51455</v>
       </c>
       <c r="D537" t="s">
         <v>3</v>
@@ -7913,10 +7913,10 @@
         <v>536</v>
       </c>
       <c r="B538" s="2">
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C538">
-        <v>52150</v>
+        <v>51900</v>
       </c>
       <c r="D538" t="s">
         <v>3</v>
@@ -7927,10 +7927,10 @@
         <v>537</v>
       </c>
       <c r="B539" s="2">
-        <v>44085</v>
+        <v>44089</v>
       </c>
       <c r="C539">
-        <v>51535</v>
+        <v>52150</v>
       </c>
       <c r="D539" t="s">
         <v>3</v>
@@ -7941,10 +7941,10 @@
         <v>538</v>
       </c>
       <c r="B540" s="2">
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C540">
-        <v>52130</v>
+        <v>51535</v>
       </c>
       <c r="D540" t="s">
         <v>3</v>
@@ -7955,10 +7955,10 @@
         <v>539</v>
       </c>
       <c r="B541" s="2">
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C541">
-        <v>52065</v>
+        <v>52130</v>
       </c>
       <c r="D541" t="s">
         <v>3</v>
@@ -7969,10 +7969,10 @@
         <v>540</v>
       </c>
       <c r="B542" s="2">
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C542">
-        <v>52520</v>
+        <v>52065</v>
       </c>
       <c r="D542" t="s">
         <v>3</v>
@@ -7983,10 +7983,10 @@
         <v>541</v>
       </c>
       <c r="B543" s="2">
-        <v>44078</v>
+        <v>44082</v>
       </c>
       <c r="C543">
-        <v>51495</v>
+        <v>52520</v>
       </c>
       <c r="D543" t="s">
         <v>3</v>
@@ -7997,10 +7997,10 @@
         <v>542</v>
       </c>
       <c r="B544" s="2">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C544">
-        <v>52140</v>
+        <v>51495</v>
       </c>
       <c r="D544" t="s">
         <v>3</v>
@@ -8011,10 +8011,10 @@
         <v>543</v>
       </c>
       <c r="B545" s="2">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="C545">
-        <v>51935</v>
+        <v>52140</v>
       </c>
       <c r="D545" t="s">
         <v>3</v>
@@ -8025,10 +8025,10 @@
         <v>544</v>
       </c>
       <c r="B546" s="2">
-        <v>44075</v>
+        <v>44076</v>
       </c>
       <c r="C546">
-        <v>52390</v>
+        <v>51935</v>
       </c>
       <c r="D546" t="s">
         <v>3</v>
@@ -8039,10 +8039,10 @@
         <v>545</v>
       </c>
       <c r="B547" s="2">
-        <v>44071</v>
+        <v>44075</v>
       </c>
       <c r="C547">
-        <v>51800</v>
+        <v>52390</v>
       </c>
       <c r="D547" t="s">
         <v>3</v>
@@ -8053,10 +8053,10 @@
         <v>546</v>
       </c>
       <c r="B548" s="2">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="C548">
-        <v>51420</v>
+        <v>51800</v>
       </c>
       <c r="D548" t="s">
         <v>3</v>
@@ -8067,10 +8067,10 @@
         <v>547</v>
       </c>
       <c r="B549" s="2">
-        <v>44069</v>
+        <v>44070</v>
       </c>
       <c r="C549">
-        <v>51380</v>
+        <v>51420</v>
       </c>
       <c r="D549" t="s">
         <v>3</v>
@@ -8081,10 +8081,10 @@
         <v>548</v>
       </c>
       <c r="B550" s="2">
-        <v>44068</v>
+        <v>44069</v>
       </c>
       <c r="C550">
-        <v>51370</v>
+        <v>51380</v>
       </c>
       <c r="D550" t="s">
         <v>3</v>
@@ -8095,10 +8095,10 @@
         <v>549</v>
       </c>
       <c r="B551" s="2">
-        <v>44064</v>
+        <v>44068</v>
       </c>
       <c r="C551">
-        <v>52065</v>
+        <v>51370</v>
       </c>
       <c r="D551" t="s">
         <v>3</v>
@@ -8109,10 +8109,10 @@
         <v>550</v>
       </c>
       <c r="B552" s="2">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="C552">
-        <v>52200</v>
+        <v>52065</v>
       </c>
       <c r="D552" t="s">
         <v>3</v>
@@ -8123,10 +8123,10 @@
         <v>551</v>
       </c>
       <c r="B553" s="2">
-        <v>44062</v>
+        <v>44063</v>
       </c>
       <c r="C553">
-        <v>52300</v>
+        <v>52200</v>
       </c>
       <c r="D553" t="s">
         <v>3</v>
@@ -8137,10 +8137,10 @@
         <v>552</v>
       </c>
       <c r="B554" s="2">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="C554">
-        <v>51135</v>
+        <v>52300</v>
       </c>
       <c r="D554" t="s">
         <v>3</v>
@@ -8151,10 +8151,10 @@
         <v>553</v>
       </c>
       <c r="B555" s="2">
-        <v>44057</v>
+        <v>44061</v>
       </c>
       <c r="C555">
-        <v>50040</v>
+        <v>51135</v>
       </c>
       <c r="D555" t="s">
         <v>3</v>
@@ -8165,10 +8165,10 @@
         <v>554</v>
       </c>
       <c r="B556" s="2">
-        <v>44056</v>
+        <v>44057</v>
       </c>
       <c r="C556">
-        <v>50530</v>
+        <v>50040</v>
       </c>
       <c r="D556" t="s">
         <v>3</v>
@@ -8179,10 +8179,10 @@
         <v>555</v>
       </c>
       <c r="B557" s="2">
-        <v>44055</v>
+        <v>44056</v>
       </c>
       <c r="C557">
-        <v>49980</v>
+        <v>50530</v>
       </c>
       <c r="D557" t="s">
         <v>3</v>
@@ -8193,10 +8193,10 @@
         <v>556</v>
       </c>
       <c r="B558" s="2">
-        <v>44054</v>
+        <v>44055</v>
       </c>
       <c r="C558">
-        <v>50790</v>
+        <v>49980</v>
       </c>
       <c r="D558" t="s">
         <v>3</v>
@@ -8207,10 +8207,10 @@
         <v>557</v>
       </c>
       <c r="B559" s="2">
-        <v>44050</v>
+        <v>44054</v>
       </c>
       <c r="C559">
-        <v>51440</v>
+        <v>50790</v>
       </c>
       <c r="D559" t="s">
         <v>3</v>
@@ -8221,10 +8221,10 @@
         <v>558</v>
       </c>
       <c r="B560" s="2">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="C560">
-        <v>51385</v>
+        <v>51440</v>
       </c>
       <c r="D560" t="s">
         <v>3</v>
@@ -8235,10 +8235,10 @@
         <v>559</v>
       </c>
       <c r="B561" s="2">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="C561">
-        <v>51370</v>
+        <v>51385</v>
       </c>
       <c r="D561" t="s">
         <v>3</v>
@@ -8249,10 +8249,10 @@
         <v>560</v>
       </c>
       <c r="B562" s="2">
-        <v>44047</v>
+        <v>44048</v>
       </c>
       <c r="C562">
-        <v>51675</v>
+        <v>51370</v>
       </c>
       <c r="D562" t="s">
         <v>3</v>
@@ -8263,10 +8263,10 @@
         <v>561</v>
       </c>
       <c r="B563" s="2">
-        <v>44043</v>
+        <v>44047</v>
       </c>
       <c r="C563">
-        <v>51850</v>
+        <v>51675</v>
       </c>
       <c r="D563" t="s">
         <v>3</v>
@@ -8277,10 +8277,10 @@
         <v>562</v>
       </c>
       <c r="B564" s="2">
-        <v>44042</v>
+        <v>44043</v>
       </c>
       <c r="C564">
-        <v>51890</v>
+        <v>51850</v>
       </c>
       <c r="D564" t="s">
         <v>3</v>
@@ -8291,10 +8291,10 @@
         <v>563</v>
       </c>
       <c r="B565" s="2">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="C565">
-        <v>51830</v>
+        <v>51890</v>
       </c>
       <c r="D565" t="s">
         <v>3</v>
@@ -8305,10 +8305,10 @@
         <v>564</v>
       </c>
       <c r="B566" s="2">
-        <v>44040</v>
+        <v>44041</v>
       </c>
       <c r="C566">
-        <v>51850</v>
+        <v>51830</v>
       </c>
       <c r="D566" t="s">
         <v>3</v>
@@ -8319,10 +8319,10 @@
         <v>565</v>
       </c>
       <c r="B567" s="2">
-        <v>44036</v>
+        <v>44040</v>
       </c>
       <c r="C567">
-        <v>51930</v>
+        <v>51850</v>
       </c>
       <c r="D567" t="s">
         <v>3</v>
@@ -8333,10 +8333,10 @@
         <v>566</v>
       </c>
       <c r="B568" s="2">
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="C568">
-        <v>51875</v>
+        <v>51930</v>
       </c>
       <c r="D568" t="s">
         <v>3</v>
@@ -8347,10 +8347,10 @@
         <v>567</v>
       </c>
       <c r="B569" s="2">
-        <v>44034</v>
+        <v>44035</v>
       </c>
       <c r="C569">
-        <v>52600</v>
+        <v>51875</v>
       </c>
       <c r="D569" t="s">
         <v>3</v>
@@ -8361,10 +8361,10 @@
         <v>568</v>
       </c>
       <c r="B570" s="2">
-        <v>44033</v>
+        <v>44034</v>
       </c>
       <c r="C570">
-        <v>51935</v>
+        <v>52600</v>
       </c>
       <c r="D570" t="s">
         <v>3</v>
@@ -8375,10 +8375,10 @@
         <v>569</v>
       </c>
       <c r="B571" s="2">
-        <v>44029</v>
+        <v>44033</v>
       </c>
       <c r="C571">
-        <v>51685</v>
+        <v>51935</v>
       </c>
       <c r="D571" t="s">
         <v>3</v>
@@ -8389,10 +8389,10 @@
         <v>570</v>
       </c>
       <c r="B572" s="2">
-        <v>44028</v>
+        <v>44029</v>
       </c>
       <c r="C572">
-        <v>51240</v>
+        <v>51685</v>
       </c>
       <c r="D572" t="s">
         <v>3</v>
@@ -8403,10 +8403,10 @@
         <v>571</v>
       </c>
       <c r="B573" s="2">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="C573">
-        <v>52435</v>
+        <v>51240</v>
       </c>
       <c r="D573" t="s">
         <v>3</v>
@@ -8417,10 +8417,10 @@
         <v>572</v>
       </c>
       <c r="B574" s="2">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="C574">
-        <v>52150</v>
+        <v>52435</v>
       </c>
       <c r="D574" t="s">
         <v>3</v>
@@ -8431,10 +8431,10 @@
         <v>573</v>
       </c>
       <c r="B575" s="2">
-        <v>44022</v>
+        <v>44026</v>
       </c>
       <c r="C575">
-        <v>50600</v>
+        <v>52150</v>
       </c>
       <c r="D575" t="s">
         <v>3</v>
@@ -8445,10 +8445,10 @@
         <v>574</v>
       </c>
       <c r="B576" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="C576">
-        <v>50575</v>
+        <v>50600</v>
       </c>
       <c r="D576" t="s">
         <v>3</v>
@@ -8459,10 +8459,10 @@
         <v>575</v>
       </c>
       <c r="B577" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="C577">
-        <v>49845</v>
+        <v>50575</v>
       </c>
       <c r="D577" t="s">
         <v>3</v>
@@ -8473,10 +8473,10 @@
         <v>576</v>
       </c>
       <c r="B578" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="C578">
-        <v>49610</v>
+        <v>49845</v>
       </c>
       <c r="D578" t="s">
         <v>3</v>
@@ -8487,10 +8487,10 @@
         <v>577</v>
       </c>
       <c r="B579" s="2">
-        <v>44015</v>
+        <v>44019</v>
       </c>
       <c r="C579">
-        <v>49260</v>
+        <v>49610</v>
       </c>
       <c r="D579" t="s">
         <v>3</v>
@@ -8501,10 +8501,10 @@
         <v>578</v>
       </c>
       <c r="B580" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="C580">
-        <v>49460</v>
+        <v>49260</v>
       </c>
       <c r="D580" t="s">
         <v>3</v>
@@ -8515,10 +8515,10 @@
         <v>579</v>
       </c>
       <c r="B581" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="C581">
-        <v>49450</v>
+        <v>49460</v>
       </c>
       <c r="D581" t="s">
         <v>3</v>
@@ -8529,10 +8529,10 @@
         <v>580</v>
       </c>
       <c r="B582" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="C582">
-        <v>48930</v>
+        <v>49450</v>
       </c>
       <c r="D582" t="s">
         <v>3</v>
@@ -8543,10 +8543,10 @@
         <v>581</v>
       </c>
       <c r="B583" s="2">
-        <v>44006</v>
+        <v>44012</v>
       </c>
       <c r="C583">
-        <v>48160</v>
+        <v>48930</v>
       </c>
       <c r="D583" t="s">
         <v>3</v>
@@ -8557,10 +8557,10 @@
         <v>582</v>
       </c>
       <c r="B584" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="C584">
-        <v>47880</v>
+        <v>48160</v>
       </c>
       <c r="D584" t="s">
         <v>3</v>
@@ -8571,10 +8571,10 @@
         <v>583</v>
       </c>
       <c r="B585" s="2">
-        <v>44001</v>
+        <v>44005</v>
       </c>
       <c r="C585">
-        <v>47475</v>
+        <v>47880</v>
       </c>
       <c r="D585" t="s">
         <v>3</v>
@@ -8585,10 +8585,10 @@
         <v>584</v>
       </c>
       <c r="B586" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="C586">
-        <v>47110</v>
+        <v>47475</v>
       </c>
       <c r="D586" t="s">
         <v>3</v>
@@ -8599,10 +8599,10 @@
         <v>585</v>
       </c>
       <c r="B587" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="C587">
-        <v>46910</v>
+        <v>47110</v>
       </c>
       <c r="D587" t="s">
         <v>3</v>
@@ -8613,10 +8613,10 @@
         <v>586</v>
       </c>
       <c r="B588" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="C588">
-        <v>47080</v>
+        <v>46910</v>
       </c>
       <c r="D588" t="s">
         <v>3</v>
@@ -8627,10 +8627,10 @@
         <v>587</v>
       </c>
       <c r="B589" s="2">
-        <v>43994</v>
+        <v>43998</v>
       </c>
       <c r="C589">
-        <v>46760</v>
+        <v>47080</v>
       </c>
       <c r="D589" t="s">
         <v>3</v>
@@ -8641,10 +8641,10 @@
         <v>588</v>
       </c>
       <c r="B590" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="C590">
-        <v>47425</v>
+        <v>46760</v>
       </c>
       <c r="D590" t="s">
         <v>3</v>
@@ -8655,10 +8655,10 @@
         <v>589</v>
       </c>
       <c r="B591" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="C591">
-        <v>46855</v>
+        <v>47425</v>
       </c>
       <c r="D591" t="s">
         <v>3</v>
@@ -8669,10 +8669,10 @@
         <v>590</v>
       </c>
       <c r="B592" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="C592">
-        <v>46355</v>
+        <v>46855</v>
       </c>
       <c r="D592" t="s">
         <v>3</v>
@@ -8683,10 +8683,10 @@
         <v>591</v>
       </c>
       <c r="B593" s="2">
-        <v>43987</v>
+        <v>43991</v>
       </c>
       <c r="C593">
-        <v>44990</v>
+        <v>46355</v>
       </c>
       <c r="D593" t="s">
         <v>3</v>
@@ -8697,10 +8697,10 @@
         <v>592</v>
       </c>
       <c r="B594" s="2">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="C594">
-        <v>44850</v>
+        <v>44990</v>
       </c>
       <c r="D594" t="s">
         <v>3</v>
@@ -8711,10 +8711,10 @@
         <v>593</v>
       </c>
       <c r="B595" s="2">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="C595">
-        <v>45110</v>
+        <v>44850</v>
       </c>
       <c r="D595" t="s">
         <v>3</v>
@@ -8725,10 +8725,10 @@
         <v>594</v>
       </c>
       <c r="B596" s="2">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="C596">
-        <v>44895</v>
+        <v>45110</v>
       </c>
       <c r="D596" t="s">
         <v>3</v>
@@ -8739,10 +8739,10 @@
         <v>595</v>
       </c>
       <c r="B597" s="2">
-        <v>43980</v>
+        <v>43984</v>
       </c>
       <c r="C597">
-        <v>44135</v>
+        <v>44895</v>
       </c>
       <c r="D597" t="s">
         <v>3</v>
@@ -8753,10 +8753,10 @@
         <v>596</v>
       </c>
       <c r="B598" s="2">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="C598">
-        <v>44030</v>
+        <v>44135</v>
       </c>
       <c r="D598" t="s">
         <v>3</v>
@@ -8767,10 +8767,10 @@
         <v>597</v>
       </c>
       <c r="B599" s="2">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="C599">
-        <v>44170</v>
+        <v>44030</v>
       </c>
       <c r="D599" t="s">
         <v>3</v>
@@ -8781,10 +8781,10 @@
         <v>598</v>
       </c>
       <c r="B600" s="2">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="C600">
-        <v>44030</v>
+        <v>44170</v>
       </c>
       <c r="D600" t="s">
         <v>3</v>
@@ -8795,10 +8795,10 @@
         <v>599</v>
       </c>
       <c r="B601" s="2">
-        <v>43973</v>
+        <v>43977</v>
       </c>
       <c r="C601">
-        <v>43770</v>
+        <v>44030</v>
       </c>
       <c r="D601" t="s">
         <v>3</v>
@@ -8809,10 +8809,10 @@
         <v>600</v>
       </c>
       <c r="B602" s="2">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="C602">
-        <v>44620</v>
+        <v>43770</v>
       </c>
       <c r="D602" t="s">
         <v>3</v>
@@ -8823,10 +8823,10 @@
         <v>601</v>
       </c>
       <c r="B603" s="2">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="C603">
-        <v>44040</v>
+        <v>44620</v>
       </c>
       <c r="D603" t="s">
         <v>3</v>
@@ -8837,10 +8837,10 @@
         <v>602</v>
       </c>
       <c r="B604" s="2">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="C604">
-        <v>43995</v>
+        <v>44040</v>
       </c>
       <c r="D604" t="s">
         <v>3</v>
@@ -8851,10 +8851,10 @@
         <v>603</v>
       </c>
       <c r="B605" s="2">
-        <v>43966</v>
+        <v>43970</v>
       </c>
       <c r="C605">
-        <v>43325</v>
+        <v>43995</v>
       </c>
       <c r="D605" t="s">
         <v>3</v>
@@ -8865,10 +8865,10 @@
         <v>604</v>
       </c>
       <c r="B606" s="2">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="C606">
-        <v>43150</v>
+        <v>43325</v>
       </c>
       <c r="D606" t="s">
         <v>3</v>
@@ -8879,10 +8879,10 @@
         <v>605</v>
       </c>
       <c r="B607" s="2">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="C607">
-        <v>43080</v>
+        <v>43150</v>
       </c>
       <c r="D607" t="s">
         <v>3</v>
@@ -8893,10 +8893,10 @@
         <v>606</v>
       </c>
       <c r="B608" s="2">
-        <v>43959</v>
+        <v>43964</v>
       </c>
       <c r="C608">
-        <v>43600</v>
+        <v>43080</v>
       </c>
       <c r="D608" t="s">
         <v>3</v>
@@ -8907,10 +8907,10 @@
         <v>607</v>
       </c>
       <c r="B609" s="2">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="C609">
-        <v>43030</v>
+        <v>43600</v>
       </c>
       <c r="D609" t="s">
         <v>3</v>
@@ -8921,7 +8921,7 @@
         <v>608</v>
       </c>
       <c r="B610" s="2">
-        <v>43951</v>
+        <v>43958</v>
       </c>
       <c r="C610">
         <v>43030</v>
@@ -8935,10 +8935,10 @@
         <v>609</v>
       </c>
       <c r="B611" s="2">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C611">
-        <v>42810</v>
+        <v>43030</v>
       </c>
       <c r="D611" t="s">
         <v>3</v>
@@ -8949,10 +8949,10 @@
         <v>610</v>
       </c>
       <c r="B612" s="2">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="C612">
-        <v>42480</v>
+        <v>42810</v>
       </c>
       <c r="D612" t="s">
         <v>3</v>
@@ -8963,10 +8963,10 @@
         <v>611</v>
       </c>
       <c r="B613" s="2">
-        <v>43945</v>
+        <v>43949</v>
       </c>
       <c r="C613">
-        <v>42120</v>
+        <v>42480</v>
       </c>
       <c r="D613" t="s">
         <v>3</v>
@@ -8977,10 +8977,10 @@
         <v>612</v>
       </c>
       <c r="B614" s="2">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="C614">
-        <v>41980</v>
+        <v>42120</v>
       </c>
       <c r="D614" t="s">
         <v>3</v>
@@ -8991,10 +8991,10 @@
         <v>613</v>
       </c>
       <c r="B615" s="2">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="C615">
-        <v>40995</v>
+        <v>41980</v>
       </c>
       <c r="D615" t="s">
         <v>3</v>
@@ -9005,10 +9005,10 @@
         <v>614</v>
       </c>
       <c r="B616" s="2">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="C616">
-        <v>42060</v>
+        <v>40995</v>
       </c>
       <c r="D616" t="s">
         <v>3</v>
@@ -9019,10 +9019,10 @@
         <v>615</v>
       </c>
       <c r="B617" s="2">
-        <v>43938</v>
+        <v>43942</v>
       </c>
       <c r="C617">
-        <v>42470</v>
+        <v>42060</v>
       </c>
       <c r="D617" t="s">
         <v>3</v>
@@ -9033,10 +9033,10 @@
         <v>616</v>
       </c>
       <c r="B618" s="2">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="C618">
-        <v>41775</v>
+        <v>42470</v>
       </c>
       <c r="D618" t="s">
         <v>3</v>
@@ -9047,10 +9047,10 @@
         <v>617</v>
       </c>
       <c r="B619" s="2">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="C619">
-        <v>41860</v>
+        <v>41775</v>
       </c>
       <c r="D619" t="s">
         <v>3</v>
@@ -9061,10 +9061,10 @@
         <v>618</v>
       </c>
       <c r="B620" s="2">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="C620">
-        <v>41970</v>
+        <v>41860</v>
       </c>
       <c r="D620" t="s">
         <v>3</v>
@@ -9075,10 +9075,10 @@
         <v>619</v>
       </c>
       <c r="B621" s="2">
-        <v>43931</v>
+        <v>43935</v>
       </c>
       <c r="C621">
-        <v>40990</v>
+        <v>41970</v>
       </c>
       <c r="D621" t="s">
         <v>3</v>
@@ -9089,10 +9089,10 @@
         <v>620</v>
       </c>
       <c r="B622" s="2">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="C622">
-        <v>40950</v>
+        <v>40990</v>
       </c>
       <c r="D622" t="s">
         <v>3</v>
@@ -9103,10 +9103,10 @@
         <v>621</v>
       </c>
       <c r="B623" s="2">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="C623">
-        <v>40765</v>
+        <v>40950</v>
       </c>
       <c r="D623" t="s">
         <v>3</v>
@@ -9117,10 +9117,10 @@
         <v>622</v>
       </c>
       <c r="B624" s="2">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="C624">
-        <v>40840</v>
+        <v>40765</v>
       </c>
       <c r="D624" t="s">
         <v>3</v>
@@ -9131,10 +9131,10 @@
         <v>623</v>
       </c>
       <c r="B625" s="2">
-        <v>43917</v>
+        <v>43928</v>
       </c>
       <c r="C625">
-        <v>38865</v>
+        <v>40840</v>
       </c>
       <c r="D625" t="s">
         <v>3</v>
@@ -9145,10 +9145,10 @@
         <v>624</v>
       </c>
       <c r="B626" s="2">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="C626">
-        <v>38970</v>
+        <v>38865</v>
       </c>
       <c r="D626" t="s">
         <v>3</v>
@@ -9159,10 +9159,10 @@
         <v>625</v>
       </c>
       <c r="B627" s="2">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="C627">
-        <v>38750</v>
+        <v>38970</v>
       </c>
       <c r="D627" t="s">
         <v>3</v>
@@ -9173,10 +9173,10 @@
         <v>626</v>
       </c>
       <c r="B628" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="C628">
-        <v>37890</v>
+        <v>38750</v>
       </c>
       <c r="D628" t="s">
         <v>3</v>
@@ -9187,10 +9187,10 @@
         <v>627</v>
       </c>
       <c r="B629" s="2">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="C629">
-        <v>38290</v>
+        <v>37890</v>
       </c>
       <c r="D629" t="s">
         <v>3</v>
@@ -9201,10 +9201,10 @@
         <v>628</v>
       </c>
       <c r="B630" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="C630">
-        <v>37545</v>
+        <v>38290</v>
       </c>
       <c r="D630" t="s">
         <v>3</v>
@@ -9215,10 +9215,10 @@
         <v>629</v>
       </c>
       <c r="B631" s="2">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="C631">
-        <v>41400</v>
+        <v>37545</v>
       </c>
       <c r="D631" t="s">
         <v>3</v>
@@ -9229,10 +9229,10 @@
         <v>630</v>
       </c>
       <c r="B632" s="2">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="C632">
-        <v>42145</v>
+        <v>41400</v>
       </c>
       <c r="D632" t="s">
         <v>3</v>
@@ -9243,10 +9243,10 @@
         <v>631</v>
       </c>
       <c r="B633" s="2">
-        <v>43903</v>
+        <v>43907</v>
       </c>
       <c r="C633">
-        <v>42755</v>
+        <v>42145</v>
       </c>
       <c r="D633" t="s">
         <v>3</v>
@@ -9257,10 +9257,10 @@
         <v>632</v>
       </c>
       <c r="B634" s="2">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="C634">
-        <v>43185</v>
+        <v>42755</v>
       </c>
       <c r="D634" t="s">
         <v>3</v>
@@ -9271,10 +9271,10 @@
         <v>633</v>
       </c>
       <c r="B635" s="2">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="C635">
-        <v>44280</v>
+        <v>43185</v>
       </c>
       <c r="D635" t="s">
         <v>3</v>
@@ -9285,10 +9285,10 @@
         <v>634</v>
       </c>
       <c r="B636" s="2">
-        <v>43896</v>
+        <v>43901</v>
       </c>
       <c r="C636">
-        <v>44725</v>
+        <v>44280</v>
       </c>
       <c r="D636" t="s">
         <v>3</v>
@@ -9299,10 +9299,10 @@
         <v>635</v>
       </c>
       <c r="B637" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="C637">
-        <v>45055</v>
+        <v>44725</v>
       </c>
       <c r="D637" t="s">
         <v>3</v>
@@ -9313,10 +9313,10 @@
         <v>636</v>
       </c>
       <c r="B638" s="2">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="C638">
-        <v>45005</v>
+        <v>45055</v>
       </c>
       <c r="D638" t="s">
         <v>3</v>
@@ -9327,10 +9327,10 @@
         <v>637</v>
       </c>
       <c r="B639" s="2">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="C639">
-        <v>45345</v>
+        <v>45005</v>
       </c>
       <c r="D639" t="s">
         <v>3</v>
@@ -9341,10 +9341,10 @@
         <v>638</v>
       </c>
       <c r="B640" s="2">
-        <v>43889</v>
+        <v>43893</v>
       </c>
       <c r="C640">
-        <v>44630</v>
+        <v>45345</v>
       </c>
       <c r="D640" t="s">
         <v>3</v>
@@ -9355,10 +9355,10 @@
         <v>639</v>
       </c>
       <c r="B641" s="2">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="C641">
-        <v>45190</v>
+        <v>44630</v>
       </c>
       <c r="D641" t="s">
         <v>3</v>
@@ -9369,10 +9369,10 @@
         <v>640</v>
       </c>
       <c r="B642" s="2">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="C642">
-        <v>45360</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="s">
         <v>3</v>
@@ -9383,10 +9383,10 @@
         <v>641</v>
       </c>
       <c r="B643" s="2">
-        <v>43882</v>
+        <v>43887</v>
       </c>
       <c r="C643">
-        <v>45910</v>
+        <v>45360</v>
       </c>
       <c r="D643" t="s">
         <v>3</v>
@@ -9397,10 +9397,10 @@
         <v>642</v>
       </c>
       <c r="B644" s="2">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="C644">
-        <v>46010</v>
+        <v>45910</v>
       </c>
       <c r="D644" t="s">
         <v>3</v>
@@ -9411,10 +9411,10 @@
         <v>643</v>
       </c>
       <c r="B645" s="2">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="C645">
-        <v>45990</v>
+        <v>46010</v>
       </c>
       <c r="D645" t="s">
         <v>3</v>
@@ -9425,10 +9425,10 @@
         <v>644</v>
       </c>
       <c r="B646" s="2">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="C646">
-        <v>45955</v>
+        <v>45990</v>
       </c>
       <c r="D646" t="s">
         <v>3</v>
@@ -9439,10 +9439,10 @@
         <v>645</v>
       </c>
       <c r="B647" s="2">
-        <v>43875</v>
+        <v>43879</v>
       </c>
       <c r="C647">
-        <v>45655</v>
+        <v>45955</v>
       </c>
       <c r="D647" t="s">
         <v>3</v>
@@ -9453,10 +9453,10 @@
         <v>646</v>
       </c>
       <c r="B648" s="2">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="C648">
-        <v>45490</v>
+        <v>45655</v>
       </c>
       <c r="D648" t="s">
         <v>3</v>
@@ -9467,10 +9467,10 @@
         <v>647</v>
       </c>
       <c r="B649" s="2">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="C649">
-        <v>45385</v>
+        <v>45490</v>
       </c>
       <c r="D649" t="s">
         <v>3</v>
@@ -9481,10 +9481,10 @@
         <v>648</v>
       </c>
       <c r="B650" s="2">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="C650">
-        <v>45370</v>
+        <v>45385</v>
       </c>
       <c r="D650" t="s">
         <v>3</v>
@@ -9495,10 +9495,10 @@
         <v>649</v>
       </c>
       <c r="B651" s="2">
-        <v>43868</v>
+        <v>43872</v>
       </c>
       <c r="C651">
-        <v>45590</v>
+        <v>45370</v>
       </c>
       <c r="D651" t="s">
         <v>3</v>
@@ -9509,10 +9509,10 @@
         <v>650</v>
       </c>
       <c r="B652" s="2">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="C652">
-        <v>45795</v>
+        <v>45590</v>
       </c>
       <c r="D652" t="s">
         <v>3</v>
@@ -9523,10 +9523,10 @@
         <v>651</v>
       </c>
       <c r="B653" s="2">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="C653">
-        <v>45230</v>
+        <v>45795</v>
       </c>
       <c r="D653" t="s">
         <v>3</v>
@@ -9537,10 +9537,10 @@
         <v>652</v>
       </c>
       <c r="B654" s="2">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="C654">
-        <v>44940</v>
+        <v>45230</v>
       </c>
       <c r="D654" t="s">
         <v>3</v>
@@ -9551,10 +9551,10 @@
         <v>653</v>
       </c>
       <c r="B655" s="2">
-        <v>43853</v>
+        <v>43865</v>
       </c>
       <c r="C655">
-        <v>47995</v>
+        <v>44940</v>
       </c>
       <c r="D655" t="s">
         <v>3</v>
@@ -9565,10 +9565,10 @@
         <v>654</v>
       </c>
       <c r="B656" s="2">
-        <v>43852</v>
+        <v>43853</v>
       </c>
       <c r="C656">
-        <v>48235</v>
+        <v>47995</v>
       </c>
       <c r="D656" t="s">
         <v>3</v>
@@ -9579,10 +9579,10 @@
         <v>655</v>
       </c>
       <c r="B657" s="2">
-        <v>43851</v>
+        <v>43852</v>
       </c>
       <c r="C657">
-        <v>48425</v>
+        <v>48235</v>
       </c>
       <c r="D657" t="s">
         <v>3</v>
@@ -9593,10 +9593,10 @@
         <v>656</v>
       </c>
       <c r="B658" s="2">
-        <v>43847</v>
+        <v>43851</v>
       </c>
       <c r="C658">
-        <v>48930</v>
+        <v>48425</v>
       </c>
       <c r="D658" t="s">
         <v>3</v>
@@ -9607,10 +9607,10 @@
         <v>657</v>
       </c>
       <c r="B659" s="2">
-        <v>43846</v>
+        <v>43847</v>
       </c>
       <c r="C659">
-        <v>48950</v>
+        <v>48930</v>
       </c>
       <c r="D659" t="s">
         <v>3</v>
@@ -9621,10 +9621,10 @@
         <v>658</v>
       </c>
       <c r="B660" s="2">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="C660">
-        <v>49060</v>
+        <v>48950</v>
       </c>
       <c r="D660" t="s">
         <v>3</v>
@@ -9635,10 +9635,10 @@
         <v>659</v>
       </c>
       <c r="B661" s="2">
-        <v>43844</v>
+        <v>43845</v>
       </c>
       <c r="C661">
-        <v>48990</v>
+        <v>49060</v>
       </c>
       <c r="D661" t="s">
         <v>3</v>
@@ -9649,12 +9649,26 @@
         <v>660</v>
       </c>
       <c r="B662" s="2">
+        <v>43844</v>
+      </c>
+      <c r="C662">
+        <v>48990</v>
+      </c>
+      <c r="D662" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4">
+      <c r="A663" s="1">
+        <v>661</v>
+      </c>
+      <c r="B663" s="2">
         <v>43840</v>
       </c>
-      <c r="C662">
+      <c r="C663">
         <v>48605</v>
       </c>
-      <c r="D662" t="s">
+      <c r="D663" t="s">
         <v>3</v>
       </c>
     </row>

--- a/LME/parser_beta/data/shmet_historical.xlsx
+++ b/LME/parser_beta/data/shmet_historical.xlsx
@@ -420,7 +420,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>45142</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>45141</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>45140</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>45139</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>45138</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>45135</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>45134</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>45133</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>45132</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>45128</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>45127</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>45126</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>45125</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>45121</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>45120</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>45119</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>45118</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>45114</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>45113</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>45112</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>45111</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>45107</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
         <v>45106</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
         <v>45105</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
         <v>45104</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>45098</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
         <v>45097</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
         <v>45093</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
         <v>45092</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
         <v>45091</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2">
         <v>45086</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2">
         <v>45085</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2">
         <v>45084</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2">
         <v>45083</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
         <v>45079</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2">
         <v>45078</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
         <v>45077</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2">
         <v>45076</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2">
         <v>45072</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2">
         <v>45071</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2">
         <v>45070</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2">
         <v>45069</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2">
         <v>45065</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2">
         <v>45064</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2">
         <v>45063</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2">
         <v>45062</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2">
         <v>45058</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2">
         <v>45057</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2">
         <v>45051</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2">
         <v>45050</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2">
         <v>45044</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2">
         <v>45043</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2">
         <v>45042</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2">
         <v>45041</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2">
         <v>45037</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2">
         <v>45036</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2">
         <v>45035</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2">
         <v>45034</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2">
         <v>45030</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2">
         <v>45029</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2">
         <v>45028</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2">
         <v>45027</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2">
         <v>45023</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2">
         <v>45022</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2">
         <v>45020</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2">
         <v>45016</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2">
         <v>45015</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2">
         <v>45014</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2">
         <v>45013</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2">
         <v>45009</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2">
         <v>45008</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2">
         <v>45007</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2">
         <v>45006</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2">
         <v>45002</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2">
         <v>45001</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2">
         <v>45000</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2">
         <v>44999</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2">
         <v>44995</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2">
         <v>44993</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2">
         <v>44992</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2">
         <v>44988</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2">
         <v>44987</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2">
         <v>44986</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2">
         <v>44985</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2">
         <v>44980</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2">
         <v>44979</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2">
         <v>44978</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2">
         <v>44974</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2">
         <v>44973</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2">
         <v>44972</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2">
         <v>44971</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2">
         <v>44967</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2">
         <v>44966</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2">
         <v>44965</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2">
         <v>44964</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2">
         <v>44960</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2">
         <v>44959</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2">
         <v>44958</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2">
         <v>44957</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2">
         <v>44946</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2">
         <v>44945</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2">
         <v>44944</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2">
         <v>44943</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2">
         <v>44939</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2">
         <v>44938</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2">
         <v>44937</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2">
         <v>44936</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2">
         <v>44925</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2">
         <v>44924</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2">
         <v>44923</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2">
         <v>44922</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2">
         <v>44918</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2">
         <v>44917</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2">
         <v>44916</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2">
         <v>44915</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2">
         <v>44911</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2">
         <v>44910</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2">
         <v>44909</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2">
         <v>44908</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" s="2">
         <v>44904</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2">
         <v>44903</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2">
         <v>44902</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2">
         <v>44901</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" s="2">
         <v>44897</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" s="2">
         <v>44896</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2">
         <v>44895</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" s="2">
         <v>44894</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2">
         <v>44890</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131" s="2">
         <v>44889</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2">
         <v>44888</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2">
         <v>44887</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2">
         <v>44883</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2">
         <v>44882</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2">
         <v>44881</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" s="2">
         <v>44880</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2">
         <v>44876</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="2">
         <v>44875</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" s="2">
         <v>44874</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" s="2">
         <v>44873</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142" s="2">
         <v>44869</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143" s="2">
         <v>44868</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2">
         <v>44867</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145" s="2">
         <v>44866</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146" s="2">
         <v>44862</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B147" s="2">
         <v>44861</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148" s="2">
         <v>44860</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B149" s="2">
         <v>44859</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150" s="2">
         <v>44855</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" s="2">
         <v>44854</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B152" s="2">
         <v>44853</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B153" s="2">
         <v>44852</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" s="2">
         <v>44848</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B155" s="2">
         <v>44847</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B156" s="2">
         <v>44846</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B157" s="2">
         <v>44845</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158" s="2">
         <v>44834</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B159" s="2">
         <v>44833</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B160" s="2">
         <v>44832</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B161" s="2">
         <v>44831</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B162" s="2">
         <v>44827</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B163" s="2">
         <v>44826</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164" s="2">
         <v>44825</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B165" s="2">
         <v>44824</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B166" s="2">
         <v>44820</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B167" s="2">
         <v>44819</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B168" s="2">
         <v>44818</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B169" s="2">
         <v>44817</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B170" s="2">
         <v>44813</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B171" s="2">
         <v>44812</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B172" s="2">
         <v>44811</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B173" s="2">
         <v>44810</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B174" s="2">
         <v>44806</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B175" s="2">
         <v>44805</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B176" s="2">
         <v>44804</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B177" s="2">
         <v>44803</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="1">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B178" s="2">
         <v>44799</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="1">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B179" s="2">
         <v>44798</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B180" s="2">
         <v>44797</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B181" s="2">
         <v>44796</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B182" s="2">
         <v>44792</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B183" s="2">
         <v>44791</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B184" s="2">
         <v>44790</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B185" s="2">
         <v>44789</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B186" s="2">
         <v>44785</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B187" s="2">
         <v>44784</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B188" s="2">
         <v>44783</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B189" s="2">
         <v>44782</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B190" s="2">
         <v>44778</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B191" s="2">
         <v>44777</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B192" s="2">
         <v>44776</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="1">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B193" s="2">
         <v>44775</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="1">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B194" s="2">
         <v>44771</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B195" s="2">
         <v>44770</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="1">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B196" s="2">
         <v>44769</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="1">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B197" s="2">
         <v>44768</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B198" s="2">
         <v>44764</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B199" s="2">
         <v>44763</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="1">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B200" s="2">
         <v>44762</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B201" s="2">
         <v>44761</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B202" s="2">
         <v>44757</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B203" s="2">
         <v>44756</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="1">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B204" s="2">
         <v>44755</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B205" s="2">
         <v>44754</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B206" s="2">
         <v>44750</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="1">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B207" s="2">
         <v>44749</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B208" s="2">
         <v>44748</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="1">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B209" s="2">
         <v>44747</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="1">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B210" s="2">
         <v>44743</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B211" s="2">
         <v>44742</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="1">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B212" s="2">
         <v>44741</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="1">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B213" s="2">
         <v>44740</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="1">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B214" s="2">
         <v>44736</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="1">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B215" s="2">
         <v>44735</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="1">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B216" s="2">
         <v>44734</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="1">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B217" s="2">
         <v>44733</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="1">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B218" s="2">
         <v>44729</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="1">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B219" s="2">
         <v>44728</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="1">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B220" s="2">
         <v>44727</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="1">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B221" s="2">
         <v>44722</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="1">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B222" s="2">
         <v>44721</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="1">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B223" s="2">
         <v>44720</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B224" s="2">
         <v>44719</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="1">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B225" s="2">
         <v>44714</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="1">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B226" s="2">
         <v>44713</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B227" s="2">
         <v>44712</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="1">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B228" s="2">
         <v>44708</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="1">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B229" s="2">
         <v>44707</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="1">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B230" s="2">
         <v>44706</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="1">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B231" s="2">
         <v>44705</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="1">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B232" s="2">
         <v>44701</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="1">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B233" s="2">
         <v>44700</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="1">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B234" s="2">
         <v>44699</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B235" s="2">
         <v>44698</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B236" s="2">
         <v>44694</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B237" s="2">
         <v>44693</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="1">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B238" s="2">
         <v>44687</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B239" s="2">
         <v>44686</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="1">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B240" s="2">
         <v>44680</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="1">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B241" s="2">
         <v>44679</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B242" s="2">
         <v>44678</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B243" s="2">
         <v>44677</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="1">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B244" s="2">
         <v>44673</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="1">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B245" s="2">
         <v>44672</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="1">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B246" s="2">
         <v>44671</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="1">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B247" s="2">
         <v>44670</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="1">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B248" s="2">
         <v>44666</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="1">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B249" s="2">
         <v>44665</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="1">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B250" s="2">
         <v>44664</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="1">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B251" s="2">
         <v>44663</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B252" s="2">
         <v>44659</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="1">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B253" s="2">
         <v>44658</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="1">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B254" s="2">
         <v>44657</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="1">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B255" s="2">
         <v>44652</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="1">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B256" s="2">
         <v>44651</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="1">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B257" s="2">
         <v>44650</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="1">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B258" s="2">
         <v>44649</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="1">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B259" s="2">
         <v>44645</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="1">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B260" s="2">
         <v>44644</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="1">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B261" s="2">
         <v>44643</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="1">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B262" s="2">
         <v>44642</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="1">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B263" s="2">
         <v>44638</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="1">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B264" s="2">
         <v>44637</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="1">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B265" s="2">
         <v>44636</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="1">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B266" s="2">
         <v>44635</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="1">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B267" s="2">
         <v>44631</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="1">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B268" s="2">
         <v>44630</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="1">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B269" s="2">
         <v>44624</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="1">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B270" s="2">
         <v>44623</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="1">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B271" s="2">
         <v>44622</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B272" s="2">
         <v>44621</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="1">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B273" s="2">
         <v>44617</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="1">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B274" s="2">
         <v>44615</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="1">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B275" s="2">
         <v>44614</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="1">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B276" s="2">
         <v>44610</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="1">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B277" s="2">
         <v>44609</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="1">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B278" s="2">
         <v>44608</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="1">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B279" s="2">
         <v>44607</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="1">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B280" s="2">
         <v>44603</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="1">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B281" s="2">
         <v>44602</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="1">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B282" s="2">
         <v>44601</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="1">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B283" s="2">
         <v>44600</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="1">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B284" s="2">
         <v>44589</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="1">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B285" s="2">
         <v>44588</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="1">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B286" s="2">
         <v>44587</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="1">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B287" s="2">
         <v>44586</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="1">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B288" s="2">
         <v>44582</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="1">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B289" s="2">
         <v>44581</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="1">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B290" s="2">
         <v>44580</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="1">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B291" s="2">
         <v>44579</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="1">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B292" s="2">
         <v>44575</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="1">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B293" s="2">
         <v>44574</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="1">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B294" s="2">
         <v>44573</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="1">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B295" s="2">
         <v>44572</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="1">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B296" s="2">
         <v>44561</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="1">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B297" s="2">
         <v>44560</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="1">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B298" s="2">
         <v>44559</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="1">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B299" s="2">
         <v>44558</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="1">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B300" s="2">
         <v>44554</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="1">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B301" s="2">
         <v>44553</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="1">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B302" s="2">
         <v>44552</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="1">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B303" s="2">
         <v>44551</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="1">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B304" s="2">
         <v>44547</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="1">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B305" s="2">
         <v>44546</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="1">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B306" s="2">
         <v>44545</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="1">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B307" s="2">
         <v>44544</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="1">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B308" s="2">
         <v>44540</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="1">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B309" s="2">
         <v>44539</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="1">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B310" s="2">
         <v>44538</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="1">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B311" s="2">
         <v>44537</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="1">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B312" s="2">
         <v>44533</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="1">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B313" s="2">
         <v>44532</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="1">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B314" s="2">
         <v>44531</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="1">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B315" s="2">
         <v>44530</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="1">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B316" s="2">
         <v>44526</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="1">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B317" s="2">
         <v>44525</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="1">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B318" s="2">
         <v>44524</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="1">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B319" s="2">
         <v>44523</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="1">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B320" s="2">
         <v>44519</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="1">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B321" s="2">
         <v>44518</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="1">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B322" s="2">
         <v>44517</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="1">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B323" s="2">
         <v>44516</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="1">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B324" s="2">
         <v>44512</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="1">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B325" s="2">
         <v>44511</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="1">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B326" s="2">
         <v>44510</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="1">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B327" s="2">
         <v>44509</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="1">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B328" s="2">
         <v>44504</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="1">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B329" s="2">
         <v>44503</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="1">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B330" s="2">
         <v>44502</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="1">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B331" s="2">
         <v>44498</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="1">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B332" s="2">
         <v>44497</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="1">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B333" s="2">
         <v>44496</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="1">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B334" s="2">
         <v>44495</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="1">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B335" s="2">
         <v>44491</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="1">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B336" s="2">
         <v>44490</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="1">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B337" s="2">
         <v>44489</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="1">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B338" s="2">
         <v>44488</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="1">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B339" s="2">
         <v>44484</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="1">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B340" s="2">
         <v>44483</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="1">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B341" s="2">
         <v>44482</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="1">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B342" s="2">
         <v>44481</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="1">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B343" s="2">
         <v>44477</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="1">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B344" s="2">
         <v>44469</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="1">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B345" s="2">
         <v>44468</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="1">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B346" s="2">
         <v>44467</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="1">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B347" s="2">
         <v>44463</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="1">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B348" s="2">
         <v>44462</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="1">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B349" s="2">
         <v>44461</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="1">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B350" s="2">
         <v>44456</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="1">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B351" s="2">
         <v>44455</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="1">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B352" s="2">
         <v>44454</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="1">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B353" s="2">
         <v>44453</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="1">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B354" s="2">
         <v>44449</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="1">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B355" s="2">
         <v>44448</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="1">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B356" s="2">
         <v>44447</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="1">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B357" s="2">
         <v>44446</v>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="1">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B358" s="2">
         <v>44442</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="1">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B359" s="2">
         <v>44441</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="1">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B360" s="2">
         <v>44440</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="1">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B361" s="2">
         <v>44439</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="1">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B362" s="2">
         <v>44435</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="1">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B363" s="2">
         <v>44434</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="1">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B364" s="2">
         <v>44433</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="1">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B365" s="2">
         <v>44432</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="1">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B366" s="2">
         <v>44428</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B367" s="2">
         <v>44427</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="1">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B368" s="2">
         <v>44426</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="1">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B369" s="2">
         <v>44425</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="1">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B370" s="2">
         <v>44421</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="1">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B371" s="2">
         <v>44420</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="1">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B372" s="2">
         <v>44419</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="1">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B373" s="2">
         <v>44418</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="1">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B374" s="2">
         <v>44414</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="1">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B375" s="2">
         <v>44413</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="1">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B376" s="2">
         <v>44412</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="1">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B377" s="2">
         <v>44411</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="1">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B378" s="2">
         <v>44407</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="1">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B379" s="2">
         <v>44406</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="1">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B380" s="2">
         <v>44405</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="1">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B381" s="2">
         <v>44404</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="1">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B382" s="2">
         <v>44400</v>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="1">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B383" s="2">
         <v>44399</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="1">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B384" s="2">
         <v>44398</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="1">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B385" s="2">
         <v>44397</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="1">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B386" s="2">
         <v>44393</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="1">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B387" s="2">
         <v>44392</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="1">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B388" s="2">
         <v>44391</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="1">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B389" s="2">
         <v>44390</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="1">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B390" s="2">
         <v>44386</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="1">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B391" s="2">
         <v>44385</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="1">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B392" s="2">
         <v>44384</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="1">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B393" s="2">
         <v>44383</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="1">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B394" s="2">
         <v>44379</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="1">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B395" s="2">
         <v>44378</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="1">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B396" s="2">
         <v>44377</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="1">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B397" s="2">
         <v>44376</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="1">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B398" s="2">
         <v>44372</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="1">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B399" s="2">
         <v>44371</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="1">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B400" s="2">
         <v>44370</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="1">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B401" s="2">
         <v>44369</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="1">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B402" s="2">
         <v>44365</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B403" s="2">
         <v>44364</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="1">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B404" s="2">
         <v>44363</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="1">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B405" s="2">
         <v>44358</v>
@@ -6062,7 +6062,7 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="1">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B406" s="2">
         <v>44357</v>
@@ -6076,7 +6076,7 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="1">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B407" s="2">
         <v>44356</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="1">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B408" s="2">
         <v>44355</v>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="1">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B409" s="2">
         <v>44351</v>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="1">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B410" s="2">
         <v>44350</v>
@@ -6132,7 +6132,7 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="1">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B411" s="2">
         <v>44349</v>
@@ -6146,7 +6146,7 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="1">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B412" s="2">
         <v>44348</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="1">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B413" s="2">
         <v>44344</v>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="1">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B414" s="2">
         <v>44343</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="1">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B415" s="2">
         <v>44342</v>
@@ -6202,7 +6202,7 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="1">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B416" s="2">
         <v>44341</v>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="1">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B417" s="2">
         <v>44337</v>
@@ -6230,7 +6230,7 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="1">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B418" s="2">
         <v>44336</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="1">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B419" s="2">
         <v>44335</v>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="1">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B420" s="2">
         <v>44334</v>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="1">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B421" s="2">
         <v>44330</v>
@@ -6286,7 +6286,7 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="1">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B422" s="2">
         <v>44329</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="1">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B423" s="2">
         <v>44328</v>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="1">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B424" s="2">
         <v>44323</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="1">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B425" s="2">
         <v>44322</v>
@@ -6342,7 +6342,7 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="1">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B426" s="2">
         <v>44316</v>
@@ -6356,7 +6356,7 @@
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="1">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B427" s="2">
         <v>44315</v>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="1">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B428" s="2">
         <v>44314</v>
@@ -6384,7 +6384,7 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="1">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B429" s="2">
         <v>44313</v>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="1">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B430" s="2">
         <v>44309</v>
@@ -6412,7 +6412,7 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="1">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B431" s="2">
         <v>44308</v>
@@ -6426,7 +6426,7 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="1">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B432" s="2">
         <v>44307</v>
@@ -6440,7 +6440,7 @@
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="1">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B433" s="2">
         <v>44306</v>
@@ -6454,7 +6454,7 @@
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="1">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B434" s="2">
         <v>44302</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="1">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B435" s="2">
         <v>44301</v>
@@ -6482,7 +6482,7 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="1">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B436" s="2">
         <v>44300</v>
@@ -6496,7 +6496,7 @@
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="1">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B437" s="2">
         <v>44299</v>
@@ -6510,7 +6510,7 @@
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="1">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B438" s="2">
         <v>44295</v>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="1">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B439" s="2">
         <v>44294</v>
@@ -6538,7 +6538,7 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="1">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B440" s="2">
         <v>44293</v>
@@ -6552,7 +6552,7 @@
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="1">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B441" s="2">
         <v>44292</v>
@@ -6566,7 +6566,7 @@
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="1">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B442" s="2">
         <v>44288</v>
@@ -6580,7 +6580,7 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="1">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B443" s="2">
         <v>44287</v>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="1">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B444" s="2">
         <v>44286</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="1">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B445" s="2">
         <v>44285</v>
@@ -6622,7 +6622,7 @@
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="1">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B446" s="2">
         <v>44281</v>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="1">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B447" s="2">
         <v>44280</v>
@@ -6650,7 +6650,7 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="1">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B448" s="2">
         <v>44279</v>
@@ -6664,7 +6664,7 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="1">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B449" s="2">
         <v>44278</v>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="1">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B450" s="2">
         <v>44274</v>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="1">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B451" s="2">
         <v>44273</v>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="1">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B452" s="2">
         <v>44272</v>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="1">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B453" s="2">
         <v>44271</v>
@@ -6734,7 +6734,7 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="1">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B454" s="2">
         <v>44267</v>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="1">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B455" s="2">
         <v>44266</v>
@@ -6762,7 +6762,7 @@
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="1">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B456" s="2">
         <v>44265</v>
@@ -6776,7 +6776,7 @@
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="1">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B457" s="2">
         <v>44260</v>
@@ -6790,7 +6790,7 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="1">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B458" s="2">
         <v>44259</v>
@@ -6804,7 +6804,7 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="1">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B459" s="2">
         <v>44258</v>
@@ -6818,7 +6818,7 @@
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="1">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B460" s="2">
         <v>44257</v>
@@ -6832,7 +6832,7 @@
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="1">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B461" s="2">
         <v>44253</v>
@@ -6846,7 +6846,7 @@
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="1">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B462" s="2">
         <v>44252</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="1">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B463" s="2">
         <v>44246</v>
@@ -6874,7 +6874,7 @@
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="1">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B464" s="2">
         <v>44245</v>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="1">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B465" s="2">
         <v>44237</v>
@@ -6902,7 +6902,7 @@
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="1">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B466" s="2">
         <v>44236</v>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="1">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B467" s="2">
         <v>44232</v>
@@ -6930,7 +6930,7 @@
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="1">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B468" s="2">
         <v>44231</v>
@@ -6944,7 +6944,7 @@
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="1">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B469" s="2">
         <v>44230</v>
@@ -6958,7 +6958,7 @@
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="1">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B470" s="2">
         <v>44229</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="1">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B471" s="2">
         <v>44225</v>
@@ -6986,7 +6986,7 @@
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="1">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B472" s="2">
         <v>44224</v>
@@ -7000,7 +7000,7 @@
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="1">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B473" s="2">
         <v>44223</v>
@@ -7014,7 +7014,7 @@
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="1">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B474" s="2">
         <v>44222</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="1">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B475" s="2">
         <v>44218</v>
@@ -7042,7 +7042,7 @@
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="1">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B476" s="2">
         <v>44217</v>
@@ -7056,7 +7056,7 @@
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="1">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B477" s="2">
         <v>44216</v>
@@ -7070,7 +7070,7 @@
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="1">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B478" s="2">
         <v>44215</v>
@@ -7084,7 +7084,7 @@
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="1">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B479" s="2">
         <v>44211</v>
@@ -7098,7 +7098,7 @@
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="1">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B480" s="2">
         <v>44210</v>
@@ -7112,7 +7112,7 @@
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="1">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B481" s="2">
         <v>44209</v>
@@ -7126,7 +7126,7 @@
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="1">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B482" s="2">
         <v>44208</v>
@@ -7140,7 +7140,7 @@
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="1">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B483" s="2">
         <v>44196</v>
@@ -7154,7 +7154,7 @@
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="1">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B484" s="2">
         <v>44195</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="1">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B485" s="2">
         <v>44194</v>
@@ -7182,7 +7182,7 @@
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="1">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B486" s="2">
         <v>44190</v>
@@ -7196,7 +7196,7 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="1">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B487" s="2">
         <v>44189</v>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="1">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B488" s="2">
         <v>44188</v>
@@ -7224,7 +7224,7 @@
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="1">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B489" s="2">
         <v>44187</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="1">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B490" s="2">
         <v>44183</v>
@@ -7252,7 +7252,7 @@
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="1">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B491" s="2">
         <v>44182</v>
@@ -7266,7 +7266,7 @@
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="1">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B492" s="2">
         <v>44181</v>
@@ -7280,7 +7280,7 @@
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="1">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B493" s="2">
         <v>44180</v>
@@ -7294,7 +7294,7 @@
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="1">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B494" s="2">
         <v>44176</v>
@@ -7308,7 +7308,7 @@
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="1">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B495" s="2">
         <v>44175</v>
@@ -7322,7 +7322,7 @@
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="1">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B496" s="2">
         <v>44174</v>
@@ -7336,7 +7336,7 @@
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="1">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B497" s="2">
         <v>44173</v>
@@ -7350,7 +7350,7 @@
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="1">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B498" s="2">
         <v>44169</v>
@@ -7364,7 +7364,7 @@
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="1">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B499" s="2">
         <v>44168</v>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="1">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B500" s="2">
         <v>44167</v>
@@ -7392,7 +7392,7 @@
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="1">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B501" s="2">
         <v>44166</v>
@@ -7406,7 +7406,7 @@
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="1">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B502" s="2">
         <v>44162</v>
@@ -7420,7 +7420,7 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="1">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B503" s="2">
         <v>44161</v>
@@ -7434,7 +7434,7 @@
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="1">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B504" s="2">
         <v>44160</v>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="1">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B505" s="2">
         <v>44159</v>
@@ -7462,7 +7462,7 @@
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="1">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B506" s="2">
         <v>44155</v>
@@ -7476,7 +7476,7 @@
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="1">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B507" s="2">
         <v>44154</v>
@@ -7490,7 +7490,7 @@
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="1">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B508" s="2">
         <v>44153</v>
@@ -7504,7 +7504,7 @@
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="1">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B509" s="2">
         <v>44152</v>
@@ -7518,7 +7518,7 @@
     </row>
     <row r="510" spans="1:4">
       <c r="A510" s="1">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B510" s="2">
         <v>44148</v>
@@ -7532,7 +7532,7 @@
     </row>
     <row r="511" spans="1:4">
       <c r="A511" s="1">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B511" s="2">
         <v>44147</v>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="1">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B512" s="2">
         <v>44146</v>
@@ -7560,7 +7560,7 @@
     </row>
     <row r="513" spans="1:4">
       <c r="A513" s="1">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B513" s="2">
         <v>44145</v>
@@ -7574,7 +7574,7 @@
     </row>
     <row r="514" spans="1:4">
       <c r="A514" s="1">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B514" s="2">
         <v>44141</v>
@@ -7588,7 +7588,7 @@
     </row>
     <row r="515" spans="1:4">
       <c r="A515" s="1">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B515" s="2">
         <v>44139</v>
@@ -7602,7 +7602,7 @@
     </row>
     <row r="516" spans="1:4">
       <c r="A516" s="1">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B516" s="2">
         <v>44138</v>
@@ -7616,7 +7616,7 @@
     </row>
     <row r="517" spans="1:4">
       <c r="A517" s="1">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B517" s="2">
         <v>44134</v>
@@ -7630,7 +7630,7 @@
     </row>
     <row r="518" spans="1:4">
       <c r="A518" s="1">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B518" s="2">
         <v>44133</v>
@@ -7644,7 +7644,7 @@
     </row>
     <row r="519" spans="1:4">
       <c r="A519" s="1">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B519" s="2">
         <v>44132</v>
@@ -7658,7 +7658,7 @@
     </row>
     <row r="520" spans="1:4">
       <c r="A520" s="1">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B520" s="2">
         <v>44131</v>
@@ -7672,7 +7672,7 @@
     </row>
     <row r="521" spans="1:4">
       <c r="A521" s="1">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B521" s="2">
         <v>44127</v>
@@ -7686,7 +7686,7 @@
     </row>
     <row r="522" spans="1:4">
       <c r="A522" s="1">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B522" s="2">
         <v>44126</v>
@@ -7700,7 +7700,7 @@
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="1">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B523" s="2">
         <v>44125</v>
@@ -7714,7 +7714,7 @@
     </row>
     <row r="524" spans="1:4">
       <c r="A524" s="1">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B524" s="2">
         <v>44124</v>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="525" spans="1:4">
       <c r="A525" s="1">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B525" s="2">
         <v>44120</v>
@@ -7742,7 +7742,7 @@
     </row>
     <row r="526" spans="1:4">
       <c r="A526" s="1">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B526" s="2">
         <v>44119</v>
@@ -7756,7 +7756,7 @@
     </row>
     <row r="527" spans="1:4">
       <c r="A527" s="1">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B527" s="2">
         <v>44118</v>
@@ -7770,7 +7770,7 @@
     </row>
     <row r="528" spans="1:4">
       <c r="A528" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B528" s="2">
         <v>44117</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="529" spans="1:4">
       <c r="A529" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B529" s="2">
         <v>44113</v>
@@ -7798,7 +7798,7 @@
     </row>
     <row r="530" spans="1:4">
       <c r="A530" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B530" s="2">
         <v>44104</v>
@@ -7812,7 +7812,7 @@
     </row>
     <row r="531" spans="1:4">
       <c r="A531" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B531" s="2">
         <v>44103</v>
@@ -7826,7 +7826,7 @@
     </row>
     <row r="532" spans="1:4">
       <c r="A532" s="1">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B532" s="2">
         <v>44099</v>
@@ -7840,7 +7840,7 @@
     </row>
     <row r="533" spans="1:4">
       <c r="A533" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B533" s="2">
         <v>44098</v>
@@ -7854,7 +7854,7 @@
     </row>
     <row r="534" spans="1:4">
       <c r="A534" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B534" s="2">
         <v>44097</v>
@@ -7868,7 +7868,7 @@
     </row>
     <row r="535" spans="1:4">
       <c r="A535" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B535" s="2">
         <v>44096</v>
@@ -7882,7 +7882,7 @@
     </row>
     <row r="536" spans="1:4">
       <c r="A536" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B536" s="2">
         <v>44092</v>
@@ -7896,7 +7896,7 @@
     </row>
     <row r="537" spans="1:4">
       <c r="A537" s="1">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B537" s="2">
         <v>44091</v>
@@ -7910,7 +7910,7 @@
     </row>
     <row r="538" spans="1:4">
       <c r="A538" s="1">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B538" s="2">
         <v>44090</v>
@@ -7924,7 +7924,7 @@
     </row>
     <row r="539" spans="1:4">
       <c r="A539" s="1">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B539" s="2">
         <v>44089</v>
@@ -7938,7 +7938,7 @@
     </row>
     <row r="540" spans="1:4">
       <c r="A540" s="1">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B540" s="2">
         <v>44085</v>
@@ -7952,7 +7952,7 @@
     </row>
     <row r="541" spans="1:4">
       <c r="A541" s="1">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B541" s="2">
         <v>44084</v>
@@ -7966,7 +7966,7 @@
     </row>
     <row r="542" spans="1:4">
       <c r="A542" s="1">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B542" s="2">
         <v>44083</v>
@@ -7980,7 +7980,7 @@
     </row>
     <row r="543" spans="1:4">
       <c r="A543" s="1">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B543" s="2">
         <v>44082</v>
@@ -7994,7 +7994,7 @@
     </row>
     <row r="544" spans="1:4">
       <c r="A544" s="1">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B544" s="2">
         <v>44078</v>
@@ -8008,7 +8008,7 @@
     </row>
     <row r="545" spans="1:4">
       <c r="A545" s="1">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B545" s="2">
         <v>44077</v>
@@ -8022,7 +8022,7 @@
     </row>
     <row r="546" spans="1:4">
       <c r="A546" s="1">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B546" s="2">
         <v>44076</v>
@@ -8036,7 +8036,7 @@
     </row>
     <row r="547" spans="1:4">
       <c r="A547" s="1">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B547" s="2">
         <v>44075</v>
@@ -8050,7 +8050,7 @@
     </row>
     <row r="548" spans="1:4">
       <c r="A548" s="1">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B548" s="2">
         <v>44071</v>
@@ -8064,7 +8064,7 @@
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="1">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B549" s="2">
         <v>44070</v>
@@ -8078,7 +8078,7 @@
     </row>
     <row r="550" spans="1:4">
       <c r="A550" s="1">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B550" s="2">
         <v>44069</v>
@@ -8092,7 +8092,7 @@
     </row>
     <row r="551" spans="1:4">
       <c r="A551" s="1">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B551" s="2">
         <v>44068</v>
@@ -8106,7 +8106,7 @@
     </row>
     <row r="552" spans="1:4">
       <c r="A552" s="1">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B552" s="2">
         <v>44064</v>
@@ -8120,7 +8120,7 @@
     </row>
     <row r="553" spans="1:4">
       <c r="A553" s="1">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B553" s="2">
         <v>44063</v>
@@ -8134,7 +8134,7 @@
     </row>
     <row r="554" spans="1:4">
       <c r="A554" s="1">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B554" s="2">
         <v>44062</v>
@@ -8148,7 +8148,7 @@
     </row>
     <row r="555" spans="1:4">
       <c r="A555" s="1">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B555" s="2">
         <v>44061</v>
@@ -8162,7 +8162,7 @@
     </row>
     <row r="556" spans="1:4">
       <c r="A556" s="1">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B556" s="2">
         <v>44057</v>
@@ -8176,7 +8176,7 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557" s="1">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B557" s="2">
         <v>44056</v>
@@ -8190,7 +8190,7 @@
     </row>
     <row r="558" spans="1:4">
       <c r="A558" s="1">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B558" s="2">
         <v>44055</v>
@@ -8204,7 +8204,7 @@
     </row>
     <row r="559" spans="1:4">
       <c r="A559" s="1">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B559" s="2">
         <v>44054</v>
@@ -8218,7 +8218,7 @@
     </row>
     <row r="560" spans="1:4">
       <c r="A560" s="1">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B560" s="2">
         <v>44050</v>
@@ -8232,7 +8232,7 @@
     </row>
     <row r="561" spans="1:4">
       <c r="A561" s="1">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B561" s="2">
         <v>44049</v>
@@ -8246,7 +8246,7 @@
     </row>
     <row r="562" spans="1:4">
       <c r="A562" s="1">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B562" s="2">
         <v>44048</v>
@@ -8260,7 +8260,7 @@
     </row>
     <row r="563" spans="1:4">
       <c r="A563" s="1">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B563" s="2">
         <v>44047</v>
@@ -8274,7 +8274,7 @@
     </row>
     <row r="564" spans="1:4">
       <c r="A564" s="1">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B564" s="2">
         <v>44043</v>
@@ -8288,7 +8288,7 @@
     </row>
     <row r="565" spans="1:4">
       <c r="A565" s="1">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B565" s="2">
         <v>44042</v>
@@ -8302,7 +8302,7 @@
     </row>
     <row r="566" spans="1:4">
       <c r="A566" s="1">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B566" s="2">
         <v>44041</v>
@@ -8316,7 +8316,7 @@
     </row>
     <row r="567" spans="1:4">
       <c r="A567" s="1">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B567" s="2">
         <v>44040</v>
@@ -8330,7 +8330,7 @@
     </row>
     <row r="568" spans="1:4">
       <c r="A568" s="1">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B568" s="2">
         <v>44036</v>
@@ -8344,7 +8344,7 @@
     </row>
     <row r="569" spans="1:4">
       <c r="A569" s="1">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B569" s="2">
         <v>44035</v>
@@ -8358,7 +8358,7 @@
     </row>
     <row r="570" spans="1:4">
       <c r="A570" s="1">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B570" s="2">
         <v>44034</v>
@@ -8372,7 +8372,7 @@
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="1">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B571" s="2">
         <v>44033</v>
@@ -8386,7 +8386,7 @@
     </row>
     <row r="572" spans="1:4">
       <c r="A572" s="1">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B572" s="2">
         <v>44029</v>
@@ -8400,7 +8400,7 @@
     </row>
     <row r="573" spans="1:4">
       <c r="A573" s="1">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B573" s="2">
         <v>44028</v>
@@ -8414,7 +8414,7 @@
     </row>
     <row r="574" spans="1:4">
       <c r="A574" s="1">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B574" s="2">
         <v>44027</v>
@@ -8428,7 +8428,7 @@
     </row>
     <row r="575" spans="1:4">
       <c r="A575" s="1">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B575" s="2">
         <v>44026</v>
@@ -8442,7 +8442,7 @@
     </row>
     <row r="576" spans="1:4">
       <c r="A576" s="1">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B576" s="2">
         <v>44022</v>
@@ -8456,7 +8456,7 @@
     </row>
     <row r="577" spans="1:4">
       <c r="A577" s="1">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B577" s="2">
         <v>44021</v>
@@ -8470,7 +8470,7 @@
     </row>
     <row r="578" spans="1:4">
       <c r="A578" s="1">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B578" s="2">
         <v>44020</v>
@@ -8484,7 +8484,7 @@
     </row>
     <row r="579" spans="1:4">
       <c r="A579" s="1">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B579" s="2">
         <v>44019</v>
@@ -8498,7 +8498,7 @@
     </row>
     <row r="580" spans="1:4">
       <c r="A580" s="1">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B580" s="2">
         <v>44015</v>
@@ -8512,7 +8512,7 @@
     </row>
     <row r="581" spans="1:4">
       <c r="A581" s="1">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B581" s="2">
         <v>44014</v>
@@ -8526,7 +8526,7 @@
     </row>
     <row r="582" spans="1:4">
       <c r="A582" s="1">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B582" s="2">
         <v>44013</v>
@@ -8540,7 +8540,7 @@
     </row>
     <row r="583" spans="1:4">
       <c r="A583" s="1">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B583" s="2">
         <v>44012</v>
@@ -8554,7 +8554,7 @@
     </row>
     <row r="584" spans="1:4">
       <c r="A584" s="1">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B584" s="2">
         <v>44006</v>
@@ -8568,7 +8568,7 @@
     </row>
     <row r="585" spans="1:4">
       <c r="A585" s="1">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B585" s="2">
         <v>44005</v>
@@ -8582,7 +8582,7 @@
     </row>
     <row r="586" spans="1:4">
       <c r="A586" s="1">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B586" s="2">
         <v>44001</v>
@@ -8596,7 +8596,7 @@
     </row>
     <row r="587" spans="1:4">
       <c r="A587" s="1">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B587" s="2">
         <v>44000</v>
@@ -8610,7 +8610,7 @@
     </row>
     <row r="588" spans="1:4">
       <c r="A588" s="1">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B588" s="2">
         <v>43999</v>
@@ -8624,7 +8624,7 @@
     </row>
     <row r="589" spans="1:4">
       <c r="A589" s="1">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B589" s="2">
         <v>43998</v>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="590" spans="1:4">
       <c r="A590" s="1">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B590" s="2">
         <v>43994</v>
@@ -8652,7 +8652,7 @@
     </row>
     <row r="591" spans="1:4">
       <c r="A591" s="1">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B591" s="2">
         <v>43993</v>
@@ -8666,7 +8666,7 @@
     </row>
     <row r="592" spans="1:4">
       <c r="A592" s="1">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B592" s="2">
         <v>43992</v>
@@ -8680,7 +8680,7 @@
     </row>
     <row r="593" spans="1:4">
       <c r="A593" s="1">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B593" s="2">
         <v>43991</v>
@@ -8694,7 +8694,7 @@
     </row>
     <row r="594" spans="1:4">
       <c r="A594" s="1">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B594" s="2">
         <v>43987</v>
@@ -8708,7 +8708,7 @@
     </row>
     <row r="595" spans="1:4">
       <c r="A595" s="1">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B595" s="2">
         <v>43986</v>
@@ -8722,7 +8722,7 @@
     </row>
     <row r="596" spans="1:4">
       <c r="A596" s="1">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B596" s="2">
         <v>43985</v>
@@ -8736,7 +8736,7 @@
     </row>
     <row r="597" spans="1:4">
       <c r="A597" s="1">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B597" s="2">
         <v>43984</v>
@@ -8750,7 +8750,7 @@
     </row>
     <row r="598" spans="1:4">
       <c r="A598" s="1">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B598" s="2">
         <v>43980</v>
@@ -8764,7 +8764,7 @@
     </row>
     <row r="599" spans="1:4">
       <c r="A599" s="1">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B599" s="2">
         <v>43979</v>
@@ -8778,7 +8778,7 @@
     </row>
     <row r="600" spans="1:4">
       <c r="A600" s="1">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B600" s="2">
         <v>43978</v>
@@ -8792,7 +8792,7 @@
     </row>
     <row r="601" spans="1:4">
       <c r="A601" s="1">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B601" s="2">
         <v>43977</v>
@@ -8806,7 +8806,7 @@
     </row>
     <row r="602" spans="1:4">
       <c r="A602" s="1">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B602" s="2">
         <v>43973</v>
@@ -8820,7 +8820,7 @@
     </row>
     <row r="603" spans="1:4">
       <c r="A603" s="1">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B603" s="2">
         <v>43972</v>
@@ -8834,7 +8834,7 @@
     </row>
     <row r="604" spans="1:4">
       <c r="A604" s="1">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B604" s="2">
         <v>43971</v>
@@ -8848,7 +8848,7 @@
     </row>
     <row r="605" spans="1:4">
       <c r="A605" s="1">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B605" s="2">
         <v>43970</v>
@@ -8862,7 +8862,7 @@
     </row>
     <row r="606" spans="1:4">
       <c r="A606" s="1">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B606" s="2">
         <v>43966</v>
@@ -8876,7 +8876,7 @@
     </row>
     <row r="607" spans="1:4">
       <c r="A607" s="1">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B607" s="2">
         <v>43965</v>
@@ -8890,7 +8890,7 @@
     </row>
     <row r="608" spans="1:4">
       <c r="A608" s="1">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B608" s="2">
         <v>43964</v>
@@ -8904,7 +8904,7 @@
     </row>
     <row r="609" spans="1:4">
       <c r="A609" s="1">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B609" s="2">
         <v>43959</v>
@@ -8918,7 +8918,7 @@
     </row>
     <row r="610" spans="1:4">
       <c r="A610" s="1">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B610" s="2">
         <v>43958</v>
@@ -8932,7 +8932,7 @@
     </row>
     <row r="611" spans="1:4">
       <c r="A611" s="1">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B611" s="2">
         <v>43951</v>
@@ -8946,7 +8946,7 @@
     </row>
     <row r="612" spans="1:4">
       <c r="A612" s="1">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B612" s="2">
         <v>43950</v>
@@ -8960,7 +8960,7 @@
     </row>
     <row r="613" spans="1:4">
       <c r="A613" s="1">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B613" s="2">
         <v>43949</v>
@@ -8974,7 +8974,7 @@
     </row>
     <row r="614" spans="1:4">
       <c r="A614" s="1">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B614" s="2">
         <v>43945</v>
@@ -8988,7 +8988,7 @@
     </row>
     <row r="615" spans="1:4">
       <c r="A615" s="1">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B615" s="2">
         <v>43944</v>
@@ -9002,7 +9002,7 @@
     </row>
     <row r="616" spans="1:4">
       <c r="A616" s="1">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B616" s="2">
         <v>43943</v>
@@ -9016,7 +9016,7 @@
     </row>
     <row r="617" spans="1:4">
       <c r="A617" s="1">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B617" s="2">
         <v>43942</v>
@@ -9030,7 +9030,7 @@
     </row>
     <row r="618" spans="1:4">
       <c r="A618" s="1">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B618" s="2">
         <v>43938</v>
@@ -9044,7 +9044,7 @@
     </row>
     <row r="619" spans="1:4">
       <c r="A619" s="1">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B619" s="2">
         <v>43937</v>
@@ -9058,7 +9058,7 @@
     </row>
     <row r="620" spans="1:4">
       <c r="A620" s="1">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B620" s="2">
         <v>43936</v>
@@ -9072,7 +9072,7 @@
     </row>
     <row r="621" spans="1:4">
       <c r="A621" s="1">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B621" s="2">
         <v>43935</v>
@@ -9086,7 +9086,7 @@
     </row>
     <row r="622" spans="1:4">
       <c r="A622" s="1">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B622" s="2">
         <v>43931</v>
@@ -9100,7 +9100,7 @@
     </row>
     <row r="623" spans="1:4">
       <c r="A623" s="1">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B623" s="2">
         <v>43930</v>
@@ -9114,7 +9114,7 @@
     </row>
     <row r="624" spans="1:4">
       <c r="A624" s="1">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B624" s="2">
         <v>43929</v>
@@ -9128,7 +9128,7 @@
     </row>
     <row r="625" spans="1:4">
       <c r="A625" s="1">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B625" s="2">
         <v>43928</v>
@@ -9142,7 +9142,7 @@
     </row>
     <row r="626" spans="1:4">
       <c r="A626" s="1">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B626" s="2">
         <v>43917</v>
@@ -9156,7 +9156,7 @@
     </row>
     <row r="627" spans="1:4">
       <c r="A627" s="1">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B627" s="2">
         <v>43916</v>
@@ -9170,7 +9170,7 @@
     </row>
     <row r="628" spans="1:4">
       <c r="A628" s="1">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B628" s="2">
         <v>43915</v>
@@ -9184,7 +9184,7 @@
     </row>
     <row r="629" spans="1:4">
       <c r="A629" s="1">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B629" s="2">
         <v>43914</v>
@@ -9198,7 +9198,7 @@
     </row>
     <row r="630" spans="1:4">
       <c r="A630" s="1">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B630" s="2">
         <v>43910</v>
@@ -9212,7 +9212,7 @@
     </row>
     <row r="631" spans="1:4">
       <c r="A631" s="1">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B631" s="2">
         <v>43909</v>
@@ -9226,7 +9226,7 @@
     </row>
     <row r="632" spans="1:4">
       <c r="A632" s="1">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B632" s="2">
         <v>43908</v>
@@ -9240,7 +9240,7 @@
     </row>
     <row r="633" spans="1:4">
       <c r="A633" s="1">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B633" s="2">
         <v>43907</v>
@@ -9254,7 +9254,7 @@
     </row>
     <row r="634" spans="1:4">
       <c r="A634" s="1">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B634" s="2">
         <v>43903</v>
@@ -9268,7 +9268,7 @@
     </row>
     <row r="635" spans="1:4">
       <c r="A635" s="1">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B635" s="2">
         <v>43902</v>
@@ -9282,7 +9282,7 @@
     </row>
     <row r="636" spans="1:4">
       <c r="A636" s="1">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B636" s="2">
         <v>43901</v>
@@ -9296,7 +9296,7 @@
     </row>
     <row r="637" spans="1:4">
       <c r="A637" s="1">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B637" s="2">
         <v>43896</v>
@@ -9310,7 +9310,7 @@
     </row>
     <row r="638" spans="1:4">
       <c r="A638" s="1">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B638" s="2">
         <v>43895</v>
@@ -9324,7 +9324,7 @@
     </row>
     <row r="639" spans="1:4">
       <c r="A639" s="1">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B639" s="2">
         <v>43894</v>
@@ -9338,7 +9338,7 @@
     </row>
     <row r="640" spans="1:4">
       <c r="A640" s="1">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B640" s="2">
         <v>43893</v>
@@ -9352,7 +9352,7 @@
     </row>
     <row r="641" spans="1:4">
       <c r="A641" s="1">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B641" s="2">
         <v>43889</v>
@@ -9366,7 +9366,7 @@
     </row>
     <row r="642" spans="1:4">
       <c r="A642" s="1">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B642" s="2">
         <v>43888</v>
@@ -9380,7 +9380,7 @@
     </row>
     <row r="643" spans="1:4">
       <c r="A643" s="1">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B643" s="2">
         <v>43887</v>
@@ -9394,7 +9394,7 @@
     </row>
     <row r="644" spans="1:4">
       <c r="A644" s="1">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B644" s="2">
         <v>43882</v>
@@ -9408,7 +9408,7 @@
     </row>
     <row r="645" spans="1:4">
       <c r="A645" s="1">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B645" s="2">
         <v>43881</v>
@@ -9422,7 +9422,7 @@
     </row>
     <row r="646" spans="1:4">
       <c r="A646" s="1">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B646" s="2">
         <v>43880</v>
@@ -9436,7 +9436,7 @@
     </row>
     <row r="647" spans="1:4">
       <c r="A647" s="1">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B647" s="2">
         <v>43879</v>
@@ -9450,7 +9450,7 @@
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="1">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B648" s="2">
         <v>43875</v>
@@ -9464,7 +9464,7 @@
     </row>
     <row r="649" spans="1:4">
       <c r="A649" s="1">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B649" s="2">
         <v>43874</v>
@@ -9478,7 +9478,7 @@
     </row>
     <row r="650" spans="1:4">
       <c r="A650" s="1">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B650" s="2">
         <v>43873</v>
@@ -9492,7 +9492,7 @@
     </row>
     <row r="651" spans="1:4">
       <c r="A651" s="1">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B651" s="2">
         <v>43872</v>
@@ -9506,7 +9506,7 @@
     </row>
     <row r="652" spans="1:4">
       <c r="A652" s="1">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B652" s="2">
         <v>43868</v>
@@ -9520,7 +9520,7 @@
     </row>
     <row r="653" spans="1:4">
       <c r="A653" s="1">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B653" s="2">
         <v>43867</v>
@@ -9534,7 +9534,7 @@
     </row>
     <row r="654" spans="1:4">
       <c r="A654" s="1">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B654" s="2">
         <v>43866</v>
@@ -9548,7 +9548,7 @@
     </row>
     <row r="655" spans="1:4">
       <c r="A655" s="1">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B655" s="2">
         <v>43865</v>
@@ -9562,7 +9562,7 @@
     </row>
     <row r="656" spans="1:4">
       <c r="A656" s="1">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B656" s="2">
         <v>43853</v>
@@ -9576,7 +9576,7 @@
     </row>
     <row r="657" spans="1:4">
       <c r="A657" s="1">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B657" s="2">
         <v>43852</v>
@@ -9590,7 +9590,7 @@
     </row>
     <row r="658" spans="1:4">
       <c r="A658" s="1">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B658" s="2">
         <v>43851</v>
@@ -9604,7 +9604,7 @@
     </row>
     <row r="659" spans="1:4">
       <c r="A659" s="1">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B659" s="2">
         <v>43847</v>
@@ -9618,7 +9618,7 @@
     </row>
     <row r="660" spans="1:4">
       <c r="A660" s="1">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B660" s="2">
         <v>43846</v>
@@ -9632,7 +9632,7 @@
     </row>
     <row r="661" spans="1:4">
       <c r="A661" s="1">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B661" s="2">
         <v>43845</v>
@@ -9646,7 +9646,7 @@
     </row>
     <row r="662" spans="1:4">
       <c r="A662" s="1">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B662" s="2">
         <v>43844</v>
@@ -9660,7 +9660,7 @@
     </row>
     <row r="663" spans="1:4">
       <c r="A663" s="1">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B663" s="2">
         <v>43840</v>

--- a/LME/parser_beta/data/shmet_historical.xlsx
+++ b/LME/parser_beta/data/shmet_historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="4">
   <si>
     <t>date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D666"/>
+  <dimension ref="A1:D667"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,10 +409,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="C2">
-        <v>68740</v>
+        <v>68690</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -423,10 +423,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="C3">
-        <v>68710</v>
+        <v>68740</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -437,10 +437,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="C4">
-        <v>69130</v>
+        <v>68710</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -451,10 +451,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="C5">
-        <v>69290</v>
+        <v>69130</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -465,10 +465,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45142</v>
+        <v>45145</v>
       </c>
       <c r="C6">
-        <v>69875</v>
+        <v>69290</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -479,10 +479,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="C7">
-        <v>69425</v>
+        <v>69875</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -493,10 +493,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="C8">
-        <v>69990</v>
+        <v>69425</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -507,10 +507,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="C9">
-        <v>70925</v>
+        <v>69990</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="C10">
-        <v>69830</v>
+        <v>70925</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -535,10 +535,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>45135</v>
+        <v>45138</v>
       </c>
       <c r="C11">
-        <v>68950</v>
+        <v>69830</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -549,10 +549,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="C12">
-        <v>69460</v>
+        <v>68950</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -563,10 +563,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="C13">
-        <v>69200</v>
+        <v>69460</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -577,10 +577,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="C14">
-        <v>68980</v>
+        <v>69200</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -591,10 +591,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>45128</v>
+        <v>45132</v>
       </c>
       <c r="C15">
-        <v>68670</v>
+        <v>68980</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -605,10 +605,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="C16">
-        <v>68650</v>
+        <v>68670</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -619,10 +619,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="C17">
-        <v>68580</v>
+        <v>68650</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
@@ -633,10 +633,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="C18">
-        <v>68750</v>
+        <v>68580</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -647,10 +647,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>45121</v>
+        <v>45125</v>
       </c>
       <c r="C19">
-        <v>69825</v>
+        <v>68750</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -661,10 +661,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="C20">
-        <v>68760</v>
+        <v>69825</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -675,10 +675,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="C21">
-        <v>68040</v>
+        <v>68760</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -689,10 +689,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="C22">
-        <v>68370</v>
+        <v>68040</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -703,10 +703,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>45114</v>
+        <v>45118</v>
       </c>
       <c r="C23">
-        <v>68150</v>
+        <v>68370</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
@@ -717,10 +717,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="C24">
-        <v>68300</v>
+        <v>68150</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
@@ -731,10 +731,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="C25">
-        <v>68500</v>
+        <v>68300</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
@@ -745,10 +745,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="C26">
-        <v>68775</v>
+        <v>68500</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
@@ -759,10 +759,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>45107</v>
+        <v>45111</v>
       </c>
       <c r="C27">
-        <v>68000</v>
+        <v>68775</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
@@ -773,10 +773,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="C28">
-        <v>68025</v>
+        <v>68000</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
@@ -787,10 +787,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="C29">
-        <v>68300</v>
+        <v>68025</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
@@ -801,10 +801,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="C30">
-        <v>68660</v>
+        <v>68300</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
@@ -815,10 +815,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>45098</v>
+        <v>45104</v>
       </c>
       <c r="C31">
-        <v>69650</v>
+        <v>68660</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
@@ -829,10 +829,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="C32">
-        <v>69100</v>
+        <v>69650</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
@@ -843,10 +843,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>45093</v>
+        <v>45097</v>
       </c>
       <c r="C33">
-        <v>68960</v>
+        <v>69100</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -857,10 +857,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="C34">
-        <v>68275</v>
+        <v>68960</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="C35">
-        <v>68350</v>
+        <v>68275</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
@@ -885,10 +885,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>45086</v>
+        <v>45091</v>
       </c>
       <c r="C36">
-        <v>67370</v>
+        <v>68350</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
@@ -899,10 +899,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="C37">
-        <v>67180</v>
+        <v>67370</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
@@ -913,10 +913,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="C38">
-        <v>67300</v>
+        <v>67180</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
@@ -927,10 +927,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="C39">
-        <v>67160</v>
+        <v>67300</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
@@ -941,10 +941,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>45079</v>
+        <v>45083</v>
       </c>
       <c r="C40">
-        <v>66425</v>
+        <v>67160</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
@@ -955,10 +955,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="C41">
-        <v>65850</v>
+        <v>66425</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
@@ -969,10 +969,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="C42">
-        <v>65260</v>
+        <v>65850</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="C43">
-        <v>65600</v>
+        <v>65260</v>
       </c>
       <c r="D43" t="s">
         <v>3</v>
@@ -997,10 +997,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>45072</v>
+        <v>45076</v>
       </c>
       <c r="C44">
-        <v>64150</v>
+        <v>65600</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
@@ -1011,10 +1011,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="C45">
-        <v>63750</v>
+        <v>64150</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
@@ -1025,10 +1025,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>45070</v>
+        <v>45071</v>
       </c>
       <c r="C46">
-        <v>64300</v>
+        <v>63750</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
@@ -1039,10 +1039,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="C47">
-        <v>65280</v>
+        <v>64300</v>
       </c>
       <c r="D47" t="s">
         <v>3</v>
@@ -1053,10 +1053,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>45065</v>
+        <v>45069</v>
       </c>
       <c r="C48">
-        <v>65675</v>
+        <v>65280</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
@@ -1067,10 +1067,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="C49">
-        <v>66025</v>
+        <v>65675</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
@@ -1081,10 +1081,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="C50">
-        <v>64680</v>
+        <v>66025</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
@@ -1095,10 +1095,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="C51">
-        <v>65200</v>
+        <v>64680</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
@@ -1109,10 +1109,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>45058</v>
+        <v>45062</v>
       </c>
       <c r="C52">
-        <v>64690</v>
+        <v>65200</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
@@ -1123,10 +1123,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="C53">
-        <v>66590</v>
+        <v>64690</v>
       </c>
       <c r="D53" t="s">
         <v>3</v>
@@ -1137,10 +1137,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>45051</v>
+        <v>45057</v>
       </c>
       <c r="C54">
-        <v>66675</v>
+        <v>66590</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
@@ -1151,10 +1151,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="C55">
-        <v>67290</v>
+        <v>66675</v>
       </c>
       <c r="D55" t="s">
         <v>3</v>
@@ -1165,10 +1165,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>45044</v>
+        <v>45050</v>
       </c>
       <c r="C56">
-        <v>67420</v>
+        <v>67290</v>
       </c>
       <c r="D56" t="s">
         <v>3</v>
@@ -1179,10 +1179,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="C57">
-        <v>66625</v>
+        <v>67420</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
@@ -1193,10 +1193,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="C58">
-        <v>67540</v>
+        <v>66625</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
@@ -1207,10 +1207,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="C59">
-        <v>68290</v>
+        <v>67540</v>
       </c>
       <c r="D59" t="s">
         <v>3</v>
@@ -1221,10 +1221,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>45037</v>
+        <v>45041</v>
       </c>
       <c r="C60">
-        <v>68890</v>
+        <v>68290</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
@@ -1235,10 +1235,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="C61">
-        <v>69500</v>
+        <v>68890</v>
       </c>
       <c r="D61" t="s">
         <v>3</v>
@@ -1249,10 +1249,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="C62">
-        <v>69680</v>
+        <v>69500</v>
       </c>
       <c r="D62" t="s">
         <v>3</v>
@@ -1263,10 +1263,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="C63">
-        <v>69650</v>
+        <v>69680</v>
       </c>
       <c r="D63" t="s">
         <v>3</v>
@@ -1277,10 +1277,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>45030</v>
+        <v>45034</v>
       </c>
       <c r="C64">
-        <v>70310</v>
+        <v>69650</v>
       </c>
       <c r="D64" t="s">
         <v>3</v>
@@ -1291,10 +1291,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="C65">
-        <v>69405</v>
+        <v>70310</v>
       </c>
       <c r="D65" t="s">
         <v>3</v>
@@ -1305,10 +1305,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="C66">
-        <v>69150</v>
+        <v>69405</v>
       </c>
       <c r="D66" t="s">
         <v>3</v>
@@ -1319,10 +1319,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="C67">
-        <v>68580</v>
+        <v>69150</v>
       </c>
       <c r="D67" t="s">
         <v>3</v>
@@ -1333,10 +1333,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>45023</v>
+        <v>45027</v>
       </c>
       <c r="C68">
-        <v>68875</v>
+        <v>68580</v>
       </c>
       <c r="D68" t="s">
         <v>3</v>
@@ -1347,10 +1347,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="C69">
-        <v>68830</v>
+        <v>68875</v>
       </c>
       <c r="D69" t="s">
         <v>3</v>
@@ -1361,10 +1361,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>45020</v>
+        <v>45022</v>
       </c>
       <c r="C70">
-        <v>69225</v>
+        <v>68830</v>
       </c>
       <c r="D70" t="s">
         <v>3</v>
@@ -1375,10 +1375,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>45016</v>
+        <v>45020</v>
       </c>
       <c r="C71">
-        <v>69650</v>
+        <v>69225</v>
       </c>
       <c r="D71" t="s">
         <v>3</v>
@@ -1389,10 +1389,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="C72">
-        <v>69620</v>
+        <v>69650</v>
       </c>
       <c r="D72" t="s">
         <v>3</v>
@@ -1403,10 +1403,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="C73">
-        <v>69580</v>
+        <v>69620</v>
       </c>
       <c r="D73" t="s">
         <v>3</v>
@@ -1417,10 +1417,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="C74">
-        <v>69770</v>
+        <v>69580</v>
       </c>
       <c r="D74" t="s">
         <v>3</v>
@@ -1431,10 +1431,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>45009</v>
+        <v>45013</v>
       </c>
       <c r="C75">
-        <v>69230</v>
+        <v>69770</v>
       </c>
       <c r="D75" t="s">
         <v>3</v>
@@ -1445,10 +1445,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="C76">
-        <v>68630</v>
+        <v>69230</v>
       </c>
       <c r="D76" t="s">
         <v>3</v>
@@ -1459,10 +1459,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="C77">
-        <v>68100</v>
+        <v>68630</v>
       </c>
       <c r="D77" t="s">
         <v>3</v>
@@ -1473,10 +1473,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="C78">
-        <v>67575</v>
+        <v>68100</v>
       </c>
       <c r="D78" t="s">
         <v>3</v>
@@ -1487,10 +1487,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>45002</v>
+        <v>45006</v>
       </c>
       <c r="C79">
-        <v>67340</v>
+        <v>67575</v>
       </c>
       <c r="D79" t="s">
         <v>3</v>
@@ -1501,10 +1501,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="C80">
-        <v>67100</v>
+        <v>67340</v>
       </c>
       <c r="D80" t="s">
         <v>3</v>
@@ -1515,10 +1515,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="C81">
-        <v>68925</v>
+        <v>67100</v>
       </c>
       <c r="D81" t="s">
         <v>3</v>
@@ -1529,10 +1529,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="C82">
-        <v>68600</v>
+        <v>68925</v>
       </c>
       <c r="D82" t="s">
         <v>3</v>
@@ -1543,10 +1543,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>44995</v>
+        <v>44999</v>
       </c>
       <c r="C83">
-        <v>69025</v>
+        <v>68600</v>
       </c>
       <c r="D83" t="s">
         <v>3</v>
@@ -1557,10 +1557,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>44993</v>
+        <v>44995</v>
       </c>
       <c r="C84">
-        <v>68840</v>
+        <v>69025</v>
       </c>
       <c r="D84" t="s">
         <v>3</v>
@@ -1571,10 +1571,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="C85">
-        <v>69610</v>
+        <v>68840</v>
       </c>
       <c r="D85" t="s">
         <v>3</v>
@@ -1585,10 +1585,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="C86">
-        <v>69400</v>
+        <v>69610</v>
       </c>
       <c r="D86" t="s">
         <v>3</v>
@@ -1599,10 +1599,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="C87">
-        <v>69865</v>
+        <v>69400</v>
       </c>
       <c r="D87" t="s">
         <v>3</v>
@@ -1613,10 +1613,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="C88">
-        <v>69710</v>
+        <v>69865</v>
       </c>
       <c r="D88" t="s">
         <v>3</v>
@@ -1627,10 +1627,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="C89">
-        <v>68550</v>
+        <v>69710</v>
       </c>
       <c r="D89" t="s">
         <v>3</v>
@@ -1641,10 +1641,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="C90">
-        <v>70050</v>
+        <v>68550</v>
       </c>
       <c r="D90" t="s">
         <v>3</v>
@@ -1655,10 +1655,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="C91">
-        <v>70400</v>
+        <v>70050</v>
       </c>
       <c r="D91" t="s">
         <v>3</v>
@@ -1669,10 +1669,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="C92">
-        <v>69705</v>
+        <v>70400</v>
       </c>
       <c r="D92" t="s">
         <v>3</v>
@@ -1683,10 +1683,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>44974</v>
+        <v>44978</v>
       </c>
       <c r="C93">
-        <v>69080</v>
+        <v>69705</v>
       </c>
       <c r="D93" t="s">
         <v>3</v>
@@ -1697,10 +1697,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="C94">
-        <v>68370</v>
+        <v>69080</v>
       </c>
       <c r="D94" t="s">
         <v>3</v>
@@ -1711,10 +1711,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="C95">
-        <v>68950</v>
+        <v>68370</v>
       </c>
       <c r="D95" t="s">
         <v>3</v>
@@ -1725,10 +1725,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="C96">
-        <v>68510</v>
+        <v>68950</v>
       </c>
       <c r="D96" t="s">
         <v>3</v>
@@ -1739,10 +1739,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>44967</v>
+        <v>44971</v>
       </c>
       <c r="C97">
-        <v>68225</v>
+        <v>68510</v>
       </c>
       <c r="D97" t="s">
         <v>3</v>
@@ -1753,10 +1753,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="C98">
-        <v>68240</v>
+        <v>68225</v>
       </c>
       <c r="D98" t="s">
         <v>3</v>
@@ -1767,10 +1767,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="C99">
-        <v>68250</v>
+        <v>68240</v>
       </c>
       <c r="D99" t="s">
         <v>3</v>
@@ -1781,10 +1781,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="C100">
-        <v>67860</v>
+        <v>68250</v>
       </c>
       <c r="D100" t="s">
         <v>3</v>
@@ -1795,10 +1795,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>44960</v>
+        <v>44964</v>
       </c>
       <c r="C101">
-        <v>68425</v>
+        <v>67860</v>
       </c>
       <c r="D101" t="s">
         <v>3</v>
@@ -1809,10 +1809,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="2">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="C102">
-        <v>69070</v>
+        <v>68425</v>
       </c>
       <c r="D102" t="s">
         <v>3</v>
@@ -1823,10 +1823,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="2">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="C103">
-        <v>69560</v>
+        <v>69070</v>
       </c>
       <c r="D103" t="s">
         <v>3</v>
@@ -1837,10 +1837,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="C104">
-        <v>69425</v>
+        <v>69560</v>
       </c>
       <c r="D104" t="s">
         <v>3</v>
@@ -1851,10 +1851,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>44946</v>
+        <v>44957</v>
       </c>
       <c r="C105">
-        <v>70150</v>
+        <v>69425</v>
       </c>
       <c r="D105" t="s">
         <v>3</v>
@@ -1865,10 +1865,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="2">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="C106">
-        <v>69570</v>
+        <v>70150</v>
       </c>
       <c r="D106" t="s">
         <v>3</v>
@@ -1879,10 +1879,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="2">
-        <v>44944</v>
+        <v>44945</v>
       </c>
       <c r="C107">
-        <v>69750</v>
+        <v>69570</v>
       </c>
       <c r="D107" t="s">
         <v>3</v>
@@ -1893,10 +1893,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="2">
-        <v>44943</v>
+        <v>44944</v>
       </c>
       <c r="C108">
-        <v>68410</v>
+        <v>69750</v>
       </c>
       <c r="D108" t="s">
         <v>3</v>
@@ -1907,10 +1907,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="2">
-        <v>44939</v>
+        <v>44943</v>
       </c>
       <c r="C109">
-        <v>68725</v>
+        <v>68410</v>
       </c>
       <c r="D109" t="s">
         <v>3</v>
@@ -1921,10 +1921,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="2">
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="C110">
-        <v>68430</v>
+        <v>68725</v>
       </c>
       <c r="D110" t="s">
         <v>3</v>
@@ -1935,10 +1935,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="2">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="C111">
-        <v>67500</v>
+        <v>68430</v>
       </c>
       <c r="D111" t="s">
         <v>3</v>
@@ -1949,10 +1949,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="2">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="C112">
-        <v>66475</v>
+        <v>67500</v>
       </c>
       <c r="D112" t="s">
         <v>3</v>
@@ -1963,10 +1963,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>44925</v>
+        <v>44936</v>
       </c>
       <c r="C113">
-        <v>66175</v>
+        <v>66475</v>
       </c>
       <c r="D113" t="s">
         <v>3</v>
@@ -1977,10 +1977,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="C114">
-        <v>66200</v>
+        <v>66175</v>
       </c>
       <c r="D114" t="s">
         <v>3</v>
@@ -1991,10 +1991,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="C115">
-        <v>66270</v>
+        <v>66200</v>
       </c>
       <c r="D115" t="s">
         <v>3</v>
@@ -2005,10 +2005,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>44922</v>
+        <v>44923</v>
       </c>
       <c r="C116">
-        <v>66400</v>
+        <v>66270</v>
       </c>
       <c r="D116" t="s">
         <v>3</v>
@@ -2019,10 +2019,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>44918</v>
+        <v>44922</v>
       </c>
       <c r="C117">
-        <v>66000</v>
+        <v>66400</v>
       </c>
       <c r="D117" t="s">
         <v>3</v>
@@ -2033,10 +2033,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="C118">
-        <v>66750</v>
+        <v>66000</v>
       </c>
       <c r="D118" t="s">
         <v>3</v>
@@ -2047,10 +2047,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="C119">
-        <v>66225</v>
+        <v>66750</v>
       </c>
       <c r="D119" t="s">
         <v>3</v>
@@ -2061,10 +2061,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="C120">
-        <v>65575</v>
+        <v>66225</v>
       </c>
       <c r="D120" t="s">
         <v>3</v>
@@ -2075,10 +2075,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>44911</v>
+        <v>44915</v>
       </c>
       <c r="C121">
-        <v>65750</v>
+        <v>65575</v>
       </c>
       <c r="D121" t="s">
         <v>3</v>
@@ -2089,10 +2089,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="C122">
-        <v>66125</v>
+        <v>65750</v>
       </c>
       <c r="D122" t="s">
         <v>3</v>
@@ -2103,10 +2103,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>44909</v>
+        <v>44910</v>
       </c>
       <c r="C123">
-        <v>66625</v>
+        <v>66125</v>
       </c>
       <c r="D123" t="s">
         <v>3</v>
@@ -2117,10 +2117,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="C124">
-        <v>66175</v>
+        <v>66625</v>
       </c>
       <c r="D124" t="s">
         <v>3</v>
@@ -2131,10 +2131,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>44904</v>
+        <v>44908</v>
       </c>
       <c r="C125">
-        <v>67000</v>
+        <v>66175</v>
       </c>
       <c r="D125" t="s">
         <v>3</v>
@@ -2145,10 +2145,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="C126">
-        <v>66290</v>
+        <v>67000</v>
       </c>
       <c r="D126" t="s">
         <v>3</v>
@@ -2159,10 +2159,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="C127">
-        <v>66225</v>
+        <v>66290</v>
       </c>
       <c r="D127" t="s">
         <v>3</v>
@@ -2173,10 +2173,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="C128">
-        <v>66575</v>
+        <v>66225</v>
       </c>
       <c r="D128" t="s">
         <v>3</v>
@@ -2187,10 +2187,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>44897</v>
+        <v>44901</v>
       </c>
       <c r="C129">
-        <v>66400</v>
+        <v>66575</v>
       </c>
       <c r="D129" t="s">
         <v>3</v>
@@ -2201,10 +2201,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="C130">
-        <v>66380</v>
+        <v>66400</v>
       </c>
       <c r="D130" t="s">
         <v>3</v>
@@ -2215,10 +2215,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="C131">
-        <v>65290</v>
+        <v>66380</v>
       </c>
       <c r="D131" t="s">
         <v>3</v>
@@ -2229,10 +2229,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="C132">
-        <v>65525</v>
+        <v>65290</v>
       </c>
       <c r="D132" t="s">
         <v>3</v>
@@ -2243,10 +2243,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="C133">
-        <v>65640</v>
+        <v>65525</v>
       </c>
       <c r="D133" t="s">
         <v>3</v>
@@ -2257,10 +2257,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="C134">
-        <v>65490</v>
+        <v>65640</v>
       </c>
       <c r="D134" t="s">
         <v>3</v>
@@ -2271,10 +2271,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="C135">
-        <v>65260</v>
+        <v>65490</v>
       </c>
       <c r="D135" t="s">
         <v>3</v>
@@ -2285,10 +2285,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="C136">
-        <v>65170</v>
+        <v>65260</v>
       </c>
       <c r="D136" t="s">
         <v>3</v>
@@ -2299,10 +2299,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>44883</v>
+        <v>44887</v>
       </c>
       <c r="C137">
-        <v>66275</v>
+        <v>65170</v>
       </c>
       <c r="D137" t="s">
         <v>3</v>
@@ -2313,10 +2313,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="C138">
-        <v>66540</v>
+        <v>66275</v>
       </c>
       <c r="D138" t="s">
         <v>3</v>
@@ -2327,10 +2327,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="C139">
-        <v>67050</v>
+        <v>66540</v>
       </c>
       <c r="D139" t="s">
         <v>3</v>
@@ -2341,10 +2341,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="C140">
-        <v>67275</v>
+        <v>67050</v>
       </c>
       <c r="D140" t="s">
         <v>3</v>
@@ -2355,10 +2355,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>44876</v>
+        <v>44880</v>
       </c>
       <c r="C141">
-        <v>68575</v>
+        <v>67275</v>
       </c>
       <c r="D141" t="s">
         <v>3</v>
@@ -2369,10 +2369,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="C142">
-        <v>67400</v>
+        <v>68575</v>
       </c>
       <c r="D142" t="s">
         <v>3</v>
@@ -2383,10 +2383,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="C143">
-        <v>66800</v>
+        <v>67400</v>
       </c>
       <c r="D143" t="s">
         <v>3</v>
@@ -2397,10 +2397,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="C144">
-        <v>66225</v>
+        <v>66800</v>
       </c>
       <c r="D144" t="s">
         <v>3</v>
@@ -2411,10 +2411,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>44869</v>
+        <v>44873</v>
       </c>
       <c r="C145">
-        <v>64700</v>
+        <v>66225</v>
       </c>
       <c r="D145" t="s">
         <v>3</v>
@@ -2425,10 +2425,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="C146">
-        <v>64690</v>
+        <v>64700</v>
       </c>
       <c r="D146" t="s">
         <v>3</v>
@@ -2439,10 +2439,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="C147">
-        <v>64950</v>
+        <v>64690</v>
       </c>
       <c r="D147" t="s">
         <v>3</v>
@@ -2453,10 +2453,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>44866</v>
+        <v>44867</v>
       </c>
       <c r="C148">
-        <v>64300</v>
+        <v>64950</v>
       </c>
       <c r="D148" t="s">
         <v>3</v>
@@ -2467,10 +2467,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>44862</v>
+        <v>44866</v>
       </c>
       <c r="C149">
-        <v>64650</v>
+        <v>64300</v>
       </c>
       <c r="D149" t="s">
         <v>3</v>
@@ -2481,10 +2481,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>44861</v>
+        <v>44862</v>
       </c>
       <c r="C150">
-        <v>64690</v>
+        <v>64650</v>
       </c>
       <c r="D150" t="s">
         <v>3</v>
@@ -2495,10 +2495,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="C151">
-        <v>63950</v>
+        <v>64690</v>
       </c>
       <c r="D151" t="s">
         <v>3</v>
@@ -2509,10 +2509,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="C152">
-        <v>64300</v>
+        <v>63950</v>
       </c>
       <c r="D152" t="s">
         <v>3</v>
@@ -2523,10 +2523,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>44855</v>
+        <v>44859</v>
       </c>
       <c r="C153">
-        <v>64000</v>
+        <v>64300</v>
       </c>
       <c r="D153" t="s">
         <v>3</v>
@@ -2537,10 +2537,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="C154">
-        <v>62895</v>
+        <v>64000</v>
       </c>
       <c r="D154" t="s">
         <v>3</v>
@@ -2551,10 +2551,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>44853</v>
+        <v>44854</v>
       </c>
       <c r="C155">
-        <v>62950</v>
+        <v>62895</v>
       </c>
       <c r="D155" t="s">
         <v>3</v>
@@ -2565,10 +2565,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="C156">
-        <v>63550</v>
+        <v>62950</v>
       </c>
       <c r="D156" t="s">
         <v>3</v>
@@ -2579,10 +2579,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>44848</v>
+        <v>44852</v>
       </c>
       <c r="C157">
-        <v>64760</v>
+        <v>63550</v>
       </c>
       <c r="D157" t="s">
         <v>3</v>
@@ -2593,10 +2593,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="C158">
-        <v>63960</v>
+        <v>64760</v>
       </c>
       <c r="D158" t="s">
         <v>3</v>
@@ -2607,10 +2607,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="C159">
-        <v>63800</v>
+        <v>63960</v>
       </c>
       <c r="D159" t="s">
         <v>3</v>
@@ -2621,10 +2621,10 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>44845</v>
+        <v>44846</v>
       </c>
       <c r="C160">
-        <v>63975</v>
+        <v>63800</v>
       </c>
       <c r="D160" t="s">
         <v>3</v>
@@ -2635,10 +2635,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>44834</v>
+        <v>44845</v>
       </c>
       <c r="C161">
-        <v>62670</v>
+        <v>63975</v>
       </c>
       <c r="D161" t="s">
         <v>3</v>
@@ -2649,10 +2649,10 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="C162">
-        <v>62430</v>
+        <v>62670</v>
       </c>
       <c r="D162" t="s">
         <v>3</v>
@@ -2663,10 +2663,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="C163">
-        <v>61430</v>
+        <v>62430</v>
       </c>
       <c r="D163" t="s">
         <v>3</v>
@@ -2677,10 +2677,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="C164">
-        <v>61485</v>
+        <v>61430</v>
       </c>
       <c r="D164" t="s">
         <v>3</v>
@@ -2691,10 +2691,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>44827</v>
+        <v>44831</v>
       </c>
       <c r="C165">
-        <v>63025</v>
+        <v>61485</v>
       </c>
       <c r="D165" t="s">
         <v>3</v>
@@ -2705,10 +2705,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="C166">
-        <v>63120</v>
+        <v>63025</v>
       </c>
       <c r="D166" t="s">
         <v>3</v>
@@ -2719,7 +2719,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="C167">
         <v>63120</v>
@@ -2733,10 +2733,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="C168">
-        <v>63370</v>
+        <v>63120</v>
       </c>
       <c r="D168" t="s">
         <v>3</v>
@@ -2747,10 +2747,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>44820</v>
+        <v>44824</v>
       </c>
       <c r="C169">
-        <v>62865</v>
+        <v>63370</v>
       </c>
       <c r="D169" t="s">
         <v>3</v>
@@ -2761,10 +2761,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="C170">
-        <v>63370</v>
+        <v>62865</v>
       </c>
       <c r="D170" t="s">
         <v>3</v>
@@ -2775,10 +2775,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="C171">
-        <v>63050</v>
+        <v>63370</v>
       </c>
       <c r="D171" t="s">
         <v>3</v>
@@ -2789,10 +2789,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="C172">
-        <v>63850</v>
+        <v>63050</v>
       </c>
       <c r="D172" t="s">
         <v>3</v>
@@ -2803,10 +2803,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>44813</v>
+        <v>44817</v>
       </c>
       <c r="C173">
-        <v>63650</v>
+        <v>63850</v>
       </c>
       <c r="D173" t="s">
         <v>3</v>
@@ -2817,10 +2817,10 @@
         <v>172</v>
       </c>
       <c r="B174" s="2">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="C174">
-        <v>61910</v>
+        <v>63650</v>
       </c>
       <c r="D174" t="s">
         <v>3</v>
@@ -2831,10 +2831,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="2">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="C175">
-        <v>61700</v>
+        <v>61910</v>
       </c>
       <c r="D175" t="s">
         <v>3</v>
@@ -2845,10 +2845,10 @@
         <v>174</v>
       </c>
       <c r="B176" s="2">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="C176">
-        <v>61750</v>
+        <v>61700</v>
       </c>
       <c r="D176" t="s">
         <v>3</v>
@@ -2859,10 +2859,10 @@
         <v>175</v>
       </c>
       <c r="B177" s="2">
-        <v>44806</v>
+        <v>44810</v>
       </c>
       <c r="C177">
-        <v>60500</v>
+        <v>61750</v>
       </c>
       <c r="D177" t="s">
         <v>3</v>
@@ -2873,10 +2873,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="2">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="C178">
-        <v>61775</v>
+        <v>60500</v>
       </c>
       <c r="D178" t="s">
         <v>3</v>
@@ -2887,10 +2887,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="2">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="C179">
-        <v>62770</v>
+        <v>61775</v>
       </c>
       <c r="D179" t="s">
         <v>3</v>
@@ -2901,10 +2901,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="2">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="C180">
-        <v>63120</v>
+        <v>62770</v>
       </c>
       <c r="D180" t="s">
         <v>3</v>
@@ -2915,10 +2915,10 @@
         <v>179</v>
       </c>
       <c r="B181" s="2">
-        <v>44799</v>
+        <v>44803</v>
       </c>
       <c r="C181">
-        <v>64270</v>
+        <v>63120</v>
       </c>
       <c r="D181" t="s">
         <v>3</v>
@@ -2929,10 +2929,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="2">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="C182">
-        <v>63330</v>
+        <v>64270</v>
       </c>
       <c r="D182" t="s">
         <v>3</v>
@@ -2943,10 +2943,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="2">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="C183">
-        <v>63715</v>
+        <v>63330</v>
       </c>
       <c r="D183" t="s">
         <v>3</v>
@@ -2957,10 +2957,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="2">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="C184">
-        <v>63570</v>
+        <v>63715</v>
       </c>
       <c r="D184" t="s">
         <v>3</v>
@@ -2971,10 +2971,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="2">
-        <v>44792</v>
+        <v>44796</v>
       </c>
       <c r="C185">
-        <v>62950</v>
+        <v>63570</v>
       </c>
       <c r="D185" t="s">
         <v>3</v>
@@ -2985,10 +2985,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="2">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="C186">
-        <v>62300</v>
+        <v>62950</v>
       </c>
       <c r="D186" t="s">
         <v>3</v>
@@ -2999,10 +2999,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="2">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="C187">
-        <v>62470</v>
+        <v>62300</v>
       </c>
       <c r="D187" t="s">
         <v>3</v>
@@ -3013,10 +3013,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="2">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="C188">
-        <v>62460</v>
+        <v>62470</v>
       </c>
       <c r="D188" t="s">
         <v>3</v>
@@ -3027,10 +3027,10 @@
         <v>187</v>
       </c>
       <c r="B189" s="2">
-        <v>44785</v>
+        <v>44789</v>
       </c>
       <c r="C189">
-        <v>63000</v>
+        <v>62460</v>
       </c>
       <c r="D189" t="s">
         <v>3</v>
@@ -3041,10 +3041,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="2">
-        <v>44784</v>
+        <v>44785</v>
       </c>
       <c r="C190">
-        <v>62520</v>
+        <v>63000</v>
       </c>
       <c r="D190" t="s">
         <v>3</v>
@@ -3055,10 +3055,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="2">
-        <v>44783</v>
+        <v>44784</v>
       </c>
       <c r="C191">
-        <v>61780</v>
+        <v>62520</v>
       </c>
       <c r="D191" t="s">
         <v>3</v>
@@ -3069,10 +3069,10 @@
         <v>190</v>
       </c>
       <c r="B192" s="2">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="C192">
-        <v>61540</v>
+        <v>61780</v>
       </c>
       <c r="D192" t="s">
         <v>3</v>
@@ -3083,10 +3083,10 @@
         <v>191</v>
       </c>
       <c r="B193" s="2">
-        <v>44778</v>
+        <v>44782</v>
       </c>
       <c r="C193">
-        <v>60520</v>
+        <v>61540</v>
       </c>
       <c r="D193" t="s">
         <v>3</v>
@@ -3097,10 +3097,10 @@
         <v>192</v>
       </c>
       <c r="B194" s="2">
-        <v>44777</v>
+        <v>44778</v>
       </c>
       <c r="C194">
-        <v>59930</v>
+        <v>60520</v>
       </c>
       <c r="D194" t="s">
         <v>3</v>
@@ -3111,10 +3111,10 @@
         <v>193</v>
       </c>
       <c r="B195" s="2">
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="C195">
-        <v>60260</v>
+        <v>59930</v>
       </c>
       <c r="D195" t="s">
         <v>3</v>
@@ -3125,10 +3125,10 @@
         <v>194</v>
       </c>
       <c r="B196" s="2">
-        <v>44775</v>
+        <v>44776</v>
       </c>
       <c r="C196">
-        <v>60180</v>
+        <v>60260</v>
       </c>
       <c r="D196" t="s">
         <v>3</v>
@@ -3139,10 +3139,10 @@
         <v>195</v>
       </c>
       <c r="B197" s="2">
-        <v>44771</v>
+        <v>44775</v>
       </c>
       <c r="C197">
-        <v>60315</v>
+        <v>60180</v>
       </c>
       <c r="D197" t="s">
         <v>3</v>
@@ -3153,10 +3153,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="2">
-        <v>44770</v>
+        <v>44771</v>
       </c>
       <c r="C198">
-        <v>60090</v>
+        <v>60315</v>
       </c>
       <c r="D198" t="s">
         <v>3</v>
@@ -3167,10 +3167,10 @@
         <v>197</v>
       </c>
       <c r="B199" s="2">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="C199">
-        <v>58710</v>
+        <v>60090</v>
       </c>
       <c r="D199" t="s">
         <v>3</v>
@@ -3181,10 +3181,10 @@
         <v>198</v>
       </c>
       <c r="B200" s="2">
-        <v>44768</v>
+        <v>44769</v>
       </c>
       <c r="C200">
-        <v>58930</v>
+        <v>58710</v>
       </c>
       <c r="D200" t="s">
         <v>3</v>
@@ -3195,10 +3195,10 @@
         <v>199</v>
       </c>
       <c r="B201" s="2">
-        <v>44764</v>
+        <v>44768</v>
       </c>
       <c r="C201">
-        <v>57030</v>
+        <v>58930</v>
       </c>
       <c r="D201" t="s">
         <v>3</v>
@@ -3209,10 +3209,10 @@
         <v>200</v>
       </c>
       <c r="B202" s="2">
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="C202">
-        <v>56360</v>
+        <v>57030</v>
       </c>
       <c r="D202" t="s">
         <v>3</v>
@@ -3223,10 +3223,10 @@
         <v>201</v>
       </c>
       <c r="B203" s="2">
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="C203">
-        <v>56920</v>
+        <v>56360</v>
       </c>
       <c r="D203" t="s">
         <v>3</v>
@@ -3237,10 +3237,10 @@
         <v>202</v>
       </c>
       <c r="B204" s="2">
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="C204">
-        <v>56210</v>
+        <v>56920</v>
       </c>
       <c r="D204" t="s">
         <v>3</v>
@@ -3251,10 +3251,10 @@
         <v>203</v>
       </c>
       <c r="B205" s="2">
-        <v>44757</v>
+        <v>44761</v>
       </c>
       <c r="C205">
-        <v>54890</v>
+        <v>56210</v>
       </c>
       <c r="D205" t="s">
         <v>3</v>
@@ -3265,10 +3265,10 @@
         <v>204</v>
       </c>
       <c r="B206" s="2">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="C206">
-        <v>56300</v>
+        <v>54890</v>
       </c>
       <c r="D206" t="s">
         <v>3</v>
@@ -3279,10 +3279,10 @@
         <v>205</v>
       </c>
       <c r="B207" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="C207">
-        <v>56460</v>
+        <v>56300</v>
       </c>
       <c r="D207" t="s">
         <v>3</v>
@@ -3293,10 +3293,10 @@
         <v>206</v>
       </c>
       <c r="B208" s="2">
-        <v>44754</v>
+        <v>44755</v>
       </c>
       <c r="C208">
-        <v>58430</v>
+        <v>56460</v>
       </c>
       <c r="D208" t="s">
         <v>3</v>
@@ -3307,10 +3307,10 @@
         <v>207</v>
       </c>
       <c r="B209" s="2">
-        <v>44750</v>
+        <v>44754</v>
       </c>
       <c r="C209">
-        <v>59600</v>
+        <v>58430</v>
       </c>
       <c r="D209" t="s">
         <v>3</v>
@@ -3321,10 +3321,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="2">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="C210">
-        <v>58600</v>
+        <v>59600</v>
       </c>
       <c r="D210" t="s">
         <v>3</v>
@@ -3335,10 +3335,10 @@
         <v>209</v>
       </c>
       <c r="B211" s="2">
-        <v>44748</v>
+        <v>44749</v>
       </c>
       <c r="C211">
-        <v>58125</v>
+        <v>58600</v>
       </c>
       <c r="D211" t="s">
         <v>3</v>
@@ -3349,10 +3349,10 @@
         <v>210</v>
       </c>
       <c r="B212" s="2">
-        <v>44747</v>
+        <v>44748</v>
       </c>
       <c r="C212">
-        <v>61225</v>
+        <v>58125</v>
       </c>
       <c r="D212" t="s">
         <v>3</v>
@@ -3363,10 +3363,10 @@
         <v>211</v>
       </c>
       <c r="B213" s="2">
-        <v>44743</v>
+        <v>44747</v>
       </c>
       <c r="C213">
-        <v>62930</v>
+        <v>61225</v>
       </c>
       <c r="D213" t="s">
         <v>3</v>
@@ -3377,10 +3377,10 @@
         <v>212</v>
       </c>
       <c r="B214" s="2">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="C214">
-        <v>64230</v>
+        <v>62930</v>
       </c>
       <c r="D214" t="s">
         <v>3</v>
@@ -3391,10 +3391,10 @@
         <v>213</v>
       </c>
       <c r="B215" s="2">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="C215">
-        <v>63940</v>
+        <v>64230</v>
       </c>
       <c r="D215" t="s">
         <v>3</v>
@@ -3405,10 +3405,10 @@
         <v>214</v>
       </c>
       <c r="B216" s="2">
-        <v>44740</v>
+        <v>44741</v>
       </c>
       <c r="C216">
-        <v>64150</v>
+        <v>63940</v>
       </c>
       <c r="D216" t="s">
         <v>3</v>
@@ -3419,10 +3419,10 @@
         <v>215</v>
       </c>
       <c r="B217" s="2">
-        <v>44736</v>
+        <v>44740</v>
       </c>
       <c r="C217">
-        <v>64340</v>
+        <v>64150</v>
       </c>
       <c r="D217" t="s">
         <v>3</v>
@@ -3433,10 +3433,10 @@
         <v>216</v>
       </c>
       <c r="B218" s="2">
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="C218">
-        <v>66050</v>
+        <v>64340</v>
       </c>
       <c r="D218" t="s">
         <v>3</v>
@@ -3447,10 +3447,10 @@
         <v>217</v>
       </c>
       <c r="B219" s="2">
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="C219">
-        <v>68160</v>
+        <v>66050</v>
       </c>
       <c r="D219" t="s">
         <v>3</v>
@@ -3461,10 +3461,10 @@
         <v>218</v>
       </c>
       <c r="B220" s="2">
-        <v>44733</v>
+        <v>44734</v>
       </c>
       <c r="C220">
-        <v>68700</v>
+        <v>68160</v>
       </c>
       <c r="D220" t="s">
         <v>3</v>
@@ -3475,10 +3475,10 @@
         <v>219</v>
       </c>
       <c r="B221" s="2">
-        <v>44729</v>
+        <v>44733</v>
       </c>
       <c r="C221">
-        <v>69975</v>
+        <v>68700</v>
       </c>
       <c r="D221" t="s">
         <v>3</v>
@@ -3489,10 +3489,10 @@
         <v>220</v>
       </c>
       <c r="B222" s="2">
-        <v>44728</v>
+        <v>44729</v>
       </c>
       <c r="C222">
-        <v>71255</v>
+        <v>69975</v>
       </c>
       <c r="D222" t="s">
         <v>3</v>
@@ -3503,10 +3503,10 @@
         <v>221</v>
       </c>
       <c r="B223" s="2">
-        <v>44727</v>
+        <v>44728</v>
       </c>
       <c r="C223">
-        <v>71250</v>
+        <v>71255</v>
       </c>
       <c r="D223" t="s">
         <v>3</v>
@@ -3517,10 +3517,10 @@
         <v>222</v>
       </c>
       <c r="B224" s="2">
-        <v>44722</v>
+        <v>44727</v>
       </c>
       <c r="C224">
-        <v>72750</v>
+        <v>71250</v>
       </c>
       <c r="D224" t="s">
         <v>3</v>
@@ -3531,10 +3531,10 @@
         <v>223</v>
       </c>
       <c r="B225" s="2">
-        <v>44721</v>
+        <v>44722</v>
       </c>
       <c r="C225">
-        <v>73030</v>
+        <v>72750</v>
       </c>
       <c r="D225" t="s">
         <v>3</v>
@@ -3545,10 +3545,10 @@
         <v>224</v>
       </c>
       <c r="B226" s="2">
-        <v>44720</v>
+        <v>44721</v>
       </c>
       <c r="C226">
-        <v>72890</v>
+        <v>73030</v>
       </c>
       <c r="D226" t="s">
         <v>3</v>
@@ -3559,10 +3559,10 @@
         <v>225</v>
       </c>
       <c r="B227" s="2">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="C227">
-        <v>72975</v>
+        <v>72890</v>
       </c>
       <c r="D227" t="s">
         <v>3</v>
@@ -3573,10 +3573,10 @@
         <v>226</v>
       </c>
       <c r="B228" s="2">
-        <v>44714</v>
+        <v>44719</v>
       </c>
       <c r="C228">
-        <v>72530</v>
+        <v>72975</v>
       </c>
       <c r="D228" t="s">
         <v>3</v>
@@ -3587,10 +3587,10 @@
         <v>227</v>
       </c>
       <c r="B229" s="2">
-        <v>44713</v>
+        <v>44714</v>
       </c>
       <c r="C229">
-        <v>72150</v>
+        <v>72530</v>
       </c>
       <c r="D229" t="s">
         <v>3</v>
@@ -3601,10 +3601,10 @@
         <v>228</v>
       </c>
       <c r="B230" s="2">
-        <v>44712</v>
+        <v>44713</v>
       </c>
       <c r="C230">
-        <v>72630</v>
+        <v>72150</v>
       </c>
       <c r="D230" t="s">
         <v>3</v>
@@ -3615,10 +3615,10 @@
         <v>229</v>
       </c>
       <c r="B231" s="2">
-        <v>44708</v>
+        <v>44712</v>
       </c>
       <c r="C231">
-        <v>72625</v>
+        <v>72630</v>
       </c>
       <c r="D231" t="s">
         <v>3</v>
@@ -3629,10 +3629,10 @@
         <v>230</v>
       </c>
       <c r="B232" s="2">
-        <v>44707</v>
+        <v>44708</v>
       </c>
       <c r="C232">
-        <v>71950</v>
+        <v>72625</v>
       </c>
       <c r="D232" t="s">
         <v>3</v>
@@ -3643,10 +3643,10 @@
         <v>231</v>
       </c>
       <c r="B233" s="2">
-        <v>44706</v>
+        <v>44707</v>
       </c>
       <c r="C233">
-        <v>72220</v>
+        <v>71950</v>
       </c>
       <c r="D233" t="s">
         <v>3</v>
@@ -3657,10 +3657,10 @@
         <v>232</v>
       </c>
       <c r="B234" s="2">
-        <v>44705</v>
+        <v>44706</v>
       </c>
       <c r="C234">
-        <v>72500</v>
+        <v>72220</v>
       </c>
       <c r="D234" t="s">
         <v>3</v>
@@ -3671,10 +3671,10 @@
         <v>233</v>
       </c>
       <c r="B235" s="2">
-        <v>44701</v>
+        <v>44705</v>
       </c>
       <c r="C235">
-        <v>72150</v>
+        <v>72500</v>
       </c>
       <c r="D235" t="s">
         <v>3</v>
@@ -3685,10 +3685,10 @@
         <v>234</v>
       </c>
       <c r="B236" s="2">
-        <v>44700</v>
+        <v>44701</v>
       </c>
       <c r="C236">
-        <v>71775</v>
+        <v>72150</v>
       </c>
       <c r="D236" t="s">
         <v>3</v>
@@ -3699,10 +3699,10 @@
         <v>235</v>
       </c>
       <c r="B237" s="2">
-        <v>44699</v>
+        <v>44700</v>
       </c>
       <c r="C237">
-        <v>72070</v>
+        <v>71775</v>
       </c>
       <c r="D237" t="s">
         <v>3</v>
@@ -3713,10 +3713,10 @@
         <v>236</v>
       </c>
       <c r="B238" s="2">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="C238">
-        <v>72175</v>
+        <v>72070</v>
       </c>
       <c r="D238" t="s">
         <v>3</v>
@@ -3727,10 +3727,10 @@
         <v>237</v>
       </c>
       <c r="B239" s="2">
-        <v>44694</v>
+        <v>44698</v>
       </c>
       <c r="C239">
-        <v>71160</v>
+        <v>72175</v>
       </c>
       <c r="D239" t="s">
         <v>3</v>
@@ -3741,10 +3741,10 @@
         <v>238</v>
       </c>
       <c r="B240" s="2">
-        <v>44693</v>
+        <v>44694</v>
       </c>
       <c r="C240">
-        <v>72050</v>
+        <v>71160</v>
       </c>
       <c r="D240" t="s">
         <v>3</v>
@@ -3755,10 +3755,10 @@
         <v>239</v>
       </c>
       <c r="B241" s="2">
-        <v>44687</v>
+        <v>44693</v>
       </c>
       <c r="C241">
-        <v>72875</v>
+        <v>72050</v>
       </c>
       <c r="D241" t="s">
         <v>3</v>
@@ -3769,10 +3769,10 @@
         <v>240</v>
       </c>
       <c r="B242" s="2">
-        <v>44686</v>
+        <v>44687</v>
       </c>
       <c r="C242">
-        <v>73760</v>
+        <v>72875</v>
       </c>
       <c r="D242" t="s">
         <v>3</v>
@@ -3783,10 +3783,10 @@
         <v>241</v>
       </c>
       <c r="B243" s="2">
-        <v>44680</v>
+        <v>44686</v>
       </c>
       <c r="C243">
-        <v>73930</v>
+        <v>73760</v>
       </c>
       <c r="D243" t="s">
         <v>3</v>
@@ -3797,10 +3797,10 @@
         <v>242</v>
       </c>
       <c r="B244" s="2">
-        <v>44679</v>
+        <v>44680</v>
       </c>
       <c r="C244">
-        <v>74005</v>
+        <v>73930</v>
       </c>
       <c r="D244" t="s">
         <v>3</v>
@@ -3811,10 +3811,10 @@
         <v>243</v>
       </c>
       <c r="B245" s="2">
-        <v>44678</v>
+        <v>44679</v>
       </c>
       <c r="C245">
-        <v>73770</v>
+        <v>74005</v>
       </c>
       <c r="D245" t="s">
         <v>3</v>
@@ -3825,10 +3825,10 @@
         <v>244</v>
       </c>
       <c r="B246" s="2">
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="C246">
-        <v>73950</v>
+        <v>73770</v>
       </c>
       <c r="D246" t="s">
         <v>3</v>
@@ -3839,10 +3839,10 @@
         <v>245</v>
       </c>
       <c r="B247" s="2">
-        <v>44673</v>
+        <v>44677</v>
       </c>
       <c r="C247">
-        <v>75070</v>
+        <v>73950</v>
       </c>
       <c r="D247" t="s">
         <v>3</v>
@@ -3853,10 +3853,10 @@
         <v>246</v>
       </c>
       <c r="B248" s="2">
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="C248">
-        <v>74850</v>
+        <v>75070</v>
       </c>
       <c r="D248" t="s">
         <v>3</v>
@@ -3867,10 +3867,10 @@
         <v>247</v>
       </c>
       <c r="B249" s="2">
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="C249">
-        <v>74740</v>
+        <v>74850</v>
       </c>
       <c r="D249" t="s">
         <v>3</v>
@@ -3881,10 +3881,10 @@
         <v>248</v>
       </c>
       <c r="B250" s="2">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="C250">
-        <v>75575</v>
+        <v>74740</v>
       </c>
       <c r="D250" t="s">
         <v>3</v>
@@ -3895,10 +3895,10 @@
         <v>249</v>
       </c>
       <c r="B251" s="2">
-        <v>44666</v>
+        <v>44670</v>
       </c>
       <c r="C251">
-        <v>75385</v>
+        <v>75575</v>
       </c>
       <c r="D251" t="s">
         <v>3</v>
@@ -3909,10 +3909,10 @@
         <v>250</v>
       </c>
       <c r="B252" s="2">
-        <v>44665</v>
+        <v>44666</v>
       </c>
       <c r="C252">
-        <v>74370</v>
+        <v>75385</v>
       </c>
       <c r="D252" t="s">
         <v>3</v>
@@ -3923,10 +3923,10 @@
         <v>251</v>
       </c>
       <c r="B253" s="2">
-        <v>44664</v>
+        <v>44665</v>
       </c>
       <c r="C253">
-        <v>74550</v>
+        <v>74370</v>
       </c>
       <c r="D253" t="s">
         <v>3</v>
@@ -3937,10 +3937,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="2">
-        <v>44663</v>
+        <v>44664</v>
       </c>
       <c r="C254">
-        <v>73790</v>
+        <v>74550</v>
       </c>
       <c r="D254" t="s">
         <v>3</v>
@@ -3951,10 +3951,10 @@
         <v>253</v>
       </c>
       <c r="B255" s="2">
-        <v>44659</v>
+        <v>44663</v>
       </c>
       <c r="C255">
-        <v>73765</v>
+        <v>73790</v>
       </c>
       <c r="D255" t="s">
         <v>3</v>
@@ -3965,10 +3965,10 @@
         <v>254</v>
       </c>
       <c r="B256" s="2">
-        <v>44658</v>
+        <v>44659</v>
       </c>
       <c r="C256">
-        <v>73690</v>
+        <v>73765</v>
       </c>
       <c r="D256" t="s">
         <v>3</v>
@@ -3979,10 +3979,10 @@
         <v>255</v>
       </c>
       <c r="B257" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C257">
-        <v>74000</v>
+        <v>73690</v>
       </c>
       <c r="D257" t="s">
         <v>3</v>
@@ -3993,10 +3993,10 @@
         <v>256</v>
       </c>
       <c r="B258" s="2">
-        <v>44652</v>
+        <v>44657</v>
       </c>
       <c r="C258">
-        <v>73635</v>
+        <v>74000</v>
       </c>
       <c r="D258" t="s">
         <v>3</v>
@@ -4007,10 +4007,10 @@
         <v>257</v>
       </c>
       <c r="B259" s="2">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="C259">
-        <v>73575</v>
+        <v>73635</v>
       </c>
       <c r="D259" t="s">
         <v>3</v>
@@ -4021,10 +4021,10 @@
         <v>258</v>
       </c>
       <c r="B260" s="2">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="C260">
-        <v>73980</v>
+        <v>73575</v>
       </c>
       <c r="D260" t="s">
         <v>3</v>
@@ -4035,10 +4035,10 @@
         <v>259</v>
       </c>
       <c r="B261" s="2">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="C261">
-        <v>74100</v>
+        <v>73980</v>
       </c>
       <c r="D261" t="s">
         <v>3</v>
@@ -4049,10 +4049,10 @@
         <v>260</v>
       </c>
       <c r="B262" s="2">
-        <v>44645</v>
+        <v>44649</v>
       </c>
       <c r="C262">
-        <v>73775</v>
+        <v>74100</v>
       </c>
       <c r="D262" t="s">
         <v>3</v>
@@ -4063,10 +4063,10 @@
         <v>261</v>
       </c>
       <c r="B263" s="2">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="C263">
-        <v>73880</v>
+        <v>73775</v>
       </c>
       <c r="D263" t="s">
         <v>3</v>
@@ -4077,10 +4077,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="2">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="C264">
-        <v>73410</v>
+        <v>73880</v>
       </c>
       <c r="D264" t="s">
         <v>3</v>
@@ -4091,10 +4091,10 @@
         <v>263</v>
       </c>
       <c r="B265" s="2">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="C265">
-        <v>73510</v>
+        <v>73410</v>
       </c>
       <c r="D265" t="s">
         <v>3</v>
@@ -4105,10 +4105,10 @@
         <v>264</v>
       </c>
       <c r="B266" s="2">
-        <v>44638</v>
+        <v>44642</v>
       </c>
       <c r="C266">
-        <v>73310</v>
+        <v>73510</v>
       </c>
       <c r="D266" t="s">
         <v>3</v>
@@ -4119,10 +4119,10 @@
         <v>265</v>
       </c>
       <c r="B267" s="2">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="C267">
-        <v>72740</v>
+        <v>73310</v>
       </c>
       <c r="D267" t="s">
         <v>3</v>
@@ -4133,10 +4133,10 @@
         <v>266</v>
       </c>
       <c r="B268" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="C268">
-        <v>72060</v>
+        <v>72740</v>
       </c>
       <c r="D268" t="s">
         <v>3</v>
@@ -4147,10 +4147,10 @@
         <v>267</v>
       </c>
       <c r="B269" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="C269">
-        <v>71790</v>
+        <v>72060</v>
       </c>
       <c r="D269" t="s">
         <v>3</v>
@@ -4161,10 +4161,10 @@
         <v>268</v>
       </c>
       <c r="B270" s="2">
-        <v>44631</v>
+        <v>44635</v>
       </c>
       <c r="C270">
-        <v>72170</v>
+        <v>71790</v>
       </c>
       <c r="D270" t="s">
         <v>3</v>
@@ -4175,10 +4175,10 @@
         <v>269</v>
       </c>
       <c r="B271" s="2">
-        <v>44630</v>
+        <v>44631</v>
       </c>
       <c r="C271">
-        <v>72080</v>
+        <v>72170</v>
       </c>
       <c r="D271" t="s">
         <v>3</v>
@@ -4189,10 +4189,10 @@
         <v>270</v>
       </c>
       <c r="B272" s="2">
-        <v>44624</v>
+        <v>44630</v>
       </c>
       <c r="C272">
-        <v>72930</v>
+        <v>72080</v>
       </c>
       <c r="D272" t="s">
         <v>3</v>
@@ -4203,10 +4203,10 @@
         <v>271</v>
       </c>
       <c r="B273" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="C273">
-        <v>72540</v>
+        <v>72930</v>
       </c>
       <c r="D273" t="s">
         <v>3</v>
@@ -4217,10 +4217,10 @@
         <v>272</v>
       </c>
       <c r="B274" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="C274">
-        <v>71520</v>
+        <v>72540</v>
       </c>
       <c r="D274" t="s">
         <v>3</v>
@@ -4231,10 +4231,10 @@
         <v>273</v>
       </c>
       <c r="B275" s="2">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="C275">
-        <v>70880</v>
+        <v>71520</v>
       </c>
       <c r="D275" t="s">
         <v>3</v>
@@ -4245,10 +4245,10 @@
         <v>274</v>
       </c>
       <c r="B276" s="2">
-        <v>44617</v>
+        <v>44621</v>
       </c>
       <c r="C276">
-        <v>71010</v>
+        <v>70880</v>
       </c>
       <c r="D276" t="s">
         <v>3</v>
@@ -4259,10 +4259,10 @@
         <v>275</v>
       </c>
       <c r="B277" s="2">
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="C277">
-        <v>71170</v>
+        <v>71010</v>
       </c>
       <c r="D277" t="s">
         <v>3</v>
@@ -4273,10 +4273,10 @@
         <v>276</v>
       </c>
       <c r="B278" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="C278">
-        <v>71140</v>
+        <v>71170</v>
       </c>
       <c r="D278" t="s">
         <v>3</v>
@@ -4287,10 +4287,10 @@
         <v>277</v>
       </c>
       <c r="B279" s="2">
-        <v>44610</v>
+        <v>44614</v>
       </c>
       <c r="C279">
-        <v>71525</v>
+        <v>71140</v>
       </c>
       <c r="D279" t="s">
         <v>3</v>
@@ -4301,10 +4301,10 @@
         <v>278</v>
       </c>
       <c r="B280" s="2">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="C280">
-        <v>71550</v>
+        <v>71525</v>
       </c>
       <c r="D280" t="s">
         <v>3</v>
@@ -4315,7 +4315,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="C281">
         <v>71550</v>
@@ -4329,10 +4329,10 @@
         <v>280</v>
       </c>
       <c r="B282" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="C282">
-        <v>71090</v>
+        <v>71550</v>
       </c>
       <c r="D282" t="s">
         <v>3</v>
@@ -4343,10 +4343,10 @@
         <v>281</v>
       </c>
       <c r="B283" s="2">
-        <v>44603</v>
+        <v>44607</v>
       </c>
       <c r="C283">
-        <v>72580</v>
+        <v>71090</v>
       </c>
       <c r="D283" t="s">
         <v>3</v>
@@ -4357,10 +4357,10 @@
         <v>282</v>
       </c>
       <c r="B284" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="C284">
-        <v>72210</v>
+        <v>72580</v>
       </c>
       <c r="D284" t="s">
         <v>3</v>
@@ -4371,10 +4371,10 @@
         <v>283</v>
       </c>
       <c r="B285" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="C285">
-        <v>70500</v>
+        <v>72210</v>
       </c>
       <c r="D285" t="s">
         <v>3</v>
@@ -4385,10 +4385,10 @@
         <v>284</v>
       </c>
       <c r="B286" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="C286">
-        <v>70690</v>
+        <v>70500</v>
       </c>
       <c r="D286" t="s">
         <v>3</v>
@@ -4399,10 +4399,10 @@
         <v>285</v>
       </c>
       <c r="B287" s="2">
-        <v>44589</v>
+        <v>44600</v>
       </c>
       <c r="C287">
-        <v>70480</v>
+        <v>70690</v>
       </c>
       <c r="D287" t="s">
         <v>3</v>
@@ -4413,10 +4413,10 @@
         <v>286</v>
       </c>
       <c r="B288" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="C288">
-        <v>70400</v>
+        <v>70480</v>
       </c>
       <c r="D288" t="s">
         <v>3</v>
@@ -4427,10 +4427,10 @@
         <v>287</v>
       </c>
       <c r="B289" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="C289">
-        <v>70270</v>
+        <v>70400</v>
       </c>
       <c r="D289" t="s">
         <v>3</v>
@@ -4441,10 +4441,10 @@
         <v>288</v>
       </c>
       <c r="B290" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="C290">
-        <v>70040</v>
+        <v>70270</v>
       </c>
       <c r="D290" t="s">
         <v>3</v>
@@ -4455,10 +4455,10 @@
         <v>289</v>
       </c>
       <c r="B291" s="2">
-        <v>44582</v>
+        <v>44586</v>
       </c>
       <c r="C291">
-        <v>71000</v>
+        <v>70040</v>
       </c>
       <c r="D291" t="s">
         <v>3</v>
@@ -4469,10 +4469,10 @@
         <v>290</v>
       </c>
       <c r="B292" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="C292">
-        <v>70930</v>
+        <v>71000</v>
       </c>
       <c r="D292" t="s">
         <v>3</v>
@@ -4483,10 +4483,10 @@
         <v>291</v>
       </c>
       <c r="B293" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="C293">
-        <v>70330</v>
+        <v>70930</v>
       </c>
       <c r="D293" t="s">
         <v>3</v>
@@ -4497,10 +4497,10 @@
         <v>292</v>
       </c>
       <c r="B294" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="C294">
-        <v>70525</v>
+        <v>70330</v>
       </c>
       <c r="D294" t="s">
         <v>3</v>
@@ -4511,10 +4511,10 @@
         <v>293</v>
       </c>
       <c r="B295" s="2">
-        <v>44575</v>
+        <v>44579</v>
       </c>
       <c r="C295">
-        <v>71570</v>
+        <v>70525</v>
       </c>
       <c r="D295" t="s">
         <v>3</v>
@@ -4525,10 +4525,10 @@
         <v>294</v>
       </c>
       <c r="B296" s="2">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C296">
-        <v>72130</v>
+        <v>71570</v>
       </c>
       <c r="D296" t="s">
         <v>3</v>
@@ -4539,10 +4539,10 @@
         <v>295</v>
       </c>
       <c r="B297" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C297">
-        <v>70850</v>
+        <v>72130</v>
       </c>
       <c r="D297" t="s">
         <v>3</v>
@@ -4553,10 +4553,10 @@
         <v>296</v>
       </c>
       <c r="B298" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="C298">
-        <v>69900</v>
+        <v>70850</v>
       </c>
       <c r="D298" t="s">
         <v>3</v>
@@ -4567,10 +4567,10 @@
         <v>297</v>
       </c>
       <c r="B299" s="2">
-        <v>44561</v>
+        <v>44572</v>
       </c>
       <c r="C299">
-        <v>69910</v>
+        <v>69900</v>
       </c>
       <c r="D299" t="s">
         <v>3</v>
@@ -4581,10 +4581,10 @@
         <v>298</v>
       </c>
       <c r="B300" s="2">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="C300">
-        <v>70020</v>
+        <v>69910</v>
       </c>
       <c r="D300" t="s">
         <v>3</v>
@@ -4595,10 +4595,10 @@
         <v>299</v>
       </c>
       <c r="B301" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="C301">
-        <v>70060</v>
+        <v>70020</v>
       </c>
       <c r="D301" t="s">
         <v>3</v>
@@ -4609,10 +4609,10 @@
         <v>300</v>
       </c>
       <c r="B302" s="2">
-        <v>44558</v>
+        <v>44559</v>
       </c>
       <c r="C302">
-        <v>70270</v>
+        <v>70060</v>
       </c>
       <c r="D302" t="s">
         <v>3</v>
@@ -4623,10 +4623,10 @@
         <v>301</v>
       </c>
       <c r="B303" s="2">
-        <v>44554</v>
+        <v>44558</v>
       </c>
       <c r="C303">
-        <v>69840</v>
+        <v>70270</v>
       </c>
       <c r="D303" t="s">
         <v>3</v>
@@ -4637,10 +4637,10 @@
         <v>302</v>
       </c>
       <c r="B304" s="2">
-        <v>44553</v>
+        <v>44554</v>
       </c>
       <c r="C304">
-        <v>69850</v>
+        <v>69840</v>
       </c>
       <c r="D304" t="s">
         <v>3</v>
@@ -4651,10 +4651,10 @@
         <v>303</v>
       </c>
       <c r="B305" s="2">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="C305">
-        <v>69520</v>
+        <v>69850</v>
       </c>
       <c r="D305" t="s">
         <v>3</v>
@@ -4665,10 +4665,10 @@
         <v>304</v>
       </c>
       <c r="B306" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="C306">
-        <v>69385</v>
+        <v>69520</v>
       </c>
       <c r="D306" t="s">
         <v>3</v>
@@ -4679,10 +4679,10 @@
         <v>305</v>
       </c>
       <c r="B307" s="2">
-        <v>44547</v>
+        <v>44551</v>
       </c>
       <c r="C307">
-        <v>69525</v>
+        <v>69385</v>
       </c>
       <c r="D307" t="s">
         <v>3</v>
@@ -4693,10 +4693,10 @@
         <v>306</v>
       </c>
       <c r="B308" s="2">
-        <v>44546</v>
+        <v>44547</v>
       </c>
       <c r="C308">
-        <v>68570</v>
+        <v>69525</v>
       </c>
       <c r="D308" t="s">
         <v>3</v>
@@ -4707,10 +4707,10 @@
         <v>307</v>
       </c>
       <c r="B309" s="2">
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="C309">
-        <v>68875</v>
+        <v>68570</v>
       </c>
       <c r="D309" t="s">
         <v>3</v>
@@ -4721,10 +4721,10 @@
         <v>308</v>
       </c>
       <c r="B310" s="2">
-        <v>44544</v>
+        <v>44545</v>
       </c>
       <c r="C310">
-        <v>68900</v>
+        <v>68875</v>
       </c>
       <c r="D310" t="s">
         <v>3</v>
@@ -4735,10 +4735,10 @@
         <v>309</v>
       </c>
       <c r="B311" s="2">
-        <v>44540</v>
+        <v>44544</v>
       </c>
       <c r="C311">
-        <v>69750</v>
+        <v>68900</v>
       </c>
       <c r="D311" t="s">
         <v>3</v>
@@ -4749,10 +4749,10 @@
         <v>310</v>
       </c>
       <c r="B312" s="2">
-        <v>44539</v>
+        <v>44540</v>
       </c>
       <c r="C312">
-        <v>69980</v>
+        <v>69750</v>
       </c>
       <c r="D312" t="s">
         <v>3</v>
@@ -4763,10 +4763,10 @@
         <v>311</v>
       </c>
       <c r="B313" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="C313">
-        <v>69815</v>
+        <v>69980</v>
       </c>
       <c r="D313" t="s">
         <v>3</v>
@@ -4777,10 +4777,10 @@
         <v>312</v>
       </c>
       <c r="B314" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="C314">
-        <v>69760</v>
+        <v>69815</v>
       </c>
       <c r="D314" t="s">
         <v>3</v>
@@ -4791,10 +4791,10 @@
         <v>313</v>
       </c>
       <c r="B315" s="2">
-        <v>44533</v>
+        <v>44537</v>
       </c>
       <c r="C315">
-        <v>69830</v>
+        <v>69760</v>
       </c>
       <c r="D315" t="s">
         <v>3</v>
@@ -4805,10 +4805,10 @@
         <v>314</v>
       </c>
       <c r="B316" s="2">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="C316">
-        <v>69900</v>
+        <v>69830</v>
       </c>
       <c r="D316" t="s">
         <v>3</v>
@@ -4819,10 +4819,10 @@
         <v>315</v>
       </c>
       <c r="B317" s="2">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="C317">
-        <v>70180</v>
+        <v>69900</v>
       </c>
       <c r="D317" t="s">
         <v>3</v>
@@ -4833,10 +4833,10 @@
         <v>316</v>
       </c>
       <c r="B318" s="2">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="C318">
-        <v>70650</v>
+        <v>70180</v>
       </c>
       <c r="D318" t="s">
         <v>3</v>
@@ -4847,10 +4847,10 @@
         <v>317</v>
       </c>
       <c r="B319" s="2">
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="C319">
-        <v>71610</v>
+        <v>70650</v>
       </c>
       <c r="D319" t="s">
         <v>3</v>
@@ -4861,10 +4861,10 @@
         <v>318</v>
       </c>
       <c r="B320" s="2">
-        <v>44525</v>
+        <v>44526</v>
       </c>
       <c r="C320">
-        <v>72330</v>
+        <v>71610</v>
       </c>
       <c r="D320" t="s">
         <v>3</v>
@@ -4875,10 +4875,10 @@
         <v>319</v>
       </c>
       <c r="B321" s="2">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="C321">
-        <v>71820</v>
+        <v>72330</v>
       </c>
       <c r="D321" t="s">
         <v>3</v>
@@ -4889,10 +4889,10 @@
         <v>320</v>
       </c>
       <c r="B322" s="2">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="C322">
-        <v>72510</v>
+        <v>71820</v>
       </c>
       <c r="D322" t="s">
         <v>3</v>
@@ -4903,10 +4903,10 @@
         <v>321</v>
       </c>
       <c r="B323" s="2">
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="C323">
-        <v>72250</v>
+        <v>72510</v>
       </c>
       <c r="D323" t="s">
         <v>3</v>
@@ -4917,10 +4917,10 @@
         <v>322</v>
       </c>
       <c r="B324" s="2">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="C324">
-        <v>70350</v>
+        <v>72250</v>
       </c>
       <c r="D324" t="s">
         <v>3</v>
@@ -4931,10 +4931,10 @@
         <v>323</v>
       </c>
       <c r="B325" s="2">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="C325">
-        <v>70955</v>
+        <v>70350</v>
       </c>
       <c r="D325" t="s">
         <v>3</v>
@@ -4945,10 +4945,10 @@
         <v>324</v>
       </c>
       <c r="B326" s="2">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="C326">
-        <v>71750</v>
+        <v>70955</v>
       </c>
       <c r="D326" t="s">
         <v>3</v>
@@ -4959,10 +4959,10 @@
         <v>325</v>
       </c>
       <c r="B327" s="2">
-        <v>44512</v>
+        <v>44516</v>
       </c>
       <c r="C327">
-        <v>71435</v>
+        <v>71750</v>
       </c>
       <c r="D327" t="s">
         <v>3</v>
@@ -4973,10 +4973,10 @@
         <v>326</v>
       </c>
       <c r="B328" s="2">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="C328">
-        <v>70780</v>
+        <v>71435</v>
       </c>
       <c r="D328" t="s">
         <v>3</v>
@@ -4987,10 +4987,10 @@
         <v>327</v>
       </c>
       <c r="B329" s="2">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="C329">
-        <v>70650</v>
+        <v>70780</v>
       </c>
       <c r="D329" t="s">
         <v>3</v>
@@ -5001,10 +5001,10 @@
         <v>328</v>
       </c>
       <c r="B330" s="2">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="C330">
-        <v>71110</v>
+        <v>70650</v>
       </c>
       <c r="D330" t="s">
         <v>3</v>
@@ -5015,10 +5015,10 @@
         <v>329</v>
       </c>
       <c r="B331" s="2">
-        <v>44504</v>
+        <v>44509</v>
       </c>
       <c r="C331">
-        <v>71270</v>
+        <v>71110</v>
       </c>
       <c r="D331" t="s">
         <v>3</v>
@@ -5029,10 +5029,10 @@
         <v>330</v>
       </c>
       <c r="B332" s="2">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="C332">
-        <v>70910</v>
+        <v>71270</v>
       </c>
       <c r="D332" t="s">
         <v>3</v>
@@ -5043,10 +5043,10 @@
         <v>331</v>
       </c>
       <c r="B333" s="2">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="C333">
-        <v>71180</v>
+        <v>70910</v>
       </c>
       <c r="D333" t="s">
         <v>3</v>
@@ -5057,10 +5057,10 @@
         <v>332</v>
       </c>
       <c r="B334" s="2">
-        <v>44498</v>
+        <v>44502</v>
       </c>
       <c r="C334">
-        <v>71575</v>
+        <v>71180</v>
       </c>
       <c r="D334" t="s">
         <v>3</v>
@@ -5071,10 +5071,10 @@
         <v>333</v>
       </c>
       <c r="B335" s="2">
-        <v>44497</v>
+        <v>44498</v>
       </c>
       <c r="C335">
-        <v>70770</v>
+        <v>71575</v>
       </c>
       <c r="D335" t="s">
         <v>3</v>
@@ -5085,10 +5085,10 @@
         <v>334</v>
       </c>
       <c r="B336" s="2">
-        <v>44496</v>
+        <v>44497</v>
       </c>
       <c r="C336">
-        <v>72060</v>
+        <v>70770</v>
       </c>
       <c r="D336" t="s">
         <v>3</v>
@@ -5099,10 +5099,10 @@
         <v>335</v>
       </c>
       <c r="B337" s="2">
-        <v>44495</v>
+        <v>44496</v>
       </c>
       <c r="C337">
-        <v>72585</v>
+        <v>72060</v>
       </c>
       <c r="D337" t="s">
         <v>3</v>
@@ -5113,10 +5113,10 @@
         <v>336</v>
       </c>
       <c r="B338" s="2">
-        <v>44491</v>
+        <v>44495</v>
       </c>
       <c r="C338">
-        <v>73125</v>
+        <v>72585</v>
       </c>
       <c r="D338" t="s">
         <v>3</v>
@@ -5127,10 +5127,10 @@
         <v>337</v>
       </c>
       <c r="B339" s="2">
-        <v>44490</v>
+        <v>44491</v>
       </c>
       <c r="C339">
-        <v>75190</v>
+        <v>73125</v>
       </c>
       <c r="D339" t="s">
         <v>3</v>
@@ -5141,10 +5141,10 @@
         <v>338</v>
       </c>
       <c r="B340" s="2">
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="C340">
-        <v>73430</v>
+        <v>75190</v>
       </c>
       <c r="D340" t="s">
         <v>3</v>
@@ -5155,10 +5155,10 @@
         <v>339</v>
       </c>
       <c r="B341" s="2">
-        <v>44488</v>
+        <v>44489</v>
       </c>
       <c r="C341">
-        <v>75750</v>
+        <v>73430</v>
       </c>
       <c r="D341" t="s">
         <v>3</v>
@@ -5169,10 +5169,10 @@
         <v>340</v>
       </c>
       <c r="B342" s="2">
-        <v>44484</v>
+        <v>44488</v>
       </c>
       <c r="C342">
-        <v>74060</v>
+        <v>75750</v>
       </c>
       <c r="D342" t="s">
         <v>3</v>
@@ -5183,10 +5183,10 @@
         <v>341</v>
       </c>
       <c r="B343" s="2">
-        <v>44483</v>
+        <v>44484</v>
       </c>
       <c r="C343">
-        <v>72540</v>
+        <v>74060</v>
       </c>
       <c r="D343" t="s">
         <v>3</v>
@@ -5197,10 +5197,10 @@
         <v>342</v>
       </c>
       <c r="B344" s="2">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="C344">
-        <v>70160</v>
+        <v>72540</v>
       </c>
       <c r="D344" t="s">
         <v>3</v>
@@ -5211,10 +5211,10 @@
         <v>343</v>
       </c>
       <c r="B345" s="2">
-        <v>44481</v>
+        <v>44482</v>
       </c>
       <c r="C345">
-        <v>70320</v>
+        <v>70160</v>
       </c>
       <c r="D345" t="s">
         <v>3</v>
@@ -5225,10 +5225,10 @@
         <v>344</v>
       </c>
       <c r="B346" s="2">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="C346">
-        <v>69940</v>
+        <v>70320</v>
       </c>
       <c r="D346" t="s">
         <v>3</v>
@@ -5239,10 +5239,10 @@
         <v>345</v>
       </c>
       <c r="B347" s="2">
-        <v>44469</v>
+        <v>44477</v>
       </c>
       <c r="C347">
-        <v>68700</v>
+        <v>69940</v>
       </c>
       <c r="D347" t="s">
         <v>3</v>
@@ -5253,10 +5253,10 @@
         <v>346</v>
       </c>
       <c r="B348" s="2">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="C348">
-        <v>68965</v>
+        <v>68700</v>
       </c>
       <c r="D348" t="s">
         <v>3</v>
@@ -5267,10 +5267,10 @@
         <v>347</v>
       </c>
       <c r="B349" s="2">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="C349">
-        <v>69520</v>
+        <v>68965</v>
       </c>
       <c r="D349" t="s">
         <v>3</v>
@@ -5281,10 +5281,10 @@
         <v>348</v>
       </c>
       <c r="B350" s="2">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="C350">
-        <v>69375</v>
+        <v>69520</v>
       </c>
       <c r="D350" t="s">
         <v>3</v>
@@ -5295,10 +5295,10 @@
         <v>349</v>
       </c>
       <c r="B351" s="2">
-        <v>44462</v>
+        <v>44463</v>
       </c>
       <c r="C351">
-        <v>69040</v>
+        <v>69375</v>
       </c>
       <c r="D351" t="s">
         <v>3</v>
@@ -5309,10 +5309,10 @@
         <v>350</v>
       </c>
       <c r="B352" s="2">
-        <v>44461</v>
+        <v>44462</v>
       </c>
       <c r="C352">
-        <v>69075</v>
+        <v>69040</v>
       </c>
       <c r="D352" t="s">
         <v>3</v>
@@ -5323,10 +5323,10 @@
         <v>351</v>
       </c>
       <c r="B353" s="2">
-        <v>44456</v>
+        <v>44461</v>
       </c>
       <c r="C353">
-        <v>69810</v>
+        <v>69075</v>
       </c>
       <c r="D353" t="s">
         <v>3</v>
@@ -5337,10 +5337,10 @@
         <v>352</v>
       </c>
       <c r="B354" s="2">
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="C354">
-        <v>70460</v>
+        <v>69810</v>
       </c>
       <c r="D354" t="s">
         <v>3</v>
@@ -5351,10 +5351,10 @@
         <v>353</v>
       </c>
       <c r="B355" s="2">
-        <v>44454</v>
+        <v>44455</v>
       </c>
       <c r="C355">
-        <v>69860</v>
+        <v>70460</v>
       </c>
       <c r="D355" t="s">
         <v>3</v>
@@ -5365,10 +5365,10 @@
         <v>354</v>
       </c>
       <c r="B356" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="C356">
-        <v>70520</v>
+        <v>69860</v>
       </c>
       <c r="D356" t="s">
         <v>3</v>
@@ -5379,10 +5379,10 @@
         <v>355</v>
       </c>
       <c r="B357" s="2">
-        <v>44449</v>
+        <v>44453</v>
       </c>
       <c r="C357">
-        <v>70035</v>
+        <v>70520</v>
       </c>
       <c r="D357" t="s">
         <v>3</v>
@@ -5393,10 +5393,10 @@
         <v>356</v>
       </c>
       <c r="B358" s="2">
-        <v>44448</v>
+        <v>44449</v>
       </c>
       <c r="C358">
-        <v>68850</v>
+        <v>70035</v>
       </c>
       <c r="D358" t="s">
         <v>3</v>
@@ -5407,10 +5407,10 @@
         <v>357</v>
       </c>
       <c r="B359" s="2">
-        <v>44447</v>
+        <v>44448</v>
       </c>
       <c r="C359">
-        <v>69250</v>
+        <v>68850</v>
       </c>
       <c r="D359" t="s">
         <v>3</v>
@@ -5421,10 +5421,10 @@
         <v>358</v>
       </c>
       <c r="B360" s="2">
-        <v>44446</v>
+        <v>44447</v>
       </c>
       <c r="C360">
-        <v>69580</v>
+        <v>69250</v>
       </c>
       <c r="D360" t="s">
         <v>3</v>
@@ -5435,10 +5435,10 @@
         <v>359</v>
       </c>
       <c r="B361" s="2">
-        <v>44442</v>
+        <v>44446</v>
       </c>
       <c r="C361">
-        <v>69575</v>
+        <v>69580</v>
       </c>
       <c r="D361" t="s">
         <v>3</v>
@@ -5449,10 +5449,10 @@
         <v>360</v>
       </c>
       <c r="B362" s="2">
-        <v>44441</v>
+        <v>44442</v>
       </c>
       <c r="C362">
-        <v>69460</v>
+        <v>69575</v>
       </c>
       <c r="D362" t="s">
         <v>3</v>
@@ -5463,10 +5463,10 @@
         <v>361</v>
       </c>
       <c r="B363" s="2">
-        <v>44440</v>
+        <v>44441</v>
       </c>
       <c r="C363">
-        <v>69940</v>
+        <v>69460</v>
       </c>
       <c r="D363" t="s">
         <v>3</v>
@@ -5477,10 +5477,10 @@
         <v>362</v>
       </c>
       <c r="B364" s="2">
-        <v>44439</v>
+        <v>44440</v>
       </c>
       <c r="C364">
-        <v>70315</v>
+        <v>69940</v>
       </c>
       <c r="D364" t="s">
         <v>3</v>
@@ -5491,10 +5491,10 @@
         <v>363</v>
       </c>
       <c r="B365" s="2">
-        <v>44435</v>
+        <v>44439</v>
       </c>
       <c r="C365">
-        <v>69185</v>
+        <v>70315</v>
       </c>
       <c r="D365" t="s">
         <v>3</v>
@@ -5505,10 +5505,10 @@
         <v>364</v>
       </c>
       <c r="B366" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="C366">
-        <v>69260</v>
+        <v>69185</v>
       </c>
       <c r="D366" t="s">
         <v>3</v>
@@ -5519,10 +5519,10 @@
         <v>365</v>
       </c>
       <c r="B367" s="2">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="C367">
-        <v>69600</v>
+        <v>69260</v>
       </c>
       <c r="D367" t="s">
         <v>3</v>
@@ -5533,10 +5533,10 @@
         <v>366</v>
       </c>
       <c r="B368" s="2">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="C368">
-        <v>68940</v>
+        <v>69600</v>
       </c>
       <c r="D368" t="s">
         <v>3</v>
@@ -5547,10 +5547,10 @@
         <v>367</v>
       </c>
       <c r="B369" s="2">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="C369">
-        <v>67260</v>
+        <v>68940</v>
       </c>
       <c r="D369" t="s">
         <v>3</v>
@@ -5561,10 +5561,10 @@
         <v>368</v>
       </c>
       <c r="B370" s="2">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="C370">
-        <v>67700</v>
+        <v>67260</v>
       </c>
       <c r="D370" t="s">
         <v>3</v>
@@ -5575,10 +5575,10 @@
         <v>369</v>
       </c>
       <c r="B371" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="C371">
-        <v>69240</v>
+        <v>67700</v>
       </c>
       <c r="D371" t="s">
         <v>3</v>
@@ -5589,10 +5589,10 @@
         <v>370</v>
       </c>
       <c r="B372" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="C372">
-        <v>70080</v>
+        <v>69240</v>
       </c>
       <c r="D372" t="s">
         <v>3</v>
@@ -5603,10 +5603,10 @@
         <v>371</v>
       </c>
       <c r="B373" s="2">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="C373">
-        <v>70240</v>
+        <v>70080</v>
       </c>
       <c r="D373" t="s">
         <v>3</v>
@@ -5617,10 +5617,10 @@
         <v>372</v>
       </c>
       <c r="B374" s="2">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="C374">
-        <v>70430</v>
+        <v>70240</v>
       </c>
       <c r="D374" t="s">
         <v>3</v>
@@ -5631,10 +5631,10 @@
         <v>373</v>
       </c>
       <c r="B375" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="C375">
-        <v>70000</v>
+        <v>70430</v>
       </c>
       <c r="D375" t="s">
         <v>3</v>
@@ -5645,10 +5645,10 @@
         <v>374</v>
       </c>
       <c r="B376" s="2">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="C376">
-        <v>69560</v>
+        <v>70000</v>
       </c>
       <c r="D376" t="s">
         <v>3</v>
@@ -5659,10 +5659,10 @@
         <v>375</v>
       </c>
       <c r="B377" s="2">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="C377">
-        <v>69800</v>
+        <v>69560</v>
       </c>
       <c r="D377" t="s">
         <v>3</v>
@@ -5673,10 +5673,10 @@
         <v>376</v>
       </c>
       <c r="B378" s="2">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="C378">
-        <v>69660</v>
+        <v>69800</v>
       </c>
       <c r="D378" t="s">
         <v>3</v>
@@ -5687,10 +5687,10 @@
         <v>377</v>
       </c>
       <c r="B379" s="2">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="C379">
-        <v>70290</v>
+        <v>69660</v>
       </c>
       <c r="D379" t="s">
         <v>3</v>
@@ -5701,10 +5701,10 @@
         <v>378</v>
       </c>
       <c r="B380" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="C380">
-        <v>71030</v>
+        <v>70290</v>
       </c>
       <c r="D380" t="s">
         <v>3</v>
@@ -5715,10 +5715,10 @@
         <v>379</v>
       </c>
       <c r="B381" s="2">
-        <v>44407</v>
+        <v>44411</v>
       </c>
       <c r="C381">
-        <v>71900</v>
+        <v>71030</v>
       </c>
       <c r="D381" t="s">
         <v>3</v>
@@ -5729,10 +5729,10 @@
         <v>380</v>
       </c>
       <c r="B382" s="2">
-        <v>44406</v>
+        <v>44407</v>
       </c>
       <c r="C382">
-        <v>71700</v>
+        <v>71900</v>
       </c>
       <c r="D382" t="s">
         <v>3</v>
@@ -5743,10 +5743,10 @@
         <v>381</v>
       </c>
       <c r="B383" s="2">
-        <v>44405</v>
+        <v>44406</v>
       </c>
       <c r="C383">
-        <v>72365</v>
+        <v>71700</v>
       </c>
       <c r="D383" t="s">
         <v>3</v>
@@ -5757,10 +5757,10 @@
         <v>382</v>
       </c>
       <c r="B384" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="C384">
-        <v>72520</v>
+        <v>72365</v>
       </c>
       <c r="D384" t="s">
         <v>3</v>
@@ -5771,10 +5771,10 @@
         <v>383</v>
       </c>
       <c r="B385" s="2">
-        <v>44400</v>
+        <v>44404</v>
       </c>
       <c r="C385">
-        <v>70090</v>
+        <v>72520</v>
       </c>
       <c r="D385" t="s">
         <v>3</v>
@@ -5785,10 +5785,10 @@
         <v>384</v>
       </c>
       <c r="B386" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="C386">
-        <v>69040</v>
+        <v>70090</v>
       </c>
       <c r="D386" t="s">
         <v>3</v>
@@ -5799,10 +5799,10 @@
         <v>385</v>
       </c>
       <c r="B387" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="C387">
-        <v>68600</v>
+        <v>69040</v>
       </c>
       <c r="D387" t="s">
         <v>3</v>
@@ -5813,10 +5813,10 @@
         <v>386</v>
       </c>
       <c r="B388" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="C388">
-        <v>68390</v>
+        <v>68600</v>
       </c>
       <c r="D388" t="s">
         <v>3</v>
@@ -5827,10 +5827,10 @@
         <v>387</v>
       </c>
       <c r="B389" s="2">
-        <v>44393</v>
+        <v>44397</v>
       </c>
       <c r="C389">
-        <v>69660</v>
+        <v>68390</v>
       </c>
       <c r="D389" t="s">
         <v>3</v>
@@ -5841,10 +5841,10 @@
         <v>388</v>
       </c>
       <c r="B390" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="C390">
-        <v>68830</v>
+        <v>69660</v>
       </c>
       <c r="D390" t="s">
         <v>3</v>
@@ -5855,10 +5855,10 @@
         <v>389</v>
       </c>
       <c r="B391" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="C391">
-        <v>68810</v>
+        <v>68830</v>
       </c>
       <c r="D391" t="s">
         <v>3</v>
@@ -5869,10 +5869,10 @@
         <v>390</v>
       </c>
       <c r="B392" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="C392">
-        <v>69370</v>
+        <v>68810</v>
       </c>
       <c r="D392" t="s">
         <v>3</v>
@@ -5883,10 +5883,10 @@
         <v>391</v>
       </c>
       <c r="B393" s="2">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="C393">
-        <v>68800</v>
+        <v>69370</v>
       </c>
       <c r="D393" t="s">
         <v>3</v>
@@ -5897,10 +5897,10 @@
         <v>392</v>
       </c>
       <c r="B394" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="C394">
-        <v>68900</v>
+        <v>68800</v>
       </c>
       <c r="D394" t="s">
         <v>3</v>
@@ -5911,10 +5911,10 @@
         <v>393</v>
       </c>
       <c r="B395" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="C395">
-        <v>68540</v>
+        <v>68900</v>
       </c>
       <c r="D395" t="s">
         <v>3</v>
@@ -5925,10 +5925,10 @@
         <v>394</v>
       </c>
       <c r="B396" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="C396">
-        <v>69700</v>
+        <v>68540</v>
       </c>
       <c r="D396" t="s">
         <v>3</v>
@@ -5939,10 +5939,10 @@
         <v>395</v>
       </c>
       <c r="B397" s="2">
-        <v>44379</v>
+        <v>44383</v>
       </c>
       <c r="C397">
-        <v>68050</v>
+        <v>69700</v>
       </c>
       <c r="D397" t="s">
         <v>3</v>
@@ -5953,10 +5953,10 @@
         <v>396</v>
       </c>
       <c r="B398" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="C398">
-        <v>68490</v>
+        <v>68050</v>
       </c>
       <c r="D398" t="s">
         <v>3</v>
@@ -5967,10 +5967,10 @@
         <v>397</v>
       </c>
       <c r="B399" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="C399">
-        <v>68380</v>
+        <v>68490</v>
       </c>
       <c r="D399" t="s">
         <v>3</v>
@@ -5981,10 +5981,10 @@
         <v>398</v>
       </c>
       <c r="B400" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="C400">
-        <v>68050</v>
+        <v>68380</v>
       </c>
       <c r="D400" t="s">
         <v>3</v>
@@ -5995,10 +5995,10 @@
         <v>399</v>
       </c>
       <c r="B401" s="2">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="C401">
-        <v>68825</v>
+        <v>68050</v>
       </c>
       <c r="D401" t="s">
         <v>3</v>
@@ -6009,10 +6009,10 @@
         <v>400</v>
       </c>
       <c r="B402" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="C402">
-        <v>68600</v>
+        <v>68825</v>
       </c>
       <c r="D402" t="s">
         <v>3</v>
@@ -6023,10 +6023,10 @@
         <v>401</v>
       </c>
       <c r="B403" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="C403">
-        <v>68270</v>
+        <v>68600</v>
       </c>
       <c r="D403" t="s">
         <v>3</v>
@@ -6037,10 +6037,10 @@
         <v>402</v>
       </c>
       <c r="B404" s="2">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="C404">
-        <v>67400</v>
+        <v>68270</v>
       </c>
       <c r="D404" t="s">
         <v>3</v>
@@ -6051,10 +6051,10 @@
         <v>403</v>
       </c>
       <c r="B405" s="2">
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="C405">
-        <v>67730</v>
+        <v>67400</v>
       </c>
       <c r="D405" t="s">
         <v>3</v>
@@ -6065,10 +6065,10 @@
         <v>404</v>
       </c>
       <c r="B406" s="2">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="C406">
-        <v>69170</v>
+        <v>67730</v>
       </c>
       <c r="D406" t="s">
         <v>3</v>
@@ -6079,10 +6079,10 @@
         <v>405</v>
       </c>
       <c r="B407" s="2">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="C407">
-        <v>69260</v>
+        <v>69170</v>
       </c>
       <c r="D407" t="s">
         <v>3</v>
@@ -6093,10 +6093,10 @@
         <v>406</v>
       </c>
       <c r="B408" s="2">
-        <v>44358</v>
+        <v>44363</v>
       </c>
       <c r="C408">
-        <v>70800</v>
+        <v>69260</v>
       </c>
       <c r="D408" t="s">
         <v>3</v>
@@ -6107,10 +6107,10 @@
         <v>407</v>
       </c>
       <c r="B409" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="C409">
-        <v>71210</v>
+        <v>70800</v>
       </c>
       <c r="D409" t="s">
         <v>3</v>
@@ -6121,10 +6121,10 @@
         <v>408</v>
       </c>
       <c r="B410" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="C410">
-        <v>71710</v>
+        <v>71210</v>
       </c>
       <c r="D410" t="s">
         <v>3</v>
@@ -6135,10 +6135,10 @@
         <v>409</v>
       </c>
       <c r="B411" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="C411">
-        <v>71310</v>
+        <v>71710</v>
       </c>
       <c r="D411" t="s">
         <v>3</v>
@@ -6149,10 +6149,10 @@
         <v>410</v>
       </c>
       <c r="B412" s="2">
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="C412">
-        <v>71090</v>
+        <v>71310</v>
       </c>
       <c r="D412" t="s">
         <v>3</v>
@@ -6163,10 +6163,10 @@
         <v>411</v>
       </c>
       <c r="B413" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="C413">
-        <v>72950</v>
+        <v>71090</v>
       </c>
       <c r="D413" t="s">
         <v>3</v>
@@ -6177,10 +6177,10 @@
         <v>412</v>
       </c>
       <c r="B414" s="2">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="C414">
-        <v>73580</v>
+        <v>72950</v>
       </c>
       <c r="D414" t="s">
         <v>3</v>
@@ -6191,10 +6191,10 @@
         <v>413</v>
       </c>
       <c r="B415" s="2">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="C415">
-        <v>73790</v>
+        <v>73580</v>
       </c>
       <c r="D415" t="s">
         <v>3</v>
@@ -6205,10 +6205,10 @@
         <v>414</v>
       </c>
       <c r="B416" s="2">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="C416">
-        <v>73380</v>
+        <v>73790</v>
       </c>
       <c r="D416" t="s">
         <v>3</v>
@@ -6219,10 +6219,10 @@
         <v>415</v>
       </c>
       <c r="B417" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="C417">
-        <v>71350</v>
+        <v>73380</v>
       </c>
       <c r="D417" t="s">
         <v>3</v>
@@ -6233,10 +6233,10 @@
         <v>416</v>
       </c>
       <c r="B418" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="C418">
-        <v>71720</v>
+        <v>71350</v>
       </c>
       <c r="D418" t="s">
         <v>3</v>
@@ -6247,10 +6247,10 @@
         <v>417</v>
       </c>
       <c r="B419" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="C419">
-        <v>72360</v>
+        <v>71720</v>
       </c>
       <c r="D419" t="s">
         <v>3</v>
@@ -6261,10 +6261,10 @@
         <v>418</v>
       </c>
       <c r="B420" s="2">
-        <v>44337</v>
+        <v>44341</v>
       </c>
       <c r="C420">
-        <v>71950</v>
+        <v>72360</v>
       </c>
       <c r="D420" t="s">
         <v>3</v>
@@ -6275,10 +6275,10 @@
         <v>419</v>
       </c>
       <c r="B421" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="C421">
-        <v>72525</v>
+        <v>71950</v>
       </c>
       <c r="D421" t="s">
         <v>3</v>
@@ -6289,10 +6289,10 @@
         <v>420</v>
       </c>
       <c r="B422" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="C422">
-        <v>74840</v>
+        <v>72525</v>
       </c>
       <c r="D422" t="s">
         <v>3</v>
@@ -6303,10 +6303,10 @@
         <v>421</v>
       </c>
       <c r="B423" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="C423">
-        <v>75720</v>
+        <v>74840</v>
       </c>
       <c r="D423" t="s">
         <v>3</v>
@@ -6317,10 +6317,10 @@
         <v>422</v>
       </c>
       <c r="B424" s="2">
-        <v>44330</v>
+        <v>44334</v>
       </c>
       <c r="C424">
-        <v>74760</v>
+        <v>75720</v>
       </c>
       <c r="D424" t="s">
         <v>3</v>
@@ -6331,10 +6331,10 @@
         <v>423</v>
       </c>
       <c r="B425" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="C425">
-        <v>75910</v>
+        <v>74760</v>
       </c>
       <c r="D425" t="s">
         <v>3</v>
@@ -6345,10 +6345,10 @@
         <v>424</v>
       </c>
       <c r="B426" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="C426">
-        <v>76150</v>
+        <v>75910</v>
       </c>
       <c r="D426" t="s">
         <v>3</v>
@@ -6359,10 +6359,10 @@
         <v>425</v>
       </c>
       <c r="B427" s="2">
-        <v>44323</v>
+        <v>44328</v>
       </c>
       <c r="C427">
-        <v>74200</v>
+        <v>76150</v>
       </c>
       <c r="D427" t="s">
         <v>3</v>
@@ -6373,10 +6373,10 @@
         <v>426</v>
       </c>
       <c r="B428" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="C428">
-        <v>72690</v>
+        <v>74200</v>
       </c>
       <c r="D428" t="s">
         <v>3</v>
@@ -6387,10 +6387,10 @@
         <v>427</v>
       </c>
       <c r="B429" s="2">
-        <v>44316</v>
+        <v>44322</v>
       </c>
       <c r="C429">
-        <v>71680</v>
+        <v>72690</v>
       </c>
       <c r="D429" t="s">
         <v>3</v>
@@ -6401,10 +6401,10 @@
         <v>428</v>
       </c>
       <c r="B430" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="C430">
-        <v>72335</v>
+        <v>71680</v>
       </c>
       <c r="D430" t="s">
         <v>3</v>
@@ -6415,10 +6415,10 @@
         <v>429</v>
       </c>
       <c r="B431" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="C431">
-        <v>70920</v>
+        <v>72335</v>
       </c>
       <c r="D431" t="s">
         <v>3</v>
@@ -6429,10 +6429,10 @@
         <v>430</v>
       </c>
       <c r="B432" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="C432">
-        <v>71940</v>
+        <v>70920</v>
       </c>
       <c r="D432" t="s">
         <v>3</v>
@@ -6443,10 +6443,10 @@
         <v>431</v>
       </c>
       <c r="B433" s="2">
-        <v>44309</v>
+        <v>44313</v>
       </c>
       <c r="C433">
-        <v>69120</v>
+        <v>71940</v>
       </c>
       <c r="D433" t="s">
         <v>3</v>
@@ -6457,10 +6457,10 @@
         <v>432</v>
       </c>
       <c r="B434" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="C434">
-        <v>68840</v>
+        <v>69120</v>
       </c>
       <c r="D434" t="s">
         <v>3</v>
@@ -6471,10 +6471,10 @@
         <v>433</v>
       </c>
       <c r="B435" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="C435">
-        <v>68550</v>
+        <v>68840</v>
       </c>
       <c r="D435" t="s">
         <v>3</v>
@@ -6485,10 +6485,10 @@
         <v>434</v>
       </c>
       <c r="B436" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="C436">
-        <v>68990</v>
+        <v>68550</v>
       </c>
       <c r="D436" t="s">
         <v>3</v>
@@ -6499,10 +6499,10 @@
         <v>435</v>
       </c>
       <c r="B437" s="2">
-        <v>44302</v>
+        <v>44306</v>
       </c>
       <c r="C437">
-        <v>68550</v>
+        <v>68990</v>
       </c>
       <c r="D437" t="s">
         <v>3</v>
@@ -6513,10 +6513,10 @@
         <v>436</v>
       </c>
       <c r="B438" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="C438">
-        <v>67260</v>
+        <v>68550</v>
       </c>
       <c r="D438" t="s">
         <v>3</v>
@@ -6527,10 +6527,10 @@
         <v>437</v>
       </c>
       <c r="B439" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="C439">
-        <v>66125</v>
+        <v>67260</v>
       </c>
       <c r="D439" t="s">
         <v>3</v>
@@ -6541,10 +6541,10 @@
         <v>438</v>
       </c>
       <c r="B440" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="C440">
-        <v>65720</v>
+        <v>66125</v>
       </c>
       <c r="D440" t="s">
         <v>3</v>
@@ -6555,10 +6555,10 @@
         <v>439</v>
       </c>
       <c r="B441" s="2">
-        <v>44295</v>
+        <v>44299</v>
       </c>
       <c r="C441">
-        <v>66750</v>
+        <v>65720</v>
       </c>
       <c r="D441" t="s">
         <v>3</v>
@@ -6569,10 +6569,10 @@
         <v>440</v>
       </c>
       <c r="B442" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="C442">
-        <v>66500</v>
+        <v>66750</v>
       </c>
       <c r="D442" t="s">
         <v>3</v>
@@ -6583,10 +6583,10 @@
         <v>441</v>
       </c>
       <c r="B443" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="C443">
-        <v>66890</v>
+        <v>66500</v>
       </c>
       <c r="D443" t="s">
         <v>3</v>
@@ -6597,10 +6597,10 @@
         <v>442</v>
       </c>
       <c r="B444" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="C444">
-        <v>67140</v>
+        <v>66890</v>
       </c>
       <c r="D444" t="s">
         <v>3</v>
@@ -6611,10 +6611,10 @@
         <v>443</v>
       </c>
       <c r="B445" s="2">
-        <v>44288</v>
+        <v>44292</v>
       </c>
       <c r="C445">
-        <v>66040</v>
+        <v>67140</v>
       </c>
       <c r="D445" t="s">
         <v>3</v>
@@ -6625,10 +6625,10 @@
         <v>444</v>
       </c>
       <c r="B446" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="C446">
-        <v>65490</v>
+        <v>66040</v>
       </c>
       <c r="D446" t="s">
         <v>3</v>
@@ -6639,10 +6639,10 @@
         <v>445</v>
       </c>
       <c r="B447" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="C447">
-        <v>65175</v>
+        <v>65490</v>
       </c>
       <c r="D447" t="s">
         <v>3</v>
@@ -6653,10 +6653,10 @@
         <v>446</v>
       </c>
       <c r="B448" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="C448">
-        <v>66190</v>
+        <v>65175</v>
       </c>
       <c r="D448" t="s">
         <v>3</v>
@@ -6667,10 +6667,10 @@
         <v>447</v>
       </c>
       <c r="B449" s="2">
-        <v>44281</v>
+        <v>44285</v>
       </c>
       <c r="C449">
-        <v>65680</v>
+        <v>66190</v>
       </c>
       <c r="D449" t="s">
         <v>3</v>
@@ -6681,10 +6681,10 @@
         <v>448</v>
       </c>
       <c r="B450" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="C450">
-        <v>65770</v>
+        <v>65680</v>
       </c>
       <c r="D450" t="s">
         <v>3</v>
@@ -6695,10 +6695,10 @@
         <v>449</v>
       </c>
       <c r="B451" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="C451">
-        <v>66075</v>
+        <v>65770</v>
       </c>
       <c r="D451" t="s">
         <v>3</v>
@@ -6709,10 +6709,10 @@
         <v>450</v>
       </c>
       <c r="B452" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="C452">
-        <v>66740</v>
+        <v>66075</v>
       </c>
       <c r="D452" t="s">
         <v>3</v>
@@ -6723,10 +6723,10 @@
         <v>451</v>
       </c>
       <c r="B453" s="2">
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="C453">
-        <v>66550</v>
+        <v>66740</v>
       </c>
       <c r="D453" t="s">
         <v>3</v>
@@ -6737,10 +6737,10 @@
         <v>452</v>
       </c>
       <c r="B454" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="C454">
-        <v>67050</v>
+        <v>66550</v>
       </c>
       <c r="D454" t="s">
         <v>3</v>
@@ -6751,10 +6751,10 @@
         <v>453</v>
       </c>
       <c r="B455" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="C455">
-        <v>66200</v>
+        <v>67050</v>
       </c>
       <c r="D455" t="s">
         <v>3</v>
@@ -6765,10 +6765,10 @@
         <v>454</v>
       </c>
       <c r="B456" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="C456">
-        <v>67150</v>
+        <v>66200</v>
       </c>
       <c r="D456" t="s">
         <v>3</v>
@@ -6779,10 +6779,10 @@
         <v>455</v>
       </c>
       <c r="B457" s="2">
-        <v>44267</v>
+        <v>44271</v>
       </c>
       <c r="C457">
-        <v>66660</v>
+        <v>67150</v>
       </c>
       <c r="D457" t="s">
         <v>3</v>
@@ -6793,10 +6793,10 @@
         <v>456</v>
       </c>
       <c r="B458" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="C458">
-        <v>65580</v>
+        <v>66660</v>
       </c>
       <c r="D458" t="s">
         <v>3</v>
@@ -6807,10 +6807,10 @@
         <v>457</v>
       </c>
       <c r="B459" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="C459">
-        <v>65530</v>
+        <v>65580</v>
       </c>
       <c r="D459" t="s">
         <v>3</v>
@@ -6821,10 +6821,10 @@
         <v>458</v>
       </c>
       <c r="B460" s="2">
-        <v>44260</v>
+        <v>44265</v>
       </c>
       <c r="C460">
-        <v>64810</v>
+        <v>65530</v>
       </c>
       <c r="D460" t="s">
         <v>3</v>
@@ -6835,10 +6835,10 @@
         <v>459</v>
       </c>
       <c r="B461" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="C461">
-        <v>67020</v>
+        <v>64810</v>
       </c>
       <c r="D461" t="s">
         <v>3</v>
@@ -6849,10 +6849,10 @@
         <v>460</v>
       </c>
       <c r="B462" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="C462">
-        <v>67790</v>
+        <v>67020</v>
       </c>
       <c r="D462" t="s">
         <v>3</v>
@@ -6863,10 +6863,10 @@
         <v>461</v>
       </c>
       <c r="B463" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="C463">
-        <v>66140</v>
+        <v>67790</v>
       </c>
       <c r="D463" t="s">
         <v>3</v>
@@ -6877,10 +6877,10 @@
         <v>462</v>
       </c>
       <c r="B464" s="2">
-        <v>44253</v>
+        <v>44257</v>
       </c>
       <c r="C464">
-        <v>68410</v>
+        <v>66140</v>
       </c>
       <c r="D464" t="s">
         <v>3</v>
@@ -6891,10 +6891,10 @@
         <v>463</v>
       </c>
       <c r="B465" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="C465">
-        <v>69900</v>
+        <v>68410</v>
       </c>
       <c r="D465" t="s">
         <v>3</v>
@@ -6905,10 +6905,10 @@
         <v>464</v>
       </c>
       <c r="B466" s="2">
-        <v>44246</v>
+        <v>44252</v>
       </c>
       <c r="C466">
-        <v>63240</v>
+        <v>69900</v>
       </c>
       <c r="D466" t="s">
         <v>3</v>
@@ -6919,10 +6919,10 @@
         <v>465</v>
       </c>
       <c r="B467" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="C467">
-        <v>62690</v>
+        <v>63240</v>
       </c>
       <c r="D467" t="s">
         <v>3</v>
@@ -6933,10 +6933,10 @@
         <v>466</v>
       </c>
       <c r="B468" s="2">
-        <v>44237</v>
+        <v>44245</v>
       </c>
       <c r="C468">
-        <v>60230</v>
+        <v>62690</v>
       </c>
       <c r="D468" t="s">
         <v>3</v>
@@ -6947,10 +6947,10 @@
         <v>467</v>
       </c>
       <c r="B469" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="C469">
-        <v>59410</v>
+        <v>60230</v>
       </c>
       <c r="D469" t="s">
         <v>3</v>
@@ -6961,10 +6961,10 @@
         <v>468</v>
       </c>
       <c r="B470" s="2">
-        <v>44232</v>
+        <v>44236</v>
       </c>
       <c r="C470">
-        <v>58040</v>
+        <v>59410</v>
       </c>
       <c r="D470" t="s">
         <v>3</v>
@@ -6975,10 +6975,10 @@
         <v>469</v>
       </c>
       <c r="B471" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="C471">
-        <v>57825</v>
+        <v>58040</v>
       </c>
       <c r="D471" t="s">
         <v>3</v>
@@ -6989,10 +6989,10 @@
         <v>470</v>
       </c>
       <c r="B472" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="C472">
-        <v>57170</v>
+        <v>57825</v>
       </c>
       <c r="D472" t="s">
         <v>3</v>
@@ -7003,10 +7003,10 @@
         <v>471</v>
       </c>
       <c r="B473" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="C473">
-        <v>57700</v>
+        <v>57170</v>
       </c>
       <c r="D473" t="s">
         <v>3</v>
@@ -7017,10 +7017,10 @@
         <v>472</v>
       </c>
       <c r="B474" s="2">
-        <v>44225</v>
+        <v>44229</v>
       </c>
       <c r="C474">
-        <v>58180</v>
+        <v>57700</v>
       </c>
       <c r="D474" t="s">
         <v>3</v>
@@ -7031,10 +7031,10 @@
         <v>473</v>
       </c>
       <c r="B475" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="C475">
-        <v>57950</v>
+        <v>58180</v>
       </c>
       <c r="D475" t="s">
         <v>3</v>
@@ -7045,10 +7045,10 @@
         <v>474</v>
       </c>
       <c r="B476" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="C476">
-        <v>58745</v>
+        <v>57950</v>
       </c>
       <c r="D476" t="s">
         <v>3</v>
@@ -7059,10 +7059,10 @@
         <v>475</v>
       </c>
       <c r="B477" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="C477">
-        <v>58820</v>
+        <v>58745</v>
       </c>
       <c r="D477" t="s">
         <v>3</v>
@@ -7073,10 +7073,10 @@
         <v>476</v>
       </c>
       <c r="B478" s="2">
-        <v>44218</v>
+        <v>44222</v>
       </c>
       <c r="C478">
-        <v>58920</v>
+        <v>58820</v>
       </c>
       <c r="D478" t="s">
         <v>3</v>
@@ -7087,10 +7087,10 @@
         <v>477</v>
       </c>
       <c r="B479" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="C479">
-        <v>59280</v>
+        <v>58920</v>
       </c>
       <c r="D479" t="s">
         <v>3</v>
@@ -7101,10 +7101,10 @@
         <v>478</v>
       </c>
       <c r="B480" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="C480">
-        <v>59025</v>
+        <v>59280</v>
       </c>
       <c r="D480" t="s">
         <v>3</v>
@@ -7115,10 +7115,10 @@
         <v>479</v>
       </c>
       <c r="B481" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="C481">
-        <v>59030</v>
+        <v>59025</v>
       </c>
       <c r="D481" t="s">
         <v>3</v>
@@ -7129,10 +7129,10 @@
         <v>480</v>
       </c>
       <c r="B482" s="2">
-        <v>44211</v>
+        <v>44215</v>
       </c>
       <c r="C482">
-        <v>59560</v>
+        <v>59030</v>
       </c>
       <c r="D482" t="s">
         <v>3</v>
@@ -7143,10 +7143,10 @@
         <v>481</v>
       </c>
       <c r="B483" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="C483">
-        <v>58675</v>
+        <v>59560</v>
       </c>
       <c r="D483" t="s">
         <v>3</v>
@@ -7157,10 +7157,10 @@
         <v>482</v>
       </c>
       <c r="B484" s="2">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="C484">
-        <v>58840</v>
+        <v>58675</v>
       </c>
       <c r="D484" t="s">
         <v>3</v>
@@ -7171,10 +7171,10 @@
         <v>483</v>
       </c>
       <c r="B485" s="2">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="C485">
-        <v>58225</v>
+        <v>58840</v>
       </c>
       <c r="D485" t="s">
         <v>3</v>
@@ -7185,10 +7185,10 @@
         <v>484</v>
       </c>
       <c r="B486" s="2">
-        <v>44196</v>
+        <v>44208</v>
       </c>
       <c r="C486">
-        <v>57810</v>
+        <v>58225</v>
       </c>
       <c r="D486" t="s">
         <v>3</v>
@@ -7199,10 +7199,10 @@
         <v>485</v>
       </c>
       <c r="B487" s="2">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="C487">
-        <v>58150</v>
+        <v>57810</v>
       </c>
       <c r="D487" t="s">
         <v>3</v>
@@ -7213,10 +7213,10 @@
         <v>486</v>
       </c>
       <c r="B488" s="2">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="C488">
-        <v>58450</v>
+        <v>58150</v>
       </c>
       <c r="D488" t="s">
         <v>3</v>
@@ -7227,10 +7227,10 @@
         <v>487</v>
       </c>
       <c r="B489" s="2">
-        <v>44190</v>
+        <v>44194</v>
       </c>
       <c r="C489">
-        <v>58180</v>
+        <v>58450</v>
       </c>
       <c r="D489" t="s">
         <v>3</v>
@@ -7241,10 +7241,10 @@
         <v>488</v>
       </c>
       <c r="B490" s="2">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="C490">
-        <v>58110</v>
+        <v>58180</v>
       </c>
       <c r="D490" t="s">
         <v>3</v>
@@ -7255,10 +7255,10 @@
         <v>489</v>
       </c>
       <c r="B491" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="C491">
-        <v>57610</v>
+        <v>58110</v>
       </c>
       <c r="D491" t="s">
         <v>3</v>
@@ -7269,10 +7269,10 @@
         <v>490</v>
       </c>
       <c r="B492" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="C492">
-        <v>58550</v>
+        <v>57610</v>
       </c>
       <c r="D492" t="s">
         <v>3</v>
@@ -7283,10 +7283,10 @@
         <v>491</v>
       </c>
       <c r="B493" s="2">
-        <v>44183</v>
+        <v>44187</v>
       </c>
       <c r="C493">
-        <v>59090</v>
+        <v>58550</v>
       </c>
       <c r="D493" t="s">
         <v>3</v>
@@ -7297,10 +7297,10 @@
         <v>492</v>
       </c>
       <c r="B494" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="C494">
-        <v>58120</v>
+        <v>59090</v>
       </c>
       <c r="D494" t="s">
         <v>3</v>
@@ -7311,10 +7311,10 @@
         <v>493</v>
       </c>
       <c r="B495" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="C495">
-        <v>57850</v>
+        <v>58120</v>
       </c>
       <c r="D495" t="s">
         <v>3</v>
@@ -7325,10 +7325,10 @@
         <v>494</v>
       </c>
       <c r="B496" s="2">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="C496">
-        <v>57420</v>
+        <v>57850</v>
       </c>
       <c r="D496" t="s">
         <v>3</v>
@@ -7339,10 +7339,10 @@
         <v>495</v>
       </c>
       <c r="B497" s="2">
-        <v>44176</v>
+        <v>44180</v>
       </c>
       <c r="C497">
-        <v>58285</v>
+        <v>57420</v>
       </c>
       <c r="D497" t="s">
         <v>3</v>
@@ -7353,10 +7353,10 @@
         <v>496</v>
       </c>
       <c r="B498" s="2">
-        <v>44175</v>
+        <v>44176</v>
       </c>
       <c r="C498">
-        <v>57010</v>
+        <v>58285</v>
       </c>
       <c r="D498" t="s">
         <v>3</v>
@@ -7367,10 +7367,10 @@
         <v>497</v>
       </c>
       <c r="B499" s="2">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="C499">
-        <v>57270</v>
+        <v>57010</v>
       </c>
       <c r="D499" t="s">
         <v>3</v>
@@ -7381,10 +7381,10 @@
         <v>498</v>
       </c>
       <c r="B500" s="2">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="C500">
-        <v>57000</v>
+        <v>57270</v>
       </c>
       <c r="D500" t="s">
         <v>3</v>
@@ -7395,10 +7395,10 @@
         <v>499</v>
       </c>
       <c r="B501" s="2">
-        <v>44169</v>
+        <v>44173</v>
       </c>
       <c r="C501">
-        <v>57290</v>
+        <v>57000</v>
       </c>
       <c r="D501" t="s">
         <v>3</v>
@@ -7409,10 +7409,10 @@
         <v>500</v>
       </c>
       <c r="B502" s="2">
-        <v>44168</v>
+        <v>44169</v>
       </c>
       <c r="C502">
-        <v>57300</v>
+        <v>57290</v>
       </c>
       <c r="D502" t="s">
         <v>3</v>
@@ -7423,10 +7423,10 @@
         <v>501</v>
       </c>
       <c r="B503" s="2">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="C503">
-        <v>57280</v>
+        <v>57300</v>
       </c>
       <c r="D503" t="s">
         <v>3</v>
@@ -7437,10 +7437,10 @@
         <v>502</v>
       </c>
       <c r="B504" s="2">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="C504">
-        <v>57375</v>
+        <v>57280</v>
       </c>
       <c r="D504" t="s">
         <v>3</v>
@@ -7451,10 +7451,10 @@
         <v>503</v>
       </c>
       <c r="B505" s="2">
-        <v>44162</v>
+        <v>44166</v>
       </c>
       <c r="C505">
-        <v>55685</v>
+        <v>57375</v>
       </c>
       <c r="D505" t="s">
         <v>3</v>
@@ -7465,10 +7465,10 @@
         <v>504</v>
       </c>
       <c r="B506" s="2">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="C506">
-        <v>55120</v>
+        <v>55685</v>
       </c>
       <c r="D506" t="s">
         <v>3</v>
@@ -7479,10 +7479,10 @@
         <v>505</v>
       </c>
       <c r="B507" s="2">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="C507">
-        <v>54890</v>
+        <v>55120</v>
       </c>
       <c r="D507" t="s">
         <v>3</v>
@@ -7493,10 +7493,10 @@
         <v>506</v>
       </c>
       <c r="B508" s="2">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="C508">
-        <v>54110</v>
+        <v>54890</v>
       </c>
       <c r="D508" t="s">
         <v>3</v>
@@ -7507,10 +7507,10 @@
         <v>507</v>
       </c>
       <c r="B509" s="2">
-        <v>44155</v>
+        <v>44159</v>
       </c>
       <c r="C509">
-        <v>53220</v>
+        <v>54110</v>
       </c>
       <c r="D509" t="s">
         <v>3</v>
@@ -7521,10 +7521,10 @@
         <v>508</v>
       </c>
       <c r="B510" s="2">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="C510">
-        <v>52820</v>
+        <v>53220</v>
       </c>
       <c r="D510" t="s">
         <v>3</v>
@@ -7535,10 +7535,10 @@
         <v>509</v>
       </c>
       <c r="B511" s="2">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="C511">
-        <v>52740</v>
+        <v>52820</v>
       </c>
       <c r="D511" t="s">
         <v>3</v>
@@ -7549,10 +7549,10 @@
         <v>510</v>
       </c>
       <c r="B512" s="2">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="C512">
-        <v>53220</v>
+        <v>52740</v>
       </c>
       <c r="D512" t="s">
         <v>3</v>
@@ -7563,10 +7563,10 @@
         <v>511</v>
       </c>
       <c r="B513" s="2">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="C513">
-        <v>52025</v>
+        <v>53220</v>
       </c>
       <c r="D513" t="s">
         <v>3</v>
@@ -7577,10 +7577,10 @@
         <v>512</v>
       </c>
       <c r="B514" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="C514">
-        <v>51880</v>
+        <v>52025</v>
       </c>
       <c r="D514" t="s">
         <v>3</v>
@@ -7591,10 +7591,10 @@
         <v>513</v>
       </c>
       <c r="B515" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="C515">
-        <v>51990</v>
+        <v>51880</v>
       </c>
       <c r="D515" t="s">
         <v>3</v>
@@ -7605,10 +7605,10 @@
         <v>514</v>
       </c>
       <c r="B516" s="2">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="C516">
-        <v>52120</v>
+        <v>51990</v>
       </c>
       <c r="D516" t="s">
         <v>3</v>
@@ -7619,10 +7619,10 @@
         <v>515</v>
       </c>
       <c r="B517" s="2">
-        <v>44141</v>
+        <v>44145</v>
       </c>
       <c r="C517">
-        <v>51640</v>
+        <v>52120</v>
       </c>
       <c r="D517" t="s">
         <v>3</v>
@@ -7633,10 +7633,10 @@
         <v>516</v>
       </c>
       <c r="B518" s="2">
-        <v>44139</v>
+        <v>44141</v>
       </c>
       <c r="C518">
-        <v>51680</v>
+        <v>51640</v>
       </c>
       <c r="D518" t="s">
         <v>3</v>
@@ -7647,10 +7647,10 @@
         <v>517</v>
       </c>
       <c r="B519" s="2">
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C519">
-        <v>51750</v>
+        <v>51680</v>
       </c>
       <c r="D519" t="s">
         <v>3</v>
@@ -7661,10 +7661,10 @@
         <v>518</v>
       </c>
       <c r="B520" s="2">
-        <v>44134</v>
+        <v>44138</v>
       </c>
       <c r="C520">
-        <v>51530</v>
+        <v>51750</v>
       </c>
       <c r="D520" t="s">
         <v>3</v>
@@ -7675,10 +7675,10 @@
         <v>519</v>
       </c>
       <c r="B521" s="2">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="C521">
-        <v>51585</v>
+        <v>51530</v>
       </c>
       <c r="D521" t="s">
         <v>3</v>
@@ -7689,10 +7689,10 @@
         <v>520</v>
       </c>
       <c r="B522" s="2">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="C522">
-        <v>51730</v>
+        <v>51585</v>
       </c>
       <c r="D522" t="s">
         <v>3</v>
@@ -7703,10 +7703,10 @@
         <v>521</v>
       </c>
       <c r="B523" s="2">
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="C523">
-        <v>51540</v>
+        <v>51730</v>
       </c>
       <c r="D523" t="s">
         <v>3</v>
@@ -7717,10 +7717,10 @@
         <v>522</v>
       </c>
       <c r="B524" s="2">
-        <v>44127</v>
+        <v>44131</v>
       </c>
       <c r="C524">
-        <v>52210</v>
+        <v>51540</v>
       </c>
       <c r="D524" t="s">
         <v>3</v>
@@ -7731,10 +7731,10 @@
         <v>523</v>
       </c>
       <c r="B525" s="2">
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="C525">
-        <v>52370</v>
+        <v>52210</v>
       </c>
       <c r="D525" t="s">
         <v>3</v>
@@ -7745,10 +7745,10 @@
         <v>524</v>
       </c>
       <c r="B526" s="2">
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="C526">
-        <v>52250</v>
+        <v>52370</v>
       </c>
       <c r="D526" t="s">
         <v>3</v>
@@ -7759,10 +7759,10 @@
         <v>525</v>
       </c>
       <c r="B527" s="2">
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="C527">
-        <v>51450</v>
+        <v>52250</v>
       </c>
       <c r="D527" t="s">
         <v>3</v>
@@ -7773,10 +7773,10 @@
         <v>526</v>
       </c>
       <c r="B528" s="2">
-        <v>44120</v>
+        <v>44124</v>
       </c>
       <c r="C528">
-        <v>51800</v>
+        <v>51450</v>
       </c>
       <c r="D528" t="s">
         <v>3</v>
@@ -7787,10 +7787,10 @@
         <v>527</v>
       </c>
       <c r="B529" s="2">
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="C529">
-        <v>51370</v>
+        <v>51800</v>
       </c>
       <c r="D529" t="s">
         <v>3</v>
@@ -7801,10 +7801,10 @@
         <v>528</v>
       </c>
       <c r="B530" s="2">
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="C530">
-        <v>51470</v>
+        <v>51370</v>
       </c>
       <c r="D530" t="s">
         <v>3</v>
@@ -7815,10 +7815,10 @@
         <v>529</v>
       </c>
       <c r="B531" s="2">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="C531">
-        <v>51540</v>
+        <v>51470</v>
       </c>
       <c r="D531" t="s">
         <v>3</v>
@@ -7829,10 +7829,10 @@
         <v>530</v>
       </c>
       <c r="B532" s="2">
-        <v>44113</v>
+        <v>44117</v>
       </c>
       <c r="C532">
-        <v>51565</v>
+        <v>51540</v>
       </c>
       <c r="D532" t="s">
         <v>3</v>
@@ -7843,10 +7843,10 @@
         <v>531</v>
       </c>
       <c r="B533" s="2">
-        <v>44104</v>
+        <v>44113</v>
       </c>
       <c r="C533">
-        <v>51185</v>
+        <v>51565</v>
       </c>
       <c r="D533" t="s">
         <v>3</v>
@@ -7857,10 +7857,10 @@
         <v>532</v>
       </c>
       <c r="B534" s="2">
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C534">
-        <v>51110</v>
+        <v>51185</v>
       </c>
       <c r="D534" t="s">
         <v>3</v>
@@ -7871,10 +7871,10 @@
         <v>533</v>
       </c>
       <c r="B535" s="2">
-        <v>44099</v>
+        <v>44103</v>
       </c>
       <c r="C535">
-        <v>50890</v>
+        <v>51110</v>
       </c>
       <c r="D535" t="s">
         <v>3</v>
@@ -7885,10 +7885,10 @@
         <v>534</v>
       </c>
       <c r="B536" s="2">
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C536">
-        <v>50745</v>
+        <v>50890</v>
       </c>
       <c r="D536" t="s">
         <v>3</v>
@@ -7899,10 +7899,10 @@
         <v>535</v>
       </c>
       <c r="B537" s="2">
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C537">
-        <v>51620</v>
+        <v>50745</v>
       </c>
       <c r="D537" t="s">
         <v>3</v>
@@ -7913,10 +7913,10 @@
         <v>536</v>
       </c>
       <c r="B538" s="2">
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C538">
-        <v>51920</v>
+        <v>51620</v>
       </c>
       <c r="D538" t="s">
         <v>3</v>
@@ -7927,10 +7927,10 @@
         <v>537</v>
       </c>
       <c r="B539" s="2">
-        <v>44092</v>
+        <v>44096</v>
       </c>
       <c r="C539">
-        <v>52210</v>
+        <v>51920</v>
       </c>
       <c r="D539" t="s">
         <v>3</v>
@@ -7941,10 +7941,10 @@
         <v>538</v>
       </c>
       <c r="B540" s="2">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C540">
-        <v>51455</v>
+        <v>52210</v>
       </c>
       <c r="D540" t="s">
         <v>3</v>
@@ -7955,10 +7955,10 @@
         <v>539</v>
       </c>
       <c r="B541" s="2">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C541">
-        <v>51900</v>
+        <v>51455</v>
       </c>
       <c r="D541" t="s">
         <v>3</v>
@@ -7969,10 +7969,10 @@
         <v>540</v>
       </c>
       <c r="B542" s="2">
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C542">
-        <v>52150</v>
+        <v>51900</v>
       </c>
       <c r="D542" t="s">
         <v>3</v>
@@ -7983,10 +7983,10 @@
         <v>541</v>
       </c>
       <c r="B543" s="2">
-        <v>44085</v>
+        <v>44089</v>
       </c>
       <c r="C543">
-        <v>51535</v>
+        <v>52150</v>
       </c>
       <c r="D543" t="s">
         <v>3</v>
@@ -7997,10 +7997,10 @@
         <v>542</v>
       </c>
       <c r="B544" s="2">
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C544">
-        <v>52130</v>
+        <v>51535</v>
       </c>
       <c r="D544" t="s">
         <v>3</v>
@@ -8011,10 +8011,10 @@
         <v>543</v>
       </c>
       <c r="B545" s="2">
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C545">
-        <v>52065</v>
+        <v>52130</v>
       </c>
       <c r="D545" t="s">
         <v>3</v>
@@ -8025,10 +8025,10 @@
         <v>544</v>
       </c>
       <c r="B546" s="2">
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C546">
-        <v>52520</v>
+        <v>52065</v>
       </c>
       <c r="D546" t="s">
         <v>3</v>
@@ -8039,10 +8039,10 @@
         <v>545</v>
       </c>
       <c r="B547" s="2">
-        <v>44078</v>
+        <v>44082</v>
       </c>
       <c r="C547">
-        <v>51495</v>
+        <v>52520</v>
       </c>
       <c r="D547" t="s">
         <v>3</v>
@@ -8053,10 +8053,10 @@
         <v>546</v>
       </c>
       <c r="B548" s="2">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C548">
-        <v>52140</v>
+        <v>51495</v>
       </c>
       <c r="D548" t="s">
         <v>3</v>
@@ -8067,10 +8067,10 @@
         <v>547</v>
       </c>
       <c r="B549" s="2">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="C549">
-        <v>51935</v>
+        <v>52140</v>
       </c>
       <c r="D549" t="s">
         <v>3</v>
@@ -8081,10 +8081,10 @@
         <v>548</v>
       </c>
       <c r="B550" s="2">
-        <v>44075</v>
+        <v>44076</v>
       </c>
       <c r="C550">
-        <v>52390</v>
+        <v>51935</v>
       </c>
       <c r="D550" t="s">
         <v>3</v>
@@ -8095,10 +8095,10 @@
         <v>549</v>
       </c>
       <c r="B551" s="2">
-        <v>44071</v>
+        <v>44075</v>
       </c>
       <c r="C551">
-        <v>51800</v>
+        <v>52390</v>
       </c>
       <c r="D551" t="s">
         <v>3</v>
@@ -8109,10 +8109,10 @@
         <v>550</v>
       </c>
       <c r="B552" s="2">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="C552">
-        <v>51420</v>
+        <v>51800</v>
       </c>
       <c r="D552" t="s">
         <v>3</v>
@@ -8123,10 +8123,10 @@
         <v>551</v>
       </c>
       <c r="B553" s="2">
-        <v>44069</v>
+        <v>44070</v>
       </c>
       <c r="C553">
-        <v>51380</v>
+        <v>51420</v>
       </c>
       <c r="D553" t="s">
         <v>3</v>
@@ -8137,10 +8137,10 @@
         <v>552</v>
       </c>
       <c r="B554" s="2">
-        <v>44068</v>
+        <v>44069</v>
       </c>
       <c r="C554">
-        <v>51370</v>
+        <v>51380</v>
       </c>
       <c r="D554" t="s">
         <v>3</v>
@@ -8151,10 +8151,10 @@
         <v>553</v>
       </c>
       <c r="B555" s="2">
-        <v>44064</v>
+        <v>44068</v>
       </c>
       <c r="C555">
-        <v>52065</v>
+        <v>51370</v>
       </c>
       <c r="D555" t="s">
         <v>3</v>
@@ -8165,10 +8165,10 @@
         <v>554</v>
       </c>
       <c r="B556" s="2">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="C556">
-        <v>52200</v>
+        <v>52065</v>
       </c>
       <c r="D556" t="s">
         <v>3</v>
@@ -8179,10 +8179,10 @@
         <v>555</v>
       </c>
       <c r="B557" s="2">
-        <v>44062</v>
+        <v>44063</v>
       </c>
       <c r="C557">
-        <v>52300</v>
+        <v>52200</v>
       </c>
       <c r="D557" t="s">
         <v>3</v>
@@ -8193,10 +8193,10 @@
         <v>556</v>
       </c>
       <c r="B558" s="2">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="C558">
-        <v>51135</v>
+        <v>52300</v>
       </c>
       <c r="D558" t="s">
         <v>3</v>
@@ -8207,10 +8207,10 @@
         <v>557</v>
       </c>
       <c r="B559" s="2">
-        <v>44057</v>
+        <v>44061</v>
       </c>
       <c r="C559">
-        <v>50040</v>
+        <v>51135</v>
       </c>
       <c r="D559" t="s">
         <v>3</v>
@@ -8221,10 +8221,10 @@
         <v>558</v>
       </c>
       <c r="B560" s="2">
-        <v>44056</v>
+        <v>44057</v>
       </c>
       <c r="C560">
-        <v>50530</v>
+        <v>50040</v>
       </c>
       <c r="D560" t="s">
         <v>3</v>
@@ -8235,10 +8235,10 @@
         <v>559</v>
       </c>
       <c r="B561" s="2">
-        <v>44055</v>
+        <v>44056</v>
       </c>
       <c r="C561">
-        <v>49980</v>
+        <v>50530</v>
       </c>
       <c r="D561" t="s">
         <v>3</v>
@@ -8249,10 +8249,10 @@
         <v>560</v>
       </c>
       <c r="B562" s="2">
-        <v>44054</v>
+        <v>44055</v>
       </c>
       <c r="C562">
-        <v>50790</v>
+        <v>49980</v>
       </c>
       <c r="D562" t="s">
         <v>3</v>
@@ -8263,10 +8263,10 @@
         <v>561</v>
       </c>
       <c r="B563" s="2">
-        <v>44050</v>
+        <v>44054</v>
       </c>
       <c r="C563">
-        <v>51440</v>
+        <v>50790</v>
       </c>
       <c r="D563" t="s">
         <v>3</v>
@@ -8277,10 +8277,10 @@
         <v>562</v>
       </c>
       <c r="B564" s="2">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="C564">
-        <v>51385</v>
+        <v>51440</v>
       </c>
       <c r="D564" t="s">
         <v>3</v>
@@ -8291,10 +8291,10 @@
         <v>563</v>
       </c>
       <c r="B565" s="2">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="C565">
-        <v>51370</v>
+        <v>51385</v>
       </c>
       <c r="D565" t="s">
         <v>3</v>
@@ -8305,10 +8305,10 @@
         <v>564</v>
       </c>
       <c r="B566" s="2">
-        <v>44047</v>
+        <v>44048</v>
       </c>
       <c r="C566">
-        <v>51675</v>
+        <v>51370</v>
       </c>
       <c r="D566" t="s">
         <v>3</v>
@@ -8319,10 +8319,10 @@
         <v>565</v>
       </c>
       <c r="B567" s="2">
-        <v>44043</v>
+        <v>44047</v>
       </c>
       <c r="C567">
-        <v>51850</v>
+        <v>51675</v>
       </c>
       <c r="D567" t="s">
         <v>3</v>
@@ -8333,10 +8333,10 @@
         <v>566</v>
       </c>
       <c r="B568" s="2">
-        <v>44042</v>
+        <v>44043</v>
       </c>
       <c r="C568">
-        <v>51890</v>
+        <v>51850</v>
       </c>
       <c r="D568" t="s">
         <v>3</v>
@@ -8347,10 +8347,10 @@
         <v>567</v>
       </c>
       <c r="B569" s="2">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="C569">
-        <v>51830</v>
+        <v>51890</v>
       </c>
       <c r="D569" t="s">
         <v>3</v>
@@ -8361,10 +8361,10 @@
         <v>568</v>
       </c>
       <c r="B570" s="2">
-        <v>44040</v>
+        <v>44041</v>
       </c>
       <c r="C570">
-        <v>51850</v>
+        <v>51830</v>
       </c>
       <c r="D570" t="s">
         <v>3</v>
@@ -8375,10 +8375,10 @@
         <v>569</v>
       </c>
       <c r="B571" s="2">
-        <v>44036</v>
+        <v>44040</v>
       </c>
       <c r="C571">
-        <v>51930</v>
+        <v>51850</v>
       </c>
       <c r="D571" t="s">
         <v>3</v>
@@ -8389,10 +8389,10 @@
         <v>570</v>
       </c>
       <c r="B572" s="2">
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="C572">
-        <v>51875</v>
+        <v>51930</v>
       </c>
       <c r="D572" t="s">
         <v>3</v>
@@ -8403,10 +8403,10 @@
         <v>571</v>
       </c>
       <c r="B573" s="2">
-        <v>44034</v>
+        <v>44035</v>
       </c>
       <c r="C573">
-        <v>52600</v>
+        <v>51875</v>
       </c>
       <c r="D573" t="s">
         <v>3</v>
@@ -8417,10 +8417,10 @@
         <v>572</v>
       </c>
       <c r="B574" s="2">
-        <v>44033</v>
+        <v>44034</v>
       </c>
       <c r="C574">
-        <v>51935</v>
+        <v>52600</v>
       </c>
       <c r="D574" t="s">
         <v>3</v>
@@ -8431,10 +8431,10 @@
         <v>573</v>
       </c>
       <c r="B575" s="2">
-        <v>44029</v>
+        <v>44033</v>
       </c>
       <c r="C575">
-        <v>51685</v>
+        <v>51935</v>
       </c>
       <c r="D575" t="s">
         <v>3</v>
@@ -8445,10 +8445,10 @@
         <v>574</v>
       </c>
       <c r="B576" s="2">
-        <v>44028</v>
+        <v>44029</v>
       </c>
       <c r="C576">
-        <v>51240</v>
+        <v>51685</v>
       </c>
       <c r="D576" t="s">
         <v>3</v>
@@ -8459,10 +8459,10 @@
         <v>575</v>
       </c>
       <c r="B577" s="2">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="C577">
-        <v>52435</v>
+        <v>51240</v>
       </c>
       <c r="D577" t="s">
         <v>3</v>
@@ -8473,10 +8473,10 @@
         <v>576</v>
       </c>
       <c r="B578" s="2">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="C578">
-        <v>52150</v>
+        <v>52435</v>
       </c>
       <c r="D578" t="s">
         <v>3</v>
@@ -8487,10 +8487,10 @@
         <v>577</v>
       </c>
       <c r="B579" s="2">
-        <v>44022</v>
+        <v>44026</v>
       </c>
       <c r="C579">
-        <v>50600</v>
+        <v>52150</v>
       </c>
       <c r="D579" t="s">
         <v>3</v>
@@ -8501,10 +8501,10 @@
         <v>578</v>
       </c>
       <c r="B580" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="C580">
-        <v>50575</v>
+        <v>50600</v>
       </c>
       <c r="D580" t="s">
         <v>3</v>
@@ -8515,10 +8515,10 @@
         <v>579</v>
       </c>
       <c r="B581" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="C581">
-        <v>49845</v>
+        <v>50575</v>
       </c>
       <c r="D581" t="s">
         <v>3</v>
@@ -8529,10 +8529,10 @@
         <v>580</v>
       </c>
       <c r="B582" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="C582">
-        <v>49610</v>
+        <v>49845</v>
       </c>
       <c r="D582" t="s">
         <v>3</v>
@@ -8543,10 +8543,10 @@
         <v>581</v>
       </c>
       <c r="B583" s="2">
-        <v>44015</v>
+        <v>44019</v>
       </c>
       <c r="C583">
-        <v>49260</v>
+        <v>49610</v>
       </c>
       <c r="D583" t="s">
         <v>3</v>
@@ -8557,10 +8557,10 @@
         <v>582</v>
       </c>
       <c r="B584" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="C584">
-        <v>49460</v>
+        <v>49260</v>
       </c>
       <c r="D584" t="s">
         <v>3</v>
@@ -8571,10 +8571,10 @@
         <v>583</v>
       </c>
       <c r="B585" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="C585">
-        <v>49450</v>
+        <v>49460</v>
       </c>
       <c r="D585" t="s">
         <v>3</v>
@@ -8585,10 +8585,10 @@
         <v>584</v>
       </c>
       <c r="B586" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="C586">
-        <v>48930</v>
+        <v>49450</v>
       </c>
       <c r="D586" t="s">
         <v>3</v>
@@ -8599,10 +8599,10 @@
         <v>585</v>
       </c>
       <c r="B587" s="2">
-        <v>44006</v>
+        <v>44012</v>
       </c>
       <c r="C587">
-        <v>48160</v>
+        <v>48930</v>
       </c>
       <c r="D587" t="s">
         <v>3</v>
@@ -8613,10 +8613,10 @@
         <v>586</v>
       </c>
       <c r="B588" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="C588">
-        <v>47880</v>
+        <v>48160</v>
       </c>
       <c r="D588" t="s">
         <v>3</v>
@@ -8627,10 +8627,10 @@
         <v>587</v>
       </c>
       <c r="B589" s="2">
-        <v>44001</v>
+        <v>44005</v>
       </c>
       <c r="C589">
-        <v>47475</v>
+        <v>47880</v>
       </c>
       <c r="D589" t="s">
         <v>3</v>
@@ -8641,10 +8641,10 @@
         <v>588</v>
       </c>
       <c r="B590" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="C590">
-        <v>47110</v>
+        <v>47475</v>
       </c>
       <c r="D590" t="s">
         <v>3</v>
@@ -8655,10 +8655,10 @@
         <v>589</v>
       </c>
       <c r="B591" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="C591">
-        <v>46910</v>
+        <v>47110</v>
       </c>
       <c r="D591" t="s">
         <v>3</v>
@@ -8669,10 +8669,10 @@
         <v>590</v>
       </c>
       <c r="B592" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="C592">
-        <v>47080</v>
+        <v>46910</v>
       </c>
       <c r="D592" t="s">
         <v>3</v>
@@ -8683,10 +8683,10 @@
         <v>591</v>
       </c>
       <c r="B593" s="2">
-        <v>43994</v>
+        <v>43998</v>
       </c>
       <c r="C593">
-        <v>46760</v>
+        <v>47080</v>
       </c>
       <c r="D593" t="s">
         <v>3</v>
@@ -8697,10 +8697,10 @@
         <v>592</v>
       </c>
       <c r="B594" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="C594">
-        <v>47425</v>
+        <v>46760</v>
       </c>
       <c r="D594" t="s">
         <v>3</v>
@@ -8711,10 +8711,10 @@
         <v>593</v>
       </c>
       <c r="B595" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="C595">
-        <v>46855</v>
+        <v>47425</v>
       </c>
       <c r="D595" t="s">
         <v>3</v>
@@ -8725,10 +8725,10 @@
         <v>594</v>
       </c>
       <c r="B596" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="C596">
-        <v>46355</v>
+        <v>46855</v>
       </c>
       <c r="D596" t="s">
         <v>3</v>
@@ -8739,10 +8739,10 @@
         <v>595</v>
       </c>
       <c r="B597" s="2">
-        <v>43987</v>
+        <v>43991</v>
       </c>
       <c r="C597">
-        <v>44990</v>
+        <v>46355</v>
       </c>
       <c r="D597" t="s">
         <v>3</v>
@@ -8753,10 +8753,10 @@
         <v>596</v>
       </c>
       <c r="B598" s="2">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="C598">
-        <v>44850</v>
+        <v>44990</v>
       </c>
       <c r="D598" t="s">
         <v>3</v>
@@ -8767,10 +8767,10 @@
         <v>597</v>
       </c>
       <c r="B599" s="2">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="C599">
-        <v>45110</v>
+        <v>44850</v>
       </c>
       <c r="D599" t="s">
         <v>3</v>
@@ -8781,10 +8781,10 @@
         <v>598</v>
       </c>
       <c r="B600" s="2">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="C600">
-        <v>44895</v>
+        <v>45110</v>
       </c>
       <c r="D600" t="s">
         <v>3</v>
@@ -8795,10 +8795,10 @@
         <v>599</v>
       </c>
       <c r="B601" s="2">
-        <v>43980</v>
+        <v>43984</v>
       </c>
       <c r="C601">
-        <v>44135</v>
+        <v>44895</v>
       </c>
       <c r="D601" t="s">
         <v>3</v>
@@ -8809,10 +8809,10 @@
         <v>600</v>
       </c>
       <c r="B602" s="2">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="C602">
-        <v>44030</v>
+        <v>44135</v>
       </c>
       <c r="D602" t="s">
         <v>3</v>
@@ -8823,10 +8823,10 @@
         <v>601</v>
       </c>
       <c r="B603" s="2">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="C603">
-        <v>44170</v>
+        <v>44030</v>
       </c>
       <c r="D603" t="s">
         <v>3</v>
@@ -8837,10 +8837,10 @@
         <v>602</v>
       </c>
       <c r="B604" s="2">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="C604">
-        <v>44030</v>
+        <v>44170</v>
       </c>
       <c r="D604" t="s">
         <v>3</v>
@@ -8851,10 +8851,10 @@
         <v>603</v>
       </c>
       <c r="B605" s="2">
-        <v>43973</v>
+        <v>43977</v>
       </c>
       <c r="C605">
-        <v>43770</v>
+        <v>44030</v>
       </c>
       <c r="D605" t="s">
         <v>3</v>
@@ -8865,10 +8865,10 @@
         <v>604</v>
       </c>
       <c r="B606" s="2">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="C606">
-        <v>44620</v>
+        <v>43770</v>
       </c>
       <c r="D606" t="s">
         <v>3</v>
@@ -8879,10 +8879,10 @@
         <v>605</v>
       </c>
       <c r="B607" s="2">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="C607">
-        <v>44040</v>
+        <v>44620</v>
       </c>
       <c r="D607" t="s">
         <v>3</v>
@@ -8893,10 +8893,10 @@
         <v>606</v>
       </c>
       <c r="B608" s="2">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="C608">
-        <v>43995</v>
+        <v>44040</v>
       </c>
       <c r="D608" t="s">
         <v>3</v>
@@ -8907,10 +8907,10 @@
         <v>607</v>
       </c>
       <c r="B609" s="2">
-        <v>43966</v>
+        <v>43970</v>
       </c>
       <c r="C609">
-        <v>43325</v>
+        <v>43995</v>
       </c>
       <c r="D609" t="s">
         <v>3</v>
@@ -8921,10 +8921,10 @@
         <v>608</v>
       </c>
       <c r="B610" s="2">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="C610">
-        <v>43150</v>
+        <v>43325</v>
       </c>
       <c r="D610" t="s">
         <v>3</v>
@@ -8935,10 +8935,10 @@
         <v>609</v>
       </c>
       <c r="B611" s="2">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="C611">
-        <v>43080</v>
+        <v>43150</v>
       </c>
       <c r="D611" t="s">
         <v>3</v>
@@ -8949,10 +8949,10 @@
         <v>610</v>
       </c>
       <c r="B612" s="2">
-        <v>43959</v>
+        <v>43964</v>
       </c>
       <c r="C612">
-        <v>43600</v>
+        <v>43080</v>
       </c>
       <c r="D612" t="s">
         <v>3</v>
@@ -8963,10 +8963,10 @@
         <v>611</v>
       </c>
       <c r="B613" s="2">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="C613">
-        <v>43030</v>
+        <v>43600</v>
       </c>
       <c r="D613" t="s">
         <v>3</v>
@@ -8977,7 +8977,7 @@
         <v>612</v>
       </c>
       <c r="B614" s="2">
-        <v>43951</v>
+        <v>43958</v>
       </c>
       <c r="C614">
         <v>43030</v>
@@ -8991,10 +8991,10 @@
         <v>613</v>
       </c>
       <c r="B615" s="2">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C615">
-        <v>42810</v>
+        <v>43030</v>
       </c>
       <c r="D615" t="s">
         <v>3</v>
@@ -9005,10 +9005,10 @@
         <v>614</v>
       </c>
       <c r="B616" s="2">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="C616">
-        <v>42480</v>
+        <v>42810</v>
       </c>
       <c r="D616" t="s">
         <v>3</v>
@@ -9019,10 +9019,10 @@
         <v>615</v>
       </c>
       <c r="B617" s="2">
-        <v>43945</v>
+        <v>43949</v>
       </c>
       <c r="C617">
-        <v>42120</v>
+        <v>42480</v>
       </c>
       <c r="D617" t="s">
         <v>3</v>
@@ -9033,10 +9033,10 @@
         <v>616</v>
       </c>
       <c r="B618" s="2">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="C618">
-        <v>41980</v>
+        <v>42120</v>
       </c>
       <c r="D618" t="s">
         <v>3</v>
@@ -9047,10 +9047,10 @@
         <v>617</v>
       </c>
       <c r="B619" s="2">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="C619">
-        <v>40995</v>
+        <v>41980</v>
       </c>
       <c r="D619" t="s">
         <v>3</v>
@@ -9061,10 +9061,10 @@
         <v>618</v>
       </c>
       <c r="B620" s="2">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="C620">
-        <v>42060</v>
+        <v>40995</v>
       </c>
       <c r="D620" t="s">
         <v>3</v>
@@ -9075,10 +9075,10 @@
         <v>619</v>
       </c>
       <c r="B621" s="2">
-        <v>43938</v>
+        <v>43942</v>
       </c>
       <c r="C621">
-        <v>42470</v>
+        <v>42060</v>
       </c>
       <c r="D621" t="s">
         <v>3</v>
@@ -9089,10 +9089,10 @@
         <v>620</v>
       </c>
       <c r="B622" s="2">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="C622">
-        <v>41775</v>
+        <v>42470</v>
       </c>
       <c r="D622" t="s">
         <v>3</v>
@@ -9103,10 +9103,10 @@
         <v>621</v>
       </c>
       <c r="B623" s="2">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="C623">
-        <v>41860</v>
+        <v>41775</v>
       </c>
       <c r="D623" t="s">
         <v>3</v>
@@ -9117,10 +9117,10 @@
         <v>622</v>
       </c>
       <c r="B624" s="2">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="C624">
-        <v>41970</v>
+        <v>41860</v>
       </c>
       <c r="D624" t="s">
         <v>3</v>
@@ -9131,10 +9131,10 @@
         <v>623</v>
       </c>
       <c r="B625" s="2">
-        <v>43931</v>
+        <v>43935</v>
       </c>
       <c r="C625">
-        <v>40990</v>
+        <v>41970</v>
       </c>
       <c r="D625" t="s">
         <v>3</v>
@@ -9145,10 +9145,10 @@
         <v>624</v>
       </c>
       <c r="B626" s="2">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="C626">
-        <v>40950</v>
+        <v>40990</v>
       </c>
       <c r="D626" t="s">
         <v>3</v>
@@ -9159,10 +9159,10 @@
         <v>625</v>
       </c>
       <c r="B627" s="2">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="C627">
-        <v>40765</v>
+        <v>40950</v>
       </c>
       <c r="D627" t="s">
         <v>3</v>
@@ -9173,10 +9173,10 @@
         <v>626</v>
       </c>
       <c r="B628" s="2">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="C628">
-        <v>40840</v>
+        <v>40765</v>
       </c>
       <c r="D628" t="s">
         <v>3</v>
@@ -9187,10 +9187,10 @@
         <v>627</v>
       </c>
       <c r="B629" s="2">
-        <v>43917</v>
+        <v>43928</v>
       </c>
       <c r="C629">
-        <v>38865</v>
+        <v>40840</v>
       </c>
       <c r="D629" t="s">
         <v>3</v>
@@ -9201,10 +9201,10 @@
         <v>628</v>
       </c>
       <c r="B630" s="2">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="C630">
-        <v>38970</v>
+        <v>38865</v>
       </c>
       <c r="D630" t="s">
         <v>3</v>
@@ -9215,10 +9215,10 @@
         <v>629</v>
       </c>
       <c r="B631" s="2">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="C631">
-        <v>38750</v>
+        <v>38970</v>
       </c>
       <c r="D631" t="s">
         <v>3</v>
@@ -9229,10 +9229,10 @@
         <v>630</v>
       </c>
       <c r="B632" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="C632">
-        <v>37890</v>
+        <v>38750</v>
       </c>
       <c r="D632" t="s">
         <v>3</v>
@@ -9243,10 +9243,10 @@
         <v>631</v>
       </c>
       <c r="B633" s="2">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="C633">
-        <v>38290</v>
+        <v>37890</v>
       </c>
       <c r="D633" t="s">
         <v>3</v>
@@ -9257,10 +9257,10 @@
         <v>632</v>
       </c>
       <c r="B634" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="C634">
-        <v>37545</v>
+        <v>38290</v>
       </c>
       <c r="D634" t="s">
         <v>3</v>
@@ -9271,10 +9271,10 @@
         <v>633</v>
       </c>
       <c r="B635" s="2">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="C635">
-        <v>41400</v>
+        <v>37545</v>
       </c>
       <c r="D635" t="s">
         <v>3</v>
@@ -9285,10 +9285,10 @@
         <v>634</v>
       </c>
       <c r="B636" s="2">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="C636">
-        <v>42145</v>
+        <v>41400</v>
       </c>
       <c r="D636" t="s">
         <v>3</v>
@@ -9299,10 +9299,10 @@
         <v>635</v>
       </c>
       <c r="B637" s="2">
-        <v>43903</v>
+        <v>43907</v>
       </c>
       <c r="C637">
-        <v>42755</v>
+        <v>42145</v>
       </c>
       <c r="D637" t="s">
         <v>3</v>
@@ -9313,10 +9313,10 @@
         <v>636</v>
       </c>
       <c r="B638" s="2">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="C638">
-        <v>43185</v>
+        <v>42755</v>
       </c>
       <c r="D638" t="s">
         <v>3</v>
@@ -9327,10 +9327,10 @@
         <v>637</v>
       </c>
       <c r="B639" s="2">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="C639">
-        <v>44280</v>
+        <v>43185</v>
       </c>
       <c r="D639" t="s">
         <v>3</v>
@@ -9341,10 +9341,10 @@
         <v>638</v>
       </c>
       <c r="B640" s="2">
-        <v>43896</v>
+        <v>43901</v>
       </c>
       <c r="C640">
-        <v>44725</v>
+        <v>44280</v>
       </c>
       <c r="D640" t="s">
         <v>3</v>
@@ -9355,10 +9355,10 @@
         <v>639</v>
       </c>
       <c r="B641" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="C641">
-        <v>45055</v>
+        <v>44725</v>
       </c>
       <c r="D641" t="s">
         <v>3</v>
@@ -9369,10 +9369,10 @@
         <v>640</v>
       </c>
       <c r="B642" s="2">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="C642">
-        <v>45005</v>
+        <v>45055</v>
       </c>
       <c r="D642" t="s">
         <v>3</v>
@@ -9383,10 +9383,10 @@
         <v>641</v>
       </c>
       <c r="B643" s="2">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="C643">
-        <v>45345</v>
+        <v>45005</v>
       </c>
       <c r="D643" t="s">
         <v>3</v>
@@ -9397,10 +9397,10 @@
         <v>642</v>
       </c>
       <c r="B644" s="2">
-        <v>43889</v>
+        <v>43893</v>
       </c>
       <c r="C644">
-        <v>44630</v>
+        <v>45345</v>
       </c>
       <c r="D644" t="s">
         <v>3</v>
@@ -9411,10 +9411,10 @@
         <v>643</v>
       </c>
       <c r="B645" s="2">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="C645">
-        <v>45190</v>
+        <v>44630</v>
       </c>
       <c r="D645" t="s">
         <v>3</v>
@@ -9425,10 +9425,10 @@
         <v>644</v>
       </c>
       <c r="B646" s="2">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="C646">
-        <v>45360</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="s">
         <v>3</v>
@@ -9439,10 +9439,10 @@
         <v>645</v>
       </c>
       <c r="B647" s="2">
-        <v>43882</v>
+        <v>43887</v>
       </c>
       <c r="C647">
-        <v>45910</v>
+        <v>45360</v>
       </c>
       <c r="D647" t="s">
         <v>3</v>
@@ -9453,10 +9453,10 @@
         <v>646</v>
       </c>
       <c r="B648" s="2">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="C648">
-        <v>46010</v>
+        <v>45910</v>
       </c>
       <c r="D648" t="s">
         <v>3</v>
@@ -9467,10 +9467,10 @@
         <v>647</v>
       </c>
       <c r="B649" s="2">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="C649">
-        <v>45990</v>
+        <v>46010</v>
       </c>
       <c r="D649" t="s">
         <v>3</v>
@@ -9481,10 +9481,10 @@
         <v>648</v>
       </c>
       <c r="B650" s="2">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="C650">
-        <v>45955</v>
+        <v>45990</v>
       </c>
       <c r="D650" t="s">
         <v>3</v>
@@ -9495,10 +9495,10 @@
         <v>649</v>
       </c>
       <c r="B651" s="2">
-        <v>43875</v>
+        <v>43879</v>
       </c>
       <c r="C651">
-        <v>45655</v>
+        <v>45955</v>
       </c>
       <c r="D651" t="s">
         <v>3</v>
@@ -9509,10 +9509,10 @@
         <v>650</v>
       </c>
       <c r="B652" s="2">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="C652">
-        <v>45490</v>
+        <v>45655</v>
       </c>
       <c r="D652" t="s">
         <v>3</v>
@@ -9523,10 +9523,10 @@
         <v>651</v>
       </c>
       <c r="B653" s="2">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="C653">
-        <v>45385</v>
+        <v>45490</v>
       </c>
       <c r="D653" t="s">
         <v>3</v>
@@ -9537,10 +9537,10 @@
         <v>652</v>
       </c>
       <c r="B654" s="2">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="C654">
-        <v>45370</v>
+        <v>45385</v>
       </c>
       <c r="D654" t="s">
         <v>3</v>
@@ -9551,10 +9551,10 @@
         <v>653</v>
       </c>
       <c r="B655" s="2">
-        <v>43868</v>
+        <v>43872</v>
       </c>
       <c r="C655">
-        <v>45590</v>
+        <v>45370</v>
       </c>
       <c r="D655" t="s">
         <v>3</v>
@@ -9565,10 +9565,10 @@
         <v>654</v>
       </c>
       <c r="B656" s="2">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="C656">
-        <v>45795</v>
+        <v>45590</v>
       </c>
       <c r="D656" t="s">
         <v>3</v>
@@ -9579,10 +9579,10 @@
         <v>655</v>
       </c>
       <c r="B657" s="2">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="C657">
-        <v>45230</v>
+        <v>45795</v>
       </c>
       <c r="D657" t="s">
         <v>3</v>
@@ -9593,10 +9593,10 @@
         <v>656</v>
       </c>
       <c r="B658" s="2">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="C658">
-        <v>44940</v>
+        <v>45230</v>
       </c>
       <c r="D658" t="s">
         <v>3</v>
@@ -9607,10 +9607,10 @@
         <v>657</v>
       </c>
       <c r="B659" s="2">
-        <v>43853</v>
+        <v>43865</v>
       </c>
       <c r="C659">
-        <v>47995</v>
+        <v>44940</v>
       </c>
       <c r="D659" t="s">
         <v>3</v>
@@ -9621,10 +9621,10 @@
         <v>658</v>
       </c>
       <c r="B660" s="2">
-        <v>43852</v>
+        <v>43853</v>
       </c>
       <c r="C660">
-        <v>48235</v>
+        <v>47995</v>
       </c>
       <c r="D660" t="s">
         <v>3</v>
@@ -9635,10 +9635,10 @@
         <v>659</v>
       </c>
       <c r="B661" s="2">
-        <v>43851</v>
+        <v>43852</v>
       </c>
       <c r="C661">
-        <v>48425</v>
+        <v>48235</v>
       </c>
       <c r="D661" t="s">
         <v>3</v>
@@ -9649,10 +9649,10 @@
         <v>660</v>
       </c>
       <c r="B662" s="2">
-        <v>43847</v>
+        <v>43851</v>
       </c>
       <c r="C662">
-        <v>48930</v>
+        <v>48425</v>
       </c>
       <c r="D662" t="s">
         <v>3</v>
@@ -9663,10 +9663,10 @@
         <v>661</v>
       </c>
       <c r="B663" s="2">
-        <v>43846</v>
+        <v>43847</v>
       </c>
       <c r="C663">
-        <v>48950</v>
+        <v>48930</v>
       </c>
       <c r="D663" t="s">
         <v>3</v>
@@ -9677,10 +9677,10 @@
         <v>662</v>
       </c>
       <c r="B664" s="2">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="C664">
-        <v>49060</v>
+        <v>48950</v>
       </c>
       <c r="D664" t="s">
         <v>3</v>
@@ -9691,10 +9691,10 @@
         <v>663</v>
       </c>
       <c r="B665" s="2">
-        <v>43844</v>
+        <v>43845</v>
       </c>
       <c r="C665">
-        <v>48990</v>
+        <v>49060</v>
       </c>
       <c r="D665" t="s">
         <v>3</v>
@@ -9705,12 +9705,26 @@
         <v>664</v>
       </c>
       <c r="B666" s="2">
+        <v>43844</v>
+      </c>
+      <c r="C666">
+        <v>48990</v>
+      </c>
+      <c r="D666" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4">
+      <c r="A667" s="1">
+        <v>665</v>
+      </c>
+      <c r="B667" s="2">
         <v>43840</v>
       </c>
-      <c r="C666">
+      <c r="C667">
         <v>48605</v>
       </c>
-      <c r="D666" t="s">
+      <c r="D667" t="s">
         <v>3</v>
       </c>
     </row>

--- a/LME/parser_beta/data/shmet_historical.xlsx
+++ b/LME/parser_beta/data/shmet_historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="4">
   <si>
     <t>date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D670"/>
+  <dimension ref="A1:D671"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,10 +409,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="C2">
-        <v>68270</v>
+        <v>68260</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -423,10 +423,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="C3">
-        <v>68590</v>
+        <v>68270</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -437,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>45152</v>
+        <v>45153</v>
       </c>
       <c r="C4">
         <v>68590</v>
@@ -451,10 +451,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>45149</v>
+        <v>45152</v>
       </c>
       <c r="C5">
-        <v>68690</v>
+        <v>68590</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -465,10 +465,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="C6">
-        <v>68740</v>
+        <v>68690</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -479,10 +479,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="C7">
-        <v>68710</v>
+        <v>68740</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -493,10 +493,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="C8">
-        <v>69130</v>
+        <v>68710</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -507,10 +507,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="C9">
-        <v>69290</v>
+        <v>69130</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>45142</v>
+        <v>45145</v>
       </c>
       <c r="C10">
-        <v>69875</v>
+        <v>69290</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -535,10 +535,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="C11">
-        <v>69425</v>
+        <v>69875</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -549,10 +549,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="C12">
-        <v>69990</v>
+        <v>69425</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -563,10 +563,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="C13">
-        <v>70925</v>
+        <v>69990</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -577,10 +577,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="C14">
-        <v>69830</v>
+        <v>70925</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -591,10 +591,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>45135</v>
+        <v>45138</v>
       </c>
       <c r="C15">
-        <v>68950</v>
+        <v>69830</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -605,10 +605,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="C16">
-        <v>69460</v>
+        <v>68950</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -619,10 +619,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="C17">
-        <v>69200</v>
+        <v>69460</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
@@ -633,10 +633,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="C18">
-        <v>68980</v>
+        <v>69200</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -647,10 +647,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>45128</v>
+        <v>45132</v>
       </c>
       <c r="C19">
-        <v>68670</v>
+        <v>68980</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -661,10 +661,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="C20">
-        <v>68650</v>
+        <v>68670</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -675,10 +675,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="C21">
-        <v>68580</v>
+        <v>68650</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -689,10 +689,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="C22">
-        <v>68750</v>
+        <v>68580</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -703,10 +703,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>45121</v>
+        <v>45125</v>
       </c>
       <c r="C23">
-        <v>69825</v>
+        <v>68750</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
@@ -717,10 +717,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="C24">
-        <v>68760</v>
+        <v>69825</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
@@ -731,10 +731,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="C25">
-        <v>68040</v>
+        <v>68760</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
@@ -745,10 +745,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="C26">
-        <v>68370</v>
+        <v>68040</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
@@ -759,10 +759,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>45114</v>
+        <v>45118</v>
       </c>
       <c r="C27">
-        <v>68150</v>
+        <v>68370</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
@@ -773,10 +773,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="C28">
-        <v>68300</v>
+        <v>68150</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
@@ -787,10 +787,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="C29">
-        <v>68500</v>
+        <v>68300</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
@@ -801,10 +801,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="C30">
-        <v>68775</v>
+        <v>68500</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
@@ -815,10 +815,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>45107</v>
+        <v>45111</v>
       </c>
       <c r="C31">
-        <v>68000</v>
+        <v>68775</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
@@ -829,10 +829,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="C32">
-        <v>68025</v>
+        <v>68000</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
@@ -843,10 +843,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="C33">
-        <v>68300</v>
+        <v>68025</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -857,10 +857,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="C34">
-        <v>68660</v>
+        <v>68300</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>45098</v>
+        <v>45104</v>
       </c>
       <c r="C35">
-        <v>69650</v>
+        <v>68660</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
@@ -885,10 +885,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="C36">
-        <v>69100</v>
+        <v>69650</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
@@ -899,10 +899,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>45093</v>
+        <v>45097</v>
       </c>
       <c r="C37">
-        <v>68960</v>
+        <v>69100</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
@@ -913,10 +913,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="C38">
-        <v>68275</v>
+        <v>68960</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
@@ -927,10 +927,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="C39">
-        <v>68350</v>
+        <v>68275</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
@@ -941,10 +941,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>45086</v>
+        <v>45091</v>
       </c>
       <c r="C40">
-        <v>67370</v>
+        <v>68350</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
@@ -955,10 +955,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="C41">
-        <v>67180</v>
+        <v>67370</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
@@ -969,10 +969,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="C42">
-        <v>67300</v>
+        <v>67180</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="C43">
-        <v>67160</v>
+        <v>67300</v>
       </c>
       <c r="D43" t="s">
         <v>3</v>
@@ -997,10 +997,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>45079</v>
+        <v>45083</v>
       </c>
       <c r="C44">
-        <v>66425</v>
+        <v>67160</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
@@ -1011,10 +1011,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="C45">
-        <v>65850</v>
+        <v>66425</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
@@ -1025,10 +1025,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="C46">
-        <v>65260</v>
+        <v>65850</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
@@ -1039,10 +1039,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="C47">
-        <v>65600</v>
+        <v>65260</v>
       </c>
       <c r="D47" t="s">
         <v>3</v>
@@ -1053,10 +1053,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>45072</v>
+        <v>45076</v>
       </c>
       <c r="C48">
-        <v>64150</v>
+        <v>65600</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
@@ -1067,10 +1067,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="C49">
-        <v>63750</v>
+        <v>64150</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
@@ -1081,10 +1081,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>45070</v>
+        <v>45071</v>
       </c>
       <c r="C50">
-        <v>64300</v>
+        <v>63750</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
@@ -1095,10 +1095,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="C51">
-        <v>65280</v>
+        <v>64300</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
@@ -1109,10 +1109,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>45065</v>
+        <v>45069</v>
       </c>
       <c r="C52">
-        <v>65675</v>
+        <v>65280</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
@@ -1123,10 +1123,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="C53">
-        <v>66025</v>
+        <v>65675</v>
       </c>
       <c r="D53" t="s">
         <v>3</v>
@@ -1137,10 +1137,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="C54">
-        <v>64680</v>
+        <v>66025</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
@@ -1151,10 +1151,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="C55">
-        <v>65200</v>
+        <v>64680</v>
       </c>
       <c r="D55" t="s">
         <v>3</v>
@@ -1165,10 +1165,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>45058</v>
+        <v>45062</v>
       </c>
       <c r="C56">
-        <v>64690</v>
+        <v>65200</v>
       </c>
       <c r="D56" t="s">
         <v>3</v>
@@ -1179,10 +1179,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="C57">
-        <v>66590</v>
+        <v>64690</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
@@ -1193,10 +1193,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>45051</v>
+        <v>45057</v>
       </c>
       <c r="C58">
-        <v>66675</v>
+        <v>66590</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
@@ -1207,10 +1207,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="C59">
-        <v>67290</v>
+        <v>66675</v>
       </c>
       <c r="D59" t="s">
         <v>3</v>
@@ -1221,10 +1221,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>45044</v>
+        <v>45050</v>
       </c>
       <c r="C60">
-        <v>67420</v>
+        <v>67290</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
@@ -1235,10 +1235,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="C61">
-        <v>66625</v>
+        <v>67420</v>
       </c>
       <c r="D61" t="s">
         <v>3</v>
@@ -1249,10 +1249,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="C62">
-        <v>67540</v>
+        <v>66625</v>
       </c>
       <c r="D62" t="s">
         <v>3</v>
@@ -1263,10 +1263,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="C63">
-        <v>68290</v>
+        <v>67540</v>
       </c>
       <c r="D63" t="s">
         <v>3</v>
@@ -1277,10 +1277,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>45037</v>
+        <v>45041</v>
       </c>
       <c r="C64">
-        <v>68890</v>
+        <v>68290</v>
       </c>
       <c r="D64" t="s">
         <v>3</v>
@@ -1291,10 +1291,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="C65">
-        <v>69500</v>
+        <v>68890</v>
       </c>
       <c r="D65" t="s">
         <v>3</v>
@@ -1305,10 +1305,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="C66">
-        <v>69680</v>
+        <v>69500</v>
       </c>
       <c r="D66" t="s">
         <v>3</v>
@@ -1319,10 +1319,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="C67">
-        <v>69650</v>
+        <v>69680</v>
       </c>
       <c r="D67" t="s">
         <v>3</v>
@@ -1333,10 +1333,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>45030</v>
+        <v>45034</v>
       </c>
       <c r="C68">
-        <v>70310</v>
+        <v>69650</v>
       </c>
       <c r="D68" t="s">
         <v>3</v>
@@ -1347,10 +1347,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="C69">
-        <v>69405</v>
+        <v>70310</v>
       </c>
       <c r="D69" t="s">
         <v>3</v>
@@ -1361,10 +1361,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="C70">
-        <v>69150</v>
+        <v>69405</v>
       </c>
       <c r="D70" t="s">
         <v>3</v>
@@ -1375,10 +1375,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="C71">
-        <v>68580</v>
+        <v>69150</v>
       </c>
       <c r="D71" t="s">
         <v>3</v>
@@ -1389,10 +1389,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>45023</v>
+        <v>45027</v>
       </c>
       <c r="C72">
-        <v>68875</v>
+        <v>68580</v>
       </c>
       <c r="D72" t="s">
         <v>3</v>
@@ -1403,10 +1403,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="C73">
-        <v>68830</v>
+        <v>68875</v>
       </c>
       <c r="D73" t="s">
         <v>3</v>
@@ -1417,10 +1417,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>45020</v>
+        <v>45022</v>
       </c>
       <c r="C74">
-        <v>69225</v>
+        <v>68830</v>
       </c>
       <c r="D74" t="s">
         <v>3</v>
@@ -1431,10 +1431,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>45016</v>
+        <v>45020</v>
       </c>
       <c r="C75">
-        <v>69650</v>
+        <v>69225</v>
       </c>
       <c r="D75" t="s">
         <v>3</v>
@@ -1445,10 +1445,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="C76">
-        <v>69620</v>
+        <v>69650</v>
       </c>
       <c r="D76" t="s">
         <v>3</v>
@@ -1459,10 +1459,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="C77">
-        <v>69580</v>
+        <v>69620</v>
       </c>
       <c r="D77" t="s">
         <v>3</v>
@@ -1473,10 +1473,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="C78">
-        <v>69770</v>
+        <v>69580</v>
       </c>
       <c r="D78" t="s">
         <v>3</v>
@@ -1487,10 +1487,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>45009</v>
+        <v>45013</v>
       </c>
       <c r="C79">
-        <v>69230</v>
+        <v>69770</v>
       </c>
       <c r="D79" t="s">
         <v>3</v>
@@ -1501,10 +1501,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="C80">
-        <v>68630</v>
+        <v>69230</v>
       </c>
       <c r="D80" t="s">
         <v>3</v>
@@ -1515,10 +1515,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="C81">
-        <v>68100</v>
+        <v>68630</v>
       </c>
       <c r="D81" t="s">
         <v>3</v>
@@ -1529,10 +1529,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="C82">
-        <v>67575</v>
+        <v>68100</v>
       </c>
       <c r="D82" t="s">
         <v>3</v>
@@ -1543,10 +1543,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>45002</v>
+        <v>45006</v>
       </c>
       <c r="C83">
-        <v>67340</v>
+        <v>67575</v>
       </c>
       <c r="D83" t="s">
         <v>3</v>
@@ -1557,10 +1557,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="C84">
-        <v>67100</v>
+        <v>67340</v>
       </c>
       <c r="D84" t="s">
         <v>3</v>
@@ -1571,10 +1571,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="C85">
-        <v>68925</v>
+        <v>67100</v>
       </c>
       <c r="D85" t="s">
         <v>3</v>
@@ -1585,10 +1585,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="C86">
-        <v>68600</v>
+        <v>68925</v>
       </c>
       <c r="D86" t="s">
         <v>3</v>
@@ -1599,10 +1599,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>44995</v>
+        <v>44999</v>
       </c>
       <c r="C87">
-        <v>69025</v>
+        <v>68600</v>
       </c>
       <c r="D87" t="s">
         <v>3</v>
@@ -1613,10 +1613,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>44993</v>
+        <v>44995</v>
       </c>
       <c r="C88">
-        <v>68840</v>
+        <v>69025</v>
       </c>
       <c r="D88" t="s">
         <v>3</v>
@@ -1627,10 +1627,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="C89">
-        <v>69610</v>
+        <v>68840</v>
       </c>
       <c r="D89" t="s">
         <v>3</v>
@@ -1641,10 +1641,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="C90">
-        <v>69400</v>
+        <v>69610</v>
       </c>
       <c r="D90" t="s">
         <v>3</v>
@@ -1655,10 +1655,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="C91">
-        <v>69865</v>
+        <v>69400</v>
       </c>
       <c r="D91" t="s">
         <v>3</v>
@@ -1669,10 +1669,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="C92">
-        <v>69710</v>
+        <v>69865</v>
       </c>
       <c r="D92" t="s">
         <v>3</v>
@@ -1683,10 +1683,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="C93">
-        <v>68550</v>
+        <v>69710</v>
       </c>
       <c r="D93" t="s">
         <v>3</v>
@@ -1697,10 +1697,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="C94">
-        <v>70050</v>
+        <v>68550</v>
       </c>
       <c r="D94" t="s">
         <v>3</v>
@@ -1711,10 +1711,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="C95">
-        <v>70400</v>
+        <v>70050</v>
       </c>
       <c r="D95" t="s">
         <v>3</v>
@@ -1725,10 +1725,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="C96">
-        <v>69705</v>
+        <v>70400</v>
       </c>
       <c r="D96" t="s">
         <v>3</v>
@@ -1739,10 +1739,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>44974</v>
+        <v>44978</v>
       </c>
       <c r="C97">
-        <v>69080</v>
+        <v>69705</v>
       </c>
       <c r="D97" t="s">
         <v>3</v>
@@ -1753,10 +1753,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="C98">
-        <v>68370</v>
+        <v>69080</v>
       </c>
       <c r="D98" t="s">
         <v>3</v>
@@ -1767,10 +1767,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="C99">
-        <v>68950</v>
+        <v>68370</v>
       </c>
       <c r="D99" t="s">
         <v>3</v>
@@ -1781,10 +1781,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="C100">
-        <v>68510</v>
+        <v>68950</v>
       </c>
       <c r="D100" t="s">
         <v>3</v>
@@ -1795,10 +1795,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>44967</v>
+        <v>44971</v>
       </c>
       <c r="C101">
-        <v>68225</v>
+        <v>68510</v>
       </c>
       <c r="D101" t="s">
         <v>3</v>
@@ -1809,10 +1809,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="2">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="C102">
-        <v>68240</v>
+        <v>68225</v>
       </c>
       <c r="D102" t="s">
         <v>3</v>
@@ -1823,10 +1823,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="2">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="C103">
-        <v>68250</v>
+        <v>68240</v>
       </c>
       <c r="D103" t="s">
         <v>3</v>
@@ -1837,10 +1837,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="C104">
-        <v>67860</v>
+        <v>68250</v>
       </c>
       <c r="D104" t="s">
         <v>3</v>
@@ -1851,10 +1851,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>44960</v>
+        <v>44964</v>
       </c>
       <c r="C105">
-        <v>68425</v>
+        <v>67860</v>
       </c>
       <c r="D105" t="s">
         <v>3</v>
@@ -1865,10 +1865,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="2">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="C106">
-        <v>69070</v>
+        <v>68425</v>
       </c>
       <c r="D106" t="s">
         <v>3</v>
@@ -1879,10 +1879,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="2">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="C107">
-        <v>69560</v>
+        <v>69070</v>
       </c>
       <c r="D107" t="s">
         <v>3</v>
@@ -1893,10 +1893,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="2">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="C108">
-        <v>69425</v>
+        <v>69560</v>
       </c>
       <c r="D108" t="s">
         <v>3</v>
@@ -1907,10 +1907,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="2">
-        <v>44946</v>
+        <v>44957</v>
       </c>
       <c r="C109">
-        <v>70150</v>
+        <v>69425</v>
       </c>
       <c r="D109" t="s">
         <v>3</v>
@@ -1921,10 +1921,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="2">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="C110">
-        <v>69570</v>
+        <v>70150</v>
       </c>
       <c r="D110" t="s">
         <v>3</v>
@@ -1935,10 +1935,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="2">
-        <v>44944</v>
+        <v>44945</v>
       </c>
       <c r="C111">
-        <v>69750</v>
+        <v>69570</v>
       </c>
       <c r="D111" t="s">
         <v>3</v>
@@ -1949,10 +1949,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="2">
-        <v>44943</v>
+        <v>44944</v>
       </c>
       <c r="C112">
-        <v>68410</v>
+        <v>69750</v>
       </c>
       <c r="D112" t="s">
         <v>3</v>
@@ -1963,10 +1963,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>44939</v>
+        <v>44943</v>
       </c>
       <c r="C113">
-        <v>68725</v>
+        <v>68410</v>
       </c>
       <c r="D113" t="s">
         <v>3</v>
@@ -1977,10 +1977,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="C114">
-        <v>68430</v>
+        <v>68725</v>
       </c>
       <c r="D114" t="s">
         <v>3</v>
@@ -1991,10 +1991,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="C115">
-        <v>67500</v>
+        <v>68430</v>
       </c>
       <c r="D115" t="s">
         <v>3</v>
@@ -2005,10 +2005,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="C116">
-        <v>66475</v>
+        <v>67500</v>
       </c>
       <c r="D116" t="s">
         <v>3</v>
@@ -2019,10 +2019,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>44925</v>
+        <v>44936</v>
       </c>
       <c r="C117">
-        <v>66175</v>
+        <v>66475</v>
       </c>
       <c r="D117" t="s">
         <v>3</v>
@@ -2033,10 +2033,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="C118">
-        <v>66200</v>
+        <v>66175</v>
       </c>
       <c r="D118" t="s">
         <v>3</v>
@@ -2047,10 +2047,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="C119">
-        <v>66270</v>
+        <v>66200</v>
       </c>
       <c r="D119" t="s">
         <v>3</v>
@@ -2061,10 +2061,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>44922</v>
+        <v>44923</v>
       </c>
       <c r="C120">
-        <v>66400</v>
+        <v>66270</v>
       </c>
       <c r="D120" t="s">
         <v>3</v>
@@ -2075,10 +2075,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>44918</v>
+        <v>44922</v>
       </c>
       <c r="C121">
-        <v>66000</v>
+        <v>66400</v>
       </c>
       <c r="D121" t="s">
         <v>3</v>
@@ -2089,10 +2089,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="C122">
-        <v>66750</v>
+        <v>66000</v>
       </c>
       <c r="D122" t="s">
         <v>3</v>
@@ -2103,10 +2103,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="C123">
-        <v>66225</v>
+        <v>66750</v>
       </c>
       <c r="D123" t="s">
         <v>3</v>
@@ -2117,10 +2117,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="C124">
-        <v>65575</v>
+        <v>66225</v>
       </c>
       <c r="D124" t="s">
         <v>3</v>
@@ -2131,10 +2131,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>44911</v>
+        <v>44915</v>
       </c>
       <c r="C125">
-        <v>65750</v>
+        <v>65575</v>
       </c>
       <c r="D125" t="s">
         <v>3</v>
@@ -2145,10 +2145,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="C126">
-        <v>66125</v>
+        <v>65750</v>
       </c>
       <c r="D126" t="s">
         <v>3</v>
@@ -2159,10 +2159,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>44909</v>
+        <v>44910</v>
       </c>
       <c r="C127">
-        <v>66625</v>
+        <v>66125</v>
       </c>
       <c r="D127" t="s">
         <v>3</v>
@@ -2173,10 +2173,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="C128">
-        <v>66175</v>
+        <v>66625</v>
       </c>
       <c r="D128" t="s">
         <v>3</v>
@@ -2187,10 +2187,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>44904</v>
+        <v>44908</v>
       </c>
       <c r="C129">
-        <v>67000</v>
+        <v>66175</v>
       </c>
       <c r="D129" t="s">
         <v>3</v>
@@ -2201,10 +2201,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="C130">
-        <v>66290</v>
+        <v>67000</v>
       </c>
       <c r="D130" t="s">
         <v>3</v>
@@ -2215,10 +2215,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="C131">
-        <v>66225</v>
+        <v>66290</v>
       </c>
       <c r="D131" t="s">
         <v>3</v>
@@ -2229,10 +2229,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="C132">
-        <v>66575</v>
+        <v>66225</v>
       </c>
       <c r="D132" t="s">
         <v>3</v>
@@ -2243,10 +2243,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>44897</v>
+        <v>44901</v>
       </c>
       <c r="C133">
-        <v>66400</v>
+        <v>66575</v>
       </c>
       <c r="D133" t="s">
         <v>3</v>
@@ -2257,10 +2257,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="C134">
-        <v>66380</v>
+        <v>66400</v>
       </c>
       <c r="D134" t="s">
         <v>3</v>
@@ -2271,10 +2271,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="C135">
-        <v>65290</v>
+        <v>66380</v>
       </c>
       <c r="D135" t="s">
         <v>3</v>
@@ -2285,10 +2285,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="C136">
-        <v>65525</v>
+        <v>65290</v>
       </c>
       <c r="D136" t="s">
         <v>3</v>
@@ -2299,10 +2299,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="C137">
-        <v>65640</v>
+        <v>65525</v>
       </c>
       <c r="D137" t="s">
         <v>3</v>
@@ -2313,10 +2313,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="C138">
-        <v>65490</v>
+        <v>65640</v>
       </c>
       <c r="D138" t="s">
         <v>3</v>
@@ -2327,10 +2327,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="C139">
-        <v>65260</v>
+        <v>65490</v>
       </c>
       <c r="D139" t="s">
         <v>3</v>
@@ -2341,10 +2341,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="C140">
-        <v>65170</v>
+        <v>65260</v>
       </c>
       <c r="D140" t="s">
         <v>3</v>
@@ -2355,10 +2355,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>44883</v>
+        <v>44887</v>
       </c>
       <c r="C141">
-        <v>66275</v>
+        <v>65170</v>
       </c>
       <c r="D141" t="s">
         <v>3</v>
@@ -2369,10 +2369,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="C142">
-        <v>66540</v>
+        <v>66275</v>
       </c>
       <c r="D142" t="s">
         <v>3</v>
@@ -2383,10 +2383,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="C143">
-        <v>67050</v>
+        <v>66540</v>
       </c>
       <c r="D143" t="s">
         <v>3</v>
@@ -2397,10 +2397,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="C144">
-        <v>67275</v>
+        <v>67050</v>
       </c>
       <c r="D144" t="s">
         <v>3</v>
@@ -2411,10 +2411,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>44876</v>
+        <v>44880</v>
       </c>
       <c r="C145">
-        <v>68575</v>
+        <v>67275</v>
       </c>
       <c r="D145" t="s">
         <v>3</v>
@@ -2425,10 +2425,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="C146">
-        <v>67400</v>
+        <v>68575</v>
       </c>
       <c r="D146" t="s">
         <v>3</v>
@@ -2439,10 +2439,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="C147">
-        <v>66800</v>
+        <v>67400</v>
       </c>
       <c r="D147" t="s">
         <v>3</v>
@@ -2453,10 +2453,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="C148">
-        <v>66225</v>
+        <v>66800</v>
       </c>
       <c r="D148" t="s">
         <v>3</v>
@@ -2467,10 +2467,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>44869</v>
+        <v>44873</v>
       </c>
       <c r="C149">
-        <v>64700</v>
+        <v>66225</v>
       </c>
       <c r="D149" t="s">
         <v>3</v>
@@ -2481,10 +2481,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="C150">
-        <v>64690</v>
+        <v>64700</v>
       </c>
       <c r="D150" t="s">
         <v>3</v>
@@ -2495,10 +2495,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="C151">
-        <v>64950</v>
+        <v>64690</v>
       </c>
       <c r="D151" t="s">
         <v>3</v>
@@ -2509,10 +2509,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>44866</v>
+        <v>44867</v>
       </c>
       <c r="C152">
-        <v>64300</v>
+        <v>64950</v>
       </c>
       <c r="D152" t="s">
         <v>3</v>
@@ -2523,10 +2523,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>44862</v>
+        <v>44866</v>
       </c>
       <c r="C153">
-        <v>64650</v>
+        <v>64300</v>
       </c>
       <c r="D153" t="s">
         <v>3</v>
@@ -2537,10 +2537,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>44861</v>
+        <v>44862</v>
       </c>
       <c r="C154">
-        <v>64690</v>
+        <v>64650</v>
       </c>
       <c r="D154" t="s">
         <v>3</v>
@@ -2551,10 +2551,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="C155">
-        <v>63950</v>
+        <v>64690</v>
       </c>
       <c r="D155" t="s">
         <v>3</v>
@@ -2565,10 +2565,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="C156">
-        <v>64300</v>
+        <v>63950</v>
       </c>
       <c r="D156" t="s">
         <v>3</v>
@@ -2579,10 +2579,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>44855</v>
+        <v>44859</v>
       </c>
       <c r="C157">
-        <v>64000</v>
+        <v>64300</v>
       </c>
       <c r="D157" t="s">
         <v>3</v>
@@ -2593,10 +2593,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="C158">
-        <v>62895</v>
+        <v>64000</v>
       </c>
       <c r="D158" t="s">
         <v>3</v>
@@ -2607,10 +2607,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>44853</v>
+        <v>44854</v>
       </c>
       <c r="C159">
-        <v>62950</v>
+        <v>62895</v>
       </c>
       <c r="D159" t="s">
         <v>3</v>
@@ -2621,10 +2621,10 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="C160">
-        <v>63550</v>
+        <v>62950</v>
       </c>
       <c r="D160" t="s">
         <v>3</v>
@@ -2635,10 +2635,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>44848</v>
+        <v>44852</v>
       </c>
       <c r="C161">
-        <v>64760</v>
+        <v>63550</v>
       </c>
       <c r="D161" t="s">
         <v>3</v>
@@ -2649,10 +2649,10 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="C162">
-        <v>63960</v>
+        <v>64760</v>
       </c>
       <c r="D162" t="s">
         <v>3</v>
@@ -2663,10 +2663,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="C163">
-        <v>63800</v>
+        <v>63960</v>
       </c>
       <c r="D163" t="s">
         <v>3</v>
@@ -2677,10 +2677,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>44845</v>
+        <v>44846</v>
       </c>
       <c r="C164">
-        <v>63975</v>
+        <v>63800</v>
       </c>
       <c r="D164" t="s">
         <v>3</v>
@@ -2691,10 +2691,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>44834</v>
+        <v>44845</v>
       </c>
       <c r="C165">
-        <v>62670</v>
+        <v>63975</v>
       </c>
       <c r="D165" t="s">
         <v>3</v>
@@ -2705,10 +2705,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="C166">
-        <v>62430</v>
+        <v>62670</v>
       </c>
       <c r="D166" t="s">
         <v>3</v>
@@ -2719,10 +2719,10 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="C167">
-        <v>61430</v>
+        <v>62430</v>
       </c>
       <c r="D167" t="s">
         <v>3</v>
@@ -2733,10 +2733,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="C168">
-        <v>61485</v>
+        <v>61430</v>
       </c>
       <c r="D168" t="s">
         <v>3</v>
@@ -2747,10 +2747,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>44827</v>
+        <v>44831</v>
       </c>
       <c r="C169">
-        <v>63025</v>
+        <v>61485</v>
       </c>
       <c r="D169" t="s">
         <v>3</v>
@@ -2761,10 +2761,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="C170">
-        <v>63120</v>
+        <v>63025</v>
       </c>
       <c r="D170" t="s">
         <v>3</v>
@@ -2775,7 +2775,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="C171">
         <v>63120</v>
@@ -2789,10 +2789,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="C172">
-        <v>63370</v>
+        <v>63120</v>
       </c>
       <c r="D172" t="s">
         <v>3</v>
@@ -2803,10 +2803,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>44820</v>
+        <v>44824</v>
       </c>
       <c r="C173">
-        <v>62865</v>
+        <v>63370</v>
       </c>
       <c r="D173" t="s">
         <v>3</v>
@@ -2817,10 +2817,10 @@
         <v>172</v>
       </c>
       <c r="B174" s="2">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="C174">
-        <v>63370</v>
+        <v>62865</v>
       </c>
       <c r="D174" t="s">
         <v>3</v>
@@ -2831,10 +2831,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="2">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="C175">
-        <v>63050</v>
+        <v>63370</v>
       </c>
       <c r="D175" t="s">
         <v>3</v>
@@ -2845,10 +2845,10 @@
         <v>174</v>
       </c>
       <c r="B176" s="2">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="C176">
-        <v>63850</v>
+        <v>63050</v>
       </c>
       <c r="D176" t="s">
         <v>3</v>
@@ -2859,10 +2859,10 @@
         <v>175</v>
       </c>
       <c r="B177" s="2">
-        <v>44813</v>
+        <v>44817</v>
       </c>
       <c r="C177">
-        <v>63650</v>
+        <v>63850</v>
       </c>
       <c r="D177" t="s">
         <v>3</v>
@@ -2873,10 +2873,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="2">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="C178">
-        <v>61910</v>
+        <v>63650</v>
       </c>
       <c r="D178" t="s">
         <v>3</v>
@@ -2887,10 +2887,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="2">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="C179">
-        <v>61700</v>
+        <v>61910</v>
       </c>
       <c r="D179" t="s">
         <v>3</v>
@@ -2901,10 +2901,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="2">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="C180">
-        <v>61750</v>
+        <v>61700</v>
       </c>
       <c r="D180" t="s">
         <v>3</v>
@@ -2915,10 +2915,10 @@
         <v>179</v>
       </c>
       <c r="B181" s="2">
-        <v>44806</v>
+        <v>44810</v>
       </c>
       <c r="C181">
-        <v>60500</v>
+        <v>61750</v>
       </c>
       <c r="D181" t="s">
         <v>3</v>
@@ -2929,10 +2929,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="2">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="C182">
-        <v>61775</v>
+        <v>60500</v>
       </c>
       <c r="D182" t="s">
         <v>3</v>
@@ -2943,10 +2943,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="2">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="C183">
-        <v>62770</v>
+        <v>61775</v>
       </c>
       <c r="D183" t="s">
         <v>3</v>
@@ -2957,10 +2957,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="2">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="C184">
-        <v>63120</v>
+        <v>62770</v>
       </c>
       <c r="D184" t="s">
         <v>3</v>
@@ -2971,10 +2971,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="2">
-        <v>44799</v>
+        <v>44803</v>
       </c>
       <c r="C185">
-        <v>64270</v>
+        <v>63120</v>
       </c>
       <c r="D185" t="s">
         <v>3</v>
@@ -2985,10 +2985,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="2">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="C186">
-        <v>63330</v>
+        <v>64270</v>
       </c>
       <c r="D186" t="s">
         <v>3</v>
@@ -2999,10 +2999,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="2">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="C187">
-        <v>63715</v>
+        <v>63330</v>
       </c>
       <c r="D187" t="s">
         <v>3</v>
@@ -3013,10 +3013,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="2">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="C188">
-        <v>63570</v>
+        <v>63715</v>
       </c>
       <c r="D188" t="s">
         <v>3</v>
@@ -3027,10 +3027,10 @@
         <v>187</v>
       </c>
       <c r="B189" s="2">
-        <v>44792</v>
+        <v>44796</v>
       </c>
       <c r="C189">
-        <v>62950</v>
+        <v>63570</v>
       </c>
       <c r="D189" t="s">
         <v>3</v>
@@ -3041,10 +3041,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="2">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="C190">
-        <v>62300</v>
+        <v>62950</v>
       </c>
       <c r="D190" t="s">
         <v>3</v>
@@ -3055,10 +3055,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="2">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="C191">
-        <v>62470</v>
+        <v>62300</v>
       </c>
       <c r="D191" t="s">
         <v>3</v>
@@ -3069,10 +3069,10 @@
         <v>190</v>
       </c>
       <c r="B192" s="2">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="C192">
-        <v>62460</v>
+        <v>62470</v>
       </c>
       <c r="D192" t="s">
         <v>3</v>
@@ -3083,10 +3083,10 @@
         <v>191</v>
       </c>
       <c r="B193" s="2">
-        <v>44785</v>
+        <v>44789</v>
       </c>
       <c r="C193">
-        <v>63000</v>
+        <v>62460</v>
       </c>
       <c r="D193" t="s">
         <v>3</v>
@@ -3097,10 +3097,10 @@
         <v>192</v>
       </c>
       <c r="B194" s="2">
-        <v>44784</v>
+        <v>44785</v>
       </c>
       <c r="C194">
-        <v>62520</v>
+        <v>63000</v>
       </c>
       <c r="D194" t="s">
         <v>3</v>
@@ -3111,10 +3111,10 @@
         <v>193</v>
       </c>
       <c r="B195" s="2">
-        <v>44783</v>
+        <v>44784</v>
       </c>
       <c r="C195">
-        <v>61780</v>
+        <v>62520</v>
       </c>
       <c r="D195" t="s">
         <v>3</v>
@@ -3125,10 +3125,10 @@
         <v>194</v>
       </c>
       <c r="B196" s="2">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="C196">
-        <v>61540</v>
+        <v>61780</v>
       </c>
       <c r="D196" t="s">
         <v>3</v>
@@ -3139,10 +3139,10 @@
         <v>195</v>
       </c>
       <c r="B197" s="2">
-        <v>44778</v>
+        <v>44782</v>
       </c>
       <c r="C197">
-        <v>60520</v>
+        <v>61540</v>
       </c>
       <c r="D197" t="s">
         <v>3</v>
@@ -3153,10 +3153,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="2">
-        <v>44777</v>
+        <v>44778</v>
       </c>
       <c r="C198">
-        <v>59930</v>
+        <v>60520</v>
       </c>
       <c r="D198" t="s">
         <v>3</v>
@@ -3167,10 +3167,10 @@
         <v>197</v>
       </c>
       <c r="B199" s="2">
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="C199">
-        <v>60260</v>
+        <v>59930</v>
       </c>
       <c r="D199" t="s">
         <v>3</v>
@@ -3181,10 +3181,10 @@
         <v>198</v>
       </c>
       <c r="B200" s="2">
-        <v>44775</v>
+        <v>44776</v>
       </c>
       <c r="C200">
-        <v>60180</v>
+        <v>60260</v>
       </c>
       <c r="D200" t="s">
         <v>3</v>
@@ -3195,10 +3195,10 @@
         <v>199</v>
       </c>
       <c r="B201" s="2">
-        <v>44771</v>
+        <v>44775</v>
       </c>
       <c r="C201">
-        <v>60315</v>
+        <v>60180</v>
       </c>
       <c r="D201" t="s">
         <v>3</v>
@@ -3209,10 +3209,10 @@
         <v>200</v>
       </c>
       <c r="B202" s="2">
-        <v>44770</v>
+        <v>44771</v>
       </c>
       <c r="C202">
-        <v>60090</v>
+        <v>60315</v>
       </c>
       <c r="D202" t="s">
         <v>3</v>
@@ -3223,10 +3223,10 @@
         <v>201</v>
       </c>
       <c r="B203" s="2">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="C203">
-        <v>58710</v>
+        <v>60090</v>
       </c>
       <c r="D203" t="s">
         <v>3</v>
@@ -3237,10 +3237,10 @@
         <v>202</v>
       </c>
       <c r="B204" s="2">
-        <v>44768</v>
+        <v>44769</v>
       </c>
       <c r="C204">
-        <v>58930</v>
+        <v>58710</v>
       </c>
       <c r="D204" t="s">
         <v>3</v>
@@ -3251,10 +3251,10 @@
         <v>203</v>
       </c>
       <c r="B205" s="2">
-        <v>44764</v>
+        <v>44768</v>
       </c>
       <c r="C205">
-        <v>57030</v>
+        <v>58930</v>
       </c>
       <c r="D205" t="s">
         <v>3</v>
@@ -3265,10 +3265,10 @@
         <v>204</v>
       </c>
       <c r="B206" s="2">
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="C206">
-        <v>56360</v>
+        <v>57030</v>
       </c>
       <c r="D206" t="s">
         <v>3</v>
@@ -3279,10 +3279,10 @@
         <v>205</v>
       </c>
       <c r="B207" s="2">
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="C207">
-        <v>56920</v>
+        <v>56360</v>
       </c>
       <c r="D207" t="s">
         <v>3</v>
@@ -3293,10 +3293,10 @@
         <v>206</v>
       </c>
       <c r="B208" s="2">
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="C208">
-        <v>56210</v>
+        <v>56920</v>
       </c>
       <c r="D208" t="s">
         <v>3</v>
@@ -3307,10 +3307,10 @@
         <v>207</v>
       </c>
       <c r="B209" s="2">
-        <v>44757</v>
+        <v>44761</v>
       </c>
       <c r="C209">
-        <v>54890</v>
+        <v>56210</v>
       </c>
       <c r="D209" t="s">
         <v>3</v>
@@ -3321,10 +3321,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="2">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="C210">
-        <v>56300</v>
+        <v>54890</v>
       </c>
       <c r="D210" t="s">
         <v>3</v>
@@ -3335,10 +3335,10 @@
         <v>209</v>
       </c>
       <c r="B211" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="C211">
-        <v>56460</v>
+        <v>56300</v>
       </c>
       <c r="D211" t="s">
         <v>3</v>
@@ -3349,10 +3349,10 @@
         <v>210</v>
       </c>
       <c r="B212" s="2">
-        <v>44754</v>
+        <v>44755</v>
       </c>
       <c r="C212">
-        <v>58430</v>
+        <v>56460</v>
       </c>
       <c r="D212" t="s">
         <v>3</v>
@@ -3363,10 +3363,10 @@
         <v>211</v>
       </c>
       <c r="B213" s="2">
-        <v>44750</v>
+        <v>44754</v>
       </c>
       <c r="C213">
-        <v>59600</v>
+        <v>58430</v>
       </c>
       <c r="D213" t="s">
         <v>3</v>
@@ -3377,10 +3377,10 @@
         <v>212</v>
       </c>
       <c r="B214" s="2">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="C214">
-        <v>58600</v>
+        <v>59600</v>
       </c>
       <c r="D214" t="s">
         <v>3</v>
@@ -3391,10 +3391,10 @@
         <v>213</v>
       </c>
       <c r="B215" s="2">
-        <v>44748</v>
+        <v>44749</v>
       </c>
       <c r="C215">
-        <v>58125</v>
+        <v>58600</v>
       </c>
       <c r="D215" t="s">
         <v>3</v>
@@ -3405,10 +3405,10 @@
         <v>214</v>
       </c>
       <c r="B216" s="2">
-        <v>44747</v>
+        <v>44748</v>
       </c>
       <c r="C216">
-        <v>61225</v>
+        <v>58125</v>
       </c>
       <c r="D216" t="s">
         <v>3</v>
@@ -3419,10 +3419,10 @@
         <v>215</v>
       </c>
       <c r="B217" s="2">
-        <v>44743</v>
+        <v>44747</v>
       </c>
       <c r="C217">
-        <v>62930</v>
+        <v>61225</v>
       </c>
       <c r="D217" t="s">
         <v>3</v>
@@ -3433,10 +3433,10 @@
         <v>216</v>
       </c>
       <c r="B218" s="2">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="C218">
-        <v>64230</v>
+        <v>62930</v>
       </c>
       <c r="D218" t="s">
         <v>3</v>
@@ -3447,10 +3447,10 @@
         <v>217</v>
       </c>
       <c r="B219" s="2">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="C219">
-        <v>63940</v>
+        <v>64230</v>
       </c>
       <c r="D219" t="s">
         <v>3</v>
@@ -3461,10 +3461,10 @@
         <v>218</v>
       </c>
       <c r="B220" s="2">
-        <v>44740</v>
+        <v>44741</v>
       </c>
       <c r="C220">
-        <v>64150</v>
+        <v>63940</v>
       </c>
       <c r="D220" t="s">
         <v>3</v>
@@ -3475,10 +3475,10 @@
         <v>219</v>
       </c>
       <c r="B221" s="2">
-        <v>44736</v>
+        <v>44740</v>
       </c>
       <c r="C221">
-        <v>64340</v>
+        <v>64150</v>
       </c>
       <c r="D221" t="s">
         <v>3</v>
@@ -3489,10 +3489,10 @@
         <v>220</v>
       </c>
       <c r="B222" s="2">
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="C222">
-        <v>66050</v>
+        <v>64340</v>
       </c>
       <c r="D222" t="s">
         <v>3</v>
@@ -3503,10 +3503,10 @@
         <v>221</v>
       </c>
       <c r="B223" s="2">
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="C223">
-        <v>68160</v>
+        <v>66050</v>
       </c>
       <c r="D223" t="s">
         <v>3</v>
@@ -3517,10 +3517,10 @@
         <v>222</v>
       </c>
       <c r="B224" s="2">
-        <v>44733</v>
+        <v>44734</v>
       </c>
       <c r="C224">
-        <v>68700</v>
+        <v>68160</v>
       </c>
       <c r="D224" t="s">
         <v>3</v>
@@ -3531,10 +3531,10 @@
         <v>223</v>
       </c>
       <c r="B225" s="2">
-        <v>44729</v>
+        <v>44733</v>
       </c>
       <c r="C225">
-        <v>69975</v>
+        <v>68700</v>
       </c>
       <c r="D225" t="s">
         <v>3</v>
@@ -3545,10 +3545,10 @@
         <v>224</v>
       </c>
       <c r="B226" s="2">
-        <v>44728</v>
+        <v>44729</v>
       </c>
       <c r="C226">
-        <v>71255</v>
+        <v>69975</v>
       </c>
       <c r="D226" t="s">
         <v>3</v>
@@ -3559,10 +3559,10 @@
         <v>225</v>
       </c>
       <c r="B227" s="2">
-        <v>44727</v>
+        <v>44728</v>
       </c>
       <c r="C227">
-        <v>71250</v>
+        <v>71255</v>
       </c>
       <c r="D227" t="s">
         <v>3</v>
@@ -3573,10 +3573,10 @@
         <v>226</v>
       </c>
       <c r="B228" s="2">
-        <v>44722</v>
+        <v>44727</v>
       </c>
       <c r="C228">
-        <v>72750</v>
+        <v>71250</v>
       </c>
       <c r="D228" t="s">
         <v>3</v>
@@ -3587,10 +3587,10 @@
         <v>227</v>
       </c>
       <c r="B229" s="2">
-        <v>44721</v>
+        <v>44722</v>
       </c>
       <c r="C229">
-        <v>73030</v>
+        <v>72750</v>
       </c>
       <c r="D229" t="s">
         <v>3</v>
@@ -3601,10 +3601,10 @@
         <v>228</v>
       </c>
       <c r="B230" s="2">
-        <v>44720</v>
+        <v>44721</v>
       </c>
       <c r="C230">
-        <v>72890</v>
+        <v>73030</v>
       </c>
       <c r="D230" t="s">
         <v>3</v>
@@ -3615,10 +3615,10 @@
         <v>229</v>
       </c>
       <c r="B231" s="2">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="C231">
-        <v>72975</v>
+        <v>72890</v>
       </c>
       <c r="D231" t="s">
         <v>3</v>
@@ -3629,10 +3629,10 @@
         <v>230</v>
       </c>
       <c r="B232" s="2">
-        <v>44714</v>
+        <v>44719</v>
       </c>
       <c r="C232">
-        <v>72530</v>
+        <v>72975</v>
       </c>
       <c r="D232" t="s">
         <v>3</v>
@@ -3643,10 +3643,10 @@
         <v>231</v>
       </c>
       <c r="B233" s="2">
-        <v>44713</v>
+        <v>44714</v>
       </c>
       <c r="C233">
-        <v>72150</v>
+        <v>72530</v>
       </c>
       <c r="D233" t="s">
         <v>3</v>
@@ -3657,10 +3657,10 @@
         <v>232</v>
       </c>
       <c r="B234" s="2">
-        <v>44712</v>
+        <v>44713</v>
       </c>
       <c r="C234">
-        <v>72630</v>
+        <v>72150</v>
       </c>
       <c r="D234" t="s">
         <v>3</v>
@@ -3671,10 +3671,10 @@
         <v>233</v>
       </c>
       <c r="B235" s="2">
-        <v>44708</v>
+        <v>44712</v>
       </c>
       <c r="C235">
-        <v>72625</v>
+        <v>72630</v>
       </c>
       <c r="D235" t="s">
         <v>3</v>
@@ -3685,10 +3685,10 @@
         <v>234</v>
       </c>
       <c r="B236" s="2">
-        <v>44707</v>
+        <v>44708</v>
       </c>
       <c r="C236">
-        <v>71950</v>
+        <v>72625</v>
       </c>
       <c r="D236" t="s">
         <v>3</v>
@@ -3699,10 +3699,10 @@
         <v>235</v>
       </c>
       <c r="B237" s="2">
-        <v>44706</v>
+        <v>44707</v>
       </c>
       <c r="C237">
-        <v>72220</v>
+        <v>71950</v>
       </c>
       <c r="D237" t="s">
         <v>3</v>
@@ -3713,10 +3713,10 @@
         <v>236</v>
       </c>
       <c r="B238" s="2">
-        <v>44705</v>
+        <v>44706</v>
       </c>
       <c r="C238">
-        <v>72500</v>
+        <v>72220</v>
       </c>
       <c r="D238" t="s">
         <v>3</v>
@@ -3727,10 +3727,10 @@
         <v>237</v>
       </c>
       <c r="B239" s="2">
-        <v>44701</v>
+        <v>44705</v>
       </c>
       <c r="C239">
-        <v>72150</v>
+        <v>72500</v>
       </c>
       <c r="D239" t="s">
         <v>3</v>
@@ -3741,10 +3741,10 @@
         <v>238</v>
       </c>
       <c r="B240" s="2">
-        <v>44700</v>
+        <v>44701</v>
       </c>
       <c r="C240">
-        <v>71775</v>
+        <v>72150</v>
       </c>
       <c r="D240" t="s">
         <v>3</v>
@@ -3755,10 +3755,10 @@
         <v>239</v>
       </c>
       <c r="B241" s="2">
-        <v>44699</v>
+        <v>44700</v>
       </c>
       <c r="C241">
-        <v>72070</v>
+        <v>71775</v>
       </c>
       <c r="D241" t="s">
         <v>3</v>
@@ -3769,10 +3769,10 @@
         <v>240</v>
       </c>
       <c r="B242" s="2">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="C242">
-        <v>72175</v>
+        <v>72070</v>
       </c>
       <c r="D242" t="s">
         <v>3</v>
@@ -3783,10 +3783,10 @@
         <v>241</v>
       </c>
       <c r="B243" s="2">
-        <v>44694</v>
+        <v>44698</v>
       </c>
       <c r="C243">
-        <v>71160</v>
+        <v>72175</v>
       </c>
       <c r="D243" t="s">
         <v>3</v>
@@ -3797,10 +3797,10 @@
         <v>242</v>
       </c>
       <c r="B244" s="2">
-        <v>44693</v>
+        <v>44694</v>
       </c>
       <c r="C244">
-        <v>72050</v>
+        <v>71160</v>
       </c>
       <c r="D244" t="s">
         <v>3</v>
@@ -3811,10 +3811,10 @@
         <v>243</v>
       </c>
       <c r="B245" s="2">
-        <v>44687</v>
+        <v>44693</v>
       </c>
       <c r="C245">
-        <v>72875</v>
+        <v>72050</v>
       </c>
       <c r="D245" t="s">
         <v>3</v>
@@ -3825,10 +3825,10 @@
         <v>244</v>
       </c>
       <c r="B246" s="2">
-        <v>44686</v>
+        <v>44687</v>
       </c>
       <c r="C246">
-        <v>73760</v>
+        <v>72875</v>
       </c>
       <c r="D246" t="s">
         <v>3</v>
@@ -3839,10 +3839,10 @@
         <v>245</v>
       </c>
       <c r="B247" s="2">
-        <v>44680</v>
+        <v>44686</v>
       </c>
       <c r="C247">
-        <v>73930</v>
+        <v>73760</v>
       </c>
       <c r="D247" t="s">
         <v>3</v>
@@ -3853,10 +3853,10 @@
         <v>246</v>
       </c>
       <c r="B248" s="2">
-        <v>44679</v>
+        <v>44680</v>
       </c>
       <c r="C248">
-        <v>74005</v>
+        <v>73930</v>
       </c>
       <c r="D248" t="s">
         <v>3</v>
@@ -3867,10 +3867,10 @@
         <v>247</v>
       </c>
       <c r="B249" s="2">
-        <v>44678</v>
+        <v>44679</v>
       </c>
       <c r="C249">
-        <v>73770</v>
+        <v>74005</v>
       </c>
       <c r="D249" t="s">
         <v>3</v>
@@ -3881,10 +3881,10 @@
         <v>248</v>
       </c>
       <c r="B250" s="2">
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="C250">
-        <v>73950</v>
+        <v>73770</v>
       </c>
       <c r="D250" t="s">
         <v>3</v>
@@ -3895,10 +3895,10 @@
         <v>249</v>
       </c>
       <c r="B251" s="2">
-        <v>44673</v>
+        <v>44677</v>
       </c>
       <c r="C251">
-        <v>75070</v>
+        <v>73950</v>
       </c>
       <c r="D251" t="s">
         <v>3</v>
@@ -3909,10 +3909,10 @@
         <v>250</v>
       </c>
       <c r="B252" s="2">
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="C252">
-        <v>74850</v>
+        <v>75070</v>
       </c>
       <c r="D252" t="s">
         <v>3</v>
@@ -3923,10 +3923,10 @@
         <v>251</v>
       </c>
       <c r="B253" s="2">
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="C253">
-        <v>74740</v>
+        <v>74850</v>
       </c>
       <c r="D253" t="s">
         <v>3</v>
@@ -3937,10 +3937,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="2">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="C254">
-        <v>75575</v>
+        <v>74740</v>
       </c>
       <c r="D254" t="s">
         <v>3</v>
@@ -3951,10 +3951,10 @@
         <v>253</v>
       </c>
       <c r="B255" s="2">
-        <v>44666</v>
+        <v>44670</v>
       </c>
       <c r="C255">
-        <v>75385</v>
+        <v>75575</v>
       </c>
       <c r="D255" t="s">
         <v>3</v>
@@ -3965,10 +3965,10 @@
         <v>254</v>
       </c>
       <c r="B256" s="2">
-        <v>44665</v>
+        <v>44666</v>
       </c>
       <c r="C256">
-        <v>74370</v>
+        <v>75385</v>
       </c>
       <c r="D256" t="s">
         <v>3</v>
@@ -3979,10 +3979,10 @@
         <v>255</v>
       </c>
       <c r="B257" s="2">
-        <v>44664</v>
+        <v>44665</v>
       </c>
       <c r="C257">
-        <v>74550</v>
+        <v>74370</v>
       </c>
       <c r="D257" t="s">
         <v>3</v>
@@ -3993,10 +3993,10 @@
         <v>256</v>
       </c>
       <c r="B258" s="2">
-        <v>44663</v>
+        <v>44664</v>
       </c>
       <c r="C258">
-        <v>73790</v>
+        <v>74550</v>
       </c>
       <c r="D258" t="s">
         <v>3</v>
@@ -4007,10 +4007,10 @@
         <v>257</v>
       </c>
       <c r="B259" s="2">
-        <v>44659</v>
+        <v>44663</v>
       </c>
       <c r="C259">
-        <v>73765</v>
+        <v>73790</v>
       </c>
       <c r="D259" t="s">
         <v>3</v>
@@ -4021,10 +4021,10 @@
         <v>258</v>
       </c>
       <c r="B260" s="2">
-        <v>44658</v>
+        <v>44659</v>
       </c>
       <c r="C260">
-        <v>73690</v>
+        <v>73765</v>
       </c>
       <c r="D260" t="s">
         <v>3</v>
@@ -4035,10 +4035,10 @@
         <v>259</v>
       </c>
       <c r="B261" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C261">
-        <v>74000</v>
+        <v>73690</v>
       </c>
       <c r="D261" t="s">
         <v>3</v>
@@ -4049,10 +4049,10 @@
         <v>260</v>
       </c>
       <c r="B262" s="2">
-        <v>44652</v>
+        <v>44657</v>
       </c>
       <c r="C262">
-        <v>73635</v>
+        <v>74000</v>
       </c>
       <c r="D262" t="s">
         <v>3</v>
@@ -4063,10 +4063,10 @@
         <v>261</v>
       </c>
       <c r="B263" s="2">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="C263">
-        <v>73575</v>
+        <v>73635</v>
       </c>
       <c r="D263" t="s">
         <v>3</v>
@@ -4077,10 +4077,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="2">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="C264">
-        <v>73980</v>
+        <v>73575</v>
       </c>
       <c r="D264" t="s">
         <v>3</v>
@@ -4091,10 +4091,10 @@
         <v>263</v>
       </c>
       <c r="B265" s="2">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="C265">
-        <v>74100</v>
+        <v>73980</v>
       </c>
       <c r="D265" t="s">
         <v>3</v>
@@ -4105,10 +4105,10 @@
         <v>264</v>
       </c>
       <c r="B266" s="2">
-        <v>44645</v>
+        <v>44649</v>
       </c>
       <c r="C266">
-        <v>73775</v>
+        <v>74100</v>
       </c>
       <c r="D266" t="s">
         <v>3</v>
@@ -4119,10 +4119,10 @@
         <v>265</v>
       </c>
       <c r="B267" s="2">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="C267">
-        <v>73880</v>
+        <v>73775</v>
       </c>
       <c r="D267" t="s">
         <v>3</v>
@@ -4133,10 +4133,10 @@
         <v>266</v>
       </c>
       <c r="B268" s="2">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="C268">
-        <v>73410</v>
+        <v>73880</v>
       </c>
       <c r="D268" t="s">
         <v>3</v>
@@ -4147,10 +4147,10 @@
         <v>267</v>
       </c>
       <c r="B269" s="2">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="C269">
-        <v>73510</v>
+        <v>73410</v>
       </c>
       <c r="D269" t="s">
         <v>3</v>
@@ -4161,10 +4161,10 @@
         <v>268</v>
       </c>
       <c r="B270" s="2">
-        <v>44638</v>
+        <v>44642</v>
       </c>
       <c r="C270">
-        <v>73310</v>
+        <v>73510</v>
       </c>
       <c r="D270" t="s">
         <v>3</v>
@@ -4175,10 +4175,10 @@
         <v>269</v>
       </c>
       <c r="B271" s="2">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="C271">
-        <v>72740</v>
+        <v>73310</v>
       </c>
       <c r="D271" t="s">
         <v>3</v>
@@ -4189,10 +4189,10 @@
         <v>270</v>
       </c>
       <c r="B272" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="C272">
-        <v>72060</v>
+        <v>72740</v>
       </c>
       <c r="D272" t="s">
         <v>3</v>
@@ -4203,10 +4203,10 @@
         <v>271</v>
       </c>
       <c r="B273" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="C273">
-        <v>71790</v>
+        <v>72060</v>
       </c>
       <c r="D273" t="s">
         <v>3</v>
@@ -4217,10 +4217,10 @@
         <v>272</v>
       </c>
       <c r="B274" s="2">
-        <v>44631</v>
+        <v>44635</v>
       </c>
       <c r="C274">
-        <v>72170</v>
+        <v>71790</v>
       </c>
       <c r="D274" t="s">
         <v>3</v>
@@ -4231,10 +4231,10 @@
         <v>273</v>
       </c>
       <c r="B275" s="2">
-        <v>44630</v>
+        <v>44631</v>
       </c>
       <c r="C275">
-        <v>72080</v>
+        <v>72170</v>
       </c>
       <c r="D275" t="s">
         <v>3</v>
@@ -4245,10 +4245,10 @@
         <v>274</v>
       </c>
       <c r="B276" s="2">
-        <v>44624</v>
+        <v>44630</v>
       </c>
       <c r="C276">
-        <v>72930</v>
+        <v>72080</v>
       </c>
       <c r="D276" t="s">
         <v>3</v>
@@ -4259,10 +4259,10 @@
         <v>275</v>
       </c>
       <c r="B277" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="C277">
-        <v>72540</v>
+        <v>72930</v>
       </c>
       <c r="D277" t="s">
         <v>3</v>
@@ -4273,10 +4273,10 @@
         <v>276</v>
       </c>
       <c r="B278" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="C278">
-        <v>71520</v>
+        <v>72540</v>
       </c>
       <c r="D278" t="s">
         <v>3</v>
@@ -4287,10 +4287,10 @@
         <v>277</v>
       </c>
       <c r="B279" s="2">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="C279">
-        <v>70880</v>
+        <v>71520</v>
       </c>
       <c r="D279" t="s">
         <v>3</v>
@@ -4301,10 +4301,10 @@
         <v>278</v>
       </c>
       <c r="B280" s="2">
-        <v>44617</v>
+        <v>44621</v>
       </c>
       <c r="C280">
-        <v>71010</v>
+        <v>70880</v>
       </c>
       <c r="D280" t="s">
         <v>3</v>
@@ -4315,10 +4315,10 @@
         <v>279</v>
       </c>
       <c r="B281" s="2">
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="C281">
-        <v>71170</v>
+        <v>71010</v>
       </c>
       <c r="D281" t="s">
         <v>3</v>
@@ -4329,10 +4329,10 @@
         <v>280</v>
       </c>
       <c r="B282" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="C282">
-        <v>71140</v>
+        <v>71170</v>
       </c>
       <c r="D282" t="s">
         <v>3</v>
@@ -4343,10 +4343,10 @@
         <v>281</v>
       </c>
       <c r="B283" s="2">
-        <v>44610</v>
+        <v>44614</v>
       </c>
       <c r="C283">
-        <v>71525</v>
+        <v>71140</v>
       </c>
       <c r="D283" t="s">
         <v>3</v>
@@ -4357,10 +4357,10 @@
         <v>282</v>
       </c>
       <c r="B284" s="2">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="C284">
-        <v>71550</v>
+        <v>71525</v>
       </c>
       <c r="D284" t="s">
         <v>3</v>
@@ -4371,7 +4371,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="C285">
         <v>71550</v>
@@ -4385,10 +4385,10 @@
         <v>284</v>
       </c>
       <c r="B286" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="C286">
-        <v>71090</v>
+        <v>71550</v>
       </c>
       <c r="D286" t="s">
         <v>3</v>
@@ -4399,10 +4399,10 @@
         <v>285</v>
       </c>
       <c r="B287" s="2">
-        <v>44603</v>
+        <v>44607</v>
       </c>
       <c r="C287">
-        <v>72580</v>
+        <v>71090</v>
       </c>
       <c r="D287" t="s">
         <v>3</v>
@@ -4413,10 +4413,10 @@
         <v>286</v>
       </c>
       <c r="B288" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="C288">
-        <v>72210</v>
+        <v>72580</v>
       </c>
       <c r="D288" t="s">
         <v>3</v>
@@ -4427,10 +4427,10 @@
         <v>287</v>
       </c>
       <c r="B289" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="C289">
-        <v>70500</v>
+        <v>72210</v>
       </c>
       <c r="D289" t="s">
         <v>3</v>
@@ -4441,10 +4441,10 @@
         <v>288</v>
       </c>
       <c r="B290" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="C290">
-        <v>70690</v>
+        <v>70500</v>
       </c>
       <c r="D290" t="s">
         <v>3</v>
@@ -4455,10 +4455,10 @@
         <v>289</v>
       </c>
       <c r="B291" s="2">
-        <v>44589</v>
+        <v>44600</v>
       </c>
       <c r="C291">
-        <v>70480</v>
+        <v>70690</v>
       </c>
       <c r="D291" t="s">
         <v>3</v>
@@ -4469,10 +4469,10 @@
         <v>290</v>
       </c>
       <c r="B292" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="C292">
-        <v>70400</v>
+        <v>70480</v>
       </c>
       <c r="D292" t="s">
         <v>3</v>
@@ -4483,10 +4483,10 @@
         <v>291</v>
       </c>
       <c r="B293" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="C293">
-        <v>70270</v>
+        <v>70400</v>
       </c>
       <c r="D293" t="s">
         <v>3</v>
@@ -4497,10 +4497,10 @@
         <v>292</v>
       </c>
       <c r="B294" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="C294">
-        <v>70040</v>
+        <v>70270</v>
       </c>
       <c r="D294" t="s">
         <v>3</v>
@@ -4511,10 +4511,10 @@
         <v>293</v>
       </c>
       <c r="B295" s="2">
-        <v>44582</v>
+        <v>44586</v>
       </c>
       <c r="C295">
-        <v>71000</v>
+        <v>70040</v>
       </c>
       <c r="D295" t="s">
         <v>3</v>
@@ -4525,10 +4525,10 @@
         <v>294</v>
       </c>
       <c r="B296" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="C296">
-        <v>70930</v>
+        <v>71000</v>
       </c>
       <c r="D296" t="s">
         <v>3</v>
@@ -4539,10 +4539,10 @@
         <v>295</v>
       </c>
       <c r="B297" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="C297">
-        <v>70330</v>
+        <v>70930</v>
       </c>
       <c r="D297" t="s">
         <v>3</v>
@@ -4553,10 +4553,10 @@
         <v>296</v>
       </c>
       <c r="B298" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="C298">
-        <v>70525</v>
+        <v>70330</v>
       </c>
       <c r="D298" t="s">
         <v>3</v>
@@ -4567,10 +4567,10 @@
         <v>297</v>
       </c>
       <c r="B299" s="2">
-        <v>44575</v>
+        <v>44579</v>
       </c>
       <c r="C299">
-        <v>71570</v>
+        <v>70525</v>
       </c>
       <c r="D299" t="s">
         <v>3</v>
@@ -4581,10 +4581,10 @@
         <v>298</v>
       </c>
       <c r="B300" s="2">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C300">
-        <v>72130</v>
+        <v>71570</v>
       </c>
       <c r="D300" t="s">
         <v>3</v>
@@ -4595,10 +4595,10 @@
         <v>299</v>
       </c>
       <c r="B301" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C301">
-        <v>70850</v>
+        <v>72130</v>
       </c>
       <c r="D301" t="s">
         <v>3</v>
@@ -4609,10 +4609,10 @@
         <v>300</v>
       </c>
       <c r="B302" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="C302">
-        <v>69900</v>
+        <v>70850</v>
       </c>
       <c r="D302" t="s">
         <v>3</v>
@@ -4623,10 +4623,10 @@
         <v>301</v>
       </c>
       <c r="B303" s="2">
-        <v>44561</v>
+        <v>44572</v>
       </c>
       <c r="C303">
-        <v>69910</v>
+        <v>69900</v>
       </c>
       <c r="D303" t="s">
         <v>3</v>
@@ -4637,10 +4637,10 @@
         <v>302</v>
       </c>
       <c r="B304" s="2">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="C304">
-        <v>70020</v>
+        <v>69910</v>
       </c>
       <c r="D304" t="s">
         <v>3</v>
@@ -4651,10 +4651,10 @@
         <v>303</v>
       </c>
       <c r="B305" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="C305">
-        <v>70060</v>
+        <v>70020</v>
       </c>
       <c r="D305" t="s">
         <v>3</v>
@@ -4665,10 +4665,10 @@
         <v>304</v>
       </c>
       <c r="B306" s="2">
-        <v>44558</v>
+        <v>44559</v>
       </c>
       <c r="C306">
-        <v>70270</v>
+        <v>70060</v>
       </c>
       <c r="D306" t="s">
         <v>3</v>
@@ -4679,10 +4679,10 @@
         <v>305</v>
       </c>
       <c r="B307" s="2">
-        <v>44554</v>
+        <v>44558</v>
       </c>
       <c r="C307">
-        <v>69840</v>
+        <v>70270</v>
       </c>
       <c r="D307" t="s">
         <v>3</v>
@@ -4693,10 +4693,10 @@
         <v>306</v>
       </c>
       <c r="B308" s="2">
-        <v>44553</v>
+        <v>44554</v>
       </c>
       <c r="C308">
-        <v>69850</v>
+        <v>69840</v>
       </c>
       <c r="D308" t="s">
         <v>3</v>
@@ -4707,10 +4707,10 @@
         <v>307</v>
       </c>
       <c r="B309" s="2">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="C309">
-        <v>69520</v>
+        <v>69850</v>
       </c>
       <c r="D309" t="s">
         <v>3</v>
@@ -4721,10 +4721,10 @@
         <v>308</v>
       </c>
       <c r="B310" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="C310">
-        <v>69385</v>
+        <v>69520</v>
       </c>
       <c r="D310" t="s">
         <v>3</v>
@@ -4735,10 +4735,10 @@
         <v>309</v>
       </c>
       <c r="B311" s="2">
-        <v>44547</v>
+        <v>44551</v>
       </c>
       <c r="C311">
-        <v>69525</v>
+        <v>69385</v>
       </c>
       <c r="D311" t="s">
         <v>3</v>
@@ -4749,10 +4749,10 @@
         <v>310</v>
       </c>
       <c r="B312" s="2">
-        <v>44546</v>
+        <v>44547</v>
       </c>
       <c r="C312">
-        <v>68570</v>
+        <v>69525</v>
       </c>
       <c r="D312" t="s">
         <v>3</v>
@@ -4763,10 +4763,10 @@
         <v>311</v>
       </c>
       <c r="B313" s="2">
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="C313">
-        <v>68875</v>
+        <v>68570</v>
       </c>
       <c r="D313" t="s">
         <v>3</v>
@@ -4777,10 +4777,10 @@
         <v>312</v>
       </c>
       <c r="B314" s="2">
-        <v>44544</v>
+        <v>44545</v>
       </c>
       <c r="C314">
-        <v>68900</v>
+        <v>68875</v>
       </c>
       <c r="D314" t="s">
         <v>3</v>
@@ -4791,10 +4791,10 @@
         <v>313</v>
       </c>
       <c r="B315" s="2">
-        <v>44540</v>
+        <v>44544</v>
       </c>
       <c r="C315">
-        <v>69750</v>
+        <v>68900</v>
       </c>
       <c r="D315" t="s">
         <v>3</v>
@@ -4805,10 +4805,10 @@
         <v>314</v>
       </c>
       <c r="B316" s="2">
-        <v>44539</v>
+        <v>44540</v>
       </c>
       <c r="C316">
-        <v>69980</v>
+        <v>69750</v>
       </c>
       <c r="D316" t="s">
         <v>3</v>
@@ -4819,10 +4819,10 @@
         <v>315</v>
       </c>
       <c r="B317" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="C317">
-        <v>69815</v>
+        <v>69980</v>
       </c>
       <c r="D317" t="s">
         <v>3</v>
@@ -4833,10 +4833,10 @@
         <v>316</v>
       </c>
       <c r="B318" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="C318">
-        <v>69760</v>
+        <v>69815</v>
       </c>
       <c r="D318" t="s">
         <v>3</v>
@@ -4847,10 +4847,10 @@
         <v>317</v>
       </c>
       <c r="B319" s="2">
-        <v>44533</v>
+        <v>44537</v>
       </c>
       <c r="C319">
-        <v>69830</v>
+        <v>69760</v>
       </c>
       <c r="D319" t="s">
         <v>3</v>
@@ -4861,10 +4861,10 @@
         <v>318</v>
       </c>
       <c r="B320" s="2">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="C320">
-        <v>69900</v>
+        <v>69830</v>
       </c>
       <c r="D320" t="s">
         <v>3</v>
@@ -4875,10 +4875,10 @@
         <v>319</v>
       </c>
       <c r="B321" s="2">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="C321">
-        <v>70180</v>
+        <v>69900</v>
       </c>
       <c r="D321" t="s">
         <v>3</v>
@@ -4889,10 +4889,10 @@
         <v>320</v>
       </c>
       <c r="B322" s="2">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="C322">
-        <v>70650</v>
+        <v>70180</v>
       </c>
       <c r="D322" t="s">
         <v>3</v>
@@ -4903,10 +4903,10 @@
         <v>321</v>
       </c>
       <c r="B323" s="2">
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="C323">
-        <v>71610</v>
+        <v>70650</v>
       </c>
       <c r="D323" t="s">
         <v>3</v>
@@ -4917,10 +4917,10 @@
         <v>322</v>
       </c>
       <c r="B324" s="2">
-        <v>44525</v>
+        <v>44526</v>
       </c>
       <c r="C324">
-        <v>72330</v>
+        <v>71610</v>
       </c>
       <c r="D324" t="s">
         <v>3</v>
@@ -4931,10 +4931,10 @@
         <v>323</v>
       </c>
       <c r="B325" s="2">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="C325">
-        <v>71820</v>
+        <v>72330</v>
       </c>
       <c r="D325" t="s">
         <v>3</v>
@@ -4945,10 +4945,10 @@
         <v>324</v>
       </c>
       <c r="B326" s="2">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="C326">
-        <v>72510</v>
+        <v>71820</v>
       </c>
       <c r="D326" t="s">
         <v>3</v>
@@ -4959,10 +4959,10 @@
         <v>325</v>
       </c>
       <c r="B327" s="2">
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="C327">
-        <v>72250</v>
+        <v>72510</v>
       </c>
       <c r="D327" t="s">
         <v>3</v>
@@ -4973,10 +4973,10 @@
         <v>326</v>
       </c>
       <c r="B328" s="2">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="C328">
-        <v>70350</v>
+        <v>72250</v>
       </c>
       <c r="D328" t="s">
         <v>3</v>
@@ -4987,10 +4987,10 @@
         <v>327</v>
       </c>
       <c r="B329" s="2">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="C329">
-        <v>70955</v>
+        <v>70350</v>
       </c>
       <c r="D329" t="s">
         <v>3</v>
@@ -5001,10 +5001,10 @@
         <v>328</v>
       </c>
       <c r="B330" s="2">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="C330">
-        <v>71750</v>
+        <v>70955</v>
       </c>
       <c r="D330" t="s">
         <v>3</v>
@@ -5015,10 +5015,10 @@
         <v>329</v>
       </c>
       <c r="B331" s="2">
-        <v>44512</v>
+        <v>44516</v>
       </c>
       <c r="C331">
-        <v>71435</v>
+        <v>71750</v>
       </c>
       <c r="D331" t="s">
         <v>3</v>
@@ -5029,10 +5029,10 @@
         <v>330</v>
       </c>
       <c r="B332" s="2">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="C332">
-        <v>70780</v>
+        <v>71435</v>
       </c>
       <c r="D332" t="s">
         <v>3</v>
@@ -5043,10 +5043,10 @@
         <v>331</v>
       </c>
       <c r="B333" s="2">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="C333">
-        <v>70650</v>
+        <v>70780</v>
       </c>
       <c r="D333" t="s">
         <v>3</v>
@@ -5057,10 +5057,10 @@
         <v>332</v>
       </c>
       <c r="B334" s="2">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="C334">
-        <v>71110</v>
+        <v>70650</v>
       </c>
       <c r="D334" t="s">
         <v>3</v>
@@ -5071,10 +5071,10 @@
         <v>333</v>
       </c>
       <c r="B335" s="2">
-        <v>44504</v>
+        <v>44509</v>
       </c>
       <c r="C335">
-        <v>71270</v>
+        <v>71110</v>
       </c>
       <c r="D335" t="s">
         <v>3</v>
@@ -5085,10 +5085,10 @@
         <v>334</v>
       </c>
       <c r="B336" s="2">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="C336">
-        <v>70910</v>
+        <v>71270</v>
       </c>
       <c r="D336" t="s">
         <v>3</v>
@@ -5099,10 +5099,10 @@
         <v>335</v>
       </c>
       <c r="B337" s="2">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="C337">
-        <v>71180</v>
+        <v>70910</v>
       </c>
       <c r="D337" t="s">
         <v>3</v>
@@ -5113,10 +5113,10 @@
         <v>336</v>
       </c>
       <c r="B338" s="2">
-        <v>44498</v>
+        <v>44502</v>
       </c>
       <c r="C338">
-        <v>71575</v>
+        <v>71180</v>
       </c>
       <c r="D338" t="s">
         <v>3</v>
@@ -5127,10 +5127,10 @@
         <v>337</v>
       </c>
       <c r="B339" s="2">
-        <v>44497</v>
+        <v>44498</v>
       </c>
       <c r="C339">
-        <v>70770</v>
+        <v>71575</v>
       </c>
       <c r="D339" t="s">
         <v>3</v>
@@ -5141,10 +5141,10 @@
         <v>338</v>
       </c>
       <c r="B340" s="2">
-        <v>44496</v>
+        <v>44497</v>
       </c>
       <c r="C340">
-        <v>72060</v>
+        <v>70770</v>
       </c>
       <c r="D340" t="s">
         <v>3</v>
@@ -5155,10 +5155,10 @@
         <v>339</v>
       </c>
       <c r="B341" s="2">
-        <v>44495</v>
+        <v>44496</v>
       </c>
       <c r="C341">
-        <v>72585</v>
+        <v>72060</v>
       </c>
       <c r="D341" t="s">
         <v>3</v>
@@ -5169,10 +5169,10 @@
         <v>340</v>
       </c>
       <c r="B342" s="2">
-        <v>44491</v>
+        <v>44495</v>
       </c>
       <c r="C342">
-        <v>73125</v>
+        <v>72585</v>
       </c>
       <c r="D342" t="s">
         <v>3</v>
@@ -5183,10 +5183,10 @@
         <v>341</v>
       </c>
       <c r="B343" s="2">
-        <v>44490</v>
+        <v>44491</v>
       </c>
       <c r="C343">
-        <v>75190</v>
+        <v>73125</v>
       </c>
       <c r="D343" t="s">
         <v>3</v>
@@ -5197,10 +5197,10 @@
         <v>342</v>
       </c>
       <c r="B344" s="2">
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="C344">
-        <v>73430</v>
+        <v>75190</v>
       </c>
       <c r="D344" t="s">
         <v>3</v>
@@ -5211,10 +5211,10 @@
         <v>343</v>
       </c>
       <c r="B345" s="2">
-        <v>44488</v>
+        <v>44489</v>
       </c>
       <c r="C345">
-        <v>75750</v>
+        <v>73430</v>
       </c>
       <c r="D345" t="s">
         <v>3</v>
@@ -5225,10 +5225,10 @@
         <v>344</v>
       </c>
       <c r="B346" s="2">
-        <v>44484</v>
+        <v>44488</v>
       </c>
       <c r="C346">
-        <v>74060</v>
+        <v>75750</v>
       </c>
       <c r="D346" t="s">
         <v>3</v>
@@ -5239,10 +5239,10 @@
         <v>345</v>
       </c>
       <c r="B347" s="2">
-        <v>44483</v>
+        <v>44484</v>
       </c>
       <c r="C347">
-        <v>72540</v>
+        <v>74060</v>
       </c>
       <c r="D347" t="s">
         <v>3</v>
@@ -5253,10 +5253,10 @@
         <v>346</v>
       </c>
       <c r="B348" s="2">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="C348">
-        <v>70160</v>
+        <v>72540</v>
       </c>
       <c r="D348" t="s">
         <v>3</v>
@@ -5267,10 +5267,10 @@
         <v>347</v>
       </c>
       <c r="B349" s="2">
-        <v>44481</v>
+        <v>44482</v>
       </c>
       <c r="C349">
-        <v>70320</v>
+        <v>70160</v>
       </c>
       <c r="D349" t="s">
         <v>3</v>
@@ -5281,10 +5281,10 @@
         <v>348</v>
       </c>
       <c r="B350" s="2">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="C350">
-        <v>69940</v>
+        <v>70320</v>
       </c>
       <c r="D350" t="s">
         <v>3</v>
@@ -5295,10 +5295,10 @@
         <v>349</v>
       </c>
       <c r="B351" s="2">
-        <v>44469</v>
+        <v>44477</v>
       </c>
       <c r="C351">
-        <v>68700</v>
+        <v>69940</v>
       </c>
       <c r="D351" t="s">
         <v>3</v>
@@ -5309,10 +5309,10 @@
         <v>350</v>
       </c>
       <c r="B352" s="2">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="C352">
-        <v>68965</v>
+        <v>68700</v>
       </c>
       <c r="D352" t="s">
         <v>3</v>
@@ -5323,10 +5323,10 @@
         <v>351</v>
       </c>
       <c r="B353" s="2">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="C353">
-        <v>69520</v>
+        <v>68965</v>
       </c>
       <c r="D353" t="s">
         <v>3</v>
@@ -5337,10 +5337,10 @@
         <v>352</v>
       </c>
       <c r="B354" s="2">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="C354">
-        <v>69375</v>
+        <v>69520</v>
       </c>
       <c r="D354" t="s">
         <v>3</v>
@@ -5351,10 +5351,10 @@
         <v>353</v>
       </c>
       <c r="B355" s="2">
-        <v>44462</v>
+        <v>44463</v>
       </c>
       <c r="C355">
-        <v>69040</v>
+        <v>69375</v>
       </c>
       <c r="D355" t="s">
         <v>3</v>
@@ -5365,10 +5365,10 @@
         <v>354</v>
       </c>
       <c r="B356" s="2">
-        <v>44461</v>
+        <v>44462</v>
       </c>
       <c r="C356">
-        <v>69075</v>
+        <v>69040</v>
       </c>
       <c r="D356" t="s">
         <v>3</v>
@@ -5379,10 +5379,10 @@
         <v>355</v>
       </c>
       <c r="B357" s="2">
-        <v>44456</v>
+        <v>44461</v>
       </c>
       <c r="C357">
-        <v>69810</v>
+        <v>69075</v>
       </c>
       <c r="D357" t="s">
         <v>3</v>
@@ -5393,10 +5393,10 @@
         <v>356</v>
       </c>
       <c r="B358" s="2">
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="C358">
-        <v>70460</v>
+        <v>69810</v>
       </c>
       <c r="D358" t="s">
         <v>3</v>
@@ -5407,10 +5407,10 @@
         <v>357</v>
       </c>
       <c r="B359" s="2">
-        <v>44454</v>
+        <v>44455</v>
       </c>
       <c r="C359">
-        <v>69860</v>
+        <v>70460</v>
       </c>
       <c r="D359" t="s">
         <v>3</v>
@@ -5421,10 +5421,10 @@
         <v>358</v>
       </c>
       <c r="B360" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="C360">
-        <v>70520</v>
+        <v>69860</v>
       </c>
       <c r="D360" t="s">
         <v>3</v>
@@ -5435,10 +5435,10 @@
         <v>359</v>
       </c>
       <c r="B361" s="2">
-        <v>44449</v>
+        <v>44453</v>
       </c>
       <c r="C361">
-        <v>70035</v>
+        <v>70520</v>
       </c>
       <c r="D361" t="s">
         <v>3</v>
@@ -5449,10 +5449,10 @@
         <v>360</v>
       </c>
       <c r="B362" s="2">
-        <v>44448</v>
+        <v>44449</v>
       </c>
       <c r="C362">
-        <v>68850</v>
+        <v>70035</v>
       </c>
       <c r="D362" t="s">
         <v>3</v>
@@ -5463,10 +5463,10 @@
         <v>361</v>
       </c>
       <c r="B363" s="2">
-        <v>44447</v>
+        <v>44448</v>
       </c>
       <c r="C363">
-        <v>69250</v>
+        <v>68850</v>
       </c>
       <c r="D363" t="s">
         <v>3</v>
@@ -5477,10 +5477,10 @@
         <v>362</v>
       </c>
       <c r="B364" s="2">
-        <v>44446</v>
+        <v>44447</v>
       </c>
       <c r="C364">
-        <v>69580</v>
+        <v>69250</v>
       </c>
       <c r="D364" t="s">
         <v>3</v>
@@ -5491,10 +5491,10 @@
         <v>363</v>
       </c>
       <c r="B365" s="2">
-        <v>44442</v>
+        <v>44446</v>
       </c>
       <c r="C365">
-        <v>69575</v>
+        <v>69580</v>
       </c>
       <c r="D365" t="s">
         <v>3</v>
@@ -5505,10 +5505,10 @@
         <v>364</v>
       </c>
       <c r="B366" s="2">
-        <v>44441</v>
+        <v>44442</v>
       </c>
       <c r="C366">
-        <v>69460</v>
+        <v>69575</v>
       </c>
       <c r="D366" t="s">
         <v>3</v>
@@ -5519,10 +5519,10 @@
         <v>365</v>
       </c>
       <c r="B367" s="2">
-        <v>44440</v>
+        <v>44441</v>
       </c>
       <c r="C367">
-        <v>69940</v>
+        <v>69460</v>
       </c>
       <c r="D367" t="s">
         <v>3</v>
@@ -5533,10 +5533,10 @@
         <v>366</v>
       </c>
       <c r="B368" s="2">
-        <v>44439</v>
+        <v>44440</v>
       </c>
       <c r="C368">
-        <v>70315</v>
+        <v>69940</v>
       </c>
       <c r="D368" t="s">
         <v>3</v>
@@ -5547,10 +5547,10 @@
         <v>367</v>
       </c>
       <c r="B369" s="2">
-        <v>44435</v>
+        <v>44439</v>
       </c>
       <c r="C369">
-        <v>69185</v>
+        <v>70315</v>
       </c>
       <c r="D369" t="s">
         <v>3</v>
@@ -5561,10 +5561,10 @@
         <v>368</v>
       </c>
       <c r="B370" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="C370">
-        <v>69260</v>
+        <v>69185</v>
       </c>
       <c r="D370" t="s">
         <v>3</v>
@@ -5575,10 +5575,10 @@
         <v>369</v>
       </c>
       <c r="B371" s="2">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="C371">
-        <v>69600</v>
+        <v>69260</v>
       </c>
       <c r="D371" t="s">
         <v>3</v>
@@ -5589,10 +5589,10 @@
         <v>370</v>
       </c>
       <c r="B372" s="2">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="C372">
-        <v>68940</v>
+        <v>69600</v>
       </c>
       <c r="D372" t="s">
         <v>3</v>
@@ -5603,10 +5603,10 @@
         <v>371</v>
       </c>
       <c r="B373" s="2">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="C373">
-        <v>67260</v>
+        <v>68940</v>
       </c>
       <c r="D373" t="s">
         <v>3</v>
@@ -5617,10 +5617,10 @@
         <v>372</v>
       </c>
       <c r="B374" s="2">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="C374">
-        <v>67700</v>
+        <v>67260</v>
       </c>
       <c r="D374" t="s">
         <v>3</v>
@@ -5631,10 +5631,10 @@
         <v>373</v>
       </c>
       <c r="B375" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="C375">
-        <v>69240</v>
+        <v>67700</v>
       </c>
       <c r="D375" t="s">
         <v>3</v>
@@ -5645,10 +5645,10 @@
         <v>374</v>
       </c>
       <c r="B376" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="C376">
-        <v>70080</v>
+        <v>69240</v>
       </c>
       <c r="D376" t="s">
         <v>3</v>
@@ -5659,10 +5659,10 @@
         <v>375</v>
       </c>
       <c r="B377" s="2">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="C377">
-        <v>70240</v>
+        <v>70080</v>
       </c>
       <c r="D377" t="s">
         <v>3</v>
@@ -5673,10 +5673,10 @@
         <v>376</v>
       </c>
       <c r="B378" s="2">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="C378">
-        <v>70430</v>
+        <v>70240</v>
       </c>
       <c r="D378" t="s">
         <v>3</v>
@@ -5687,10 +5687,10 @@
         <v>377</v>
       </c>
       <c r="B379" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="C379">
-        <v>70000</v>
+        <v>70430</v>
       </c>
       <c r="D379" t="s">
         <v>3</v>
@@ -5701,10 +5701,10 @@
         <v>378</v>
       </c>
       <c r="B380" s="2">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="C380">
-        <v>69560</v>
+        <v>70000</v>
       </c>
       <c r="D380" t="s">
         <v>3</v>
@@ -5715,10 +5715,10 @@
         <v>379</v>
       </c>
       <c r="B381" s="2">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="C381">
-        <v>69800</v>
+        <v>69560</v>
       </c>
       <c r="D381" t="s">
         <v>3</v>
@@ -5729,10 +5729,10 @@
         <v>380</v>
       </c>
       <c r="B382" s="2">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="C382">
-        <v>69660</v>
+        <v>69800</v>
       </c>
       <c r="D382" t="s">
         <v>3</v>
@@ -5743,10 +5743,10 @@
         <v>381</v>
       </c>
       <c r="B383" s="2">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="C383">
-        <v>70290</v>
+        <v>69660</v>
       </c>
       <c r="D383" t="s">
         <v>3</v>
@@ -5757,10 +5757,10 @@
         <v>382</v>
       </c>
       <c r="B384" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="C384">
-        <v>71030</v>
+        <v>70290</v>
       </c>
       <c r="D384" t="s">
         <v>3</v>
@@ -5771,10 +5771,10 @@
         <v>383</v>
       </c>
       <c r="B385" s="2">
-        <v>44407</v>
+        <v>44411</v>
       </c>
       <c r="C385">
-        <v>71900</v>
+        <v>71030</v>
       </c>
       <c r="D385" t="s">
         <v>3</v>
@@ -5785,10 +5785,10 @@
         <v>384</v>
       </c>
       <c r="B386" s="2">
-        <v>44406</v>
+        <v>44407</v>
       </c>
       <c r="C386">
-        <v>71700</v>
+        <v>71900</v>
       </c>
       <c r="D386" t="s">
         <v>3</v>
@@ -5799,10 +5799,10 @@
         <v>385</v>
       </c>
       <c r="B387" s="2">
-        <v>44405</v>
+        <v>44406</v>
       </c>
       <c r="C387">
-        <v>72365</v>
+        <v>71700</v>
       </c>
       <c r="D387" t="s">
         <v>3</v>
@@ -5813,10 +5813,10 @@
         <v>386</v>
       </c>
       <c r="B388" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="C388">
-        <v>72520</v>
+        <v>72365</v>
       </c>
       <c r="D388" t="s">
         <v>3</v>
@@ -5827,10 +5827,10 @@
         <v>387</v>
       </c>
       <c r="B389" s="2">
-        <v>44400</v>
+        <v>44404</v>
       </c>
       <c r="C389">
-        <v>70090</v>
+        <v>72520</v>
       </c>
       <c r="D389" t="s">
         <v>3</v>
@@ -5841,10 +5841,10 @@
         <v>388</v>
       </c>
       <c r="B390" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="C390">
-        <v>69040</v>
+        <v>70090</v>
       </c>
       <c r="D390" t="s">
         <v>3</v>
@@ -5855,10 +5855,10 @@
         <v>389</v>
       </c>
       <c r="B391" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="C391">
-        <v>68600</v>
+        <v>69040</v>
       </c>
       <c r="D391" t="s">
         <v>3</v>
@@ -5869,10 +5869,10 @@
         <v>390</v>
       </c>
       <c r="B392" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="C392">
-        <v>68390</v>
+        <v>68600</v>
       </c>
       <c r="D392" t="s">
         <v>3</v>
@@ -5883,10 +5883,10 @@
         <v>391</v>
       </c>
       <c r="B393" s="2">
-        <v>44393</v>
+        <v>44397</v>
       </c>
       <c r="C393">
-        <v>69660</v>
+        <v>68390</v>
       </c>
       <c r="D393" t="s">
         <v>3</v>
@@ -5897,10 +5897,10 @@
         <v>392</v>
       </c>
       <c r="B394" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="C394">
-        <v>68830</v>
+        <v>69660</v>
       </c>
       <c r="D394" t="s">
         <v>3</v>
@@ -5911,10 +5911,10 @@
         <v>393</v>
       </c>
       <c r="B395" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="C395">
-        <v>68810</v>
+        <v>68830</v>
       </c>
       <c r="D395" t="s">
         <v>3</v>
@@ -5925,10 +5925,10 @@
         <v>394</v>
       </c>
       <c r="B396" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="C396">
-        <v>69370</v>
+        <v>68810</v>
       </c>
       <c r="D396" t="s">
         <v>3</v>
@@ -5939,10 +5939,10 @@
         <v>395</v>
       </c>
       <c r="B397" s="2">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="C397">
-        <v>68800</v>
+        <v>69370</v>
       </c>
       <c r="D397" t="s">
         <v>3</v>
@@ -5953,10 +5953,10 @@
         <v>396</v>
       </c>
       <c r="B398" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="C398">
-        <v>68900</v>
+        <v>68800</v>
       </c>
       <c r="D398" t="s">
         <v>3</v>
@@ -5967,10 +5967,10 @@
         <v>397</v>
       </c>
       <c r="B399" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="C399">
-        <v>68540</v>
+        <v>68900</v>
       </c>
       <c r="D399" t="s">
         <v>3</v>
@@ -5981,10 +5981,10 @@
         <v>398</v>
       </c>
       <c r="B400" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="C400">
-        <v>69700</v>
+        <v>68540</v>
       </c>
       <c r="D400" t="s">
         <v>3</v>
@@ -5995,10 +5995,10 @@
         <v>399</v>
       </c>
       <c r="B401" s="2">
-        <v>44379</v>
+        <v>44383</v>
       </c>
       <c r="C401">
-        <v>68050</v>
+        <v>69700</v>
       </c>
       <c r="D401" t="s">
         <v>3</v>
@@ -6009,10 +6009,10 @@
         <v>400</v>
       </c>
       <c r="B402" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="C402">
-        <v>68490</v>
+        <v>68050</v>
       </c>
       <c r="D402" t="s">
         <v>3</v>
@@ -6023,10 +6023,10 @@
         <v>401</v>
       </c>
       <c r="B403" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="C403">
-        <v>68380</v>
+        <v>68490</v>
       </c>
       <c r="D403" t="s">
         <v>3</v>
@@ -6037,10 +6037,10 @@
         <v>402</v>
       </c>
       <c r="B404" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="C404">
-        <v>68050</v>
+        <v>68380</v>
       </c>
       <c r="D404" t="s">
         <v>3</v>
@@ -6051,10 +6051,10 @@
         <v>403</v>
       </c>
       <c r="B405" s="2">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="C405">
-        <v>68825</v>
+        <v>68050</v>
       </c>
       <c r="D405" t="s">
         <v>3</v>
@@ -6065,10 +6065,10 @@
         <v>404</v>
       </c>
       <c r="B406" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="C406">
-        <v>68600</v>
+        <v>68825</v>
       </c>
       <c r="D406" t="s">
         <v>3</v>
@@ -6079,10 +6079,10 @@
         <v>405</v>
       </c>
       <c r="B407" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="C407">
-        <v>68270</v>
+        <v>68600</v>
       </c>
       <c r="D407" t="s">
         <v>3</v>
@@ -6093,10 +6093,10 @@
         <v>406</v>
       </c>
       <c r="B408" s="2">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="C408">
-        <v>67400</v>
+        <v>68270</v>
       </c>
       <c r="D408" t="s">
         <v>3</v>
@@ -6107,10 +6107,10 @@
         <v>407</v>
       </c>
       <c r="B409" s="2">
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="C409">
-        <v>67730</v>
+        <v>67400</v>
       </c>
       <c r="D409" t="s">
         <v>3</v>
@@ -6121,10 +6121,10 @@
         <v>408</v>
       </c>
       <c r="B410" s="2">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="C410">
-        <v>69170</v>
+        <v>67730</v>
       </c>
       <c r="D410" t="s">
         <v>3</v>
@@ -6135,10 +6135,10 @@
         <v>409</v>
       </c>
       <c r="B411" s="2">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="C411">
-        <v>69260</v>
+        <v>69170</v>
       </c>
       <c r="D411" t="s">
         <v>3</v>
@@ -6149,10 +6149,10 @@
         <v>410</v>
       </c>
       <c r="B412" s="2">
-        <v>44358</v>
+        <v>44363</v>
       </c>
       <c r="C412">
-        <v>70800</v>
+        <v>69260</v>
       </c>
       <c r="D412" t="s">
         <v>3</v>
@@ -6163,10 +6163,10 @@
         <v>411</v>
       </c>
       <c r="B413" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="C413">
-        <v>71210</v>
+        <v>70800</v>
       </c>
       <c r="D413" t="s">
         <v>3</v>
@@ -6177,10 +6177,10 @@
         <v>412</v>
       </c>
       <c r="B414" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="C414">
-        <v>71710</v>
+        <v>71210</v>
       </c>
       <c r="D414" t="s">
         <v>3</v>
@@ -6191,10 +6191,10 @@
         <v>413</v>
       </c>
       <c r="B415" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="C415">
-        <v>71310</v>
+        <v>71710</v>
       </c>
       <c r="D415" t="s">
         <v>3</v>
@@ -6205,10 +6205,10 @@
         <v>414</v>
       </c>
       <c r="B416" s="2">
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="C416">
-        <v>71090</v>
+        <v>71310</v>
       </c>
       <c r="D416" t="s">
         <v>3</v>
@@ -6219,10 +6219,10 @@
         <v>415</v>
       </c>
       <c r="B417" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="C417">
-        <v>72950</v>
+        <v>71090</v>
       </c>
       <c r="D417" t="s">
         <v>3</v>
@@ -6233,10 +6233,10 @@
         <v>416</v>
       </c>
       <c r="B418" s="2">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="C418">
-        <v>73580</v>
+        <v>72950</v>
       </c>
       <c r="D418" t="s">
         <v>3</v>
@@ -6247,10 +6247,10 @@
         <v>417</v>
       </c>
       <c r="B419" s="2">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="C419">
-        <v>73790</v>
+        <v>73580</v>
       </c>
       <c r="D419" t="s">
         <v>3</v>
@@ -6261,10 +6261,10 @@
         <v>418</v>
       </c>
       <c r="B420" s="2">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="C420">
-        <v>73380</v>
+        <v>73790</v>
       </c>
       <c r="D420" t="s">
         <v>3</v>
@@ -6275,10 +6275,10 @@
         <v>419</v>
       </c>
       <c r="B421" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="C421">
-        <v>71350</v>
+        <v>73380</v>
       </c>
       <c r="D421" t="s">
         <v>3</v>
@@ -6289,10 +6289,10 @@
         <v>420</v>
       </c>
       <c r="B422" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="C422">
-        <v>71720</v>
+        <v>71350</v>
       </c>
       <c r="D422" t="s">
         <v>3</v>
@@ -6303,10 +6303,10 @@
         <v>421</v>
       </c>
       <c r="B423" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="C423">
-        <v>72360</v>
+        <v>71720</v>
       </c>
       <c r="D423" t="s">
         <v>3</v>
@@ -6317,10 +6317,10 @@
         <v>422</v>
       </c>
       <c r="B424" s="2">
-        <v>44337</v>
+        <v>44341</v>
       </c>
       <c r="C424">
-        <v>71950</v>
+        <v>72360</v>
       </c>
       <c r="D424" t="s">
         <v>3</v>
@@ -6331,10 +6331,10 @@
         <v>423</v>
       </c>
       <c r="B425" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="C425">
-        <v>72525</v>
+        <v>71950</v>
       </c>
       <c r="D425" t="s">
         <v>3</v>
@@ -6345,10 +6345,10 @@
         <v>424</v>
       </c>
       <c r="B426" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="C426">
-        <v>74840</v>
+        <v>72525</v>
       </c>
       <c r="D426" t="s">
         <v>3</v>
@@ -6359,10 +6359,10 @@
         <v>425</v>
       </c>
       <c r="B427" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="C427">
-        <v>75720</v>
+        <v>74840</v>
       </c>
       <c r="D427" t="s">
         <v>3</v>
@@ -6373,10 +6373,10 @@
         <v>426</v>
       </c>
       <c r="B428" s="2">
-        <v>44330</v>
+        <v>44334</v>
       </c>
       <c r="C428">
-        <v>74760</v>
+        <v>75720</v>
       </c>
       <c r="D428" t="s">
         <v>3</v>
@@ -6387,10 +6387,10 @@
         <v>427</v>
       </c>
       <c r="B429" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="C429">
-        <v>75910</v>
+        <v>74760</v>
       </c>
       <c r="D429" t="s">
         <v>3</v>
@@ -6401,10 +6401,10 @@
         <v>428</v>
       </c>
       <c r="B430" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="C430">
-        <v>76150</v>
+        <v>75910</v>
       </c>
       <c r="D430" t="s">
         <v>3</v>
@@ -6415,10 +6415,10 @@
         <v>429</v>
       </c>
       <c r="B431" s="2">
-        <v>44323</v>
+        <v>44328</v>
       </c>
       <c r="C431">
-        <v>74200</v>
+        <v>76150</v>
       </c>
       <c r="D431" t="s">
         <v>3</v>
@@ -6429,10 +6429,10 @@
         <v>430</v>
       </c>
       <c r="B432" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="C432">
-        <v>72690</v>
+        <v>74200</v>
       </c>
       <c r="D432" t="s">
         <v>3</v>
@@ -6443,10 +6443,10 @@
         <v>431</v>
       </c>
       <c r="B433" s="2">
-        <v>44316</v>
+        <v>44322</v>
       </c>
       <c r="C433">
-        <v>71680</v>
+        <v>72690</v>
       </c>
       <c r="D433" t="s">
         <v>3</v>
@@ -6457,10 +6457,10 @@
         <v>432</v>
       </c>
       <c r="B434" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="C434">
-        <v>72335</v>
+        <v>71680</v>
       </c>
       <c r="D434" t="s">
         <v>3</v>
@@ -6471,10 +6471,10 @@
         <v>433</v>
       </c>
       <c r="B435" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="C435">
-        <v>70920</v>
+        <v>72335</v>
       </c>
       <c r="D435" t="s">
         <v>3</v>
@@ -6485,10 +6485,10 @@
         <v>434</v>
       </c>
       <c r="B436" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="C436">
-        <v>71940</v>
+        <v>70920</v>
       </c>
       <c r="D436" t="s">
         <v>3</v>
@@ -6499,10 +6499,10 @@
         <v>435</v>
       </c>
       <c r="B437" s="2">
-        <v>44309</v>
+        <v>44313</v>
       </c>
       <c r="C437">
-        <v>69120</v>
+        <v>71940</v>
       </c>
       <c r="D437" t="s">
         <v>3</v>
@@ -6513,10 +6513,10 @@
         <v>436</v>
       </c>
       <c r="B438" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="C438">
-        <v>68840</v>
+        <v>69120</v>
       </c>
       <c r="D438" t="s">
         <v>3</v>
@@ -6527,10 +6527,10 @@
         <v>437</v>
       </c>
       <c r="B439" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="C439">
-        <v>68550</v>
+        <v>68840</v>
       </c>
       <c r="D439" t="s">
         <v>3</v>
@@ -6541,10 +6541,10 @@
         <v>438</v>
       </c>
       <c r="B440" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="C440">
-        <v>68990</v>
+        <v>68550</v>
       </c>
       <c r="D440" t="s">
         <v>3</v>
@@ -6555,10 +6555,10 @@
         <v>439</v>
       </c>
       <c r="B441" s="2">
-        <v>44302</v>
+        <v>44306</v>
       </c>
       <c r="C441">
-        <v>68550</v>
+        <v>68990</v>
       </c>
       <c r="D441" t="s">
         <v>3</v>
@@ -6569,10 +6569,10 @@
         <v>440</v>
       </c>
       <c r="B442" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="C442">
-        <v>67260</v>
+        <v>68550</v>
       </c>
       <c r="D442" t="s">
         <v>3</v>
@@ -6583,10 +6583,10 @@
         <v>441</v>
       </c>
       <c r="B443" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="C443">
-        <v>66125</v>
+        <v>67260</v>
       </c>
       <c r="D443" t="s">
         <v>3</v>
@@ -6597,10 +6597,10 @@
         <v>442</v>
       </c>
       <c r="B444" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="C444">
-        <v>65720</v>
+        <v>66125</v>
       </c>
       <c r="D444" t="s">
         <v>3</v>
@@ -6611,10 +6611,10 @@
         <v>443</v>
       </c>
       <c r="B445" s="2">
-        <v>44295</v>
+        <v>44299</v>
       </c>
       <c r="C445">
-        <v>66750</v>
+        <v>65720</v>
       </c>
       <c r="D445" t="s">
         <v>3</v>
@@ -6625,10 +6625,10 @@
         <v>444</v>
       </c>
       <c r="B446" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="C446">
-        <v>66500</v>
+        <v>66750</v>
       </c>
       <c r="D446" t="s">
         <v>3</v>
@@ -6639,10 +6639,10 @@
         <v>445</v>
       </c>
       <c r="B447" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="C447">
-        <v>66890</v>
+        <v>66500</v>
       </c>
       <c r="D447" t="s">
         <v>3</v>
@@ -6653,10 +6653,10 @@
         <v>446</v>
       </c>
       <c r="B448" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="C448">
-        <v>67140</v>
+        <v>66890</v>
       </c>
       <c r="D448" t="s">
         <v>3</v>
@@ -6667,10 +6667,10 @@
         <v>447</v>
       </c>
       <c r="B449" s="2">
-        <v>44288</v>
+        <v>44292</v>
       </c>
       <c r="C449">
-        <v>66040</v>
+        <v>67140</v>
       </c>
       <c r="D449" t="s">
         <v>3</v>
@@ -6681,10 +6681,10 @@
         <v>448</v>
       </c>
       <c r="B450" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="C450">
-        <v>65490</v>
+        <v>66040</v>
       </c>
       <c r="D450" t="s">
         <v>3</v>
@@ -6695,10 +6695,10 @@
         <v>449</v>
       </c>
       <c r="B451" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="C451">
-        <v>65175</v>
+        <v>65490</v>
       </c>
       <c r="D451" t="s">
         <v>3</v>
@@ -6709,10 +6709,10 @@
         <v>450</v>
       </c>
       <c r="B452" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="C452">
-        <v>66190</v>
+        <v>65175</v>
       </c>
       <c r="D452" t="s">
         <v>3</v>
@@ -6723,10 +6723,10 @@
         <v>451</v>
       </c>
       <c r="B453" s="2">
-        <v>44281</v>
+        <v>44285</v>
       </c>
       <c r="C453">
-        <v>65680</v>
+        <v>66190</v>
       </c>
       <c r="D453" t="s">
         <v>3</v>
@@ -6737,10 +6737,10 @@
         <v>452</v>
       </c>
       <c r="B454" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="C454">
-        <v>65770</v>
+        <v>65680</v>
       </c>
       <c r="D454" t="s">
         <v>3</v>
@@ -6751,10 +6751,10 @@
         <v>453</v>
       </c>
       <c r="B455" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="C455">
-        <v>66075</v>
+        <v>65770</v>
       </c>
       <c r="D455" t="s">
         <v>3</v>
@@ -6765,10 +6765,10 @@
         <v>454</v>
       </c>
       <c r="B456" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="C456">
-        <v>66740</v>
+        <v>66075</v>
       </c>
       <c r="D456" t="s">
         <v>3</v>
@@ -6779,10 +6779,10 @@
         <v>455</v>
       </c>
       <c r="B457" s="2">
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="C457">
-        <v>66550</v>
+        <v>66740</v>
       </c>
       <c r="D457" t="s">
         <v>3</v>
@@ -6793,10 +6793,10 @@
         <v>456</v>
       </c>
       <c r="B458" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="C458">
-        <v>67050</v>
+        <v>66550</v>
       </c>
       <c r="D458" t="s">
         <v>3</v>
@@ -6807,10 +6807,10 @@
         <v>457</v>
       </c>
       <c r="B459" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="C459">
-        <v>66200</v>
+        <v>67050</v>
       </c>
       <c r="D459" t="s">
         <v>3</v>
@@ -6821,10 +6821,10 @@
         <v>458</v>
       </c>
       <c r="B460" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="C460">
-        <v>67150</v>
+        <v>66200</v>
       </c>
       <c r="D460" t="s">
         <v>3</v>
@@ -6835,10 +6835,10 @@
         <v>459</v>
       </c>
       <c r="B461" s="2">
-        <v>44267</v>
+        <v>44271</v>
       </c>
       <c r="C461">
-        <v>66660</v>
+        <v>67150</v>
       </c>
       <c r="D461" t="s">
         <v>3</v>
@@ -6849,10 +6849,10 @@
         <v>460</v>
       </c>
       <c r="B462" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="C462">
-        <v>65580</v>
+        <v>66660</v>
       </c>
       <c r="D462" t="s">
         <v>3</v>
@@ -6863,10 +6863,10 @@
         <v>461</v>
       </c>
       <c r="B463" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="C463">
-        <v>65530</v>
+        <v>65580</v>
       </c>
       <c r="D463" t="s">
         <v>3</v>
@@ -6877,10 +6877,10 @@
         <v>462</v>
       </c>
       <c r="B464" s="2">
-        <v>44260</v>
+        <v>44265</v>
       </c>
       <c r="C464">
-        <v>64810</v>
+        <v>65530</v>
       </c>
       <c r="D464" t="s">
         <v>3</v>
@@ -6891,10 +6891,10 @@
         <v>463</v>
       </c>
       <c r="B465" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="C465">
-        <v>67020</v>
+        <v>64810</v>
       </c>
       <c r="D465" t="s">
         <v>3</v>
@@ -6905,10 +6905,10 @@
         <v>464</v>
       </c>
       <c r="B466" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="C466">
-        <v>67790</v>
+        <v>67020</v>
       </c>
       <c r="D466" t="s">
         <v>3</v>
@@ -6919,10 +6919,10 @@
         <v>465</v>
       </c>
       <c r="B467" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="C467">
-        <v>66140</v>
+        <v>67790</v>
       </c>
       <c r="D467" t="s">
         <v>3</v>
@@ -6933,10 +6933,10 @@
         <v>466</v>
       </c>
       <c r="B468" s="2">
-        <v>44253</v>
+        <v>44257</v>
       </c>
       <c r="C468">
-        <v>68410</v>
+        <v>66140</v>
       </c>
       <c r="D468" t="s">
         <v>3</v>
@@ -6947,10 +6947,10 @@
         <v>467</v>
       </c>
       <c r="B469" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="C469">
-        <v>69900</v>
+        <v>68410</v>
       </c>
       <c r="D469" t="s">
         <v>3</v>
@@ -6961,10 +6961,10 @@
         <v>468</v>
       </c>
       <c r="B470" s="2">
-        <v>44246</v>
+        <v>44252</v>
       </c>
       <c r="C470">
-        <v>63240</v>
+        <v>69900</v>
       </c>
       <c r="D470" t="s">
         <v>3</v>
@@ -6975,10 +6975,10 @@
         <v>469</v>
       </c>
       <c r="B471" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="C471">
-        <v>62690</v>
+        <v>63240</v>
       </c>
       <c r="D471" t="s">
         <v>3</v>
@@ -6989,10 +6989,10 @@
         <v>470</v>
       </c>
       <c r="B472" s="2">
-        <v>44237</v>
+        <v>44245</v>
       </c>
       <c r="C472">
-        <v>60230</v>
+        <v>62690</v>
       </c>
       <c r="D472" t="s">
         <v>3</v>
@@ -7003,10 +7003,10 @@
         <v>471</v>
       </c>
       <c r="B473" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="C473">
-        <v>59410</v>
+        <v>60230</v>
       </c>
       <c r="D473" t="s">
         <v>3</v>
@@ -7017,10 +7017,10 @@
         <v>472</v>
       </c>
       <c r="B474" s="2">
-        <v>44232</v>
+        <v>44236</v>
       </c>
       <c r="C474">
-        <v>58040</v>
+        <v>59410</v>
       </c>
       <c r="D474" t="s">
         <v>3</v>
@@ -7031,10 +7031,10 @@
         <v>473</v>
       </c>
       <c r="B475" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="C475">
-        <v>57825</v>
+        <v>58040</v>
       </c>
       <c r="D475" t="s">
         <v>3</v>
@@ -7045,10 +7045,10 @@
         <v>474</v>
       </c>
       <c r="B476" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="C476">
-        <v>57170</v>
+        <v>57825</v>
       </c>
       <c r="D476" t="s">
         <v>3</v>
@@ -7059,10 +7059,10 @@
         <v>475</v>
       </c>
       <c r="B477" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="C477">
-        <v>57700</v>
+        <v>57170</v>
       </c>
       <c r="D477" t="s">
         <v>3</v>
@@ -7073,10 +7073,10 @@
         <v>476</v>
       </c>
       <c r="B478" s="2">
-        <v>44225</v>
+        <v>44229</v>
       </c>
       <c r="C478">
-        <v>58180</v>
+        <v>57700</v>
       </c>
       <c r="D478" t="s">
         <v>3</v>
@@ -7087,10 +7087,10 @@
         <v>477</v>
       </c>
       <c r="B479" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="C479">
-        <v>57950</v>
+        <v>58180</v>
       </c>
       <c r="D479" t="s">
         <v>3</v>
@@ -7101,10 +7101,10 @@
         <v>478</v>
       </c>
       <c r="B480" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="C480">
-        <v>58745</v>
+        <v>57950</v>
       </c>
       <c r="D480" t="s">
         <v>3</v>
@@ -7115,10 +7115,10 @@
         <v>479</v>
       </c>
       <c r="B481" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="C481">
-        <v>58820</v>
+        <v>58745</v>
       </c>
       <c r="D481" t="s">
         <v>3</v>
@@ -7129,10 +7129,10 @@
         <v>480</v>
       </c>
       <c r="B482" s="2">
-        <v>44218</v>
+        <v>44222</v>
       </c>
       <c r="C482">
-        <v>58920</v>
+        <v>58820</v>
       </c>
       <c r="D482" t="s">
         <v>3</v>
@@ -7143,10 +7143,10 @@
         <v>481</v>
       </c>
       <c r="B483" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="C483">
-        <v>59280</v>
+        <v>58920</v>
       </c>
       <c r="D483" t="s">
         <v>3</v>
@@ -7157,10 +7157,10 @@
         <v>482</v>
       </c>
       <c r="B484" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="C484">
-        <v>59025</v>
+        <v>59280</v>
       </c>
       <c r="D484" t="s">
         <v>3</v>
@@ -7171,10 +7171,10 @@
         <v>483</v>
       </c>
       <c r="B485" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="C485">
-        <v>59030</v>
+        <v>59025</v>
       </c>
       <c r="D485" t="s">
         <v>3</v>
@@ -7185,10 +7185,10 @@
         <v>484</v>
       </c>
       <c r="B486" s="2">
-        <v>44211</v>
+        <v>44215</v>
       </c>
       <c r="C486">
-        <v>59560</v>
+        <v>59030</v>
       </c>
       <c r="D486" t="s">
         <v>3</v>
@@ -7199,10 +7199,10 @@
         <v>485</v>
       </c>
       <c r="B487" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="C487">
-        <v>58675</v>
+        <v>59560</v>
       </c>
       <c r="D487" t="s">
         <v>3</v>
@@ -7213,10 +7213,10 @@
         <v>486</v>
       </c>
       <c r="B488" s="2">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="C488">
-        <v>58840</v>
+        <v>58675</v>
       </c>
       <c r="D488" t="s">
         <v>3</v>
@@ -7227,10 +7227,10 @@
         <v>487</v>
       </c>
       <c r="B489" s="2">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="C489">
-        <v>58225</v>
+        <v>58840</v>
       </c>
       <c r="D489" t="s">
         <v>3</v>
@@ -7241,10 +7241,10 @@
         <v>488</v>
       </c>
       <c r="B490" s="2">
-        <v>44196</v>
+        <v>44208</v>
       </c>
       <c r="C490">
-        <v>57810</v>
+        <v>58225</v>
       </c>
       <c r="D490" t="s">
         <v>3</v>
@@ -7255,10 +7255,10 @@
         <v>489</v>
       </c>
       <c r="B491" s="2">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="C491">
-        <v>58150</v>
+        <v>57810</v>
       </c>
       <c r="D491" t="s">
         <v>3</v>
@@ -7269,10 +7269,10 @@
         <v>490</v>
       </c>
       <c r="B492" s="2">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="C492">
-        <v>58450</v>
+        <v>58150</v>
       </c>
       <c r="D492" t="s">
         <v>3</v>
@@ -7283,10 +7283,10 @@
         <v>491</v>
       </c>
       <c r="B493" s="2">
-        <v>44190</v>
+        <v>44194</v>
       </c>
       <c r="C493">
-        <v>58180</v>
+        <v>58450</v>
       </c>
       <c r="D493" t="s">
         <v>3</v>
@@ -7297,10 +7297,10 @@
         <v>492</v>
       </c>
       <c r="B494" s="2">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="C494">
-        <v>58110</v>
+        <v>58180</v>
       </c>
       <c r="D494" t="s">
         <v>3</v>
@@ -7311,10 +7311,10 @@
         <v>493</v>
       </c>
       <c r="B495" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="C495">
-        <v>57610</v>
+        <v>58110</v>
       </c>
       <c r="D495" t="s">
         <v>3</v>
@@ -7325,10 +7325,10 @@
         <v>494</v>
       </c>
       <c r="B496" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="C496">
-        <v>58550</v>
+        <v>57610</v>
       </c>
       <c r="D496" t="s">
         <v>3</v>
@@ -7339,10 +7339,10 @@
         <v>495</v>
       </c>
       <c r="B497" s="2">
-        <v>44183</v>
+        <v>44187</v>
       </c>
       <c r="C497">
-        <v>59090</v>
+        <v>58550</v>
       </c>
       <c r="D497" t="s">
         <v>3</v>
@@ -7353,10 +7353,10 @@
         <v>496</v>
       </c>
       <c r="B498" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="C498">
-        <v>58120</v>
+        <v>59090</v>
       </c>
       <c r="D498" t="s">
         <v>3</v>
@@ -7367,10 +7367,10 @@
         <v>497</v>
       </c>
       <c r="B499" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="C499">
-        <v>57850</v>
+        <v>58120</v>
       </c>
       <c r="D499" t="s">
         <v>3</v>
@@ -7381,10 +7381,10 @@
         <v>498</v>
       </c>
       <c r="B500" s="2">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="C500">
-        <v>57420</v>
+        <v>57850</v>
       </c>
       <c r="D500" t="s">
         <v>3</v>
@@ -7395,10 +7395,10 @@
         <v>499</v>
       </c>
       <c r="B501" s="2">
-        <v>44176</v>
+        <v>44180</v>
       </c>
       <c r="C501">
-        <v>58285</v>
+        <v>57420</v>
       </c>
       <c r="D501" t="s">
         <v>3</v>
@@ -7409,10 +7409,10 @@
         <v>500</v>
       </c>
       <c r="B502" s="2">
-        <v>44175</v>
+        <v>44176</v>
       </c>
       <c r="C502">
-        <v>57010</v>
+        <v>58285</v>
       </c>
       <c r="D502" t="s">
         <v>3</v>
@@ -7423,10 +7423,10 @@
         <v>501</v>
       </c>
       <c r="B503" s="2">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="C503">
-        <v>57270</v>
+        <v>57010</v>
       </c>
       <c r="D503" t="s">
         <v>3</v>
@@ -7437,10 +7437,10 @@
         <v>502</v>
       </c>
       <c r="B504" s="2">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="C504">
-        <v>57000</v>
+        <v>57270</v>
       </c>
       <c r="D504" t="s">
         <v>3</v>
@@ -7451,10 +7451,10 @@
         <v>503</v>
       </c>
       <c r="B505" s="2">
-        <v>44169</v>
+        <v>44173</v>
       </c>
       <c r="C505">
-        <v>57290</v>
+        <v>57000</v>
       </c>
       <c r="D505" t="s">
         <v>3</v>
@@ -7465,10 +7465,10 @@
         <v>504</v>
       </c>
       <c r="B506" s="2">
-        <v>44168</v>
+        <v>44169</v>
       </c>
       <c r="C506">
-        <v>57300</v>
+        <v>57290</v>
       </c>
       <c r="D506" t="s">
         <v>3</v>
@@ -7479,10 +7479,10 @@
         <v>505</v>
       </c>
       <c r="B507" s="2">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="C507">
-        <v>57280</v>
+        <v>57300</v>
       </c>
       <c r="D507" t="s">
         <v>3</v>
@@ -7493,10 +7493,10 @@
         <v>506</v>
       </c>
       <c r="B508" s="2">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="C508">
-        <v>57375</v>
+        <v>57280</v>
       </c>
       <c r="D508" t="s">
         <v>3</v>
@@ -7507,10 +7507,10 @@
         <v>507</v>
       </c>
       <c r="B509" s="2">
-        <v>44162</v>
+        <v>44166</v>
       </c>
       <c r="C509">
-        <v>55685</v>
+        <v>57375</v>
       </c>
       <c r="D509" t="s">
         <v>3</v>
@@ -7521,10 +7521,10 @@
         <v>508</v>
       </c>
       <c r="B510" s="2">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="C510">
-        <v>55120</v>
+        <v>55685</v>
       </c>
       <c r="D510" t="s">
         <v>3</v>
@@ -7535,10 +7535,10 @@
         <v>509</v>
       </c>
       <c r="B511" s="2">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="C511">
-        <v>54890</v>
+        <v>55120</v>
       </c>
       <c r="D511" t="s">
         <v>3</v>
@@ -7549,10 +7549,10 @@
         <v>510</v>
       </c>
       <c r="B512" s="2">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="C512">
-        <v>54110</v>
+        <v>54890</v>
       </c>
       <c r="D512" t="s">
         <v>3</v>
@@ -7563,10 +7563,10 @@
         <v>511</v>
       </c>
       <c r="B513" s="2">
-        <v>44155</v>
+        <v>44159</v>
       </c>
       <c r="C513">
-        <v>53220</v>
+        <v>54110</v>
       </c>
       <c r="D513" t="s">
         <v>3</v>
@@ -7577,10 +7577,10 @@
         <v>512</v>
       </c>
       <c r="B514" s="2">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="C514">
-        <v>52820</v>
+        <v>53220</v>
       </c>
       <c r="D514" t="s">
         <v>3</v>
@@ -7591,10 +7591,10 @@
         <v>513</v>
       </c>
       <c r="B515" s="2">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="C515">
-        <v>52740</v>
+        <v>52820</v>
       </c>
       <c r="D515" t="s">
         <v>3</v>
@@ -7605,10 +7605,10 @@
         <v>514</v>
       </c>
       <c r="B516" s="2">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="C516">
-        <v>53220</v>
+        <v>52740</v>
       </c>
       <c r="D516" t="s">
         <v>3</v>
@@ -7619,10 +7619,10 @@
         <v>515</v>
       </c>
       <c r="B517" s="2">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="C517">
-        <v>52025</v>
+        <v>53220</v>
       </c>
       <c r="D517" t="s">
         <v>3</v>
@@ -7633,10 +7633,10 @@
         <v>516</v>
       </c>
       <c r="B518" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="C518">
-        <v>51880</v>
+        <v>52025</v>
       </c>
       <c r="D518" t="s">
         <v>3</v>
@@ -7647,10 +7647,10 @@
         <v>517</v>
       </c>
       <c r="B519" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="C519">
-        <v>51990</v>
+        <v>51880</v>
       </c>
       <c r="D519" t="s">
         <v>3</v>
@@ -7661,10 +7661,10 @@
         <v>518</v>
       </c>
       <c r="B520" s="2">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="C520">
-        <v>52120</v>
+        <v>51990</v>
       </c>
       <c r="D520" t="s">
         <v>3</v>
@@ -7675,10 +7675,10 @@
         <v>519</v>
       </c>
       <c r="B521" s="2">
-        <v>44141</v>
+        <v>44145</v>
       </c>
       <c r="C521">
-        <v>51640</v>
+        <v>52120</v>
       </c>
       <c r="D521" t="s">
         <v>3</v>
@@ -7689,10 +7689,10 @@
         <v>520</v>
       </c>
       <c r="B522" s="2">
-        <v>44139</v>
+        <v>44141</v>
       </c>
       <c r="C522">
-        <v>51680</v>
+        <v>51640</v>
       </c>
       <c r="D522" t="s">
         <v>3</v>
@@ -7703,10 +7703,10 @@
         <v>521</v>
       </c>
       <c r="B523" s="2">
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C523">
-        <v>51750</v>
+        <v>51680</v>
       </c>
       <c r="D523" t="s">
         <v>3</v>
@@ -7717,10 +7717,10 @@
         <v>522</v>
       </c>
       <c r="B524" s="2">
-        <v>44134</v>
+        <v>44138</v>
       </c>
       <c r="C524">
-        <v>51530</v>
+        <v>51750</v>
       </c>
       <c r="D524" t="s">
         <v>3</v>
@@ -7731,10 +7731,10 @@
         <v>523</v>
       </c>
       <c r="B525" s="2">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="C525">
-        <v>51585</v>
+        <v>51530</v>
       </c>
       <c r="D525" t="s">
         <v>3</v>
@@ -7745,10 +7745,10 @@
         <v>524</v>
       </c>
       <c r="B526" s="2">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="C526">
-        <v>51730</v>
+        <v>51585</v>
       </c>
       <c r="D526" t="s">
         <v>3</v>
@@ -7759,10 +7759,10 @@
         <v>525</v>
       </c>
       <c r="B527" s="2">
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="C527">
-        <v>51540</v>
+        <v>51730</v>
       </c>
       <c r="D527" t="s">
         <v>3</v>
@@ -7773,10 +7773,10 @@
         <v>526</v>
       </c>
       <c r="B528" s="2">
-        <v>44127</v>
+        <v>44131</v>
       </c>
       <c r="C528">
-        <v>52210</v>
+        <v>51540</v>
       </c>
       <c r="D528" t="s">
         <v>3</v>
@@ -7787,10 +7787,10 @@
         <v>527</v>
       </c>
       <c r="B529" s="2">
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="C529">
-        <v>52370</v>
+        <v>52210</v>
       </c>
       <c r="D529" t="s">
         <v>3</v>
@@ -7801,10 +7801,10 @@
         <v>528</v>
       </c>
       <c r="B530" s="2">
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="C530">
-        <v>52250</v>
+        <v>52370</v>
       </c>
       <c r="D530" t="s">
         <v>3</v>
@@ -7815,10 +7815,10 @@
         <v>529</v>
       </c>
       <c r="B531" s="2">
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="C531">
-        <v>51450</v>
+        <v>52250</v>
       </c>
       <c r="D531" t="s">
         <v>3</v>
@@ -7829,10 +7829,10 @@
         <v>530</v>
       </c>
       <c r="B532" s="2">
-        <v>44120</v>
+        <v>44124</v>
       </c>
       <c r="C532">
-        <v>51800</v>
+        <v>51450</v>
       </c>
       <c r="D532" t="s">
         <v>3</v>
@@ -7843,10 +7843,10 @@
         <v>531</v>
       </c>
       <c r="B533" s="2">
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="C533">
-        <v>51370</v>
+        <v>51800</v>
       </c>
       <c r="D533" t="s">
         <v>3</v>
@@ -7857,10 +7857,10 @@
         <v>532</v>
       </c>
       <c r="B534" s="2">
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="C534">
-        <v>51470</v>
+        <v>51370</v>
       </c>
       <c r="D534" t="s">
         <v>3</v>
@@ -7871,10 +7871,10 @@
         <v>533</v>
       </c>
       <c r="B535" s="2">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="C535">
-        <v>51540</v>
+        <v>51470</v>
       </c>
       <c r="D535" t="s">
         <v>3</v>
@@ -7885,10 +7885,10 @@
         <v>534</v>
       </c>
       <c r="B536" s="2">
-        <v>44113</v>
+        <v>44117</v>
       </c>
       <c r="C536">
-        <v>51565</v>
+        <v>51540</v>
       </c>
       <c r="D536" t="s">
         <v>3</v>
@@ -7899,10 +7899,10 @@
         <v>535</v>
       </c>
       <c r="B537" s="2">
-        <v>44104</v>
+        <v>44113</v>
       </c>
       <c r="C537">
-        <v>51185</v>
+        <v>51565</v>
       </c>
       <c r="D537" t="s">
         <v>3</v>
@@ -7913,10 +7913,10 @@
         <v>536</v>
       </c>
       <c r="B538" s="2">
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C538">
-        <v>51110</v>
+        <v>51185</v>
       </c>
       <c r="D538" t="s">
         <v>3</v>
@@ -7927,10 +7927,10 @@
         <v>537</v>
       </c>
       <c r="B539" s="2">
-        <v>44099</v>
+        <v>44103</v>
       </c>
       <c r="C539">
-        <v>50890</v>
+        <v>51110</v>
       </c>
       <c r="D539" t="s">
         <v>3</v>
@@ -7941,10 +7941,10 @@
         <v>538</v>
       </c>
       <c r="B540" s="2">
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C540">
-        <v>50745</v>
+        <v>50890</v>
       </c>
       <c r="D540" t="s">
         <v>3</v>
@@ -7955,10 +7955,10 @@
         <v>539</v>
       </c>
       <c r="B541" s="2">
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C541">
-        <v>51620</v>
+        <v>50745</v>
       </c>
       <c r="D541" t="s">
         <v>3</v>
@@ -7969,10 +7969,10 @@
         <v>540</v>
       </c>
       <c r="B542" s="2">
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C542">
-        <v>51920</v>
+        <v>51620</v>
       </c>
       <c r="D542" t="s">
         <v>3</v>
@@ -7983,10 +7983,10 @@
         <v>541</v>
       </c>
       <c r="B543" s="2">
-        <v>44092</v>
+        <v>44096</v>
       </c>
       <c r="C543">
-        <v>52210</v>
+        <v>51920</v>
       </c>
       <c r="D543" t="s">
         <v>3</v>
@@ -7997,10 +7997,10 @@
         <v>542</v>
       </c>
       <c r="B544" s="2">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C544">
-        <v>51455</v>
+        <v>52210</v>
       </c>
       <c r="D544" t="s">
         <v>3</v>
@@ -8011,10 +8011,10 @@
         <v>543</v>
       </c>
       <c r="B545" s="2">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C545">
-        <v>51900</v>
+        <v>51455</v>
       </c>
       <c r="D545" t="s">
         <v>3</v>
@@ -8025,10 +8025,10 @@
         <v>544</v>
       </c>
       <c r="B546" s="2">
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C546">
-        <v>52150</v>
+        <v>51900</v>
       </c>
       <c r="D546" t="s">
         <v>3</v>
@@ -8039,10 +8039,10 @@
         <v>545</v>
       </c>
       <c r="B547" s="2">
-        <v>44085</v>
+        <v>44089</v>
       </c>
       <c r="C547">
-        <v>51535</v>
+        <v>52150</v>
       </c>
       <c r="D547" t="s">
         <v>3</v>
@@ -8053,10 +8053,10 @@
         <v>546</v>
       </c>
       <c r="B548" s="2">
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C548">
-        <v>52130</v>
+        <v>51535</v>
       </c>
       <c r="D548" t="s">
         <v>3</v>
@@ -8067,10 +8067,10 @@
         <v>547</v>
       </c>
       <c r="B549" s="2">
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C549">
-        <v>52065</v>
+        <v>52130</v>
       </c>
       <c r="D549" t="s">
         <v>3</v>
@@ -8081,10 +8081,10 @@
         <v>548</v>
       </c>
       <c r="B550" s="2">
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C550">
-        <v>52520</v>
+        <v>52065</v>
       </c>
       <c r="D550" t="s">
         <v>3</v>
@@ -8095,10 +8095,10 @@
         <v>549</v>
       </c>
       <c r="B551" s="2">
-        <v>44078</v>
+        <v>44082</v>
       </c>
       <c r="C551">
-        <v>51495</v>
+        <v>52520</v>
       </c>
       <c r="D551" t="s">
         <v>3</v>
@@ -8109,10 +8109,10 @@
         <v>550</v>
       </c>
       <c r="B552" s="2">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C552">
-        <v>52140</v>
+        <v>51495</v>
       </c>
       <c r="D552" t="s">
         <v>3</v>
@@ -8123,10 +8123,10 @@
         <v>551</v>
       </c>
       <c r="B553" s="2">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="C553">
-        <v>51935</v>
+        <v>52140</v>
       </c>
       <c r="D553" t="s">
         <v>3</v>
@@ -8137,10 +8137,10 @@
         <v>552</v>
       </c>
       <c r="B554" s="2">
-        <v>44075</v>
+        <v>44076</v>
       </c>
       <c r="C554">
-        <v>52390</v>
+        <v>51935</v>
       </c>
       <c r="D554" t="s">
         <v>3</v>
@@ -8151,10 +8151,10 @@
         <v>553</v>
       </c>
       <c r="B555" s="2">
-        <v>44071</v>
+        <v>44075</v>
       </c>
       <c r="C555">
-        <v>51800</v>
+        <v>52390</v>
       </c>
       <c r="D555" t="s">
         <v>3</v>
@@ -8165,10 +8165,10 @@
         <v>554</v>
       </c>
       <c r="B556" s="2">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="C556">
-        <v>51420</v>
+        <v>51800</v>
       </c>
       <c r="D556" t="s">
         <v>3</v>
@@ -8179,10 +8179,10 @@
         <v>555</v>
       </c>
       <c r="B557" s="2">
-        <v>44069</v>
+        <v>44070</v>
       </c>
       <c r="C557">
-        <v>51380</v>
+        <v>51420</v>
       </c>
       <c r="D557" t="s">
         <v>3</v>
@@ -8193,10 +8193,10 @@
         <v>556</v>
       </c>
       <c r="B558" s="2">
-        <v>44068</v>
+        <v>44069</v>
       </c>
       <c r="C558">
-        <v>51370</v>
+        <v>51380</v>
       </c>
       <c r="D558" t="s">
         <v>3</v>
@@ -8207,10 +8207,10 @@
         <v>557</v>
       </c>
       <c r="B559" s="2">
-        <v>44064</v>
+        <v>44068</v>
       </c>
       <c r="C559">
-        <v>52065</v>
+        <v>51370</v>
       </c>
       <c r="D559" t="s">
         <v>3</v>
@@ -8221,10 +8221,10 @@
         <v>558</v>
       </c>
       <c r="B560" s="2">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="C560">
-        <v>52200</v>
+        <v>52065</v>
       </c>
       <c r="D560" t="s">
         <v>3</v>
@@ -8235,10 +8235,10 @@
         <v>559</v>
       </c>
       <c r="B561" s="2">
-        <v>44062</v>
+        <v>44063</v>
       </c>
       <c r="C561">
-        <v>52300</v>
+        <v>52200</v>
       </c>
       <c r="D561" t="s">
         <v>3</v>
@@ -8249,10 +8249,10 @@
         <v>560</v>
       </c>
       <c r="B562" s="2">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="C562">
-        <v>51135</v>
+        <v>52300</v>
       </c>
       <c r="D562" t="s">
         <v>3</v>
@@ -8263,10 +8263,10 @@
         <v>561</v>
       </c>
       <c r="B563" s="2">
-        <v>44057</v>
+        <v>44061</v>
       </c>
       <c r="C563">
-        <v>50040</v>
+        <v>51135</v>
       </c>
       <c r="D563" t="s">
         <v>3</v>
@@ -8277,10 +8277,10 @@
         <v>562</v>
       </c>
       <c r="B564" s="2">
-        <v>44056</v>
+        <v>44057</v>
       </c>
       <c r="C564">
-        <v>50530</v>
+        <v>50040</v>
       </c>
       <c r="D564" t="s">
         <v>3</v>
@@ -8291,10 +8291,10 @@
         <v>563</v>
       </c>
       <c r="B565" s="2">
-        <v>44055</v>
+        <v>44056</v>
       </c>
       <c r="C565">
-        <v>49980</v>
+        <v>50530</v>
       </c>
       <c r="D565" t="s">
         <v>3</v>
@@ -8305,10 +8305,10 @@
         <v>564</v>
       </c>
       <c r="B566" s="2">
-        <v>44054</v>
+        <v>44055</v>
       </c>
       <c r="C566">
-        <v>50790</v>
+        <v>49980</v>
       </c>
       <c r="D566" t="s">
         <v>3</v>
@@ -8319,10 +8319,10 @@
         <v>565</v>
       </c>
       <c r="B567" s="2">
-        <v>44050</v>
+        <v>44054</v>
       </c>
       <c r="C567">
-        <v>51440</v>
+        <v>50790</v>
       </c>
       <c r="D567" t="s">
         <v>3</v>
@@ -8333,10 +8333,10 @@
         <v>566</v>
       </c>
       <c r="B568" s="2">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="C568">
-        <v>51385</v>
+        <v>51440</v>
       </c>
       <c r="D568" t="s">
         <v>3</v>
@@ -8347,10 +8347,10 @@
         <v>567</v>
       </c>
       <c r="B569" s="2">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="C569">
-        <v>51370</v>
+        <v>51385</v>
       </c>
       <c r="D569" t="s">
         <v>3</v>
@@ -8361,10 +8361,10 @@
         <v>568</v>
       </c>
       <c r="B570" s="2">
-        <v>44047</v>
+        <v>44048</v>
       </c>
       <c r="C570">
-        <v>51675</v>
+        <v>51370</v>
       </c>
       <c r="D570" t="s">
         <v>3</v>
@@ -8375,10 +8375,10 @@
         <v>569</v>
       </c>
       <c r="B571" s="2">
-        <v>44043</v>
+        <v>44047</v>
       </c>
       <c r="C571">
-        <v>51850</v>
+        <v>51675</v>
       </c>
       <c r="D571" t="s">
         <v>3</v>
@@ -8389,10 +8389,10 @@
         <v>570</v>
       </c>
       <c r="B572" s="2">
-        <v>44042</v>
+        <v>44043</v>
       </c>
       <c r="C572">
-        <v>51890</v>
+        <v>51850</v>
       </c>
       <c r="D572" t="s">
         <v>3</v>
@@ -8403,10 +8403,10 @@
         <v>571</v>
       </c>
       <c r="B573" s="2">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="C573">
-        <v>51830</v>
+        <v>51890</v>
       </c>
       <c r="D573" t="s">
         <v>3</v>
@@ -8417,10 +8417,10 @@
         <v>572</v>
       </c>
       <c r="B574" s="2">
-        <v>44040</v>
+        <v>44041</v>
       </c>
       <c r="C574">
-        <v>51850</v>
+        <v>51830</v>
       </c>
       <c r="D574" t="s">
         <v>3</v>
@@ -8431,10 +8431,10 @@
         <v>573</v>
       </c>
       <c r="B575" s="2">
-        <v>44036</v>
+        <v>44040</v>
       </c>
       <c r="C575">
-        <v>51930</v>
+        <v>51850</v>
       </c>
       <c r="D575" t="s">
         <v>3</v>
@@ -8445,10 +8445,10 @@
         <v>574</v>
       </c>
       <c r="B576" s="2">
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="C576">
-        <v>51875</v>
+        <v>51930</v>
       </c>
       <c r="D576" t="s">
         <v>3</v>
@@ -8459,10 +8459,10 @@
         <v>575</v>
       </c>
       <c r="B577" s="2">
-        <v>44034</v>
+        <v>44035</v>
       </c>
       <c r="C577">
-        <v>52600</v>
+        <v>51875</v>
       </c>
       <c r="D577" t="s">
         <v>3</v>
@@ -8473,10 +8473,10 @@
         <v>576</v>
       </c>
       <c r="B578" s="2">
-        <v>44033</v>
+        <v>44034</v>
       </c>
       <c r="C578">
-        <v>51935</v>
+        <v>52600</v>
       </c>
       <c r="D578" t="s">
         <v>3</v>
@@ -8487,10 +8487,10 @@
         <v>577</v>
       </c>
       <c r="B579" s="2">
-        <v>44029</v>
+        <v>44033</v>
       </c>
       <c r="C579">
-        <v>51685</v>
+        <v>51935</v>
       </c>
       <c r="D579" t="s">
         <v>3</v>
@@ -8501,10 +8501,10 @@
         <v>578</v>
       </c>
       <c r="B580" s="2">
-        <v>44028</v>
+        <v>44029</v>
       </c>
       <c r="C580">
-        <v>51240</v>
+        <v>51685</v>
       </c>
       <c r="D580" t="s">
         <v>3</v>
@@ -8515,10 +8515,10 @@
         <v>579</v>
       </c>
       <c r="B581" s="2">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="C581">
-        <v>52435</v>
+        <v>51240</v>
       </c>
       <c r="D581" t="s">
         <v>3</v>
@@ -8529,10 +8529,10 @@
         <v>580</v>
       </c>
       <c r="B582" s="2">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="C582">
-        <v>52150</v>
+        <v>52435</v>
       </c>
       <c r="D582" t="s">
         <v>3</v>
@@ -8543,10 +8543,10 @@
         <v>581</v>
       </c>
       <c r="B583" s="2">
-        <v>44022</v>
+        <v>44026</v>
       </c>
       <c r="C583">
-        <v>50600</v>
+        <v>52150</v>
       </c>
       <c r="D583" t="s">
         <v>3</v>
@@ -8557,10 +8557,10 @@
         <v>582</v>
       </c>
       <c r="B584" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="C584">
-        <v>50575</v>
+        <v>50600</v>
       </c>
       <c r="D584" t="s">
         <v>3</v>
@@ -8571,10 +8571,10 @@
         <v>583</v>
       </c>
       <c r="B585" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="C585">
-        <v>49845</v>
+        <v>50575</v>
       </c>
       <c r="D585" t="s">
         <v>3</v>
@@ -8585,10 +8585,10 @@
         <v>584</v>
       </c>
       <c r="B586" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="C586">
-        <v>49610</v>
+        <v>49845</v>
       </c>
       <c r="D586" t="s">
         <v>3</v>
@@ -8599,10 +8599,10 @@
         <v>585</v>
       </c>
       <c r="B587" s="2">
-        <v>44015</v>
+        <v>44019</v>
       </c>
       <c r="C587">
-        <v>49260</v>
+        <v>49610</v>
       </c>
       <c r="D587" t="s">
         <v>3</v>
@@ -8613,10 +8613,10 @@
         <v>586</v>
       </c>
       <c r="B588" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="C588">
-        <v>49460</v>
+        <v>49260</v>
       </c>
       <c r="D588" t="s">
         <v>3</v>
@@ -8627,10 +8627,10 @@
         <v>587</v>
       </c>
       <c r="B589" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="C589">
-        <v>49450</v>
+        <v>49460</v>
       </c>
       <c r="D589" t="s">
         <v>3</v>
@@ -8641,10 +8641,10 @@
         <v>588</v>
       </c>
       <c r="B590" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="C590">
-        <v>48930</v>
+        <v>49450</v>
       </c>
       <c r="D590" t="s">
         <v>3</v>
@@ -8655,10 +8655,10 @@
         <v>589</v>
       </c>
       <c r="B591" s="2">
-        <v>44006</v>
+        <v>44012</v>
       </c>
       <c r="C591">
-        <v>48160</v>
+        <v>48930</v>
       </c>
       <c r="D591" t="s">
         <v>3</v>
@@ -8669,10 +8669,10 @@
         <v>590</v>
       </c>
       <c r="B592" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="C592">
-        <v>47880</v>
+        <v>48160</v>
       </c>
       <c r="D592" t="s">
         <v>3</v>
@@ -8683,10 +8683,10 @@
         <v>591</v>
       </c>
       <c r="B593" s="2">
-        <v>44001</v>
+        <v>44005</v>
       </c>
       <c r="C593">
-        <v>47475</v>
+        <v>47880</v>
       </c>
       <c r="D593" t="s">
         <v>3</v>
@@ -8697,10 +8697,10 @@
         <v>592</v>
       </c>
       <c r="B594" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="C594">
-        <v>47110</v>
+        <v>47475</v>
       </c>
       <c r="D594" t="s">
         <v>3</v>
@@ -8711,10 +8711,10 @@
         <v>593</v>
       </c>
       <c r="B595" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="C595">
-        <v>46910</v>
+        <v>47110</v>
       </c>
       <c r="D595" t="s">
         <v>3</v>
@@ -8725,10 +8725,10 @@
         <v>594</v>
       </c>
       <c r="B596" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="C596">
-        <v>47080</v>
+        <v>46910</v>
       </c>
       <c r="D596" t="s">
         <v>3</v>
@@ -8739,10 +8739,10 @@
         <v>595</v>
       </c>
       <c r="B597" s="2">
-        <v>43994</v>
+        <v>43998</v>
       </c>
       <c r="C597">
-        <v>46760</v>
+        <v>47080</v>
       </c>
       <c r="D597" t="s">
         <v>3</v>
@@ -8753,10 +8753,10 @@
         <v>596</v>
       </c>
       <c r="B598" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="C598">
-        <v>47425</v>
+        <v>46760</v>
       </c>
       <c r="D598" t="s">
         <v>3</v>
@@ -8767,10 +8767,10 @@
         <v>597</v>
       </c>
       <c r="B599" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="C599">
-        <v>46855</v>
+        <v>47425</v>
       </c>
       <c r="D599" t="s">
         <v>3</v>
@@ -8781,10 +8781,10 @@
         <v>598</v>
       </c>
       <c r="B600" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="C600">
-        <v>46355</v>
+        <v>46855</v>
       </c>
       <c r="D600" t="s">
         <v>3</v>
@@ -8795,10 +8795,10 @@
         <v>599</v>
       </c>
       <c r="B601" s="2">
-        <v>43987</v>
+        <v>43991</v>
       </c>
       <c r="C601">
-        <v>44990</v>
+        <v>46355</v>
       </c>
       <c r="D601" t="s">
         <v>3</v>
@@ -8809,10 +8809,10 @@
         <v>600</v>
       </c>
       <c r="B602" s="2">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="C602">
-        <v>44850</v>
+        <v>44990</v>
       </c>
       <c r="D602" t="s">
         <v>3</v>
@@ -8823,10 +8823,10 @@
         <v>601</v>
       </c>
       <c r="B603" s="2">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="C603">
-        <v>45110</v>
+        <v>44850</v>
       </c>
       <c r="D603" t="s">
         <v>3</v>
@@ -8837,10 +8837,10 @@
         <v>602</v>
       </c>
       <c r="B604" s="2">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="C604">
-        <v>44895</v>
+        <v>45110</v>
       </c>
       <c r="D604" t="s">
         <v>3</v>
@@ -8851,10 +8851,10 @@
         <v>603</v>
       </c>
       <c r="B605" s="2">
-        <v>43980</v>
+        <v>43984</v>
       </c>
       <c r="C605">
-        <v>44135</v>
+        <v>44895</v>
       </c>
       <c r="D605" t="s">
         <v>3</v>
@@ -8865,10 +8865,10 @@
         <v>604</v>
       </c>
       <c r="B606" s="2">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="C606">
-        <v>44030</v>
+        <v>44135</v>
       </c>
       <c r="D606" t="s">
         <v>3</v>
@@ -8879,10 +8879,10 @@
         <v>605</v>
       </c>
       <c r="B607" s="2">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="C607">
-        <v>44170</v>
+        <v>44030</v>
       </c>
       <c r="D607" t="s">
         <v>3</v>
@@ -8893,10 +8893,10 @@
         <v>606</v>
       </c>
       <c r="B608" s="2">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="C608">
-        <v>44030</v>
+        <v>44170</v>
       </c>
       <c r="D608" t="s">
         <v>3</v>
@@ -8907,10 +8907,10 @@
         <v>607</v>
       </c>
       <c r="B609" s="2">
-        <v>43973</v>
+        <v>43977</v>
       </c>
       <c r="C609">
-        <v>43770</v>
+        <v>44030</v>
       </c>
       <c r="D609" t="s">
         <v>3</v>
@@ -8921,10 +8921,10 @@
         <v>608</v>
       </c>
       <c r="B610" s="2">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="C610">
-        <v>44620</v>
+        <v>43770</v>
       </c>
       <c r="D610" t="s">
         <v>3</v>
@@ -8935,10 +8935,10 @@
         <v>609</v>
       </c>
       <c r="B611" s="2">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="C611">
-        <v>44040</v>
+        <v>44620</v>
       </c>
       <c r="D611" t="s">
         <v>3</v>
@@ -8949,10 +8949,10 @@
         <v>610</v>
       </c>
       <c r="B612" s="2">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="C612">
-        <v>43995</v>
+        <v>44040</v>
       </c>
       <c r="D612" t="s">
         <v>3</v>
@@ -8963,10 +8963,10 @@
         <v>611</v>
       </c>
       <c r="B613" s="2">
-        <v>43966</v>
+        <v>43970</v>
       </c>
       <c r="C613">
-        <v>43325</v>
+        <v>43995</v>
       </c>
       <c r="D613" t="s">
         <v>3</v>
@@ -8977,10 +8977,10 @@
         <v>612</v>
       </c>
       <c r="B614" s="2">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="C614">
-        <v>43150</v>
+        <v>43325</v>
       </c>
       <c r="D614" t="s">
         <v>3</v>
@@ -8991,10 +8991,10 @@
         <v>613</v>
       </c>
       <c r="B615" s="2">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="C615">
-        <v>43080</v>
+        <v>43150</v>
       </c>
       <c r="D615" t="s">
         <v>3</v>
@@ -9005,10 +9005,10 @@
         <v>614</v>
       </c>
       <c r="B616" s="2">
-        <v>43959</v>
+        <v>43964</v>
       </c>
       <c r="C616">
-        <v>43600</v>
+        <v>43080</v>
       </c>
       <c r="D616" t="s">
         <v>3</v>
@@ -9019,10 +9019,10 @@
         <v>615</v>
       </c>
       <c r="B617" s="2">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="C617">
-        <v>43030</v>
+        <v>43600</v>
       </c>
       <c r="D617" t="s">
         <v>3</v>
@@ -9033,7 +9033,7 @@
         <v>616</v>
       </c>
       <c r="B618" s="2">
-        <v>43951</v>
+        <v>43958</v>
       </c>
       <c r="C618">
         <v>43030</v>
@@ -9047,10 +9047,10 @@
         <v>617</v>
       </c>
       <c r="B619" s="2">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C619">
-        <v>42810</v>
+        <v>43030</v>
       </c>
       <c r="D619" t="s">
         <v>3</v>
@@ -9061,10 +9061,10 @@
         <v>618</v>
       </c>
       <c r="B620" s="2">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="C620">
-        <v>42480</v>
+        <v>42810</v>
       </c>
       <c r="D620" t="s">
         <v>3</v>
@@ -9075,10 +9075,10 @@
         <v>619</v>
       </c>
       <c r="B621" s="2">
-        <v>43945</v>
+        <v>43949</v>
       </c>
       <c r="C621">
-        <v>42120</v>
+        <v>42480</v>
       </c>
       <c r="D621" t="s">
         <v>3</v>
@@ -9089,10 +9089,10 @@
         <v>620</v>
       </c>
       <c r="B622" s="2">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="C622">
-        <v>41980</v>
+        <v>42120</v>
       </c>
       <c r="D622" t="s">
         <v>3</v>
@@ -9103,10 +9103,10 @@
         <v>621</v>
       </c>
       <c r="B623" s="2">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="C623">
-        <v>40995</v>
+        <v>41980</v>
       </c>
       <c r="D623" t="s">
         <v>3</v>
@@ -9117,10 +9117,10 @@
         <v>622</v>
       </c>
       <c r="B624" s="2">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="C624">
-        <v>42060</v>
+        <v>40995</v>
       </c>
       <c r="D624" t="s">
         <v>3</v>
@@ -9131,10 +9131,10 @@
         <v>623</v>
       </c>
       <c r="B625" s="2">
-        <v>43938</v>
+        <v>43942</v>
       </c>
       <c r="C625">
-        <v>42470</v>
+        <v>42060</v>
       </c>
       <c r="D625" t="s">
         <v>3</v>
@@ -9145,10 +9145,10 @@
         <v>624</v>
       </c>
       <c r="B626" s="2">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="C626">
-        <v>41775</v>
+        <v>42470</v>
       </c>
       <c r="D626" t="s">
         <v>3</v>
@@ -9159,10 +9159,10 @@
         <v>625</v>
       </c>
       <c r="B627" s="2">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="C627">
-        <v>41860</v>
+        <v>41775</v>
       </c>
       <c r="D627" t="s">
         <v>3</v>
@@ -9173,10 +9173,10 @@
         <v>626</v>
       </c>
       <c r="B628" s="2">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="C628">
-        <v>41970</v>
+        <v>41860</v>
       </c>
       <c r="D628" t="s">
         <v>3</v>
@@ -9187,10 +9187,10 @@
         <v>627</v>
       </c>
       <c r="B629" s="2">
-        <v>43931</v>
+        <v>43935</v>
       </c>
       <c r="C629">
-        <v>40990</v>
+        <v>41970</v>
       </c>
       <c r="D629" t="s">
         <v>3</v>
@@ -9201,10 +9201,10 @@
         <v>628</v>
       </c>
       <c r="B630" s="2">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="C630">
-        <v>40950</v>
+        <v>40990</v>
       </c>
       <c r="D630" t="s">
         <v>3</v>
@@ -9215,10 +9215,10 @@
         <v>629</v>
       </c>
       <c r="B631" s="2">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="C631">
-        <v>40765</v>
+        <v>40950</v>
       </c>
       <c r="D631" t="s">
         <v>3</v>
@@ -9229,10 +9229,10 @@
         <v>630</v>
       </c>
       <c r="B632" s="2">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="C632">
-        <v>40840</v>
+        <v>40765</v>
       </c>
       <c r="D632" t="s">
         <v>3</v>
@@ -9243,10 +9243,10 @@
         <v>631</v>
       </c>
       <c r="B633" s="2">
-        <v>43917</v>
+        <v>43928</v>
       </c>
       <c r="C633">
-        <v>38865</v>
+        <v>40840</v>
       </c>
       <c r="D633" t="s">
         <v>3</v>
@@ -9257,10 +9257,10 @@
         <v>632</v>
       </c>
       <c r="B634" s="2">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="C634">
-        <v>38970</v>
+        <v>38865</v>
       </c>
       <c r="D634" t="s">
         <v>3</v>
@@ -9271,10 +9271,10 @@
         <v>633</v>
       </c>
       <c r="B635" s="2">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="C635">
-        <v>38750</v>
+        <v>38970</v>
       </c>
       <c r="D635" t="s">
         <v>3</v>
@@ -9285,10 +9285,10 @@
         <v>634</v>
       </c>
       <c r="B636" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="C636">
-        <v>37890</v>
+        <v>38750</v>
       </c>
       <c r="D636" t="s">
         <v>3</v>
@@ -9299,10 +9299,10 @@
         <v>635</v>
       </c>
       <c r="B637" s="2">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="C637">
-        <v>38290</v>
+        <v>37890</v>
       </c>
       <c r="D637" t="s">
         <v>3</v>
@@ -9313,10 +9313,10 @@
         <v>636</v>
       </c>
       <c r="B638" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="C638">
-        <v>37545</v>
+        <v>38290</v>
       </c>
       <c r="D638" t="s">
         <v>3</v>
@@ -9327,10 +9327,10 @@
         <v>637</v>
       </c>
       <c r="B639" s="2">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="C639">
-        <v>41400</v>
+        <v>37545</v>
       </c>
       <c r="D639" t="s">
         <v>3</v>
@@ -9341,10 +9341,10 @@
         <v>638</v>
       </c>
       <c r="B640" s="2">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="C640">
-        <v>42145</v>
+        <v>41400</v>
       </c>
       <c r="D640" t="s">
         <v>3</v>
@@ -9355,10 +9355,10 @@
         <v>639</v>
       </c>
       <c r="B641" s="2">
-        <v>43903</v>
+        <v>43907</v>
       </c>
       <c r="C641">
-        <v>42755</v>
+        <v>42145</v>
       </c>
       <c r="D641" t="s">
         <v>3</v>
@@ -9369,10 +9369,10 @@
         <v>640</v>
       </c>
       <c r="B642" s="2">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="C642">
-        <v>43185</v>
+        <v>42755</v>
       </c>
       <c r="D642" t="s">
         <v>3</v>
@@ -9383,10 +9383,10 @@
         <v>641</v>
       </c>
       <c r="B643" s="2">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="C643">
-        <v>44280</v>
+        <v>43185</v>
       </c>
       <c r="D643" t="s">
         <v>3</v>
@@ -9397,10 +9397,10 @@
         <v>642</v>
       </c>
       <c r="B644" s="2">
-        <v>43896</v>
+        <v>43901</v>
       </c>
       <c r="C644">
-        <v>44725</v>
+        <v>44280</v>
       </c>
       <c r="D644" t="s">
         <v>3</v>
@@ -9411,10 +9411,10 @@
         <v>643</v>
       </c>
       <c r="B645" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="C645">
-        <v>45055</v>
+        <v>44725</v>
       </c>
       <c r="D645" t="s">
         <v>3</v>
@@ -9425,10 +9425,10 @@
         <v>644</v>
       </c>
       <c r="B646" s="2">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="C646">
-        <v>45005</v>
+        <v>45055</v>
       </c>
       <c r="D646" t="s">
         <v>3</v>
@@ -9439,10 +9439,10 @@
         <v>645</v>
       </c>
       <c r="B647" s="2">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="C647">
-        <v>45345</v>
+        <v>45005</v>
       </c>
       <c r="D647" t="s">
         <v>3</v>
@@ -9453,10 +9453,10 @@
         <v>646</v>
       </c>
       <c r="B648" s="2">
-        <v>43889</v>
+        <v>43893</v>
       </c>
       <c r="C648">
-        <v>44630</v>
+        <v>45345</v>
       </c>
       <c r="D648" t="s">
         <v>3</v>
@@ -9467,10 +9467,10 @@
         <v>647</v>
       </c>
       <c r="B649" s="2">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="C649">
-        <v>45190</v>
+        <v>44630</v>
       </c>
       <c r="D649" t="s">
         <v>3</v>
@@ -9481,10 +9481,10 @@
         <v>648</v>
       </c>
       <c r="B650" s="2">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="C650">
-        <v>45360</v>
+        <v>45190</v>
       </c>
       <c r="D650" t="s">
         <v>3</v>
@@ -9495,10 +9495,10 @@
         <v>649</v>
       </c>
       <c r="B651" s="2">
-        <v>43882</v>
+        <v>43887</v>
       </c>
       <c r="C651">
-        <v>45910</v>
+        <v>45360</v>
       </c>
       <c r="D651" t="s">
         <v>3</v>
@@ -9509,10 +9509,10 @@
         <v>650</v>
       </c>
       <c r="B652" s="2">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="C652">
-        <v>46010</v>
+        <v>45910</v>
       </c>
       <c r="D652" t="s">
         <v>3</v>
@@ -9523,10 +9523,10 @@
         <v>651</v>
       </c>
       <c r="B653" s="2">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="C653">
-        <v>45990</v>
+        <v>46010</v>
       </c>
       <c r="D653" t="s">
         <v>3</v>
@@ -9537,10 +9537,10 @@
         <v>652</v>
       </c>
       <c r="B654" s="2">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="C654">
-        <v>45955</v>
+        <v>45990</v>
       </c>
       <c r="D654" t="s">
         <v>3</v>
@@ -9551,10 +9551,10 @@
         <v>653</v>
       </c>
       <c r="B655" s="2">
-        <v>43875</v>
+        <v>43879</v>
       </c>
       <c r="C655">
-        <v>45655</v>
+        <v>45955</v>
       </c>
       <c r="D655" t="s">
         <v>3</v>
@@ -9565,10 +9565,10 @@
         <v>654</v>
       </c>
       <c r="B656" s="2">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="C656">
-        <v>45490</v>
+        <v>45655</v>
       </c>
       <c r="D656" t="s">
         <v>3</v>
@@ -9579,10 +9579,10 @@
         <v>655</v>
       </c>
       <c r="B657" s="2">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="C657">
-        <v>45385</v>
+        <v>45490</v>
       </c>
       <c r="D657" t="s">
         <v>3</v>
@@ -9593,10 +9593,10 @@
         <v>656</v>
       </c>
       <c r="B658" s="2">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="C658">
-        <v>45370</v>
+        <v>45385</v>
       </c>
       <c r="D658" t="s">
         <v>3</v>
@@ -9607,10 +9607,10 @@
         <v>657</v>
       </c>
       <c r="B659" s="2">
-        <v>43868</v>
+        <v>43872</v>
       </c>
       <c r="C659">
-        <v>45590</v>
+        <v>45370</v>
       </c>
       <c r="D659" t="s">
         <v>3</v>
@@ -9621,10 +9621,10 @@
         <v>658</v>
       </c>
       <c r="B660" s="2">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="C660">
-        <v>45795</v>
+        <v>45590</v>
       </c>
       <c r="D660" t="s">
         <v>3</v>
@@ -9635,10 +9635,10 @@
         <v>659</v>
       </c>
       <c r="B661" s="2">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="C661">
-        <v>45230</v>
+        <v>45795</v>
       </c>
       <c r="D661" t="s">
         <v>3</v>
@@ -9649,10 +9649,10 @@
         <v>660</v>
       </c>
       <c r="B662" s="2">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="C662">
-        <v>44940</v>
+        <v>45230</v>
       </c>
       <c r="D662" t="s">
         <v>3</v>
@@ -9663,10 +9663,10 @@
         <v>661</v>
       </c>
       <c r="B663" s="2">
-        <v>43853</v>
+        <v>43865</v>
       </c>
       <c r="C663">
-        <v>47995</v>
+        <v>44940</v>
       </c>
       <c r="D663" t="s">
         <v>3</v>
@@ -9677,10 +9677,10 @@
         <v>662</v>
       </c>
       <c r="B664" s="2">
-        <v>43852</v>
+        <v>43853</v>
       </c>
       <c r="C664">
-        <v>48235</v>
+        <v>47995</v>
       </c>
       <c r="D664" t="s">
         <v>3</v>
@@ -9691,10 +9691,10 @@
         <v>663</v>
       </c>
       <c r="B665" s="2">
-        <v>43851</v>
+        <v>43852</v>
       </c>
       <c r="C665">
-        <v>48425</v>
+        <v>48235</v>
       </c>
       <c r="D665" t="s">
         <v>3</v>
@@ -9705,10 +9705,10 @@
         <v>664</v>
       </c>
       <c r="B666" s="2">
-        <v>43847</v>
+        <v>43851</v>
       </c>
       <c r="C666">
-        <v>48930</v>
+        <v>48425</v>
       </c>
       <c r="D666" t="s">
         <v>3</v>
@@ -9719,10 +9719,10 @@
         <v>665</v>
       </c>
       <c r="B667" s="2">
-        <v>43846</v>
+        <v>43847</v>
       </c>
       <c r="C667">
-        <v>48950</v>
+        <v>48930</v>
       </c>
       <c r="D667" t="s">
         <v>3</v>
@@ -9733,10 +9733,10 @@
         <v>666</v>
       </c>
       <c r="B668" s="2">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="C668">
-        <v>49060</v>
+        <v>48950</v>
       </c>
       <c r="D668" t="s">
         <v>3</v>
@@ -9747,10 +9747,10 @@
         <v>667</v>
       </c>
       <c r="B669" s="2">
-        <v>43844</v>
+        <v>43845</v>
       </c>
       <c r="C669">
-        <v>48990</v>
+        <v>49060</v>
       </c>
       <c r="D669" t="s">
         <v>3</v>
@@ -9761,12 +9761,26 @@
         <v>668</v>
       </c>
       <c r="B670" s="2">
+        <v>43844</v>
+      </c>
+      <c r="C670">
+        <v>48990</v>
+      </c>
+      <c r="D670" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4">
+      <c r="A671" s="1">
+        <v>669</v>
+      </c>
+      <c r="B671" s="2">
         <v>43840</v>
       </c>
-      <c r="C670">
+      <c r="C671">
         <v>48605</v>
       </c>
-      <c r="D670" t="s">
+      <c r="D671" t="s">
         <v>3</v>
       </c>
     </row>

--- a/LME/parser_beta/data/shmet_historical.xlsx
+++ b/LME/parser_beta/data/shmet_historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="4">
   <si>
     <t>date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D671"/>
+  <dimension ref="A1:D672"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,10 +409,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="C2">
-        <v>68260</v>
+        <v>68840</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -423,10 +423,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="C3">
-        <v>68270</v>
+        <v>68260</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -437,10 +437,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="C4">
-        <v>68590</v>
+        <v>68270</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -451,7 +451,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>45152</v>
+        <v>45153</v>
       </c>
       <c r="C5">
         <v>68590</v>
@@ -465,10 +465,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45149</v>
+        <v>45152</v>
       </c>
       <c r="C6">
-        <v>68690</v>
+        <v>68590</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -479,10 +479,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="C7">
-        <v>68740</v>
+        <v>68690</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -493,10 +493,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="C8">
-        <v>68710</v>
+        <v>68740</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -507,10 +507,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="C9">
-        <v>69130</v>
+        <v>68710</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="C10">
-        <v>69290</v>
+        <v>69130</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -535,10 +535,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>45142</v>
+        <v>45145</v>
       </c>
       <c r="C11">
-        <v>69875</v>
+        <v>69290</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -549,10 +549,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="C12">
-        <v>69425</v>
+        <v>69875</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -563,10 +563,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="C13">
-        <v>69990</v>
+        <v>69425</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -577,10 +577,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="C14">
-        <v>70925</v>
+        <v>69990</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -591,10 +591,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="C15">
-        <v>69830</v>
+        <v>70925</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -605,10 +605,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>45135</v>
+        <v>45138</v>
       </c>
       <c r="C16">
-        <v>68950</v>
+        <v>69830</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -619,10 +619,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="C17">
-        <v>69460</v>
+        <v>68950</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
@@ -633,10 +633,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="C18">
-        <v>69200</v>
+        <v>69460</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -647,10 +647,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="C19">
-        <v>68980</v>
+        <v>69200</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -661,10 +661,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>45128</v>
+        <v>45132</v>
       </c>
       <c r="C20">
-        <v>68670</v>
+        <v>68980</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -675,10 +675,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="C21">
-        <v>68650</v>
+        <v>68670</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -689,10 +689,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="C22">
-        <v>68580</v>
+        <v>68650</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -703,10 +703,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="C23">
-        <v>68750</v>
+        <v>68580</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
@@ -717,10 +717,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>45121</v>
+        <v>45125</v>
       </c>
       <c r="C24">
-        <v>69825</v>
+        <v>68750</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
@@ -731,10 +731,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="C25">
-        <v>68760</v>
+        <v>69825</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
@@ -745,10 +745,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="C26">
-        <v>68040</v>
+        <v>68760</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
@@ -759,10 +759,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="C27">
-        <v>68370</v>
+        <v>68040</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
@@ -773,10 +773,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>45114</v>
+        <v>45118</v>
       </c>
       <c r="C28">
-        <v>68150</v>
+        <v>68370</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
@@ -787,10 +787,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="C29">
-        <v>68300</v>
+        <v>68150</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
@@ -801,10 +801,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="C30">
-        <v>68500</v>
+        <v>68300</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
@@ -815,10 +815,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="C31">
-        <v>68775</v>
+        <v>68500</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
@@ -829,10 +829,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>45107</v>
+        <v>45111</v>
       </c>
       <c r="C32">
-        <v>68000</v>
+        <v>68775</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
@@ -843,10 +843,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="C33">
-        <v>68025</v>
+        <v>68000</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -857,10 +857,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="C34">
-        <v>68300</v>
+        <v>68025</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="C35">
-        <v>68660</v>
+        <v>68300</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
@@ -885,10 +885,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>45098</v>
+        <v>45104</v>
       </c>
       <c r="C36">
-        <v>69650</v>
+        <v>68660</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
@@ -899,10 +899,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="C37">
-        <v>69100</v>
+        <v>69650</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
@@ -913,10 +913,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>45093</v>
+        <v>45097</v>
       </c>
       <c r="C38">
-        <v>68960</v>
+        <v>69100</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
@@ -927,10 +927,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="C39">
-        <v>68275</v>
+        <v>68960</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
@@ -941,10 +941,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="C40">
-        <v>68350</v>
+        <v>68275</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
@@ -955,10 +955,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>45086</v>
+        <v>45091</v>
       </c>
       <c r="C41">
-        <v>67370</v>
+        <v>68350</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
@@ -969,10 +969,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="C42">
-        <v>67180</v>
+        <v>67370</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="C43">
-        <v>67300</v>
+        <v>67180</v>
       </c>
       <c r="D43" t="s">
         <v>3</v>
@@ -997,10 +997,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="C44">
-        <v>67160</v>
+        <v>67300</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
@@ -1011,10 +1011,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>45079</v>
+        <v>45083</v>
       </c>
       <c r="C45">
-        <v>66425</v>
+        <v>67160</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
@@ -1025,10 +1025,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="C46">
-        <v>65850</v>
+        <v>66425</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
@@ -1039,10 +1039,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="C47">
-        <v>65260</v>
+        <v>65850</v>
       </c>
       <c r="D47" t="s">
         <v>3</v>
@@ -1053,10 +1053,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="C48">
-        <v>65600</v>
+        <v>65260</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
@@ -1067,10 +1067,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>45072</v>
+        <v>45076</v>
       </c>
       <c r="C49">
-        <v>64150</v>
+        <v>65600</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
@@ -1081,10 +1081,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="C50">
-        <v>63750</v>
+        <v>64150</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
@@ -1095,10 +1095,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>45070</v>
+        <v>45071</v>
       </c>
       <c r="C51">
-        <v>64300</v>
+        <v>63750</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
@@ -1109,10 +1109,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="C52">
-        <v>65280</v>
+        <v>64300</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
@@ -1123,10 +1123,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>45065</v>
+        <v>45069</v>
       </c>
       <c r="C53">
-        <v>65675</v>
+        <v>65280</v>
       </c>
       <c r="D53" t="s">
         <v>3</v>
@@ -1137,10 +1137,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="C54">
-        <v>66025</v>
+        <v>65675</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
@@ -1151,10 +1151,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="C55">
-        <v>64680</v>
+        <v>66025</v>
       </c>
       <c r="D55" t="s">
         <v>3</v>
@@ -1165,10 +1165,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="C56">
-        <v>65200</v>
+        <v>64680</v>
       </c>
       <c r="D56" t="s">
         <v>3</v>
@@ -1179,10 +1179,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>45058</v>
+        <v>45062</v>
       </c>
       <c r="C57">
-        <v>64690</v>
+        <v>65200</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
@@ -1193,10 +1193,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="C58">
-        <v>66590</v>
+        <v>64690</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
@@ -1207,10 +1207,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>45051</v>
+        <v>45057</v>
       </c>
       <c r="C59">
-        <v>66675</v>
+        <v>66590</v>
       </c>
       <c r="D59" t="s">
         <v>3</v>
@@ -1221,10 +1221,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="C60">
-        <v>67290</v>
+        <v>66675</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
@@ -1235,10 +1235,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>45044</v>
+        <v>45050</v>
       </c>
       <c r="C61">
-        <v>67420</v>
+        <v>67290</v>
       </c>
       <c r="D61" t="s">
         <v>3</v>
@@ -1249,10 +1249,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="C62">
-        <v>66625</v>
+        <v>67420</v>
       </c>
       <c r="D62" t="s">
         <v>3</v>
@@ -1263,10 +1263,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="C63">
-        <v>67540</v>
+        <v>66625</v>
       </c>
       <c r="D63" t="s">
         <v>3</v>
@@ -1277,10 +1277,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="C64">
-        <v>68290</v>
+        <v>67540</v>
       </c>
       <c r="D64" t="s">
         <v>3</v>
@@ -1291,10 +1291,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>45037</v>
+        <v>45041</v>
       </c>
       <c r="C65">
-        <v>68890</v>
+        <v>68290</v>
       </c>
       <c r="D65" t="s">
         <v>3</v>
@@ -1305,10 +1305,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="C66">
-        <v>69500</v>
+        <v>68890</v>
       </c>
       <c r="D66" t="s">
         <v>3</v>
@@ -1319,10 +1319,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="C67">
-        <v>69680</v>
+        <v>69500</v>
       </c>
       <c r="D67" t="s">
         <v>3</v>
@@ -1333,10 +1333,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="C68">
-        <v>69650</v>
+        <v>69680</v>
       </c>
       <c r="D68" t="s">
         <v>3</v>
@@ -1347,10 +1347,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>45030</v>
+        <v>45034</v>
       </c>
       <c r="C69">
-        <v>70310</v>
+        <v>69650</v>
       </c>
       <c r="D69" t="s">
         <v>3</v>
@@ -1361,10 +1361,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="C70">
-        <v>69405</v>
+        <v>70310</v>
       </c>
       <c r="D70" t="s">
         <v>3</v>
@@ -1375,10 +1375,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="C71">
-        <v>69150</v>
+        <v>69405</v>
       </c>
       <c r="D71" t="s">
         <v>3</v>
@@ -1389,10 +1389,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="C72">
-        <v>68580</v>
+        <v>69150</v>
       </c>
       <c r="D72" t="s">
         <v>3</v>
@@ -1403,10 +1403,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>45023</v>
+        <v>45027</v>
       </c>
       <c r="C73">
-        <v>68875</v>
+        <v>68580</v>
       </c>
       <c r="D73" t="s">
         <v>3</v>
@@ -1417,10 +1417,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="C74">
-        <v>68830</v>
+        <v>68875</v>
       </c>
       <c r="D74" t="s">
         <v>3</v>
@@ -1431,10 +1431,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>45020</v>
+        <v>45022</v>
       </c>
       <c r="C75">
-        <v>69225</v>
+        <v>68830</v>
       </c>
       <c r="D75" t="s">
         <v>3</v>
@@ -1445,10 +1445,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>45016</v>
+        <v>45020</v>
       </c>
       <c r="C76">
-        <v>69650</v>
+        <v>69225</v>
       </c>
       <c r="D76" t="s">
         <v>3</v>
@@ -1459,10 +1459,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="C77">
-        <v>69620</v>
+        <v>69650</v>
       </c>
       <c r="D77" t="s">
         <v>3</v>
@@ -1473,10 +1473,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="C78">
-        <v>69580</v>
+        <v>69620</v>
       </c>
       <c r="D78" t="s">
         <v>3</v>
@@ -1487,10 +1487,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="C79">
-        <v>69770</v>
+        <v>69580</v>
       </c>
       <c r="D79" t="s">
         <v>3</v>
@@ -1501,10 +1501,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>45009</v>
+        <v>45013</v>
       </c>
       <c r="C80">
-        <v>69230</v>
+        <v>69770</v>
       </c>
       <c r="D80" t="s">
         <v>3</v>
@@ -1515,10 +1515,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="C81">
-        <v>68630</v>
+        <v>69230</v>
       </c>
       <c r="D81" t="s">
         <v>3</v>
@@ -1529,10 +1529,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="C82">
-        <v>68100</v>
+        <v>68630</v>
       </c>
       <c r="D82" t="s">
         <v>3</v>
@@ -1543,10 +1543,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="C83">
-        <v>67575</v>
+        <v>68100</v>
       </c>
       <c r="D83" t="s">
         <v>3</v>
@@ -1557,10 +1557,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>45002</v>
+        <v>45006</v>
       </c>
       <c r="C84">
-        <v>67340</v>
+        <v>67575</v>
       </c>
       <c r="D84" t="s">
         <v>3</v>
@@ -1571,10 +1571,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="C85">
-        <v>67100</v>
+        <v>67340</v>
       </c>
       <c r="D85" t="s">
         <v>3</v>
@@ -1585,10 +1585,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="C86">
-        <v>68925</v>
+        <v>67100</v>
       </c>
       <c r="D86" t="s">
         <v>3</v>
@@ -1599,10 +1599,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="C87">
-        <v>68600</v>
+        <v>68925</v>
       </c>
       <c r="D87" t="s">
         <v>3</v>
@@ -1613,10 +1613,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>44995</v>
+        <v>44999</v>
       </c>
       <c r="C88">
-        <v>69025</v>
+        <v>68600</v>
       </c>
       <c r="D88" t="s">
         <v>3</v>
@@ -1627,10 +1627,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>44993</v>
+        <v>44995</v>
       </c>
       <c r="C89">
-        <v>68840</v>
+        <v>69025</v>
       </c>
       <c r="D89" t="s">
         <v>3</v>
@@ -1641,10 +1641,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="C90">
-        <v>69610</v>
+        <v>68840</v>
       </c>
       <c r="D90" t="s">
         <v>3</v>
@@ -1655,10 +1655,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="C91">
-        <v>69400</v>
+        <v>69610</v>
       </c>
       <c r="D91" t="s">
         <v>3</v>
@@ -1669,10 +1669,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="C92">
-        <v>69865</v>
+        <v>69400</v>
       </c>
       <c r="D92" t="s">
         <v>3</v>
@@ -1683,10 +1683,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="C93">
-        <v>69710</v>
+        <v>69865</v>
       </c>
       <c r="D93" t="s">
         <v>3</v>
@@ -1697,10 +1697,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="C94">
-        <v>68550</v>
+        <v>69710</v>
       </c>
       <c r="D94" t="s">
         <v>3</v>
@@ -1711,10 +1711,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="C95">
-        <v>70050</v>
+        <v>68550</v>
       </c>
       <c r="D95" t="s">
         <v>3</v>
@@ -1725,10 +1725,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="C96">
-        <v>70400</v>
+        <v>70050</v>
       </c>
       <c r="D96" t="s">
         <v>3</v>
@@ -1739,10 +1739,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="C97">
-        <v>69705</v>
+        <v>70400</v>
       </c>
       <c r="D97" t="s">
         <v>3</v>
@@ -1753,10 +1753,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>44974</v>
+        <v>44978</v>
       </c>
       <c r="C98">
-        <v>69080</v>
+        <v>69705</v>
       </c>
       <c r="D98" t="s">
         <v>3</v>
@@ -1767,10 +1767,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="C99">
-        <v>68370</v>
+        <v>69080</v>
       </c>
       <c r="D99" t="s">
         <v>3</v>
@@ -1781,10 +1781,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="C100">
-        <v>68950</v>
+        <v>68370</v>
       </c>
       <c r="D100" t="s">
         <v>3</v>
@@ -1795,10 +1795,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="C101">
-        <v>68510</v>
+        <v>68950</v>
       </c>
       <c r="D101" t="s">
         <v>3</v>
@@ -1809,10 +1809,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="2">
-        <v>44967</v>
+        <v>44971</v>
       </c>
       <c r="C102">
-        <v>68225</v>
+        <v>68510</v>
       </c>
       <c r="D102" t="s">
         <v>3</v>
@@ -1823,10 +1823,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="2">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="C103">
-        <v>68240</v>
+        <v>68225</v>
       </c>
       <c r="D103" t="s">
         <v>3</v>
@@ -1837,10 +1837,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="C104">
-        <v>68250</v>
+        <v>68240</v>
       </c>
       <c r="D104" t="s">
         <v>3</v>
@@ -1851,10 +1851,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="C105">
-        <v>67860</v>
+        <v>68250</v>
       </c>
       <c r="D105" t="s">
         <v>3</v>
@@ -1865,10 +1865,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="2">
-        <v>44960</v>
+        <v>44964</v>
       </c>
       <c r="C106">
-        <v>68425</v>
+        <v>67860</v>
       </c>
       <c r="D106" t="s">
         <v>3</v>
@@ -1879,10 +1879,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="2">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="C107">
-        <v>69070</v>
+        <v>68425</v>
       </c>
       <c r="D107" t="s">
         <v>3</v>
@@ -1893,10 +1893,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="2">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="C108">
-        <v>69560</v>
+        <v>69070</v>
       </c>
       <c r="D108" t="s">
         <v>3</v>
@@ -1907,10 +1907,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="2">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="C109">
-        <v>69425</v>
+        <v>69560</v>
       </c>
       <c r="D109" t="s">
         <v>3</v>
@@ -1921,10 +1921,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="2">
-        <v>44946</v>
+        <v>44957</v>
       </c>
       <c r="C110">
-        <v>70150</v>
+        <v>69425</v>
       </c>
       <c r="D110" t="s">
         <v>3</v>
@@ -1935,10 +1935,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="2">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="C111">
-        <v>69570</v>
+        <v>70150</v>
       </c>
       <c r="D111" t="s">
         <v>3</v>
@@ -1949,10 +1949,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="2">
-        <v>44944</v>
+        <v>44945</v>
       </c>
       <c r="C112">
-        <v>69750</v>
+        <v>69570</v>
       </c>
       <c r="D112" t="s">
         <v>3</v>
@@ -1963,10 +1963,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>44943</v>
+        <v>44944</v>
       </c>
       <c r="C113">
-        <v>68410</v>
+        <v>69750</v>
       </c>
       <c r="D113" t="s">
         <v>3</v>
@@ -1977,10 +1977,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>44939</v>
+        <v>44943</v>
       </c>
       <c r="C114">
-        <v>68725</v>
+        <v>68410</v>
       </c>
       <c r="D114" t="s">
         <v>3</v>
@@ -1991,10 +1991,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="C115">
-        <v>68430</v>
+        <v>68725</v>
       </c>
       <c r="D115" t="s">
         <v>3</v>
@@ -2005,10 +2005,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="C116">
-        <v>67500</v>
+        <v>68430</v>
       </c>
       <c r="D116" t="s">
         <v>3</v>
@@ -2019,10 +2019,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="C117">
-        <v>66475</v>
+        <v>67500</v>
       </c>
       <c r="D117" t="s">
         <v>3</v>
@@ -2033,10 +2033,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>44925</v>
+        <v>44936</v>
       </c>
       <c r="C118">
-        <v>66175</v>
+        <v>66475</v>
       </c>
       <c r="D118" t="s">
         <v>3</v>
@@ -2047,10 +2047,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="C119">
-        <v>66200</v>
+        <v>66175</v>
       </c>
       <c r="D119" t="s">
         <v>3</v>
@@ -2061,10 +2061,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="C120">
-        <v>66270</v>
+        <v>66200</v>
       </c>
       <c r="D120" t="s">
         <v>3</v>
@@ -2075,10 +2075,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>44922</v>
+        <v>44923</v>
       </c>
       <c r="C121">
-        <v>66400</v>
+        <v>66270</v>
       </c>
       <c r="D121" t="s">
         <v>3</v>
@@ -2089,10 +2089,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>44918</v>
+        <v>44922</v>
       </c>
       <c r="C122">
-        <v>66000</v>
+        <v>66400</v>
       </c>
       <c r="D122" t="s">
         <v>3</v>
@@ -2103,10 +2103,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="C123">
-        <v>66750</v>
+        <v>66000</v>
       </c>
       <c r="D123" t="s">
         <v>3</v>
@@ -2117,10 +2117,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="C124">
-        <v>66225</v>
+        <v>66750</v>
       </c>
       <c r="D124" t="s">
         <v>3</v>
@@ -2131,10 +2131,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="C125">
-        <v>65575</v>
+        <v>66225</v>
       </c>
       <c r="D125" t="s">
         <v>3</v>
@@ -2145,10 +2145,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>44911</v>
+        <v>44915</v>
       </c>
       <c r="C126">
-        <v>65750</v>
+        <v>65575</v>
       </c>
       <c r="D126" t="s">
         <v>3</v>
@@ -2159,10 +2159,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="C127">
-        <v>66125</v>
+        <v>65750</v>
       </c>
       <c r="D127" t="s">
         <v>3</v>
@@ -2173,10 +2173,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>44909</v>
+        <v>44910</v>
       </c>
       <c r="C128">
-        <v>66625</v>
+        <v>66125</v>
       </c>
       <c r="D128" t="s">
         <v>3</v>
@@ -2187,10 +2187,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="C129">
-        <v>66175</v>
+        <v>66625</v>
       </c>
       <c r="D129" t="s">
         <v>3</v>
@@ -2201,10 +2201,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>44904</v>
+        <v>44908</v>
       </c>
       <c r="C130">
-        <v>67000</v>
+        <v>66175</v>
       </c>
       <c r="D130" t="s">
         <v>3</v>
@@ -2215,10 +2215,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="C131">
-        <v>66290</v>
+        <v>67000</v>
       </c>
       <c r="D131" t="s">
         <v>3</v>
@@ -2229,10 +2229,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="C132">
-        <v>66225</v>
+        <v>66290</v>
       </c>
       <c r="D132" t="s">
         <v>3</v>
@@ -2243,10 +2243,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="C133">
-        <v>66575</v>
+        <v>66225</v>
       </c>
       <c r="D133" t="s">
         <v>3</v>
@@ -2257,10 +2257,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>44897</v>
+        <v>44901</v>
       </c>
       <c r="C134">
-        <v>66400</v>
+        <v>66575</v>
       </c>
       <c r="D134" t="s">
         <v>3</v>
@@ -2271,10 +2271,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="C135">
-        <v>66380</v>
+        <v>66400</v>
       </c>
       <c r="D135" t="s">
         <v>3</v>
@@ -2285,10 +2285,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="C136">
-        <v>65290</v>
+        <v>66380</v>
       </c>
       <c r="D136" t="s">
         <v>3</v>
@@ -2299,10 +2299,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="C137">
-        <v>65525</v>
+        <v>65290</v>
       </c>
       <c r="D137" t="s">
         <v>3</v>
@@ -2313,10 +2313,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="C138">
-        <v>65640</v>
+        <v>65525</v>
       </c>
       <c r="D138" t="s">
         <v>3</v>
@@ -2327,10 +2327,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="C139">
-        <v>65490</v>
+        <v>65640</v>
       </c>
       <c r="D139" t="s">
         <v>3</v>
@@ -2341,10 +2341,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="C140">
-        <v>65260</v>
+        <v>65490</v>
       </c>
       <c r="D140" t="s">
         <v>3</v>
@@ -2355,10 +2355,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="C141">
-        <v>65170</v>
+        <v>65260</v>
       </c>
       <c r="D141" t="s">
         <v>3</v>
@@ -2369,10 +2369,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>44883</v>
+        <v>44887</v>
       </c>
       <c r="C142">
-        <v>66275</v>
+        <v>65170</v>
       </c>
       <c r="D142" t="s">
         <v>3</v>
@@ -2383,10 +2383,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="C143">
-        <v>66540</v>
+        <v>66275</v>
       </c>
       <c r="D143" t="s">
         <v>3</v>
@@ -2397,10 +2397,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="C144">
-        <v>67050</v>
+        <v>66540</v>
       </c>
       <c r="D144" t="s">
         <v>3</v>
@@ -2411,10 +2411,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="C145">
-        <v>67275</v>
+        <v>67050</v>
       </c>
       <c r="D145" t="s">
         <v>3</v>
@@ -2425,10 +2425,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>44876</v>
+        <v>44880</v>
       </c>
       <c r="C146">
-        <v>68575</v>
+        <v>67275</v>
       </c>
       <c r="D146" t="s">
         <v>3</v>
@@ -2439,10 +2439,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="C147">
-        <v>67400</v>
+        <v>68575</v>
       </c>
       <c r="D147" t="s">
         <v>3</v>
@@ -2453,10 +2453,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="C148">
-        <v>66800</v>
+        <v>67400</v>
       </c>
       <c r="D148" t="s">
         <v>3</v>
@@ -2467,10 +2467,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="C149">
-        <v>66225</v>
+        <v>66800</v>
       </c>
       <c r="D149" t="s">
         <v>3</v>
@@ -2481,10 +2481,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>44869</v>
+        <v>44873</v>
       </c>
       <c r="C150">
-        <v>64700</v>
+        <v>66225</v>
       </c>
       <c r="D150" t="s">
         <v>3</v>
@@ -2495,10 +2495,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="C151">
-        <v>64690</v>
+        <v>64700</v>
       </c>
       <c r="D151" t="s">
         <v>3</v>
@@ -2509,10 +2509,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="C152">
-        <v>64950</v>
+        <v>64690</v>
       </c>
       <c r="D152" t="s">
         <v>3</v>
@@ -2523,10 +2523,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>44866</v>
+        <v>44867</v>
       </c>
       <c r="C153">
-        <v>64300</v>
+        <v>64950</v>
       </c>
       <c r="D153" t="s">
         <v>3</v>
@@ -2537,10 +2537,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>44862</v>
+        <v>44866</v>
       </c>
       <c r="C154">
-        <v>64650</v>
+        <v>64300</v>
       </c>
       <c r="D154" t="s">
         <v>3</v>
@@ -2551,10 +2551,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>44861</v>
+        <v>44862</v>
       </c>
       <c r="C155">
-        <v>64690</v>
+        <v>64650</v>
       </c>
       <c r="D155" t="s">
         <v>3</v>
@@ -2565,10 +2565,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="C156">
-        <v>63950</v>
+        <v>64690</v>
       </c>
       <c r="D156" t="s">
         <v>3</v>
@@ -2579,10 +2579,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="C157">
-        <v>64300</v>
+        <v>63950</v>
       </c>
       <c r="D157" t="s">
         <v>3</v>
@@ -2593,10 +2593,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>44855</v>
+        <v>44859</v>
       </c>
       <c r="C158">
-        <v>64000</v>
+        <v>64300</v>
       </c>
       <c r="D158" t="s">
         <v>3</v>
@@ -2607,10 +2607,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="C159">
-        <v>62895</v>
+        <v>64000</v>
       </c>
       <c r="D159" t="s">
         <v>3</v>
@@ -2621,10 +2621,10 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>44853</v>
+        <v>44854</v>
       </c>
       <c r="C160">
-        <v>62950</v>
+        <v>62895</v>
       </c>
       <c r="D160" t="s">
         <v>3</v>
@@ -2635,10 +2635,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="C161">
-        <v>63550</v>
+        <v>62950</v>
       </c>
       <c r="D161" t="s">
         <v>3</v>
@@ -2649,10 +2649,10 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>44848</v>
+        <v>44852</v>
       </c>
       <c r="C162">
-        <v>64760</v>
+        <v>63550</v>
       </c>
       <c r="D162" t="s">
         <v>3</v>
@@ -2663,10 +2663,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="C163">
-        <v>63960</v>
+        <v>64760</v>
       </c>
       <c r="D163" t="s">
         <v>3</v>
@@ -2677,10 +2677,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="C164">
-        <v>63800</v>
+        <v>63960</v>
       </c>
       <c r="D164" t="s">
         <v>3</v>
@@ -2691,10 +2691,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>44845</v>
+        <v>44846</v>
       </c>
       <c r="C165">
-        <v>63975</v>
+        <v>63800</v>
       </c>
       <c r="D165" t="s">
         <v>3</v>
@@ -2705,10 +2705,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>44834</v>
+        <v>44845</v>
       </c>
       <c r="C166">
-        <v>62670</v>
+        <v>63975</v>
       </c>
       <c r="D166" t="s">
         <v>3</v>
@@ -2719,10 +2719,10 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="C167">
-        <v>62430</v>
+        <v>62670</v>
       </c>
       <c r="D167" t="s">
         <v>3</v>
@@ -2733,10 +2733,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="C168">
-        <v>61430</v>
+        <v>62430</v>
       </c>
       <c r="D168" t="s">
         <v>3</v>
@@ -2747,10 +2747,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="C169">
-        <v>61485</v>
+        <v>61430</v>
       </c>
       <c r="D169" t="s">
         <v>3</v>
@@ -2761,10 +2761,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>44827</v>
+        <v>44831</v>
       </c>
       <c r="C170">
-        <v>63025</v>
+        <v>61485</v>
       </c>
       <c r="D170" t="s">
         <v>3</v>
@@ -2775,10 +2775,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="C171">
-        <v>63120</v>
+        <v>63025</v>
       </c>
       <c r="D171" t="s">
         <v>3</v>
@@ -2789,7 +2789,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="C172">
         <v>63120</v>
@@ -2803,10 +2803,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="C173">
-        <v>63370</v>
+        <v>63120</v>
       </c>
       <c r="D173" t="s">
         <v>3</v>
@@ -2817,10 +2817,10 @@
         <v>172</v>
       </c>
       <c r="B174" s="2">
-        <v>44820</v>
+        <v>44824</v>
       </c>
       <c r="C174">
-        <v>62865</v>
+        <v>63370</v>
       </c>
       <c r="D174" t="s">
         <v>3</v>
@@ -2831,10 +2831,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="2">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="C175">
-        <v>63370</v>
+        <v>62865</v>
       </c>
       <c r="D175" t="s">
         <v>3</v>
@@ -2845,10 +2845,10 @@
         <v>174</v>
       </c>
       <c r="B176" s="2">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="C176">
-        <v>63050</v>
+        <v>63370</v>
       </c>
       <c r="D176" t="s">
         <v>3</v>
@@ -2859,10 +2859,10 @@
         <v>175</v>
       </c>
       <c r="B177" s="2">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="C177">
-        <v>63850</v>
+        <v>63050</v>
       </c>
       <c r="D177" t="s">
         <v>3</v>
@@ -2873,10 +2873,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="2">
-        <v>44813</v>
+        <v>44817</v>
       </c>
       <c r="C178">
-        <v>63650</v>
+        <v>63850</v>
       </c>
       <c r="D178" t="s">
         <v>3</v>
@@ -2887,10 +2887,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="2">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="C179">
-        <v>61910</v>
+        <v>63650</v>
       </c>
       <c r="D179" t="s">
         <v>3</v>
@@ -2901,10 +2901,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="2">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="C180">
-        <v>61700</v>
+        <v>61910</v>
       </c>
       <c r="D180" t="s">
         <v>3</v>
@@ -2915,10 +2915,10 @@
         <v>179</v>
       </c>
       <c r="B181" s="2">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="C181">
-        <v>61750</v>
+        <v>61700</v>
       </c>
       <c r="D181" t="s">
         <v>3</v>
@@ -2929,10 +2929,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="2">
-        <v>44806</v>
+        <v>44810</v>
       </c>
       <c r="C182">
-        <v>60500</v>
+        <v>61750</v>
       </c>
       <c r="D182" t="s">
         <v>3</v>
@@ -2943,10 +2943,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="2">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="C183">
-        <v>61775</v>
+        <v>60500</v>
       </c>
       <c r="D183" t="s">
         <v>3</v>
@@ -2957,10 +2957,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="2">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="C184">
-        <v>62770</v>
+        <v>61775</v>
       </c>
       <c r="D184" t="s">
         <v>3</v>
@@ -2971,10 +2971,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="2">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="C185">
-        <v>63120</v>
+        <v>62770</v>
       </c>
       <c r="D185" t="s">
         <v>3</v>
@@ -2985,10 +2985,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="2">
-        <v>44799</v>
+        <v>44803</v>
       </c>
       <c r="C186">
-        <v>64270</v>
+        <v>63120</v>
       </c>
       <c r="D186" t="s">
         <v>3</v>
@@ -2999,10 +2999,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="2">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="C187">
-        <v>63330</v>
+        <v>64270</v>
       </c>
       <c r="D187" t="s">
         <v>3</v>
@@ -3013,10 +3013,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="2">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="C188">
-        <v>63715</v>
+        <v>63330</v>
       </c>
       <c r="D188" t="s">
         <v>3</v>
@@ -3027,10 +3027,10 @@
         <v>187</v>
       </c>
       <c r="B189" s="2">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="C189">
-        <v>63570</v>
+        <v>63715</v>
       </c>
       <c r="D189" t="s">
         <v>3</v>
@@ -3041,10 +3041,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="2">
-        <v>44792</v>
+        <v>44796</v>
       </c>
       <c r="C190">
-        <v>62950</v>
+        <v>63570</v>
       </c>
       <c r="D190" t="s">
         <v>3</v>
@@ -3055,10 +3055,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="2">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="C191">
-        <v>62300</v>
+        <v>62950</v>
       </c>
       <c r="D191" t="s">
         <v>3</v>
@@ -3069,10 +3069,10 @@
         <v>190</v>
       </c>
       <c r="B192" s="2">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="C192">
-        <v>62470</v>
+        <v>62300</v>
       </c>
       <c r="D192" t="s">
         <v>3</v>
@@ -3083,10 +3083,10 @@
         <v>191</v>
       </c>
       <c r="B193" s="2">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="C193">
-        <v>62460</v>
+        <v>62470</v>
       </c>
       <c r="D193" t="s">
         <v>3</v>
@@ -3097,10 +3097,10 @@
         <v>192</v>
       </c>
       <c r="B194" s="2">
-        <v>44785</v>
+        <v>44789</v>
       </c>
       <c r="C194">
-        <v>63000</v>
+        <v>62460</v>
       </c>
       <c r="D194" t="s">
         <v>3</v>
@@ -3111,10 +3111,10 @@
         <v>193</v>
       </c>
       <c r="B195" s="2">
-        <v>44784</v>
+        <v>44785</v>
       </c>
       <c r="C195">
-        <v>62520</v>
+        <v>63000</v>
       </c>
       <c r="D195" t="s">
         <v>3</v>
@@ -3125,10 +3125,10 @@
         <v>194</v>
       </c>
       <c r="B196" s="2">
-        <v>44783</v>
+        <v>44784</v>
       </c>
       <c r="C196">
-        <v>61780</v>
+        <v>62520</v>
       </c>
       <c r="D196" t="s">
         <v>3</v>
@@ -3139,10 +3139,10 @@
         <v>195</v>
       </c>
       <c r="B197" s="2">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="C197">
-        <v>61540</v>
+        <v>61780</v>
       </c>
       <c r="D197" t="s">
         <v>3</v>
@@ -3153,10 +3153,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="2">
-        <v>44778</v>
+        <v>44782</v>
       </c>
       <c r="C198">
-        <v>60520</v>
+        <v>61540</v>
       </c>
       <c r="D198" t="s">
         <v>3</v>
@@ -3167,10 +3167,10 @@
         <v>197</v>
       </c>
       <c r="B199" s="2">
-        <v>44777</v>
+        <v>44778</v>
       </c>
       <c r="C199">
-        <v>59930</v>
+        <v>60520</v>
       </c>
       <c r="D199" t="s">
         <v>3</v>
@@ -3181,10 +3181,10 @@
         <v>198</v>
       </c>
       <c r="B200" s="2">
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="C200">
-        <v>60260</v>
+        <v>59930</v>
       </c>
       <c r="D200" t="s">
         <v>3</v>
@@ -3195,10 +3195,10 @@
         <v>199</v>
       </c>
       <c r="B201" s="2">
-        <v>44775</v>
+        <v>44776</v>
       </c>
       <c r="C201">
-        <v>60180</v>
+        <v>60260</v>
       </c>
       <c r="D201" t="s">
         <v>3</v>
@@ -3209,10 +3209,10 @@
         <v>200</v>
       </c>
       <c r="B202" s="2">
-        <v>44771</v>
+        <v>44775</v>
       </c>
       <c r="C202">
-        <v>60315</v>
+        <v>60180</v>
       </c>
       <c r="D202" t="s">
         <v>3</v>
@@ -3223,10 +3223,10 @@
         <v>201</v>
       </c>
       <c r="B203" s="2">
-        <v>44770</v>
+        <v>44771</v>
       </c>
       <c r="C203">
-        <v>60090</v>
+        <v>60315</v>
       </c>
       <c r="D203" t="s">
         <v>3</v>
@@ -3237,10 +3237,10 @@
         <v>202</v>
       </c>
       <c r="B204" s="2">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="C204">
-        <v>58710</v>
+        <v>60090</v>
       </c>
       <c r="D204" t="s">
         <v>3</v>
@@ -3251,10 +3251,10 @@
         <v>203</v>
       </c>
       <c r="B205" s="2">
-        <v>44768</v>
+        <v>44769</v>
       </c>
       <c r="C205">
-        <v>58930</v>
+        <v>58710</v>
       </c>
       <c r="D205" t="s">
         <v>3</v>
@@ -3265,10 +3265,10 @@
         <v>204</v>
       </c>
       <c r="B206" s="2">
-        <v>44764</v>
+        <v>44768</v>
       </c>
       <c r="C206">
-        <v>57030</v>
+        <v>58930</v>
       </c>
       <c r="D206" t="s">
         <v>3</v>
@@ -3279,10 +3279,10 @@
         <v>205</v>
       </c>
       <c r="B207" s="2">
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="C207">
-        <v>56360</v>
+        <v>57030</v>
       </c>
       <c r="D207" t="s">
         <v>3</v>
@@ -3293,10 +3293,10 @@
         <v>206</v>
       </c>
       <c r="B208" s="2">
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="C208">
-        <v>56920</v>
+        <v>56360</v>
       </c>
       <c r="D208" t="s">
         <v>3</v>
@@ -3307,10 +3307,10 @@
         <v>207</v>
       </c>
       <c r="B209" s="2">
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="C209">
-        <v>56210</v>
+        <v>56920</v>
       </c>
       <c r="D209" t="s">
         <v>3</v>
@@ -3321,10 +3321,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="2">
-        <v>44757</v>
+        <v>44761</v>
       </c>
       <c r="C210">
-        <v>54890</v>
+        <v>56210</v>
       </c>
       <c r="D210" t="s">
         <v>3</v>
@@ -3335,10 +3335,10 @@
         <v>209</v>
       </c>
       <c r="B211" s="2">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="C211">
-        <v>56300</v>
+        <v>54890</v>
       </c>
       <c r="D211" t="s">
         <v>3</v>
@@ -3349,10 +3349,10 @@
         <v>210</v>
       </c>
       <c r="B212" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="C212">
-        <v>56460</v>
+        <v>56300</v>
       </c>
       <c r="D212" t="s">
         <v>3</v>
@@ -3363,10 +3363,10 @@
         <v>211</v>
       </c>
       <c r="B213" s="2">
-        <v>44754</v>
+        <v>44755</v>
       </c>
       <c r="C213">
-        <v>58430</v>
+        <v>56460</v>
       </c>
       <c r="D213" t="s">
         <v>3</v>
@@ -3377,10 +3377,10 @@
         <v>212</v>
       </c>
       <c r="B214" s="2">
-        <v>44750</v>
+        <v>44754</v>
       </c>
       <c r="C214">
-        <v>59600</v>
+        <v>58430</v>
       </c>
       <c r="D214" t="s">
         <v>3</v>
@@ -3391,10 +3391,10 @@
         <v>213</v>
       </c>
       <c r="B215" s="2">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="C215">
-        <v>58600</v>
+        <v>59600</v>
       </c>
       <c r="D215" t="s">
         <v>3</v>
@@ -3405,10 +3405,10 @@
         <v>214</v>
       </c>
       <c r="B216" s="2">
-        <v>44748</v>
+        <v>44749</v>
       </c>
       <c r="C216">
-        <v>58125</v>
+        <v>58600</v>
       </c>
       <c r="D216" t="s">
         <v>3</v>
@@ -3419,10 +3419,10 @@
         <v>215</v>
       </c>
       <c r="B217" s="2">
-        <v>44747</v>
+        <v>44748</v>
       </c>
       <c r="C217">
-        <v>61225</v>
+        <v>58125</v>
       </c>
       <c r="D217" t="s">
         <v>3</v>
@@ -3433,10 +3433,10 @@
         <v>216</v>
       </c>
       <c r="B218" s="2">
-        <v>44743</v>
+        <v>44747</v>
       </c>
       <c r="C218">
-        <v>62930</v>
+        <v>61225</v>
       </c>
       <c r="D218" t="s">
         <v>3</v>
@@ -3447,10 +3447,10 @@
         <v>217</v>
       </c>
       <c r="B219" s="2">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="C219">
-        <v>64230</v>
+        <v>62930</v>
       </c>
       <c r="D219" t="s">
         <v>3</v>
@@ -3461,10 +3461,10 @@
         <v>218</v>
       </c>
       <c r="B220" s="2">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="C220">
-        <v>63940</v>
+        <v>64230</v>
       </c>
       <c r="D220" t="s">
         <v>3</v>
@@ -3475,10 +3475,10 @@
         <v>219</v>
       </c>
       <c r="B221" s="2">
-        <v>44740</v>
+        <v>44741</v>
       </c>
       <c r="C221">
-        <v>64150</v>
+        <v>63940</v>
       </c>
       <c r="D221" t="s">
         <v>3</v>
@@ -3489,10 +3489,10 @@
         <v>220</v>
       </c>
       <c r="B222" s="2">
-        <v>44736</v>
+        <v>44740</v>
       </c>
       <c r="C222">
-        <v>64340</v>
+        <v>64150</v>
       </c>
       <c r="D222" t="s">
         <v>3</v>
@@ -3503,10 +3503,10 @@
         <v>221</v>
       </c>
       <c r="B223" s="2">
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="C223">
-        <v>66050</v>
+        <v>64340</v>
       </c>
       <c r="D223" t="s">
         <v>3</v>
@@ -3517,10 +3517,10 @@
         <v>222</v>
       </c>
       <c r="B224" s="2">
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="C224">
-        <v>68160</v>
+        <v>66050</v>
       </c>
       <c r="D224" t="s">
         <v>3</v>
@@ -3531,10 +3531,10 @@
         <v>223</v>
       </c>
       <c r="B225" s="2">
-        <v>44733</v>
+        <v>44734</v>
       </c>
       <c r="C225">
-        <v>68700</v>
+        <v>68160</v>
       </c>
       <c r="D225" t="s">
         <v>3</v>
@@ -3545,10 +3545,10 @@
         <v>224</v>
       </c>
       <c r="B226" s="2">
-        <v>44729</v>
+        <v>44733</v>
       </c>
       <c r="C226">
-        <v>69975</v>
+        <v>68700</v>
       </c>
       <c r="D226" t="s">
         <v>3</v>
@@ -3559,10 +3559,10 @@
         <v>225</v>
       </c>
       <c r="B227" s="2">
-        <v>44728</v>
+        <v>44729</v>
       </c>
       <c r="C227">
-        <v>71255</v>
+        <v>69975</v>
       </c>
       <c r="D227" t="s">
         <v>3</v>
@@ -3573,10 +3573,10 @@
         <v>226</v>
       </c>
       <c r="B228" s="2">
-        <v>44727</v>
+        <v>44728</v>
       </c>
       <c r="C228">
-        <v>71250</v>
+        <v>71255</v>
       </c>
       <c r="D228" t="s">
         <v>3</v>
@@ -3587,10 +3587,10 @@
         <v>227</v>
       </c>
       <c r="B229" s="2">
-        <v>44722</v>
+        <v>44727</v>
       </c>
       <c r="C229">
-        <v>72750</v>
+        <v>71250</v>
       </c>
       <c r="D229" t="s">
         <v>3</v>
@@ -3601,10 +3601,10 @@
         <v>228</v>
       </c>
       <c r="B230" s="2">
-        <v>44721</v>
+        <v>44722</v>
       </c>
       <c r="C230">
-        <v>73030</v>
+        <v>72750</v>
       </c>
       <c r="D230" t="s">
         <v>3</v>
@@ -3615,10 +3615,10 @@
         <v>229</v>
       </c>
       <c r="B231" s="2">
-        <v>44720</v>
+        <v>44721</v>
       </c>
       <c r="C231">
-        <v>72890</v>
+        <v>73030</v>
       </c>
       <c r="D231" t="s">
         <v>3</v>
@@ -3629,10 +3629,10 @@
         <v>230</v>
       </c>
       <c r="B232" s="2">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="C232">
-        <v>72975</v>
+        <v>72890</v>
       </c>
       <c r="D232" t="s">
         <v>3</v>
@@ -3643,10 +3643,10 @@
         <v>231</v>
       </c>
       <c r="B233" s="2">
-        <v>44714</v>
+        <v>44719</v>
       </c>
       <c r="C233">
-        <v>72530</v>
+        <v>72975</v>
       </c>
       <c r="D233" t="s">
         <v>3</v>
@@ -3657,10 +3657,10 @@
         <v>232</v>
       </c>
       <c r="B234" s="2">
-        <v>44713</v>
+        <v>44714</v>
       </c>
       <c r="C234">
-        <v>72150</v>
+        <v>72530</v>
       </c>
       <c r="D234" t="s">
         <v>3</v>
@@ -3671,10 +3671,10 @@
         <v>233</v>
       </c>
       <c r="B235" s="2">
-        <v>44712</v>
+        <v>44713</v>
       </c>
       <c r="C235">
-        <v>72630</v>
+        <v>72150</v>
       </c>
       <c r="D235" t="s">
         <v>3</v>
@@ -3685,10 +3685,10 @@
         <v>234</v>
       </c>
       <c r="B236" s="2">
-        <v>44708</v>
+        <v>44712</v>
       </c>
       <c r="C236">
-        <v>72625</v>
+        <v>72630</v>
       </c>
       <c r="D236" t="s">
         <v>3</v>
@@ -3699,10 +3699,10 @@
         <v>235</v>
       </c>
       <c r="B237" s="2">
-        <v>44707</v>
+        <v>44708</v>
       </c>
       <c r="C237">
-        <v>71950</v>
+        <v>72625</v>
       </c>
       <c r="D237" t="s">
         <v>3</v>
@@ -3713,10 +3713,10 @@
         <v>236</v>
       </c>
       <c r="B238" s="2">
-        <v>44706</v>
+        <v>44707</v>
       </c>
       <c r="C238">
-        <v>72220</v>
+        <v>71950</v>
       </c>
       <c r="D238" t="s">
         <v>3</v>
@@ -3727,10 +3727,10 @@
         <v>237</v>
       </c>
       <c r="B239" s="2">
-        <v>44705</v>
+        <v>44706</v>
       </c>
       <c r="C239">
-        <v>72500</v>
+        <v>72220</v>
       </c>
       <c r="D239" t="s">
         <v>3</v>
@@ -3741,10 +3741,10 @@
         <v>238</v>
       </c>
       <c r="B240" s="2">
-        <v>44701</v>
+        <v>44705</v>
       </c>
       <c r="C240">
-        <v>72150</v>
+        <v>72500</v>
       </c>
       <c r="D240" t="s">
         <v>3</v>
@@ -3755,10 +3755,10 @@
         <v>239</v>
       </c>
       <c r="B241" s="2">
-        <v>44700</v>
+        <v>44701</v>
       </c>
       <c r="C241">
-        <v>71775</v>
+        <v>72150</v>
       </c>
       <c r="D241" t="s">
         <v>3</v>
@@ -3769,10 +3769,10 @@
         <v>240</v>
       </c>
       <c r="B242" s="2">
-        <v>44699</v>
+        <v>44700</v>
       </c>
       <c r="C242">
-        <v>72070</v>
+        <v>71775</v>
       </c>
       <c r="D242" t="s">
         <v>3</v>
@@ -3783,10 +3783,10 @@
         <v>241</v>
       </c>
       <c r="B243" s="2">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="C243">
-        <v>72175</v>
+        <v>72070</v>
       </c>
       <c r="D243" t="s">
         <v>3</v>
@@ -3797,10 +3797,10 @@
         <v>242</v>
       </c>
       <c r="B244" s="2">
-        <v>44694</v>
+        <v>44698</v>
       </c>
       <c r="C244">
-        <v>71160</v>
+        <v>72175</v>
       </c>
       <c r="D244" t="s">
         <v>3</v>
@@ -3811,10 +3811,10 @@
         <v>243</v>
       </c>
       <c r="B245" s="2">
-        <v>44693</v>
+        <v>44694</v>
       </c>
       <c r="C245">
-        <v>72050</v>
+        <v>71160</v>
       </c>
       <c r="D245" t="s">
         <v>3</v>
@@ -3825,10 +3825,10 @@
         <v>244</v>
       </c>
       <c r="B246" s="2">
-        <v>44687</v>
+        <v>44693</v>
       </c>
       <c r="C246">
-        <v>72875</v>
+        <v>72050</v>
       </c>
       <c r="D246" t="s">
         <v>3</v>
@@ -3839,10 +3839,10 @@
         <v>245</v>
       </c>
       <c r="B247" s="2">
-        <v>44686</v>
+        <v>44687</v>
       </c>
       <c r="C247">
-        <v>73760</v>
+        <v>72875</v>
       </c>
       <c r="D247" t="s">
         <v>3</v>
@@ -3853,10 +3853,10 @@
         <v>246</v>
       </c>
       <c r="B248" s="2">
-        <v>44680</v>
+        <v>44686</v>
       </c>
       <c r="C248">
-        <v>73930</v>
+        <v>73760</v>
       </c>
       <c r="D248" t="s">
         <v>3</v>
@@ -3867,10 +3867,10 @@
         <v>247</v>
       </c>
       <c r="B249" s="2">
-        <v>44679</v>
+        <v>44680</v>
       </c>
       <c r="C249">
-        <v>74005</v>
+        <v>73930</v>
       </c>
       <c r="D249" t="s">
         <v>3</v>
@@ -3881,10 +3881,10 @@
         <v>248</v>
       </c>
       <c r="B250" s="2">
-        <v>44678</v>
+        <v>44679</v>
       </c>
       <c r="C250">
-        <v>73770</v>
+        <v>74005</v>
       </c>
       <c r="D250" t="s">
         <v>3</v>
@@ -3895,10 +3895,10 @@
         <v>249</v>
       </c>
       <c r="B251" s="2">
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="C251">
-        <v>73950</v>
+        <v>73770</v>
       </c>
       <c r="D251" t="s">
         <v>3</v>
@@ -3909,10 +3909,10 @@
         <v>250</v>
       </c>
       <c r="B252" s="2">
-        <v>44673</v>
+        <v>44677</v>
       </c>
       <c r="C252">
-        <v>75070</v>
+        <v>73950</v>
       </c>
       <c r="D252" t="s">
         <v>3</v>
@@ -3923,10 +3923,10 @@
         <v>251</v>
       </c>
       <c r="B253" s="2">
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="C253">
-        <v>74850</v>
+        <v>75070</v>
       </c>
       <c r="D253" t="s">
         <v>3</v>
@@ -3937,10 +3937,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="2">
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="C254">
-        <v>74740</v>
+        <v>74850</v>
       </c>
       <c r="D254" t="s">
         <v>3</v>
@@ -3951,10 +3951,10 @@
         <v>253</v>
       </c>
       <c r="B255" s="2">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="C255">
-        <v>75575</v>
+        <v>74740</v>
       </c>
       <c r="D255" t="s">
         <v>3</v>
@@ -3965,10 +3965,10 @@
         <v>254</v>
       </c>
       <c r="B256" s="2">
-        <v>44666</v>
+        <v>44670</v>
       </c>
       <c r="C256">
-        <v>75385</v>
+        <v>75575</v>
       </c>
       <c r="D256" t="s">
         <v>3</v>
@@ -3979,10 +3979,10 @@
         <v>255</v>
       </c>
       <c r="B257" s="2">
-        <v>44665</v>
+        <v>44666</v>
       </c>
       <c r="C257">
-        <v>74370</v>
+        <v>75385</v>
       </c>
       <c r="D257" t="s">
         <v>3</v>
@@ -3993,10 +3993,10 @@
         <v>256</v>
       </c>
       <c r="B258" s="2">
-        <v>44664</v>
+        <v>44665</v>
       </c>
       <c r="C258">
-        <v>74550</v>
+        <v>74370</v>
       </c>
       <c r="D258" t="s">
         <v>3</v>
@@ -4007,10 +4007,10 @@
         <v>257</v>
       </c>
       <c r="B259" s="2">
-        <v>44663</v>
+        <v>44664</v>
       </c>
       <c r="C259">
-        <v>73790</v>
+        <v>74550</v>
       </c>
       <c r="D259" t="s">
         <v>3</v>
@@ -4021,10 +4021,10 @@
         <v>258</v>
       </c>
       <c r="B260" s="2">
-        <v>44659</v>
+        <v>44663</v>
       </c>
       <c r="C260">
-        <v>73765</v>
+        <v>73790</v>
       </c>
       <c r="D260" t="s">
         <v>3</v>
@@ -4035,10 +4035,10 @@
         <v>259</v>
       </c>
       <c r="B261" s="2">
-        <v>44658</v>
+        <v>44659</v>
       </c>
       <c r="C261">
-        <v>73690</v>
+        <v>73765</v>
       </c>
       <c r="D261" t="s">
         <v>3</v>
@@ -4049,10 +4049,10 @@
         <v>260</v>
       </c>
       <c r="B262" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C262">
-        <v>74000</v>
+        <v>73690</v>
       </c>
       <c r="D262" t="s">
         <v>3</v>
@@ -4063,10 +4063,10 @@
         <v>261</v>
       </c>
       <c r="B263" s="2">
-        <v>44652</v>
+        <v>44657</v>
       </c>
       <c r="C263">
-        <v>73635</v>
+        <v>74000</v>
       </c>
       <c r="D263" t="s">
         <v>3</v>
@@ -4077,10 +4077,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="2">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="C264">
-        <v>73575</v>
+        <v>73635</v>
       </c>
       <c r="D264" t="s">
         <v>3</v>
@@ -4091,10 +4091,10 @@
         <v>263</v>
       </c>
       <c r="B265" s="2">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="C265">
-        <v>73980</v>
+        <v>73575</v>
       </c>
       <c r="D265" t="s">
         <v>3</v>
@@ -4105,10 +4105,10 @@
         <v>264</v>
       </c>
       <c r="B266" s="2">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="C266">
-        <v>74100</v>
+        <v>73980</v>
       </c>
       <c r="D266" t="s">
         <v>3</v>
@@ -4119,10 +4119,10 @@
         <v>265</v>
       </c>
       <c r="B267" s="2">
-        <v>44645</v>
+        <v>44649</v>
       </c>
       <c r="C267">
-        <v>73775</v>
+        <v>74100</v>
       </c>
       <c r="D267" t="s">
         <v>3</v>
@@ -4133,10 +4133,10 @@
         <v>266</v>
       </c>
       <c r="B268" s="2">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="C268">
-        <v>73880</v>
+        <v>73775</v>
       </c>
       <c r="D268" t="s">
         <v>3</v>
@@ -4147,10 +4147,10 @@
         <v>267</v>
       </c>
       <c r="B269" s="2">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="C269">
-        <v>73410</v>
+        <v>73880</v>
       </c>
       <c r="D269" t="s">
         <v>3</v>
@@ -4161,10 +4161,10 @@
         <v>268</v>
       </c>
       <c r="B270" s="2">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="C270">
-        <v>73510</v>
+        <v>73410</v>
       </c>
       <c r="D270" t="s">
         <v>3</v>
@@ -4175,10 +4175,10 @@
         <v>269</v>
       </c>
       <c r="B271" s="2">
-        <v>44638</v>
+        <v>44642</v>
       </c>
       <c r="C271">
-        <v>73310</v>
+        <v>73510</v>
       </c>
       <c r="D271" t="s">
         <v>3</v>
@@ -4189,10 +4189,10 @@
         <v>270</v>
       </c>
       <c r="B272" s="2">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="C272">
-        <v>72740</v>
+        <v>73310</v>
       </c>
       <c r="D272" t="s">
         <v>3</v>
@@ -4203,10 +4203,10 @@
         <v>271</v>
       </c>
       <c r="B273" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="C273">
-        <v>72060</v>
+        <v>72740</v>
       </c>
       <c r="D273" t="s">
         <v>3</v>
@@ -4217,10 +4217,10 @@
         <v>272</v>
       </c>
       <c r="B274" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="C274">
-        <v>71790</v>
+        <v>72060</v>
       </c>
       <c r="D274" t="s">
         <v>3</v>
@@ -4231,10 +4231,10 @@
         <v>273</v>
       </c>
       <c r="B275" s="2">
-        <v>44631</v>
+        <v>44635</v>
       </c>
       <c r="C275">
-        <v>72170</v>
+        <v>71790</v>
       </c>
       <c r="D275" t="s">
         <v>3</v>
@@ -4245,10 +4245,10 @@
         <v>274</v>
       </c>
       <c r="B276" s="2">
-        <v>44630</v>
+        <v>44631</v>
       </c>
       <c r="C276">
-        <v>72080</v>
+        <v>72170</v>
       </c>
       <c r="D276" t="s">
         <v>3</v>
@@ -4259,10 +4259,10 @@
         <v>275</v>
       </c>
       <c r="B277" s="2">
-        <v>44624</v>
+        <v>44630</v>
       </c>
       <c r="C277">
-        <v>72930</v>
+        <v>72080</v>
       </c>
       <c r="D277" t="s">
         <v>3</v>
@@ -4273,10 +4273,10 @@
         <v>276</v>
       </c>
       <c r="B278" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="C278">
-        <v>72540</v>
+        <v>72930</v>
       </c>
       <c r="D278" t="s">
         <v>3</v>
@@ -4287,10 +4287,10 @@
         <v>277</v>
       </c>
       <c r="B279" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="C279">
-        <v>71520</v>
+        <v>72540</v>
       </c>
       <c r="D279" t="s">
         <v>3</v>
@@ -4301,10 +4301,10 @@
         <v>278</v>
       </c>
       <c r="B280" s="2">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="C280">
-        <v>70880</v>
+        <v>71520</v>
       </c>
       <c r="D280" t="s">
         <v>3</v>
@@ -4315,10 +4315,10 @@
         <v>279</v>
       </c>
       <c r="B281" s="2">
-        <v>44617</v>
+        <v>44621</v>
       </c>
       <c r="C281">
-        <v>71010</v>
+        <v>70880</v>
       </c>
       <c r="D281" t="s">
         <v>3</v>
@@ -4329,10 +4329,10 @@
         <v>280</v>
       </c>
       <c r="B282" s="2">
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="C282">
-        <v>71170</v>
+        <v>71010</v>
       </c>
       <c r="D282" t="s">
         <v>3</v>
@@ -4343,10 +4343,10 @@
         <v>281</v>
       </c>
       <c r="B283" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="C283">
-        <v>71140</v>
+        <v>71170</v>
       </c>
       <c r="D283" t="s">
         <v>3</v>
@@ -4357,10 +4357,10 @@
         <v>282</v>
       </c>
       <c r="B284" s="2">
-        <v>44610</v>
+        <v>44614</v>
       </c>
       <c r="C284">
-        <v>71525</v>
+        <v>71140</v>
       </c>
       <c r="D284" t="s">
         <v>3</v>
@@ -4371,10 +4371,10 @@
         <v>283</v>
       </c>
       <c r="B285" s="2">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="C285">
-        <v>71550</v>
+        <v>71525</v>
       </c>
       <c r="D285" t="s">
         <v>3</v>
@@ -4385,7 +4385,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="C286">
         <v>71550</v>
@@ -4399,10 +4399,10 @@
         <v>285</v>
       </c>
       <c r="B287" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="C287">
-        <v>71090</v>
+        <v>71550</v>
       </c>
       <c r="D287" t="s">
         <v>3</v>
@@ -4413,10 +4413,10 @@
         <v>286</v>
       </c>
       <c r="B288" s="2">
-        <v>44603</v>
+        <v>44607</v>
       </c>
       <c r="C288">
-        <v>72580</v>
+        <v>71090</v>
       </c>
       <c r="D288" t="s">
         <v>3</v>
@@ -4427,10 +4427,10 @@
         <v>287</v>
       </c>
       <c r="B289" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="C289">
-        <v>72210</v>
+        <v>72580</v>
       </c>
       <c r="D289" t="s">
         <v>3</v>
@@ -4441,10 +4441,10 @@
         <v>288</v>
       </c>
       <c r="B290" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="C290">
-        <v>70500</v>
+        <v>72210</v>
       </c>
       <c r="D290" t="s">
         <v>3</v>
@@ -4455,10 +4455,10 @@
         <v>289</v>
       </c>
       <c r="B291" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="C291">
-        <v>70690</v>
+        <v>70500</v>
       </c>
       <c r="D291" t="s">
         <v>3</v>
@@ -4469,10 +4469,10 @@
         <v>290</v>
       </c>
       <c r="B292" s="2">
-        <v>44589</v>
+        <v>44600</v>
       </c>
       <c r="C292">
-        <v>70480</v>
+        <v>70690</v>
       </c>
       <c r="D292" t="s">
         <v>3</v>
@@ -4483,10 +4483,10 @@
         <v>291</v>
       </c>
       <c r="B293" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="C293">
-        <v>70400</v>
+        <v>70480</v>
       </c>
       <c r="D293" t="s">
         <v>3</v>
@@ -4497,10 +4497,10 @@
         <v>292</v>
       </c>
       <c r="B294" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="C294">
-        <v>70270</v>
+        <v>70400</v>
       </c>
       <c r="D294" t="s">
         <v>3</v>
@@ -4511,10 +4511,10 @@
         <v>293</v>
       </c>
       <c r="B295" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="C295">
-        <v>70040</v>
+        <v>70270</v>
       </c>
       <c r="D295" t="s">
         <v>3</v>
@@ -4525,10 +4525,10 @@
         <v>294</v>
       </c>
       <c r="B296" s="2">
-        <v>44582</v>
+        <v>44586</v>
       </c>
       <c r="C296">
-        <v>71000</v>
+        <v>70040</v>
       </c>
       <c r="D296" t="s">
         <v>3</v>
@@ -4539,10 +4539,10 @@
         <v>295</v>
       </c>
       <c r="B297" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="C297">
-        <v>70930</v>
+        <v>71000</v>
       </c>
       <c r="D297" t="s">
         <v>3</v>
@@ -4553,10 +4553,10 @@
         <v>296</v>
       </c>
       <c r="B298" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="C298">
-        <v>70330</v>
+        <v>70930</v>
       </c>
       <c r="D298" t="s">
         <v>3</v>
@@ -4567,10 +4567,10 @@
         <v>297</v>
       </c>
       <c r="B299" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="C299">
-        <v>70525</v>
+        <v>70330</v>
       </c>
       <c r="D299" t="s">
         <v>3</v>
@@ -4581,10 +4581,10 @@
         <v>298</v>
       </c>
       <c r="B300" s="2">
-        <v>44575</v>
+        <v>44579</v>
       </c>
       <c r="C300">
-        <v>71570</v>
+        <v>70525</v>
       </c>
       <c r="D300" t="s">
         <v>3</v>
@@ -4595,10 +4595,10 @@
         <v>299</v>
       </c>
       <c r="B301" s="2">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C301">
-        <v>72130</v>
+        <v>71570</v>
       </c>
       <c r="D301" t="s">
         <v>3</v>
@@ -4609,10 +4609,10 @@
         <v>300</v>
       </c>
       <c r="B302" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C302">
-        <v>70850</v>
+        <v>72130</v>
       </c>
       <c r="D302" t="s">
         <v>3</v>
@@ -4623,10 +4623,10 @@
         <v>301</v>
       </c>
       <c r="B303" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="C303">
-        <v>69900</v>
+        <v>70850</v>
       </c>
       <c r="D303" t="s">
         <v>3</v>
@@ -4637,10 +4637,10 @@
         <v>302</v>
       </c>
       <c r="B304" s="2">
-        <v>44561</v>
+        <v>44572</v>
       </c>
       <c r="C304">
-        <v>69910</v>
+        <v>69900</v>
       </c>
       <c r="D304" t="s">
         <v>3</v>
@@ -4651,10 +4651,10 @@
         <v>303</v>
       </c>
       <c r="B305" s="2">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="C305">
-        <v>70020</v>
+        <v>69910</v>
       </c>
       <c r="D305" t="s">
         <v>3</v>
@@ -4665,10 +4665,10 @@
         <v>304</v>
       </c>
       <c r="B306" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="C306">
-        <v>70060</v>
+        <v>70020</v>
       </c>
       <c r="D306" t="s">
         <v>3</v>
@@ -4679,10 +4679,10 @@
         <v>305</v>
       </c>
       <c r="B307" s="2">
-        <v>44558</v>
+        <v>44559</v>
       </c>
       <c r="C307">
-        <v>70270</v>
+        <v>70060</v>
       </c>
       <c r="D307" t="s">
         <v>3</v>
@@ -4693,10 +4693,10 @@
         <v>306</v>
       </c>
       <c r="B308" s="2">
-        <v>44554</v>
+        <v>44558</v>
       </c>
       <c r="C308">
-        <v>69840</v>
+        <v>70270</v>
       </c>
       <c r="D308" t="s">
         <v>3</v>
@@ -4707,10 +4707,10 @@
         <v>307</v>
       </c>
       <c r="B309" s="2">
-        <v>44553</v>
+        <v>44554</v>
       </c>
       <c r="C309">
-        <v>69850</v>
+        <v>69840</v>
       </c>
       <c r="D309" t="s">
         <v>3</v>
@@ -4721,10 +4721,10 @@
         <v>308</v>
       </c>
       <c r="B310" s="2">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="C310">
-        <v>69520</v>
+        <v>69850</v>
       </c>
       <c r="D310" t="s">
         <v>3</v>
@@ -4735,10 +4735,10 @@
         <v>309</v>
       </c>
       <c r="B311" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="C311">
-        <v>69385</v>
+        <v>69520</v>
       </c>
       <c r="D311" t="s">
         <v>3</v>
@@ -4749,10 +4749,10 @@
         <v>310</v>
       </c>
       <c r="B312" s="2">
-        <v>44547</v>
+        <v>44551</v>
       </c>
       <c r="C312">
-        <v>69525</v>
+        <v>69385</v>
       </c>
       <c r="D312" t="s">
         <v>3</v>
@@ -4763,10 +4763,10 @@
         <v>311</v>
       </c>
       <c r="B313" s="2">
-        <v>44546</v>
+        <v>44547</v>
       </c>
       <c r="C313">
-        <v>68570</v>
+        <v>69525</v>
       </c>
       <c r="D313" t="s">
         <v>3</v>
@@ -4777,10 +4777,10 @@
         <v>312</v>
       </c>
       <c r="B314" s="2">
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="C314">
-        <v>68875</v>
+        <v>68570</v>
       </c>
       <c r="D314" t="s">
         <v>3</v>
@@ -4791,10 +4791,10 @@
         <v>313</v>
       </c>
       <c r="B315" s="2">
-        <v>44544</v>
+        <v>44545</v>
       </c>
       <c r="C315">
-        <v>68900</v>
+        <v>68875</v>
       </c>
       <c r="D315" t="s">
         <v>3</v>
@@ -4805,10 +4805,10 @@
         <v>314</v>
       </c>
       <c r="B316" s="2">
-        <v>44540</v>
+        <v>44544</v>
       </c>
       <c r="C316">
-        <v>69750</v>
+        <v>68900</v>
       </c>
       <c r="D316" t="s">
         <v>3</v>
@@ -4819,10 +4819,10 @@
         <v>315</v>
       </c>
       <c r="B317" s="2">
-        <v>44539</v>
+        <v>44540</v>
       </c>
       <c r="C317">
-        <v>69980</v>
+        <v>69750</v>
       </c>
       <c r="D317" t="s">
         <v>3</v>
@@ -4833,10 +4833,10 @@
         <v>316</v>
       </c>
       <c r="B318" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="C318">
-        <v>69815</v>
+        <v>69980</v>
       </c>
       <c r="D318" t="s">
         <v>3</v>
@@ -4847,10 +4847,10 @@
         <v>317</v>
       </c>
       <c r="B319" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="C319">
-        <v>69760</v>
+        <v>69815</v>
       </c>
       <c r="D319" t="s">
         <v>3</v>
@@ -4861,10 +4861,10 @@
         <v>318</v>
       </c>
       <c r="B320" s="2">
-        <v>44533</v>
+        <v>44537</v>
       </c>
       <c r="C320">
-        <v>69830</v>
+        <v>69760</v>
       </c>
       <c r="D320" t="s">
         <v>3</v>
@@ -4875,10 +4875,10 @@
         <v>319</v>
       </c>
       <c r="B321" s="2">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="C321">
-        <v>69900</v>
+        <v>69830</v>
       </c>
       <c r="D321" t="s">
         <v>3</v>
@@ -4889,10 +4889,10 @@
         <v>320</v>
       </c>
       <c r="B322" s="2">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="C322">
-        <v>70180</v>
+        <v>69900</v>
       </c>
       <c r="D322" t="s">
         <v>3</v>
@@ -4903,10 +4903,10 @@
         <v>321</v>
       </c>
       <c r="B323" s="2">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="C323">
-        <v>70650</v>
+        <v>70180</v>
       </c>
       <c r="D323" t="s">
         <v>3</v>
@@ -4917,10 +4917,10 @@
         <v>322</v>
       </c>
       <c r="B324" s="2">
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="C324">
-        <v>71610</v>
+        <v>70650</v>
       </c>
       <c r="D324" t="s">
         <v>3</v>
@@ -4931,10 +4931,10 @@
         <v>323</v>
       </c>
       <c r="B325" s="2">
-        <v>44525</v>
+        <v>44526</v>
       </c>
       <c r="C325">
-        <v>72330</v>
+        <v>71610</v>
       </c>
       <c r="D325" t="s">
         <v>3</v>
@@ -4945,10 +4945,10 @@
         <v>324</v>
       </c>
       <c r="B326" s="2">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="C326">
-        <v>71820</v>
+        <v>72330</v>
       </c>
       <c r="D326" t="s">
         <v>3</v>
@@ -4959,10 +4959,10 @@
         <v>325</v>
       </c>
       <c r="B327" s="2">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="C327">
-        <v>72510</v>
+        <v>71820</v>
       </c>
       <c r="D327" t="s">
         <v>3</v>
@@ -4973,10 +4973,10 @@
         <v>326</v>
       </c>
       <c r="B328" s="2">
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="C328">
-        <v>72250</v>
+        <v>72510</v>
       </c>
       <c r="D328" t="s">
         <v>3</v>
@@ -4987,10 +4987,10 @@
         <v>327</v>
       </c>
       <c r="B329" s="2">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="C329">
-        <v>70350</v>
+        <v>72250</v>
       </c>
       <c r="D329" t="s">
         <v>3</v>
@@ -5001,10 +5001,10 @@
         <v>328</v>
       </c>
       <c r="B330" s="2">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="C330">
-        <v>70955</v>
+        <v>70350</v>
       </c>
       <c r="D330" t="s">
         <v>3</v>
@@ -5015,10 +5015,10 @@
         <v>329</v>
       </c>
       <c r="B331" s="2">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="C331">
-        <v>71750</v>
+        <v>70955</v>
       </c>
       <c r="D331" t="s">
         <v>3</v>
@@ -5029,10 +5029,10 @@
         <v>330</v>
       </c>
       <c r="B332" s="2">
-        <v>44512</v>
+        <v>44516</v>
       </c>
       <c r="C332">
-        <v>71435</v>
+        <v>71750</v>
       </c>
       <c r="D332" t="s">
         <v>3</v>
@@ -5043,10 +5043,10 @@
         <v>331</v>
       </c>
       <c r="B333" s="2">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="C333">
-        <v>70780</v>
+        <v>71435</v>
       </c>
       <c r="D333" t="s">
         <v>3</v>
@@ -5057,10 +5057,10 @@
         <v>332</v>
       </c>
       <c r="B334" s="2">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="C334">
-        <v>70650</v>
+        <v>70780</v>
       </c>
       <c r="D334" t="s">
         <v>3</v>
@@ -5071,10 +5071,10 @@
         <v>333</v>
       </c>
       <c r="B335" s="2">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="C335">
-        <v>71110</v>
+        <v>70650</v>
       </c>
       <c r="D335" t="s">
         <v>3</v>
@@ -5085,10 +5085,10 @@
         <v>334</v>
       </c>
       <c r="B336" s="2">
-        <v>44504</v>
+        <v>44509</v>
       </c>
       <c r="C336">
-        <v>71270</v>
+        <v>71110</v>
       </c>
       <c r="D336" t="s">
         <v>3</v>
@@ -5099,10 +5099,10 @@
         <v>335</v>
       </c>
       <c r="B337" s="2">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="C337">
-        <v>70910</v>
+        <v>71270</v>
       </c>
       <c r="D337" t="s">
         <v>3</v>
@@ -5113,10 +5113,10 @@
         <v>336</v>
       </c>
       <c r="B338" s="2">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="C338">
-        <v>71180</v>
+        <v>70910</v>
       </c>
       <c r="D338" t="s">
         <v>3</v>
@@ -5127,10 +5127,10 @@
         <v>337</v>
       </c>
       <c r="B339" s="2">
-        <v>44498</v>
+        <v>44502</v>
       </c>
       <c r="C339">
-        <v>71575</v>
+        <v>71180</v>
       </c>
       <c r="D339" t="s">
         <v>3</v>
@@ -5141,10 +5141,10 @@
         <v>338</v>
       </c>
       <c r="B340" s="2">
-        <v>44497</v>
+        <v>44498</v>
       </c>
       <c r="C340">
-        <v>70770</v>
+        <v>71575</v>
       </c>
       <c r="D340" t="s">
         <v>3</v>
@@ -5155,10 +5155,10 @@
         <v>339</v>
       </c>
       <c r="B341" s="2">
-        <v>44496</v>
+        <v>44497</v>
       </c>
       <c r="C341">
-        <v>72060</v>
+        <v>70770</v>
       </c>
       <c r="D341" t="s">
         <v>3</v>
@@ -5169,10 +5169,10 @@
         <v>340</v>
       </c>
       <c r="B342" s="2">
-        <v>44495</v>
+        <v>44496</v>
       </c>
       <c r="C342">
-        <v>72585</v>
+        <v>72060</v>
       </c>
       <c r="D342" t="s">
         <v>3</v>
@@ -5183,10 +5183,10 @@
         <v>341</v>
       </c>
       <c r="B343" s="2">
-        <v>44491</v>
+        <v>44495</v>
       </c>
       <c r="C343">
-        <v>73125</v>
+        <v>72585</v>
       </c>
       <c r="D343" t="s">
         <v>3</v>
@@ -5197,10 +5197,10 @@
         <v>342</v>
       </c>
       <c r="B344" s="2">
-        <v>44490</v>
+        <v>44491</v>
       </c>
       <c r="C344">
-        <v>75190</v>
+        <v>73125</v>
       </c>
       <c r="D344" t="s">
         <v>3</v>
@@ -5211,10 +5211,10 @@
         <v>343</v>
       </c>
       <c r="B345" s="2">
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="C345">
-        <v>73430</v>
+        <v>75190</v>
       </c>
       <c r="D345" t="s">
         <v>3</v>
@@ -5225,10 +5225,10 @@
         <v>344</v>
       </c>
       <c r="B346" s="2">
-        <v>44488</v>
+        <v>44489</v>
       </c>
       <c r="C346">
-        <v>75750</v>
+        <v>73430</v>
       </c>
       <c r="D346" t="s">
         <v>3</v>
@@ -5239,10 +5239,10 @@
         <v>345</v>
       </c>
       <c r="B347" s="2">
-        <v>44484</v>
+        <v>44488</v>
       </c>
       <c r="C347">
-        <v>74060</v>
+        <v>75750</v>
       </c>
       <c r="D347" t="s">
         <v>3</v>
@@ -5253,10 +5253,10 @@
         <v>346</v>
       </c>
       <c r="B348" s="2">
-        <v>44483</v>
+        <v>44484</v>
       </c>
       <c r="C348">
-        <v>72540</v>
+        <v>74060</v>
       </c>
       <c r="D348" t="s">
         <v>3</v>
@@ -5267,10 +5267,10 @@
         <v>347</v>
       </c>
       <c r="B349" s="2">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="C349">
-        <v>70160</v>
+        <v>72540</v>
       </c>
       <c r="D349" t="s">
         <v>3</v>
@@ -5281,10 +5281,10 @@
         <v>348</v>
       </c>
       <c r="B350" s="2">
-        <v>44481</v>
+        <v>44482</v>
       </c>
       <c r="C350">
-        <v>70320</v>
+        <v>70160</v>
       </c>
       <c r="D350" t="s">
         <v>3</v>
@@ -5295,10 +5295,10 @@
         <v>349</v>
       </c>
       <c r="B351" s="2">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="C351">
-        <v>69940</v>
+        <v>70320</v>
       </c>
       <c r="D351" t="s">
         <v>3</v>
@@ -5309,10 +5309,10 @@
         <v>350</v>
       </c>
       <c r="B352" s="2">
-        <v>44469</v>
+        <v>44477</v>
       </c>
       <c r="C352">
-        <v>68700</v>
+        <v>69940</v>
       </c>
       <c r="D352" t="s">
         <v>3</v>
@@ -5323,10 +5323,10 @@
         <v>351</v>
       </c>
       <c r="B353" s="2">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="C353">
-        <v>68965</v>
+        <v>68700</v>
       </c>
       <c r="D353" t="s">
         <v>3</v>
@@ -5337,10 +5337,10 @@
         <v>352</v>
       </c>
       <c r="B354" s="2">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="C354">
-        <v>69520</v>
+        <v>68965</v>
       </c>
       <c r="D354" t="s">
         <v>3</v>
@@ -5351,10 +5351,10 @@
         <v>353</v>
       </c>
       <c r="B355" s="2">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="C355">
-        <v>69375</v>
+        <v>69520</v>
       </c>
       <c r="D355" t="s">
         <v>3</v>
@@ -5365,10 +5365,10 @@
         <v>354</v>
       </c>
       <c r="B356" s="2">
-        <v>44462</v>
+        <v>44463</v>
       </c>
       <c r="C356">
-        <v>69040</v>
+        <v>69375</v>
       </c>
       <c r="D356" t="s">
         <v>3</v>
@@ -5379,10 +5379,10 @@
         <v>355</v>
       </c>
       <c r="B357" s="2">
-        <v>44461</v>
+        <v>44462</v>
       </c>
       <c r="C357">
-        <v>69075</v>
+        <v>69040</v>
       </c>
       <c r="D357" t="s">
         <v>3</v>
@@ -5393,10 +5393,10 @@
         <v>356</v>
       </c>
       <c r="B358" s="2">
-        <v>44456</v>
+        <v>44461</v>
       </c>
       <c r="C358">
-        <v>69810</v>
+        <v>69075</v>
       </c>
       <c r="D358" t="s">
         <v>3</v>
@@ -5407,10 +5407,10 @@
         <v>357</v>
       </c>
       <c r="B359" s="2">
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="C359">
-        <v>70460</v>
+        <v>69810</v>
       </c>
       <c r="D359" t="s">
         <v>3</v>
@@ -5421,10 +5421,10 @@
         <v>358</v>
       </c>
       <c r="B360" s="2">
-        <v>44454</v>
+        <v>44455</v>
       </c>
       <c r="C360">
-        <v>69860</v>
+        <v>70460</v>
       </c>
       <c r="D360" t="s">
         <v>3</v>
@@ -5435,10 +5435,10 @@
         <v>359</v>
       </c>
       <c r="B361" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="C361">
-        <v>70520</v>
+        <v>69860</v>
       </c>
       <c r="D361" t="s">
         <v>3</v>
@@ -5449,10 +5449,10 @@
         <v>360</v>
       </c>
       <c r="B362" s="2">
-        <v>44449</v>
+        <v>44453</v>
       </c>
       <c r="C362">
-        <v>70035</v>
+        <v>70520</v>
       </c>
       <c r="D362" t="s">
         <v>3</v>
@@ -5463,10 +5463,10 @@
         <v>361</v>
       </c>
       <c r="B363" s="2">
-        <v>44448</v>
+        <v>44449</v>
       </c>
       <c r="C363">
-        <v>68850</v>
+        <v>70035</v>
       </c>
       <c r="D363" t="s">
         <v>3</v>
@@ -5477,10 +5477,10 @@
         <v>362</v>
       </c>
       <c r="B364" s="2">
-        <v>44447</v>
+        <v>44448</v>
       </c>
       <c r="C364">
-        <v>69250</v>
+        <v>68850</v>
       </c>
       <c r="D364" t="s">
         <v>3</v>
@@ -5491,10 +5491,10 @@
         <v>363</v>
       </c>
       <c r="B365" s="2">
-        <v>44446</v>
+        <v>44447</v>
       </c>
       <c r="C365">
-        <v>69580</v>
+        <v>69250</v>
       </c>
       <c r="D365" t="s">
         <v>3</v>
@@ -5505,10 +5505,10 @@
         <v>364</v>
       </c>
       <c r="B366" s="2">
-        <v>44442</v>
+        <v>44446</v>
       </c>
       <c r="C366">
-        <v>69575</v>
+        <v>69580</v>
       </c>
       <c r="D366" t="s">
         <v>3</v>
@@ -5519,10 +5519,10 @@
         <v>365</v>
       </c>
       <c r="B367" s="2">
-        <v>44441</v>
+        <v>44442</v>
       </c>
       <c r="C367">
-        <v>69460</v>
+        <v>69575</v>
       </c>
       <c r="D367" t="s">
         <v>3</v>
@@ -5533,10 +5533,10 @@
         <v>366</v>
       </c>
       <c r="B368" s="2">
-        <v>44440</v>
+        <v>44441</v>
       </c>
       <c r="C368">
-        <v>69940</v>
+        <v>69460</v>
       </c>
       <c r="D368" t="s">
         <v>3</v>
@@ -5547,10 +5547,10 @@
         <v>367</v>
       </c>
       <c r="B369" s="2">
-        <v>44439</v>
+        <v>44440</v>
       </c>
       <c r="C369">
-        <v>70315</v>
+        <v>69940</v>
       </c>
       <c r="D369" t="s">
         <v>3</v>
@@ -5561,10 +5561,10 @@
         <v>368</v>
       </c>
       <c r="B370" s="2">
-        <v>44435</v>
+        <v>44439</v>
       </c>
       <c r="C370">
-        <v>69185</v>
+        <v>70315</v>
       </c>
       <c r="D370" t="s">
         <v>3</v>
@@ -5575,10 +5575,10 @@
         <v>369</v>
       </c>
       <c r="B371" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="C371">
-        <v>69260</v>
+        <v>69185</v>
       </c>
       <c r="D371" t="s">
         <v>3</v>
@@ -5589,10 +5589,10 @@
         <v>370</v>
       </c>
       <c r="B372" s="2">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="C372">
-        <v>69600</v>
+        <v>69260</v>
       </c>
       <c r="D372" t="s">
         <v>3</v>
@@ -5603,10 +5603,10 @@
         <v>371</v>
       </c>
       <c r="B373" s="2">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="C373">
-        <v>68940</v>
+        <v>69600</v>
       </c>
       <c r="D373" t="s">
         <v>3</v>
@@ -5617,10 +5617,10 @@
         <v>372</v>
       </c>
       <c r="B374" s="2">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="C374">
-        <v>67260</v>
+        <v>68940</v>
       </c>
       <c r="D374" t="s">
         <v>3</v>
@@ -5631,10 +5631,10 @@
         <v>373</v>
       </c>
       <c r="B375" s="2">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="C375">
-        <v>67700</v>
+        <v>67260</v>
       </c>
       <c r="D375" t="s">
         <v>3</v>
@@ -5645,10 +5645,10 @@
         <v>374</v>
       </c>
       <c r="B376" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="C376">
-        <v>69240</v>
+        <v>67700</v>
       </c>
       <c r="D376" t="s">
         <v>3</v>
@@ -5659,10 +5659,10 @@
         <v>375</v>
       </c>
       <c r="B377" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="C377">
-        <v>70080</v>
+        <v>69240</v>
       </c>
       <c r="D377" t="s">
         <v>3</v>
@@ -5673,10 +5673,10 @@
         <v>376</v>
       </c>
       <c r="B378" s="2">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="C378">
-        <v>70240</v>
+        <v>70080</v>
       </c>
       <c r="D378" t="s">
         <v>3</v>
@@ -5687,10 +5687,10 @@
         <v>377</v>
       </c>
       <c r="B379" s="2">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="C379">
-        <v>70430</v>
+        <v>70240</v>
       </c>
       <c r="D379" t="s">
         <v>3</v>
@@ -5701,10 +5701,10 @@
         <v>378</v>
       </c>
       <c r="B380" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="C380">
-        <v>70000</v>
+        <v>70430</v>
       </c>
       <c r="D380" t="s">
         <v>3</v>
@@ -5715,10 +5715,10 @@
         <v>379</v>
       </c>
       <c r="B381" s="2">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="C381">
-        <v>69560</v>
+        <v>70000</v>
       </c>
       <c r="D381" t="s">
         <v>3</v>
@@ -5729,10 +5729,10 @@
         <v>380</v>
       </c>
       <c r="B382" s="2">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="C382">
-        <v>69800</v>
+        <v>69560</v>
       </c>
       <c r="D382" t="s">
         <v>3</v>
@@ -5743,10 +5743,10 @@
         <v>381</v>
       </c>
       <c r="B383" s="2">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="C383">
-        <v>69660</v>
+        <v>69800</v>
       </c>
       <c r="D383" t="s">
         <v>3</v>
@@ -5757,10 +5757,10 @@
         <v>382</v>
       </c>
       <c r="B384" s="2">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="C384">
-        <v>70290</v>
+        <v>69660</v>
       </c>
       <c r="D384" t="s">
         <v>3</v>
@@ -5771,10 +5771,10 @@
         <v>383</v>
       </c>
       <c r="B385" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="C385">
-        <v>71030</v>
+        <v>70290</v>
       </c>
       <c r="D385" t="s">
         <v>3</v>
@@ -5785,10 +5785,10 @@
         <v>384</v>
       </c>
       <c r="B386" s="2">
-        <v>44407</v>
+        <v>44411</v>
       </c>
       <c r="C386">
-        <v>71900</v>
+        <v>71030</v>
       </c>
       <c r="D386" t="s">
         <v>3</v>
@@ -5799,10 +5799,10 @@
         <v>385</v>
       </c>
       <c r="B387" s="2">
-        <v>44406</v>
+        <v>44407</v>
       </c>
       <c r="C387">
-        <v>71700</v>
+        <v>71900</v>
       </c>
       <c r="D387" t="s">
         <v>3</v>
@@ -5813,10 +5813,10 @@
         <v>386</v>
       </c>
       <c r="B388" s="2">
-        <v>44405</v>
+        <v>44406</v>
       </c>
       <c r="C388">
-        <v>72365</v>
+        <v>71700</v>
       </c>
       <c r="D388" t="s">
         <v>3</v>
@@ -5827,10 +5827,10 @@
         <v>387</v>
       </c>
       <c r="B389" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="C389">
-        <v>72520</v>
+        <v>72365</v>
       </c>
       <c r="D389" t="s">
         <v>3</v>
@@ -5841,10 +5841,10 @@
         <v>388</v>
       </c>
       <c r="B390" s="2">
-        <v>44400</v>
+        <v>44404</v>
       </c>
       <c r="C390">
-        <v>70090</v>
+        <v>72520</v>
       </c>
       <c r="D390" t="s">
         <v>3</v>
@@ -5855,10 +5855,10 @@
         <v>389</v>
       </c>
       <c r="B391" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="C391">
-        <v>69040</v>
+        <v>70090</v>
       </c>
       <c r="D391" t="s">
         <v>3</v>
@@ -5869,10 +5869,10 @@
         <v>390</v>
       </c>
       <c r="B392" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="C392">
-        <v>68600</v>
+        <v>69040</v>
       </c>
       <c r="D392" t="s">
         <v>3</v>
@@ -5883,10 +5883,10 @@
         <v>391</v>
       </c>
       <c r="B393" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="C393">
-        <v>68390</v>
+        <v>68600</v>
       </c>
       <c r="D393" t="s">
         <v>3</v>
@@ -5897,10 +5897,10 @@
         <v>392</v>
       </c>
       <c r="B394" s="2">
-        <v>44393</v>
+        <v>44397</v>
       </c>
       <c r="C394">
-        <v>69660</v>
+        <v>68390</v>
       </c>
       <c r="D394" t="s">
         <v>3</v>
@@ -5911,10 +5911,10 @@
         <v>393</v>
       </c>
       <c r="B395" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="C395">
-        <v>68830</v>
+        <v>69660</v>
       </c>
       <c r="D395" t="s">
         <v>3</v>
@@ -5925,10 +5925,10 @@
         <v>394</v>
       </c>
       <c r="B396" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="C396">
-        <v>68810</v>
+        <v>68830</v>
       </c>
       <c r="D396" t="s">
         <v>3</v>
@@ -5939,10 +5939,10 @@
         <v>395</v>
       </c>
       <c r="B397" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="C397">
-        <v>69370</v>
+        <v>68810</v>
       </c>
       <c r="D397" t="s">
         <v>3</v>
@@ -5953,10 +5953,10 @@
         <v>396</v>
       </c>
       <c r="B398" s="2">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="C398">
-        <v>68800</v>
+        <v>69370</v>
       </c>
       <c r="D398" t="s">
         <v>3</v>
@@ -5967,10 +5967,10 @@
         <v>397</v>
       </c>
       <c r="B399" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="C399">
-        <v>68900</v>
+        <v>68800</v>
       </c>
       <c r="D399" t="s">
         <v>3</v>
@@ -5981,10 +5981,10 @@
         <v>398</v>
       </c>
       <c r="B400" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="C400">
-        <v>68540</v>
+        <v>68900</v>
       </c>
       <c r="D400" t="s">
         <v>3</v>
@@ -5995,10 +5995,10 @@
         <v>399</v>
       </c>
       <c r="B401" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="C401">
-        <v>69700</v>
+        <v>68540</v>
       </c>
       <c r="D401" t="s">
         <v>3</v>
@@ -6009,10 +6009,10 @@
         <v>400</v>
       </c>
       <c r="B402" s="2">
-        <v>44379</v>
+        <v>44383</v>
       </c>
       <c r="C402">
-        <v>68050</v>
+        <v>69700</v>
       </c>
       <c r="D402" t="s">
         <v>3</v>
@@ -6023,10 +6023,10 @@
         <v>401</v>
       </c>
       <c r="B403" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="C403">
-        <v>68490</v>
+        <v>68050</v>
       </c>
       <c r="D403" t="s">
         <v>3</v>
@@ -6037,10 +6037,10 @@
         <v>402</v>
       </c>
       <c r="B404" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="C404">
-        <v>68380</v>
+        <v>68490</v>
       </c>
       <c r="D404" t="s">
         <v>3</v>
@@ -6051,10 +6051,10 @@
         <v>403</v>
       </c>
       <c r="B405" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="C405">
-        <v>68050</v>
+        <v>68380</v>
       </c>
       <c r="D405" t="s">
         <v>3</v>
@@ -6065,10 +6065,10 @@
         <v>404</v>
       </c>
       <c r="B406" s="2">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="C406">
-        <v>68825</v>
+        <v>68050</v>
       </c>
       <c r="D406" t="s">
         <v>3</v>
@@ -6079,10 +6079,10 @@
         <v>405</v>
       </c>
       <c r="B407" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="C407">
-        <v>68600</v>
+        <v>68825</v>
       </c>
       <c r="D407" t="s">
         <v>3</v>
@@ -6093,10 +6093,10 @@
         <v>406</v>
       </c>
       <c r="B408" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="C408">
-        <v>68270</v>
+        <v>68600</v>
       </c>
       <c r="D408" t="s">
         <v>3</v>
@@ -6107,10 +6107,10 @@
         <v>407</v>
       </c>
       <c r="B409" s="2">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="C409">
-        <v>67400</v>
+        <v>68270</v>
       </c>
       <c r="D409" t="s">
         <v>3</v>
@@ -6121,10 +6121,10 @@
         <v>408</v>
       </c>
       <c r="B410" s="2">
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="C410">
-        <v>67730</v>
+        <v>67400</v>
       </c>
       <c r="D410" t="s">
         <v>3</v>
@@ -6135,10 +6135,10 @@
         <v>409</v>
       </c>
       <c r="B411" s="2">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="C411">
-        <v>69170</v>
+        <v>67730</v>
       </c>
       <c r="D411" t="s">
         <v>3</v>
@@ -6149,10 +6149,10 @@
         <v>410</v>
       </c>
       <c r="B412" s="2">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="C412">
-        <v>69260</v>
+        <v>69170</v>
       </c>
       <c r="D412" t="s">
         <v>3</v>
@@ -6163,10 +6163,10 @@
         <v>411</v>
       </c>
       <c r="B413" s="2">
-        <v>44358</v>
+        <v>44363</v>
       </c>
       <c r="C413">
-        <v>70800</v>
+        <v>69260</v>
       </c>
       <c r="D413" t="s">
         <v>3</v>
@@ -6177,10 +6177,10 @@
         <v>412</v>
       </c>
       <c r="B414" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="C414">
-        <v>71210</v>
+        <v>70800</v>
       </c>
       <c r="D414" t="s">
         <v>3</v>
@@ -6191,10 +6191,10 @@
         <v>413</v>
       </c>
       <c r="B415" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="C415">
-        <v>71710</v>
+        <v>71210</v>
       </c>
       <c r="D415" t="s">
         <v>3</v>
@@ -6205,10 +6205,10 @@
         <v>414</v>
       </c>
       <c r="B416" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="C416">
-        <v>71310</v>
+        <v>71710</v>
       </c>
       <c r="D416" t="s">
         <v>3</v>
@@ -6219,10 +6219,10 @@
         <v>415</v>
       </c>
       <c r="B417" s="2">
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="C417">
-        <v>71090</v>
+        <v>71310</v>
       </c>
       <c r="D417" t="s">
         <v>3</v>
@@ -6233,10 +6233,10 @@
         <v>416</v>
       </c>
       <c r="B418" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="C418">
-        <v>72950</v>
+        <v>71090</v>
       </c>
       <c r="D418" t="s">
         <v>3</v>
@@ -6247,10 +6247,10 @@
         <v>417</v>
       </c>
       <c r="B419" s="2">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="C419">
-        <v>73580</v>
+        <v>72950</v>
       </c>
       <c r="D419" t="s">
         <v>3</v>
@@ -6261,10 +6261,10 @@
         <v>418</v>
       </c>
       <c r="B420" s="2">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="C420">
-        <v>73790</v>
+        <v>73580</v>
       </c>
       <c r="D420" t="s">
         <v>3</v>
@@ -6275,10 +6275,10 @@
         <v>419</v>
       </c>
       <c r="B421" s="2">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="C421">
-        <v>73380</v>
+        <v>73790</v>
       </c>
       <c r="D421" t="s">
         <v>3</v>
@@ -6289,10 +6289,10 @@
         <v>420</v>
       </c>
       <c r="B422" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="C422">
-        <v>71350</v>
+        <v>73380</v>
       </c>
       <c r="D422" t="s">
         <v>3</v>
@@ -6303,10 +6303,10 @@
         <v>421</v>
       </c>
       <c r="B423" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="C423">
-        <v>71720</v>
+        <v>71350</v>
       </c>
       <c r="D423" t="s">
         <v>3</v>
@@ -6317,10 +6317,10 @@
         <v>422</v>
       </c>
       <c r="B424" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="C424">
-        <v>72360</v>
+        <v>71720</v>
       </c>
       <c r="D424" t="s">
         <v>3</v>
@@ -6331,10 +6331,10 @@
         <v>423</v>
       </c>
       <c r="B425" s="2">
-        <v>44337</v>
+        <v>44341</v>
       </c>
       <c r="C425">
-        <v>71950</v>
+        <v>72360</v>
       </c>
       <c r="D425" t="s">
         <v>3</v>
@@ -6345,10 +6345,10 @@
         <v>424</v>
       </c>
       <c r="B426" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="C426">
-        <v>72525</v>
+        <v>71950</v>
       </c>
       <c r="D426" t="s">
         <v>3</v>
@@ -6359,10 +6359,10 @@
         <v>425</v>
       </c>
       <c r="B427" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="C427">
-        <v>74840</v>
+        <v>72525</v>
       </c>
       <c r="D427" t="s">
         <v>3</v>
@@ -6373,10 +6373,10 @@
         <v>426</v>
       </c>
       <c r="B428" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="C428">
-        <v>75720</v>
+        <v>74840</v>
       </c>
       <c r="D428" t="s">
         <v>3</v>
@@ -6387,10 +6387,10 @@
         <v>427</v>
       </c>
       <c r="B429" s="2">
-        <v>44330</v>
+        <v>44334</v>
       </c>
       <c r="C429">
-        <v>74760</v>
+        <v>75720</v>
       </c>
       <c r="D429" t="s">
         <v>3</v>
@@ -6401,10 +6401,10 @@
         <v>428</v>
       </c>
       <c r="B430" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="C430">
-        <v>75910</v>
+        <v>74760</v>
       </c>
       <c r="D430" t="s">
         <v>3</v>
@@ -6415,10 +6415,10 @@
         <v>429</v>
       </c>
       <c r="B431" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="C431">
-        <v>76150</v>
+        <v>75910</v>
       </c>
       <c r="D431" t="s">
         <v>3</v>
@@ -6429,10 +6429,10 @@
         <v>430</v>
       </c>
       <c r="B432" s="2">
-        <v>44323</v>
+        <v>44328</v>
       </c>
       <c r="C432">
-        <v>74200</v>
+        <v>76150</v>
       </c>
       <c r="D432" t="s">
         <v>3</v>
@@ -6443,10 +6443,10 @@
         <v>431</v>
       </c>
       <c r="B433" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="C433">
-        <v>72690</v>
+        <v>74200</v>
       </c>
       <c r="D433" t="s">
         <v>3</v>
@@ -6457,10 +6457,10 @@
         <v>432</v>
       </c>
       <c r="B434" s="2">
-        <v>44316</v>
+        <v>44322</v>
       </c>
       <c r="C434">
-        <v>71680</v>
+        <v>72690</v>
       </c>
       <c r="D434" t="s">
         <v>3</v>
@@ -6471,10 +6471,10 @@
         <v>433</v>
       </c>
       <c r="B435" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="C435">
-        <v>72335</v>
+        <v>71680</v>
       </c>
       <c r="D435" t="s">
         <v>3</v>
@@ -6485,10 +6485,10 @@
         <v>434</v>
       </c>
       <c r="B436" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="C436">
-        <v>70920</v>
+        <v>72335</v>
       </c>
       <c r="D436" t="s">
         <v>3</v>
@@ -6499,10 +6499,10 @@
         <v>435</v>
       </c>
       <c r="B437" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="C437">
-        <v>71940</v>
+        <v>70920</v>
       </c>
       <c r="D437" t="s">
         <v>3</v>
@@ -6513,10 +6513,10 @@
         <v>436</v>
       </c>
       <c r="B438" s="2">
-        <v>44309</v>
+        <v>44313</v>
       </c>
       <c r="C438">
-        <v>69120</v>
+        <v>71940</v>
       </c>
       <c r="D438" t="s">
         <v>3</v>
@@ -6527,10 +6527,10 @@
         <v>437</v>
       </c>
       <c r="B439" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="C439">
-        <v>68840</v>
+        <v>69120</v>
       </c>
       <c r="D439" t="s">
         <v>3</v>
@@ -6541,10 +6541,10 @@
         <v>438</v>
       </c>
       <c r="B440" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="C440">
-        <v>68550</v>
+        <v>68840</v>
       </c>
       <c r="D440" t="s">
         <v>3</v>
@@ -6555,10 +6555,10 @@
         <v>439</v>
       </c>
       <c r="B441" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="C441">
-        <v>68990</v>
+        <v>68550</v>
       </c>
       <c r="D441" t="s">
         <v>3</v>
@@ -6569,10 +6569,10 @@
         <v>440</v>
       </c>
       <c r="B442" s="2">
-        <v>44302</v>
+        <v>44306</v>
       </c>
       <c r="C442">
-        <v>68550</v>
+        <v>68990</v>
       </c>
       <c r="D442" t="s">
         <v>3</v>
@@ -6583,10 +6583,10 @@
         <v>441</v>
       </c>
       <c r="B443" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="C443">
-        <v>67260</v>
+        <v>68550</v>
       </c>
       <c r="D443" t="s">
         <v>3</v>
@@ -6597,10 +6597,10 @@
         <v>442</v>
       </c>
       <c r="B444" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="C444">
-        <v>66125</v>
+        <v>67260</v>
       </c>
       <c r="D444" t="s">
         <v>3</v>
@@ -6611,10 +6611,10 @@
         <v>443</v>
       </c>
       <c r="B445" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="C445">
-        <v>65720</v>
+        <v>66125</v>
       </c>
       <c r="D445" t="s">
         <v>3</v>
@@ -6625,10 +6625,10 @@
         <v>444</v>
       </c>
       <c r="B446" s="2">
-        <v>44295</v>
+        <v>44299</v>
       </c>
       <c r="C446">
-        <v>66750</v>
+        <v>65720</v>
       </c>
       <c r="D446" t="s">
         <v>3</v>
@@ -6639,10 +6639,10 @@
         <v>445</v>
       </c>
       <c r="B447" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="C447">
-        <v>66500</v>
+        <v>66750</v>
       </c>
       <c r="D447" t="s">
         <v>3</v>
@@ -6653,10 +6653,10 @@
         <v>446</v>
       </c>
       <c r="B448" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="C448">
-        <v>66890</v>
+        <v>66500</v>
       </c>
       <c r="D448" t="s">
         <v>3</v>
@@ -6667,10 +6667,10 @@
         <v>447</v>
       </c>
       <c r="B449" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="C449">
-        <v>67140</v>
+        <v>66890</v>
       </c>
       <c r="D449" t="s">
         <v>3</v>
@@ -6681,10 +6681,10 @@
         <v>448</v>
       </c>
       <c r="B450" s="2">
-        <v>44288</v>
+        <v>44292</v>
       </c>
       <c r="C450">
-        <v>66040</v>
+        <v>67140</v>
       </c>
       <c r="D450" t="s">
         <v>3</v>
@@ -6695,10 +6695,10 @@
         <v>449</v>
       </c>
       <c r="B451" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="C451">
-        <v>65490</v>
+        <v>66040</v>
       </c>
       <c r="D451" t="s">
         <v>3</v>
@@ -6709,10 +6709,10 @@
         <v>450</v>
       </c>
       <c r="B452" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="C452">
-        <v>65175</v>
+        <v>65490</v>
       </c>
       <c r="D452" t="s">
         <v>3</v>
@@ -6723,10 +6723,10 @@
         <v>451</v>
       </c>
       <c r="B453" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="C453">
-        <v>66190</v>
+        <v>65175</v>
       </c>
       <c r="D453" t="s">
         <v>3</v>
@@ -6737,10 +6737,10 @@
         <v>452</v>
       </c>
       <c r="B454" s="2">
-        <v>44281</v>
+        <v>44285</v>
       </c>
       <c r="C454">
-        <v>65680</v>
+        <v>66190</v>
       </c>
       <c r="D454" t="s">
         <v>3</v>
@@ -6751,10 +6751,10 @@
         <v>453</v>
       </c>
       <c r="B455" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="C455">
-        <v>65770</v>
+        <v>65680</v>
       </c>
       <c r="D455" t="s">
         <v>3</v>
@@ -6765,10 +6765,10 @@
         <v>454</v>
       </c>
       <c r="B456" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="C456">
-        <v>66075</v>
+        <v>65770</v>
       </c>
       <c r="D456" t="s">
         <v>3</v>
@@ -6779,10 +6779,10 @@
         <v>455</v>
       </c>
       <c r="B457" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="C457">
-        <v>66740</v>
+        <v>66075</v>
       </c>
       <c r="D457" t="s">
         <v>3</v>
@@ -6793,10 +6793,10 @@
         <v>456</v>
       </c>
       <c r="B458" s="2">
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="C458">
-        <v>66550</v>
+        <v>66740</v>
       </c>
       <c r="D458" t="s">
         <v>3</v>
@@ -6807,10 +6807,10 @@
         <v>457</v>
       </c>
       <c r="B459" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="C459">
-        <v>67050</v>
+        <v>66550</v>
       </c>
       <c r="D459" t="s">
         <v>3</v>
@@ -6821,10 +6821,10 @@
         <v>458</v>
       </c>
       <c r="B460" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="C460">
-        <v>66200</v>
+        <v>67050</v>
       </c>
       <c r="D460" t="s">
         <v>3</v>
@@ -6835,10 +6835,10 @@
         <v>459</v>
       </c>
       <c r="B461" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="C461">
-        <v>67150</v>
+        <v>66200</v>
       </c>
       <c r="D461" t="s">
         <v>3</v>
@@ -6849,10 +6849,10 @@
         <v>460</v>
       </c>
       <c r="B462" s="2">
-        <v>44267</v>
+        <v>44271</v>
       </c>
       <c r="C462">
-        <v>66660</v>
+        <v>67150</v>
       </c>
       <c r="D462" t="s">
         <v>3</v>
@@ -6863,10 +6863,10 @@
         <v>461</v>
       </c>
       <c r="B463" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="C463">
-        <v>65580</v>
+        <v>66660</v>
       </c>
       <c r="D463" t="s">
         <v>3</v>
@@ -6877,10 +6877,10 @@
         <v>462</v>
       </c>
       <c r="B464" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="C464">
-        <v>65530</v>
+        <v>65580</v>
       </c>
       <c r="D464" t="s">
         <v>3</v>
@@ -6891,10 +6891,10 @@
         <v>463</v>
       </c>
       <c r="B465" s="2">
-        <v>44260</v>
+        <v>44265</v>
       </c>
       <c r="C465">
-        <v>64810</v>
+        <v>65530</v>
       </c>
       <c r="D465" t="s">
         <v>3</v>
@@ -6905,10 +6905,10 @@
         <v>464</v>
       </c>
       <c r="B466" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="C466">
-        <v>67020</v>
+        <v>64810</v>
       </c>
       <c r="D466" t="s">
         <v>3</v>
@@ -6919,10 +6919,10 @@
         <v>465</v>
       </c>
       <c r="B467" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="C467">
-        <v>67790</v>
+        <v>67020</v>
       </c>
       <c r="D467" t="s">
         <v>3</v>
@@ -6933,10 +6933,10 @@
         <v>466</v>
       </c>
       <c r="B468" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="C468">
-        <v>66140</v>
+        <v>67790</v>
       </c>
       <c r="D468" t="s">
         <v>3</v>
@@ -6947,10 +6947,10 @@
         <v>467</v>
       </c>
       <c r="B469" s="2">
-        <v>44253</v>
+        <v>44257</v>
       </c>
       <c r="C469">
-        <v>68410</v>
+        <v>66140</v>
       </c>
       <c r="D469" t="s">
         <v>3</v>
@@ -6961,10 +6961,10 @@
         <v>468</v>
       </c>
       <c r="B470" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="C470">
-        <v>69900</v>
+        <v>68410</v>
       </c>
       <c r="D470" t="s">
         <v>3</v>
@@ -6975,10 +6975,10 @@
         <v>469</v>
       </c>
       <c r="B471" s="2">
-        <v>44246</v>
+        <v>44252</v>
       </c>
       <c r="C471">
-        <v>63240</v>
+        <v>69900</v>
       </c>
       <c r="D471" t="s">
         <v>3</v>
@@ -6989,10 +6989,10 @@
         <v>470</v>
       </c>
       <c r="B472" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="C472">
-        <v>62690</v>
+        <v>63240</v>
       </c>
       <c r="D472" t="s">
         <v>3</v>
@@ -7003,10 +7003,10 @@
         <v>471</v>
       </c>
       <c r="B473" s="2">
-        <v>44237</v>
+        <v>44245</v>
       </c>
       <c r="C473">
-        <v>60230</v>
+        <v>62690</v>
       </c>
       <c r="D473" t="s">
         <v>3</v>
@@ -7017,10 +7017,10 @@
         <v>472</v>
       </c>
       <c r="B474" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="C474">
-        <v>59410</v>
+        <v>60230</v>
       </c>
       <c r="D474" t="s">
         <v>3</v>
@@ -7031,10 +7031,10 @@
         <v>473</v>
       </c>
       <c r="B475" s="2">
-        <v>44232</v>
+        <v>44236</v>
       </c>
       <c r="C475">
-        <v>58040</v>
+        <v>59410</v>
       </c>
       <c r="D475" t="s">
         <v>3</v>
@@ -7045,10 +7045,10 @@
         <v>474</v>
       </c>
       <c r="B476" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="C476">
-        <v>57825</v>
+        <v>58040</v>
       </c>
       <c r="D476" t="s">
         <v>3</v>
@@ -7059,10 +7059,10 @@
         <v>475</v>
       </c>
       <c r="B477" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="C477">
-        <v>57170</v>
+        <v>57825</v>
       </c>
       <c r="D477" t="s">
         <v>3</v>
@@ -7073,10 +7073,10 @@
         <v>476</v>
       </c>
       <c r="B478" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="C478">
-        <v>57700</v>
+        <v>57170</v>
       </c>
       <c r="D478" t="s">
         <v>3</v>
@@ -7087,10 +7087,10 @@
         <v>477</v>
       </c>
       <c r="B479" s="2">
-        <v>44225</v>
+        <v>44229</v>
       </c>
       <c r="C479">
-        <v>58180</v>
+        <v>57700</v>
       </c>
       <c r="D479" t="s">
         <v>3</v>
@@ -7101,10 +7101,10 @@
         <v>478</v>
       </c>
       <c r="B480" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="C480">
-        <v>57950</v>
+        <v>58180</v>
       </c>
       <c r="D480" t="s">
         <v>3</v>
@@ -7115,10 +7115,10 @@
         <v>479</v>
       </c>
       <c r="B481" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="C481">
-        <v>58745</v>
+        <v>57950</v>
       </c>
       <c r="D481" t="s">
         <v>3</v>
@@ -7129,10 +7129,10 @@
         <v>480</v>
       </c>
       <c r="B482" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="C482">
-        <v>58820</v>
+        <v>58745</v>
       </c>
       <c r="D482" t="s">
         <v>3</v>
@@ -7143,10 +7143,10 @@
         <v>481</v>
       </c>
       <c r="B483" s="2">
-        <v>44218</v>
+        <v>44222</v>
       </c>
       <c r="C483">
-        <v>58920</v>
+        <v>58820</v>
       </c>
       <c r="D483" t="s">
         <v>3</v>
@@ -7157,10 +7157,10 @@
         <v>482</v>
       </c>
       <c r="B484" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="C484">
-        <v>59280</v>
+        <v>58920</v>
       </c>
       <c r="D484" t="s">
         <v>3</v>
@@ -7171,10 +7171,10 @@
         <v>483</v>
       </c>
       <c r="B485" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="C485">
-        <v>59025</v>
+        <v>59280</v>
       </c>
       <c r="D485" t="s">
         <v>3</v>
@@ -7185,10 +7185,10 @@
         <v>484</v>
       </c>
       <c r="B486" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="C486">
-        <v>59030</v>
+        <v>59025</v>
       </c>
       <c r="D486" t="s">
         <v>3</v>
@@ -7199,10 +7199,10 @@
         <v>485</v>
       </c>
       <c r="B487" s="2">
-        <v>44211</v>
+        <v>44215</v>
       </c>
       <c r="C487">
-        <v>59560</v>
+        <v>59030</v>
       </c>
       <c r="D487" t="s">
         <v>3</v>
@@ -7213,10 +7213,10 @@
         <v>486</v>
       </c>
       <c r="B488" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="C488">
-        <v>58675</v>
+        <v>59560</v>
       </c>
       <c r="D488" t="s">
         <v>3</v>
@@ -7227,10 +7227,10 @@
         <v>487</v>
       </c>
       <c r="B489" s="2">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="C489">
-        <v>58840</v>
+        <v>58675</v>
       </c>
       <c r="D489" t="s">
         <v>3</v>
@@ -7241,10 +7241,10 @@
         <v>488</v>
       </c>
       <c r="B490" s="2">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="C490">
-        <v>58225</v>
+        <v>58840</v>
       </c>
       <c r="D490" t="s">
         <v>3</v>
@@ -7255,10 +7255,10 @@
         <v>489</v>
       </c>
       <c r="B491" s="2">
-        <v>44196</v>
+        <v>44208</v>
       </c>
       <c r="C491">
-        <v>57810</v>
+        <v>58225</v>
       </c>
       <c r="D491" t="s">
         <v>3</v>
@@ -7269,10 +7269,10 @@
         <v>490</v>
       </c>
       <c r="B492" s="2">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="C492">
-        <v>58150</v>
+        <v>57810</v>
       </c>
       <c r="D492" t="s">
         <v>3</v>
@@ -7283,10 +7283,10 @@
         <v>491</v>
       </c>
       <c r="B493" s="2">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="C493">
-        <v>58450</v>
+        <v>58150</v>
       </c>
       <c r="D493" t="s">
         <v>3</v>
@@ -7297,10 +7297,10 @@
         <v>492</v>
       </c>
       <c r="B494" s="2">
-        <v>44190</v>
+        <v>44194</v>
       </c>
       <c r="C494">
-        <v>58180</v>
+        <v>58450</v>
       </c>
       <c r="D494" t="s">
         <v>3</v>
@@ -7311,10 +7311,10 @@
         <v>493</v>
       </c>
       <c r="B495" s="2">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="C495">
-        <v>58110</v>
+        <v>58180</v>
       </c>
       <c r="D495" t="s">
         <v>3</v>
@@ -7325,10 +7325,10 @@
         <v>494</v>
       </c>
       <c r="B496" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="C496">
-        <v>57610</v>
+        <v>58110</v>
       </c>
       <c r="D496" t="s">
         <v>3</v>
@@ -7339,10 +7339,10 @@
         <v>495</v>
       </c>
       <c r="B497" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="C497">
-        <v>58550</v>
+        <v>57610</v>
       </c>
       <c r="D497" t="s">
         <v>3</v>
@@ -7353,10 +7353,10 @@
         <v>496</v>
       </c>
       <c r="B498" s="2">
-        <v>44183</v>
+        <v>44187</v>
       </c>
       <c r="C498">
-        <v>59090</v>
+        <v>58550</v>
       </c>
       <c r="D498" t="s">
         <v>3</v>
@@ -7367,10 +7367,10 @@
         <v>497</v>
       </c>
       <c r="B499" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="C499">
-        <v>58120</v>
+        <v>59090</v>
       </c>
       <c r="D499" t="s">
         <v>3</v>
@@ -7381,10 +7381,10 @@
         <v>498</v>
       </c>
       <c r="B500" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="C500">
-        <v>57850</v>
+        <v>58120</v>
       </c>
       <c r="D500" t="s">
         <v>3</v>
@@ -7395,10 +7395,10 @@
         <v>499</v>
       </c>
       <c r="B501" s="2">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="C501">
-        <v>57420</v>
+        <v>57850</v>
       </c>
       <c r="D501" t="s">
         <v>3</v>
@@ -7409,10 +7409,10 @@
         <v>500</v>
       </c>
       <c r="B502" s="2">
-        <v>44176</v>
+        <v>44180</v>
       </c>
       <c r="C502">
-        <v>58285</v>
+        <v>57420</v>
       </c>
       <c r="D502" t="s">
         <v>3</v>
@@ -7423,10 +7423,10 @@
         <v>501</v>
       </c>
       <c r="B503" s="2">
-        <v>44175</v>
+        <v>44176</v>
       </c>
       <c r="C503">
-        <v>57010</v>
+        <v>58285</v>
       </c>
       <c r="D503" t="s">
         <v>3</v>
@@ -7437,10 +7437,10 @@
         <v>502</v>
       </c>
       <c r="B504" s="2">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="C504">
-        <v>57270</v>
+        <v>57010</v>
       </c>
       <c r="D504" t="s">
         <v>3</v>
@@ -7451,10 +7451,10 @@
         <v>503</v>
       </c>
       <c r="B505" s="2">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="C505">
-        <v>57000</v>
+        <v>57270</v>
       </c>
       <c r="D505" t="s">
         <v>3</v>
@@ -7465,10 +7465,10 @@
         <v>504</v>
       </c>
       <c r="B506" s="2">
-        <v>44169</v>
+        <v>44173</v>
       </c>
       <c r="C506">
-        <v>57290</v>
+        <v>57000</v>
       </c>
       <c r="D506" t="s">
         <v>3</v>
@@ -7479,10 +7479,10 @@
         <v>505</v>
       </c>
       <c r="B507" s="2">
-        <v>44168</v>
+        <v>44169</v>
       </c>
       <c r="C507">
-        <v>57300</v>
+        <v>57290</v>
       </c>
       <c r="D507" t="s">
         <v>3</v>
@@ -7493,10 +7493,10 @@
         <v>506</v>
       </c>
       <c r="B508" s="2">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="C508">
-        <v>57280</v>
+        <v>57300</v>
       </c>
       <c r="D508" t="s">
         <v>3</v>
@@ -7507,10 +7507,10 @@
         <v>507</v>
       </c>
       <c r="B509" s="2">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="C509">
-        <v>57375</v>
+        <v>57280</v>
       </c>
       <c r="D509" t="s">
         <v>3</v>
@@ -7521,10 +7521,10 @@
         <v>508</v>
       </c>
       <c r="B510" s="2">
-        <v>44162</v>
+        <v>44166</v>
       </c>
       <c r="C510">
-        <v>55685</v>
+        <v>57375</v>
       </c>
       <c r="D510" t="s">
         <v>3</v>
@@ -7535,10 +7535,10 @@
         <v>509</v>
       </c>
       <c r="B511" s="2">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="C511">
-        <v>55120</v>
+        <v>55685</v>
       </c>
       <c r="D511" t="s">
         <v>3</v>
@@ -7549,10 +7549,10 @@
         <v>510</v>
       </c>
       <c r="B512" s="2">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="C512">
-        <v>54890</v>
+        <v>55120</v>
       </c>
       <c r="D512" t="s">
         <v>3</v>
@@ -7563,10 +7563,10 @@
         <v>511</v>
       </c>
       <c r="B513" s="2">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="C513">
-        <v>54110</v>
+        <v>54890</v>
       </c>
       <c r="D513" t="s">
         <v>3</v>
@@ -7577,10 +7577,10 @@
         <v>512</v>
       </c>
       <c r="B514" s="2">
-        <v>44155</v>
+        <v>44159</v>
       </c>
       <c r="C514">
-        <v>53220</v>
+        <v>54110</v>
       </c>
       <c r="D514" t="s">
         <v>3</v>
@@ -7591,10 +7591,10 @@
         <v>513</v>
       </c>
       <c r="B515" s="2">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="C515">
-        <v>52820</v>
+        <v>53220</v>
       </c>
       <c r="D515" t="s">
         <v>3</v>
@@ -7605,10 +7605,10 @@
         <v>514</v>
       </c>
       <c r="B516" s="2">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="C516">
-        <v>52740</v>
+        <v>52820</v>
       </c>
       <c r="D516" t="s">
         <v>3</v>
@@ -7619,10 +7619,10 @@
         <v>515</v>
       </c>
       <c r="B517" s="2">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="C517">
-        <v>53220</v>
+        <v>52740</v>
       </c>
       <c r="D517" t="s">
         <v>3</v>
@@ -7633,10 +7633,10 @@
         <v>516</v>
       </c>
       <c r="B518" s="2">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="C518">
-        <v>52025</v>
+        <v>53220</v>
       </c>
       <c r="D518" t="s">
         <v>3</v>
@@ -7647,10 +7647,10 @@
         <v>517</v>
       </c>
       <c r="B519" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="C519">
-        <v>51880</v>
+        <v>52025</v>
       </c>
       <c r="D519" t="s">
         <v>3</v>
@@ -7661,10 +7661,10 @@
         <v>518</v>
       </c>
       <c r="B520" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="C520">
-        <v>51990</v>
+        <v>51880</v>
       </c>
       <c r="D520" t="s">
         <v>3</v>
@@ -7675,10 +7675,10 @@
         <v>519</v>
       </c>
       <c r="B521" s="2">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="C521">
-        <v>52120</v>
+        <v>51990</v>
       </c>
       <c r="D521" t="s">
         <v>3</v>
@@ -7689,10 +7689,10 @@
         <v>520</v>
       </c>
       <c r="B522" s="2">
-        <v>44141</v>
+        <v>44145</v>
       </c>
       <c r="C522">
-        <v>51640</v>
+        <v>52120</v>
       </c>
       <c r="D522" t="s">
         <v>3</v>
@@ -7703,10 +7703,10 @@
         <v>521</v>
       </c>
       <c r="B523" s="2">
-        <v>44139</v>
+        <v>44141</v>
       </c>
       <c r="C523">
-        <v>51680</v>
+        <v>51640</v>
       </c>
       <c r="D523" t="s">
         <v>3</v>
@@ -7717,10 +7717,10 @@
         <v>522</v>
       </c>
       <c r="B524" s="2">
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C524">
-        <v>51750</v>
+        <v>51680</v>
       </c>
       <c r="D524" t="s">
         <v>3</v>
@@ -7731,10 +7731,10 @@
         <v>523</v>
       </c>
       <c r="B525" s="2">
-        <v>44134</v>
+        <v>44138</v>
       </c>
       <c r="C525">
-        <v>51530</v>
+        <v>51750</v>
       </c>
       <c r="D525" t="s">
         <v>3</v>
@@ -7745,10 +7745,10 @@
         <v>524</v>
       </c>
       <c r="B526" s="2">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="C526">
-        <v>51585</v>
+        <v>51530</v>
       </c>
       <c r="D526" t="s">
         <v>3</v>
@@ -7759,10 +7759,10 @@
         <v>525</v>
       </c>
       <c r="B527" s="2">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="C527">
-        <v>51730</v>
+        <v>51585</v>
       </c>
       <c r="D527" t="s">
         <v>3</v>
@@ -7773,10 +7773,10 @@
         <v>526</v>
       </c>
       <c r="B528" s="2">
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="C528">
-        <v>51540</v>
+        <v>51730</v>
       </c>
       <c r="D528" t="s">
         <v>3</v>
@@ -7787,10 +7787,10 @@
         <v>527</v>
       </c>
       <c r="B529" s="2">
-        <v>44127</v>
+        <v>44131</v>
       </c>
       <c r="C529">
-        <v>52210</v>
+        <v>51540</v>
       </c>
       <c r="D529" t="s">
         <v>3</v>
@@ -7801,10 +7801,10 @@
         <v>528</v>
       </c>
       <c r="B530" s="2">
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="C530">
-        <v>52370</v>
+        <v>52210</v>
       </c>
       <c r="D530" t="s">
         <v>3</v>
@@ -7815,10 +7815,10 @@
         <v>529</v>
       </c>
       <c r="B531" s="2">
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="C531">
-        <v>52250</v>
+        <v>52370</v>
       </c>
       <c r="D531" t="s">
         <v>3</v>
@@ -7829,10 +7829,10 @@
         <v>530</v>
       </c>
       <c r="B532" s="2">
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="C532">
-        <v>51450</v>
+        <v>52250</v>
       </c>
       <c r="D532" t="s">
         <v>3</v>
@@ -7843,10 +7843,10 @@
         <v>531</v>
       </c>
       <c r="B533" s="2">
-        <v>44120</v>
+        <v>44124</v>
       </c>
       <c r="C533">
-        <v>51800</v>
+        <v>51450</v>
       </c>
       <c r="D533" t="s">
         <v>3</v>
@@ -7857,10 +7857,10 @@
         <v>532</v>
       </c>
       <c r="B534" s="2">
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="C534">
-        <v>51370</v>
+        <v>51800</v>
       </c>
       <c r="D534" t="s">
         <v>3</v>
@@ -7871,10 +7871,10 @@
         <v>533</v>
       </c>
       <c r="B535" s="2">
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="C535">
-        <v>51470</v>
+        <v>51370</v>
       </c>
       <c r="D535" t="s">
         <v>3</v>
@@ -7885,10 +7885,10 @@
         <v>534</v>
       </c>
       <c r="B536" s="2">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="C536">
-        <v>51540</v>
+        <v>51470</v>
       </c>
       <c r="D536" t="s">
         <v>3</v>
@@ -7899,10 +7899,10 @@
         <v>535</v>
       </c>
       <c r="B537" s="2">
-        <v>44113</v>
+        <v>44117</v>
       </c>
       <c r="C537">
-        <v>51565</v>
+        <v>51540</v>
       </c>
       <c r="D537" t="s">
         <v>3</v>
@@ -7913,10 +7913,10 @@
         <v>536</v>
       </c>
       <c r="B538" s="2">
-        <v>44104</v>
+        <v>44113</v>
       </c>
       <c r="C538">
-        <v>51185</v>
+        <v>51565</v>
       </c>
       <c r="D538" t="s">
         <v>3</v>
@@ -7927,10 +7927,10 @@
         <v>537</v>
       </c>
       <c r="B539" s="2">
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C539">
-        <v>51110</v>
+        <v>51185</v>
       </c>
       <c r="D539" t="s">
         <v>3</v>
@@ -7941,10 +7941,10 @@
         <v>538</v>
       </c>
       <c r="B540" s="2">
-        <v>44099</v>
+        <v>44103</v>
       </c>
       <c r="C540">
-        <v>50890</v>
+        <v>51110</v>
       </c>
       <c r="D540" t="s">
         <v>3</v>
@@ -7955,10 +7955,10 @@
         <v>539</v>
       </c>
       <c r="B541" s="2">
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C541">
-        <v>50745</v>
+        <v>50890</v>
       </c>
       <c r="D541" t="s">
         <v>3</v>
@@ -7969,10 +7969,10 @@
         <v>540</v>
       </c>
       <c r="B542" s="2">
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C542">
-        <v>51620</v>
+        <v>50745</v>
       </c>
       <c r="D542" t="s">
         <v>3</v>
@@ -7983,10 +7983,10 @@
         <v>541</v>
       </c>
       <c r="B543" s="2">
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C543">
-        <v>51920</v>
+        <v>51620</v>
       </c>
       <c r="D543" t="s">
         <v>3</v>
@@ -7997,10 +7997,10 @@
         <v>542</v>
       </c>
       <c r="B544" s="2">
-        <v>44092</v>
+        <v>44096</v>
       </c>
       <c r="C544">
-        <v>52210</v>
+        <v>51920</v>
       </c>
       <c r="D544" t="s">
         <v>3</v>
@@ -8011,10 +8011,10 @@
         <v>543</v>
       </c>
       <c r="B545" s="2">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C545">
-        <v>51455</v>
+        <v>52210</v>
       </c>
       <c r="D545" t="s">
         <v>3</v>
@@ -8025,10 +8025,10 @@
         <v>544</v>
       </c>
       <c r="B546" s="2">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C546">
-        <v>51900</v>
+        <v>51455</v>
       </c>
       <c r="D546" t="s">
         <v>3</v>
@@ -8039,10 +8039,10 @@
         <v>545</v>
       </c>
       <c r="B547" s="2">
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C547">
-        <v>52150</v>
+        <v>51900</v>
       </c>
       <c r="D547" t="s">
         <v>3</v>
@@ -8053,10 +8053,10 @@
         <v>546</v>
       </c>
       <c r="B548" s="2">
-        <v>44085</v>
+        <v>44089</v>
       </c>
       <c r="C548">
-        <v>51535</v>
+        <v>52150</v>
       </c>
       <c r="D548" t="s">
         <v>3</v>
@@ -8067,10 +8067,10 @@
         <v>547</v>
       </c>
       <c r="B549" s="2">
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C549">
-        <v>52130</v>
+        <v>51535</v>
       </c>
       <c r="D549" t="s">
         <v>3</v>
@@ -8081,10 +8081,10 @@
         <v>548</v>
       </c>
       <c r="B550" s="2">
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C550">
-        <v>52065</v>
+        <v>52130</v>
       </c>
       <c r="D550" t="s">
         <v>3</v>
@@ -8095,10 +8095,10 @@
         <v>549</v>
       </c>
       <c r="B551" s="2">
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C551">
-        <v>52520</v>
+        <v>52065</v>
       </c>
       <c r="D551" t="s">
         <v>3</v>
@@ -8109,10 +8109,10 @@
         <v>550</v>
       </c>
       <c r="B552" s="2">
-        <v>44078</v>
+        <v>44082</v>
       </c>
       <c r="C552">
-        <v>51495</v>
+        <v>52520</v>
       </c>
       <c r="D552" t="s">
         <v>3</v>
@@ -8123,10 +8123,10 @@
         <v>551</v>
       </c>
       <c r="B553" s="2">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C553">
-        <v>52140</v>
+        <v>51495</v>
       </c>
       <c r="D553" t="s">
         <v>3</v>
@@ -8137,10 +8137,10 @@
         <v>552</v>
       </c>
       <c r="B554" s="2">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="C554">
-        <v>51935</v>
+        <v>52140</v>
       </c>
       <c r="D554" t="s">
         <v>3</v>
@@ -8151,10 +8151,10 @@
         <v>553</v>
       </c>
       <c r="B555" s="2">
-        <v>44075</v>
+        <v>44076</v>
       </c>
       <c r="C555">
-        <v>52390</v>
+        <v>51935</v>
       </c>
       <c r="D555" t="s">
         <v>3</v>
@@ -8165,10 +8165,10 @@
         <v>554</v>
       </c>
       <c r="B556" s="2">
-        <v>44071</v>
+        <v>44075</v>
       </c>
       <c r="C556">
-        <v>51800</v>
+        <v>52390</v>
       </c>
       <c r="D556" t="s">
         <v>3</v>
@@ -8179,10 +8179,10 @@
         <v>555</v>
       </c>
       <c r="B557" s="2">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="C557">
-        <v>51420</v>
+        <v>51800</v>
       </c>
       <c r="D557" t="s">
         <v>3</v>
@@ -8193,10 +8193,10 @@
         <v>556</v>
       </c>
       <c r="B558" s="2">
-        <v>44069</v>
+        <v>44070</v>
       </c>
       <c r="C558">
-        <v>51380</v>
+        <v>51420</v>
       </c>
       <c r="D558" t="s">
         <v>3</v>
@@ -8207,10 +8207,10 @@
         <v>557</v>
       </c>
       <c r="B559" s="2">
-        <v>44068</v>
+        <v>44069</v>
       </c>
       <c r="C559">
-        <v>51370</v>
+        <v>51380</v>
       </c>
       <c r="D559" t="s">
         <v>3</v>
@@ -8221,10 +8221,10 @@
         <v>558</v>
       </c>
       <c r="B560" s="2">
-        <v>44064</v>
+        <v>44068</v>
       </c>
       <c r="C560">
-        <v>52065</v>
+        <v>51370</v>
       </c>
       <c r="D560" t="s">
         <v>3</v>
@@ -8235,10 +8235,10 @@
         <v>559</v>
       </c>
       <c r="B561" s="2">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="C561">
-        <v>52200</v>
+        <v>52065</v>
       </c>
       <c r="D561" t="s">
         <v>3</v>
@@ -8249,10 +8249,10 @@
         <v>560</v>
       </c>
       <c r="B562" s="2">
-        <v>44062</v>
+        <v>44063</v>
       </c>
       <c r="C562">
-        <v>52300</v>
+        <v>52200</v>
       </c>
       <c r="D562" t="s">
         <v>3</v>
@@ -8263,10 +8263,10 @@
         <v>561</v>
       </c>
       <c r="B563" s="2">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="C563">
-        <v>51135</v>
+        <v>52300</v>
       </c>
       <c r="D563" t="s">
         <v>3</v>
@@ -8277,10 +8277,10 @@
         <v>562</v>
       </c>
       <c r="B564" s="2">
-        <v>44057</v>
+        <v>44061</v>
       </c>
       <c r="C564">
-        <v>50040</v>
+        <v>51135</v>
       </c>
       <c r="D564" t="s">
         <v>3</v>
@@ -8291,10 +8291,10 @@
         <v>563</v>
       </c>
       <c r="B565" s="2">
-        <v>44056</v>
+        <v>44057</v>
       </c>
       <c r="C565">
-        <v>50530</v>
+        <v>50040</v>
       </c>
       <c r="D565" t="s">
         <v>3</v>
@@ -8305,10 +8305,10 @@
         <v>564</v>
       </c>
       <c r="B566" s="2">
-        <v>44055</v>
+        <v>44056</v>
       </c>
       <c r="C566">
-        <v>49980</v>
+        <v>50530</v>
       </c>
       <c r="D566" t="s">
         <v>3</v>
@@ -8319,10 +8319,10 @@
         <v>565</v>
       </c>
       <c r="B567" s="2">
-        <v>44054</v>
+        <v>44055</v>
       </c>
       <c r="C567">
-        <v>50790</v>
+        <v>49980</v>
       </c>
       <c r="D567" t="s">
         <v>3</v>
@@ -8333,10 +8333,10 @@
         <v>566</v>
       </c>
       <c r="B568" s="2">
-        <v>44050</v>
+        <v>44054</v>
       </c>
       <c r="C568">
-        <v>51440</v>
+        <v>50790</v>
       </c>
       <c r="D568" t="s">
         <v>3</v>
@@ -8347,10 +8347,10 @@
         <v>567</v>
       </c>
       <c r="B569" s="2">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="C569">
-        <v>51385</v>
+        <v>51440</v>
       </c>
       <c r="D569" t="s">
         <v>3</v>
@@ -8361,10 +8361,10 @@
         <v>568</v>
       </c>
       <c r="B570" s="2">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="C570">
-        <v>51370</v>
+        <v>51385</v>
       </c>
       <c r="D570" t="s">
         <v>3</v>
@@ -8375,10 +8375,10 @@
         <v>569</v>
       </c>
       <c r="B571" s="2">
-        <v>44047</v>
+        <v>44048</v>
       </c>
       <c r="C571">
-        <v>51675</v>
+        <v>51370</v>
       </c>
       <c r="D571" t="s">
         <v>3</v>
@@ -8389,10 +8389,10 @@
         <v>570</v>
       </c>
       <c r="B572" s="2">
-        <v>44043</v>
+        <v>44047</v>
       </c>
       <c r="C572">
-        <v>51850</v>
+        <v>51675</v>
       </c>
       <c r="D572" t="s">
         <v>3</v>
@@ -8403,10 +8403,10 @@
         <v>571</v>
       </c>
       <c r="B573" s="2">
-        <v>44042</v>
+        <v>44043</v>
       </c>
       <c r="C573">
-        <v>51890</v>
+        <v>51850</v>
       </c>
       <c r="D573" t="s">
         <v>3</v>
@@ -8417,10 +8417,10 @@
         <v>572</v>
       </c>
       <c r="B574" s="2">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="C574">
-        <v>51830</v>
+        <v>51890</v>
       </c>
       <c r="D574" t="s">
         <v>3</v>
@@ -8431,10 +8431,10 @@
         <v>573</v>
       </c>
       <c r="B575" s="2">
-        <v>44040</v>
+        <v>44041</v>
       </c>
       <c r="C575">
-        <v>51850</v>
+        <v>51830</v>
       </c>
       <c r="D575" t="s">
         <v>3</v>
@@ -8445,10 +8445,10 @@
         <v>574</v>
       </c>
       <c r="B576" s="2">
-        <v>44036</v>
+        <v>44040</v>
       </c>
       <c r="C576">
-        <v>51930</v>
+        <v>51850</v>
       </c>
       <c r="D576" t="s">
         <v>3</v>
@@ -8459,10 +8459,10 @@
         <v>575</v>
       </c>
       <c r="B577" s="2">
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="C577">
-        <v>51875</v>
+        <v>51930</v>
       </c>
       <c r="D577" t="s">
         <v>3</v>
@@ -8473,10 +8473,10 @@
         <v>576</v>
       </c>
       <c r="B578" s="2">
-        <v>44034</v>
+        <v>44035</v>
       </c>
       <c r="C578">
-        <v>52600</v>
+        <v>51875</v>
       </c>
       <c r="D578" t="s">
         <v>3</v>
@@ -8487,10 +8487,10 @@
         <v>577</v>
       </c>
       <c r="B579" s="2">
-        <v>44033</v>
+        <v>44034</v>
       </c>
       <c r="C579">
-        <v>51935</v>
+        <v>52600</v>
       </c>
       <c r="D579" t="s">
         <v>3</v>
@@ -8501,10 +8501,10 @@
         <v>578</v>
       </c>
       <c r="B580" s="2">
-        <v>44029</v>
+        <v>44033</v>
       </c>
       <c r="C580">
-        <v>51685</v>
+        <v>51935</v>
       </c>
       <c r="D580" t="s">
         <v>3</v>
@@ -8515,10 +8515,10 @@
         <v>579</v>
       </c>
       <c r="B581" s="2">
-        <v>44028</v>
+        <v>44029</v>
       </c>
       <c r="C581">
-        <v>51240</v>
+        <v>51685</v>
       </c>
       <c r="D581" t="s">
         <v>3</v>
@@ -8529,10 +8529,10 @@
         <v>580</v>
       </c>
       <c r="B582" s="2">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="C582">
-        <v>52435</v>
+        <v>51240</v>
       </c>
       <c r="D582" t="s">
         <v>3</v>
@@ -8543,10 +8543,10 @@
         <v>581</v>
       </c>
       <c r="B583" s="2">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="C583">
-        <v>52150</v>
+        <v>52435</v>
       </c>
       <c r="D583" t="s">
         <v>3</v>
@@ -8557,10 +8557,10 @@
         <v>582</v>
       </c>
       <c r="B584" s="2">
-        <v>44022</v>
+        <v>44026</v>
       </c>
       <c r="C584">
-        <v>50600</v>
+        <v>52150</v>
       </c>
       <c r="D584" t="s">
         <v>3</v>
@@ -8571,10 +8571,10 @@
         <v>583</v>
       </c>
       <c r="B585" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="C585">
-        <v>50575</v>
+        <v>50600</v>
       </c>
       <c r="D585" t="s">
         <v>3</v>
@@ -8585,10 +8585,10 @@
         <v>584</v>
       </c>
       <c r="B586" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="C586">
-        <v>49845</v>
+        <v>50575</v>
       </c>
       <c r="D586" t="s">
         <v>3</v>
@@ -8599,10 +8599,10 @@
         <v>585</v>
       </c>
       <c r="B587" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="C587">
-        <v>49610</v>
+        <v>49845</v>
       </c>
       <c r="D587" t="s">
         <v>3</v>
@@ -8613,10 +8613,10 @@
         <v>586</v>
       </c>
       <c r="B588" s="2">
-        <v>44015</v>
+        <v>44019</v>
       </c>
       <c r="C588">
-        <v>49260</v>
+        <v>49610</v>
       </c>
       <c r="D588" t="s">
         <v>3</v>
@@ -8627,10 +8627,10 @@
         <v>587</v>
       </c>
       <c r="B589" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="C589">
-        <v>49460</v>
+        <v>49260</v>
       </c>
       <c r="D589" t="s">
         <v>3</v>
@@ -8641,10 +8641,10 @@
         <v>588</v>
       </c>
       <c r="B590" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="C590">
-        <v>49450</v>
+        <v>49460</v>
       </c>
       <c r="D590" t="s">
         <v>3</v>
@@ -8655,10 +8655,10 @@
         <v>589</v>
       </c>
       <c r="B591" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="C591">
-        <v>48930</v>
+        <v>49450</v>
       </c>
       <c r="D591" t="s">
         <v>3</v>
@@ -8669,10 +8669,10 @@
         <v>590</v>
       </c>
       <c r="B592" s="2">
-        <v>44006</v>
+        <v>44012</v>
       </c>
       <c r="C592">
-        <v>48160</v>
+        <v>48930</v>
       </c>
       <c r="D592" t="s">
         <v>3</v>
@@ -8683,10 +8683,10 @@
         <v>591</v>
       </c>
       <c r="B593" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="C593">
-        <v>47880</v>
+        <v>48160</v>
       </c>
       <c r="D593" t="s">
         <v>3</v>
@@ -8697,10 +8697,10 @@
         <v>592</v>
       </c>
       <c r="B594" s="2">
-        <v>44001</v>
+        <v>44005</v>
       </c>
       <c r="C594">
-        <v>47475</v>
+        <v>47880</v>
       </c>
       <c r="D594" t="s">
         <v>3</v>
@@ -8711,10 +8711,10 @@
         <v>593</v>
       </c>
       <c r="B595" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="C595">
-        <v>47110</v>
+        <v>47475</v>
       </c>
       <c r="D595" t="s">
         <v>3</v>
@@ -8725,10 +8725,10 @@
         <v>594</v>
       </c>
       <c r="B596" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="C596">
-        <v>46910</v>
+        <v>47110</v>
       </c>
       <c r="D596" t="s">
         <v>3</v>
@@ -8739,10 +8739,10 @@
         <v>595</v>
       </c>
       <c r="B597" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="C597">
-        <v>47080</v>
+        <v>46910</v>
       </c>
       <c r="D597" t="s">
         <v>3</v>
@@ -8753,10 +8753,10 @@
         <v>596</v>
       </c>
       <c r="B598" s="2">
-        <v>43994</v>
+        <v>43998</v>
       </c>
       <c r="C598">
-        <v>46760</v>
+        <v>47080</v>
       </c>
       <c r="D598" t="s">
         <v>3</v>
@@ -8767,10 +8767,10 @@
         <v>597</v>
       </c>
       <c r="B599" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="C599">
-        <v>47425</v>
+        <v>46760</v>
       </c>
       <c r="D599" t="s">
         <v>3</v>
@@ -8781,10 +8781,10 @@
         <v>598</v>
       </c>
       <c r="B600" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="C600">
-        <v>46855</v>
+        <v>47425</v>
       </c>
       <c r="D600" t="s">
         <v>3</v>
@@ -8795,10 +8795,10 @@
         <v>599</v>
       </c>
       <c r="B601" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="C601">
-        <v>46355</v>
+        <v>46855</v>
       </c>
       <c r="D601" t="s">
         <v>3</v>
@@ -8809,10 +8809,10 @@
         <v>600</v>
       </c>
       <c r="B602" s="2">
-        <v>43987</v>
+        <v>43991</v>
       </c>
       <c r="C602">
-        <v>44990</v>
+        <v>46355</v>
       </c>
       <c r="D602" t="s">
         <v>3</v>
@@ -8823,10 +8823,10 @@
         <v>601</v>
       </c>
       <c r="B603" s="2">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="C603">
-        <v>44850</v>
+        <v>44990</v>
       </c>
       <c r="D603" t="s">
         <v>3</v>
@@ -8837,10 +8837,10 @@
         <v>602</v>
       </c>
       <c r="B604" s="2">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="C604">
-        <v>45110</v>
+        <v>44850</v>
       </c>
       <c r="D604" t="s">
         <v>3</v>
@@ -8851,10 +8851,10 @@
         <v>603</v>
       </c>
       <c r="B605" s="2">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="C605">
-        <v>44895</v>
+        <v>45110</v>
       </c>
       <c r="D605" t="s">
         <v>3</v>
@@ -8865,10 +8865,10 @@
         <v>604</v>
       </c>
       <c r="B606" s="2">
-        <v>43980</v>
+        <v>43984</v>
       </c>
       <c r="C606">
-        <v>44135</v>
+        <v>44895</v>
       </c>
       <c r="D606" t="s">
         <v>3</v>
@@ -8879,10 +8879,10 @@
         <v>605</v>
       </c>
       <c r="B607" s="2">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="C607">
-        <v>44030</v>
+        <v>44135</v>
       </c>
       <c r="D607" t="s">
         <v>3</v>
@@ -8893,10 +8893,10 @@
         <v>606</v>
       </c>
       <c r="B608" s="2">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="C608">
-        <v>44170</v>
+        <v>44030</v>
       </c>
       <c r="D608" t="s">
         <v>3</v>
@@ -8907,10 +8907,10 @@
         <v>607</v>
       </c>
       <c r="B609" s="2">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="C609">
-        <v>44030</v>
+        <v>44170</v>
       </c>
       <c r="D609" t="s">
         <v>3</v>
@@ -8921,10 +8921,10 @@
         <v>608</v>
       </c>
       <c r="B610" s="2">
-        <v>43973</v>
+        <v>43977</v>
       </c>
       <c r="C610">
-        <v>43770</v>
+        <v>44030</v>
       </c>
       <c r="D610" t="s">
         <v>3</v>
@@ -8935,10 +8935,10 @@
         <v>609</v>
       </c>
       <c r="B611" s="2">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="C611">
-        <v>44620</v>
+        <v>43770</v>
       </c>
       <c r="D611" t="s">
         <v>3</v>
@@ -8949,10 +8949,10 @@
         <v>610</v>
       </c>
       <c r="B612" s="2">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="C612">
-        <v>44040</v>
+        <v>44620</v>
       </c>
       <c r="D612" t="s">
         <v>3</v>
@@ -8963,10 +8963,10 @@
         <v>611</v>
       </c>
       <c r="B613" s="2">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="C613">
-        <v>43995</v>
+        <v>44040</v>
       </c>
       <c r="D613" t="s">
         <v>3</v>
@@ -8977,10 +8977,10 @@
         <v>612</v>
       </c>
       <c r="B614" s="2">
-        <v>43966</v>
+        <v>43970</v>
       </c>
       <c r="C614">
-        <v>43325</v>
+        <v>43995</v>
       </c>
       <c r="D614" t="s">
         <v>3</v>
@@ -8991,10 +8991,10 @@
         <v>613</v>
       </c>
       <c r="B615" s="2">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="C615">
-        <v>43150</v>
+        <v>43325</v>
       </c>
       <c r="D615" t="s">
         <v>3</v>
@@ -9005,10 +9005,10 @@
         <v>614</v>
       </c>
       <c r="B616" s="2">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="C616">
-        <v>43080</v>
+        <v>43150</v>
       </c>
       <c r="D616" t="s">
         <v>3</v>
@@ -9019,10 +9019,10 @@
         <v>615</v>
       </c>
       <c r="B617" s="2">
-        <v>43959</v>
+        <v>43964</v>
       </c>
       <c r="C617">
-        <v>43600</v>
+        <v>43080</v>
       </c>
       <c r="D617" t="s">
         <v>3</v>
@@ -9033,10 +9033,10 @@
         <v>616</v>
       </c>
       <c r="B618" s="2">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="C618">
-        <v>43030</v>
+        <v>43600</v>
       </c>
       <c r="D618" t="s">
         <v>3</v>
@@ -9047,7 +9047,7 @@
         <v>617</v>
       </c>
       <c r="B619" s="2">
-        <v>43951</v>
+        <v>43958</v>
       </c>
       <c r="C619">
         <v>43030</v>
@@ -9061,10 +9061,10 @@
         <v>618</v>
       </c>
       <c r="B620" s="2">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C620">
-        <v>42810</v>
+        <v>43030</v>
       </c>
       <c r="D620" t="s">
         <v>3</v>
@@ -9075,10 +9075,10 @@
         <v>619</v>
       </c>
       <c r="B621" s="2">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="C621">
-        <v>42480</v>
+        <v>42810</v>
       </c>
       <c r="D621" t="s">
         <v>3</v>
@@ -9089,10 +9089,10 @@
         <v>620</v>
       </c>
       <c r="B622" s="2">
-        <v>43945</v>
+        <v>43949</v>
       </c>
       <c r="C622">
-        <v>42120</v>
+        <v>42480</v>
       </c>
       <c r="D622" t="s">
         <v>3</v>
@@ -9103,10 +9103,10 @@
         <v>621</v>
       </c>
       <c r="B623" s="2">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="C623">
-        <v>41980</v>
+        <v>42120</v>
       </c>
       <c r="D623" t="s">
         <v>3</v>
@@ -9117,10 +9117,10 @@
         <v>622</v>
       </c>
       <c r="B624" s="2">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="C624">
-        <v>40995</v>
+        <v>41980</v>
       </c>
       <c r="D624" t="s">
         <v>3</v>
@@ -9131,10 +9131,10 @@
         <v>623</v>
       </c>
       <c r="B625" s="2">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="C625">
-        <v>42060</v>
+        <v>40995</v>
       </c>
       <c r="D625" t="s">
         <v>3</v>
@@ -9145,10 +9145,10 @@
         <v>624</v>
       </c>
       <c r="B626" s="2">
-        <v>43938</v>
+        <v>43942</v>
       </c>
       <c r="C626">
-        <v>42470</v>
+        <v>42060</v>
       </c>
       <c r="D626" t="s">
         <v>3</v>
@@ -9159,10 +9159,10 @@
         <v>625</v>
       </c>
       <c r="B627" s="2">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="C627">
-        <v>41775</v>
+        <v>42470</v>
       </c>
       <c r="D627" t="s">
         <v>3</v>
@@ -9173,10 +9173,10 @@
         <v>626</v>
       </c>
       <c r="B628" s="2">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="C628">
-        <v>41860</v>
+        <v>41775</v>
       </c>
       <c r="D628" t="s">
         <v>3</v>
@@ -9187,10 +9187,10 @@
         <v>627</v>
       </c>
       <c r="B629" s="2">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="C629">
-        <v>41970</v>
+        <v>41860</v>
       </c>
       <c r="D629" t="s">
         <v>3</v>
@@ -9201,10 +9201,10 @@
         <v>628</v>
       </c>
       <c r="B630" s="2">
-        <v>43931</v>
+        <v>43935</v>
       </c>
       <c r="C630">
-        <v>40990</v>
+        <v>41970</v>
       </c>
       <c r="D630" t="s">
         <v>3</v>
@@ -9215,10 +9215,10 @@
         <v>629</v>
       </c>
       <c r="B631" s="2">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="C631">
-        <v>40950</v>
+        <v>40990</v>
       </c>
       <c r="D631" t="s">
         <v>3</v>
@@ -9229,10 +9229,10 @@
         <v>630</v>
       </c>
       <c r="B632" s="2">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="C632">
-        <v>40765</v>
+        <v>40950</v>
       </c>
       <c r="D632" t="s">
         <v>3</v>
@@ -9243,10 +9243,10 @@
         <v>631</v>
       </c>
       <c r="B633" s="2">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="C633">
-        <v>40840</v>
+        <v>40765</v>
       </c>
       <c r="D633" t="s">
         <v>3</v>
@@ -9257,10 +9257,10 @@
         <v>632</v>
       </c>
       <c r="B634" s="2">
-        <v>43917</v>
+        <v>43928</v>
       </c>
       <c r="C634">
-        <v>38865</v>
+        <v>40840</v>
       </c>
       <c r="D634" t="s">
         <v>3</v>
@@ -9271,10 +9271,10 @@
         <v>633</v>
       </c>
       <c r="B635" s="2">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="C635">
-        <v>38970</v>
+        <v>38865</v>
       </c>
       <c r="D635" t="s">
         <v>3</v>
@@ -9285,10 +9285,10 @@
         <v>634</v>
       </c>
       <c r="B636" s="2">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="C636">
-        <v>38750</v>
+        <v>38970</v>
       </c>
       <c r="D636" t="s">
         <v>3</v>
@@ -9299,10 +9299,10 @@
         <v>635</v>
       </c>
       <c r="B637" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="C637">
-        <v>37890</v>
+        <v>38750</v>
       </c>
       <c r="D637" t="s">
         <v>3</v>
@@ -9313,10 +9313,10 @@
         <v>636</v>
       </c>
       <c r="B638" s="2">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="C638">
-        <v>38290</v>
+        <v>37890</v>
       </c>
       <c r="D638" t="s">
         <v>3</v>
@@ -9327,10 +9327,10 @@
         <v>637</v>
       </c>
       <c r="B639" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="C639">
-        <v>37545</v>
+        <v>38290</v>
       </c>
       <c r="D639" t="s">
         <v>3</v>
@@ -9341,10 +9341,10 @@
         <v>638</v>
       </c>
       <c r="B640" s="2">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="C640">
-        <v>41400</v>
+        <v>37545</v>
       </c>
       <c r="D640" t="s">
         <v>3</v>
@@ -9355,10 +9355,10 @@
         <v>639</v>
       </c>
       <c r="B641" s="2">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="C641">
-        <v>42145</v>
+        <v>41400</v>
       </c>
       <c r="D641" t="s">
         <v>3</v>
@@ -9369,10 +9369,10 @@
         <v>640</v>
       </c>
       <c r="B642" s="2">
-        <v>43903</v>
+        <v>43907</v>
       </c>
       <c r="C642">
-        <v>42755</v>
+        <v>42145</v>
       </c>
       <c r="D642" t="s">
         <v>3</v>
@@ -9383,10 +9383,10 @@
         <v>641</v>
       </c>
       <c r="B643" s="2">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="C643">
-        <v>43185</v>
+        <v>42755</v>
       </c>
       <c r="D643" t="s">
         <v>3</v>
@@ -9397,10 +9397,10 @@
         <v>642</v>
       </c>
       <c r="B644" s="2">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="C644">
-        <v>44280</v>
+        <v>43185</v>
       </c>
       <c r="D644" t="s">
         <v>3</v>
@@ -9411,10 +9411,10 @@
         <v>643</v>
       </c>
       <c r="B645" s="2">
-        <v>43896</v>
+        <v>43901</v>
       </c>
       <c r="C645">
-        <v>44725</v>
+        <v>44280</v>
       </c>
       <c r="D645" t="s">
         <v>3</v>
@@ -9425,10 +9425,10 @@
         <v>644</v>
       </c>
       <c r="B646" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="C646">
-        <v>45055</v>
+        <v>44725</v>
       </c>
       <c r="D646" t="s">
         <v>3</v>
@@ -9439,10 +9439,10 @@
         <v>645</v>
       </c>
       <c r="B647" s="2">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="C647">
-        <v>45005</v>
+        <v>45055</v>
       </c>
       <c r="D647" t="s">
         <v>3</v>
@@ -9453,10 +9453,10 @@
         <v>646</v>
       </c>
       <c r="B648" s="2">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="C648">
-        <v>45345</v>
+        <v>45005</v>
       </c>
       <c r="D648" t="s">
         <v>3</v>
@@ -9467,10 +9467,10 @@
         <v>647</v>
       </c>
       <c r="B649" s="2">
-        <v>43889</v>
+        <v>43893</v>
       </c>
       <c r="C649">
-        <v>44630</v>
+        <v>45345</v>
       </c>
       <c r="D649" t="s">
         <v>3</v>
@@ -9481,10 +9481,10 @@
         <v>648</v>
       </c>
       <c r="B650" s="2">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="C650">
-        <v>45190</v>
+        <v>44630</v>
       </c>
       <c r="D650" t="s">
         <v>3</v>
@@ -9495,10 +9495,10 @@
         <v>649</v>
       </c>
       <c r="B651" s="2">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="C651">
-        <v>45360</v>
+        <v>45190</v>
       </c>
       <c r="D651" t="s">
         <v>3</v>
@@ -9509,10 +9509,10 @@
         <v>650</v>
       </c>
       <c r="B652" s="2">
-        <v>43882</v>
+        <v>43887</v>
       </c>
       <c r="C652">
-        <v>45910</v>
+        <v>45360</v>
       </c>
       <c r="D652" t="s">
         <v>3</v>
@@ -9523,10 +9523,10 @@
         <v>651</v>
       </c>
       <c r="B653" s="2">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="C653">
-        <v>46010</v>
+        <v>45910</v>
       </c>
       <c r="D653" t="s">
         <v>3</v>
@@ -9537,10 +9537,10 @@
         <v>652</v>
       </c>
       <c r="B654" s="2">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="C654">
-        <v>45990</v>
+        <v>46010</v>
       </c>
       <c r="D654" t="s">
         <v>3</v>
@@ -9551,10 +9551,10 @@
         <v>653</v>
       </c>
       <c r="B655" s="2">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="C655">
-        <v>45955</v>
+        <v>45990</v>
       </c>
       <c r="D655" t="s">
         <v>3</v>
@@ -9565,10 +9565,10 @@
         <v>654</v>
       </c>
       <c r="B656" s="2">
-        <v>43875</v>
+        <v>43879</v>
       </c>
       <c r="C656">
-        <v>45655</v>
+        <v>45955</v>
       </c>
       <c r="D656" t="s">
         <v>3</v>
@@ -9579,10 +9579,10 @@
         <v>655</v>
       </c>
       <c r="B657" s="2">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="C657">
-        <v>45490</v>
+        <v>45655</v>
       </c>
       <c r="D657" t="s">
         <v>3</v>
@@ -9593,10 +9593,10 @@
         <v>656</v>
       </c>
       <c r="B658" s="2">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="C658">
-        <v>45385</v>
+        <v>45490</v>
       </c>
       <c r="D658" t="s">
         <v>3</v>
@@ -9607,10 +9607,10 @@
         <v>657</v>
       </c>
       <c r="B659" s="2">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="C659">
-        <v>45370</v>
+        <v>45385</v>
       </c>
       <c r="D659" t="s">
         <v>3</v>
@@ -9621,10 +9621,10 @@
         <v>658</v>
       </c>
       <c r="B660" s="2">
-        <v>43868</v>
+        <v>43872</v>
       </c>
       <c r="C660">
-        <v>45590</v>
+        <v>45370</v>
       </c>
       <c r="D660" t="s">
         <v>3</v>
@@ -9635,10 +9635,10 @@
         <v>659</v>
       </c>
       <c r="B661" s="2">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="C661">
-        <v>45795</v>
+        <v>45590</v>
       </c>
       <c r="D661" t="s">
         <v>3</v>
@@ -9649,10 +9649,10 @@
         <v>660</v>
       </c>
       <c r="B662" s="2">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="C662">
-        <v>45230</v>
+        <v>45795</v>
       </c>
       <c r="D662" t="s">
         <v>3</v>
@@ -9663,10 +9663,10 @@
         <v>661</v>
       </c>
       <c r="B663" s="2">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="C663">
-        <v>44940</v>
+        <v>45230</v>
       </c>
       <c r="D663" t="s">
         <v>3</v>
@@ -9677,10 +9677,10 @@
         <v>662</v>
       </c>
       <c r="B664" s="2">
-        <v>43853</v>
+        <v>43865</v>
       </c>
       <c r="C664">
-        <v>47995</v>
+        <v>44940</v>
       </c>
       <c r="D664" t="s">
         <v>3</v>
@@ -9691,10 +9691,10 @@
         <v>663</v>
       </c>
       <c r="B665" s="2">
-        <v>43852</v>
+        <v>43853</v>
       </c>
       <c r="C665">
-        <v>48235</v>
+        <v>47995</v>
       </c>
       <c r="D665" t="s">
         <v>3</v>
@@ -9705,10 +9705,10 @@
         <v>664</v>
       </c>
       <c r="B666" s="2">
-        <v>43851</v>
+        <v>43852</v>
       </c>
       <c r="C666">
-        <v>48425</v>
+        <v>48235</v>
       </c>
       <c r="D666" t="s">
         <v>3</v>
@@ -9719,10 +9719,10 @@
         <v>665</v>
       </c>
       <c r="B667" s="2">
-        <v>43847</v>
+        <v>43851</v>
       </c>
       <c r="C667">
-        <v>48930</v>
+        <v>48425</v>
       </c>
       <c r="D667" t="s">
         <v>3</v>
@@ -9733,10 +9733,10 @@
         <v>666</v>
       </c>
       <c r="B668" s="2">
-        <v>43846</v>
+        <v>43847</v>
       </c>
       <c r="C668">
-        <v>48950</v>
+        <v>48930</v>
       </c>
       <c r="D668" t="s">
         <v>3</v>
@@ -9747,10 +9747,10 @@
         <v>667</v>
       </c>
       <c r="B669" s="2">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="C669">
-        <v>49060</v>
+        <v>48950</v>
       </c>
       <c r="D669" t="s">
         <v>3</v>
@@ -9761,10 +9761,10 @@
         <v>668</v>
       </c>
       <c r="B670" s="2">
-        <v>43844</v>
+        <v>43845</v>
       </c>
       <c r="C670">
-        <v>48990</v>
+        <v>49060</v>
       </c>
       <c r="D670" t="s">
         <v>3</v>
@@ -9775,12 +9775,26 @@
         <v>669</v>
       </c>
       <c r="B671" s="2">
+        <v>43844</v>
+      </c>
+      <c r="C671">
+        <v>48990</v>
+      </c>
+      <c r="D671" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4">
+      <c r="A672" s="1">
+        <v>670</v>
+      </c>
+      <c r="B672" s="2">
         <v>43840</v>
       </c>
-      <c r="C671">
+      <c r="C672">
         <v>48605</v>
       </c>
-      <c r="D671" t="s">
+      <c r="D672" t="s">
         <v>3</v>
       </c>
     </row>

--- a/LME/parser_beta/data/shmet_historical.xlsx
+++ b/LME/parser_beta/data/shmet_historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="4">
   <si>
     <t>date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D672"/>
+  <dimension ref="A1:D673"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,10 +409,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>45156</v>
+        <v>45159</v>
       </c>
       <c r="C2">
-        <v>68840</v>
+        <v>68925</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -423,10 +423,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="C3">
-        <v>68260</v>
+        <v>68840</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -437,10 +437,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="C4">
-        <v>68270</v>
+        <v>68260</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -451,10 +451,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="C5">
-        <v>68590</v>
+        <v>68270</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -465,7 +465,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45152</v>
+        <v>45153</v>
       </c>
       <c r="C6">
         <v>68590</v>
@@ -479,10 +479,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>45149</v>
+        <v>45152</v>
       </c>
       <c r="C7">
-        <v>68690</v>
+        <v>68590</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -493,10 +493,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="C8">
-        <v>68740</v>
+        <v>68690</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -507,10 +507,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="C9">
-        <v>68710</v>
+        <v>68740</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="C10">
-        <v>69130</v>
+        <v>68710</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -535,10 +535,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="C11">
-        <v>69290</v>
+        <v>69130</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -549,10 +549,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>45142</v>
+        <v>45145</v>
       </c>
       <c r="C12">
-        <v>69875</v>
+        <v>69290</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -563,10 +563,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="C13">
-        <v>69425</v>
+        <v>69875</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -577,10 +577,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="C14">
-        <v>69990</v>
+        <v>69425</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -591,10 +591,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="C15">
-        <v>70925</v>
+        <v>69990</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -605,10 +605,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="C16">
-        <v>69830</v>
+        <v>70925</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -619,10 +619,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>45135</v>
+        <v>45138</v>
       </c>
       <c r="C17">
-        <v>68950</v>
+        <v>69830</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
@@ -633,10 +633,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="C18">
-        <v>69460</v>
+        <v>68950</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -647,10 +647,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="C19">
-        <v>69200</v>
+        <v>69460</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -661,10 +661,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="C20">
-        <v>68980</v>
+        <v>69200</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -675,10 +675,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>45128</v>
+        <v>45132</v>
       </c>
       <c r="C21">
-        <v>68670</v>
+        <v>68980</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -689,10 +689,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="C22">
-        <v>68650</v>
+        <v>68670</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -703,10 +703,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="C23">
-        <v>68580</v>
+        <v>68650</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
@@ -717,10 +717,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="C24">
-        <v>68750</v>
+        <v>68580</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
@@ -731,10 +731,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>45121</v>
+        <v>45125</v>
       </c>
       <c r="C25">
-        <v>69825</v>
+        <v>68750</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
@@ -745,10 +745,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="C26">
-        <v>68760</v>
+        <v>69825</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
@@ -759,10 +759,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="C27">
-        <v>68040</v>
+        <v>68760</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
@@ -773,10 +773,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="C28">
-        <v>68370</v>
+        <v>68040</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
@@ -787,10 +787,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>45114</v>
+        <v>45118</v>
       </c>
       <c r="C29">
-        <v>68150</v>
+        <v>68370</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
@@ -801,10 +801,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="C30">
-        <v>68300</v>
+        <v>68150</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
@@ -815,10 +815,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="C31">
-        <v>68500</v>
+        <v>68300</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
@@ -829,10 +829,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="C32">
-        <v>68775</v>
+        <v>68500</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
@@ -843,10 +843,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>45107</v>
+        <v>45111</v>
       </c>
       <c r="C33">
-        <v>68000</v>
+        <v>68775</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -857,10 +857,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="C34">
-        <v>68025</v>
+        <v>68000</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="C35">
-        <v>68300</v>
+        <v>68025</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
@@ -885,10 +885,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="C36">
-        <v>68660</v>
+        <v>68300</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
@@ -899,10 +899,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>45098</v>
+        <v>45104</v>
       </c>
       <c r="C37">
-        <v>69650</v>
+        <v>68660</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
@@ -913,10 +913,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="C38">
-        <v>69100</v>
+        <v>69650</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
@@ -927,10 +927,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>45093</v>
+        <v>45097</v>
       </c>
       <c r="C39">
-        <v>68960</v>
+        <v>69100</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
@@ -941,10 +941,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="C40">
-        <v>68275</v>
+        <v>68960</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
@@ -955,10 +955,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="C41">
-        <v>68350</v>
+        <v>68275</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
@@ -969,10 +969,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>45086</v>
+        <v>45091</v>
       </c>
       <c r="C42">
-        <v>67370</v>
+        <v>68350</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="C43">
-        <v>67180</v>
+        <v>67370</v>
       </c>
       <c r="D43" t="s">
         <v>3</v>
@@ -997,10 +997,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="C44">
-        <v>67300</v>
+        <v>67180</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
@@ -1011,10 +1011,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="C45">
-        <v>67160</v>
+        <v>67300</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
@@ -1025,10 +1025,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>45079</v>
+        <v>45083</v>
       </c>
       <c r="C46">
-        <v>66425</v>
+        <v>67160</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
@@ -1039,10 +1039,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="C47">
-        <v>65850</v>
+        <v>66425</v>
       </c>
       <c r="D47" t="s">
         <v>3</v>
@@ -1053,10 +1053,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="C48">
-        <v>65260</v>
+        <v>65850</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
@@ -1067,10 +1067,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="C49">
-        <v>65600</v>
+        <v>65260</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
@@ -1081,10 +1081,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>45072</v>
+        <v>45076</v>
       </c>
       <c r="C50">
-        <v>64150</v>
+        <v>65600</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
@@ -1095,10 +1095,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="C51">
-        <v>63750</v>
+        <v>64150</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
@@ -1109,10 +1109,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>45070</v>
+        <v>45071</v>
       </c>
       <c r="C52">
-        <v>64300</v>
+        <v>63750</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
@@ -1123,10 +1123,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="C53">
-        <v>65280</v>
+        <v>64300</v>
       </c>
       <c r="D53" t="s">
         <v>3</v>
@@ -1137,10 +1137,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>45065</v>
+        <v>45069</v>
       </c>
       <c r="C54">
-        <v>65675</v>
+        <v>65280</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
@@ -1151,10 +1151,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="C55">
-        <v>66025</v>
+        <v>65675</v>
       </c>
       <c r="D55" t="s">
         <v>3</v>
@@ -1165,10 +1165,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="C56">
-        <v>64680</v>
+        <v>66025</v>
       </c>
       <c r="D56" t="s">
         <v>3</v>
@@ -1179,10 +1179,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="C57">
-        <v>65200</v>
+        <v>64680</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
@@ -1193,10 +1193,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>45058</v>
+        <v>45062</v>
       </c>
       <c r="C58">
-        <v>64690</v>
+        <v>65200</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
@@ -1207,10 +1207,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="C59">
-        <v>66590</v>
+        <v>64690</v>
       </c>
       <c r="D59" t="s">
         <v>3</v>
@@ -1221,10 +1221,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>45051</v>
+        <v>45057</v>
       </c>
       <c r="C60">
-        <v>66675</v>
+        <v>66590</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
@@ -1235,10 +1235,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="C61">
-        <v>67290</v>
+        <v>66675</v>
       </c>
       <c r="D61" t="s">
         <v>3</v>
@@ -1249,10 +1249,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>45044</v>
+        <v>45050</v>
       </c>
       <c r="C62">
-        <v>67420</v>
+        <v>67290</v>
       </c>
       <c r="D62" t="s">
         <v>3</v>
@@ -1263,10 +1263,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="C63">
-        <v>66625</v>
+        <v>67420</v>
       </c>
       <c r="D63" t="s">
         <v>3</v>
@@ -1277,10 +1277,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="C64">
-        <v>67540</v>
+        <v>66625</v>
       </c>
       <c r="D64" t="s">
         <v>3</v>
@@ -1291,10 +1291,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="C65">
-        <v>68290</v>
+        <v>67540</v>
       </c>
       <c r="D65" t="s">
         <v>3</v>
@@ -1305,10 +1305,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>45037</v>
+        <v>45041</v>
       </c>
       <c r="C66">
-        <v>68890</v>
+        <v>68290</v>
       </c>
       <c r="D66" t="s">
         <v>3</v>
@@ -1319,10 +1319,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="C67">
-        <v>69500</v>
+        <v>68890</v>
       </c>
       <c r="D67" t="s">
         <v>3</v>
@@ -1333,10 +1333,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="C68">
-        <v>69680</v>
+        <v>69500</v>
       </c>
       <c r="D68" t="s">
         <v>3</v>
@@ -1347,10 +1347,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="C69">
-        <v>69650</v>
+        <v>69680</v>
       </c>
       <c r="D69" t="s">
         <v>3</v>
@@ -1361,10 +1361,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>45030</v>
+        <v>45034</v>
       </c>
       <c r="C70">
-        <v>70310</v>
+        <v>69650</v>
       </c>
       <c r="D70" t="s">
         <v>3</v>
@@ -1375,10 +1375,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="C71">
-        <v>69405</v>
+        <v>70310</v>
       </c>
       <c r="D71" t="s">
         <v>3</v>
@@ -1389,10 +1389,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="C72">
-        <v>69150</v>
+        <v>69405</v>
       </c>
       <c r="D72" t="s">
         <v>3</v>
@@ -1403,10 +1403,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="C73">
-        <v>68580</v>
+        <v>69150</v>
       </c>
       <c r="D73" t="s">
         <v>3</v>
@@ -1417,10 +1417,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>45023</v>
+        <v>45027</v>
       </c>
       <c r="C74">
-        <v>68875</v>
+        <v>68580</v>
       </c>
       <c r="D74" t="s">
         <v>3</v>
@@ -1431,10 +1431,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="C75">
-        <v>68830</v>
+        <v>68875</v>
       </c>
       <c r="D75" t="s">
         <v>3</v>
@@ -1445,10 +1445,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>45020</v>
+        <v>45022</v>
       </c>
       <c r="C76">
-        <v>69225</v>
+        <v>68830</v>
       </c>
       <c r="D76" t="s">
         <v>3</v>
@@ -1459,10 +1459,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>45016</v>
+        <v>45020</v>
       </c>
       <c r="C77">
-        <v>69650</v>
+        <v>69225</v>
       </c>
       <c r="D77" t="s">
         <v>3</v>
@@ -1473,10 +1473,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="C78">
-        <v>69620</v>
+        <v>69650</v>
       </c>
       <c r="D78" t="s">
         <v>3</v>
@@ -1487,10 +1487,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="C79">
-        <v>69580</v>
+        <v>69620</v>
       </c>
       <c r="D79" t="s">
         <v>3</v>
@@ -1501,10 +1501,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="C80">
-        <v>69770</v>
+        <v>69580</v>
       </c>
       <c r="D80" t="s">
         <v>3</v>
@@ -1515,10 +1515,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>45009</v>
+        <v>45013</v>
       </c>
       <c r="C81">
-        <v>69230</v>
+        <v>69770</v>
       </c>
       <c r="D81" t="s">
         <v>3</v>
@@ -1529,10 +1529,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="C82">
-        <v>68630</v>
+        <v>69230</v>
       </c>
       <c r="D82" t="s">
         <v>3</v>
@@ -1543,10 +1543,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="C83">
-        <v>68100</v>
+        <v>68630</v>
       </c>
       <c r="D83" t="s">
         <v>3</v>
@@ -1557,10 +1557,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="C84">
-        <v>67575</v>
+        <v>68100</v>
       </c>
       <c r="D84" t="s">
         <v>3</v>
@@ -1571,10 +1571,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>45002</v>
+        <v>45006</v>
       </c>
       <c r="C85">
-        <v>67340</v>
+        <v>67575</v>
       </c>
       <c r="D85" t="s">
         <v>3</v>
@@ -1585,10 +1585,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="C86">
-        <v>67100</v>
+        <v>67340</v>
       </c>
       <c r="D86" t="s">
         <v>3</v>
@@ -1599,10 +1599,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="C87">
-        <v>68925</v>
+        <v>67100</v>
       </c>
       <c r="D87" t="s">
         <v>3</v>
@@ -1613,10 +1613,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="C88">
-        <v>68600</v>
+        <v>68925</v>
       </c>
       <c r="D88" t="s">
         <v>3</v>
@@ -1627,10 +1627,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>44995</v>
+        <v>44999</v>
       </c>
       <c r="C89">
-        <v>69025</v>
+        <v>68600</v>
       </c>
       <c r="D89" t="s">
         <v>3</v>
@@ -1641,10 +1641,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>44993</v>
+        <v>44995</v>
       </c>
       <c r="C90">
-        <v>68840</v>
+        <v>69025</v>
       </c>
       <c r="D90" t="s">
         <v>3</v>
@@ -1655,10 +1655,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="C91">
-        <v>69610</v>
+        <v>68840</v>
       </c>
       <c r="D91" t="s">
         <v>3</v>
@@ -1669,10 +1669,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="C92">
-        <v>69400</v>
+        <v>69610</v>
       </c>
       <c r="D92" t="s">
         <v>3</v>
@@ -1683,10 +1683,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="C93">
-        <v>69865</v>
+        <v>69400</v>
       </c>
       <c r="D93" t="s">
         <v>3</v>
@@ -1697,10 +1697,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="C94">
-        <v>69710</v>
+        <v>69865</v>
       </c>
       <c r="D94" t="s">
         <v>3</v>
@@ -1711,10 +1711,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="C95">
-        <v>68550</v>
+        <v>69710</v>
       </c>
       <c r="D95" t="s">
         <v>3</v>
@@ -1725,10 +1725,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="C96">
-        <v>70050</v>
+        <v>68550</v>
       </c>
       <c r="D96" t="s">
         <v>3</v>
@@ -1739,10 +1739,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="C97">
-        <v>70400</v>
+        <v>70050</v>
       </c>
       <c r="D97" t="s">
         <v>3</v>
@@ -1753,10 +1753,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="C98">
-        <v>69705</v>
+        <v>70400</v>
       </c>
       <c r="D98" t="s">
         <v>3</v>
@@ -1767,10 +1767,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>44974</v>
+        <v>44978</v>
       </c>
       <c r="C99">
-        <v>69080</v>
+        <v>69705</v>
       </c>
       <c r="D99" t="s">
         <v>3</v>
@@ -1781,10 +1781,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="C100">
-        <v>68370</v>
+        <v>69080</v>
       </c>
       <c r="D100" t="s">
         <v>3</v>
@@ -1795,10 +1795,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="C101">
-        <v>68950</v>
+        <v>68370</v>
       </c>
       <c r="D101" t="s">
         <v>3</v>
@@ -1809,10 +1809,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="2">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="C102">
-        <v>68510</v>
+        <v>68950</v>
       </c>
       <c r="D102" t="s">
         <v>3</v>
@@ -1823,10 +1823,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="2">
-        <v>44967</v>
+        <v>44971</v>
       </c>
       <c r="C103">
-        <v>68225</v>
+        <v>68510</v>
       </c>
       <c r="D103" t="s">
         <v>3</v>
@@ -1837,10 +1837,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="C104">
-        <v>68240</v>
+        <v>68225</v>
       </c>
       <c r="D104" t="s">
         <v>3</v>
@@ -1851,10 +1851,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="C105">
-        <v>68250</v>
+        <v>68240</v>
       </c>
       <c r="D105" t="s">
         <v>3</v>
@@ -1865,10 +1865,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="2">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="C106">
-        <v>67860</v>
+        <v>68250</v>
       </c>
       <c r="D106" t="s">
         <v>3</v>
@@ -1879,10 +1879,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="2">
-        <v>44960</v>
+        <v>44964</v>
       </c>
       <c r="C107">
-        <v>68425</v>
+        <v>67860</v>
       </c>
       <c r="D107" t="s">
         <v>3</v>
@@ -1893,10 +1893,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="2">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="C108">
-        <v>69070</v>
+        <v>68425</v>
       </c>
       <c r="D108" t="s">
         <v>3</v>
@@ -1907,10 +1907,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="2">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="C109">
-        <v>69560</v>
+        <v>69070</v>
       </c>
       <c r="D109" t="s">
         <v>3</v>
@@ -1921,10 +1921,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="2">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="C110">
-        <v>69425</v>
+        <v>69560</v>
       </c>
       <c r="D110" t="s">
         <v>3</v>
@@ -1935,10 +1935,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="2">
-        <v>44946</v>
+        <v>44957</v>
       </c>
       <c r="C111">
-        <v>70150</v>
+        <v>69425</v>
       </c>
       <c r="D111" t="s">
         <v>3</v>
@@ -1949,10 +1949,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="2">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="C112">
-        <v>69570</v>
+        <v>70150</v>
       </c>
       <c r="D112" t="s">
         <v>3</v>
@@ -1963,10 +1963,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>44944</v>
+        <v>44945</v>
       </c>
       <c r="C113">
-        <v>69750</v>
+        <v>69570</v>
       </c>
       <c r="D113" t="s">
         <v>3</v>
@@ -1977,10 +1977,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>44943</v>
+        <v>44944</v>
       </c>
       <c r="C114">
-        <v>68410</v>
+        <v>69750</v>
       </c>
       <c r="D114" t="s">
         <v>3</v>
@@ -1991,10 +1991,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>44939</v>
+        <v>44943</v>
       </c>
       <c r="C115">
-        <v>68725</v>
+        <v>68410</v>
       </c>
       <c r="D115" t="s">
         <v>3</v>
@@ -2005,10 +2005,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="C116">
-        <v>68430</v>
+        <v>68725</v>
       </c>
       <c r="D116" t="s">
         <v>3</v>
@@ -2019,10 +2019,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="C117">
-        <v>67500</v>
+        <v>68430</v>
       </c>
       <c r="D117" t="s">
         <v>3</v>
@@ -2033,10 +2033,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="C118">
-        <v>66475</v>
+        <v>67500</v>
       </c>
       <c r="D118" t="s">
         <v>3</v>
@@ -2047,10 +2047,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>44925</v>
+        <v>44936</v>
       </c>
       <c r="C119">
-        <v>66175</v>
+        <v>66475</v>
       </c>
       <c r="D119" t="s">
         <v>3</v>
@@ -2061,10 +2061,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="C120">
-        <v>66200</v>
+        <v>66175</v>
       </c>
       <c r="D120" t="s">
         <v>3</v>
@@ -2075,10 +2075,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="C121">
-        <v>66270</v>
+        <v>66200</v>
       </c>
       <c r="D121" t="s">
         <v>3</v>
@@ -2089,10 +2089,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>44922</v>
+        <v>44923</v>
       </c>
       <c r="C122">
-        <v>66400</v>
+        <v>66270</v>
       </c>
       <c r="D122" t="s">
         <v>3</v>
@@ -2103,10 +2103,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>44918</v>
+        <v>44922</v>
       </c>
       <c r="C123">
-        <v>66000</v>
+        <v>66400</v>
       </c>
       <c r="D123" t="s">
         <v>3</v>
@@ -2117,10 +2117,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="C124">
-        <v>66750</v>
+        <v>66000</v>
       </c>
       <c r="D124" t="s">
         <v>3</v>
@@ -2131,10 +2131,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="C125">
-        <v>66225</v>
+        <v>66750</v>
       </c>
       <c r="D125" t="s">
         <v>3</v>
@@ -2145,10 +2145,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="C126">
-        <v>65575</v>
+        <v>66225</v>
       </c>
       <c r="D126" t="s">
         <v>3</v>
@@ -2159,10 +2159,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>44911</v>
+        <v>44915</v>
       </c>
       <c r="C127">
-        <v>65750</v>
+        <v>65575</v>
       </c>
       <c r="D127" t="s">
         <v>3</v>
@@ -2173,10 +2173,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="C128">
-        <v>66125</v>
+        <v>65750</v>
       </c>
       <c r="D128" t="s">
         <v>3</v>
@@ -2187,10 +2187,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>44909</v>
+        <v>44910</v>
       </c>
       <c r="C129">
-        <v>66625</v>
+        <v>66125</v>
       </c>
       <c r="D129" t="s">
         <v>3</v>
@@ -2201,10 +2201,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="C130">
-        <v>66175</v>
+        <v>66625</v>
       </c>
       <c r="D130" t="s">
         <v>3</v>
@@ -2215,10 +2215,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>44904</v>
+        <v>44908</v>
       </c>
       <c r="C131">
-        <v>67000</v>
+        <v>66175</v>
       </c>
       <c r="D131" t="s">
         <v>3</v>
@@ -2229,10 +2229,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="C132">
-        <v>66290</v>
+        <v>67000</v>
       </c>
       <c r="D132" t="s">
         <v>3</v>
@@ -2243,10 +2243,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="C133">
-        <v>66225</v>
+        <v>66290</v>
       </c>
       <c r="D133" t="s">
         <v>3</v>
@@ -2257,10 +2257,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="C134">
-        <v>66575</v>
+        <v>66225</v>
       </c>
       <c r="D134" t="s">
         <v>3</v>
@@ -2271,10 +2271,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>44897</v>
+        <v>44901</v>
       </c>
       <c r="C135">
-        <v>66400</v>
+        <v>66575</v>
       </c>
       <c r="D135" t="s">
         <v>3</v>
@@ -2285,10 +2285,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="C136">
-        <v>66380</v>
+        <v>66400</v>
       </c>
       <c r="D136" t="s">
         <v>3</v>
@@ -2299,10 +2299,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="C137">
-        <v>65290</v>
+        <v>66380</v>
       </c>
       <c r="D137" t="s">
         <v>3</v>
@@ -2313,10 +2313,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="C138">
-        <v>65525</v>
+        <v>65290</v>
       </c>
       <c r="D138" t="s">
         <v>3</v>
@@ -2327,10 +2327,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="C139">
-        <v>65640</v>
+        <v>65525</v>
       </c>
       <c r="D139" t="s">
         <v>3</v>
@@ -2341,10 +2341,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="C140">
-        <v>65490</v>
+        <v>65640</v>
       </c>
       <c r="D140" t="s">
         <v>3</v>
@@ -2355,10 +2355,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="C141">
-        <v>65260</v>
+        <v>65490</v>
       </c>
       <c r="D141" t="s">
         <v>3</v>
@@ -2369,10 +2369,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="C142">
-        <v>65170</v>
+        <v>65260</v>
       </c>
       <c r="D142" t="s">
         <v>3</v>
@@ -2383,10 +2383,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>44883</v>
+        <v>44887</v>
       </c>
       <c r="C143">
-        <v>66275</v>
+        <v>65170</v>
       </c>
       <c r="D143" t="s">
         <v>3</v>
@@ -2397,10 +2397,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="C144">
-        <v>66540</v>
+        <v>66275</v>
       </c>
       <c r="D144" t="s">
         <v>3</v>
@@ -2411,10 +2411,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="C145">
-        <v>67050</v>
+        <v>66540</v>
       </c>
       <c r="D145" t="s">
         <v>3</v>
@@ -2425,10 +2425,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="C146">
-        <v>67275</v>
+        <v>67050</v>
       </c>
       <c r="D146" t="s">
         <v>3</v>
@@ -2439,10 +2439,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>44876</v>
+        <v>44880</v>
       </c>
       <c r="C147">
-        <v>68575</v>
+        <v>67275</v>
       </c>
       <c r="D147" t="s">
         <v>3</v>
@@ -2453,10 +2453,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="C148">
-        <v>67400</v>
+        <v>68575</v>
       </c>
       <c r="D148" t="s">
         <v>3</v>
@@ -2467,10 +2467,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="C149">
-        <v>66800</v>
+        <v>67400</v>
       </c>
       <c r="D149" t="s">
         <v>3</v>
@@ -2481,10 +2481,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="C150">
-        <v>66225</v>
+        <v>66800</v>
       </c>
       <c r="D150" t="s">
         <v>3</v>
@@ -2495,10 +2495,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>44869</v>
+        <v>44873</v>
       </c>
       <c r="C151">
-        <v>64700</v>
+        <v>66225</v>
       </c>
       <c r="D151" t="s">
         <v>3</v>
@@ -2509,10 +2509,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="C152">
-        <v>64690</v>
+        <v>64700</v>
       </c>
       <c r="D152" t="s">
         <v>3</v>
@@ -2523,10 +2523,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="C153">
-        <v>64950</v>
+        <v>64690</v>
       </c>
       <c r="D153" t="s">
         <v>3</v>
@@ -2537,10 +2537,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>44866</v>
+        <v>44867</v>
       </c>
       <c r="C154">
-        <v>64300</v>
+        <v>64950</v>
       </c>
       <c r="D154" t="s">
         <v>3</v>
@@ -2551,10 +2551,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>44862</v>
+        <v>44866</v>
       </c>
       <c r="C155">
-        <v>64650</v>
+        <v>64300</v>
       </c>
       <c r="D155" t="s">
         <v>3</v>
@@ -2565,10 +2565,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>44861</v>
+        <v>44862</v>
       </c>
       <c r="C156">
-        <v>64690</v>
+        <v>64650</v>
       </c>
       <c r="D156" t="s">
         <v>3</v>
@@ -2579,10 +2579,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="C157">
-        <v>63950</v>
+        <v>64690</v>
       </c>
       <c r="D157" t="s">
         <v>3</v>
@@ -2593,10 +2593,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="C158">
-        <v>64300</v>
+        <v>63950</v>
       </c>
       <c r="D158" t="s">
         <v>3</v>
@@ -2607,10 +2607,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>44855</v>
+        <v>44859</v>
       </c>
       <c r="C159">
-        <v>64000</v>
+        <v>64300</v>
       </c>
       <c r="D159" t="s">
         <v>3</v>
@@ -2621,10 +2621,10 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="C160">
-        <v>62895</v>
+        <v>64000</v>
       </c>
       <c r="D160" t="s">
         <v>3</v>
@@ -2635,10 +2635,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>44853</v>
+        <v>44854</v>
       </c>
       <c r="C161">
-        <v>62950</v>
+        <v>62895</v>
       </c>
       <c r="D161" t="s">
         <v>3</v>
@@ -2649,10 +2649,10 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="C162">
-        <v>63550</v>
+        <v>62950</v>
       </c>
       <c r="D162" t="s">
         <v>3</v>
@@ -2663,10 +2663,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>44848</v>
+        <v>44852</v>
       </c>
       <c r="C163">
-        <v>64760</v>
+        <v>63550</v>
       </c>
       <c r="D163" t="s">
         <v>3</v>
@@ -2677,10 +2677,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="C164">
-        <v>63960</v>
+        <v>64760</v>
       </c>
       <c r="D164" t="s">
         <v>3</v>
@@ -2691,10 +2691,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="C165">
-        <v>63800</v>
+        <v>63960</v>
       </c>
       <c r="D165" t="s">
         <v>3</v>
@@ -2705,10 +2705,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>44845</v>
+        <v>44846</v>
       </c>
       <c r="C166">
-        <v>63975</v>
+        <v>63800</v>
       </c>
       <c r="D166" t="s">
         <v>3</v>
@@ -2719,10 +2719,10 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>44834</v>
+        <v>44845</v>
       </c>
       <c r="C167">
-        <v>62670</v>
+        <v>63975</v>
       </c>
       <c r="D167" t="s">
         <v>3</v>
@@ -2733,10 +2733,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="C168">
-        <v>62430</v>
+        <v>62670</v>
       </c>
       <c r="D168" t="s">
         <v>3</v>
@@ -2747,10 +2747,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="C169">
-        <v>61430</v>
+        <v>62430</v>
       </c>
       <c r="D169" t="s">
         <v>3</v>
@@ -2761,10 +2761,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="C170">
-        <v>61485</v>
+        <v>61430</v>
       </c>
       <c r="D170" t="s">
         <v>3</v>
@@ -2775,10 +2775,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>44827</v>
+        <v>44831</v>
       </c>
       <c r="C171">
-        <v>63025</v>
+        <v>61485</v>
       </c>
       <c r="D171" t="s">
         <v>3</v>
@@ -2789,10 +2789,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="C172">
-        <v>63120</v>
+        <v>63025</v>
       </c>
       <c r="D172" t="s">
         <v>3</v>
@@ -2803,7 +2803,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="C173">
         <v>63120</v>
@@ -2817,10 +2817,10 @@
         <v>172</v>
       </c>
       <c r="B174" s="2">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="C174">
-        <v>63370</v>
+        <v>63120</v>
       </c>
       <c r="D174" t="s">
         <v>3</v>
@@ -2831,10 +2831,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="2">
-        <v>44820</v>
+        <v>44824</v>
       </c>
       <c r="C175">
-        <v>62865</v>
+        <v>63370</v>
       </c>
       <c r="D175" t="s">
         <v>3</v>
@@ -2845,10 +2845,10 @@
         <v>174</v>
       </c>
       <c r="B176" s="2">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="C176">
-        <v>63370</v>
+        <v>62865</v>
       </c>
       <c r="D176" t="s">
         <v>3</v>
@@ -2859,10 +2859,10 @@
         <v>175</v>
       </c>
       <c r="B177" s="2">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="C177">
-        <v>63050</v>
+        <v>63370</v>
       </c>
       <c r="D177" t="s">
         <v>3</v>
@@ -2873,10 +2873,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="2">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="C178">
-        <v>63850</v>
+        <v>63050</v>
       </c>
       <c r="D178" t="s">
         <v>3</v>
@@ -2887,10 +2887,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="2">
-        <v>44813</v>
+        <v>44817</v>
       </c>
       <c r="C179">
-        <v>63650</v>
+        <v>63850</v>
       </c>
       <c r="D179" t="s">
         <v>3</v>
@@ -2901,10 +2901,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="2">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="C180">
-        <v>61910</v>
+        <v>63650</v>
       </c>
       <c r="D180" t="s">
         <v>3</v>
@@ -2915,10 +2915,10 @@
         <v>179</v>
       </c>
       <c r="B181" s="2">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="C181">
-        <v>61700</v>
+        <v>61910</v>
       </c>
       <c r="D181" t="s">
         <v>3</v>
@@ -2929,10 +2929,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="2">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="C182">
-        <v>61750</v>
+        <v>61700</v>
       </c>
       <c r="D182" t="s">
         <v>3</v>
@@ -2943,10 +2943,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="2">
-        <v>44806</v>
+        <v>44810</v>
       </c>
       <c r="C183">
-        <v>60500</v>
+        <v>61750</v>
       </c>
       <c r="D183" t="s">
         <v>3</v>
@@ -2957,10 +2957,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="2">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="C184">
-        <v>61775</v>
+        <v>60500</v>
       </c>
       <c r="D184" t="s">
         <v>3</v>
@@ -2971,10 +2971,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="2">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="C185">
-        <v>62770</v>
+        <v>61775</v>
       </c>
       <c r="D185" t="s">
         <v>3</v>
@@ -2985,10 +2985,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="2">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="C186">
-        <v>63120</v>
+        <v>62770</v>
       </c>
       <c r="D186" t="s">
         <v>3</v>
@@ -2999,10 +2999,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="2">
-        <v>44799</v>
+        <v>44803</v>
       </c>
       <c r="C187">
-        <v>64270</v>
+        <v>63120</v>
       </c>
       <c r="D187" t="s">
         <v>3</v>
@@ -3013,10 +3013,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="2">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="C188">
-        <v>63330</v>
+        <v>64270</v>
       </c>
       <c r="D188" t="s">
         <v>3</v>
@@ -3027,10 +3027,10 @@
         <v>187</v>
       </c>
       <c r="B189" s="2">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="C189">
-        <v>63715</v>
+        <v>63330</v>
       </c>
       <c r="D189" t="s">
         <v>3</v>
@@ -3041,10 +3041,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="2">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="C190">
-        <v>63570</v>
+        <v>63715</v>
       </c>
       <c r="D190" t="s">
         <v>3</v>
@@ -3055,10 +3055,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="2">
-        <v>44792</v>
+        <v>44796</v>
       </c>
       <c r="C191">
-        <v>62950</v>
+        <v>63570</v>
       </c>
       <c r="D191" t="s">
         <v>3</v>
@@ -3069,10 +3069,10 @@
         <v>190</v>
       </c>
       <c r="B192" s="2">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="C192">
-        <v>62300</v>
+        <v>62950</v>
       </c>
       <c r="D192" t="s">
         <v>3</v>
@@ -3083,10 +3083,10 @@
         <v>191</v>
       </c>
       <c r="B193" s="2">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="C193">
-        <v>62470</v>
+        <v>62300</v>
       </c>
       <c r="D193" t="s">
         <v>3</v>
@@ -3097,10 +3097,10 @@
         <v>192</v>
       </c>
       <c r="B194" s="2">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="C194">
-        <v>62460</v>
+        <v>62470</v>
       </c>
       <c r="D194" t="s">
         <v>3</v>
@@ -3111,10 +3111,10 @@
         <v>193</v>
       </c>
       <c r="B195" s="2">
-        <v>44785</v>
+        <v>44789</v>
       </c>
       <c r="C195">
-        <v>63000</v>
+        <v>62460</v>
       </c>
       <c r="D195" t="s">
         <v>3</v>
@@ -3125,10 +3125,10 @@
         <v>194</v>
       </c>
       <c r="B196" s="2">
-        <v>44784</v>
+        <v>44785</v>
       </c>
       <c r="C196">
-        <v>62520</v>
+        <v>63000</v>
       </c>
       <c r="D196" t="s">
         <v>3</v>
@@ -3139,10 +3139,10 @@
         <v>195</v>
       </c>
       <c r="B197" s="2">
-        <v>44783</v>
+        <v>44784</v>
       </c>
       <c r="C197">
-        <v>61780</v>
+        <v>62520</v>
       </c>
       <c r="D197" t="s">
         <v>3</v>
@@ -3153,10 +3153,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="2">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="C198">
-        <v>61540</v>
+        <v>61780</v>
       </c>
       <c r="D198" t="s">
         <v>3</v>
@@ -3167,10 +3167,10 @@
         <v>197</v>
       </c>
       <c r="B199" s="2">
-        <v>44778</v>
+        <v>44782</v>
       </c>
       <c r="C199">
-        <v>60520</v>
+        <v>61540</v>
       </c>
       <c r="D199" t="s">
         <v>3</v>
@@ -3181,10 +3181,10 @@
         <v>198</v>
       </c>
       <c r="B200" s="2">
-        <v>44777</v>
+        <v>44778</v>
       </c>
       <c r="C200">
-        <v>59930</v>
+        <v>60520</v>
       </c>
       <c r="D200" t="s">
         <v>3</v>
@@ -3195,10 +3195,10 @@
         <v>199</v>
       </c>
       <c r="B201" s="2">
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="C201">
-        <v>60260</v>
+        <v>59930</v>
       </c>
       <c r="D201" t="s">
         <v>3</v>
@@ -3209,10 +3209,10 @@
         <v>200</v>
       </c>
       <c r="B202" s="2">
-        <v>44775</v>
+        <v>44776</v>
       </c>
       <c r="C202">
-        <v>60180</v>
+        <v>60260</v>
       </c>
       <c r="D202" t="s">
         <v>3</v>
@@ -3223,10 +3223,10 @@
         <v>201</v>
       </c>
       <c r="B203" s="2">
-        <v>44771</v>
+        <v>44775</v>
       </c>
       <c r="C203">
-        <v>60315</v>
+        <v>60180</v>
       </c>
       <c r="D203" t="s">
         <v>3</v>
@@ -3237,10 +3237,10 @@
         <v>202</v>
       </c>
       <c r="B204" s="2">
-        <v>44770</v>
+        <v>44771</v>
       </c>
       <c r="C204">
-        <v>60090</v>
+        <v>60315</v>
       </c>
       <c r="D204" t="s">
         <v>3</v>
@@ -3251,10 +3251,10 @@
         <v>203</v>
       </c>
       <c r="B205" s="2">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="C205">
-        <v>58710</v>
+        <v>60090</v>
       </c>
       <c r="D205" t="s">
         <v>3</v>
@@ -3265,10 +3265,10 @@
         <v>204</v>
       </c>
       <c r="B206" s="2">
-        <v>44768</v>
+        <v>44769</v>
       </c>
       <c r="C206">
-        <v>58930</v>
+        <v>58710</v>
       </c>
       <c r="D206" t="s">
         <v>3</v>
@@ -3279,10 +3279,10 @@
         <v>205</v>
       </c>
       <c r="B207" s="2">
-        <v>44764</v>
+        <v>44768</v>
       </c>
       <c r="C207">
-        <v>57030</v>
+        <v>58930</v>
       </c>
       <c r="D207" t="s">
         <v>3</v>
@@ -3293,10 +3293,10 @@
         <v>206</v>
       </c>
       <c r="B208" s="2">
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="C208">
-        <v>56360</v>
+        <v>57030</v>
       </c>
       <c r="D208" t="s">
         <v>3</v>
@@ -3307,10 +3307,10 @@
         <v>207</v>
       </c>
       <c r="B209" s="2">
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="C209">
-        <v>56920</v>
+        <v>56360</v>
       </c>
       <c r="D209" t="s">
         <v>3</v>
@@ -3321,10 +3321,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="2">
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="C210">
-        <v>56210</v>
+        <v>56920</v>
       </c>
       <c r="D210" t="s">
         <v>3</v>
@@ -3335,10 +3335,10 @@
         <v>209</v>
       </c>
       <c r="B211" s="2">
-        <v>44757</v>
+        <v>44761</v>
       </c>
       <c r="C211">
-        <v>54890</v>
+        <v>56210</v>
       </c>
       <c r="D211" t="s">
         <v>3</v>
@@ -3349,10 +3349,10 @@
         <v>210</v>
       </c>
       <c r="B212" s="2">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="C212">
-        <v>56300</v>
+        <v>54890</v>
       </c>
       <c r="D212" t="s">
         <v>3</v>
@@ -3363,10 +3363,10 @@
         <v>211</v>
       </c>
       <c r="B213" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="C213">
-        <v>56460</v>
+        <v>56300</v>
       </c>
       <c r="D213" t="s">
         <v>3</v>
@@ -3377,10 +3377,10 @@
         <v>212</v>
       </c>
       <c r="B214" s="2">
-        <v>44754</v>
+        <v>44755</v>
       </c>
       <c r="C214">
-        <v>58430</v>
+        <v>56460</v>
       </c>
       <c r="D214" t="s">
         <v>3</v>
@@ -3391,10 +3391,10 @@
         <v>213</v>
       </c>
       <c r="B215" s="2">
-        <v>44750</v>
+        <v>44754</v>
       </c>
       <c r="C215">
-        <v>59600</v>
+        <v>58430</v>
       </c>
       <c r="D215" t="s">
         <v>3</v>
@@ -3405,10 +3405,10 @@
         <v>214</v>
       </c>
       <c r="B216" s="2">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="C216">
-        <v>58600</v>
+        <v>59600</v>
       </c>
       <c r="D216" t="s">
         <v>3</v>
@@ -3419,10 +3419,10 @@
         <v>215</v>
       </c>
       <c r="B217" s="2">
-        <v>44748</v>
+        <v>44749</v>
       </c>
       <c r="C217">
-        <v>58125</v>
+        <v>58600</v>
       </c>
       <c r="D217" t="s">
         <v>3</v>
@@ -3433,10 +3433,10 @@
         <v>216</v>
       </c>
       <c r="B218" s="2">
-        <v>44747</v>
+        <v>44748</v>
       </c>
       <c r="C218">
-        <v>61225</v>
+        <v>58125</v>
       </c>
       <c r="D218" t="s">
         <v>3</v>
@@ -3447,10 +3447,10 @@
         <v>217</v>
       </c>
       <c r="B219" s="2">
-        <v>44743</v>
+        <v>44747</v>
       </c>
       <c r="C219">
-        <v>62930</v>
+        <v>61225</v>
       </c>
       <c r="D219" t="s">
         <v>3</v>
@@ -3461,10 +3461,10 @@
         <v>218</v>
       </c>
       <c r="B220" s="2">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="C220">
-        <v>64230</v>
+        <v>62930</v>
       </c>
       <c r="D220" t="s">
         <v>3</v>
@@ -3475,10 +3475,10 @@
         <v>219</v>
       </c>
       <c r="B221" s="2">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="C221">
-        <v>63940</v>
+        <v>64230</v>
       </c>
       <c r="D221" t="s">
         <v>3</v>
@@ -3489,10 +3489,10 @@
         <v>220</v>
       </c>
       <c r="B222" s="2">
-        <v>44740</v>
+        <v>44741</v>
       </c>
       <c r="C222">
-        <v>64150</v>
+        <v>63940</v>
       </c>
       <c r="D222" t="s">
         <v>3</v>
@@ -3503,10 +3503,10 @@
         <v>221</v>
       </c>
       <c r="B223" s="2">
-        <v>44736</v>
+        <v>44740</v>
       </c>
       <c r="C223">
-        <v>64340</v>
+        <v>64150</v>
       </c>
       <c r="D223" t="s">
         <v>3</v>
@@ -3517,10 +3517,10 @@
         <v>222</v>
       </c>
       <c r="B224" s="2">
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="C224">
-        <v>66050</v>
+        <v>64340</v>
       </c>
       <c r="D224" t="s">
         <v>3</v>
@@ -3531,10 +3531,10 @@
         <v>223</v>
       </c>
       <c r="B225" s="2">
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="C225">
-        <v>68160</v>
+        <v>66050</v>
       </c>
       <c r="D225" t="s">
         <v>3</v>
@@ -3545,10 +3545,10 @@
         <v>224</v>
       </c>
       <c r="B226" s="2">
-        <v>44733</v>
+        <v>44734</v>
       </c>
       <c r="C226">
-        <v>68700</v>
+        <v>68160</v>
       </c>
       <c r="D226" t="s">
         <v>3</v>
@@ -3559,10 +3559,10 @@
         <v>225</v>
       </c>
       <c r="B227" s="2">
-        <v>44729</v>
+        <v>44733</v>
       </c>
       <c r="C227">
-        <v>69975</v>
+        <v>68700</v>
       </c>
       <c r="D227" t="s">
         <v>3</v>
@@ -3573,10 +3573,10 @@
         <v>226</v>
       </c>
       <c r="B228" s="2">
-        <v>44728</v>
+        <v>44729</v>
       </c>
       <c r="C228">
-        <v>71255</v>
+        <v>69975</v>
       </c>
       <c r="D228" t="s">
         <v>3</v>
@@ -3587,10 +3587,10 @@
         <v>227</v>
       </c>
       <c r="B229" s="2">
-        <v>44727</v>
+        <v>44728</v>
       </c>
       <c r="C229">
-        <v>71250</v>
+        <v>71255</v>
       </c>
       <c r="D229" t="s">
         <v>3</v>
@@ -3601,10 +3601,10 @@
         <v>228</v>
       </c>
       <c r="B230" s="2">
-        <v>44722</v>
+        <v>44727</v>
       </c>
       <c r="C230">
-        <v>72750</v>
+        <v>71250</v>
       </c>
       <c r="D230" t="s">
         <v>3</v>
@@ -3615,10 +3615,10 @@
         <v>229</v>
       </c>
       <c r="B231" s="2">
-        <v>44721</v>
+        <v>44722</v>
       </c>
       <c r="C231">
-        <v>73030</v>
+        <v>72750</v>
       </c>
       <c r="D231" t="s">
         <v>3</v>
@@ -3629,10 +3629,10 @@
         <v>230</v>
       </c>
       <c r="B232" s="2">
-        <v>44720</v>
+        <v>44721</v>
       </c>
       <c r="C232">
-        <v>72890</v>
+        <v>73030</v>
       </c>
       <c r="D232" t="s">
         <v>3</v>
@@ -3643,10 +3643,10 @@
         <v>231</v>
       </c>
       <c r="B233" s="2">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="C233">
-        <v>72975</v>
+        <v>72890</v>
       </c>
       <c r="D233" t="s">
         <v>3</v>
@@ -3657,10 +3657,10 @@
         <v>232</v>
       </c>
       <c r="B234" s="2">
-        <v>44714</v>
+        <v>44719</v>
       </c>
       <c r="C234">
-        <v>72530</v>
+        <v>72975</v>
       </c>
       <c r="D234" t="s">
         <v>3</v>
@@ -3671,10 +3671,10 @@
         <v>233</v>
       </c>
       <c r="B235" s="2">
-        <v>44713</v>
+        <v>44714</v>
       </c>
       <c r="C235">
-        <v>72150</v>
+        <v>72530</v>
       </c>
       <c r="D235" t="s">
         <v>3</v>
@@ -3685,10 +3685,10 @@
         <v>234</v>
       </c>
       <c r="B236" s="2">
-        <v>44712</v>
+        <v>44713</v>
       </c>
       <c r="C236">
-        <v>72630</v>
+        <v>72150</v>
       </c>
       <c r="D236" t="s">
         <v>3</v>
@@ -3699,10 +3699,10 @@
         <v>235</v>
       </c>
       <c r="B237" s="2">
-        <v>44708</v>
+        <v>44712</v>
       </c>
       <c r="C237">
-        <v>72625</v>
+        <v>72630</v>
       </c>
       <c r="D237" t="s">
         <v>3</v>
@@ -3713,10 +3713,10 @@
         <v>236</v>
       </c>
       <c r="B238" s="2">
-        <v>44707</v>
+        <v>44708</v>
       </c>
       <c r="C238">
-        <v>71950</v>
+        <v>72625</v>
       </c>
       <c r="D238" t="s">
         <v>3</v>
@@ -3727,10 +3727,10 @@
         <v>237</v>
       </c>
       <c r="B239" s="2">
-        <v>44706</v>
+        <v>44707</v>
       </c>
       <c r="C239">
-        <v>72220</v>
+        <v>71950</v>
       </c>
       <c r="D239" t="s">
         <v>3</v>
@@ -3741,10 +3741,10 @@
         <v>238</v>
       </c>
       <c r="B240" s="2">
-        <v>44705</v>
+        <v>44706</v>
       </c>
       <c r="C240">
-        <v>72500</v>
+        <v>72220</v>
       </c>
       <c r="D240" t="s">
         <v>3</v>
@@ -3755,10 +3755,10 @@
         <v>239</v>
       </c>
       <c r="B241" s="2">
-        <v>44701</v>
+        <v>44705</v>
       </c>
       <c r="C241">
-        <v>72150</v>
+        <v>72500</v>
       </c>
       <c r="D241" t="s">
         <v>3</v>
@@ -3769,10 +3769,10 @@
         <v>240</v>
       </c>
       <c r="B242" s="2">
-        <v>44700</v>
+        <v>44701</v>
       </c>
       <c r="C242">
-        <v>71775</v>
+        <v>72150</v>
       </c>
       <c r="D242" t="s">
         <v>3</v>
@@ -3783,10 +3783,10 @@
         <v>241</v>
       </c>
       <c r="B243" s="2">
-        <v>44699</v>
+        <v>44700</v>
       </c>
       <c r="C243">
-        <v>72070</v>
+        <v>71775</v>
       </c>
       <c r="D243" t="s">
         <v>3</v>
@@ -3797,10 +3797,10 @@
         <v>242</v>
       </c>
       <c r="B244" s="2">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="C244">
-        <v>72175</v>
+        <v>72070</v>
       </c>
       <c r="D244" t="s">
         <v>3</v>
@@ -3811,10 +3811,10 @@
         <v>243</v>
       </c>
       <c r="B245" s="2">
-        <v>44694</v>
+        <v>44698</v>
       </c>
       <c r="C245">
-        <v>71160</v>
+        <v>72175</v>
       </c>
       <c r="D245" t="s">
         <v>3</v>
@@ -3825,10 +3825,10 @@
         <v>244</v>
       </c>
       <c r="B246" s="2">
-        <v>44693</v>
+        <v>44694</v>
       </c>
       <c r="C246">
-        <v>72050</v>
+        <v>71160</v>
       </c>
       <c r="D246" t="s">
         <v>3</v>
@@ -3839,10 +3839,10 @@
         <v>245</v>
       </c>
       <c r="B247" s="2">
-        <v>44687</v>
+        <v>44693</v>
       </c>
       <c r="C247">
-        <v>72875</v>
+        <v>72050</v>
       </c>
       <c r="D247" t="s">
         <v>3</v>
@@ -3853,10 +3853,10 @@
         <v>246</v>
       </c>
       <c r="B248" s="2">
-        <v>44686</v>
+        <v>44687</v>
       </c>
       <c r="C248">
-        <v>73760</v>
+        <v>72875</v>
       </c>
       <c r="D248" t="s">
         <v>3</v>
@@ -3867,10 +3867,10 @@
         <v>247</v>
       </c>
       <c r="B249" s="2">
-        <v>44680</v>
+        <v>44686</v>
       </c>
       <c r="C249">
-        <v>73930</v>
+        <v>73760</v>
       </c>
       <c r="D249" t="s">
         <v>3</v>
@@ -3881,10 +3881,10 @@
         <v>248</v>
       </c>
       <c r="B250" s="2">
-        <v>44679</v>
+        <v>44680</v>
       </c>
       <c r="C250">
-        <v>74005</v>
+        <v>73930</v>
       </c>
       <c r="D250" t="s">
         <v>3</v>
@@ -3895,10 +3895,10 @@
         <v>249</v>
       </c>
       <c r="B251" s="2">
-        <v>44678</v>
+        <v>44679</v>
       </c>
       <c r="C251">
-        <v>73770</v>
+        <v>74005</v>
       </c>
       <c r="D251" t="s">
         <v>3</v>
@@ -3909,10 +3909,10 @@
         <v>250</v>
       </c>
       <c r="B252" s="2">
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="C252">
-        <v>73950</v>
+        <v>73770</v>
       </c>
       <c r="D252" t="s">
         <v>3</v>
@@ -3923,10 +3923,10 @@
         <v>251</v>
       </c>
       <c r="B253" s="2">
-        <v>44673</v>
+        <v>44677</v>
       </c>
       <c r="C253">
-        <v>75070</v>
+        <v>73950</v>
       </c>
       <c r="D253" t="s">
         <v>3</v>
@@ -3937,10 +3937,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="2">
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="C254">
-        <v>74850</v>
+        <v>75070</v>
       </c>
       <c r="D254" t="s">
         <v>3</v>
@@ -3951,10 +3951,10 @@
         <v>253</v>
       </c>
       <c r="B255" s="2">
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="C255">
-        <v>74740</v>
+        <v>74850</v>
       </c>
       <c r="D255" t="s">
         <v>3</v>
@@ -3965,10 +3965,10 @@
         <v>254</v>
       </c>
       <c r="B256" s="2">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="C256">
-        <v>75575</v>
+        <v>74740</v>
       </c>
       <c r="D256" t="s">
         <v>3</v>
@@ -3979,10 +3979,10 @@
         <v>255</v>
       </c>
       <c r="B257" s="2">
-        <v>44666</v>
+        <v>44670</v>
       </c>
       <c r="C257">
-        <v>75385</v>
+        <v>75575</v>
       </c>
       <c r="D257" t="s">
         <v>3</v>
@@ -3993,10 +3993,10 @@
         <v>256</v>
       </c>
       <c r="B258" s="2">
-        <v>44665</v>
+        <v>44666</v>
       </c>
       <c r="C258">
-        <v>74370</v>
+        <v>75385</v>
       </c>
       <c r="D258" t="s">
         <v>3</v>
@@ -4007,10 +4007,10 @@
         <v>257</v>
       </c>
       <c r="B259" s="2">
-        <v>44664</v>
+        <v>44665</v>
       </c>
       <c r="C259">
-        <v>74550</v>
+        <v>74370</v>
       </c>
       <c r="D259" t="s">
         <v>3</v>
@@ -4021,10 +4021,10 @@
         <v>258</v>
       </c>
       <c r="B260" s="2">
-        <v>44663</v>
+        <v>44664</v>
       </c>
       <c r="C260">
-        <v>73790</v>
+        <v>74550</v>
       </c>
       <c r="D260" t="s">
         <v>3</v>
@@ -4035,10 +4035,10 @@
         <v>259</v>
       </c>
       <c r="B261" s="2">
-        <v>44659</v>
+        <v>44663</v>
       </c>
       <c r="C261">
-        <v>73765</v>
+        <v>73790</v>
       </c>
       <c r="D261" t="s">
         <v>3</v>
@@ -4049,10 +4049,10 @@
         <v>260</v>
       </c>
       <c r="B262" s="2">
-        <v>44658</v>
+        <v>44659</v>
       </c>
       <c r="C262">
-        <v>73690</v>
+        <v>73765</v>
       </c>
       <c r="D262" t="s">
         <v>3</v>
@@ -4063,10 +4063,10 @@
         <v>261</v>
       </c>
       <c r="B263" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C263">
-        <v>74000</v>
+        <v>73690</v>
       </c>
       <c r="D263" t="s">
         <v>3</v>
@@ -4077,10 +4077,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="2">
-        <v>44652</v>
+        <v>44657</v>
       </c>
       <c r="C264">
-        <v>73635</v>
+        <v>74000</v>
       </c>
       <c r="D264" t="s">
         <v>3</v>
@@ -4091,10 +4091,10 @@
         <v>263</v>
       </c>
       <c r="B265" s="2">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="C265">
-        <v>73575</v>
+        <v>73635</v>
       </c>
       <c r="D265" t="s">
         <v>3</v>
@@ -4105,10 +4105,10 @@
         <v>264</v>
       </c>
       <c r="B266" s="2">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="C266">
-        <v>73980</v>
+        <v>73575</v>
       </c>
       <c r="D266" t="s">
         <v>3</v>
@@ -4119,10 +4119,10 @@
         <v>265</v>
       </c>
       <c r="B267" s="2">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="C267">
-        <v>74100</v>
+        <v>73980</v>
       </c>
       <c r="D267" t="s">
         <v>3</v>
@@ -4133,10 +4133,10 @@
         <v>266</v>
       </c>
       <c r="B268" s="2">
-        <v>44645</v>
+        <v>44649</v>
       </c>
       <c r="C268">
-        <v>73775</v>
+        <v>74100</v>
       </c>
       <c r="D268" t="s">
         <v>3</v>
@@ -4147,10 +4147,10 @@
         <v>267</v>
       </c>
       <c r="B269" s="2">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="C269">
-        <v>73880</v>
+        <v>73775</v>
       </c>
       <c r="D269" t="s">
         <v>3</v>
@@ -4161,10 +4161,10 @@
         <v>268</v>
       </c>
       <c r="B270" s="2">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="C270">
-        <v>73410</v>
+        <v>73880</v>
       </c>
       <c r="D270" t="s">
         <v>3</v>
@@ -4175,10 +4175,10 @@
         <v>269</v>
       </c>
       <c r="B271" s="2">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="C271">
-        <v>73510</v>
+        <v>73410</v>
       </c>
       <c r="D271" t="s">
         <v>3</v>
@@ -4189,10 +4189,10 @@
         <v>270</v>
       </c>
       <c r="B272" s="2">
-        <v>44638</v>
+        <v>44642</v>
       </c>
       <c r="C272">
-        <v>73310</v>
+        <v>73510</v>
       </c>
       <c r="D272" t="s">
         <v>3</v>
@@ -4203,10 +4203,10 @@
         <v>271</v>
       </c>
       <c r="B273" s="2">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="C273">
-        <v>72740</v>
+        <v>73310</v>
       </c>
       <c r="D273" t="s">
         <v>3</v>
@@ -4217,10 +4217,10 @@
         <v>272</v>
       </c>
       <c r="B274" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="C274">
-        <v>72060</v>
+        <v>72740</v>
       </c>
       <c r="D274" t="s">
         <v>3</v>
@@ -4231,10 +4231,10 @@
         <v>273</v>
       </c>
       <c r="B275" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="C275">
-        <v>71790</v>
+        <v>72060</v>
       </c>
       <c r="D275" t="s">
         <v>3</v>
@@ -4245,10 +4245,10 @@
         <v>274</v>
       </c>
       <c r="B276" s="2">
-        <v>44631</v>
+        <v>44635</v>
       </c>
       <c r="C276">
-        <v>72170</v>
+        <v>71790</v>
       </c>
       <c r="D276" t="s">
         <v>3</v>
@@ -4259,10 +4259,10 @@
         <v>275</v>
       </c>
       <c r="B277" s="2">
-        <v>44630</v>
+        <v>44631</v>
       </c>
       <c r="C277">
-        <v>72080</v>
+        <v>72170</v>
       </c>
       <c r="D277" t="s">
         <v>3</v>
@@ -4273,10 +4273,10 @@
         <v>276</v>
       </c>
       <c r="B278" s="2">
-        <v>44624</v>
+        <v>44630</v>
       </c>
       <c r="C278">
-        <v>72930</v>
+        <v>72080</v>
       </c>
       <c r="D278" t="s">
         <v>3</v>
@@ -4287,10 +4287,10 @@
         <v>277</v>
       </c>
       <c r="B279" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="C279">
-        <v>72540</v>
+        <v>72930</v>
       </c>
       <c r="D279" t="s">
         <v>3</v>
@@ -4301,10 +4301,10 @@
         <v>278</v>
       </c>
       <c r="B280" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="C280">
-        <v>71520</v>
+        <v>72540</v>
       </c>
       <c r="D280" t="s">
         <v>3</v>
@@ -4315,10 +4315,10 @@
         <v>279</v>
       </c>
       <c r="B281" s="2">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="C281">
-        <v>70880</v>
+        <v>71520</v>
       </c>
       <c r="D281" t="s">
         <v>3</v>
@@ -4329,10 +4329,10 @@
         <v>280</v>
       </c>
       <c r="B282" s="2">
-        <v>44617</v>
+        <v>44621</v>
       </c>
       <c r="C282">
-        <v>71010</v>
+        <v>70880</v>
       </c>
       <c r="D282" t="s">
         <v>3</v>
@@ -4343,10 +4343,10 @@
         <v>281</v>
       </c>
       <c r="B283" s="2">
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="C283">
-        <v>71170</v>
+        <v>71010</v>
       </c>
       <c r="D283" t="s">
         <v>3</v>
@@ -4357,10 +4357,10 @@
         <v>282</v>
       </c>
       <c r="B284" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="C284">
-        <v>71140</v>
+        <v>71170</v>
       </c>
       <c r="D284" t="s">
         <v>3</v>
@@ -4371,10 +4371,10 @@
         <v>283</v>
       </c>
       <c r="B285" s="2">
-        <v>44610</v>
+        <v>44614</v>
       </c>
       <c r="C285">
-        <v>71525</v>
+        <v>71140</v>
       </c>
       <c r="D285" t="s">
         <v>3</v>
@@ -4385,10 +4385,10 @@
         <v>284</v>
       </c>
       <c r="B286" s="2">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="C286">
-        <v>71550</v>
+        <v>71525</v>
       </c>
       <c r="D286" t="s">
         <v>3</v>
@@ -4399,7 +4399,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="C287">
         <v>71550</v>
@@ -4413,10 +4413,10 @@
         <v>286</v>
       </c>
       <c r="B288" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="C288">
-        <v>71090</v>
+        <v>71550</v>
       </c>
       <c r="D288" t="s">
         <v>3</v>
@@ -4427,10 +4427,10 @@
         <v>287</v>
       </c>
       <c r="B289" s="2">
-        <v>44603</v>
+        <v>44607</v>
       </c>
       <c r="C289">
-        <v>72580</v>
+        <v>71090</v>
       </c>
       <c r="D289" t="s">
         <v>3</v>
@@ -4441,10 +4441,10 @@
         <v>288</v>
       </c>
       <c r="B290" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="C290">
-        <v>72210</v>
+        <v>72580</v>
       </c>
       <c r="D290" t="s">
         <v>3</v>
@@ -4455,10 +4455,10 @@
         <v>289</v>
       </c>
       <c r="B291" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="C291">
-        <v>70500</v>
+        <v>72210</v>
       </c>
       <c r="D291" t="s">
         <v>3</v>
@@ -4469,10 +4469,10 @@
         <v>290</v>
       </c>
       <c r="B292" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="C292">
-        <v>70690</v>
+        <v>70500</v>
       </c>
       <c r="D292" t="s">
         <v>3</v>
@@ -4483,10 +4483,10 @@
         <v>291</v>
       </c>
       <c r="B293" s="2">
-        <v>44589</v>
+        <v>44600</v>
       </c>
       <c r="C293">
-        <v>70480</v>
+        <v>70690</v>
       </c>
       <c r="D293" t="s">
         <v>3</v>
@@ -4497,10 +4497,10 @@
         <v>292</v>
       </c>
       <c r="B294" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="C294">
-        <v>70400</v>
+        <v>70480</v>
       </c>
       <c r="D294" t="s">
         <v>3</v>
@@ -4511,10 +4511,10 @@
         <v>293</v>
       </c>
       <c r="B295" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="C295">
-        <v>70270</v>
+        <v>70400</v>
       </c>
       <c r="D295" t="s">
         <v>3</v>
@@ -4525,10 +4525,10 @@
         <v>294</v>
       </c>
       <c r="B296" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="C296">
-        <v>70040</v>
+        <v>70270</v>
       </c>
       <c r="D296" t="s">
         <v>3</v>
@@ -4539,10 +4539,10 @@
         <v>295</v>
       </c>
       <c r="B297" s="2">
-        <v>44582</v>
+        <v>44586</v>
       </c>
       <c r="C297">
-        <v>71000</v>
+        <v>70040</v>
       </c>
       <c r="D297" t="s">
         <v>3</v>
@@ -4553,10 +4553,10 @@
         <v>296</v>
       </c>
       <c r="B298" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="C298">
-        <v>70930</v>
+        <v>71000</v>
       </c>
       <c r="D298" t="s">
         <v>3</v>
@@ -4567,10 +4567,10 @@
         <v>297</v>
       </c>
       <c r="B299" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="C299">
-        <v>70330</v>
+        <v>70930</v>
       </c>
       <c r="D299" t="s">
         <v>3</v>
@@ -4581,10 +4581,10 @@
         <v>298</v>
       </c>
       <c r="B300" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="C300">
-        <v>70525</v>
+        <v>70330</v>
       </c>
       <c r="D300" t="s">
         <v>3</v>
@@ -4595,10 +4595,10 @@
         <v>299</v>
       </c>
       <c r="B301" s="2">
-        <v>44575</v>
+        <v>44579</v>
       </c>
       <c r="C301">
-        <v>71570</v>
+        <v>70525</v>
       </c>
       <c r="D301" t="s">
         <v>3</v>
@@ -4609,10 +4609,10 @@
         <v>300</v>
       </c>
       <c r="B302" s="2">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C302">
-        <v>72130</v>
+        <v>71570</v>
       </c>
       <c r="D302" t="s">
         <v>3</v>
@@ -4623,10 +4623,10 @@
         <v>301</v>
       </c>
       <c r="B303" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C303">
-        <v>70850</v>
+        <v>72130</v>
       </c>
       <c r="D303" t="s">
         <v>3</v>
@@ -4637,10 +4637,10 @@
         <v>302</v>
       </c>
       <c r="B304" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="C304">
-        <v>69900</v>
+        <v>70850</v>
       </c>
       <c r="D304" t="s">
         <v>3</v>
@@ -4651,10 +4651,10 @@
         <v>303</v>
       </c>
       <c r="B305" s="2">
-        <v>44561</v>
+        <v>44572</v>
       </c>
       <c r="C305">
-        <v>69910</v>
+        <v>69900</v>
       </c>
       <c r="D305" t="s">
         <v>3</v>
@@ -4665,10 +4665,10 @@
         <v>304</v>
       </c>
       <c r="B306" s="2">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="C306">
-        <v>70020</v>
+        <v>69910</v>
       </c>
       <c r="D306" t="s">
         <v>3</v>
@@ -4679,10 +4679,10 @@
         <v>305</v>
       </c>
       <c r="B307" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="C307">
-        <v>70060</v>
+        <v>70020</v>
       </c>
       <c r="D307" t="s">
         <v>3</v>
@@ -4693,10 +4693,10 @@
         <v>306</v>
       </c>
       <c r="B308" s="2">
-        <v>44558</v>
+        <v>44559</v>
       </c>
       <c r="C308">
-        <v>70270</v>
+        <v>70060</v>
       </c>
       <c r="D308" t="s">
         <v>3</v>
@@ -4707,10 +4707,10 @@
         <v>307</v>
       </c>
       <c r="B309" s="2">
-        <v>44554</v>
+        <v>44558</v>
       </c>
       <c r="C309">
-        <v>69840</v>
+        <v>70270</v>
       </c>
       <c r="D309" t="s">
         <v>3</v>
@@ -4721,10 +4721,10 @@
         <v>308</v>
       </c>
       <c r="B310" s="2">
-        <v>44553</v>
+        <v>44554</v>
       </c>
       <c r="C310">
-        <v>69850</v>
+        <v>69840</v>
       </c>
       <c r="D310" t="s">
         <v>3</v>
@@ -4735,10 +4735,10 @@
         <v>309</v>
       </c>
       <c r="B311" s="2">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="C311">
-        <v>69520</v>
+        <v>69850</v>
       </c>
       <c r="D311" t="s">
         <v>3</v>
@@ -4749,10 +4749,10 @@
         <v>310</v>
       </c>
       <c r="B312" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="C312">
-        <v>69385</v>
+        <v>69520</v>
       </c>
       <c r="D312" t="s">
         <v>3</v>
@@ -4763,10 +4763,10 @@
         <v>311</v>
       </c>
       <c r="B313" s="2">
-        <v>44547</v>
+        <v>44551</v>
       </c>
       <c r="C313">
-        <v>69525</v>
+        <v>69385</v>
       </c>
       <c r="D313" t="s">
         <v>3</v>
@@ -4777,10 +4777,10 @@
         <v>312</v>
       </c>
       <c r="B314" s="2">
-        <v>44546</v>
+        <v>44547</v>
       </c>
       <c r="C314">
-        <v>68570</v>
+        <v>69525</v>
       </c>
       <c r="D314" t="s">
         <v>3</v>
@@ -4791,10 +4791,10 @@
         <v>313</v>
       </c>
       <c r="B315" s="2">
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="C315">
-        <v>68875</v>
+        <v>68570</v>
       </c>
       <c r="D315" t="s">
         <v>3</v>
@@ -4805,10 +4805,10 @@
         <v>314</v>
       </c>
       <c r="B316" s="2">
-        <v>44544</v>
+        <v>44545</v>
       </c>
       <c r="C316">
-        <v>68900</v>
+        <v>68875</v>
       </c>
       <c r="D316" t="s">
         <v>3</v>
@@ -4819,10 +4819,10 @@
         <v>315</v>
       </c>
       <c r="B317" s="2">
-        <v>44540</v>
+        <v>44544</v>
       </c>
       <c r="C317">
-        <v>69750</v>
+        <v>68900</v>
       </c>
       <c r="D317" t="s">
         <v>3</v>
@@ -4833,10 +4833,10 @@
         <v>316</v>
       </c>
       <c r="B318" s="2">
-        <v>44539</v>
+        <v>44540</v>
       </c>
       <c r="C318">
-        <v>69980</v>
+        <v>69750</v>
       </c>
       <c r="D318" t="s">
         <v>3</v>
@@ -4847,10 +4847,10 @@
         <v>317</v>
       </c>
       <c r="B319" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="C319">
-        <v>69815</v>
+        <v>69980</v>
       </c>
       <c r="D319" t="s">
         <v>3</v>
@@ -4861,10 +4861,10 @@
         <v>318</v>
       </c>
       <c r="B320" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="C320">
-        <v>69760</v>
+        <v>69815</v>
       </c>
       <c r="D320" t="s">
         <v>3</v>
@@ -4875,10 +4875,10 @@
         <v>319</v>
       </c>
       <c r="B321" s="2">
-        <v>44533</v>
+        <v>44537</v>
       </c>
       <c r="C321">
-        <v>69830</v>
+        <v>69760</v>
       </c>
       <c r="D321" t="s">
         <v>3</v>
@@ -4889,10 +4889,10 @@
         <v>320</v>
       </c>
       <c r="B322" s="2">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="C322">
-        <v>69900</v>
+        <v>69830</v>
       </c>
       <c r="D322" t="s">
         <v>3</v>
@@ -4903,10 +4903,10 @@
         <v>321</v>
       </c>
       <c r="B323" s="2">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="C323">
-        <v>70180</v>
+        <v>69900</v>
       </c>
       <c r="D323" t="s">
         <v>3</v>
@@ -4917,10 +4917,10 @@
         <v>322</v>
       </c>
       <c r="B324" s="2">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="C324">
-        <v>70650</v>
+        <v>70180</v>
       </c>
       <c r="D324" t="s">
         <v>3</v>
@@ -4931,10 +4931,10 @@
         <v>323</v>
       </c>
       <c r="B325" s="2">
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="C325">
-        <v>71610</v>
+        <v>70650</v>
       </c>
       <c r="D325" t="s">
         <v>3</v>
@@ -4945,10 +4945,10 @@
         <v>324</v>
       </c>
       <c r="B326" s="2">
-        <v>44525</v>
+        <v>44526</v>
       </c>
       <c r="C326">
-        <v>72330</v>
+        <v>71610</v>
       </c>
       <c r="D326" t="s">
         <v>3</v>
@@ -4959,10 +4959,10 @@
         <v>325</v>
       </c>
       <c r="B327" s="2">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="C327">
-        <v>71820</v>
+        <v>72330</v>
       </c>
       <c r="D327" t="s">
         <v>3</v>
@@ -4973,10 +4973,10 @@
         <v>326</v>
       </c>
       <c r="B328" s="2">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="C328">
-        <v>72510</v>
+        <v>71820</v>
       </c>
       <c r="D328" t="s">
         <v>3</v>
@@ -4987,10 +4987,10 @@
         <v>327</v>
       </c>
       <c r="B329" s="2">
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="C329">
-        <v>72250</v>
+        <v>72510</v>
       </c>
       <c r="D329" t="s">
         <v>3</v>
@@ -5001,10 +5001,10 @@
         <v>328</v>
       </c>
       <c r="B330" s="2">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="C330">
-        <v>70350</v>
+        <v>72250</v>
       </c>
       <c r="D330" t="s">
         <v>3</v>
@@ -5015,10 +5015,10 @@
         <v>329</v>
       </c>
       <c r="B331" s="2">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="C331">
-        <v>70955</v>
+        <v>70350</v>
       </c>
       <c r="D331" t="s">
         <v>3</v>
@@ -5029,10 +5029,10 @@
         <v>330</v>
       </c>
       <c r="B332" s="2">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="C332">
-        <v>71750</v>
+        <v>70955</v>
       </c>
       <c r="D332" t="s">
         <v>3</v>
@@ -5043,10 +5043,10 @@
         <v>331</v>
       </c>
       <c r="B333" s="2">
-        <v>44512</v>
+        <v>44516</v>
       </c>
       <c r="C333">
-        <v>71435</v>
+        <v>71750</v>
       </c>
       <c r="D333" t="s">
         <v>3</v>
@@ -5057,10 +5057,10 @@
         <v>332</v>
       </c>
       <c r="B334" s="2">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="C334">
-        <v>70780</v>
+        <v>71435</v>
       </c>
       <c r="D334" t="s">
         <v>3</v>
@@ -5071,10 +5071,10 @@
         <v>333</v>
       </c>
       <c r="B335" s="2">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="C335">
-        <v>70650</v>
+        <v>70780</v>
       </c>
       <c r="D335" t="s">
         <v>3</v>
@@ -5085,10 +5085,10 @@
         <v>334</v>
       </c>
       <c r="B336" s="2">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="C336">
-        <v>71110</v>
+        <v>70650</v>
       </c>
       <c r="D336" t="s">
         <v>3</v>
@@ -5099,10 +5099,10 @@
         <v>335</v>
       </c>
       <c r="B337" s="2">
-        <v>44504</v>
+        <v>44509</v>
       </c>
       <c r="C337">
-        <v>71270</v>
+        <v>71110</v>
       </c>
       <c r="D337" t="s">
         <v>3</v>
@@ -5113,10 +5113,10 @@
         <v>336</v>
       </c>
       <c r="B338" s="2">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="C338">
-        <v>70910</v>
+        <v>71270</v>
       </c>
       <c r="D338" t="s">
         <v>3</v>
@@ -5127,10 +5127,10 @@
         <v>337</v>
       </c>
       <c r="B339" s="2">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="C339">
-        <v>71180</v>
+        <v>70910</v>
       </c>
       <c r="D339" t="s">
         <v>3</v>
@@ -5141,10 +5141,10 @@
         <v>338</v>
       </c>
       <c r="B340" s="2">
-        <v>44498</v>
+        <v>44502</v>
       </c>
       <c r="C340">
-        <v>71575</v>
+        <v>71180</v>
       </c>
       <c r="D340" t="s">
         <v>3</v>
@@ -5155,10 +5155,10 @@
         <v>339</v>
       </c>
       <c r="B341" s="2">
-        <v>44497</v>
+        <v>44498</v>
       </c>
       <c r="C341">
-        <v>70770</v>
+        <v>71575</v>
       </c>
       <c r="D341" t="s">
         <v>3</v>
@@ -5169,10 +5169,10 @@
         <v>340</v>
       </c>
       <c r="B342" s="2">
-        <v>44496</v>
+        <v>44497</v>
       </c>
       <c r="C342">
-        <v>72060</v>
+        <v>70770</v>
       </c>
       <c r="D342" t="s">
         <v>3</v>
@@ -5183,10 +5183,10 @@
         <v>341</v>
       </c>
       <c r="B343" s="2">
-        <v>44495</v>
+        <v>44496</v>
       </c>
       <c r="C343">
-        <v>72585</v>
+        <v>72060</v>
       </c>
       <c r="D343" t="s">
         <v>3</v>
@@ -5197,10 +5197,10 @@
         <v>342</v>
       </c>
       <c r="B344" s="2">
-        <v>44491</v>
+        <v>44495</v>
       </c>
       <c r="C344">
-        <v>73125</v>
+        <v>72585</v>
       </c>
       <c r="D344" t="s">
         <v>3</v>
@@ -5211,10 +5211,10 @@
         <v>343</v>
       </c>
       <c r="B345" s="2">
-        <v>44490</v>
+        <v>44491</v>
       </c>
       <c r="C345">
-        <v>75190</v>
+        <v>73125</v>
       </c>
       <c r="D345" t="s">
         <v>3</v>
@@ -5225,10 +5225,10 @@
         <v>344</v>
       </c>
       <c r="B346" s="2">
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="C346">
-        <v>73430</v>
+        <v>75190</v>
       </c>
       <c r="D346" t="s">
         <v>3</v>
@@ -5239,10 +5239,10 @@
         <v>345</v>
       </c>
       <c r="B347" s="2">
-        <v>44488</v>
+        <v>44489</v>
       </c>
       <c r="C347">
-        <v>75750</v>
+        <v>73430</v>
       </c>
       <c r="D347" t="s">
         <v>3</v>
@@ -5253,10 +5253,10 @@
         <v>346</v>
       </c>
       <c r="B348" s="2">
-        <v>44484</v>
+        <v>44488</v>
       </c>
       <c r="C348">
-        <v>74060</v>
+        <v>75750</v>
       </c>
       <c r="D348" t="s">
         <v>3</v>
@@ -5267,10 +5267,10 @@
         <v>347</v>
       </c>
       <c r="B349" s="2">
-        <v>44483</v>
+        <v>44484</v>
       </c>
       <c r="C349">
-        <v>72540</v>
+        <v>74060</v>
       </c>
       <c r="D349" t="s">
         <v>3</v>
@@ -5281,10 +5281,10 @@
         <v>348</v>
       </c>
       <c r="B350" s="2">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="C350">
-        <v>70160</v>
+        <v>72540</v>
       </c>
       <c r="D350" t="s">
         <v>3</v>
@@ -5295,10 +5295,10 @@
         <v>349</v>
       </c>
       <c r="B351" s="2">
-        <v>44481</v>
+        <v>44482</v>
       </c>
       <c r="C351">
-        <v>70320</v>
+        <v>70160</v>
       </c>
       <c r="D351" t="s">
         <v>3</v>
@@ -5309,10 +5309,10 @@
         <v>350</v>
       </c>
       <c r="B352" s="2">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="C352">
-        <v>69940</v>
+        <v>70320</v>
       </c>
       <c r="D352" t="s">
         <v>3</v>
@@ -5323,10 +5323,10 @@
         <v>351</v>
       </c>
       <c r="B353" s="2">
-        <v>44469</v>
+        <v>44477</v>
       </c>
       <c r="C353">
-        <v>68700</v>
+        <v>69940</v>
       </c>
       <c r="D353" t="s">
         <v>3</v>
@@ -5337,10 +5337,10 @@
         <v>352</v>
       </c>
       <c r="B354" s="2">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="C354">
-        <v>68965</v>
+        <v>68700</v>
       </c>
       <c r="D354" t="s">
         <v>3</v>
@@ -5351,10 +5351,10 @@
         <v>353</v>
       </c>
       <c r="B355" s="2">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="C355">
-        <v>69520</v>
+        <v>68965</v>
       </c>
       <c r="D355" t="s">
         <v>3</v>
@@ -5365,10 +5365,10 @@
         <v>354</v>
       </c>
       <c r="B356" s="2">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="C356">
-        <v>69375</v>
+        <v>69520</v>
       </c>
       <c r="D356" t="s">
         <v>3</v>
@@ -5379,10 +5379,10 @@
         <v>355</v>
       </c>
       <c r="B357" s="2">
-        <v>44462</v>
+        <v>44463</v>
       </c>
       <c r="C357">
-        <v>69040</v>
+        <v>69375</v>
       </c>
       <c r="D357" t="s">
         <v>3</v>
@@ -5393,10 +5393,10 @@
         <v>356</v>
       </c>
       <c r="B358" s="2">
-        <v>44461</v>
+        <v>44462</v>
       </c>
       <c r="C358">
-        <v>69075</v>
+        <v>69040</v>
       </c>
       <c r="D358" t="s">
         <v>3</v>
@@ -5407,10 +5407,10 @@
         <v>357</v>
       </c>
       <c r="B359" s="2">
-        <v>44456</v>
+        <v>44461</v>
       </c>
       <c r="C359">
-        <v>69810</v>
+        <v>69075</v>
       </c>
       <c r="D359" t="s">
         <v>3</v>
@@ -5421,10 +5421,10 @@
         <v>358</v>
       </c>
       <c r="B360" s="2">
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="C360">
-        <v>70460</v>
+        <v>69810</v>
       </c>
       <c r="D360" t="s">
         <v>3</v>
@@ -5435,10 +5435,10 @@
         <v>359</v>
       </c>
       <c r="B361" s="2">
-        <v>44454</v>
+        <v>44455</v>
       </c>
       <c r="C361">
-        <v>69860</v>
+        <v>70460</v>
       </c>
       <c r="D361" t="s">
         <v>3</v>
@@ -5449,10 +5449,10 @@
         <v>360</v>
       </c>
       <c r="B362" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="C362">
-        <v>70520</v>
+        <v>69860</v>
       </c>
       <c r="D362" t="s">
         <v>3</v>
@@ -5463,10 +5463,10 @@
         <v>361</v>
       </c>
       <c r="B363" s="2">
-        <v>44449</v>
+        <v>44453</v>
       </c>
       <c r="C363">
-        <v>70035</v>
+        <v>70520</v>
       </c>
       <c r="D363" t="s">
         <v>3</v>
@@ -5477,10 +5477,10 @@
         <v>362</v>
       </c>
       <c r="B364" s="2">
-        <v>44448</v>
+        <v>44449</v>
       </c>
       <c r="C364">
-        <v>68850</v>
+        <v>70035</v>
       </c>
       <c r="D364" t="s">
         <v>3</v>
@@ -5491,10 +5491,10 @@
         <v>363</v>
       </c>
       <c r="B365" s="2">
-        <v>44447</v>
+        <v>44448</v>
       </c>
       <c r="C365">
-        <v>69250</v>
+        <v>68850</v>
       </c>
       <c r="D365" t="s">
         <v>3</v>
@@ -5505,10 +5505,10 @@
         <v>364</v>
       </c>
       <c r="B366" s="2">
-        <v>44446</v>
+        <v>44447</v>
       </c>
       <c r="C366">
-        <v>69580</v>
+        <v>69250</v>
       </c>
       <c r="D366" t="s">
         <v>3</v>
@@ -5519,10 +5519,10 @@
         <v>365</v>
       </c>
       <c r="B367" s="2">
-        <v>44442</v>
+        <v>44446</v>
       </c>
       <c r="C367">
-        <v>69575</v>
+        <v>69580</v>
       </c>
       <c r="D367" t="s">
         <v>3</v>
@@ -5533,10 +5533,10 @@
         <v>366</v>
       </c>
       <c r="B368" s="2">
-        <v>44441</v>
+        <v>44442</v>
       </c>
       <c r="C368">
-        <v>69460</v>
+        <v>69575</v>
       </c>
       <c r="D368" t="s">
         <v>3</v>
@@ -5547,10 +5547,10 @@
         <v>367</v>
       </c>
       <c r="B369" s="2">
-        <v>44440</v>
+        <v>44441</v>
       </c>
       <c r="C369">
-        <v>69940</v>
+        <v>69460</v>
       </c>
       <c r="D369" t="s">
         <v>3</v>
@@ -5561,10 +5561,10 @@
         <v>368</v>
       </c>
       <c r="B370" s="2">
-        <v>44439</v>
+        <v>44440</v>
       </c>
       <c r="C370">
-        <v>70315</v>
+        <v>69940</v>
       </c>
       <c r="D370" t="s">
         <v>3</v>
@@ -5575,10 +5575,10 @@
         <v>369</v>
       </c>
       <c r="B371" s="2">
-        <v>44435</v>
+        <v>44439</v>
       </c>
       <c r="C371">
-        <v>69185</v>
+        <v>70315</v>
       </c>
       <c r="D371" t="s">
         <v>3</v>
@@ -5589,10 +5589,10 @@
         <v>370</v>
       </c>
       <c r="B372" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="C372">
-        <v>69260</v>
+        <v>69185</v>
       </c>
       <c r="D372" t="s">
         <v>3</v>
@@ -5603,10 +5603,10 @@
         <v>371</v>
       </c>
       <c r="B373" s="2">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="C373">
-        <v>69600</v>
+        <v>69260</v>
       </c>
       <c r="D373" t="s">
         <v>3</v>
@@ -5617,10 +5617,10 @@
         <v>372</v>
       </c>
       <c r="B374" s="2">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="C374">
-        <v>68940</v>
+        <v>69600</v>
       </c>
       <c r="D374" t="s">
         <v>3</v>
@@ -5631,10 +5631,10 @@
         <v>373</v>
       </c>
       <c r="B375" s="2">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="C375">
-        <v>67260</v>
+        <v>68940</v>
       </c>
       <c r="D375" t="s">
         <v>3</v>
@@ -5645,10 +5645,10 @@
         <v>374</v>
       </c>
       <c r="B376" s="2">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="C376">
-        <v>67700</v>
+        <v>67260</v>
       </c>
       <c r="D376" t="s">
         <v>3</v>
@@ -5659,10 +5659,10 @@
         <v>375</v>
       </c>
       <c r="B377" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="C377">
-        <v>69240</v>
+        <v>67700</v>
       </c>
       <c r="D377" t="s">
         <v>3</v>
@@ -5673,10 +5673,10 @@
         <v>376</v>
       </c>
       <c r="B378" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="C378">
-        <v>70080</v>
+        <v>69240</v>
       </c>
       <c r="D378" t="s">
         <v>3</v>
@@ -5687,10 +5687,10 @@
         <v>377</v>
       </c>
       <c r="B379" s="2">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="C379">
-        <v>70240</v>
+        <v>70080</v>
       </c>
       <c r="D379" t="s">
         <v>3</v>
@@ -5701,10 +5701,10 @@
         <v>378</v>
       </c>
       <c r="B380" s="2">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="C380">
-        <v>70430</v>
+        <v>70240</v>
       </c>
       <c r="D380" t="s">
         <v>3</v>
@@ -5715,10 +5715,10 @@
         <v>379</v>
       </c>
       <c r="B381" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="C381">
-        <v>70000</v>
+        <v>70430</v>
       </c>
       <c r="D381" t="s">
         <v>3</v>
@@ -5729,10 +5729,10 @@
         <v>380</v>
       </c>
       <c r="B382" s="2">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="C382">
-        <v>69560</v>
+        <v>70000</v>
       </c>
       <c r="D382" t="s">
         <v>3</v>
@@ -5743,10 +5743,10 @@
         <v>381</v>
       </c>
       <c r="B383" s="2">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="C383">
-        <v>69800</v>
+        <v>69560</v>
       </c>
       <c r="D383" t="s">
         <v>3</v>
@@ -5757,10 +5757,10 @@
         <v>382</v>
       </c>
       <c r="B384" s="2">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="C384">
-        <v>69660</v>
+        <v>69800</v>
       </c>
       <c r="D384" t="s">
         <v>3</v>
@@ -5771,10 +5771,10 @@
         <v>383</v>
       </c>
       <c r="B385" s="2">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="C385">
-        <v>70290</v>
+        <v>69660</v>
       </c>
       <c r="D385" t="s">
         <v>3</v>
@@ -5785,10 +5785,10 @@
         <v>384</v>
       </c>
       <c r="B386" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="C386">
-        <v>71030</v>
+        <v>70290</v>
       </c>
       <c r="D386" t="s">
         <v>3</v>
@@ -5799,10 +5799,10 @@
         <v>385</v>
       </c>
       <c r="B387" s="2">
-        <v>44407</v>
+        <v>44411</v>
       </c>
       <c r="C387">
-        <v>71900</v>
+        <v>71030</v>
       </c>
       <c r="D387" t="s">
         <v>3</v>
@@ -5813,10 +5813,10 @@
         <v>386</v>
       </c>
       <c r="B388" s="2">
-        <v>44406</v>
+        <v>44407</v>
       </c>
       <c r="C388">
-        <v>71700</v>
+        <v>71900</v>
       </c>
       <c r="D388" t="s">
         <v>3</v>
@@ -5827,10 +5827,10 @@
         <v>387</v>
       </c>
       <c r="B389" s="2">
-        <v>44405</v>
+        <v>44406</v>
       </c>
       <c r="C389">
-        <v>72365</v>
+        <v>71700</v>
       </c>
       <c r="D389" t="s">
         <v>3</v>
@@ -5841,10 +5841,10 @@
         <v>388</v>
       </c>
       <c r="B390" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="C390">
-        <v>72520</v>
+        <v>72365</v>
       </c>
       <c r="D390" t="s">
         <v>3</v>
@@ -5855,10 +5855,10 @@
         <v>389</v>
       </c>
       <c r="B391" s="2">
-        <v>44400</v>
+        <v>44404</v>
       </c>
       <c r="C391">
-        <v>70090</v>
+        <v>72520</v>
       </c>
       <c r="D391" t="s">
         <v>3</v>
@@ -5869,10 +5869,10 @@
         <v>390</v>
       </c>
       <c r="B392" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="C392">
-        <v>69040</v>
+        <v>70090</v>
       </c>
       <c r="D392" t="s">
         <v>3</v>
@@ -5883,10 +5883,10 @@
         <v>391</v>
       </c>
       <c r="B393" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="C393">
-        <v>68600</v>
+        <v>69040</v>
       </c>
       <c r="D393" t="s">
         <v>3</v>
@@ -5897,10 +5897,10 @@
         <v>392</v>
       </c>
       <c r="B394" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="C394">
-        <v>68390</v>
+        <v>68600</v>
       </c>
       <c r="D394" t="s">
         <v>3</v>
@@ -5911,10 +5911,10 @@
         <v>393</v>
       </c>
       <c r="B395" s="2">
-        <v>44393</v>
+        <v>44397</v>
       </c>
       <c r="C395">
-        <v>69660</v>
+        <v>68390</v>
       </c>
       <c r="D395" t="s">
         <v>3</v>
@@ -5925,10 +5925,10 @@
         <v>394</v>
       </c>
       <c r="B396" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="C396">
-        <v>68830</v>
+        <v>69660</v>
       </c>
       <c r="D396" t="s">
         <v>3</v>
@@ -5939,10 +5939,10 @@
         <v>395</v>
       </c>
       <c r="B397" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="C397">
-        <v>68810</v>
+        <v>68830</v>
       </c>
       <c r="D397" t="s">
         <v>3</v>
@@ -5953,10 +5953,10 @@
         <v>396</v>
       </c>
       <c r="B398" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="C398">
-        <v>69370</v>
+        <v>68810</v>
       </c>
       <c r="D398" t="s">
         <v>3</v>
@@ -5967,10 +5967,10 @@
         <v>397</v>
       </c>
       <c r="B399" s="2">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="C399">
-        <v>68800</v>
+        <v>69370</v>
       </c>
       <c r="D399" t="s">
         <v>3</v>
@@ -5981,10 +5981,10 @@
         <v>398</v>
       </c>
       <c r="B400" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="C400">
-        <v>68900</v>
+        <v>68800</v>
       </c>
       <c r="D400" t="s">
         <v>3</v>
@@ -5995,10 +5995,10 @@
         <v>399</v>
       </c>
       <c r="B401" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="C401">
-        <v>68540</v>
+        <v>68900</v>
       </c>
       <c r="D401" t="s">
         <v>3</v>
@@ -6009,10 +6009,10 @@
         <v>400</v>
       </c>
       <c r="B402" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="C402">
-        <v>69700</v>
+        <v>68540</v>
       </c>
       <c r="D402" t="s">
         <v>3</v>
@@ -6023,10 +6023,10 @@
         <v>401</v>
       </c>
       <c r="B403" s="2">
-        <v>44379</v>
+        <v>44383</v>
       </c>
       <c r="C403">
-        <v>68050</v>
+        <v>69700</v>
       </c>
       <c r="D403" t="s">
         <v>3</v>
@@ -6037,10 +6037,10 @@
         <v>402</v>
       </c>
       <c r="B404" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="C404">
-        <v>68490</v>
+        <v>68050</v>
       </c>
       <c r="D404" t="s">
         <v>3</v>
@@ -6051,10 +6051,10 @@
         <v>403</v>
       </c>
       <c r="B405" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="C405">
-        <v>68380</v>
+        <v>68490</v>
       </c>
       <c r="D405" t="s">
         <v>3</v>
@@ -6065,10 +6065,10 @@
         <v>404</v>
       </c>
       <c r="B406" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="C406">
-        <v>68050</v>
+        <v>68380</v>
       </c>
       <c r="D406" t="s">
         <v>3</v>
@@ -6079,10 +6079,10 @@
         <v>405</v>
       </c>
       <c r="B407" s="2">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="C407">
-        <v>68825</v>
+        <v>68050</v>
       </c>
       <c r="D407" t="s">
         <v>3</v>
@@ -6093,10 +6093,10 @@
         <v>406</v>
       </c>
       <c r="B408" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="C408">
-        <v>68600</v>
+        <v>68825</v>
       </c>
       <c r="D408" t="s">
         <v>3</v>
@@ -6107,10 +6107,10 @@
         <v>407</v>
       </c>
       <c r="B409" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="C409">
-        <v>68270</v>
+        <v>68600</v>
       </c>
       <c r="D409" t="s">
         <v>3</v>
@@ -6121,10 +6121,10 @@
         <v>408</v>
       </c>
       <c r="B410" s="2">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="C410">
-        <v>67400</v>
+        <v>68270</v>
       </c>
       <c r="D410" t="s">
         <v>3</v>
@@ -6135,10 +6135,10 @@
         <v>409</v>
       </c>
       <c r="B411" s="2">
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="C411">
-        <v>67730</v>
+        <v>67400</v>
       </c>
       <c r="D411" t="s">
         <v>3</v>
@@ -6149,10 +6149,10 @@
         <v>410</v>
       </c>
       <c r="B412" s="2">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="C412">
-        <v>69170</v>
+        <v>67730</v>
       </c>
       <c r="D412" t="s">
         <v>3</v>
@@ -6163,10 +6163,10 @@
         <v>411</v>
       </c>
       <c r="B413" s="2">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="C413">
-        <v>69260</v>
+        <v>69170</v>
       </c>
       <c r="D413" t="s">
         <v>3</v>
@@ -6177,10 +6177,10 @@
         <v>412</v>
       </c>
       <c r="B414" s="2">
-        <v>44358</v>
+        <v>44363</v>
       </c>
       <c r="C414">
-        <v>70800</v>
+        <v>69260</v>
       </c>
       <c r="D414" t="s">
         <v>3</v>
@@ -6191,10 +6191,10 @@
         <v>413</v>
       </c>
       <c r="B415" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="C415">
-        <v>71210</v>
+        <v>70800</v>
       </c>
       <c r="D415" t="s">
         <v>3</v>
@@ -6205,10 +6205,10 @@
         <v>414</v>
       </c>
       <c r="B416" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="C416">
-        <v>71710</v>
+        <v>71210</v>
       </c>
       <c r="D416" t="s">
         <v>3</v>
@@ -6219,10 +6219,10 @@
         <v>415</v>
       </c>
       <c r="B417" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="C417">
-        <v>71310</v>
+        <v>71710</v>
       </c>
       <c r="D417" t="s">
         <v>3</v>
@@ -6233,10 +6233,10 @@
         <v>416</v>
       </c>
       <c r="B418" s="2">
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="C418">
-        <v>71090</v>
+        <v>71310</v>
       </c>
       <c r="D418" t="s">
         <v>3</v>
@@ -6247,10 +6247,10 @@
         <v>417</v>
       </c>
       <c r="B419" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="C419">
-        <v>72950</v>
+        <v>71090</v>
       </c>
       <c r="D419" t="s">
         <v>3</v>
@@ -6261,10 +6261,10 @@
         <v>418</v>
       </c>
       <c r="B420" s="2">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="C420">
-        <v>73580</v>
+        <v>72950</v>
       </c>
       <c r="D420" t="s">
         <v>3</v>
@@ -6275,10 +6275,10 @@
         <v>419</v>
       </c>
       <c r="B421" s="2">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="C421">
-        <v>73790</v>
+        <v>73580</v>
       </c>
       <c r="D421" t="s">
         <v>3</v>
@@ -6289,10 +6289,10 @@
         <v>420</v>
       </c>
       <c r="B422" s="2">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="C422">
-        <v>73380</v>
+        <v>73790</v>
       </c>
       <c r="D422" t="s">
         <v>3</v>
@@ -6303,10 +6303,10 @@
         <v>421</v>
       </c>
       <c r="B423" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="C423">
-        <v>71350</v>
+        <v>73380</v>
       </c>
       <c r="D423" t="s">
         <v>3</v>
@@ -6317,10 +6317,10 @@
         <v>422</v>
       </c>
       <c r="B424" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="C424">
-        <v>71720</v>
+        <v>71350</v>
       </c>
       <c r="D424" t="s">
         <v>3</v>
@@ -6331,10 +6331,10 @@
         <v>423</v>
       </c>
       <c r="B425" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="C425">
-        <v>72360</v>
+        <v>71720</v>
       </c>
       <c r="D425" t="s">
         <v>3</v>
@@ -6345,10 +6345,10 @@
         <v>424</v>
       </c>
       <c r="B426" s="2">
-        <v>44337</v>
+        <v>44341</v>
       </c>
       <c r="C426">
-        <v>71950</v>
+        <v>72360</v>
       </c>
       <c r="D426" t="s">
         <v>3</v>
@@ -6359,10 +6359,10 @@
         <v>425</v>
       </c>
       <c r="B427" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="C427">
-        <v>72525</v>
+        <v>71950</v>
       </c>
       <c r="D427" t="s">
         <v>3</v>
@@ -6373,10 +6373,10 @@
         <v>426</v>
       </c>
       <c r="B428" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="C428">
-        <v>74840</v>
+        <v>72525</v>
       </c>
       <c r="D428" t="s">
         <v>3</v>
@@ -6387,10 +6387,10 @@
         <v>427</v>
       </c>
       <c r="B429" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="C429">
-        <v>75720</v>
+        <v>74840</v>
       </c>
       <c r="D429" t="s">
         <v>3</v>
@@ -6401,10 +6401,10 @@
         <v>428</v>
       </c>
       <c r="B430" s="2">
-        <v>44330</v>
+        <v>44334</v>
       </c>
       <c r="C430">
-        <v>74760</v>
+        <v>75720</v>
       </c>
       <c r="D430" t="s">
         <v>3</v>
@@ -6415,10 +6415,10 @@
         <v>429</v>
       </c>
       <c r="B431" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="C431">
-        <v>75910</v>
+        <v>74760</v>
       </c>
       <c r="D431" t="s">
         <v>3</v>
@@ -6429,10 +6429,10 @@
         <v>430</v>
       </c>
       <c r="B432" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="C432">
-        <v>76150</v>
+        <v>75910</v>
       </c>
       <c r="D432" t="s">
         <v>3</v>
@@ -6443,10 +6443,10 @@
         <v>431</v>
       </c>
       <c r="B433" s="2">
-        <v>44323</v>
+        <v>44328</v>
       </c>
       <c r="C433">
-        <v>74200</v>
+        <v>76150</v>
       </c>
       <c r="D433" t="s">
         <v>3</v>
@@ -6457,10 +6457,10 @@
         <v>432</v>
       </c>
       <c r="B434" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="C434">
-        <v>72690</v>
+        <v>74200</v>
       </c>
       <c r="D434" t="s">
         <v>3</v>
@@ -6471,10 +6471,10 @@
         <v>433</v>
       </c>
       <c r="B435" s="2">
-        <v>44316</v>
+        <v>44322</v>
       </c>
       <c r="C435">
-        <v>71680</v>
+        <v>72690</v>
       </c>
       <c r="D435" t="s">
         <v>3</v>
@@ -6485,10 +6485,10 @@
         <v>434</v>
       </c>
       <c r="B436" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="C436">
-        <v>72335</v>
+        <v>71680</v>
       </c>
       <c r="D436" t="s">
         <v>3</v>
@@ -6499,10 +6499,10 @@
         <v>435</v>
       </c>
       <c r="B437" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="C437">
-        <v>70920</v>
+        <v>72335</v>
       </c>
       <c r="D437" t="s">
         <v>3</v>
@@ -6513,10 +6513,10 @@
         <v>436</v>
       </c>
       <c r="B438" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="C438">
-        <v>71940</v>
+        <v>70920</v>
       </c>
       <c r="D438" t="s">
         <v>3</v>
@@ -6527,10 +6527,10 @@
         <v>437</v>
       </c>
       <c r="B439" s="2">
-        <v>44309</v>
+        <v>44313</v>
       </c>
       <c r="C439">
-        <v>69120</v>
+        <v>71940</v>
       </c>
       <c r="D439" t="s">
         <v>3</v>
@@ -6541,10 +6541,10 @@
         <v>438</v>
       </c>
       <c r="B440" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="C440">
-        <v>68840</v>
+        <v>69120</v>
       </c>
       <c r="D440" t="s">
         <v>3</v>
@@ -6555,10 +6555,10 @@
         <v>439</v>
       </c>
       <c r="B441" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="C441">
-        <v>68550</v>
+        <v>68840</v>
       </c>
       <c r="D441" t="s">
         <v>3</v>
@@ -6569,10 +6569,10 @@
         <v>440</v>
       </c>
       <c r="B442" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="C442">
-        <v>68990</v>
+        <v>68550</v>
       </c>
       <c r="D442" t="s">
         <v>3</v>
@@ -6583,10 +6583,10 @@
         <v>441</v>
       </c>
       <c r="B443" s="2">
-        <v>44302</v>
+        <v>44306</v>
       </c>
       <c r="C443">
-        <v>68550</v>
+        <v>68990</v>
       </c>
       <c r="D443" t="s">
         <v>3</v>
@@ -6597,10 +6597,10 @@
         <v>442</v>
       </c>
       <c r="B444" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="C444">
-        <v>67260</v>
+        <v>68550</v>
       </c>
       <c r="D444" t="s">
         <v>3</v>
@@ -6611,10 +6611,10 @@
         <v>443</v>
       </c>
       <c r="B445" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="C445">
-        <v>66125</v>
+        <v>67260</v>
       </c>
       <c r="D445" t="s">
         <v>3</v>
@@ -6625,10 +6625,10 @@
         <v>444</v>
       </c>
       <c r="B446" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="C446">
-        <v>65720</v>
+        <v>66125</v>
       </c>
       <c r="D446" t="s">
         <v>3</v>
@@ -6639,10 +6639,10 @@
         <v>445</v>
       </c>
       <c r="B447" s="2">
-        <v>44295</v>
+        <v>44299</v>
       </c>
       <c r="C447">
-        <v>66750</v>
+        <v>65720</v>
       </c>
       <c r="D447" t="s">
         <v>3</v>
@@ -6653,10 +6653,10 @@
         <v>446</v>
       </c>
       <c r="B448" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="C448">
-        <v>66500</v>
+        <v>66750</v>
       </c>
       <c r="D448" t="s">
         <v>3</v>
@@ -6667,10 +6667,10 @@
         <v>447</v>
       </c>
       <c r="B449" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="C449">
-        <v>66890</v>
+        <v>66500</v>
       </c>
       <c r="D449" t="s">
         <v>3</v>
@@ -6681,10 +6681,10 @@
         <v>448</v>
       </c>
       <c r="B450" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="C450">
-        <v>67140</v>
+        <v>66890</v>
       </c>
       <c r="D450" t="s">
         <v>3</v>
@@ -6695,10 +6695,10 @@
         <v>449</v>
       </c>
       <c r="B451" s="2">
-        <v>44288</v>
+        <v>44292</v>
       </c>
       <c r="C451">
-        <v>66040</v>
+        <v>67140</v>
       </c>
       <c r="D451" t="s">
         <v>3</v>
@@ -6709,10 +6709,10 @@
         <v>450</v>
       </c>
       <c r="B452" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="C452">
-        <v>65490</v>
+        <v>66040</v>
       </c>
       <c r="D452" t="s">
         <v>3</v>
@@ -6723,10 +6723,10 @@
         <v>451</v>
       </c>
       <c r="B453" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="C453">
-        <v>65175</v>
+        <v>65490</v>
       </c>
       <c r="D453" t="s">
         <v>3</v>
@@ -6737,10 +6737,10 @@
         <v>452</v>
       </c>
       <c r="B454" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="C454">
-        <v>66190</v>
+        <v>65175</v>
       </c>
       <c r="D454" t="s">
         <v>3</v>
@@ -6751,10 +6751,10 @@
         <v>453</v>
       </c>
       <c r="B455" s="2">
-        <v>44281</v>
+        <v>44285</v>
       </c>
       <c r="C455">
-        <v>65680</v>
+        <v>66190</v>
       </c>
       <c r="D455" t="s">
         <v>3</v>
@@ -6765,10 +6765,10 @@
         <v>454</v>
       </c>
       <c r="B456" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="C456">
-        <v>65770</v>
+        <v>65680</v>
       </c>
       <c r="D456" t="s">
         <v>3</v>
@@ -6779,10 +6779,10 @@
         <v>455</v>
       </c>
       <c r="B457" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="C457">
-        <v>66075</v>
+        <v>65770</v>
       </c>
       <c r="D457" t="s">
         <v>3</v>
@@ -6793,10 +6793,10 @@
         <v>456</v>
       </c>
       <c r="B458" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="C458">
-        <v>66740</v>
+        <v>66075</v>
       </c>
       <c r="D458" t="s">
         <v>3</v>
@@ -6807,10 +6807,10 @@
         <v>457</v>
       </c>
       <c r="B459" s="2">
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="C459">
-        <v>66550</v>
+        <v>66740</v>
       </c>
       <c r="D459" t="s">
         <v>3</v>
@@ -6821,10 +6821,10 @@
         <v>458</v>
       </c>
       <c r="B460" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="C460">
-        <v>67050</v>
+        <v>66550</v>
       </c>
       <c r="D460" t="s">
         <v>3</v>
@@ -6835,10 +6835,10 @@
         <v>459</v>
       </c>
       <c r="B461" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="C461">
-        <v>66200</v>
+        <v>67050</v>
       </c>
       <c r="D461" t="s">
         <v>3</v>
@@ -6849,10 +6849,10 @@
         <v>460</v>
       </c>
       <c r="B462" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="C462">
-        <v>67150</v>
+        <v>66200</v>
       </c>
       <c r="D462" t="s">
         <v>3</v>
@@ -6863,10 +6863,10 @@
         <v>461</v>
       </c>
       <c r="B463" s="2">
-        <v>44267</v>
+        <v>44271</v>
       </c>
       <c r="C463">
-        <v>66660</v>
+        <v>67150</v>
       </c>
       <c r="D463" t="s">
         <v>3</v>
@@ -6877,10 +6877,10 @@
         <v>462</v>
       </c>
       <c r="B464" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="C464">
-        <v>65580</v>
+        <v>66660</v>
       </c>
       <c r="D464" t="s">
         <v>3</v>
@@ -6891,10 +6891,10 @@
         <v>463</v>
       </c>
       <c r="B465" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="C465">
-        <v>65530</v>
+        <v>65580</v>
       </c>
       <c r="D465" t="s">
         <v>3</v>
@@ -6905,10 +6905,10 @@
         <v>464</v>
       </c>
       <c r="B466" s="2">
-        <v>44260</v>
+        <v>44265</v>
       </c>
       <c r="C466">
-        <v>64810</v>
+        <v>65530</v>
       </c>
       <c r="D466" t="s">
         <v>3</v>
@@ -6919,10 +6919,10 @@
         <v>465</v>
       </c>
       <c r="B467" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="C467">
-        <v>67020</v>
+        <v>64810</v>
       </c>
       <c r="D467" t="s">
         <v>3</v>
@@ -6933,10 +6933,10 @@
         <v>466</v>
       </c>
       <c r="B468" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="C468">
-        <v>67790</v>
+        <v>67020</v>
       </c>
       <c r="D468" t="s">
         <v>3</v>
@@ -6947,10 +6947,10 @@
         <v>467</v>
       </c>
       <c r="B469" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="C469">
-        <v>66140</v>
+        <v>67790</v>
       </c>
       <c r="D469" t="s">
         <v>3</v>
@@ -6961,10 +6961,10 @@
         <v>468</v>
       </c>
       <c r="B470" s="2">
-        <v>44253</v>
+        <v>44257</v>
       </c>
       <c r="C470">
-        <v>68410</v>
+        <v>66140</v>
       </c>
       <c r="D470" t="s">
         <v>3</v>
@@ -6975,10 +6975,10 @@
         <v>469</v>
       </c>
       <c r="B471" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="C471">
-        <v>69900</v>
+        <v>68410</v>
       </c>
       <c r="D471" t="s">
         <v>3</v>
@@ -6989,10 +6989,10 @@
         <v>470</v>
       </c>
       <c r="B472" s="2">
-        <v>44246</v>
+        <v>44252</v>
       </c>
       <c r="C472">
-        <v>63240</v>
+        <v>69900</v>
       </c>
       <c r="D472" t="s">
         <v>3</v>
@@ -7003,10 +7003,10 @@
         <v>471</v>
       </c>
       <c r="B473" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="C473">
-        <v>62690</v>
+        <v>63240</v>
       </c>
       <c r="D473" t="s">
         <v>3</v>
@@ -7017,10 +7017,10 @@
         <v>472</v>
       </c>
       <c r="B474" s="2">
-        <v>44237</v>
+        <v>44245</v>
       </c>
       <c r="C474">
-        <v>60230</v>
+        <v>62690</v>
       </c>
       <c r="D474" t="s">
         <v>3</v>
@@ -7031,10 +7031,10 @@
         <v>473</v>
       </c>
       <c r="B475" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="C475">
-        <v>59410</v>
+        <v>60230</v>
       </c>
       <c r="D475" t="s">
         <v>3</v>
@@ -7045,10 +7045,10 @@
         <v>474</v>
       </c>
       <c r="B476" s="2">
-        <v>44232</v>
+        <v>44236</v>
       </c>
       <c r="C476">
-        <v>58040</v>
+        <v>59410</v>
       </c>
       <c r="D476" t="s">
         <v>3</v>
@@ -7059,10 +7059,10 @@
         <v>475</v>
       </c>
       <c r="B477" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="C477">
-        <v>57825</v>
+        <v>58040</v>
       </c>
       <c r="D477" t="s">
         <v>3</v>
@@ -7073,10 +7073,10 @@
         <v>476</v>
       </c>
       <c r="B478" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="C478">
-        <v>57170</v>
+        <v>57825</v>
       </c>
       <c r="D478" t="s">
         <v>3</v>
@@ -7087,10 +7087,10 @@
         <v>477</v>
       </c>
       <c r="B479" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="C479">
-        <v>57700</v>
+        <v>57170</v>
       </c>
       <c r="D479" t="s">
         <v>3</v>
@@ -7101,10 +7101,10 @@
         <v>478</v>
       </c>
       <c r="B480" s="2">
-        <v>44225</v>
+        <v>44229</v>
       </c>
       <c r="C480">
-        <v>58180</v>
+        <v>57700</v>
       </c>
       <c r="D480" t="s">
         <v>3</v>
@@ -7115,10 +7115,10 @@
         <v>479</v>
       </c>
       <c r="B481" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="C481">
-        <v>57950</v>
+        <v>58180</v>
       </c>
       <c r="D481" t="s">
         <v>3</v>
@@ -7129,10 +7129,10 @@
         <v>480</v>
       </c>
       <c r="B482" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="C482">
-        <v>58745</v>
+        <v>57950</v>
       </c>
       <c r="D482" t="s">
         <v>3</v>
@@ -7143,10 +7143,10 @@
         <v>481</v>
       </c>
       <c r="B483" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="C483">
-        <v>58820</v>
+        <v>58745</v>
       </c>
       <c r="D483" t="s">
         <v>3</v>
@@ -7157,10 +7157,10 @@
         <v>482</v>
       </c>
       <c r="B484" s="2">
-        <v>44218</v>
+        <v>44222</v>
       </c>
       <c r="C484">
-        <v>58920</v>
+        <v>58820</v>
       </c>
       <c r="D484" t="s">
         <v>3</v>
@@ -7171,10 +7171,10 @@
         <v>483</v>
       </c>
       <c r="B485" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="C485">
-        <v>59280</v>
+        <v>58920</v>
       </c>
       <c r="D485" t="s">
         <v>3</v>
@@ -7185,10 +7185,10 @@
         <v>484</v>
       </c>
       <c r="B486" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="C486">
-        <v>59025</v>
+        <v>59280</v>
       </c>
       <c r="D486" t="s">
         <v>3</v>
@@ -7199,10 +7199,10 @@
         <v>485</v>
       </c>
       <c r="B487" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="C487">
-        <v>59030</v>
+        <v>59025</v>
       </c>
       <c r="D487" t="s">
         <v>3</v>
@@ -7213,10 +7213,10 @@
         <v>486</v>
       </c>
       <c r="B488" s="2">
-        <v>44211</v>
+        <v>44215</v>
       </c>
       <c r="C488">
-        <v>59560</v>
+        <v>59030</v>
       </c>
       <c r="D488" t="s">
         <v>3</v>
@@ -7227,10 +7227,10 @@
         <v>487</v>
       </c>
       <c r="B489" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="C489">
-        <v>58675</v>
+        <v>59560</v>
       </c>
       <c r="D489" t="s">
         <v>3</v>
@@ -7241,10 +7241,10 @@
         <v>488</v>
       </c>
       <c r="B490" s="2">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="C490">
-        <v>58840</v>
+        <v>58675</v>
       </c>
       <c r="D490" t="s">
         <v>3</v>
@@ -7255,10 +7255,10 @@
         <v>489</v>
       </c>
       <c r="B491" s="2">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="C491">
-        <v>58225</v>
+        <v>58840</v>
       </c>
       <c r="D491" t="s">
         <v>3</v>
@@ -7269,10 +7269,10 @@
         <v>490</v>
       </c>
       <c r="B492" s="2">
-        <v>44196</v>
+        <v>44208</v>
       </c>
       <c r="C492">
-        <v>57810</v>
+        <v>58225</v>
       </c>
       <c r="D492" t="s">
         <v>3</v>
@@ -7283,10 +7283,10 @@
         <v>491</v>
       </c>
       <c r="B493" s="2">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="C493">
-        <v>58150</v>
+        <v>57810</v>
       </c>
       <c r="D493" t="s">
         <v>3</v>
@@ -7297,10 +7297,10 @@
         <v>492</v>
       </c>
       <c r="B494" s="2">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="C494">
-        <v>58450</v>
+        <v>58150</v>
       </c>
       <c r="D494" t="s">
         <v>3</v>
@@ -7311,10 +7311,10 @@
         <v>493</v>
       </c>
       <c r="B495" s="2">
-        <v>44190</v>
+        <v>44194</v>
       </c>
       <c r="C495">
-        <v>58180</v>
+        <v>58450</v>
       </c>
       <c r="D495" t="s">
         <v>3</v>
@@ -7325,10 +7325,10 @@
         <v>494</v>
       </c>
       <c r="B496" s="2">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="C496">
-        <v>58110</v>
+        <v>58180</v>
       </c>
       <c r="D496" t="s">
         <v>3</v>
@@ -7339,10 +7339,10 @@
         <v>495</v>
       </c>
       <c r="B497" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="C497">
-        <v>57610</v>
+        <v>58110</v>
       </c>
       <c r="D497" t="s">
         <v>3</v>
@@ -7353,10 +7353,10 @@
         <v>496</v>
       </c>
       <c r="B498" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="C498">
-        <v>58550</v>
+        <v>57610</v>
       </c>
       <c r="D498" t="s">
         <v>3</v>
@@ -7367,10 +7367,10 @@
         <v>497</v>
       </c>
       <c r="B499" s="2">
-        <v>44183</v>
+        <v>44187</v>
       </c>
       <c r="C499">
-        <v>59090</v>
+        <v>58550</v>
       </c>
       <c r="D499" t="s">
         <v>3</v>
@@ -7381,10 +7381,10 @@
         <v>498</v>
       </c>
       <c r="B500" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="C500">
-        <v>58120</v>
+        <v>59090</v>
       </c>
       <c r="D500" t="s">
         <v>3</v>
@@ -7395,10 +7395,10 @@
         <v>499</v>
       </c>
       <c r="B501" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="C501">
-        <v>57850</v>
+        <v>58120</v>
       </c>
       <c r="D501" t="s">
         <v>3</v>
@@ -7409,10 +7409,10 @@
         <v>500</v>
       </c>
       <c r="B502" s="2">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="C502">
-        <v>57420</v>
+        <v>57850</v>
       </c>
       <c r="D502" t="s">
         <v>3</v>
@@ -7423,10 +7423,10 @@
         <v>501</v>
       </c>
       <c r="B503" s="2">
-        <v>44176</v>
+        <v>44180</v>
       </c>
       <c r="C503">
-        <v>58285</v>
+        <v>57420</v>
       </c>
       <c r="D503" t="s">
         <v>3</v>
@@ -7437,10 +7437,10 @@
         <v>502</v>
       </c>
       <c r="B504" s="2">
-        <v>44175</v>
+        <v>44176</v>
       </c>
       <c r="C504">
-        <v>57010</v>
+        <v>58285</v>
       </c>
       <c r="D504" t="s">
         <v>3</v>
@@ -7451,10 +7451,10 @@
         <v>503</v>
       </c>
       <c r="B505" s="2">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="C505">
-        <v>57270</v>
+        <v>57010</v>
       </c>
       <c r="D505" t="s">
         <v>3</v>
@@ -7465,10 +7465,10 @@
         <v>504</v>
       </c>
       <c r="B506" s="2">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="C506">
-        <v>57000</v>
+        <v>57270</v>
       </c>
       <c r="D506" t="s">
         <v>3</v>
@@ -7479,10 +7479,10 @@
         <v>505</v>
       </c>
       <c r="B507" s="2">
-        <v>44169</v>
+        <v>44173</v>
       </c>
       <c r="C507">
-        <v>57290</v>
+        <v>57000</v>
       </c>
       <c r="D507" t="s">
         <v>3</v>
@@ -7493,10 +7493,10 @@
         <v>506</v>
       </c>
       <c r="B508" s="2">
-        <v>44168</v>
+        <v>44169</v>
       </c>
       <c r="C508">
-        <v>57300</v>
+        <v>57290</v>
       </c>
       <c r="D508" t="s">
         <v>3</v>
@@ -7507,10 +7507,10 @@
         <v>507</v>
       </c>
       <c r="B509" s="2">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="C509">
-        <v>57280</v>
+        <v>57300</v>
       </c>
       <c r="D509" t="s">
         <v>3</v>
@@ -7521,10 +7521,10 @@
         <v>508</v>
       </c>
       <c r="B510" s="2">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="C510">
-        <v>57375</v>
+        <v>57280</v>
       </c>
       <c r="D510" t="s">
         <v>3</v>
@@ -7535,10 +7535,10 @@
         <v>509</v>
       </c>
       <c r="B511" s="2">
-        <v>44162</v>
+        <v>44166</v>
       </c>
       <c r="C511">
-        <v>55685</v>
+        <v>57375</v>
       </c>
       <c r="D511" t="s">
         <v>3</v>
@@ -7549,10 +7549,10 @@
         <v>510</v>
       </c>
       <c r="B512" s="2">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="C512">
-        <v>55120</v>
+        <v>55685</v>
       </c>
       <c r="D512" t="s">
         <v>3</v>
@@ -7563,10 +7563,10 @@
         <v>511</v>
       </c>
       <c r="B513" s="2">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="C513">
-        <v>54890</v>
+        <v>55120</v>
       </c>
       <c r="D513" t="s">
         <v>3</v>
@@ -7577,10 +7577,10 @@
         <v>512</v>
       </c>
       <c r="B514" s="2">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="C514">
-        <v>54110</v>
+        <v>54890</v>
       </c>
       <c r="D514" t="s">
         <v>3</v>
@@ -7591,10 +7591,10 @@
         <v>513</v>
       </c>
       <c r="B515" s="2">
-        <v>44155</v>
+        <v>44159</v>
       </c>
       <c r="C515">
-        <v>53220</v>
+        <v>54110</v>
       </c>
       <c r="D515" t="s">
         <v>3</v>
@@ -7605,10 +7605,10 @@
         <v>514</v>
       </c>
       <c r="B516" s="2">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="C516">
-        <v>52820</v>
+        <v>53220</v>
       </c>
       <c r="D516" t="s">
         <v>3</v>
@@ -7619,10 +7619,10 @@
         <v>515</v>
       </c>
       <c r="B517" s="2">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="C517">
-        <v>52740</v>
+        <v>52820</v>
       </c>
       <c r="D517" t="s">
         <v>3</v>
@@ -7633,10 +7633,10 @@
         <v>516</v>
       </c>
       <c r="B518" s="2">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="C518">
-        <v>53220</v>
+        <v>52740</v>
       </c>
       <c r="D518" t="s">
         <v>3</v>
@@ -7647,10 +7647,10 @@
         <v>517</v>
       </c>
       <c r="B519" s="2">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="C519">
-        <v>52025</v>
+        <v>53220</v>
       </c>
       <c r="D519" t="s">
         <v>3</v>
@@ -7661,10 +7661,10 @@
         <v>518</v>
       </c>
       <c r="B520" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="C520">
-        <v>51880</v>
+        <v>52025</v>
       </c>
       <c r="D520" t="s">
         <v>3</v>
@@ -7675,10 +7675,10 @@
         <v>519</v>
       </c>
       <c r="B521" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="C521">
-        <v>51990</v>
+        <v>51880</v>
       </c>
       <c r="D521" t="s">
         <v>3</v>
@@ -7689,10 +7689,10 @@
         <v>520</v>
       </c>
       <c r="B522" s="2">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="C522">
-        <v>52120</v>
+        <v>51990</v>
       </c>
       <c r="D522" t="s">
         <v>3</v>
@@ -7703,10 +7703,10 @@
         <v>521</v>
       </c>
       <c r="B523" s="2">
-        <v>44141</v>
+        <v>44145</v>
       </c>
       <c r="C523">
-        <v>51640</v>
+        <v>52120</v>
       </c>
       <c r="D523" t="s">
         <v>3</v>
@@ -7717,10 +7717,10 @@
         <v>522</v>
       </c>
       <c r="B524" s="2">
-        <v>44139</v>
+        <v>44141</v>
       </c>
       <c r="C524">
-        <v>51680</v>
+        <v>51640</v>
       </c>
       <c r="D524" t="s">
         <v>3</v>
@@ -7731,10 +7731,10 @@
         <v>523</v>
       </c>
       <c r="B525" s="2">
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C525">
-        <v>51750</v>
+        <v>51680</v>
       </c>
       <c r="D525" t="s">
         <v>3</v>
@@ -7745,10 +7745,10 @@
         <v>524</v>
       </c>
       <c r="B526" s="2">
-        <v>44134</v>
+        <v>44138</v>
       </c>
       <c r="C526">
-        <v>51530</v>
+        <v>51750</v>
       </c>
       <c r="D526" t="s">
         <v>3</v>
@@ -7759,10 +7759,10 @@
         <v>525</v>
       </c>
       <c r="B527" s="2">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="C527">
-        <v>51585</v>
+        <v>51530</v>
       </c>
       <c r="D527" t="s">
         <v>3</v>
@@ -7773,10 +7773,10 @@
         <v>526</v>
       </c>
       <c r="B528" s="2">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="C528">
-        <v>51730</v>
+        <v>51585</v>
       </c>
       <c r="D528" t="s">
         <v>3</v>
@@ -7787,10 +7787,10 @@
         <v>527</v>
       </c>
       <c r="B529" s="2">
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="C529">
-        <v>51540</v>
+        <v>51730</v>
       </c>
       <c r="D529" t="s">
         <v>3</v>
@@ -7801,10 +7801,10 @@
         <v>528</v>
       </c>
       <c r="B530" s="2">
-        <v>44127</v>
+        <v>44131</v>
       </c>
       <c r="C530">
-        <v>52210</v>
+        <v>51540</v>
       </c>
       <c r="D530" t="s">
         <v>3</v>
@@ -7815,10 +7815,10 @@
         <v>529</v>
       </c>
       <c r="B531" s="2">
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="C531">
-        <v>52370</v>
+        <v>52210</v>
       </c>
       <c r="D531" t="s">
         <v>3</v>
@@ -7829,10 +7829,10 @@
         <v>530</v>
       </c>
       <c r="B532" s="2">
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="C532">
-        <v>52250</v>
+        <v>52370</v>
       </c>
       <c r="D532" t="s">
         <v>3</v>
@@ -7843,10 +7843,10 @@
         <v>531</v>
       </c>
       <c r="B533" s="2">
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="C533">
-        <v>51450</v>
+        <v>52250</v>
       </c>
       <c r="D533" t="s">
         <v>3</v>
@@ -7857,10 +7857,10 @@
         <v>532</v>
       </c>
       <c r="B534" s="2">
-        <v>44120</v>
+        <v>44124</v>
       </c>
       <c r="C534">
-        <v>51800</v>
+        <v>51450</v>
       </c>
       <c r="D534" t="s">
         <v>3</v>
@@ -7871,10 +7871,10 @@
         <v>533</v>
       </c>
       <c r="B535" s="2">
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="C535">
-        <v>51370</v>
+        <v>51800</v>
       </c>
       <c r="D535" t="s">
         <v>3</v>
@@ -7885,10 +7885,10 @@
         <v>534</v>
       </c>
       <c r="B536" s="2">
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="C536">
-        <v>51470</v>
+        <v>51370</v>
       </c>
       <c r="D536" t="s">
         <v>3</v>
@@ -7899,10 +7899,10 @@
         <v>535</v>
       </c>
       <c r="B537" s="2">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="C537">
-        <v>51540</v>
+        <v>51470</v>
       </c>
       <c r="D537" t="s">
         <v>3</v>
@@ -7913,10 +7913,10 @@
         <v>536</v>
       </c>
       <c r="B538" s="2">
-        <v>44113</v>
+        <v>44117</v>
       </c>
       <c r="C538">
-        <v>51565</v>
+        <v>51540</v>
       </c>
       <c r="D538" t="s">
         <v>3</v>
@@ -7927,10 +7927,10 @@
         <v>537</v>
       </c>
       <c r="B539" s="2">
-        <v>44104</v>
+        <v>44113</v>
       </c>
       <c r="C539">
-        <v>51185</v>
+        <v>51565</v>
       </c>
       <c r="D539" t="s">
         <v>3</v>
@@ -7941,10 +7941,10 @@
         <v>538</v>
       </c>
       <c r="B540" s="2">
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C540">
-        <v>51110</v>
+        <v>51185</v>
       </c>
       <c r="D540" t="s">
         <v>3</v>
@@ -7955,10 +7955,10 @@
         <v>539</v>
       </c>
       <c r="B541" s="2">
-        <v>44099</v>
+        <v>44103</v>
       </c>
       <c r="C541">
-        <v>50890</v>
+        <v>51110</v>
       </c>
       <c r="D541" t="s">
         <v>3</v>
@@ -7969,10 +7969,10 @@
         <v>540</v>
       </c>
       <c r="B542" s="2">
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C542">
-        <v>50745</v>
+        <v>50890</v>
       </c>
       <c r="D542" t="s">
         <v>3</v>
@@ -7983,10 +7983,10 @@
         <v>541</v>
       </c>
       <c r="B543" s="2">
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C543">
-        <v>51620</v>
+        <v>50745</v>
       </c>
       <c r="D543" t="s">
         <v>3</v>
@@ -7997,10 +7997,10 @@
         <v>542</v>
       </c>
       <c r="B544" s="2">
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C544">
-        <v>51920</v>
+        <v>51620</v>
       </c>
       <c r="D544" t="s">
         <v>3</v>
@@ -8011,10 +8011,10 @@
         <v>543</v>
       </c>
       <c r="B545" s="2">
-        <v>44092</v>
+        <v>44096</v>
       </c>
       <c r="C545">
-        <v>52210</v>
+        <v>51920</v>
       </c>
       <c r="D545" t="s">
         <v>3</v>
@@ -8025,10 +8025,10 @@
         <v>544</v>
       </c>
       <c r="B546" s="2">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C546">
-        <v>51455</v>
+        <v>52210</v>
       </c>
       <c r="D546" t="s">
         <v>3</v>
@@ -8039,10 +8039,10 @@
         <v>545</v>
       </c>
       <c r="B547" s="2">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C547">
-        <v>51900</v>
+        <v>51455</v>
       </c>
       <c r="D547" t="s">
         <v>3</v>
@@ -8053,10 +8053,10 @@
         <v>546</v>
       </c>
       <c r="B548" s="2">
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C548">
-        <v>52150</v>
+        <v>51900</v>
       </c>
       <c r="D548" t="s">
         <v>3</v>
@@ -8067,10 +8067,10 @@
         <v>547</v>
       </c>
       <c r="B549" s="2">
-        <v>44085</v>
+        <v>44089</v>
       </c>
       <c r="C549">
-        <v>51535</v>
+        <v>52150</v>
       </c>
       <c r="D549" t="s">
         <v>3</v>
@@ -8081,10 +8081,10 @@
         <v>548</v>
       </c>
       <c r="B550" s="2">
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C550">
-        <v>52130</v>
+        <v>51535</v>
       </c>
       <c r="D550" t="s">
         <v>3</v>
@@ -8095,10 +8095,10 @@
         <v>549</v>
       </c>
       <c r="B551" s="2">
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C551">
-        <v>52065</v>
+        <v>52130</v>
       </c>
       <c r="D551" t="s">
         <v>3</v>
@@ -8109,10 +8109,10 @@
         <v>550</v>
       </c>
       <c r="B552" s="2">
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C552">
-        <v>52520</v>
+        <v>52065</v>
       </c>
       <c r="D552" t="s">
         <v>3</v>
@@ -8123,10 +8123,10 @@
         <v>551</v>
       </c>
       <c r="B553" s="2">
-        <v>44078</v>
+        <v>44082</v>
       </c>
       <c r="C553">
-        <v>51495</v>
+        <v>52520</v>
       </c>
       <c r="D553" t="s">
         <v>3</v>
@@ -8137,10 +8137,10 @@
         <v>552</v>
       </c>
       <c r="B554" s="2">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C554">
-        <v>52140</v>
+        <v>51495</v>
       </c>
       <c r="D554" t="s">
         <v>3</v>
@@ -8151,10 +8151,10 @@
         <v>553</v>
       </c>
       <c r="B555" s="2">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="C555">
-        <v>51935</v>
+        <v>52140</v>
       </c>
       <c r="D555" t="s">
         <v>3</v>
@@ -8165,10 +8165,10 @@
         <v>554</v>
       </c>
       <c r="B556" s="2">
-        <v>44075</v>
+        <v>44076</v>
       </c>
       <c r="C556">
-        <v>52390</v>
+        <v>51935</v>
       </c>
       <c r="D556" t="s">
         <v>3</v>
@@ -8179,10 +8179,10 @@
         <v>555</v>
       </c>
       <c r="B557" s="2">
-        <v>44071</v>
+        <v>44075</v>
       </c>
       <c r="C557">
-        <v>51800</v>
+        <v>52390</v>
       </c>
       <c r="D557" t="s">
         <v>3</v>
@@ -8193,10 +8193,10 @@
         <v>556</v>
       </c>
       <c r="B558" s="2">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="C558">
-        <v>51420</v>
+        <v>51800</v>
       </c>
       <c r="D558" t="s">
         <v>3</v>
@@ -8207,10 +8207,10 @@
         <v>557</v>
       </c>
       <c r="B559" s="2">
-        <v>44069</v>
+        <v>44070</v>
       </c>
       <c r="C559">
-        <v>51380</v>
+        <v>51420</v>
       </c>
       <c r="D559" t="s">
         <v>3</v>
@@ -8221,10 +8221,10 @@
         <v>558</v>
       </c>
       <c r="B560" s="2">
-        <v>44068</v>
+        <v>44069</v>
       </c>
       <c r="C560">
-        <v>51370</v>
+        <v>51380</v>
       </c>
       <c r="D560" t="s">
         <v>3</v>
@@ -8235,10 +8235,10 @@
         <v>559</v>
       </c>
       <c r="B561" s="2">
-        <v>44064</v>
+        <v>44068</v>
       </c>
       <c r="C561">
-        <v>52065</v>
+        <v>51370</v>
       </c>
       <c r="D561" t="s">
         <v>3</v>
@@ -8249,10 +8249,10 @@
         <v>560</v>
       </c>
       <c r="B562" s="2">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="C562">
-        <v>52200</v>
+        <v>52065</v>
       </c>
       <c r="D562" t="s">
         <v>3</v>
@@ -8263,10 +8263,10 @@
         <v>561</v>
       </c>
       <c r="B563" s="2">
-        <v>44062</v>
+        <v>44063</v>
       </c>
       <c r="C563">
-        <v>52300</v>
+        <v>52200</v>
       </c>
       <c r="D563" t="s">
         <v>3</v>
@@ -8277,10 +8277,10 @@
         <v>562</v>
       </c>
       <c r="B564" s="2">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="C564">
-        <v>51135</v>
+        <v>52300</v>
       </c>
       <c r="D564" t="s">
         <v>3</v>
@@ -8291,10 +8291,10 @@
         <v>563</v>
       </c>
       <c r="B565" s="2">
-        <v>44057</v>
+        <v>44061</v>
       </c>
       <c r="C565">
-        <v>50040</v>
+        <v>51135</v>
       </c>
       <c r="D565" t="s">
         <v>3</v>
@@ -8305,10 +8305,10 @@
         <v>564</v>
       </c>
       <c r="B566" s="2">
-        <v>44056</v>
+        <v>44057</v>
       </c>
       <c r="C566">
-        <v>50530</v>
+        <v>50040</v>
       </c>
       <c r="D566" t="s">
         <v>3</v>
@@ -8319,10 +8319,10 @@
         <v>565</v>
       </c>
       <c r="B567" s="2">
-        <v>44055</v>
+        <v>44056</v>
       </c>
       <c r="C567">
-        <v>49980</v>
+        <v>50530</v>
       </c>
       <c r="D567" t="s">
         <v>3</v>
@@ -8333,10 +8333,10 @@
         <v>566</v>
       </c>
       <c r="B568" s="2">
-        <v>44054</v>
+        <v>44055</v>
       </c>
       <c r="C568">
-        <v>50790</v>
+        <v>49980</v>
       </c>
       <c r="D568" t="s">
         <v>3</v>
@@ -8347,10 +8347,10 @@
         <v>567</v>
       </c>
       <c r="B569" s="2">
-        <v>44050</v>
+        <v>44054</v>
       </c>
       <c r="C569">
-        <v>51440</v>
+        <v>50790</v>
       </c>
       <c r="D569" t="s">
         <v>3</v>
@@ -8361,10 +8361,10 @@
         <v>568</v>
       </c>
       <c r="B570" s="2">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="C570">
-        <v>51385</v>
+        <v>51440</v>
       </c>
       <c r="D570" t="s">
         <v>3</v>
@@ -8375,10 +8375,10 @@
         <v>569</v>
       </c>
       <c r="B571" s="2">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="C571">
-        <v>51370</v>
+        <v>51385</v>
       </c>
       <c r="D571" t="s">
         <v>3</v>
@@ -8389,10 +8389,10 @@
         <v>570</v>
       </c>
       <c r="B572" s="2">
-        <v>44047</v>
+        <v>44048</v>
       </c>
       <c r="C572">
-        <v>51675</v>
+        <v>51370</v>
       </c>
       <c r="D572" t="s">
         <v>3</v>
@@ -8403,10 +8403,10 @@
         <v>571</v>
       </c>
       <c r="B573" s="2">
-        <v>44043</v>
+        <v>44047</v>
       </c>
       <c r="C573">
-        <v>51850</v>
+        <v>51675</v>
       </c>
       <c r="D573" t="s">
         <v>3</v>
@@ -8417,10 +8417,10 @@
         <v>572</v>
       </c>
       <c r="B574" s="2">
-        <v>44042</v>
+        <v>44043</v>
       </c>
       <c r="C574">
-        <v>51890</v>
+        <v>51850</v>
       </c>
       <c r="D574" t="s">
         <v>3</v>
@@ -8431,10 +8431,10 @@
         <v>573</v>
       </c>
       <c r="B575" s="2">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="C575">
-        <v>51830</v>
+        <v>51890</v>
       </c>
       <c r="D575" t="s">
         <v>3</v>
@@ -8445,10 +8445,10 @@
         <v>574</v>
       </c>
       <c r="B576" s="2">
-        <v>44040</v>
+        <v>44041</v>
       </c>
       <c r="C576">
-        <v>51850</v>
+        <v>51830</v>
       </c>
       <c r="D576" t="s">
         <v>3</v>
@@ -8459,10 +8459,10 @@
         <v>575</v>
       </c>
       <c r="B577" s="2">
-        <v>44036</v>
+        <v>44040</v>
       </c>
       <c r="C577">
-        <v>51930</v>
+        <v>51850</v>
       </c>
       <c r="D577" t="s">
         <v>3</v>
@@ -8473,10 +8473,10 @@
         <v>576</v>
       </c>
       <c r="B578" s="2">
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="C578">
-        <v>51875</v>
+        <v>51930</v>
       </c>
       <c r="D578" t="s">
         <v>3</v>
@@ -8487,10 +8487,10 @@
         <v>577</v>
       </c>
       <c r="B579" s="2">
-        <v>44034</v>
+        <v>44035</v>
       </c>
       <c r="C579">
-        <v>52600</v>
+        <v>51875</v>
       </c>
       <c r="D579" t="s">
         <v>3</v>
@@ -8501,10 +8501,10 @@
         <v>578</v>
       </c>
       <c r="B580" s="2">
-        <v>44033</v>
+        <v>44034</v>
       </c>
       <c r="C580">
-        <v>51935</v>
+        <v>52600</v>
       </c>
       <c r="D580" t="s">
         <v>3</v>
@@ -8515,10 +8515,10 @@
         <v>579</v>
       </c>
       <c r="B581" s="2">
-        <v>44029</v>
+        <v>44033</v>
       </c>
       <c r="C581">
-        <v>51685</v>
+        <v>51935</v>
       </c>
       <c r="D581" t="s">
         <v>3</v>
@@ -8529,10 +8529,10 @@
         <v>580</v>
       </c>
       <c r="B582" s="2">
-        <v>44028</v>
+        <v>44029</v>
       </c>
       <c r="C582">
-        <v>51240</v>
+        <v>51685</v>
       </c>
       <c r="D582" t="s">
         <v>3</v>
@@ -8543,10 +8543,10 @@
         <v>581</v>
       </c>
       <c r="B583" s="2">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="C583">
-        <v>52435</v>
+        <v>51240</v>
       </c>
       <c r="D583" t="s">
         <v>3</v>
@@ -8557,10 +8557,10 @@
         <v>582</v>
       </c>
       <c r="B584" s="2">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="C584">
-        <v>52150</v>
+        <v>52435</v>
       </c>
       <c r="D584" t="s">
         <v>3</v>
@@ -8571,10 +8571,10 @@
         <v>583</v>
       </c>
       <c r="B585" s="2">
-        <v>44022</v>
+        <v>44026</v>
       </c>
       <c r="C585">
-        <v>50600</v>
+        <v>52150</v>
       </c>
       <c r="D585" t="s">
         <v>3</v>
@@ -8585,10 +8585,10 @@
         <v>584</v>
       </c>
       <c r="B586" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="C586">
-        <v>50575</v>
+        <v>50600</v>
       </c>
       <c r="D586" t="s">
         <v>3</v>
@@ -8599,10 +8599,10 @@
         <v>585</v>
       </c>
       <c r="B587" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="C587">
-        <v>49845</v>
+        <v>50575</v>
       </c>
       <c r="D587" t="s">
         <v>3</v>
@@ -8613,10 +8613,10 @@
         <v>586</v>
       </c>
       <c r="B588" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="C588">
-        <v>49610</v>
+        <v>49845</v>
       </c>
       <c r="D588" t="s">
         <v>3</v>
@@ -8627,10 +8627,10 @@
         <v>587</v>
       </c>
       <c r="B589" s="2">
-        <v>44015</v>
+        <v>44019</v>
       </c>
       <c r="C589">
-        <v>49260</v>
+        <v>49610</v>
       </c>
       <c r="D589" t="s">
         <v>3</v>
@@ -8641,10 +8641,10 @@
         <v>588</v>
       </c>
       <c r="B590" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="C590">
-        <v>49460</v>
+        <v>49260</v>
       </c>
       <c r="D590" t="s">
         <v>3</v>
@@ -8655,10 +8655,10 @@
         <v>589</v>
       </c>
       <c r="B591" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="C591">
-        <v>49450</v>
+        <v>49460</v>
       </c>
       <c r="D591" t="s">
         <v>3</v>
@@ -8669,10 +8669,10 @@
         <v>590</v>
       </c>
       <c r="B592" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="C592">
-        <v>48930</v>
+        <v>49450</v>
       </c>
       <c r="D592" t="s">
         <v>3</v>
@@ -8683,10 +8683,10 @@
         <v>591</v>
       </c>
       <c r="B593" s="2">
-        <v>44006</v>
+        <v>44012</v>
       </c>
       <c r="C593">
-        <v>48160</v>
+        <v>48930</v>
       </c>
       <c r="D593" t="s">
         <v>3</v>
@@ -8697,10 +8697,10 @@
         <v>592</v>
       </c>
       <c r="B594" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="C594">
-        <v>47880</v>
+        <v>48160</v>
       </c>
       <c r="D594" t="s">
         <v>3</v>
@@ -8711,10 +8711,10 @@
         <v>593</v>
       </c>
       <c r="B595" s="2">
-        <v>44001</v>
+        <v>44005</v>
       </c>
       <c r="C595">
-        <v>47475</v>
+        <v>47880</v>
       </c>
       <c r="D595" t="s">
         <v>3</v>
@@ -8725,10 +8725,10 @@
         <v>594</v>
       </c>
       <c r="B596" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="C596">
-        <v>47110</v>
+        <v>47475</v>
       </c>
       <c r="D596" t="s">
         <v>3</v>
@@ -8739,10 +8739,10 @@
         <v>595</v>
       </c>
       <c r="B597" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="C597">
-        <v>46910</v>
+        <v>47110</v>
       </c>
       <c r="D597" t="s">
         <v>3</v>
@@ -8753,10 +8753,10 @@
         <v>596</v>
       </c>
       <c r="B598" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="C598">
-        <v>47080</v>
+        <v>46910</v>
       </c>
       <c r="D598" t="s">
         <v>3</v>
@@ -8767,10 +8767,10 @@
         <v>597</v>
       </c>
       <c r="B599" s="2">
-        <v>43994</v>
+        <v>43998</v>
       </c>
       <c r="C599">
-        <v>46760</v>
+        <v>47080</v>
       </c>
       <c r="D599" t="s">
         <v>3</v>
@@ -8781,10 +8781,10 @@
         <v>598</v>
       </c>
       <c r="B600" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="C600">
-        <v>47425</v>
+        <v>46760</v>
       </c>
       <c r="D600" t="s">
         <v>3</v>
@@ -8795,10 +8795,10 @@
         <v>599</v>
       </c>
       <c r="B601" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="C601">
-        <v>46855</v>
+        <v>47425</v>
       </c>
       <c r="D601" t="s">
         <v>3</v>
@@ -8809,10 +8809,10 @@
         <v>600</v>
       </c>
       <c r="B602" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="C602">
-        <v>46355</v>
+        <v>46855</v>
       </c>
       <c r="D602" t="s">
         <v>3</v>
@@ -8823,10 +8823,10 @@
         <v>601</v>
       </c>
       <c r="B603" s="2">
-        <v>43987</v>
+        <v>43991</v>
       </c>
       <c r="C603">
-        <v>44990</v>
+        <v>46355</v>
       </c>
       <c r="D603" t="s">
         <v>3</v>
@@ -8837,10 +8837,10 @@
         <v>602</v>
       </c>
       <c r="B604" s="2">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="C604">
-        <v>44850</v>
+        <v>44990</v>
       </c>
       <c r="D604" t="s">
         <v>3</v>
@@ -8851,10 +8851,10 @@
         <v>603</v>
       </c>
       <c r="B605" s="2">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="C605">
-        <v>45110</v>
+        <v>44850</v>
       </c>
       <c r="D605" t="s">
         <v>3</v>
@@ -8865,10 +8865,10 @@
         <v>604</v>
       </c>
       <c r="B606" s="2">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="C606">
-        <v>44895</v>
+        <v>45110</v>
       </c>
       <c r="D606" t="s">
         <v>3</v>
@@ -8879,10 +8879,10 @@
         <v>605</v>
       </c>
       <c r="B607" s="2">
-        <v>43980</v>
+        <v>43984</v>
       </c>
       <c r="C607">
-        <v>44135</v>
+        <v>44895</v>
       </c>
       <c r="D607" t="s">
         <v>3</v>
@@ -8893,10 +8893,10 @@
         <v>606</v>
       </c>
       <c r="B608" s="2">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="C608">
-        <v>44030</v>
+        <v>44135</v>
       </c>
       <c r="D608" t="s">
         <v>3</v>
@@ -8907,10 +8907,10 @@
         <v>607</v>
       </c>
       <c r="B609" s="2">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="C609">
-        <v>44170</v>
+        <v>44030</v>
       </c>
       <c r="D609" t="s">
         <v>3</v>
@@ -8921,10 +8921,10 @@
         <v>608</v>
       </c>
       <c r="B610" s="2">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="C610">
-        <v>44030</v>
+        <v>44170</v>
       </c>
       <c r="D610" t="s">
         <v>3</v>
@@ -8935,10 +8935,10 @@
         <v>609</v>
       </c>
       <c r="B611" s="2">
-        <v>43973</v>
+        <v>43977</v>
       </c>
       <c r="C611">
-        <v>43770</v>
+        <v>44030</v>
       </c>
       <c r="D611" t="s">
         <v>3</v>
@@ -8949,10 +8949,10 @@
         <v>610</v>
       </c>
       <c r="B612" s="2">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="C612">
-        <v>44620</v>
+        <v>43770</v>
       </c>
       <c r="D612" t="s">
         <v>3</v>
@@ -8963,10 +8963,10 @@
         <v>611</v>
       </c>
       <c r="B613" s="2">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="C613">
-        <v>44040</v>
+        <v>44620</v>
       </c>
       <c r="D613" t="s">
         <v>3</v>
@@ -8977,10 +8977,10 @@
         <v>612</v>
       </c>
       <c r="B614" s="2">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="C614">
-        <v>43995</v>
+        <v>44040</v>
       </c>
       <c r="D614" t="s">
         <v>3</v>
@@ -8991,10 +8991,10 @@
         <v>613</v>
       </c>
       <c r="B615" s="2">
-        <v>43966</v>
+        <v>43970</v>
       </c>
       <c r="C615">
-        <v>43325</v>
+        <v>43995</v>
       </c>
       <c r="D615" t="s">
         <v>3</v>
@@ -9005,10 +9005,10 @@
         <v>614</v>
       </c>
       <c r="B616" s="2">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="C616">
-        <v>43150</v>
+        <v>43325</v>
       </c>
       <c r="D616" t="s">
         <v>3</v>
@@ -9019,10 +9019,10 @@
         <v>615</v>
       </c>
       <c r="B617" s="2">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="C617">
-        <v>43080</v>
+        <v>43150</v>
       </c>
       <c r="D617" t="s">
         <v>3</v>
@@ -9033,10 +9033,10 @@
         <v>616</v>
       </c>
       <c r="B618" s="2">
-        <v>43959</v>
+        <v>43964</v>
       </c>
       <c r="C618">
-        <v>43600</v>
+        <v>43080</v>
       </c>
       <c r="D618" t="s">
         <v>3</v>
@@ -9047,10 +9047,10 @@
         <v>617</v>
       </c>
       <c r="B619" s="2">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="C619">
-        <v>43030</v>
+        <v>43600</v>
       </c>
       <c r="D619" t="s">
         <v>3</v>
@@ -9061,7 +9061,7 @@
         <v>618</v>
       </c>
       <c r="B620" s="2">
-        <v>43951</v>
+        <v>43958</v>
       </c>
       <c r="C620">
         <v>43030</v>
@@ -9075,10 +9075,10 @@
         <v>619</v>
       </c>
       <c r="B621" s="2">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C621">
-        <v>42810</v>
+        <v>43030</v>
       </c>
       <c r="D621" t="s">
         <v>3</v>
@@ -9089,10 +9089,10 @@
         <v>620</v>
       </c>
       <c r="B622" s="2">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="C622">
-        <v>42480</v>
+        <v>42810</v>
       </c>
       <c r="D622" t="s">
         <v>3</v>
@@ -9103,10 +9103,10 @@
         <v>621</v>
       </c>
       <c r="B623" s="2">
-        <v>43945</v>
+        <v>43949</v>
       </c>
       <c r="C623">
-        <v>42120</v>
+        <v>42480</v>
       </c>
       <c r="D623" t="s">
         <v>3</v>
@@ -9117,10 +9117,10 @@
         <v>622</v>
       </c>
       <c r="B624" s="2">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="C624">
-        <v>41980</v>
+        <v>42120</v>
       </c>
       <c r="D624" t="s">
         <v>3</v>
@@ -9131,10 +9131,10 @@
         <v>623</v>
       </c>
       <c r="B625" s="2">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="C625">
-        <v>40995</v>
+        <v>41980</v>
       </c>
       <c r="D625" t="s">
         <v>3</v>
@@ -9145,10 +9145,10 @@
         <v>624</v>
       </c>
       <c r="B626" s="2">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="C626">
-        <v>42060</v>
+        <v>40995</v>
       </c>
       <c r="D626" t="s">
         <v>3</v>
@@ -9159,10 +9159,10 @@
         <v>625</v>
       </c>
       <c r="B627" s="2">
-        <v>43938</v>
+        <v>43942</v>
       </c>
       <c r="C627">
-        <v>42470</v>
+        <v>42060</v>
       </c>
       <c r="D627" t="s">
         <v>3</v>
@@ -9173,10 +9173,10 @@
         <v>626</v>
       </c>
       <c r="B628" s="2">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="C628">
-        <v>41775</v>
+        <v>42470</v>
       </c>
       <c r="D628" t="s">
         <v>3</v>
@@ -9187,10 +9187,10 @@
         <v>627</v>
       </c>
       <c r="B629" s="2">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="C629">
-        <v>41860</v>
+        <v>41775</v>
       </c>
       <c r="D629" t="s">
         <v>3</v>
@@ -9201,10 +9201,10 @@
         <v>628</v>
       </c>
       <c r="B630" s="2">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="C630">
-        <v>41970</v>
+        <v>41860</v>
       </c>
       <c r="D630" t="s">
         <v>3</v>
@@ -9215,10 +9215,10 @@
         <v>629</v>
       </c>
       <c r="B631" s="2">
-        <v>43931</v>
+        <v>43935</v>
       </c>
       <c r="C631">
-        <v>40990</v>
+        <v>41970</v>
       </c>
       <c r="D631" t="s">
         <v>3</v>
@@ -9229,10 +9229,10 @@
         <v>630</v>
       </c>
       <c r="B632" s="2">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="C632">
-        <v>40950</v>
+        <v>40990</v>
       </c>
       <c r="D632" t="s">
         <v>3</v>
@@ -9243,10 +9243,10 @@
         <v>631</v>
       </c>
       <c r="B633" s="2">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="C633">
-        <v>40765</v>
+        <v>40950</v>
       </c>
       <c r="D633" t="s">
         <v>3</v>
@@ -9257,10 +9257,10 @@
         <v>632</v>
       </c>
       <c r="B634" s="2">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="C634">
-        <v>40840</v>
+        <v>40765</v>
       </c>
       <c r="D634" t="s">
         <v>3</v>
@@ -9271,10 +9271,10 @@
         <v>633</v>
       </c>
       <c r="B635" s="2">
-        <v>43917</v>
+        <v>43928</v>
       </c>
       <c r="C635">
-        <v>38865</v>
+        <v>40840</v>
       </c>
       <c r="D635" t="s">
         <v>3</v>
@@ -9285,10 +9285,10 @@
         <v>634</v>
       </c>
       <c r="B636" s="2">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="C636">
-        <v>38970</v>
+        <v>38865</v>
       </c>
       <c r="D636" t="s">
         <v>3</v>
@@ -9299,10 +9299,10 @@
         <v>635</v>
       </c>
       <c r="B637" s="2">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="C637">
-        <v>38750</v>
+        <v>38970</v>
       </c>
       <c r="D637" t="s">
         <v>3</v>
@@ -9313,10 +9313,10 @@
         <v>636</v>
       </c>
       <c r="B638" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="C638">
-        <v>37890</v>
+        <v>38750</v>
       </c>
       <c r="D638" t="s">
         <v>3</v>
@@ -9327,10 +9327,10 @@
         <v>637</v>
       </c>
       <c r="B639" s="2">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="C639">
-        <v>38290</v>
+        <v>37890</v>
       </c>
       <c r="D639" t="s">
         <v>3</v>
@@ -9341,10 +9341,10 @@
         <v>638</v>
       </c>
       <c r="B640" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="C640">
-        <v>37545</v>
+        <v>38290</v>
       </c>
       <c r="D640" t="s">
         <v>3</v>
@@ -9355,10 +9355,10 @@
         <v>639</v>
       </c>
       <c r="B641" s="2">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="C641">
-        <v>41400</v>
+        <v>37545</v>
       </c>
       <c r="D641" t="s">
         <v>3</v>
@@ -9369,10 +9369,10 @@
         <v>640</v>
       </c>
       <c r="B642" s="2">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="C642">
-        <v>42145</v>
+        <v>41400</v>
       </c>
       <c r="D642" t="s">
         <v>3</v>
@@ -9383,10 +9383,10 @@
         <v>641</v>
       </c>
       <c r="B643" s="2">
-        <v>43903</v>
+        <v>43907</v>
       </c>
       <c r="C643">
-        <v>42755</v>
+        <v>42145</v>
       </c>
       <c r="D643" t="s">
         <v>3</v>
@@ -9397,10 +9397,10 @@
         <v>642</v>
       </c>
       <c r="B644" s="2">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="C644">
-        <v>43185</v>
+        <v>42755</v>
       </c>
       <c r="D644" t="s">
         <v>3</v>
@@ -9411,10 +9411,10 @@
         <v>643</v>
       </c>
       <c r="B645" s="2">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="C645">
-        <v>44280</v>
+        <v>43185</v>
       </c>
       <c r="D645" t="s">
         <v>3</v>
@@ -9425,10 +9425,10 @@
         <v>644</v>
       </c>
       <c r="B646" s="2">
-        <v>43896</v>
+        <v>43901</v>
       </c>
       <c r="C646">
-        <v>44725</v>
+        <v>44280</v>
       </c>
       <c r="D646" t="s">
         <v>3</v>
@@ -9439,10 +9439,10 @@
         <v>645</v>
       </c>
       <c r="B647" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="C647">
-        <v>45055</v>
+        <v>44725</v>
       </c>
       <c r="D647" t="s">
         <v>3</v>
@@ -9453,10 +9453,10 @@
         <v>646</v>
       </c>
       <c r="B648" s="2">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="C648">
-        <v>45005</v>
+        <v>45055</v>
       </c>
       <c r="D648" t="s">
         <v>3</v>
@@ -9467,10 +9467,10 @@
         <v>647</v>
       </c>
       <c r="B649" s="2">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="C649">
-        <v>45345</v>
+        <v>45005</v>
       </c>
       <c r="D649" t="s">
         <v>3</v>
@@ -9481,10 +9481,10 @@
         <v>648</v>
       </c>
       <c r="B650" s="2">
-        <v>43889</v>
+        <v>43893</v>
       </c>
       <c r="C650">
-        <v>44630</v>
+        <v>45345</v>
       </c>
       <c r="D650" t="s">
         <v>3</v>
@@ -9495,10 +9495,10 @@
         <v>649</v>
       </c>
       <c r="B651" s="2">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="C651">
-        <v>45190</v>
+        <v>44630</v>
       </c>
       <c r="D651" t="s">
         <v>3</v>
@@ -9509,10 +9509,10 @@
         <v>650</v>
       </c>
       <c r="B652" s="2">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="C652">
-        <v>45360</v>
+        <v>45190</v>
       </c>
       <c r="D652" t="s">
         <v>3</v>
@@ -9523,10 +9523,10 @@
         <v>651</v>
       </c>
       <c r="B653" s="2">
-        <v>43882</v>
+        <v>43887</v>
       </c>
       <c r="C653">
-        <v>45910</v>
+        <v>45360</v>
       </c>
       <c r="D653" t="s">
         <v>3</v>
@@ -9537,10 +9537,10 @@
         <v>652</v>
       </c>
       <c r="B654" s="2">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="C654">
-        <v>46010</v>
+        <v>45910</v>
       </c>
       <c r="D654" t="s">
         <v>3</v>
@@ -9551,10 +9551,10 @@
         <v>653</v>
       </c>
       <c r="B655" s="2">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="C655">
-        <v>45990</v>
+        <v>46010</v>
       </c>
       <c r="D655" t="s">
         <v>3</v>
@@ -9565,10 +9565,10 @@
         <v>654</v>
       </c>
       <c r="B656" s="2">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="C656">
-        <v>45955</v>
+        <v>45990</v>
       </c>
       <c r="D656" t="s">
         <v>3</v>
@@ -9579,10 +9579,10 @@
         <v>655</v>
       </c>
       <c r="B657" s="2">
-        <v>43875</v>
+        <v>43879</v>
       </c>
       <c r="C657">
-        <v>45655</v>
+        <v>45955</v>
       </c>
       <c r="D657" t="s">
         <v>3</v>
@@ -9593,10 +9593,10 @@
         <v>656</v>
       </c>
       <c r="B658" s="2">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="C658">
-        <v>45490</v>
+        <v>45655</v>
       </c>
       <c r="D658" t="s">
         <v>3</v>
@@ -9607,10 +9607,10 @@
         <v>657</v>
       </c>
       <c r="B659" s="2">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="C659">
-        <v>45385</v>
+        <v>45490</v>
       </c>
       <c r="D659" t="s">
         <v>3</v>
@@ -9621,10 +9621,10 @@
         <v>658</v>
       </c>
       <c r="B660" s="2">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="C660">
-        <v>45370</v>
+        <v>45385</v>
       </c>
       <c r="D660" t="s">
         <v>3</v>
@@ -9635,10 +9635,10 @@
         <v>659</v>
       </c>
       <c r="B661" s="2">
-        <v>43868</v>
+        <v>43872</v>
       </c>
       <c r="C661">
-        <v>45590</v>
+        <v>45370</v>
       </c>
       <c r="D661" t="s">
         <v>3</v>
@@ -9649,10 +9649,10 @@
         <v>660</v>
       </c>
       <c r="B662" s="2">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="C662">
-        <v>45795</v>
+        <v>45590</v>
       </c>
       <c r="D662" t="s">
         <v>3</v>
@@ -9663,10 +9663,10 @@
         <v>661</v>
       </c>
       <c r="B663" s="2">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="C663">
-        <v>45230</v>
+        <v>45795</v>
       </c>
       <c r="D663" t="s">
         <v>3</v>
@@ -9677,10 +9677,10 @@
         <v>662</v>
       </c>
       <c r="B664" s="2">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="C664">
-        <v>44940</v>
+        <v>45230</v>
       </c>
       <c r="D664" t="s">
         <v>3</v>
@@ -9691,10 +9691,10 @@
         <v>663</v>
       </c>
       <c r="B665" s="2">
-        <v>43853</v>
+        <v>43865</v>
       </c>
       <c r="C665">
-        <v>47995</v>
+        <v>44940</v>
       </c>
       <c r="D665" t="s">
         <v>3</v>
@@ -9705,10 +9705,10 @@
         <v>664</v>
       </c>
       <c r="B666" s="2">
-        <v>43852</v>
+        <v>43853</v>
       </c>
       <c r="C666">
-        <v>48235</v>
+        <v>47995</v>
       </c>
       <c r="D666" t="s">
         <v>3</v>
@@ -9719,10 +9719,10 @@
         <v>665</v>
       </c>
       <c r="B667" s="2">
-        <v>43851</v>
+        <v>43852</v>
       </c>
       <c r="C667">
-        <v>48425</v>
+        <v>48235</v>
       </c>
       <c r="D667" t="s">
         <v>3</v>
@@ -9733,10 +9733,10 @@
         <v>666</v>
       </c>
       <c r="B668" s="2">
-        <v>43847</v>
+        <v>43851</v>
       </c>
       <c r="C668">
-        <v>48930</v>
+        <v>48425</v>
       </c>
       <c r="D668" t="s">
         <v>3</v>
@@ -9747,10 +9747,10 @@
         <v>667</v>
       </c>
       <c r="B669" s="2">
-        <v>43846</v>
+        <v>43847</v>
       </c>
       <c r="C669">
-        <v>48950</v>
+        <v>48930</v>
       </c>
       <c r="D669" t="s">
         <v>3</v>
@@ -9761,10 +9761,10 @@
         <v>668</v>
       </c>
       <c r="B670" s="2">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="C670">
-        <v>49060</v>
+        <v>48950</v>
       </c>
       <c r="D670" t="s">
         <v>3</v>
@@ -9775,10 +9775,10 @@
         <v>669</v>
       </c>
       <c r="B671" s="2">
-        <v>43844</v>
+        <v>43845</v>
       </c>
       <c r="C671">
-        <v>48990</v>
+        <v>49060</v>
       </c>
       <c r="D671" t="s">
         <v>3</v>
@@ -9789,12 +9789,26 @@
         <v>670</v>
       </c>
       <c r="B672" s="2">
+        <v>43844</v>
+      </c>
+      <c r="C672">
+        <v>48990</v>
+      </c>
+      <c r="D672" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4">
+      <c r="A673" s="1">
+        <v>671</v>
+      </c>
+      <c r="B673" s="2">
         <v>43840</v>
       </c>
-      <c r="C672">
+      <c r="C673">
         <v>48605</v>
       </c>
-      <c r="D672" t="s">
+      <c r="D673" t="s">
         <v>3</v>
       </c>
     </row>

--- a/LME/parser_beta/data/shmet_historical.xlsx
+++ b/LME/parser_beta/data/shmet_historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="4">
   <si>
     <t>date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D673"/>
+  <dimension ref="A1:D674"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,10 +409,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="C2">
-        <v>68925</v>
+        <v>68810</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -423,10 +423,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>45156</v>
+        <v>45159</v>
       </c>
       <c r="C3">
-        <v>68840</v>
+        <v>68925</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -437,10 +437,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="C4">
-        <v>68260</v>
+        <v>68840</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -451,10 +451,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="C5">
-        <v>68270</v>
+        <v>68260</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -465,10 +465,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="C6">
-        <v>68590</v>
+        <v>68270</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -479,7 +479,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>45152</v>
+        <v>45153</v>
       </c>
       <c r="C7">
         <v>68590</v>
@@ -493,10 +493,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>45149</v>
+        <v>45152</v>
       </c>
       <c r="C8">
-        <v>68690</v>
+        <v>68590</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -507,10 +507,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="C9">
-        <v>68740</v>
+        <v>68690</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="C10">
-        <v>68710</v>
+        <v>68740</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -535,10 +535,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="C11">
-        <v>69130</v>
+        <v>68710</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -549,10 +549,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="C12">
-        <v>69290</v>
+        <v>69130</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -563,10 +563,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>45142</v>
+        <v>45145</v>
       </c>
       <c r="C13">
-        <v>69875</v>
+        <v>69290</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -577,10 +577,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="C14">
-        <v>69425</v>
+        <v>69875</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -591,10 +591,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="C15">
-        <v>69990</v>
+        <v>69425</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -605,10 +605,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="C16">
-        <v>70925</v>
+        <v>69990</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -619,10 +619,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="C17">
-        <v>69830</v>
+        <v>70925</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
@@ -633,10 +633,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>45135</v>
+        <v>45138</v>
       </c>
       <c r="C18">
-        <v>68950</v>
+        <v>69830</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -647,10 +647,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="C19">
-        <v>69460</v>
+        <v>68950</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -661,10 +661,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="C20">
-        <v>69200</v>
+        <v>69460</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -675,10 +675,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="C21">
-        <v>68980</v>
+        <v>69200</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -689,10 +689,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>45128</v>
+        <v>45132</v>
       </c>
       <c r="C22">
-        <v>68670</v>
+        <v>68980</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -703,10 +703,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="C23">
-        <v>68650</v>
+        <v>68670</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
@@ -717,10 +717,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="C24">
-        <v>68580</v>
+        <v>68650</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
@@ -731,10 +731,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="C25">
-        <v>68750</v>
+        <v>68580</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
@@ -745,10 +745,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>45121</v>
+        <v>45125</v>
       </c>
       <c r="C26">
-        <v>69825</v>
+        <v>68750</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
@@ -759,10 +759,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="C27">
-        <v>68760</v>
+        <v>69825</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
@@ -773,10 +773,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="C28">
-        <v>68040</v>
+        <v>68760</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
@@ -787,10 +787,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="C29">
-        <v>68370</v>
+        <v>68040</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
@@ -801,10 +801,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>45114</v>
+        <v>45118</v>
       </c>
       <c r="C30">
-        <v>68150</v>
+        <v>68370</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
@@ -815,10 +815,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="C31">
-        <v>68300</v>
+        <v>68150</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
@@ -829,10 +829,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="C32">
-        <v>68500</v>
+        <v>68300</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
@@ -843,10 +843,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="C33">
-        <v>68775</v>
+        <v>68500</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -857,10 +857,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>45107</v>
+        <v>45111</v>
       </c>
       <c r="C34">
-        <v>68000</v>
+        <v>68775</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="C35">
-        <v>68025</v>
+        <v>68000</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
@@ -885,10 +885,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="C36">
-        <v>68300</v>
+        <v>68025</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
@@ -899,10 +899,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="C37">
-        <v>68660</v>
+        <v>68300</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
@@ -913,10 +913,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>45098</v>
+        <v>45104</v>
       </c>
       <c r="C38">
-        <v>69650</v>
+        <v>68660</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
@@ -927,10 +927,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="C39">
-        <v>69100</v>
+        <v>69650</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
@@ -941,10 +941,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>45093</v>
+        <v>45097</v>
       </c>
       <c r="C40">
-        <v>68960</v>
+        <v>69100</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
@@ -955,10 +955,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="C41">
-        <v>68275</v>
+        <v>68960</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
@@ -969,10 +969,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="C42">
-        <v>68350</v>
+        <v>68275</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>45086</v>
+        <v>45091</v>
       </c>
       <c r="C43">
-        <v>67370</v>
+        <v>68350</v>
       </c>
       <c r="D43" t="s">
         <v>3</v>
@@ -997,10 +997,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="C44">
-        <v>67180</v>
+        <v>67370</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
@@ -1011,10 +1011,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="C45">
-        <v>67300</v>
+        <v>67180</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
@@ -1025,10 +1025,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="C46">
-        <v>67160</v>
+        <v>67300</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
@@ -1039,10 +1039,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>45079</v>
+        <v>45083</v>
       </c>
       <c r="C47">
-        <v>66425</v>
+        <v>67160</v>
       </c>
       <c r="D47" t="s">
         <v>3</v>
@@ -1053,10 +1053,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="C48">
-        <v>65850</v>
+        <v>66425</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
@@ -1067,10 +1067,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="C49">
-        <v>65260</v>
+        <v>65850</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
@@ -1081,10 +1081,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="C50">
-        <v>65600</v>
+        <v>65260</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
@@ -1095,10 +1095,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>45072</v>
+        <v>45076</v>
       </c>
       <c r="C51">
-        <v>64150</v>
+        <v>65600</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
@@ -1109,10 +1109,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="C52">
-        <v>63750</v>
+        <v>64150</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
@@ -1123,10 +1123,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>45070</v>
+        <v>45071</v>
       </c>
       <c r="C53">
-        <v>64300</v>
+        <v>63750</v>
       </c>
       <c r="D53" t="s">
         <v>3</v>
@@ -1137,10 +1137,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="C54">
-        <v>65280</v>
+        <v>64300</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
@@ -1151,10 +1151,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>45065</v>
+        <v>45069</v>
       </c>
       <c r="C55">
-        <v>65675</v>
+        <v>65280</v>
       </c>
       <c r="D55" t="s">
         <v>3</v>
@@ -1165,10 +1165,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="C56">
-        <v>66025</v>
+        <v>65675</v>
       </c>
       <c r="D56" t="s">
         <v>3</v>
@@ -1179,10 +1179,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="C57">
-        <v>64680</v>
+        <v>66025</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
@@ -1193,10 +1193,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="C58">
-        <v>65200</v>
+        <v>64680</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
@@ -1207,10 +1207,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>45058</v>
+        <v>45062</v>
       </c>
       <c r="C59">
-        <v>64690</v>
+        <v>65200</v>
       </c>
       <c r="D59" t="s">
         <v>3</v>
@@ -1221,10 +1221,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="C60">
-        <v>66590</v>
+        <v>64690</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
@@ -1235,10 +1235,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>45051</v>
+        <v>45057</v>
       </c>
       <c r="C61">
-        <v>66675</v>
+        <v>66590</v>
       </c>
       <c r="D61" t="s">
         <v>3</v>
@@ -1249,10 +1249,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="C62">
-        <v>67290</v>
+        <v>66675</v>
       </c>
       <c r="D62" t="s">
         <v>3</v>
@@ -1263,10 +1263,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>45044</v>
+        <v>45050</v>
       </c>
       <c r="C63">
-        <v>67420</v>
+        <v>67290</v>
       </c>
       <c r="D63" t="s">
         <v>3</v>
@@ -1277,10 +1277,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="C64">
-        <v>66625</v>
+        <v>67420</v>
       </c>
       <c r="D64" t="s">
         <v>3</v>
@@ -1291,10 +1291,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="C65">
-        <v>67540</v>
+        <v>66625</v>
       </c>
       <c r="D65" t="s">
         <v>3</v>
@@ -1305,10 +1305,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="C66">
-        <v>68290</v>
+        <v>67540</v>
       </c>
       <c r="D66" t="s">
         <v>3</v>
@@ -1319,10 +1319,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>45037</v>
+        <v>45041</v>
       </c>
       <c r="C67">
-        <v>68890</v>
+        <v>68290</v>
       </c>
       <c r="D67" t="s">
         <v>3</v>
@@ -1333,10 +1333,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="C68">
-        <v>69500</v>
+        <v>68890</v>
       </c>
       <c r="D68" t="s">
         <v>3</v>
@@ -1347,10 +1347,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="C69">
-        <v>69680</v>
+        <v>69500</v>
       </c>
       <c r="D69" t="s">
         <v>3</v>
@@ -1361,10 +1361,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="C70">
-        <v>69650</v>
+        <v>69680</v>
       </c>
       <c r="D70" t="s">
         <v>3</v>
@@ -1375,10 +1375,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>45030</v>
+        <v>45034</v>
       </c>
       <c r="C71">
-        <v>70310</v>
+        <v>69650</v>
       </c>
       <c r="D71" t="s">
         <v>3</v>
@@ -1389,10 +1389,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="C72">
-        <v>69405</v>
+        <v>70310</v>
       </c>
       <c r="D72" t="s">
         <v>3</v>
@@ -1403,10 +1403,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="C73">
-        <v>69150</v>
+        <v>69405</v>
       </c>
       <c r="D73" t="s">
         <v>3</v>
@@ -1417,10 +1417,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="C74">
-        <v>68580</v>
+        <v>69150</v>
       </c>
       <c r="D74" t="s">
         <v>3</v>
@@ -1431,10 +1431,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>45023</v>
+        <v>45027</v>
       </c>
       <c r="C75">
-        <v>68875</v>
+        <v>68580</v>
       </c>
       <c r="D75" t="s">
         <v>3</v>
@@ -1445,10 +1445,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="C76">
-        <v>68830</v>
+        <v>68875</v>
       </c>
       <c r="D76" t="s">
         <v>3</v>
@@ -1459,10 +1459,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>45020</v>
+        <v>45022</v>
       </c>
       <c r="C77">
-        <v>69225</v>
+        <v>68830</v>
       </c>
       <c r="D77" t="s">
         <v>3</v>
@@ -1473,10 +1473,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>45016</v>
+        <v>45020</v>
       </c>
       <c r="C78">
-        <v>69650</v>
+        <v>69225</v>
       </c>
       <c r="D78" t="s">
         <v>3</v>
@@ -1487,10 +1487,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="C79">
-        <v>69620</v>
+        <v>69650</v>
       </c>
       <c r="D79" t="s">
         <v>3</v>
@@ -1501,10 +1501,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="C80">
-        <v>69580</v>
+        <v>69620</v>
       </c>
       <c r="D80" t="s">
         <v>3</v>
@@ -1515,10 +1515,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="C81">
-        <v>69770</v>
+        <v>69580</v>
       </c>
       <c r="D81" t="s">
         <v>3</v>
@@ -1529,10 +1529,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>45009</v>
+        <v>45013</v>
       </c>
       <c r="C82">
-        <v>69230</v>
+        <v>69770</v>
       </c>
       <c r="D82" t="s">
         <v>3</v>
@@ -1543,10 +1543,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="C83">
-        <v>68630</v>
+        <v>69230</v>
       </c>
       <c r="D83" t="s">
         <v>3</v>
@@ -1557,10 +1557,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="C84">
-        <v>68100</v>
+        <v>68630</v>
       </c>
       <c r="D84" t="s">
         <v>3</v>
@@ -1571,10 +1571,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="C85">
-        <v>67575</v>
+        <v>68100</v>
       </c>
       <c r="D85" t="s">
         <v>3</v>
@@ -1585,10 +1585,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>45002</v>
+        <v>45006</v>
       </c>
       <c r="C86">
-        <v>67340</v>
+        <v>67575</v>
       </c>
       <c r="D86" t="s">
         <v>3</v>
@@ -1599,10 +1599,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="C87">
-        <v>67100</v>
+        <v>67340</v>
       </c>
       <c r="D87" t="s">
         <v>3</v>
@@ -1613,10 +1613,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="C88">
-        <v>68925</v>
+        <v>67100</v>
       </c>
       <c r="D88" t="s">
         <v>3</v>
@@ -1627,10 +1627,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="C89">
-        <v>68600</v>
+        <v>68925</v>
       </c>
       <c r="D89" t="s">
         <v>3</v>
@@ -1641,10 +1641,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>44995</v>
+        <v>44999</v>
       </c>
       <c r="C90">
-        <v>69025</v>
+        <v>68600</v>
       </c>
       <c r="D90" t="s">
         <v>3</v>
@@ -1655,10 +1655,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>44993</v>
+        <v>44995</v>
       </c>
       <c r="C91">
-        <v>68840</v>
+        <v>69025</v>
       </c>
       <c r="D91" t="s">
         <v>3</v>
@@ -1669,10 +1669,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="C92">
-        <v>69610</v>
+        <v>68840</v>
       </c>
       <c r="D92" t="s">
         <v>3</v>
@@ -1683,10 +1683,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="C93">
-        <v>69400</v>
+        <v>69610</v>
       </c>
       <c r="D93" t="s">
         <v>3</v>
@@ -1697,10 +1697,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="C94">
-        <v>69865</v>
+        <v>69400</v>
       </c>
       <c r="D94" t="s">
         <v>3</v>
@@ -1711,10 +1711,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="C95">
-        <v>69710</v>
+        <v>69865</v>
       </c>
       <c r="D95" t="s">
         <v>3</v>
@@ -1725,10 +1725,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="C96">
-        <v>68550</v>
+        <v>69710</v>
       </c>
       <c r="D96" t="s">
         <v>3</v>
@@ -1739,10 +1739,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="C97">
-        <v>70050</v>
+        <v>68550</v>
       </c>
       <c r="D97" t="s">
         <v>3</v>
@@ -1753,10 +1753,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="C98">
-        <v>70400</v>
+        <v>70050</v>
       </c>
       <c r="D98" t="s">
         <v>3</v>
@@ -1767,10 +1767,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="C99">
-        <v>69705</v>
+        <v>70400</v>
       </c>
       <c r="D99" t="s">
         <v>3</v>
@@ -1781,10 +1781,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>44974</v>
+        <v>44978</v>
       </c>
       <c r="C100">
-        <v>69080</v>
+        <v>69705</v>
       </c>
       <c r="D100" t="s">
         <v>3</v>
@@ -1795,10 +1795,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="C101">
-        <v>68370</v>
+        <v>69080</v>
       </c>
       <c r="D101" t="s">
         <v>3</v>
@@ -1809,10 +1809,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="2">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="C102">
-        <v>68950</v>
+        <v>68370</v>
       </c>
       <c r="D102" t="s">
         <v>3</v>
@@ -1823,10 +1823,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="2">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="C103">
-        <v>68510</v>
+        <v>68950</v>
       </c>
       <c r="D103" t="s">
         <v>3</v>
@@ -1837,10 +1837,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>44967</v>
+        <v>44971</v>
       </c>
       <c r="C104">
-        <v>68225</v>
+        <v>68510</v>
       </c>
       <c r="D104" t="s">
         <v>3</v>
@@ -1851,10 +1851,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="C105">
-        <v>68240</v>
+        <v>68225</v>
       </c>
       <c r="D105" t="s">
         <v>3</v>
@@ -1865,10 +1865,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="2">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="C106">
-        <v>68250</v>
+        <v>68240</v>
       </c>
       <c r="D106" t="s">
         <v>3</v>
@@ -1879,10 +1879,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="2">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="C107">
-        <v>67860</v>
+        <v>68250</v>
       </c>
       <c r="D107" t="s">
         <v>3</v>
@@ -1893,10 +1893,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="2">
-        <v>44960</v>
+        <v>44964</v>
       </c>
       <c r="C108">
-        <v>68425</v>
+        <v>67860</v>
       </c>
       <c r="D108" t="s">
         <v>3</v>
@@ -1907,10 +1907,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="2">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="C109">
-        <v>69070</v>
+        <v>68425</v>
       </c>
       <c r="D109" t="s">
         <v>3</v>
@@ -1921,10 +1921,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="2">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="C110">
-        <v>69560</v>
+        <v>69070</v>
       </c>
       <c r="D110" t="s">
         <v>3</v>
@@ -1935,10 +1935,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="2">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="C111">
-        <v>69425</v>
+        <v>69560</v>
       </c>
       <c r="D111" t="s">
         <v>3</v>
@@ -1949,10 +1949,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="2">
-        <v>44946</v>
+        <v>44957</v>
       </c>
       <c r="C112">
-        <v>70150</v>
+        <v>69425</v>
       </c>
       <c r="D112" t="s">
         <v>3</v>
@@ -1963,10 +1963,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="C113">
-        <v>69570</v>
+        <v>70150</v>
       </c>
       <c r="D113" t="s">
         <v>3</v>
@@ -1977,10 +1977,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>44944</v>
+        <v>44945</v>
       </c>
       <c r="C114">
-        <v>69750</v>
+        <v>69570</v>
       </c>
       <c r="D114" t="s">
         <v>3</v>
@@ -1991,10 +1991,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>44943</v>
+        <v>44944</v>
       </c>
       <c r="C115">
-        <v>68410</v>
+        <v>69750</v>
       </c>
       <c r="D115" t="s">
         <v>3</v>
@@ -2005,10 +2005,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>44939</v>
+        <v>44943</v>
       </c>
       <c r="C116">
-        <v>68725</v>
+        <v>68410</v>
       </c>
       <c r="D116" t="s">
         <v>3</v>
@@ -2019,10 +2019,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="C117">
-        <v>68430</v>
+        <v>68725</v>
       </c>
       <c r="D117" t="s">
         <v>3</v>
@@ -2033,10 +2033,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="C118">
-        <v>67500</v>
+        <v>68430</v>
       </c>
       <c r="D118" t="s">
         <v>3</v>
@@ -2047,10 +2047,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="C119">
-        <v>66475</v>
+        <v>67500</v>
       </c>
       <c r="D119" t="s">
         <v>3</v>
@@ -2061,10 +2061,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>44925</v>
+        <v>44936</v>
       </c>
       <c r="C120">
-        <v>66175</v>
+        <v>66475</v>
       </c>
       <c r="D120" t="s">
         <v>3</v>
@@ -2075,10 +2075,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="C121">
-        <v>66200</v>
+        <v>66175</v>
       </c>
       <c r="D121" t="s">
         <v>3</v>
@@ -2089,10 +2089,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="C122">
-        <v>66270</v>
+        <v>66200</v>
       </c>
       <c r="D122" t="s">
         <v>3</v>
@@ -2103,10 +2103,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>44922</v>
+        <v>44923</v>
       </c>
       <c r="C123">
-        <v>66400</v>
+        <v>66270</v>
       </c>
       <c r="D123" t="s">
         <v>3</v>
@@ -2117,10 +2117,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>44918</v>
+        <v>44922</v>
       </c>
       <c r="C124">
-        <v>66000</v>
+        <v>66400</v>
       </c>
       <c r="D124" t="s">
         <v>3</v>
@@ -2131,10 +2131,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="C125">
-        <v>66750</v>
+        <v>66000</v>
       </c>
       <c r="D125" t="s">
         <v>3</v>
@@ -2145,10 +2145,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="C126">
-        <v>66225</v>
+        <v>66750</v>
       </c>
       <c r="D126" t="s">
         <v>3</v>
@@ -2159,10 +2159,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="C127">
-        <v>65575</v>
+        <v>66225</v>
       </c>
       <c r="D127" t="s">
         <v>3</v>
@@ -2173,10 +2173,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>44911</v>
+        <v>44915</v>
       </c>
       <c r="C128">
-        <v>65750</v>
+        <v>65575</v>
       </c>
       <c r="D128" t="s">
         <v>3</v>
@@ -2187,10 +2187,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="C129">
-        <v>66125</v>
+        <v>65750</v>
       </c>
       <c r="D129" t="s">
         <v>3</v>
@@ -2201,10 +2201,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>44909</v>
+        <v>44910</v>
       </c>
       <c r="C130">
-        <v>66625</v>
+        <v>66125</v>
       </c>
       <c r="D130" t="s">
         <v>3</v>
@@ -2215,10 +2215,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="C131">
-        <v>66175</v>
+        <v>66625</v>
       </c>
       <c r="D131" t="s">
         <v>3</v>
@@ -2229,10 +2229,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>44904</v>
+        <v>44908</v>
       </c>
       <c r="C132">
-        <v>67000</v>
+        <v>66175</v>
       </c>
       <c r="D132" t="s">
         <v>3</v>
@@ -2243,10 +2243,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="C133">
-        <v>66290</v>
+        <v>67000</v>
       </c>
       <c r="D133" t="s">
         <v>3</v>
@@ -2257,10 +2257,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="C134">
-        <v>66225</v>
+        <v>66290</v>
       </c>
       <c r="D134" t="s">
         <v>3</v>
@@ -2271,10 +2271,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="C135">
-        <v>66575</v>
+        <v>66225</v>
       </c>
       <c r="D135" t="s">
         <v>3</v>
@@ -2285,10 +2285,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>44897</v>
+        <v>44901</v>
       </c>
       <c r="C136">
-        <v>66400</v>
+        <v>66575</v>
       </c>
       <c r="D136" t="s">
         <v>3</v>
@@ -2299,10 +2299,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="C137">
-        <v>66380</v>
+        <v>66400</v>
       </c>
       <c r="D137" t="s">
         <v>3</v>
@@ -2313,10 +2313,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="C138">
-        <v>65290</v>
+        <v>66380</v>
       </c>
       <c r="D138" t="s">
         <v>3</v>
@@ -2327,10 +2327,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="C139">
-        <v>65525</v>
+        <v>65290</v>
       </c>
       <c r="D139" t="s">
         <v>3</v>
@@ -2341,10 +2341,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="C140">
-        <v>65640</v>
+        <v>65525</v>
       </c>
       <c r="D140" t="s">
         <v>3</v>
@@ -2355,10 +2355,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="C141">
-        <v>65490</v>
+        <v>65640</v>
       </c>
       <c r="D141" t="s">
         <v>3</v>
@@ -2369,10 +2369,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="C142">
-        <v>65260</v>
+        <v>65490</v>
       </c>
       <c r="D142" t="s">
         <v>3</v>
@@ -2383,10 +2383,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="C143">
-        <v>65170</v>
+        <v>65260</v>
       </c>
       <c r="D143" t="s">
         <v>3</v>
@@ -2397,10 +2397,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>44883</v>
+        <v>44887</v>
       </c>
       <c r="C144">
-        <v>66275</v>
+        <v>65170</v>
       </c>
       <c r="D144" t="s">
         <v>3</v>
@@ -2411,10 +2411,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="C145">
-        <v>66540</v>
+        <v>66275</v>
       </c>
       <c r="D145" t="s">
         <v>3</v>
@@ -2425,10 +2425,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="C146">
-        <v>67050</v>
+        <v>66540</v>
       </c>
       <c r="D146" t="s">
         <v>3</v>
@@ -2439,10 +2439,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="C147">
-        <v>67275</v>
+        <v>67050</v>
       </c>
       <c r="D147" t="s">
         <v>3</v>
@@ -2453,10 +2453,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>44876</v>
+        <v>44880</v>
       </c>
       <c r="C148">
-        <v>68575</v>
+        <v>67275</v>
       </c>
       <c r="D148" t="s">
         <v>3</v>
@@ -2467,10 +2467,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="C149">
-        <v>67400</v>
+        <v>68575</v>
       </c>
       <c r="D149" t="s">
         <v>3</v>
@@ -2481,10 +2481,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="C150">
-        <v>66800</v>
+        <v>67400</v>
       </c>
       <c r="D150" t="s">
         <v>3</v>
@@ -2495,10 +2495,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="C151">
-        <v>66225</v>
+        <v>66800</v>
       </c>
       <c r="D151" t="s">
         <v>3</v>
@@ -2509,10 +2509,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>44869</v>
+        <v>44873</v>
       </c>
       <c r="C152">
-        <v>64700</v>
+        <v>66225</v>
       </c>
       <c r="D152" t="s">
         <v>3</v>
@@ -2523,10 +2523,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="C153">
-        <v>64690</v>
+        <v>64700</v>
       </c>
       <c r="D153" t="s">
         <v>3</v>
@@ -2537,10 +2537,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="C154">
-        <v>64950</v>
+        <v>64690</v>
       </c>
       <c r="D154" t="s">
         <v>3</v>
@@ -2551,10 +2551,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>44866</v>
+        <v>44867</v>
       </c>
       <c r="C155">
-        <v>64300</v>
+        <v>64950</v>
       </c>
       <c r="D155" t="s">
         <v>3</v>
@@ -2565,10 +2565,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>44862</v>
+        <v>44866</v>
       </c>
       <c r="C156">
-        <v>64650</v>
+        <v>64300</v>
       </c>
       <c r="D156" t="s">
         <v>3</v>
@@ -2579,10 +2579,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>44861</v>
+        <v>44862</v>
       </c>
       <c r="C157">
-        <v>64690</v>
+        <v>64650</v>
       </c>
       <c r="D157" t="s">
         <v>3</v>
@@ -2593,10 +2593,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="C158">
-        <v>63950</v>
+        <v>64690</v>
       </c>
       <c r="D158" t="s">
         <v>3</v>
@@ -2607,10 +2607,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="C159">
-        <v>64300</v>
+        <v>63950</v>
       </c>
       <c r="D159" t="s">
         <v>3</v>
@@ -2621,10 +2621,10 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>44855</v>
+        <v>44859</v>
       </c>
       <c r="C160">
-        <v>64000</v>
+        <v>64300</v>
       </c>
       <c r="D160" t="s">
         <v>3</v>
@@ -2635,10 +2635,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="C161">
-        <v>62895</v>
+        <v>64000</v>
       </c>
       <c r="D161" t="s">
         <v>3</v>
@@ -2649,10 +2649,10 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>44853</v>
+        <v>44854</v>
       </c>
       <c r="C162">
-        <v>62950</v>
+        <v>62895</v>
       </c>
       <c r="D162" t="s">
         <v>3</v>
@@ -2663,10 +2663,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="C163">
-        <v>63550</v>
+        <v>62950</v>
       </c>
       <c r="D163" t="s">
         <v>3</v>
@@ -2677,10 +2677,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>44848</v>
+        <v>44852</v>
       </c>
       <c r="C164">
-        <v>64760</v>
+        <v>63550</v>
       </c>
       <c r="D164" t="s">
         <v>3</v>
@@ -2691,10 +2691,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="C165">
-        <v>63960</v>
+        <v>64760</v>
       </c>
       <c r="D165" t="s">
         <v>3</v>
@@ -2705,10 +2705,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="C166">
-        <v>63800</v>
+        <v>63960</v>
       </c>
       <c r="D166" t="s">
         <v>3</v>
@@ -2719,10 +2719,10 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>44845</v>
+        <v>44846</v>
       </c>
       <c r="C167">
-        <v>63975</v>
+        <v>63800</v>
       </c>
       <c r="D167" t="s">
         <v>3</v>
@@ -2733,10 +2733,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>44834</v>
+        <v>44845</v>
       </c>
       <c r="C168">
-        <v>62670</v>
+        <v>63975</v>
       </c>
       <c r="D168" t="s">
         <v>3</v>
@@ -2747,10 +2747,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="C169">
-        <v>62430</v>
+        <v>62670</v>
       </c>
       <c r="D169" t="s">
         <v>3</v>
@@ -2761,10 +2761,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="C170">
-        <v>61430</v>
+        <v>62430</v>
       </c>
       <c r="D170" t="s">
         <v>3</v>
@@ -2775,10 +2775,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="C171">
-        <v>61485</v>
+        <v>61430</v>
       </c>
       <c r="D171" t="s">
         <v>3</v>
@@ -2789,10 +2789,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>44827</v>
+        <v>44831</v>
       </c>
       <c r="C172">
-        <v>63025</v>
+        <v>61485</v>
       </c>
       <c r="D172" t="s">
         <v>3</v>
@@ -2803,10 +2803,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="C173">
-        <v>63120</v>
+        <v>63025</v>
       </c>
       <c r="D173" t="s">
         <v>3</v>
@@ -2817,7 +2817,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="2">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="C174">
         <v>63120</v>
@@ -2831,10 +2831,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="2">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="C175">
-        <v>63370</v>
+        <v>63120</v>
       </c>
       <c r="D175" t="s">
         <v>3</v>
@@ -2845,10 +2845,10 @@
         <v>174</v>
       </c>
       <c r="B176" s="2">
-        <v>44820</v>
+        <v>44824</v>
       </c>
       <c r="C176">
-        <v>62865</v>
+        <v>63370</v>
       </c>
       <c r="D176" t="s">
         <v>3</v>
@@ -2859,10 +2859,10 @@
         <v>175</v>
       </c>
       <c r="B177" s="2">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="C177">
-        <v>63370</v>
+        <v>62865</v>
       </c>
       <c r="D177" t="s">
         <v>3</v>
@@ -2873,10 +2873,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="2">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="C178">
-        <v>63050</v>
+        <v>63370</v>
       </c>
       <c r="D178" t="s">
         <v>3</v>
@@ -2887,10 +2887,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="2">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="C179">
-        <v>63850</v>
+        <v>63050</v>
       </c>
       <c r="D179" t="s">
         <v>3</v>
@@ -2901,10 +2901,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="2">
-        <v>44813</v>
+        <v>44817</v>
       </c>
       <c r="C180">
-        <v>63650</v>
+        <v>63850</v>
       </c>
       <c r="D180" t="s">
         <v>3</v>
@@ -2915,10 +2915,10 @@
         <v>179</v>
       </c>
       <c r="B181" s="2">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="C181">
-        <v>61910</v>
+        <v>63650</v>
       </c>
       <c r="D181" t="s">
         <v>3</v>
@@ -2929,10 +2929,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="2">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="C182">
-        <v>61700</v>
+        <v>61910</v>
       </c>
       <c r="D182" t="s">
         <v>3</v>
@@ -2943,10 +2943,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="2">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="C183">
-        <v>61750</v>
+        <v>61700</v>
       </c>
       <c r="D183" t="s">
         <v>3</v>
@@ -2957,10 +2957,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="2">
-        <v>44806</v>
+        <v>44810</v>
       </c>
       <c r="C184">
-        <v>60500</v>
+        <v>61750</v>
       </c>
       <c r="D184" t="s">
         <v>3</v>
@@ -2971,10 +2971,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="2">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="C185">
-        <v>61775</v>
+        <v>60500</v>
       </c>
       <c r="D185" t="s">
         <v>3</v>
@@ -2985,10 +2985,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="2">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="C186">
-        <v>62770</v>
+        <v>61775</v>
       </c>
       <c r="D186" t="s">
         <v>3</v>
@@ -2999,10 +2999,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="2">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="C187">
-        <v>63120</v>
+        <v>62770</v>
       </c>
       <c r="D187" t="s">
         <v>3</v>
@@ -3013,10 +3013,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="2">
-        <v>44799</v>
+        <v>44803</v>
       </c>
       <c r="C188">
-        <v>64270</v>
+        <v>63120</v>
       </c>
       <c r="D188" t="s">
         <v>3</v>
@@ -3027,10 +3027,10 @@
         <v>187</v>
       </c>
       <c r="B189" s="2">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="C189">
-        <v>63330</v>
+        <v>64270</v>
       </c>
       <c r="D189" t="s">
         <v>3</v>
@@ -3041,10 +3041,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="2">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="C190">
-        <v>63715</v>
+        <v>63330</v>
       </c>
       <c r="D190" t="s">
         <v>3</v>
@@ -3055,10 +3055,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="2">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="C191">
-        <v>63570</v>
+        <v>63715</v>
       </c>
       <c r="D191" t="s">
         <v>3</v>
@@ -3069,10 +3069,10 @@
         <v>190</v>
       </c>
       <c r="B192" s="2">
-        <v>44792</v>
+        <v>44796</v>
       </c>
       <c r="C192">
-        <v>62950</v>
+        <v>63570</v>
       </c>
       <c r="D192" t="s">
         <v>3</v>
@@ -3083,10 +3083,10 @@
         <v>191</v>
       </c>
       <c r="B193" s="2">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="C193">
-        <v>62300</v>
+        <v>62950</v>
       </c>
       <c r="D193" t="s">
         <v>3</v>
@@ -3097,10 +3097,10 @@
         <v>192</v>
       </c>
       <c r="B194" s="2">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="C194">
-        <v>62470</v>
+        <v>62300</v>
       </c>
       <c r="D194" t="s">
         <v>3</v>
@@ -3111,10 +3111,10 @@
         <v>193</v>
       </c>
       <c r="B195" s="2">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="C195">
-        <v>62460</v>
+        <v>62470</v>
       </c>
       <c r="D195" t="s">
         <v>3</v>
@@ -3125,10 +3125,10 @@
         <v>194</v>
       </c>
       <c r="B196" s="2">
-        <v>44785</v>
+        <v>44789</v>
       </c>
       <c r="C196">
-        <v>63000</v>
+        <v>62460</v>
       </c>
       <c r="D196" t="s">
         <v>3</v>
@@ -3139,10 +3139,10 @@
         <v>195</v>
       </c>
       <c r="B197" s="2">
-        <v>44784</v>
+        <v>44785</v>
       </c>
       <c r="C197">
-        <v>62520</v>
+        <v>63000</v>
       </c>
       <c r="D197" t="s">
         <v>3</v>
@@ -3153,10 +3153,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="2">
-        <v>44783</v>
+        <v>44784</v>
       </c>
       <c r="C198">
-        <v>61780</v>
+        <v>62520</v>
       </c>
       <c r="D198" t="s">
         <v>3</v>
@@ -3167,10 +3167,10 @@
         <v>197</v>
       </c>
       <c r="B199" s="2">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="C199">
-        <v>61540</v>
+        <v>61780</v>
       </c>
       <c r="D199" t="s">
         <v>3</v>
@@ -3181,10 +3181,10 @@
         <v>198</v>
       </c>
       <c r="B200" s="2">
-        <v>44778</v>
+        <v>44782</v>
       </c>
       <c r="C200">
-        <v>60520</v>
+        <v>61540</v>
       </c>
       <c r="D200" t="s">
         <v>3</v>
@@ -3195,10 +3195,10 @@
         <v>199</v>
       </c>
       <c r="B201" s="2">
-        <v>44777</v>
+        <v>44778</v>
       </c>
       <c r="C201">
-        <v>59930</v>
+        <v>60520</v>
       </c>
       <c r="D201" t="s">
         <v>3</v>
@@ -3209,10 +3209,10 @@
         <v>200</v>
       </c>
       <c r="B202" s="2">
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="C202">
-        <v>60260</v>
+        <v>59930</v>
       </c>
       <c r="D202" t="s">
         <v>3</v>
@@ -3223,10 +3223,10 @@
         <v>201</v>
       </c>
       <c r="B203" s="2">
-        <v>44775</v>
+        <v>44776</v>
       </c>
       <c r="C203">
-        <v>60180</v>
+        <v>60260</v>
       </c>
       <c r="D203" t="s">
         <v>3</v>
@@ -3237,10 +3237,10 @@
         <v>202</v>
       </c>
       <c r="B204" s="2">
-        <v>44771</v>
+        <v>44775</v>
       </c>
       <c r="C204">
-        <v>60315</v>
+        <v>60180</v>
       </c>
       <c r="D204" t="s">
         <v>3</v>
@@ -3251,10 +3251,10 @@
         <v>203</v>
       </c>
       <c r="B205" s="2">
-        <v>44770</v>
+        <v>44771</v>
       </c>
       <c r="C205">
-        <v>60090</v>
+        <v>60315</v>
       </c>
       <c r="D205" t="s">
         <v>3</v>
@@ -3265,10 +3265,10 @@
         <v>204</v>
       </c>
       <c r="B206" s="2">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="C206">
-        <v>58710</v>
+        <v>60090</v>
       </c>
       <c r="D206" t="s">
         <v>3</v>
@@ -3279,10 +3279,10 @@
         <v>205</v>
       </c>
       <c r="B207" s="2">
-        <v>44768</v>
+        <v>44769</v>
       </c>
       <c r="C207">
-        <v>58930</v>
+        <v>58710</v>
       </c>
       <c r="D207" t="s">
         <v>3</v>
@@ -3293,10 +3293,10 @@
         <v>206</v>
       </c>
       <c r="B208" s="2">
-        <v>44764</v>
+        <v>44768</v>
       </c>
       <c r="C208">
-        <v>57030</v>
+        <v>58930</v>
       </c>
       <c r="D208" t="s">
         <v>3</v>
@@ -3307,10 +3307,10 @@
         <v>207</v>
       </c>
       <c r="B209" s="2">
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="C209">
-        <v>56360</v>
+        <v>57030</v>
       </c>
       <c r="D209" t="s">
         <v>3</v>
@@ -3321,10 +3321,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="2">
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="C210">
-        <v>56920</v>
+        <v>56360</v>
       </c>
       <c r="D210" t="s">
         <v>3</v>
@@ -3335,10 +3335,10 @@
         <v>209</v>
       </c>
       <c r="B211" s="2">
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="C211">
-        <v>56210</v>
+        <v>56920</v>
       </c>
       <c r="D211" t="s">
         <v>3</v>
@@ -3349,10 +3349,10 @@
         <v>210</v>
       </c>
       <c r="B212" s="2">
-        <v>44757</v>
+        <v>44761</v>
       </c>
       <c r="C212">
-        <v>54890</v>
+        <v>56210</v>
       </c>
       <c r="D212" t="s">
         <v>3</v>
@@ -3363,10 +3363,10 @@
         <v>211</v>
       </c>
       <c r="B213" s="2">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="C213">
-        <v>56300</v>
+        <v>54890</v>
       </c>
       <c r="D213" t="s">
         <v>3</v>
@@ -3377,10 +3377,10 @@
         <v>212</v>
       </c>
       <c r="B214" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="C214">
-        <v>56460</v>
+        <v>56300</v>
       </c>
       <c r="D214" t="s">
         <v>3</v>
@@ -3391,10 +3391,10 @@
         <v>213</v>
       </c>
       <c r="B215" s="2">
-        <v>44754</v>
+        <v>44755</v>
       </c>
       <c r="C215">
-        <v>58430</v>
+        <v>56460</v>
       </c>
       <c r="D215" t="s">
         <v>3</v>
@@ -3405,10 +3405,10 @@
         <v>214</v>
       </c>
       <c r="B216" s="2">
-        <v>44750</v>
+        <v>44754</v>
       </c>
       <c r="C216">
-        <v>59600</v>
+        <v>58430</v>
       </c>
       <c r="D216" t="s">
         <v>3</v>
@@ -3419,10 +3419,10 @@
         <v>215</v>
       </c>
       <c r="B217" s="2">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="C217">
-        <v>58600</v>
+        <v>59600</v>
       </c>
       <c r="D217" t="s">
         <v>3</v>
@@ -3433,10 +3433,10 @@
         <v>216</v>
       </c>
       <c r="B218" s="2">
-        <v>44748</v>
+        <v>44749</v>
       </c>
       <c r="C218">
-        <v>58125</v>
+        <v>58600</v>
       </c>
       <c r="D218" t="s">
         <v>3</v>
@@ -3447,10 +3447,10 @@
         <v>217</v>
       </c>
       <c r="B219" s="2">
-        <v>44747</v>
+        <v>44748</v>
       </c>
       <c r="C219">
-        <v>61225</v>
+        <v>58125</v>
       </c>
       <c r="D219" t="s">
         <v>3</v>
@@ -3461,10 +3461,10 @@
         <v>218</v>
       </c>
       <c r="B220" s="2">
-        <v>44743</v>
+        <v>44747</v>
       </c>
       <c r="C220">
-        <v>62930</v>
+        <v>61225</v>
       </c>
       <c r="D220" t="s">
         <v>3</v>
@@ -3475,10 +3475,10 @@
         <v>219</v>
       </c>
       <c r="B221" s="2">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="C221">
-        <v>64230</v>
+        <v>62930</v>
       </c>
       <c r="D221" t="s">
         <v>3</v>
@@ -3489,10 +3489,10 @@
         <v>220</v>
       </c>
       <c r="B222" s="2">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="C222">
-        <v>63940</v>
+        <v>64230</v>
       </c>
       <c r="D222" t="s">
         <v>3</v>
@@ -3503,10 +3503,10 @@
         <v>221</v>
       </c>
       <c r="B223" s="2">
-        <v>44740</v>
+        <v>44741</v>
       </c>
       <c r="C223">
-        <v>64150</v>
+        <v>63940</v>
       </c>
       <c r="D223" t="s">
         <v>3</v>
@@ -3517,10 +3517,10 @@
         <v>222</v>
       </c>
       <c r="B224" s="2">
-        <v>44736</v>
+        <v>44740</v>
       </c>
       <c r="C224">
-        <v>64340</v>
+        <v>64150</v>
       </c>
       <c r="D224" t="s">
         <v>3</v>
@@ -3531,10 +3531,10 @@
         <v>223</v>
       </c>
       <c r="B225" s="2">
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="C225">
-        <v>66050</v>
+        <v>64340</v>
       </c>
       <c r="D225" t="s">
         <v>3</v>
@@ -3545,10 +3545,10 @@
         <v>224</v>
       </c>
       <c r="B226" s="2">
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="C226">
-        <v>68160</v>
+        <v>66050</v>
       </c>
       <c r="D226" t="s">
         <v>3</v>
@@ -3559,10 +3559,10 @@
         <v>225</v>
       </c>
       <c r="B227" s="2">
-        <v>44733</v>
+        <v>44734</v>
       </c>
       <c r="C227">
-        <v>68700</v>
+        <v>68160</v>
       </c>
       <c r="D227" t="s">
         <v>3</v>
@@ -3573,10 +3573,10 @@
         <v>226</v>
       </c>
       <c r="B228" s="2">
-        <v>44729</v>
+        <v>44733</v>
       </c>
       <c r="C228">
-        <v>69975</v>
+        <v>68700</v>
       </c>
       <c r="D228" t="s">
         <v>3</v>
@@ -3587,10 +3587,10 @@
         <v>227</v>
       </c>
       <c r="B229" s="2">
-        <v>44728</v>
+        <v>44729</v>
       </c>
       <c r="C229">
-        <v>71255</v>
+        <v>69975</v>
       </c>
       <c r="D229" t="s">
         <v>3</v>
@@ -3601,10 +3601,10 @@
         <v>228</v>
       </c>
       <c r="B230" s="2">
-        <v>44727</v>
+        <v>44728</v>
       </c>
       <c r="C230">
-        <v>71250</v>
+        <v>71255</v>
       </c>
       <c r="D230" t="s">
         <v>3</v>
@@ -3615,10 +3615,10 @@
         <v>229</v>
       </c>
       <c r="B231" s="2">
-        <v>44722</v>
+        <v>44727</v>
       </c>
       <c r="C231">
-        <v>72750</v>
+        <v>71250</v>
       </c>
       <c r="D231" t="s">
         <v>3</v>
@@ -3629,10 +3629,10 @@
         <v>230</v>
       </c>
       <c r="B232" s="2">
-        <v>44721</v>
+        <v>44722</v>
       </c>
       <c r="C232">
-        <v>73030</v>
+        <v>72750</v>
       </c>
       <c r="D232" t="s">
         <v>3</v>
@@ -3643,10 +3643,10 @@
         <v>231</v>
       </c>
       <c r="B233" s="2">
-        <v>44720</v>
+        <v>44721</v>
       </c>
       <c r="C233">
-        <v>72890</v>
+        <v>73030</v>
       </c>
       <c r="D233" t="s">
         <v>3</v>
@@ -3657,10 +3657,10 @@
         <v>232</v>
       </c>
       <c r="B234" s="2">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="C234">
-        <v>72975</v>
+        <v>72890</v>
       </c>
       <c r="D234" t="s">
         <v>3</v>
@@ -3671,10 +3671,10 @@
         <v>233</v>
       </c>
       <c r="B235" s="2">
-        <v>44714</v>
+        <v>44719</v>
       </c>
       <c r="C235">
-        <v>72530</v>
+        <v>72975</v>
       </c>
       <c r="D235" t="s">
         <v>3</v>
@@ -3685,10 +3685,10 @@
         <v>234</v>
       </c>
       <c r="B236" s="2">
-        <v>44713</v>
+        <v>44714</v>
       </c>
       <c r="C236">
-        <v>72150</v>
+        <v>72530</v>
       </c>
       <c r="D236" t="s">
         <v>3</v>
@@ -3699,10 +3699,10 @@
         <v>235</v>
       </c>
       <c r="B237" s="2">
-        <v>44712</v>
+        <v>44713</v>
       </c>
       <c r="C237">
-        <v>72630</v>
+        <v>72150</v>
       </c>
       <c r="D237" t="s">
         <v>3</v>
@@ -3713,10 +3713,10 @@
         <v>236</v>
       </c>
       <c r="B238" s="2">
-        <v>44708</v>
+        <v>44712</v>
       </c>
       <c r="C238">
-        <v>72625</v>
+        <v>72630</v>
       </c>
       <c r="D238" t="s">
         <v>3</v>
@@ -3727,10 +3727,10 @@
         <v>237</v>
       </c>
       <c r="B239" s="2">
-        <v>44707</v>
+        <v>44708</v>
       </c>
       <c r="C239">
-        <v>71950</v>
+        <v>72625</v>
       </c>
       <c r="D239" t="s">
         <v>3</v>
@@ -3741,10 +3741,10 @@
         <v>238</v>
       </c>
       <c r="B240" s="2">
-        <v>44706</v>
+        <v>44707</v>
       </c>
       <c r="C240">
-        <v>72220</v>
+        <v>71950</v>
       </c>
       <c r="D240" t="s">
         <v>3</v>
@@ -3755,10 +3755,10 @@
         <v>239</v>
       </c>
       <c r="B241" s="2">
-        <v>44705</v>
+        <v>44706</v>
       </c>
       <c r="C241">
-        <v>72500</v>
+        <v>72220</v>
       </c>
       <c r="D241" t="s">
         <v>3</v>
@@ -3769,10 +3769,10 @@
         <v>240</v>
       </c>
       <c r="B242" s="2">
-        <v>44701</v>
+        <v>44705</v>
       </c>
       <c r="C242">
-        <v>72150</v>
+        <v>72500</v>
       </c>
       <c r="D242" t="s">
         <v>3</v>
@@ -3783,10 +3783,10 @@
         <v>241</v>
       </c>
       <c r="B243" s="2">
-        <v>44700</v>
+        <v>44701</v>
       </c>
       <c r="C243">
-        <v>71775</v>
+        <v>72150</v>
       </c>
       <c r="D243" t="s">
         <v>3</v>
@@ -3797,10 +3797,10 @@
         <v>242</v>
       </c>
       <c r="B244" s="2">
-        <v>44699</v>
+        <v>44700</v>
       </c>
       <c r="C244">
-        <v>72070</v>
+        <v>71775</v>
       </c>
       <c r="D244" t="s">
         <v>3</v>
@@ -3811,10 +3811,10 @@
         <v>243</v>
       </c>
       <c r="B245" s="2">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="C245">
-        <v>72175</v>
+        <v>72070</v>
       </c>
       <c r="D245" t="s">
         <v>3</v>
@@ -3825,10 +3825,10 @@
         <v>244</v>
       </c>
       <c r="B246" s="2">
-        <v>44694</v>
+        <v>44698</v>
       </c>
       <c r="C246">
-        <v>71160</v>
+        <v>72175</v>
       </c>
       <c r="D246" t="s">
         <v>3</v>
@@ -3839,10 +3839,10 @@
         <v>245</v>
       </c>
       <c r="B247" s="2">
-        <v>44693</v>
+        <v>44694</v>
       </c>
       <c r="C247">
-        <v>72050</v>
+        <v>71160</v>
       </c>
       <c r="D247" t="s">
         <v>3</v>
@@ -3853,10 +3853,10 @@
         <v>246</v>
       </c>
       <c r="B248" s="2">
-        <v>44687</v>
+        <v>44693</v>
       </c>
       <c r="C248">
-        <v>72875</v>
+        <v>72050</v>
       </c>
       <c r="D248" t="s">
         <v>3</v>
@@ -3867,10 +3867,10 @@
         <v>247</v>
       </c>
       <c r="B249" s="2">
-        <v>44686</v>
+        <v>44687</v>
       </c>
       <c r="C249">
-        <v>73760</v>
+        <v>72875</v>
       </c>
       <c r="D249" t="s">
         <v>3</v>
@@ -3881,10 +3881,10 @@
         <v>248</v>
       </c>
       <c r="B250" s="2">
-        <v>44680</v>
+        <v>44686</v>
       </c>
       <c r="C250">
-        <v>73930</v>
+        <v>73760</v>
       </c>
       <c r="D250" t="s">
         <v>3</v>
@@ -3895,10 +3895,10 @@
         <v>249</v>
       </c>
       <c r="B251" s="2">
-        <v>44679</v>
+        <v>44680</v>
       </c>
       <c r="C251">
-        <v>74005</v>
+        <v>73930</v>
       </c>
       <c r="D251" t="s">
         <v>3</v>
@@ -3909,10 +3909,10 @@
         <v>250</v>
       </c>
       <c r="B252" s="2">
-        <v>44678</v>
+        <v>44679</v>
       </c>
       <c r="C252">
-        <v>73770</v>
+        <v>74005</v>
       </c>
       <c r="D252" t="s">
         <v>3</v>
@@ -3923,10 +3923,10 @@
         <v>251</v>
       </c>
       <c r="B253" s="2">
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="C253">
-        <v>73950</v>
+        <v>73770</v>
       </c>
       <c r="D253" t="s">
         <v>3</v>
@@ -3937,10 +3937,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="2">
-        <v>44673</v>
+        <v>44677</v>
       </c>
       <c r="C254">
-        <v>75070</v>
+        <v>73950</v>
       </c>
       <c r="D254" t="s">
         <v>3</v>
@@ -3951,10 +3951,10 @@
         <v>253</v>
       </c>
       <c r="B255" s="2">
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="C255">
-        <v>74850</v>
+        <v>75070</v>
       </c>
       <c r="D255" t="s">
         <v>3</v>
@@ -3965,10 +3965,10 @@
         <v>254</v>
       </c>
       <c r="B256" s="2">
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="C256">
-        <v>74740</v>
+        <v>74850</v>
       </c>
       <c r="D256" t="s">
         <v>3</v>
@@ -3979,10 +3979,10 @@
         <v>255</v>
       </c>
       <c r="B257" s="2">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="C257">
-        <v>75575</v>
+        <v>74740</v>
       </c>
       <c r="D257" t="s">
         <v>3</v>
@@ -3993,10 +3993,10 @@
         <v>256</v>
       </c>
       <c r="B258" s="2">
-        <v>44666</v>
+        <v>44670</v>
       </c>
       <c r="C258">
-        <v>75385</v>
+        <v>75575</v>
       </c>
       <c r="D258" t="s">
         <v>3</v>
@@ -4007,10 +4007,10 @@
         <v>257</v>
       </c>
       <c r="B259" s="2">
-        <v>44665</v>
+        <v>44666</v>
       </c>
       <c r="C259">
-        <v>74370</v>
+        <v>75385</v>
       </c>
       <c r="D259" t="s">
         <v>3</v>
@@ -4021,10 +4021,10 @@
         <v>258</v>
       </c>
       <c r="B260" s="2">
-        <v>44664</v>
+        <v>44665</v>
       </c>
       <c r="C260">
-        <v>74550</v>
+        <v>74370</v>
       </c>
       <c r="D260" t="s">
         <v>3</v>
@@ -4035,10 +4035,10 @@
         <v>259</v>
       </c>
       <c r="B261" s="2">
-        <v>44663</v>
+        <v>44664</v>
       </c>
       <c r="C261">
-        <v>73790</v>
+        <v>74550</v>
       </c>
       <c r="D261" t="s">
         <v>3</v>
@@ -4049,10 +4049,10 @@
         <v>260</v>
       </c>
       <c r="B262" s="2">
-        <v>44659</v>
+        <v>44663</v>
       </c>
       <c r="C262">
-        <v>73765</v>
+        <v>73790</v>
       </c>
       <c r="D262" t="s">
         <v>3</v>
@@ -4063,10 +4063,10 @@
         <v>261</v>
       </c>
       <c r="B263" s="2">
-        <v>44658</v>
+        <v>44659</v>
       </c>
       <c r="C263">
-        <v>73690</v>
+        <v>73765</v>
       </c>
       <c r="D263" t="s">
         <v>3</v>
@@ -4077,10 +4077,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="2">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C264">
-        <v>74000</v>
+        <v>73690</v>
       </c>
       <c r="D264" t="s">
         <v>3</v>
@@ -4091,10 +4091,10 @@
         <v>263</v>
       </c>
       <c r="B265" s="2">
-        <v>44652</v>
+        <v>44657</v>
       </c>
       <c r="C265">
-        <v>73635</v>
+        <v>74000</v>
       </c>
       <c r="D265" t="s">
         <v>3</v>
@@ -4105,10 +4105,10 @@
         <v>264</v>
       </c>
       <c r="B266" s="2">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="C266">
-        <v>73575</v>
+        <v>73635</v>
       </c>
       <c r="D266" t="s">
         <v>3</v>
@@ -4119,10 +4119,10 @@
         <v>265</v>
       </c>
       <c r="B267" s="2">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="C267">
-        <v>73980</v>
+        <v>73575</v>
       </c>
       <c r="D267" t="s">
         <v>3</v>
@@ -4133,10 +4133,10 @@
         <v>266</v>
       </c>
       <c r="B268" s="2">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="C268">
-        <v>74100</v>
+        <v>73980</v>
       </c>
       <c r="D268" t="s">
         <v>3</v>
@@ -4147,10 +4147,10 @@
         <v>267</v>
       </c>
       <c r="B269" s="2">
-        <v>44645</v>
+        <v>44649</v>
       </c>
       <c r="C269">
-        <v>73775</v>
+        <v>74100</v>
       </c>
       <c r="D269" t="s">
         <v>3</v>
@@ -4161,10 +4161,10 @@
         <v>268</v>
       </c>
       <c r="B270" s="2">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="C270">
-        <v>73880</v>
+        <v>73775</v>
       </c>
       <c r="D270" t="s">
         <v>3</v>
@@ -4175,10 +4175,10 @@
         <v>269</v>
       </c>
       <c r="B271" s="2">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="C271">
-        <v>73410</v>
+        <v>73880</v>
       </c>
       <c r="D271" t="s">
         <v>3</v>
@@ -4189,10 +4189,10 @@
         <v>270</v>
       </c>
       <c r="B272" s="2">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="C272">
-        <v>73510</v>
+        <v>73410</v>
       </c>
       <c r="D272" t="s">
         <v>3</v>
@@ -4203,10 +4203,10 @@
         <v>271</v>
       </c>
       <c r="B273" s="2">
-        <v>44638</v>
+        <v>44642</v>
       </c>
       <c r="C273">
-        <v>73310</v>
+        <v>73510</v>
       </c>
       <c r="D273" t="s">
         <v>3</v>
@@ -4217,10 +4217,10 @@
         <v>272</v>
       </c>
       <c r="B274" s="2">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="C274">
-        <v>72740</v>
+        <v>73310</v>
       </c>
       <c r="D274" t="s">
         <v>3</v>
@@ -4231,10 +4231,10 @@
         <v>273</v>
       </c>
       <c r="B275" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="C275">
-        <v>72060</v>
+        <v>72740</v>
       </c>
       <c r="D275" t="s">
         <v>3</v>
@@ -4245,10 +4245,10 @@
         <v>274</v>
       </c>
       <c r="B276" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="C276">
-        <v>71790</v>
+        <v>72060</v>
       </c>
       <c r="D276" t="s">
         <v>3</v>
@@ -4259,10 +4259,10 @@
         <v>275</v>
       </c>
       <c r="B277" s="2">
-        <v>44631</v>
+        <v>44635</v>
       </c>
       <c r="C277">
-        <v>72170</v>
+        <v>71790</v>
       </c>
       <c r="D277" t="s">
         <v>3</v>
@@ -4273,10 +4273,10 @@
         <v>276</v>
       </c>
       <c r="B278" s="2">
-        <v>44630</v>
+        <v>44631</v>
       </c>
       <c r="C278">
-        <v>72080</v>
+        <v>72170</v>
       </c>
       <c r="D278" t="s">
         <v>3</v>
@@ -4287,10 +4287,10 @@
         <v>277</v>
       </c>
       <c r="B279" s="2">
-        <v>44624</v>
+        <v>44630</v>
       </c>
       <c r="C279">
-        <v>72930</v>
+        <v>72080</v>
       </c>
       <c r="D279" t="s">
         <v>3</v>
@@ -4301,10 +4301,10 @@
         <v>278</v>
       </c>
       <c r="B280" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="C280">
-        <v>72540</v>
+        <v>72930</v>
       </c>
       <c r="D280" t="s">
         <v>3</v>
@@ -4315,10 +4315,10 @@
         <v>279</v>
       </c>
       <c r="B281" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="C281">
-        <v>71520</v>
+        <v>72540</v>
       </c>
       <c r="D281" t="s">
         <v>3</v>
@@ -4329,10 +4329,10 @@
         <v>280</v>
       </c>
       <c r="B282" s="2">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="C282">
-        <v>70880</v>
+        <v>71520</v>
       </c>
       <c r="D282" t="s">
         <v>3</v>
@@ -4343,10 +4343,10 @@
         <v>281</v>
       </c>
       <c r="B283" s="2">
-        <v>44617</v>
+        <v>44621</v>
       </c>
       <c r="C283">
-        <v>71010</v>
+        <v>70880</v>
       </c>
       <c r="D283" t="s">
         <v>3</v>
@@ -4357,10 +4357,10 @@
         <v>282</v>
       </c>
       <c r="B284" s="2">
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="C284">
-        <v>71170</v>
+        <v>71010</v>
       </c>
       <c r="D284" t="s">
         <v>3</v>
@@ -4371,10 +4371,10 @@
         <v>283</v>
       </c>
       <c r="B285" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="C285">
-        <v>71140</v>
+        <v>71170</v>
       </c>
       <c r="D285" t="s">
         <v>3</v>
@@ -4385,10 +4385,10 @@
         <v>284</v>
       </c>
       <c r="B286" s="2">
-        <v>44610</v>
+        <v>44614</v>
       </c>
       <c r="C286">
-        <v>71525</v>
+        <v>71140</v>
       </c>
       <c r="D286" t="s">
         <v>3</v>
@@ -4399,10 +4399,10 @@
         <v>285</v>
       </c>
       <c r="B287" s="2">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="C287">
-        <v>71550</v>
+        <v>71525</v>
       </c>
       <c r="D287" t="s">
         <v>3</v>
@@ -4413,7 +4413,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="C288">
         <v>71550</v>
@@ -4427,10 +4427,10 @@
         <v>287</v>
       </c>
       <c r="B289" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="C289">
-        <v>71090</v>
+        <v>71550</v>
       </c>
       <c r="D289" t="s">
         <v>3</v>
@@ -4441,10 +4441,10 @@
         <v>288</v>
       </c>
       <c r="B290" s="2">
-        <v>44603</v>
+        <v>44607</v>
       </c>
       <c r="C290">
-        <v>72580</v>
+        <v>71090</v>
       </c>
       <c r="D290" t="s">
         <v>3</v>
@@ -4455,10 +4455,10 @@
         <v>289</v>
       </c>
       <c r="B291" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="C291">
-        <v>72210</v>
+        <v>72580</v>
       </c>
       <c r="D291" t="s">
         <v>3</v>
@@ -4469,10 +4469,10 @@
         <v>290</v>
       </c>
       <c r="B292" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="C292">
-        <v>70500</v>
+        <v>72210</v>
       </c>
       <c r="D292" t="s">
         <v>3</v>
@@ -4483,10 +4483,10 @@
         <v>291</v>
       </c>
       <c r="B293" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="C293">
-        <v>70690</v>
+        <v>70500</v>
       </c>
       <c r="D293" t="s">
         <v>3</v>
@@ -4497,10 +4497,10 @@
         <v>292</v>
       </c>
       <c r="B294" s="2">
-        <v>44589</v>
+        <v>44600</v>
       </c>
       <c r="C294">
-        <v>70480</v>
+        <v>70690</v>
       </c>
       <c r="D294" t="s">
         <v>3</v>
@@ -4511,10 +4511,10 @@
         <v>293</v>
       </c>
       <c r="B295" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="C295">
-        <v>70400</v>
+        <v>70480</v>
       </c>
       <c r="D295" t="s">
         <v>3</v>
@@ -4525,10 +4525,10 @@
         <v>294</v>
       </c>
       <c r="B296" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="C296">
-        <v>70270</v>
+        <v>70400</v>
       </c>
       <c r="D296" t="s">
         <v>3</v>
@@ -4539,10 +4539,10 @@
         <v>295</v>
       </c>
       <c r="B297" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="C297">
-        <v>70040</v>
+        <v>70270</v>
       </c>
       <c r="D297" t="s">
         <v>3</v>
@@ -4553,10 +4553,10 @@
         <v>296</v>
       </c>
       <c r="B298" s="2">
-        <v>44582</v>
+        <v>44586</v>
       </c>
       <c r="C298">
-        <v>71000</v>
+        <v>70040</v>
       </c>
       <c r="D298" t="s">
         <v>3</v>
@@ -4567,10 +4567,10 @@
         <v>297</v>
       </c>
       <c r="B299" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="C299">
-        <v>70930</v>
+        <v>71000</v>
       </c>
       <c r="D299" t="s">
         <v>3</v>
@@ -4581,10 +4581,10 @@
         <v>298</v>
       </c>
       <c r="B300" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="C300">
-        <v>70330</v>
+        <v>70930</v>
       </c>
       <c r="D300" t="s">
         <v>3</v>
@@ -4595,10 +4595,10 @@
         <v>299</v>
       </c>
       <c r="B301" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="C301">
-        <v>70525</v>
+        <v>70330</v>
       </c>
       <c r="D301" t="s">
         <v>3</v>
@@ -4609,10 +4609,10 @@
         <v>300</v>
       </c>
       <c r="B302" s="2">
-        <v>44575</v>
+        <v>44579</v>
       </c>
       <c r="C302">
-        <v>71570</v>
+        <v>70525</v>
       </c>
       <c r="D302" t="s">
         <v>3</v>
@@ -4623,10 +4623,10 @@
         <v>301</v>
       </c>
       <c r="B303" s="2">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C303">
-        <v>72130</v>
+        <v>71570</v>
       </c>
       <c r="D303" t="s">
         <v>3</v>
@@ -4637,10 +4637,10 @@
         <v>302</v>
       </c>
       <c r="B304" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C304">
-        <v>70850</v>
+        <v>72130</v>
       </c>
       <c r="D304" t="s">
         <v>3</v>
@@ -4651,10 +4651,10 @@
         <v>303</v>
       </c>
       <c r="B305" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="C305">
-        <v>69900</v>
+        <v>70850</v>
       </c>
       <c r="D305" t="s">
         <v>3</v>
@@ -4665,10 +4665,10 @@
         <v>304</v>
       </c>
       <c r="B306" s="2">
-        <v>44561</v>
+        <v>44572</v>
       </c>
       <c r="C306">
-        <v>69910</v>
+        <v>69900</v>
       </c>
       <c r="D306" t="s">
         <v>3</v>
@@ -4679,10 +4679,10 @@
         <v>305</v>
       </c>
       <c r="B307" s="2">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="C307">
-        <v>70020</v>
+        <v>69910</v>
       </c>
       <c r="D307" t="s">
         <v>3</v>
@@ -4693,10 +4693,10 @@
         <v>306</v>
       </c>
       <c r="B308" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="C308">
-        <v>70060</v>
+        <v>70020</v>
       </c>
       <c r="D308" t="s">
         <v>3</v>
@@ -4707,10 +4707,10 @@
         <v>307</v>
       </c>
       <c r="B309" s="2">
-        <v>44558</v>
+        <v>44559</v>
       </c>
       <c r="C309">
-        <v>70270</v>
+        <v>70060</v>
       </c>
       <c r="D309" t="s">
         <v>3</v>
@@ -4721,10 +4721,10 @@
         <v>308</v>
       </c>
       <c r="B310" s="2">
-        <v>44554</v>
+        <v>44558</v>
       </c>
       <c r="C310">
-        <v>69840</v>
+        <v>70270</v>
       </c>
       <c r="D310" t="s">
         <v>3</v>
@@ -4735,10 +4735,10 @@
         <v>309</v>
       </c>
       <c r="B311" s="2">
-        <v>44553</v>
+        <v>44554</v>
       </c>
       <c r="C311">
-        <v>69850</v>
+        <v>69840</v>
       </c>
       <c r="D311" t="s">
         <v>3</v>
@@ -4749,10 +4749,10 @@
         <v>310</v>
       </c>
       <c r="B312" s="2">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="C312">
-        <v>69520</v>
+        <v>69850</v>
       </c>
       <c r="D312" t="s">
         <v>3</v>
@@ -4763,10 +4763,10 @@
         <v>311</v>
       </c>
       <c r="B313" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="C313">
-        <v>69385</v>
+        <v>69520</v>
       </c>
       <c r="D313" t="s">
         <v>3</v>
@@ -4777,10 +4777,10 @@
         <v>312</v>
       </c>
       <c r="B314" s="2">
-        <v>44547</v>
+        <v>44551</v>
       </c>
       <c r="C314">
-        <v>69525</v>
+        <v>69385</v>
       </c>
       <c r="D314" t="s">
         <v>3</v>
@@ -4791,10 +4791,10 @@
         <v>313</v>
       </c>
       <c r="B315" s="2">
-        <v>44546</v>
+        <v>44547</v>
       </c>
       <c r="C315">
-        <v>68570</v>
+        <v>69525</v>
       </c>
       <c r="D315" t="s">
         <v>3</v>
@@ -4805,10 +4805,10 @@
         <v>314</v>
       </c>
       <c r="B316" s="2">
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="C316">
-        <v>68875</v>
+        <v>68570</v>
       </c>
       <c r="D316" t="s">
         <v>3</v>
@@ -4819,10 +4819,10 @@
         <v>315</v>
       </c>
       <c r="B317" s="2">
-        <v>44544</v>
+        <v>44545</v>
       </c>
       <c r="C317">
-        <v>68900</v>
+        <v>68875</v>
       </c>
       <c r="D317" t="s">
         <v>3</v>
@@ -4833,10 +4833,10 @@
         <v>316</v>
       </c>
       <c r="B318" s="2">
-        <v>44540</v>
+        <v>44544</v>
       </c>
       <c r="C318">
-        <v>69750</v>
+        <v>68900</v>
       </c>
       <c r="D318" t="s">
         <v>3</v>
@@ -4847,10 +4847,10 @@
         <v>317</v>
       </c>
       <c r="B319" s="2">
-        <v>44539</v>
+        <v>44540</v>
       </c>
       <c r="C319">
-        <v>69980</v>
+        <v>69750</v>
       </c>
       <c r="D319" t="s">
         <v>3</v>
@@ -4861,10 +4861,10 @@
         <v>318</v>
       </c>
       <c r="B320" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="C320">
-        <v>69815</v>
+        <v>69980</v>
       </c>
       <c r="D320" t="s">
         <v>3</v>
@@ -4875,10 +4875,10 @@
         <v>319</v>
       </c>
       <c r="B321" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="C321">
-        <v>69760</v>
+        <v>69815</v>
       </c>
       <c r="D321" t="s">
         <v>3</v>
@@ -4889,10 +4889,10 @@
         <v>320</v>
       </c>
       <c r="B322" s="2">
-        <v>44533</v>
+        <v>44537</v>
       </c>
       <c r="C322">
-        <v>69830</v>
+        <v>69760</v>
       </c>
       <c r="D322" t="s">
         <v>3</v>
@@ -4903,10 +4903,10 @@
         <v>321</v>
       </c>
       <c r="B323" s="2">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="C323">
-        <v>69900</v>
+        <v>69830</v>
       </c>
       <c r="D323" t="s">
         <v>3</v>
@@ -4917,10 +4917,10 @@
         <v>322</v>
       </c>
       <c r="B324" s="2">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="C324">
-        <v>70180</v>
+        <v>69900</v>
       </c>
       <c r="D324" t="s">
         <v>3</v>
@@ -4931,10 +4931,10 @@
         <v>323</v>
       </c>
       <c r="B325" s="2">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="C325">
-        <v>70650</v>
+        <v>70180</v>
       </c>
       <c r="D325" t="s">
         <v>3</v>
@@ -4945,10 +4945,10 @@
         <v>324</v>
       </c>
       <c r="B326" s="2">
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="C326">
-        <v>71610</v>
+        <v>70650</v>
       </c>
       <c r="D326" t="s">
         <v>3</v>
@@ -4959,10 +4959,10 @@
         <v>325</v>
       </c>
       <c r="B327" s="2">
-        <v>44525</v>
+        <v>44526</v>
       </c>
       <c r="C327">
-        <v>72330</v>
+        <v>71610</v>
       </c>
       <c r="D327" t="s">
         <v>3</v>
@@ -4973,10 +4973,10 @@
         <v>326</v>
       </c>
       <c r="B328" s="2">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="C328">
-        <v>71820</v>
+        <v>72330</v>
       </c>
       <c r="D328" t="s">
         <v>3</v>
@@ -4987,10 +4987,10 @@
         <v>327</v>
       </c>
       <c r="B329" s="2">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="C329">
-        <v>72510</v>
+        <v>71820</v>
       </c>
       <c r="D329" t="s">
         <v>3</v>
@@ -5001,10 +5001,10 @@
         <v>328</v>
       </c>
       <c r="B330" s="2">
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="C330">
-        <v>72250</v>
+        <v>72510</v>
       </c>
       <c r="D330" t="s">
         <v>3</v>
@@ -5015,10 +5015,10 @@
         <v>329</v>
       </c>
       <c r="B331" s="2">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="C331">
-        <v>70350</v>
+        <v>72250</v>
       </c>
       <c r="D331" t="s">
         <v>3</v>
@@ -5029,10 +5029,10 @@
         <v>330</v>
       </c>
       <c r="B332" s="2">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="C332">
-        <v>70955</v>
+        <v>70350</v>
       </c>
       <c r="D332" t="s">
         <v>3</v>
@@ -5043,10 +5043,10 @@
         <v>331</v>
       </c>
       <c r="B333" s="2">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="C333">
-        <v>71750</v>
+        <v>70955</v>
       </c>
       <c r="D333" t="s">
         <v>3</v>
@@ -5057,10 +5057,10 @@
         <v>332</v>
       </c>
       <c r="B334" s="2">
-        <v>44512</v>
+        <v>44516</v>
       </c>
       <c r="C334">
-        <v>71435</v>
+        <v>71750</v>
       </c>
       <c r="D334" t="s">
         <v>3</v>
@@ -5071,10 +5071,10 @@
         <v>333</v>
       </c>
       <c r="B335" s="2">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="C335">
-        <v>70780</v>
+        <v>71435</v>
       </c>
       <c r="D335" t="s">
         <v>3</v>
@@ -5085,10 +5085,10 @@
         <v>334</v>
       </c>
       <c r="B336" s="2">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="C336">
-        <v>70650</v>
+        <v>70780</v>
       </c>
       <c r="D336" t="s">
         <v>3</v>
@@ -5099,10 +5099,10 @@
         <v>335</v>
       </c>
       <c r="B337" s="2">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="C337">
-        <v>71110</v>
+        <v>70650</v>
       </c>
       <c r="D337" t="s">
         <v>3</v>
@@ -5113,10 +5113,10 @@
         <v>336</v>
       </c>
       <c r="B338" s="2">
-        <v>44504</v>
+        <v>44509</v>
       </c>
       <c r="C338">
-        <v>71270</v>
+        <v>71110</v>
       </c>
       <c r="D338" t="s">
         <v>3</v>
@@ -5127,10 +5127,10 @@
         <v>337</v>
       </c>
       <c r="B339" s="2">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="C339">
-        <v>70910</v>
+        <v>71270</v>
       </c>
       <c r="D339" t="s">
         <v>3</v>
@@ -5141,10 +5141,10 @@
         <v>338</v>
       </c>
       <c r="B340" s="2">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="C340">
-        <v>71180</v>
+        <v>70910</v>
       </c>
       <c r="D340" t="s">
         <v>3</v>
@@ -5155,10 +5155,10 @@
         <v>339</v>
       </c>
       <c r="B341" s="2">
-        <v>44498</v>
+        <v>44502</v>
       </c>
       <c r="C341">
-        <v>71575</v>
+        <v>71180</v>
       </c>
       <c r="D341" t="s">
         <v>3</v>
@@ -5169,10 +5169,10 @@
         <v>340</v>
       </c>
       <c r="B342" s="2">
-        <v>44497</v>
+        <v>44498</v>
       </c>
       <c r="C342">
-        <v>70770</v>
+        <v>71575</v>
       </c>
       <c r="D342" t="s">
         <v>3</v>
@@ -5183,10 +5183,10 @@
         <v>341</v>
       </c>
       <c r="B343" s="2">
-        <v>44496</v>
+        <v>44497</v>
       </c>
       <c r="C343">
-        <v>72060</v>
+        <v>70770</v>
       </c>
       <c r="D343" t="s">
         <v>3</v>
@@ -5197,10 +5197,10 @@
         <v>342</v>
       </c>
       <c r="B344" s="2">
-        <v>44495</v>
+        <v>44496</v>
       </c>
       <c r="C344">
-        <v>72585</v>
+        <v>72060</v>
       </c>
       <c r="D344" t="s">
         <v>3</v>
@@ -5211,10 +5211,10 @@
         <v>343</v>
       </c>
       <c r="B345" s="2">
-        <v>44491</v>
+        <v>44495</v>
       </c>
       <c r="C345">
-        <v>73125</v>
+        <v>72585</v>
       </c>
       <c r="D345" t="s">
         <v>3</v>
@@ -5225,10 +5225,10 @@
         <v>344</v>
       </c>
       <c r="B346" s="2">
-        <v>44490</v>
+        <v>44491</v>
       </c>
       <c r="C346">
-        <v>75190</v>
+        <v>73125</v>
       </c>
       <c r="D346" t="s">
         <v>3</v>
@@ -5239,10 +5239,10 @@
         <v>345</v>
       </c>
       <c r="B347" s="2">
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="C347">
-        <v>73430</v>
+        <v>75190</v>
       </c>
       <c r="D347" t="s">
         <v>3</v>
@@ -5253,10 +5253,10 @@
         <v>346</v>
       </c>
       <c r="B348" s="2">
-        <v>44488</v>
+        <v>44489</v>
       </c>
       <c r="C348">
-        <v>75750</v>
+        <v>73430</v>
       </c>
       <c r="D348" t="s">
         <v>3</v>
@@ -5267,10 +5267,10 @@
         <v>347</v>
       </c>
       <c r="B349" s="2">
-        <v>44484</v>
+        <v>44488</v>
       </c>
       <c r="C349">
-        <v>74060</v>
+        <v>75750</v>
       </c>
       <c r="D349" t="s">
         <v>3</v>
@@ -5281,10 +5281,10 @@
         <v>348</v>
       </c>
       <c r="B350" s="2">
-        <v>44483</v>
+        <v>44484</v>
       </c>
       <c r="C350">
-        <v>72540</v>
+        <v>74060</v>
       </c>
       <c r="D350" t="s">
         <v>3</v>
@@ -5295,10 +5295,10 @@
         <v>349</v>
       </c>
       <c r="B351" s="2">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="C351">
-        <v>70160</v>
+        <v>72540</v>
       </c>
       <c r="D351" t="s">
         <v>3</v>
@@ -5309,10 +5309,10 @@
         <v>350</v>
       </c>
       <c r="B352" s="2">
-        <v>44481</v>
+        <v>44482</v>
       </c>
       <c r="C352">
-        <v>70320</v>
+        <v>70160</v>
       </c>
       <c r="D352" t="s">
         <v>3</v>
@@ -5323,10 +5323,10 @@
         <v>351</v>
       </c>
       <c r="B353" s="2">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="C353">
-        <v>69940</v>
+        <v>70320</v>
       </c>
       <c r="D353" t="s">
         <v>3</v>
@@ -5337,10 +5337,10 @@
         <v>352</v>
       </c>
       <c r="B354" s="2">
-        <v>44469</v>
+        <v>44477</v>
       </c>
       <c r="C354">
-        <v>68700</v>
+        <v>69940</v>
       </c>
       <c r="D354" t="s">
         <v>3</v>
@@ -5351,10 +5351,10 @@
         <v>353</v>
       </c>
       <c r="B355" s="2">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="C355">
-        <v>68965</v>
+        <v>68700</v>
       </c>
       <c r="D355" t="s">
         <v>3</v>
@@ -5365,10 +5365,10 @@
         <v>354</v>
       </c>
       <c r="B356" s="2">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="C356">
-        <v>69520</v>
+        <v>68965</v>
       </c>
       <c r="D356" t="s">
         <v>3</v>
@@ -5379,10 +5379,10 @@
         <v>355</v>
       </c>
       <c r="B357" s="2">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="C357">
-        <v>69375</v>
+        <v>69520</v>
       </c>
       <c r="D357" t="s">
         <v>3</v>
@@ -5393,10 +5393,10 @@
         <v>356</v>
       </c>
       <c r="B358" s="2">
-        <v>44462</v>
+        <v>44463</v>
       </c>
       <c r="C358">
-        <v>69040</v>
+        <v>69375</v>
       </c>
       <c r="D358" t="s">
         <v>3</v>
@@ -5407,10 +5407,10 @@
         <v>357</v>
       </c>
       <c r="B359" s="2">
-        <v>44461</v>
+        <v>44462</v>
       </c>
       <c r="C359">
-        <v>69075</v>
+        <v>69040</v>
       </c>
       <c r="D359" t="s">
         <v>3</v>
@@ -5421,10 +5421,10 @@
         <v>358</v>
       </c>
       <c r="B360" s="2">
-        <v>44456</v>
+        <v>44461</v>
       </c>
       <c r="C360">
-        <v>69810</v>
+        <v>69075</v>
       </c>
       <c r="D360" t="s">
         <v>3</v>
@@ -5435,10 +5435,10 @@
         <v>359</v>
       </c>
       <c r="B361" s="2">
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="C361">
-        <v>70460</v>
+        <v>69810</v>
       </c>
       <c r="D361" t="s">
         <v>3</v>
@@ -5449,10 +5449,10 @@
         <v>360</v>
       </c>
       <c r="B362" s="2">
-        <v>44454</v>
+        <v>44455</v>
       </c>
       <c r="C362">
-        <v>69860</v>
+        <v>70460</v>
       </c>
       <c r="D362" t="s">
         <v>3</v>
@@ -5463,10 +5463,10 @@
         <v>361</v>
       </c>
       <c r="B363" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="C363">
-        <v>70520</v>
+        <v>69860</v>
       </c>
       <c r="D363" t="s">
         <v>3</v>
@@ -5477,10 +5477,10 @@
         <v>362</v>
       </c>
       <c r="B364" s="2">
-        <v>44449</v>
+        <v>44453</v>
       </c>
       <c r="C364">
-        <v>70035</v>
+        <v>70520</v>
       </c>
       <c r="D364" t="s">
         <v>3</v>
@@ -5491,10 +5491,10 @@
         <v>363</v>
       </c>
       <c r="B365" s="2">
-        <v>44448</v>
+        <v>44449</v>
       </c>
       <c r="C365">
-        <v>68850</v>
+        <v>70035</v>
       </c>
       <c r="D365" t="s">
         <v>3</v>
@@ -5505,10 +5505,10 @@
         <v>364</v>
       </c>
       <c r="B366" s="2">
-        <v>44447</v>
+        <v>44448</v>
       </c>
       <c r="C366">
-        <v>69250</v>
+        <v>68850</v>
       </c>
       <c r="D366" t="s">
         <v>3</v>
@@ -5519,10 +5519,10 @@
         <v>365</v>
       </c>
       <c r="B367" s="2">
-        <v>44446</v>
+        <v>44447</v>
       </c>
       <c r="C367">
-        <v>69580</v>
+        <v>69250</v>
       </c>
       <c r="D367" t="s">
         <v>3</v>
@@ -5533,10 +5533,10 @@
         <v>366</v>
       </c>
       <c r="B368" s="2">
-        <v>44442</v>
+        <v>44446</v>
       </c>
       <c r="C368">
-        <v>69575</v>
+        <v>69580</v>
       </c>
       <c r="D368" t="s">
         <v>3</v>
@@ -5547,10 +5547,10 @@
         <v>367</v>
       </c>
       <c r="B369" s="2">
-        <v>44441</v>
+        <v>44442</v>
       </c>
       <c r="C369">
-        <v>69460</v>
+        <v>69575</v>
       </c>
       <c r="D369" t="s">
         <v>3</v>
@@ -5561,10 +5561,10 @@
         <v>368</v>
       </c>
       <c r="B370" s="2">
-        <v>44440</v>
+        <v>44441</v>
       </c>
       <c r="C370">
-        <v>69940</v>
+        <v>69460</v>
       </c>
       <c r="D370" t="s">
         <v>3</v>
@@ -5575,10 +5575,10 @@
         <v>369</v>
       </c>
       <c r="B371" s="2">
-        <v>44439</v>
+        <v>44440</v>
       </c>
       <c r="C371">
-        <v>70315</v>
+        <v>69940</v>
       </c>
       <c r="D371" t="s">
         <v>3</v>
@@ -5589,10 +5589,10 @@
         <v>370</v>
       </c>
       <c r="B372" s="2">
-        <v>44435</v>
+        <v>44439</v>
       </c>
       <c r="C372">
-        <v>69185</v>
+        <v>70315</v>
       </c>
       <c r="D372" t="s">
         <v>3</v>
@@ -5603,10 +5603,10 @@
         <v>371</v>
       </c>
       <c r="B373" s="2">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="C373">
-        <v>69260</v>
+        <v>69185</v>
       </c>
       <c r="D373" t="s">
         <v>3</v>
@@ -5617,10 +5617,10 @@
         <v>372</v>
       </c>
       <c r="B374" s="2">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="C374">
-        <v>69600</v>
+        <v>69260</v>
       </c>
       <c r="D374" t="s">
         <v>3</v>
@@ -5631,10 +5631,10 @@
         <v>373</v>
       </c>
       <c r="B375" s="2">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="C375">
-        <v>68940</v>
+        <v>69600</v>
       </c>
       <c r="D375" t="s">
         <v>3</v>
@@ -5645,10 +5645,10 @@
         <v>374</v>
       </c>
       <c r="B376" s="2">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="C376">
-        <v>67260</v>
+        <v>68940</v>
       </c>
       <c r="D376" t="s">
         <v>3</v>
@@ -5659,10 +5659,10 @@
         <v>375</v>
       </c>
       <c r="B377" s="2">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="C377">
-        <v>67700</v>
+        <v>67260</v>
       </c>
       <c r="D377" t="s">
         <v>3</v>
@@ -5673,10 +5673,10 @@
         <v>376</v>
       </c>
       <c r="B378" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="C378">
-        <v>69240</v>
+        <v>67700</v>
       </c>
       <c r="D378" t="s">
         <v>3</v>
@@ -5687,10 +5687,10 @@
         <v>377</v>
       </c>
       <c r="B379" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="C379">
-        <v>70080</v>
+        <v>69240</v>
       </c>
       <c r="D379" t="s">
         <v>3</v>
@@ -5701,10 +5701,10 @@
         <v>378</v>
       </c>
       <c r="B380" s="2">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="C380">
-        <v>70240</v>
+        <v>70080</v>
       </c>
       <c r="D380" t="s">
         <v>3</v>
@@ -5715,10 +5715,10 @@
         <v>379</v>
       </c>
       <c r="B381" s="2">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="C381">
-        <v>70430</v>
+        <v>70240</v>
       </c>
       <c r="D381" t="s">
         <v>3</v>
@@ -5729,10 +5729,10 @@
         <v>380</v>
       </c>
       <c r="B382" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="C382">
-        <v>70000</v>
+        <v>70430</v>
       </c>
       <c r="D382" t="s">
         <v>3</v>
@@ -5743,10 +5743,10 @@
         <v>381</v>
       </c>
       <c r="B383" s="2">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="C383">
-        <v>69560</v>
+        <v>70000</v>
       </c>
       <c r="D383" t="s">
         <v>3</v>
@@ -5757,10 +5757,10 @@
         <v>382</v>
       </c>
       <c r="B384" s="2">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="C384">
-        <v>69800</v>
+        <v>69560</v>
       </c>
       <c r="D384" t="s">
         <v>3</v>
@@ -5771,10 +5771,10 @@
         <v>383</v>
       </c>
       <c r="B385" s="2">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="C385">
-        <v>69660</v>
+        <v>69800</v>
       </c>
       <c r="D385" t="s">
         <v>3</v>
@@ -5785,10 +5785,10 @@
         <v>384</v>
       </c>
       <c r="B386" s="2">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="C386">
-        <v>70290</v>
+        <v>69660</v>
       </c>
       <c r="D386" t="s">
         <v>3</v>
@@ -5799,10 +5799,10 @@
         <v>385</v>
       </c>
       <c r="B387" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="C387">
-        <v>71030</v>
+        <v>70290</v>
       </c>
       <c r="D387" t="s">
         <v>3</v>
@@ -5813,10 +5813,10 @@
         <v>386</v>
       </c>
       <c r="B388" s="2">
-        <v>44407</v>
+        <v>44411</v>
       </c>
       <c r="C388">
-        <v>71900</v>
+        <v>71030</v>
       </c>
       <c r="D388" t="s">
         <v>3</v>
@@ -5827,10 +5827,10 @@
         <v>387</v>
       </c>
       <c r="B389" s="2">
-        <v>44406</v>
+        <v>44407</v>
       </c>
       <c r="C389">
-        <v>71700</v>
+        <v>71900</v>
       </c>
       <c r="D389" t="s">
         <v>3</v>
@@ -5841,10 +5841,10 @@
         <v>388</v>
       </c>
       <c r="B390" s="2">
-        <v>44405</v>
+        <v>44406</v>
       </c>
       <c r="C390">
-        <v>72365</v>
+        <v>71700</v>
       </c>
       <c r="D390" t="s">
         <v>3</v>
@@ -5855,10 +5855,10 @@
         <v>389</v>
       </c>
       <c r="B391" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="C391">
-        <v>72520</v>
+        <v>72365</v>
       </c>
       <c r="D391" t="s">
         <v>3</v>
@@ -5869,10 +5869,10 @@
         <v>390</v>
       </c>
       <c r="B392" s="2">
-        <v>44400</v>
+        <v>44404</v>
       </c>
       <c r="C392">
-        <v>70090</v>
+        <v>72520</v>
       </c>
       <c r="D392" t="s">
         <v>3</v>
@@ -5883,10 +5883,10 @@
         <v>391</v>
       </c>
       <c r="B393" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="C393">
-        <v>69040</v>
+        <v>70090</v>
       </c>
       <c r="D393" t="s">
         <v>3</v>
@@ -5897,10 +5897,10 @@
         <v>392</v>
       </c>
       <c r="B394" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="C394">
-        <v>68600</v>
+        <v>69040</v>
       </c>
       <c r="D394" t="s">
         <v>3</v>
@@ -5911,10 +5911,10 @@
         <v>393</v>
       </c>
       <c r="B395" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="C395">
-        <v>68390</v>
+        <v>68600</v>
       </c>
       <c r="D395" t="s">
         <v>3</v>
@@ -5925,10 +5925,10 @@
         <v>394</v>
       </c>
       <c r="B396" s="2">
-        <v>44393</v>
+        <v>44397</v>
       </c>
       <c r="C396">
-        <v>69660</v>
+        <v>68390</v>
       </c>
       <c r="D396" t="s">
         <v>3</v>
@@ -5939,10 +5939,10 @@
         <v>395</v>
       </c>
       <c r="B397" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="C397">
-        <v>68830</v>
+        <v>69660</v>
       </c>
       <c r="D397" t="s">
         <v>3</v>
@@ -5953,10 +5953,10 @@
         <v>396</v>
       </c>
       <c r="B398" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="C398">
-        <v>68810</v>
+        <v>68830</v>
       </c>
       <c r="D398" t="s">
         <v>3</v>
@@ -5967,10 +5967,10 @@
         <v>397</v>
       </c>
       <c r="B399" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="C399">
-        <v>69370</v>
+        <v>68810</v>
       </c>
       <c r="D399" t="s">
         <v>3</v>
@@ -5981,10 +5981,10 @@
         <v>398</v>
       </c>
       <c r="B400" s="2">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="C400">
-        <v>68800</v>
+        <v>69370</v>
       </c>
       <c r="D400" t="s">
         <v>3</v>
@@ -5995,10 +5995,10 @@
         <v>399</v>
       </c>
       <c r="B401" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="C401">
-        <v>68900</v>
+        <v>68800</v>
       </c>
       <c r="D401" t="s">
         <v>3</v>
@@ -6009,10 +6009,10 @@
         <v>400</v>
       </c>
       <c r="B402" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="C402">
-        <v>68540</v>
+        <v>68900</v>
       </c>
       <c r="D402" t="s">
         <v>3</v>
@@ -6023,10 +6023,10 @@
         <v>401</v>
       </c>
       <c r="B403" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="C403">
-        <v>69700</v>
+        <v>68540</v>
       </c>
       <c r="D403" t="s">
         <v>3</v>
@@ -6037,10 +6037,10 @@
         <v>402</v>
       </c>
       <c r="B404" s="2">
-        <v>44379</v>
+        <v>44383</v>
       </c>
       <c r="C404">
-        <v>68050</v>
+        <v>69700</v>
       </c>
       <c r="D404" t="s">
         <v>3</v>
@@ -6051,10 +6051,10 @@
         <v>403</v>
       </c>
       <c r="B405" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="C405">
-        <v>68490</v>
+        <v>68050</v>
       </c>
       <c r="D405" t="s">
         <v>3</v>
@@ -6065,10 +6065,10 @@
         <v>404</v>
       </c>
       <c r="B406" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="C406">
-        <v>68380</v>
+        <v>68490</v>
       </c>
       <c r="D406" t="s">
         <v>3</v>
@@ -6079,10 +6079,10 @@
         <v>405</v>
       </c>
       <c r="B407" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="C407">
-        <v>68050</v>
+        <v>68380</v>
       </c>
       <c r="D407" t="s">
         <v>3</v>
@@ -6093,10 +6093,10 @@
         <v>406</v>
       </c>
       <c r="B408" s="2">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="C408">
-        <v>68825</v>
+        <v>68050</v>
       </c>
       <c r="D408" t="s">
         <v>3</v>
@@ -6107,10 +6107,10 @@
         <v>407</v>
       </c>
       <c r="B409" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="C409">
-        <v>68600</v>
+        <v>68825</v>
       </c>
       <c r="D409" t="s">
         <v>3</v>
@@ -6121,10 +6121,10 @@
         <v>408</v>
       </c>
       <c r="B410" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="C410">
-        <v>68270</v>
+        <v>68600</v>
       </c>
       <c r="D410" t="s">
         <v>3</v>
@@ -6135,10 +6135,10 @@
         <v>409</v>
       </c>
       <c r="B411" s="2">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="C411">
-        <v>67400</v>
+        <v>68270</v>
       </c>
       <c r="D411" t="s">
         <v>3</v>
@@ -6149,10 +6149,10 @@
         <v>410</v>
       </c>
       <c r="B412" s="2">
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="C412">
-        <v>67730</v>
+        <v>67400</v>
       </c>
       <c r="D412" t="s">
         <v>3</v>
@@ -6163,10 +6163,10 @@
         <v>411</v>
       </c>
       <c r="B413" s="2">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="C413">
-        <v>69170</v>
+        <v>67730</v>
       </c>
       <c r="D413" t="s">
         <v>3</v>
@@ -6177,10 +6177,10 @@
         <v>412</v>
       </c>
       <c r="B414" s="2">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="C414">
-        <v>69260</v>
+        <v>69170</v>
       </c>
       <c r="D414" t="s">
         <v>3</v>
@@ -6191,10 +6191,10 @@
         <v>413</v>
       </c>
       <c r="B415" s="2">
-        <v>44358</v>
+        <v>44363</v>
       </c>
       <c r="C415">
-        <v>70800</v>
+        <v>69260</v>
       </c>
       <c r="D415" t="s">
         <v>3</v>
@@ -6205,10 +6205,10 @@
         <v>414</v>
       </c>
       <c r="B416" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="C416">
-        <v>71210</v>
+        <v>70800</v>
       </c>
       <c r="D416" t="s">
         <v>3</v>
@@ -6219,10 +6219,10 @@
         <v>415</v>
       </c>
       <c r="B417" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="C417">
-        <v>71710</v>
+        <v>71210</v>
       </c>
       <c r="D417" t="s">
         <v>3</v>
@@ -6233,10 +6233,10 @@
         <v>416</v>
       </c>
       <c r="B418" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="C418">
-        <v>71310</v>
+        <v>71710</v>
       </c>
       <c r="D418" t="s">
         <v>3</v>
@@ -6247,10 +6247,10 @@
         <v>417</v>
       </c>
       <c r="B419" s="2">
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="C419">
-        <v>71090</v>
+        <v>71310</v>
       </c>
       <c r="D419" t="s">
         <v>3</v>
@@ -6261,10 +6261,10 @@
         <v>418</v>
       </c>
       <c r="B420" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="C420">
-        <v>72950</v>
+        <v>71090</v>
       </c>
       <c r="D420" t="s">
         <v>3</v>
@@ -6275,10 +6275,10 @@
         <v>419</v>
       </c>
       <c r="B421" s="2">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="C421">
-        <v>73580</v>
+        <v>72950</v>
       </c>
       <c r="D421" t="s">
         <v>3</v>
@@ -6289,10 +6289,10 @@
         <v>420</v>
       </c>
       <c r="B422" s="2">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="C422">
-        <v>73790</v>
+        <v>73580</v>
       </c>
       <c r="D422" t="s">
         <v>3</v>
@@ -6303,10 +6303,10 @@
         <v>421</v>
       </c>
       <c r="B423" s="2">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="C423">
-        <v>73380</v>
+        <v>73790</v>
       </c>
       <c r="D423" t="s">
         <v>3</v>
@@ -6317,10 +6317,10 @@
         <v>422</v>
       </c>
       <c r="B424" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="C424">
-        <v>71350</v>
+        <v>73380</v>
       </c>
       <c r="D424" t="s">
         <v>3</v>
@@ -6331,10 +6331,10 @@
         <v>423</v>
       </c>
       <c r="B425" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="C425">
-        <v>71720</v>
+        <v>71350</v>
       </c>
       <c r="D425" t="s">
         <v>3</v>
@@ -6345,10 +6345,10 @@
         <v>424</v>
       </c>
       <c r="B426" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="C426">
-        <v>72360</v>
+        <v>71720</v>
       </c>
       <c r="D426" t="s">
         <v>3</v>
@@ -6359,10 +6359,10 @@
         <v>425</v>
       </c>
       <c r="B427" s="2">
-        <v>44337</v>
+        <v>44341</v>
       </c>
       <c r="C427">
-        <v>71950</v>
+        <v>72360</v>
       </c>
       <c r="D427" t="s">
         <v>3</v>
@@ -6373,10 +6373,10 @@
         <v>426</v>
       </c>
       <c r="B428" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="C428">
-        <v>72525</v>
+        <v>71950</v>
       </c>
       <c r="D428" t="s">
         <v>3</v>
@@ -6387,10 +6387,10 @@
         <v>427</v>
       </c>
       <c r="B429" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="C429">
-        <v>74840</v>
+        <v>72525</v>
       </c>
       <c r="D429" t="s">
         <v>3</v>
@@ -6401,10 +6401,10 @@
         <v>428</v>
       </c>
       <c r="B430" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="C430">
-        <v>75720</v>
+        <v>74840</v>
       </c>
       <c r="D430" t="s">
         <v>3</v>
@@ -6415,10 +6415,10 @@
         <v>429</v>
       </c>
       <c r="B431" s="2">
-        <v>44330</v>
+        <v>44334</v>
       </c>
       <c r="C431">
-        <v>74760</v>
+        <v>75720</v>
       </c>
       <c r="D431" t="s">
         <v>3</v>
@@ -6429,10 +6429,10 @@
         <v>430</v>
       </c>
       <c r="B432" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="C432">
-        <v>75910</v>
+        <v>74760</v>
       </c>
       <c r="D432" t="s">
         <v>3</v>
@@ -6443,10 +6443,10 @@
         <v>431</v>
       </c>
       <c r="B433" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="C433">
-        <v>76150</v>
+        <v>75910</v>
       </c>
       <c r="D433" t="s">
         <v>3</v>
@@ -6457,10 +6457,10 @@
         <v>432</v>
       </c>
       <c r="B434" s="2">
-        <v>44323</v>
+        <v>44328</v>
       </c>
       <c r="C434">
-        <v>74200</v>
+        <v>76150</v>
       </c>
       <c r="D434" t="s">
         <v>3</v>
@@ -6471,10 +6471,10 @@
         <v>433</v>
       </c>
       <c r="B435" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="C435">
-        <v>72690</v>
+        <v>74200</v>
       </c>
       <c r="D435" t="s">
         <v>3</v>
@@ -6485,10 +6485,10 @@
         <v>434</v>
       </c>
       <c r="B436" s="2">
-        <v>44316</v>
+        <v>44322</v>
       </c>
       <c r="C436">
-        <v>71680</v>
+        <v>72690</v>
       </c>
       <c r="D436" t="s">
         <v>3</v>
@@ -6499,10 +6499,10 @@
         <v>435</v>
       </c>
       <c r="B437" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="C437">
-        <v>72335</v>
+        <v>71680</v>
       </c>
       <c r="D437" t="s">
         <v>3</v>
@@ -6513,10 +6513,10 @@
         <v>436</v>
       </c>
       <c r="B438" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="C438">
-        <v>70920</v>
+        <v>72335</v>
       </c>
       <c r="D438" t="s">
         <v>3</v>
@@ -6527,10 +6527,10 @@
         <v>437</v>
       </c>
       <c r="B439" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="C439">
-        <v>71940</v>
+        <v>70920</v>
       </c>
       <c r="D439" t="s">
         <v>3</v>
@@ -6541,10 +6541,10 @@
         <v>438</v>
       </c>
       <c r="B440" s="2">
-        <v>44309</v>
+        <v>44313</v>
       </c>
       <c r="C440">
-        <v>69120</v>
+        <v>71940</v>
       </c>
       <c r="D440" t="s">
         <v>3</v>
@@ -6555,10 +6555,10 @@
         <v>439</v>
       </c>
       <c r="B441" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="C441">
-        <v>68840</v>
+        <v>69120</v>
       </c>
       <c r="D441" t="s">
         <v>3</v>
@@ -6569,10 +6569,10 @@
         <v>440</v>
       </c>
       <c r="B442" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="C442">
-        <v>68550</v>
+        <v>68840</v>
       </c>
       <c r="D442" t="s">
         <v>3</v>
@@ -6583,10 +6583,10 @@
         <v>441</v>
       </c>
       <c r="B443" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="C443">
-        <v>68990</v>
+        <v>68550</v>
       </c>
       <c r="D443" t="s">
         <v>3</v>
@@ -6597,10 +6597,10 @@
         <v>442</v>
       </c>
       <c r="B444" s="2">
-        <v>44302</v>
+        <v>44306</v>
       </c>
       <c r="C444">
-        <v>68550</v>
+        <v>68990</v>
       </c>
       <c r="D444" t="s">
         <v>3</v>
@@ -6611,10 +6611,10 @@
         <v>443</v>
       </c>
       <c r="B445" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="C445">
-        <v>67260</v>
+        <v>68550</v>
       </c>
       <c r="D445" t="s">
         <v>3</v>
@@ -6625,10 +6625,10 @@
         <v>444</v>
       </c>
       <c r="B446" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="C446">
-        <v>66125</v>
+        <v>67260</v>
       </c>
       <c r="D446" t="s">
         <v>3</v>
@@ -6639,10 +6639,10 @@
         <v>445</v>
       </c>
       <c r="B447" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="C447">
-        <v>65720</v>
+        <v>66125</v>
       </c>
       <c r="D447" t="s">
         <v>3</v>
@@ -6653,10 +6653,10 @@
         <v>446</v>
       </c>
       <c r="B448" s="2">
-        <v>44295</v>
+        <v>44299</v>
       </c>
       <c r="C448">
-        <v>66750</v>
+        <v>65720</v>
       </c>
       <c r="D448" t="s">
         <v>3</v>
@@ -6667,10 +6667,10 @@
         <v>447</v>
       </c>
       <c r="B449" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="C449">
-        <v>66500</v>
+        <v>66750</v>
       </c>
       <c r="D449" t="s">
         <v>3</v>
@@ -6681,10 +6681,10 @@
         <v>448</v>
       </c>
       <c r="B450" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="C450">
-        <v>66890</v>
+        <v>66500</v>
       </c>
       <c r="D450" t="s">
         <v>3</v>
@@ -6695,10 +6695,10 @@
         <v>449</v>
       </c>
       <c r="B451" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="C451">
-        <v>67140</v>
+        <v>66890</v>
       </c>
       <c r="D451" t="s">
         <v>3</v>
@@ -6709,10 +6709,10 @@
         <v>450</v>
       </c>
       <c r="B452" s="2">
-        <v>44288</v>
+        <v>44292</v>
       </c>
       <c r="C452">
-        <v>66040</v>
+        <v>67140</v>
       </c>
       <c r="D452" t="s">
         <v>3</v>
@@ -6723,10 +6723,10 @@
         <v>451</v>
       </c>
       <c r="B453" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="C453">
-        <v>65490</v>
+        <v>66040</v>
       </c>
       <c r="D453" t="s">
         <v>3</v>
@@ -6737,10 +6737,10 @@
         <v>452</v>
       </c>
       <c r="B454" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="C454">
-        <v>65175</v>
+        <v>65490</v>
       </c>
       <c r="D454" t="s">
         <v>3</v>
@@ -6751,10 +6751,10 @@
         <v>453</v>
       </c>
       <c r="B455" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="C455">
-        <v>66190</v>
+        <v>65175</v>
       </c>
       <c r="D455" t="s">
         <v>3</v>
@@ -6765,10 +6765,10 @@
         <v>454</v>
       </c>
       <c r="B456" s="2">
-        <v>44281</v>
+        <v>44285</v>
       </c>
       <c r="C456">
-        <v>65680</v>
+        <v>66190</v>
       </c>
       <c r="D456" t="s">
         <v>3</v>
@@ -6779,10 +6779,10 @@
         <v>455</v>
       </c>
       <c r="B457" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="C457">
-        <v>65770</v>
+        <v>65680</v>
       </c>
       <c r="D457" t="s">
         <v>3</v>
@@ -6793,10 +6793,10 @@
         <v>456</v>
       </c>
       <c r="B458" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="C458">
-        <v>66075</v>
+        <v>65770</v>
       </c>
       <c r="D458" t="s">
         <v>3</v>
@@ -6807,10 +6807,10 @@
         <v>457</v>
       </c>
       <c r="B459" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="C459">
-        <v>66740</v>
+        <v>66075</v>
       </c>
       <c r="D459" t="s">
         <v>3</v>
@@ -6821,10 +6821,10 @@
         <v>458</v>
       </c>
       <c r="B460" s="2">
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="C460">
-        <v>66550</v>
+        <v>66740</v>
       </c>
       <c r="D460" t="s">
         <v>3</v>
@@ -6835,10 +6835,10 @@
         <v>459</v>
       </c>
       <c r="B461" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="C461">
-        <v>67050</v>
+        <v>66550</v>
       </c>
       <c r="D461" t="s">
         <v>3</v>
@@ -6849,10 +6849,10 @@
         <v>460</v>
       </c>
       <c r="B462" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="C462">
-        <v>66200</v>
+        <v>67050</v>
       </c>
       <c r="D462" t="s">
         <v>3</v>
@@ -6863,10 +6863,10 @@
         <v>461</v>
       </c>
       <c r="B463" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="C463">
-        <v>67150</v>
+        <v>66200</v>
       </c>
       <c r="D463" t="s">
         <v>3</v>
@@ -6877,10 +6877,10 @@
         <v>462</v>
       </c>
       <c r="B464" s="2">
-        <v>44267</v>
+        <v>44271</v>
       </c>
       <c r="C464">
-        <v>66660</v>
+        <v>67150</v>
       </c>
       <c r="D464" t="s">
         <v>3</v>
@@ -6891,10 +6891,10 @@
         <v>463</v>
       </c>
       <c r="B465" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="C465">
-        <v>65580</v>
+        <v>66660</v>
       </c>
       <c r="D465" t="s">
         <v>3</v>
@@ -6905,10 +6905,10 @@
         <v>464</v>
       </c>
       <c r="B466" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="C466">
-        <v>65530</v>
+        <v>65580</v>
       </c>
       <c r="D466" t="s">
         <v>3</v>
@@ -6919,10 +6919,10 @@
         <v>465</v>
       </c>
       <c r="B467" s="2">
-        <v>44260</v>
+        <v>44265</v>
       </c>
       <c r="C467">
-        <v>64810</v>
+        <v>65530</v>
       </c>
       <c r="D467" t="s">
         <v>3</v>
@@ -6933,10 +6933,10 @@
         <v>466</v>
       </c>
       <c r="B468" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="C468">
-        <v>67020</v>
+        <v>64810</v>
       </c>
       <c r="D468" t="s">
         <v>3</v>
@@ -6947,10 +6947,10 @@
         <v>467</v>
       </c>
       <c r="B469" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="C469">
-        <v>67790</v>
+        <v>67020</v>
       </c>
       <c r="D469" t="s">
         <v>3</v>
@@ -6961,10 +6961,10 @@
         <v>468</v>
       </c>
       <c r="B470" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="C470">
-        <v>66140</v>
+        <v>67790</v>
       </c>
       <c r="D470" t="s">
         <v>3</v>
@@ -6975,10 +6975,10 @@
         <v>469</v>
       </c>
       <c r="B471" s="2">
-        <v>44253</v>
+        <v>44257</v>
       </c>
       <c r="C471">
-        <v>68410</v>
+        <v>66140</v>
       </c>
       <c r="D471" t="s">
         <v>3</v>
@@ -6989,10 +6989,10 @@
         <v>470</v>
       </c>
       <c r="B472" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="C472">
-        <v>69900</v>
+        <v>68410</v>
       </c>
       <c r="D472" t="s">
         <v>3</v>
@@ -7003,10 +7003,10 @@
         <v>471</v>
       </c>
       <c r="B473" s="2">
-        <v>44246</v>
+        <v>44252</v>
       </c>
       <c r="C473">
-        <v>63240</v>
+        <v>69900</v>
       </c>
       <c r="D473" t="s">
         <v>3</v>
@@ -7017,10 +7017,10 @@
         <v>472</v>
       </c>
       <c r="B474" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="C474">
-        <v>62690</v>
+        <v>63240</v>
       </c>
       <c r="D474" t="s">
         <v>3</v>
@@ -7031,10 +7031,10 @@
         <v>473</v>
       </c>
       <c r="B475" s="2">
-        <v>44237</v>
+        <v>44245</v>
       </c>
       <c r="C475">
-        <v>60230</v>
+        <v>62690</v>
       </c>
       <c r="D475" t="s">
         <v>3</v>
@@ -7045,10 +7045,10 @@
         <v>474</v>
       </c>
       <c r="B476" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="C476">
-        <v>59410</v>
+        <v>60230</v>
       </c>
       <c r="D476" t="s">
         <v>3</v>
@@ -7059,10 +7059,10 @@
         <v>475</v>
       </c>
       <c r="B477" s="2">
-        <v>44232</v>
+        <v>44236</v>
       </c>
       <c r="C477">
-        <v>58040</v>
+        <v>59410</v>
       </c>
       <c r="D477" t="s">
         <v>3</v>
@@ -7073,10 +7073,10 @@
         <v>476</v>
       </c>
       <c r="B478" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="C478">
-        <v>57825</v>
+        <v>58040</v>
       </c>
       <c r="D478" t="s">
         <v>3</v>
@@ -7087,10 +7087,10 @@
         <v>477</v>
       </c>
       <c r="B479" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="C479">
-        <v>57170</v>
+        <v>57825</v>
       </c>
       <c r="D479" t="s">
         <v>3</v>
@@ -7101,10 +7101,10 @@
         <v>478</v>
       </c>
       <c r="B480" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="C480">
-        <v>57700</v>
+        <v>57170</v>
       </c>
       <c r="D480" t="s">
         <v>3</v>
@@ -7115,10 +7115,10 @@
         <v>479</v>
       </c>
       <c r="B481" s="2">
-        <v>44225</v>
+        <v>44229</v>
       </c>
       <c r="C481">
-        <v>58180</v>
+        <v>57700</v>
       </c>
       <c r="D481" t="s">
         <v>3</v>
@@ -7129,10 +7129,10 @@
         <v>480</v>
       </c>
       <c r="B482" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="C482">
-        <v>57950</v>
+        <v>58180</v>
       </c>
       <c r="D482" t="s">
         <v>3</v>
@@ -7143,10 +7143,10 @@
         <v>481</v>
       </c>
       <c r="B483" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="C483">
-        <v>58745</v>
+        <v>57950</v>
       </c>
       <c r="D483" t="s">
         <v>3</v>
@@ -7157,10 +7157,10 @@
         <v>482</v>
       </c>
       <c r="B484" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="C484">
-        <v>58820</v>
+        <v>58745</v>
       </c>
       <c r="D484" t="s">
         <v>3</v>
@@ -7171,10 +7171,10 @@
         <v>483</v>
       </c>
       <c r="B485" s="2">
-        <v>44218</v>
+        <v>44222</v>
       </c>
       <c r="C485">
-        <v>58920</v>
+        <v>58820</v>
       </c>
       <c r="D485" t="s">
         <v>3</v>
@@ -7185,10 +7185,10 @@
         <v>484</v>
       </c>
       <c r="B486" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="C486">
-        <v>59280</v>
+        <v>58920</v>
       </c>
       <c r="D486" t="s">
         <v>3</v>
@@ -7199,10 +7199,10 @@
         <v>485</v>
       </c>
       <c r="B487" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="C487">
-        <v>59025</v>
+        <v>59280</v>
       </c>
       <c r="D487" t="s">
         <v>3</v>
@@ -7213,10 +7213,10 @@
         <v>486</v>
       </c>
       <c r="B488" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="C488">
-        <v>59030</v>
+        <v>59025</v>
       </c>
       <c r="D488" t="s">
         <v>3</v>
@@ -7227,10 +7227,10 @@
         <v>487</v>
       </c>
       <c r="B489" s="2">
-        <v>44211</v>
+        <v>44215</v>
       </c>
       <c r="C489">
-        <v>59560</v>
+        <v>59030</v>
       </c>
       <c r="D489" t="s">
         <v>3</v>
@@ -7241,10 +7241,10 @@
         <v>488</v>
       </c>
       <c r="B490" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="C490">
-        <v>58675</v>
+        <v>59560</v>
       </c>
       <c r="D490" t="s">
         <v>3</v>
@@ -7255,10 +7255,10 @@
         <v>489</v>
       </c>
       <c r="B491" s="2">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="C491">
-        <v>58840</v>
+        <v>58675</v>
       </c>
       <c r="D491" t="s">
         <v>3</v>
@@ -7269,10 +7269,10 @@
         <v>490</v>
       </c>
       <c r="B492" s="2">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="C492">
-        <v>58225</v>
+        <v>58840</v>
       </c>
       <c r="D492" t="s">
         <v>3</v>
@@ -7283,10 +7283,10 @@
         <v>491</v>
       </c>
       <c r="B493" s="2">
-        <v>44196</v>
+        <v>44208</v>
       </c>
       <c r="C493">
-        <v>57810</v>
+        <v>58225</v>
       </c>
       <c r="D493" t="s">
         <v>3</v>
@@ -7297,10 +7297,10 @@
         <v>492</v>
       </c>
       <c r="B494" s="2">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="C494">
-        <v>58150</v>
+        <v>57810</v>
       </c>
       <c r="D494" t="s">
         <v>3</v>
@@ -7311,10 +7311,10 @@
         <v>493</v>
       </c>
       <c r="B495" s="2">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="C495">
-        <v>58450</v>
+        <v>58150</v>
       </c>
       <c r="D495" t="s">
         <v>3</v>
@@ -7325,10 +7325,10 @@
         <v>494</v>
       </c>
       <c r="B496" s="2">
-        <v>44190</v>
+        <v>44194</v>
       </c>
       <c r="C496">
-        <v>58180</v>
+        <v>58450</v>
       </c>
       <c r="D496" t="s">
         <v>3</v>
@@ -7339,10 +7339,10 @@
         <v>495</v>
       </c>
       <c r="B497" s="2">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="C497">
-        <v>58110</v>
+        <v>58180</v>
       </c>
       <c r="D497" t="s">
         <v>3</v>
@@ -7353,10 +7353,10 @@
         <v>496</v>
       </c>
       <c r="B498" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="C498">
-        <v>57610</v>
+        <v>58110</v>
       </c>
       <c r="D498" t="s">
         <v>3</v>
@@ -7367,10 +7367,10 @@
         <v>497</v>
       </c>
       <c r="B499" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="C499">
-        <v>58550</v>
+        <v>57610</v>
       </c>
       <c r="D499" t="s">
         <v>3</v>
@@ -7381,10 +7381,10 @@
         <v>498</v>
       </c>
       <c r="B500" s="2">
-        <v>44183</v>
+        <v>44187</v>
       </c>
       <c r="C500">
-        <v>59090</v>
+        <v>58550</v>
       </c>
       <c r="D500" t="s">
         <v>3</v>
@@ -7395,10 +7395,10 @@
         <v>499</v>
       </c>
       <c r="B501" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="C501">
-        <v>58120</v>
+        <v>59090</v>
       </c>
       <c r="D501" t="s">
         <v>3</v>
@@ -7409,10 +7409,10 @@
         <v>500</v>
       </c>
       <c r="B502" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="C502">
-        <v>57850</v>
+        <v>58120</v>
       </c>
       <c r="D502" t="s">
         <v>3</v>
@@ -7423,10 +7423,10 @@
         <v>501</v>
       </c>
       <c r="B503" s="2">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="C503">
-        <v>57420</v>
+        <v>57850</v>
       </c>
       <c r="D503" t="s">
         <v>3</v>
@@ -7437,10 +7437,10 @@
         <v>502</v>
       </c>
       <c r="B504" s="2">
-        <v>44176</v>
+        <v>44180</v>
       </c>
       <c r="C504">
-        <v>58285</v>
+        <v>57420</v>
       </c>
       <c r="D504" t="s">
         <v>3</v>
@@ -7451,10 +7451,10 @@
         <v>503</v>
       </c>
       <c r="B505" s="2">
-        <v>44175</v>
+        <v>44176</v>
       </c>
       <c r="C505">
-        <v>57010</v>
+        <v>58285</v>
       </c>
       <c r="D505" t="s">
         <v>3</v>
@@ -7465,10 +7465,10 @@
         <v>504</v>
       </c>
       <c r="B506" s="2">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="C506">
-        <v>57270</v>
+        <v>57010</v>
       </c>
       <c r="D506" t="s">
         <v>3</v>
@@ -7479,10 +7479,10 @@
         <v>505</v>
       </c>
       <c r="B507" s="2">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="C507">
-        <v>57000</v>
+        <v>57270</v>
       </c>
       <c r="D507" t="s">
         <v>3</v>
@@ -7493,10 +7493,10 @@
         <v>506</v>
       </c>
       <c r="B508" s="2">
-        <v>44169</v>
+        <v>44173</v>
       </c>
       <c r="C508">
-        <v>57290</v>
+        <v>57000</v>
       </c>
       <c r="D508" t="s">
         <v>3</v>
@@ -7507,10 +7507,10 @@
         <v>507</v>
       </c>
       <c r="B509" s="2">
-        <v>44168</v>
+        <v>44169</v>
       </c>
       <c r="C509">
-        <v>57300</v>
+        <v>57290</v>
       </c>
       <c r="D509" t="s">
         <v>3</v>
@@ -7521,10 +7521,10 @@
         <v>508</v>
       </c>
       <c r="B510" s="2">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="C510">
-        <v>57280</v>
+        <v>57300</v>
       </c>
       <c r="D510" t="s">
         <v>3</v>
@@ -7535,10 +7535,10 @@
         <v>509</v>
       </c>
       <c r="B511" s="2">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="C511">
-        <v>57375</v>
+        <v>57280</v>
       </c>
       <c r="D511" t="s">
         <v>3</v>
@@ -7549,10 +7549,10 @@
         <v>510</v>
       </c>
       <c r="B512" s="2">
-        <v>44162</v>
+        <v>44166</v>
       </c>
       <c r="C512">
-        <v>55685</v>
+        <v>57375</v>
       </c>
       <c r="D512" t="s">
         <v>3</v>
@@ -7563,10 +7563,10 @@
         <v>511</v>
       </c>
       <c r="B513" s="2">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="C513">
-        <v>55120</v>
+        <v>55685</v>
       </c>
       <c r="D513" t="s">
         <v>3</v>
@@ -7577,10 +7577,10 @@
         <v>512</v>
       </c>
       <c r="B514" s="2">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="C514">
-        <v>54890</v>
+        <v>55120</v>
       </c>
       <c r="D514" t="s">
         <v>3</v>
@@ -7591,10 +7591,10 @@
         <v>513</v>
       </c>
       <c r="B515" s="2">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="C515">
-        <v>54110</v>
+        <v>54890</v>
       </c>
       <c r="D515" t="s">
         <v>3</v>
@@ -7605,10 +7605,10 @@
         <v>514</v>
       </c>
       <c r="B516" s="2">
-        <v>44155</v>
+        <v>44159</v>
       </c>
       <c r="C516">
-        <v>53220</v>
+        <v>54110</v>
       </c>
       <c r="D516" t="s">
         <v>3</v>
@@ -7619,10 +7619,10 @@
         <v>515</v>
       </c>
       <c r="B517" s="2">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="C517">
-        <v>52820</v>
+        <v>53220</v>
       </c>
       <c r="D517" t="s">
         <v>3</v>
@@ -7633,10 +7633,10 @@
         <v>516</v>
       </c>
       <c r="B518" s="2">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="C518">
-        <v>52740</v>
+        <v>52820</v>
       </c>
       <c r="D518" t="s">
         <v>3</v>
@@ -7647,10 +7647,10 @@
         <v>517</v>
       </c>
       <c r="B519" s="2">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="C519">
-        <v>53220</v>
+        <v>52740</v>
       </c>
       <c r="D519" t="s">
         <v>3</v>
@@ -7661,10 +7661,10 @@
         <v>518</v>
       </c>
       <c r="B520" s="2">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="C520">
-        <v>52025</v>
+        <v>53220</v>
       </c>
       <c r="D520" t="s">
         <v>3</v>
@@ -7675,10 +7675,10 @@
         <v>519</v>
       </c>
       <c r="B521" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="C521">
-        <v>51880</v>
+        <v>52025</v>
       </c>
       <c r="D521" t="s">
         <v>3</v>
@@ -7689,10 +7689,10 @@
         <v>520</v>
       </c>
       <c r="B522" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="C522">
-        <v>51990</v>
+        <v>51880</v>
       </c>
       <c r="D522" t="s">
         <v>3</v>
@@ -7703,10 +7703,10 @@
         <v>521</v>
       </c>
       <c r="B523" s="2">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="C523">
-        <v>52120</v>
+        <v>51990</v>
       </c>
       <c r="D523" t="s">
         <v>3</v>
@@ -7717,10 +7717,10 @@
         <v>522</v>
       </c>
       <c r="B524" s="2">
-        <v>44141</v>
+        <v>44145</v>
       </c>
       <c r="C524">
-        <v>51640</v>
+        <v>52120</v>
       </c>
       <c r="D524" t="s">
         <v>3</v>
@@ -7731,10 +7731,10 @@
         <v>523</v>
       </c>
       <c r="B525" s="2">
-        <v>44139</v>
+        <v>44141</v>
       </c>
       <c r="C525">
-        <v>51680</v>
+        <v>51640</v>
       </c>
       <c r="D525" t="s">
         <v>3</v>
@@ -7745,10 +7745,10 @@
         <v>524</v>
       </c>
       <c r="B526" s="2">
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C526">
-        <v>51750</v>
+        <v>51680</v>
       </c>
       <c r="D526" t="s">
         <v>3</v>
@@ -7759,10 +7759,10 @@
         <v>525</v>
       </c>
       <c r="B527" s="2">
-        <v>44134</v>
+        <v>44138</v>
       </c>
       <c r="C527">
-        <v>51530</v>
+        <v>51750</v>
       </c>
       <c r="D527" t="s">
         <v>3</v>
@@ -7773,10 +7773,10 @@
         <v>526</v>
       </c>
       <c r="B528" s="2">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="C528">
-        <v>51585</v>
+        <v>51530</v>
       </c>
       <c r="D528" t="s">
         <v>3</v>
@@ -7787,10 +7787,10 @@
         <v>527</v>
       </c>
       <c r="B529" s="2">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="C529">
-        <v>51730</v>
+        <v>51585</v>
       </c>
       <c r="D529" t="s">
         <v>3</v>
@@ -7801,10 +7801,10 @@
         <v>528</v>
       </c>
       <c r="B530" s="2">
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="C530">
-        <v>51540</v>
+        <v>51730</v>
       </c>
       <c r="D530" t="s">
         <v>3</v>
@@ -7815,10 +7815,10 @@
         <v>529</v>
       </c>
       <c r="B531" s="2">
-        <v>44127</v>
+        <v>44131</v>
       </c>
       <c r="C531">
-        <v>52210</v>
+        <v>51540</v>
       </c>
       <c r="D531" t="s">
         <v>3</v>
@@ -7829,10 +7829,10 @@
         <v>530</v>
       </c>
       <c r="B532" s="2">
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="C532">
-        <v>52370</v>
+        <v>52210</v>
       </c>
       <c r="D532" t="s">
         <v>3</v>
@@ -7843,10 +7843,10 @@
         <v>531</v>
       </c>
       <c r="B533" s="2">
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="C533">
-        <v>52250</v>
+        <v>52370</v>
       </c>
       <c r="D533" t="s">
         <v>3</v>
@@ -7857,10 +7857,10 @@
         <v>532</v>
       </c>
       <c r="B534" s="2">
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="C534">
-        <v>51450</v>
+        <v>52250</v>
       </c>
       <c r="D534" t="s">
         <v>3</v>
@@ -7871,10 +7871,10 @@
         <v>533</v>
       </c>
       <c r="B535" s="2">
-        <v>44120</v>
+        <v>44124</v>
       </c>
       <c r="C535">
-        <v>51800</v>
+        <v>51450</v>
       </c>
       <c r="D535" t="s">
         <v>3</v>
@@ -7885,10 +7885,10 @@
         <v>534</v>
       </c>
       <c r="B536" s="2">
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="C536">
-        <v>51370</v>
+        <v>51800</v>
       </c>
       <c r="D536" t="s">
         <v>3</v>
@@ -7899,10 +7899,10 @@
         <v>535</v>
       </c>
       <c r="B537" s="2">
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="C537">
-        <v>51470</v>
+        <v>51370</v>
       </c>
       <c r="D537" t="s">
         <v>3</v>
@@ -7913,10 +7913,10 @@
         <v>536</v>
       </c>
       <c r="B538" s="2">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="C538">
-        <v>51540</v>
+        <v>51470</v>
       </c>
       <c r="D538" t="s">
         <v>3</v>
@@ -7927,10 +7927,10 @@
         <v>537</v>
       </c>
       <c r="B539" s="2">
-        <v>44113</v>
+        <v>44117</v>
       </c>
       <c r="C539">
-        <v>51565</v>
+        <v>51540</v>
       </c>
       <c r="D539" t="s">
         <v>3</v>
@@ -7941,10 +7941,10 @@
         <v>538</v>
       </c>
       <c r="B540" s="2">
-        <v>44104</v>
+        <v>44113</v>
       </c>
       <c r="C540">
-        <v>51185</v>
+        <v>51565</v>
       </c>
       <c r="D540" t="s">
         <v>3</v>
@@ -7955,10 +7955,10 @@
         <v>539</v>
       </c>
       <c r="B541" s="2">
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C541">
-        <v>51110</v>
+        <v>51185</v>
       </c>
       <c r="D541" t="s">
         <v>3</v>
@@ -7969,10 +7969,10 @@
         <v>540</v>
       </c>
       <c r="B542" s="2">
-        <v>44099</v>
+        <v>44103</v>
       </c>
       <c r="C542">
-        <v>50890</v>
+        <v>51110</v>
       </c>
       <c r="D542" t="s">
         <v>3</v>
@@ -7983,10 +7983,10 @@
         <v>541</v>
       </c>
       <c r="B543" s="2">
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C543">
-        <v>50745</v>
+        <v>50890</v>
       </c>
       <c r="D543" t="s">
         <v>3</v>
@@ -7997,10 +7997,10 @@
         <v>542</v>
       </c>
       <c r="B544" s="2">
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C544">
-        <v>51620</v>
+        <v>50745</v>
       </c>
       <c r="D544" t="s">
         <v>3</v>
@@ -8011,10 +8011,10 @@
         <v>543</v>
       </c>
       <c r="B545" s="2">
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C545">
-        <v>51920</v>
+        <v>51620</v>
       </c>
       <c r="D545" t="s">
         <v>3</v>
@@ -8025,10 +8025,10 @@
         <v>544</v>
       </c>
       <c r="B546" s="2">
-        <v>44092</v>
+        <v>44096</v>
       </c>
       <c r="C546">
-        <v>52210</v>
+        <v>51920</v>
       </c>
       <c r="D546" t="s">
         <v>3</v>
@@ -8039,10 +8039,10 @@
         <v>545</v>
       </c>
       <c r="B547" s="2">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C547">
-        <v>51455</v>
+        <v>52210</v>
       </c>
       <c r="D547" t="s">
         <v>3</v>
@@ -8053,10 +8053,10 @@
         <v>546</v>
       </c>
       <c r="B548" s="2">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C548">
-        <v>51900</v>
+        <v>51455</v>
       </c>
       <c r="D548" t="s">
         <v>3</v>
@@ -8067,10 +8067,10 @@
         <v>547</v>
       </c>
       <c r="B549" s="2">
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C549">
-        <v>52150</v>
+        <v>51900</v>
       </c>
       <c r="D549" t="s">
         <v>3</v>
@@ -8081,10 +8081,10 @@
         <v>548</v>
       </c>
       <c r="B550" s="2">
-        <v>44085</v>
+        <v>44089</v>
       </c>
       <c r="C550">
-        <v>51535</v>
+        <v>52150</v>
       </c>
       <c r="D550" t="s">
         <v>3</v>
@@ -8095,10 +8095,10 @@
         <v>549</v>
       </c>
       <c r="B551" s="2">
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C551">
-        <v>52130</v>
+        <v>51535</v>
       </c>
       <c r="D551" t="s">
         <v>3</v>
@@ -8109,10 +8109,10 @@
         <v>550</v>
       </c>
       <c r="B552" s="2">
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C552">
-        <v>52065</v>
+        <v>52130</v>
       </c>
       <c r="D552" t="s">
         <v>3</v>
@@ -8123,10 +8123,10 @@
         <v>551</v>
       </c>
       <c r="B553" s="2">
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C553">
-        <v>52520</v>
+        <v>52065</v>
       </c>
       <c r="D553" t="s">
         <v>3</v>
@@ -8137,10 +8137,10 @@
         <v>552</v>
       </c>
       <c r="B554" s="2">
-        <v>44078</v>
+        <v>44082</v>
       </c>
       <c r="C554">
-        <v>51495</v>
+        <v>52520</v>
       </c>
       <c r="D554" t="s">
         <v>3</v>
@@ -8151,10 +8151,10 @@
         <v>553</v>
       </c>
       <c r="B555" s="2">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C555">
-        <v>52140</v>
+        <v>51495</v>
       </c>
       <c r="D555" t="s">
         <v>3</v>
@@ -8165,10 +8165,10 @@
         <v>554</v>
       </c>
       <c r="B556" s="2">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="C556">
-        <v>51935</v>
+        <v>52140</v>
       </c>
       <c r="D556" t="s">
         <v>3</v>
@@ -8179,10 +8179,10 @@
         <v>555</v>
       </c>
       <c r="B557" s="2">
-        <v>44075</v>
+        <v>44076</v>
       </c>
       <c r="C557">
-        <v>52390</v>
+        <v>51935</v>
       </c>
       <c r="D557" t="s">
         <v>3</v>
@@ -8193,10 +8193,10 @@
         <v>556</v>
       </c>
       <c r="B558" s="2">
-        <v>44071</v>
+        <v>44075</v>
       </c>
       <c r="C558">
-        <v>51800</v>
+        <v>52390</v>
       </c>
       <c r="D558" t="s">
         <v>3</v>
@@ -8207,10 +8207,10 @@
         <v>557</v>
       </c>
       <c r="B559" s="2">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="C559">
-        <v>51420</v>
+        <v>51800</v>
       </c>
       <c r="D559" t="s">
         <v>3</v>
@@ -8221,10 +8221,10 @@
         <v>558</v>
       </c>
       <c r="B560" s="2">
-        <v>44069</v>
+        <v>44070</v>
       </c>
       <c r="C560">
-        <v>51380</v>
+        <v>51420</v>
       </c>
       <c r="D560" t="s">
         <v>3</v>
@@ -8235,10 +8235,10 @@
         <v>559</v>
       </c>
       <c r="B561" s="2">
-        <v>44068</v>
+        <v>44069</v>
       </c>
       <c r="C561">
-        <v>51370</v>
+        <v>51380</v>
       </c>
       <c r="D561" t="s">
         <v>3</v>
@@ -8249,10 +8249,10 @@
         <v>560</v>
       </c>
       <c r="B562" s="2">
-        <v>44064</v>
+        <v>44068</v>
       </c>
       <c r="C562">
-        <v>52065</v>
+        <v>51370</v>
       </c>
       <c r="D562" t="s">
         <v>3</v>
@@ -8263,10 +8263,10 @@
         <v>561</v>
       </c>
       <c r="B563" s="2">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="C563">
-        <v>52200</v>
+        <v>52065</v>
       </c>
       <c r="D563" t="s">
         <v>3</v>
@@ -8277,10 +8277,10 @@
         <v>562</v>
       </c>
       <c r="B564" s="2">
-        <v>44062</v>
+        <v>44063</v>
       </c>
       <c r="C564">
-        <v>52300</v>
+        <v>52200</v>
       </c>
       <c r="D564" t="s">
         <v>3</v>
@@ -8291,10 +8291,10 @@
         <v>563</v>
       </c>
       <c r="B565" s="2">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="C565">
-        <v>51135</v>
+        <v>52300</v>
       </c>
       <c r="D565" t="s">
         <v>3</v>
@@ -8305,10 +8305,10 @@
         <v>564</v>
       </c>
       <c r="B566" s="2">
-        <v>44057</v>
+        <v>44061</v>
       </c>
       <c r="C566">
-        <v>50040</v>
+        <v>51135</v>
       </c>
       <c r="D566" t="s">
         <v>3</v>
@@ -8319,10 +8319,10 @@
         <v>565</v>
       </c>
       <c r="B567" s="2">
-        <v>44056</v>
+        <v>44057</v>
       </c>
       <c r="C567">
-        <v>50530</v>
+        <v>50040</v>
       </c>
       <c r="D567" t="s">
         <v>3</v>
@@ -8333,10 +8333,10 @@
         <v>566</v>
       </c>
       <c r="B568" s="2">
-        <v>44055</v>
+        <v>44056</v>
       </c>
       <c r="C568">
-        <v>49980</v>
+        <v>50530</v>
       </c>
       <c r="D568" t="s">
         <v>3</v>
@@ -8347,10 +8347,10 @@
         <v>567</v>
       </c>
       <c r="B569" s="2">
-        <v>44054</v>
+        <v>44055</v>
       </c>
       <c r="C569">
-        <v>50790</v>
+        <v>49980</v>
       </c>
       <c r="D569" t="s">
         <v>3</v>
@@ -8361,10 +8361,10 @@
         <v>568</v>
       </c>
       <c r="B570" s="2">
-        <v>44050</v>
+        <v>44054</v>
       </c>
       <c r="C570">
-        <v>51440</v>
+        <v>50790</v>
       </c>
       <c r="D570" t="s">
         <v>3</v>
@@ -8375,10 +8375,10 @@
         <v>569</v>
       </c>
       <c r="B571" s="2">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="C571">
-        <v>51385</v>
+        <v>51440</v>
       </c>
       <c r="D571" t="s">
         <v>3</v>
@@ -8389,10 +8389,10 @@
         <v>570</v>
       </c>
       <c r="B572" s="2">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="C572">
-        <v>51370</v>
+        <v>51385</v>
       </c>
       <c r="D572" t="s">
         <v>3</v>
@@ -8403,10 +8403,10 @@
         <v>571</v>
       </c>
       <c r="B573" s="2">
-        <v>44047</v>
+        <v>44048</v>
       </c>
       <c r="C573">
-        <v>51675</v>
+        <v>51370</v>
       </c>
       <c r="D573" t="s">
         <v>3</v>
@@ -8417,10 +8417,10 @@
         <v>572</v>
       </c>
       <c r="B574" s="2">
-        <v>44043</v>
+        <v>44047</v>
       </c>
       <c r="C574">
-        <v>51850</v>
+        <v>51675</v>
       </c>
       <c r="D574" t="s">
         <v>3</v>
@@ -8431,10 +8431,10 @@
         <v>573</v>
       </c>
       <c r="B575" s="2">
-        <v>44042</v>
+        <v>44043</v>
       </c>
       <c r="C575">
-        <v>51890</v>
+        <v>51850</v>
       </c>
       <c r="D575" t="s">
         <v>3</v>
@@ -8445,10 +8445,10 @@
         <v>574</v>
       </c>
       <c r="B576" s="2">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="C576">
-        <v>51830</v>
+        <v>51890</v>
       </c>
       <c r="D576" t="s">
         <v>3</v>
@@ -8459,10 +8459,10 @@
         <v>575</v>
       </c>
       <c r="B577" s="2">
-        <v>44040</v>
+        <v>44041</v>
       </c>
       <c r="C577">
-        <v>51850</v>
+        <v>51830</v>
       </c>
       <c r="D577" t="s">
         <v>3</v>
@@ -8473,10 +8473,10 @@
         <v>576</v>
       </c>
       <c r="B578" s="2">
-        <v>44036</v>
+        <v>44040</v>
       </c>
       <c r="C578">
-        <v>51930</v>
+        <v>51850</v>
       </c>
       <c r="D578" t="s">
         <v>3</v>
@@ -8487,10 +8487,10 @@
         <v>577</v>
       </c>
       <c r="B579" s="2">
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="C579">
-        <v>51875</v>
+        <v>51930</v>
       </c>
       <c r="D579" t="s">
         <v>3</v>
@@ -8501,10 +8501,10 @@
         <v>578</v>
       </c>
       <c r="B580" s="2">
-        <v>44034</v>
+        <v>44035</v>
       </c>
       <c r="C580">
-        <v>52600</v>
+        <v>51875</v>
       </c>
       <c r="D580" t="s">
         <v>3</v>
@@ -8515,10 +8515,10 @@
         <v>579</v>
       </c>
       <c r="B581" s="2">
-        <v>44033</v>
+        <v>44034</v>
       </c>
       <c r="C581">
-        <v>51935</v>
+        <v>52600</v>
       </c>
       <c r="D581" t="s">
         <v>3</v>
@@ -8529,10 +8529,10 @@
         <v>580</v>
       </c>
       <c r="B582" s="2">
-        <v>44029</v>
+        <v>44033</v>
       </c>
       <c r="C582">
-        <v>51685</v>
+        <v>51935</v>
       </c>
       <c r="D582" t="s">
         <v>3</v>
@@ -8543,10 +8543,10 @@
         <v>581</v>
       </c>
       <c r="B583" s="2">
-        <v>44028</v>
+        <v>44029</v>
       </c>
       <c r="C583">
-        <v>51240</v>
+        <v>51685</v>
       </c>
       <c r="D583" t="s">
         <v>3</v>
@@ -8557,10 +8557,10 @@
         <v>582</v>
       </c>
       <c r="B584" s="2">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="C584">
-        <v>52435</v>
+        <v>51240</v>
       </c>
       <c r="D584" t="s">
         <v>3</v>
@@ -8571,10 +8571,10 @@
         <v>583</v>
       </c>
       <c r="B585" s="2">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="C585">
-        <v>52150</v>
+        <v>52435</v>
       </c>
       <c r="D585" t="s">
         <v>3</v>
@@ -8585,10 +8585,10 @@
         <v>584</v>
       </c>
       <c r="B586" s="2">
-        <v>44022</v>
+        <v>44026</v>
       </c>
       <c r="C586">
-        <v>50600</v>
+        <v>52150</v>
       </c>
       <c r="D586" t="s">
         <v>3</v>
@@ -8599,10 +8599,10 @@
         <v>585</v>
       </c>
       <c r="B587" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="C587">
-        <v>50575</v>
+        <v>50600</v>
       </c>
       <c r="D587" t="s">
         <v>3</v>
@@ -8613,10 +8613,10 @@
         <v>586</v>
       </c>
       <c r="B588" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="C588">
-        <v>49845</v>
+        <v>50575</v>
       </c>
       <c r="D588" t="s">
         <v>3</v>
@@ -8627,10 +8627,10 @@
         <v>587</v>
       </c>
       <c r="B589" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="C589">
-        <v>49610</v>
+        <v>49845</v>
       </c>
       <c r="D589" t="s">
         <v>3</v>
@@ -8641,10 +8641,10 @@
         <v>588</v>
       </c>
       <c r="B590" s="2">
-        <v>44015</v>
+        <v>44019</v>
       </c>
       <c r="C590">
-        <v>49260</v>
+        <v>49610</v>
       </c>
       <c r="D590" t="s">
         <v>3</v>
@@ -8655,10 +8655,10 @@
         <v>589</v>
       </c>
       <c r="B591" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="C591">
-        <v>49460</v>
+        <v>49260</v>
       </c>
       <c r="D591" t="s">
         <v>3</v>
@@ -8669,10 +8669,10 @@
         <v>590</v>
       </c>
       <c r="B592" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="C592">
-        <v>49450</v>
+        <v>49460</v>
       </c>
       <c r="D592" t="s">
         <v>3</v>
@@ -8683,10 +8683,10 @@
         <v>591</v>
       </c>
       <c r="B593" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="C593">
-        <v>48930</v>
+        <v>49450</v>
       </c>
       <c r="D593" t="s">
         <v>3</v>
@@ -8697,10 +8697,10 @@
         <v>592</v>
       </c>
       <c r="B594" s="2">
-        <v>44006</v>
+        <v>44012</v>
       </c>
       <c r="C594">
-        <v>48160</v>
+        <v>48930</v>
       </c>
       <c r="D594" t="s">
         <v>3</v>
@@ -8711,10 +8711,10 @@
         <v>593</v>
       </c>
       <c r="B595" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="C595">
-        <v>47880</v>
+        <v>48160</v>
       </c>
       <c r="D595" t="s">
         <v>3</v>
@@ -8725,10 +8725,10 @@
         <v>594</v>
       </c>
       <c r="B596" s="2">
-        <v>44001</v>
+        <v>44005</v>
       </c>
       <c r="C596">
-        <v>47475</v>
+        <v>47880</v>
       </c>
       <c r="D596" t="s">
         <v>3</v>
@@ -8739,10 +8739,10 @@
         <v>595</v>
       </c>
       <c r="B597" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="C597">
-        <v>47110</v>
+        <v>47475</v>
       </c>
       <c r="D597" t="s">
         <v>3</v>
@@ -8753,10 +8753,10 @@
         <v>596</v>
       </c>
       <c r="B598" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="C598">
-        <v>46910</v>
+        <v>47110</v>
       </c>
       <c r="D598" t="s">
         <v>3</v>
@@ -8767,10 +8767,10 @@
         <v>597</v>
       </c>
       <c r="B599" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="C599">
-        <v>47080</v>
+        <v>46910</v>
       </c>
       <c r="D599" t="s">
         <v>3</v>
@@ -8781,10 +8781,10 @@
         <v>598</v>
       </c>
       <c r="B600" s="2">
-        <v>43994</v>
+        <v>43998</v>
       </c>
       <c r="C600">
-        <v>46760</v>
+        <v>47080</v>
       </c>
       <c r="D600" t="s">
         <v>3</v>
@@ -8795,10 +8795,10 @@
         <v>599</v>
       </c>
       <c r="B601" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="C601">
-        <v>47425</v>
+        <v>46760</v>
       </c>
       <c r="D601" t="s">
         <v>3</v>
@@ -8809,10 +8809,10 @@
         <v>600</v>
       </c>
       <c r="B602" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="C602">
-        <v>46855</v>
+        <v>47425</v>
       </c>
       <c r="D602" t="s">
         <v>3</v>
@@ -8823,10 +8823,10 @@
         <v>601</v>
       </c>
       <c r="B603" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="C603">
-        <v>46355</v>
+        <v>46855</v>
       </c>
       <c r="D603" t="s">
         <v>3</v>
@@ -8837,10 +8837,10 @@
         <v>602</v>
       </c>
       <c r="B604" s="2">
-        <v>43987</v>
+        <v>43991</v>
       </c>
       <c r="C604">
-        <v>44990</v>
+        <v>46355</v>
       </c>
       <c r="D604" t="s">
         <v>3</v>
@@ -8851,10 +8851,10 @@
         <v>603</v>
       </c>
       <c r="B605" s="2">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="C605">
-        <v>44850</v>
+        <v>44990</v>
       </c>
       <c r="D605" t="s">
         <v>3</v>
@@ -8865,10 +8865,10 @@
         <v>604</v>
       </c>
       <c r="B606" s="2">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="C606">
-        <v>45110</v>
+        <v>44850</v>
       </c>
       <c r="D606" t="s">
         <v>3</v>
@@ -8879,10 +8879,10 @@
         <v>605</v>
       </c>
       <c r="B607" s="2">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="C607">
-        <v>44895</v>
+        <v>45110</v>
       </c>
       <c r="D607" t="s">
         <v>3</v>
@@ -8893,10 +8893,10 @@
         <v>606</v>
       </c>
       <c r="B608" s="2">
-        <v>43980</v>
+        <v>43984</v>
       </c>
       <c r="C608">
-        <v>44135</v>
+        <v>44895</v>
       </c>
       <c r="D608" t="s">
         <v>3</v>
@@ -8907,10 +8907,10 @@
         <v>607</v>
       </c>
       <c r="B609" s="2">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="C609">
-        <v>44030</v>
+        <v>44135</v>
       </c>
       <c r="D609" t="s">
         <v>3</v>
@@ -8921,10 +8921,10 @@
         <v>608</v>
       </c>
       <c r="B610" s="2">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="C610">
-        <v>44170</v>
+        <v>44030</v>
       </c>
       <c r="D610" t="s">
         <v>3</v>
@@ -8935,10 +8935,10 @@
         <v>609</v>
       </c>
       <c r="B611" s="2">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="C611">
-        <v>44030</v>
+        <v>44170</v>
       </c>
       <c r="D611" t="s">
         <v>3</v>
@@ -8949,10 +8949,10 @@
         <v>610</v>
       </c>
       <c r="B612" s="2">
-        <v>43973</v>
+        <v>43977</v>
       </c>
       <c r="C612">
-        <v>43770</v>
+        <v>44030</v>
       </c>
       <c r="D612" t="s">
         <v>3</v>
@@ -8963,10 +8963,10 @@
         <v>611</v>
       </c>
       <c r="B613" s="2">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="C613">
-        <v>44620</v>
+        <v>43770</v>
       </c>
       <c r="D613" t="s">
         <v>3</v>
@@ -8977,10 +8977,10 @@
         <v>612</v>
       </c>
       <c r="B614" s="2">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="C614">
-        <v>44040</v>
+        <v>44620</v>
       </c>
       <c r="D614" t="s">
         <v>3</v>
@@ -8991,10 +8991,10 @@
         <v>613</v>
       </c>
       <c r="B615" s="2">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="C615">
-        <v>43995</v>
+        <v>44040</v>
       </c>
       <c r="D615" t="s">
         <v>3</v>
@@ -9005,10 +9005,10 @@
         <v>614</v>
       </c>
       <c r="B616" s="2">
-        <v>43966</v>
+        <v>43970</v>
       </c>
       <c r="C616">
-        <v>43325</v>
+        <v>43995</v>
       </c>
       <c r="D616" t="s">
         <v>3</v>
@@ -9019,10 +9019,10 @@
         <v>615</v>
       </c>
       <c r="B617" s="2">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="C617">
-        <v>43150</v>
+        <v>43325</v>
       </c>
       <c r="D617" t="s">
         <v>3</v>
@@ -9033,10 +9033,10 @@
         <v>616</v>
       </c>
       <c r="B618" s="2">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="C618">
-        <v>43080</v>
+        <v>43150</v>
       </c>
       <c r="D618" t="s">
         <v>3</v>
@@ -9047,10 +9047,10 @@
         <v>617</v>
       </c>
       <c r="B619" s="2">
-        <v>43959</v>
+        <v>43964</v>
       </c>
       <c r="C619">
-        <v>43600</v>
+        <v>43080</v>
       </c>
       <c r="D619" t="s">
         <v>3</v>
@@ -9061,10 +9061,10 @@
         <v>618</v>
       </c>
       <c r="B620" s="2">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="C620">
-        <v>43030</v>
+        <v>43600</v>
       </c>
       <c r="D620" t="s">
         <v>3</v>
@@ -9075,7 +9075,7 @@
         <v>619</v>
       </c>
       <c r="B621" s="2">
-        <v>43951</v>
+        <v>43958</v>
       </c>
       <c r="C621">
         <v>43030</v>
@@ -9089,10 +9089,10 @@
         <v>620</v>
       </c>
       <c r="B622" s="2">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C622">
-        <v>42810</v>
+        <v>43030</v>
       </c>
       <c r="D622" t="s">
         <v>3</v>
@@ -9103,10 +9103,10 @@
         <v>621</v>
       </c>
       <c r="B623" s="2">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="C623">
-        <v>42480</v>
+        <v>42810</v>
       </c>
       <c r="D623" t="s">
         <v>3</v>
@@ -9117,10 +9117,10 @@
         <v>622</v>
       </c>
       <c r="B624" s="2">
-        <v>43945</v>
+        <v>43949</v>
       </c>
       <c r="C624">
-        <v>42120</v>
+        <v>42480</v>
       </c>
       <c r="D624" t="s">
         <v>3</v>
@@ -9131,10 +9131,10 @@
         <v>623</v>
       </c>
       <c r="B625" s="2">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="C625">
-        <v>41980</v>
+        <v>42120</v>
       </c>
       <c r="D625" t="s">
         <v>3</v>
@@ -9145,10 +9145,10 @@
         <v>624</v>
       </c>
       <c r="B626" s="2">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="C626">
-        <v>40995</v>
+        <v>41980</v>
       </c>
       <c r="D626" t="s">
         <v>3</v>
@@ -9159,10 +9159,10 @@
         <v>625</v>
       </c>
       <c r="B627" s="2">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="C627">
-        <v>42060</v>
+        <v>40995</v>
       </c>
       <c r="D627" t="s">
         <v>3</v>
@@ -9173,10 +9173,10 @@
         <v>626</v>
       </c>
       <c r="B628" s="2">
-        <v>43938</v>
+        <v>43942</v>
       </c>
       <c r="C628">
-        <v>42470</v>
+        <v>42060</v>
       </c>
       <c r="D628" t="s">
         <v>3</v>
@@ -9187,10 +9187,10 @@
         <v>627</v>
       </c>
       <c r="B629" s="2">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="C629">
-        <v>41775</v>
+        <v>42470</v>
       </c>
       <c r="D629" t="s">
         <v>3</v>
@@ -9201,10 +9201,10 @@
         <v>628</v>
       </c>
       <c r="B630" s="2">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="C630">
-        <v>41860</v>
+        <v>41775</v>
       </c>
       <c r="D630" t="s">
         <v>3</v>
@@ -9215,10 +9215,10 @@
         <v>629</v>
       </c>
       <c r="B631" s="2">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="C631">
-        <v>41970</v>
+        <v>41860</v>
       </c>
       <c r="D631" t="s">
         <v>3</v>
@@ -9229,10 +9229,10 @@
         <v>630</v>
       </c>
       <c r="B632" s="2">
-        <v>43931</v>
+        <v>43935</v>
       </c>
       <c r="C632">
-        <v>40990</v>
+        <v>41970</v>
       </c>
       <c r="D632" t="s">
         <v>3</v>
@@ -9243,10 +9243,10 @@
         <v>631</v>
       </c>
       <c r="B633" s="2">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="C633">
-        <v>40950</v>
+        <v>40990</v>
       </c>
       <c r="D633" t="s">
         <v>3</v>
@@ -9257,10 +9257,10 @@
         <v>632</v>
       </c>
       <c r="B634" s="2">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="C634">
-        <v>40765</v>
+        <v>40950</v>
       </c>
       <c r="D634" t="s">
         <v>3</v>
@@ -9271,10 +9271,10 @@
         <v>633</v>
       </c>
       <c r="B635" s="2">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="C635">
-        <v>40840</v>
+        <v>40765</v>
       </c>
       <c r="D635" t="s">
         <v>3</v>
@@ -9285,10 +9285,10 @@
         <v>634</v>
       </c>
       <c r="B636" s="2">
-        <v>43917</v>
+        <v>43928</v>
       </c>
       <c r="C636">
-        <v>38865</v>
+        <v>40840</v>
       </c>
       <c r="D636" t="s">
         <v>3</v>
@@ -9299,10 +9299,10 @@
         <v>635</v>
       </c>
       <c r="B637" s="2">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="C637">
-        <v>38970</v>
+        <v>38865</v>
       </c>
       <c r="D637" t="s">
         <v>3</v>
@@ -9313,10 +9313,10 @@
         <v>636</v>
       </c>
       <c r="B638" s="2">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="C638">
-        <v>38750</v>
+        <v>38970</v>
       </c>
       <c r="D638" t="s">
         <v>3</v>
@@ -9327,10 +9327,10 @@
         <v>637</v>
       </c>
       <c r="B639" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="C639">
-        <v>37890</v>
+        <v>38750</v>
       </c>
       <c r="D639" t="s">
         <v>3</v>
@@ -9341,10 +9341,10 @@
         <v>638</v>
       </c>
       <c r="B640" s="2">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="C640">
-        <v>38290</v>
+        <v>37890</v>
       </c>
       <c r="D640" t="s">
         <v>3</v>
@@ -9355,10 +9355,10 @@
         <v>639</v>
       </c>
       <c r="B641" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="C641">
-        <v>37545</v>
+        <v>38290</v>
       </c>
       <c r="D641" t="s">
         <v>3</v>
@@ -9369,10 +9369,10 @@
         <v>640</v>
       </c>
       <c r="B642" s="2">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="C642">
-        <v>41400</v>
+        <v>37545</v>
       </c>
       <c r="D642" t="s">
         <v>3</v>
@@ -9383,10 +9383,10 @@
         <v>641</v>
       </c>
       <c r="B643" s="2">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="C643">
-        <v>42145</v>
+        <v>41400</v>
       </c>
       <c r="D643" t="s">
         <v>3</v>
@@ -9397,10 +9397,10 @@
         <v>642</v>
       </c>
       <c r="B644" s="2">
-        <v>43903</v>
+        <v>43907</v>
       </c>
       <c r="C644">
-        <v>42755</v>
+        <v>42145</v>
       </c>
       <c r="D644" t="s">
         <v>3</v>
@@ -9411,10 +9411,10 @@
         <v>643</v>
       </c>
       <c r="B645" s="2">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="C645">
-        <v>43185</v>
+        <v>42755</v>
       </c>
       <c r="D645" t="s">
         <v>3</v>
@@ -9425,10 +9425,10 @@
         <v>644</v>
       </c>
       <c r="B646" s="2">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="C646">
-        <v>44280</v>
+        <v>43185</v>
       </c>
       <c r="D646" t="s">
         <v>3</v>
@@ -9439,10 +9439,10 @@
         <v>645</v>
       </c>
       <c r="B647" s="2">
-        <v>43896</v>
+        <v>43901</v>
       </c>
       <c r="C647">
-        <v>44725</v>
+        <v>44280</v>
       </c>
       <c r="D647" t="s">
         <v>3</v>
@@ -9453,10 +9453,10 @@
         <v>646</v>
       </c>
       <c r="B648" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="C648">
-        <v>45055</v>
+        <v>44725</v>
       </c>
       <c r="D648" t="s">
         <v>3</v>
@@ -9467,10 +9467,10 @@
         <v>647</v>
       </c>
       <c r="B649" s="2">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="C649">
-        <v>45005</v>
+        <v>45055</v>
       </c>
       <c r="D649" t="s">
         <v>3</v>
@@ -9481,10 +9481,10 @@
         <v>648</v>
       </c>
       <c r="B650" s="2">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="C650">
-        <v>45345</v>
+        <v>45005</v>
       </c>
       <c r="D650" t="s">
         <v>3</v>
@@ -9495,10 +9495,10 @@
         <v>649</v>
       </c>
       <c r="B651" s="2">
-        <v>43889</v>
+        <v>43893</v>
       </c>
       <c r="C651">
-        <v>44630</v>
+        <v>45345</v>
       </c>
       <c r="D651" t="s">
         <v>3</v>
@@ -9509,10 +9509,10 @@
         <v>650</v>
       </c>
       <c r="B652" s="2">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="C652">
-        <v>45190</v>
+        <v>44630</v>
       </c>
       <c r="D652" t="s">
         <v>3</v>
@@ -9523,10 +9523,10 @@
         <v>651</v>
       </c>
       <c r="B653" s="2">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="C653">
-        <v>45360</v>
+        <v>45190</v>
       </c>
       <c r="D653" t="s">
         <v>3</v>
@@ -9537,10 +9537,10 @@
         <v>652</v>
       </c>
       <c r="B654" s="2">
-        <v>43882</v>
+        <v>43887</v>
       </c>
       <c r="C654">
-        <v>45910</v>
+        <v>45360</v>
       </c>
       <c r="D654" t="s">
         <v>3</v>
@@ -9551,10 +9551,10 @@
         <v>653</v>
       </c>
       <c r="B655" s="2">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="C655">
-        <v>46010</v>
+        <v>45910</v>
       </c>
       <c r="D655" t="s">
         <v>3</v>
@@ -9565,10 +9565,10 @@
         <v>654</v>
       </c>
       <c r="B656" s="2">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="C656">
-        <v>45990</v>
+        <v>46010</v>
       </c>
       <c r="D656" t="s">
         <v>3</v>
@@ -9579,10 +9579,10 @@
         <v>655</v>
       </c>
       <c r="B657" s="2">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="C657">
-        <v>45955</v>
+        <v>45990</v>
       </c>
       <c r="D657" t="s">
         <v>3</v>
@@ -9593,10 +9593,10 @@
         <v>656</v>
       </c>
       <c r="B658" s="2">
-        <v>43875</v>
+        <v>43879</v>
       </c>
       <c r="C658">
-        <v>45655</v>
+        <v>45955</v>
       </c>
       <c r="D658" t="s">
         <v>3</v>
@@ -9607,10 +9607,10 @@
         <v>657</v>
       </c>
       <c r="B659" s="2">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="C659">
-        <v>45490</v>
+        <v>45655</v>
       </c>
       <c r="D659" t="s">
         <v>3</v>
@@ -9621,10 +9621,10 @@
         <v>658</v>
       </c>
       <c r="B660" s="2">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="C660">
-        <v>45385</v>
+        <v>45490</v>
       </c>
       <c r="D660" t="s">
         <v>3</v>
@@ -9635,10 +9635,10 @@
         <v>659</v>
       </c>
       <c r="B661" s="2">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="C661">
-        <v>45370</v>
+        <v>45385</v>
       </c>
       <c r="D661" t="s">
         <v>3</v>
@@ -9649,10 +9649,10 @@
         <v>660</v>
       </c>
       <c r="B662" s="2">
-        <v>43868</v>
+        <v>43872</v>
       </c>
       <c r="C662">
-        <v>45590</v>
+        <v>45370</v>
       </c>
       <c r="D662" t="s">
         <v>3</v>
@@ -9663,10 +9663,10 @@
         <v>661</v>
       </c>
       <c r="B663" s="2">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="C663">
-        <v>45795</v>
+        <v>45590</v>
       </c>
       <c r="D663" t="s">
         <v>3</v>
@@ -9677,10 +9677,10 @@
         <v>662</v>
       </c>
       <c r="B664" s="2">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="C664">
-        <v>45230</v>
+        <v>45795</v>
       </c>
       <c r="D664" t="s">
         <v>3</v>
@@ -9691,10 +9691,10 @@
         <v>663</v>
       </c>
       <c r="B665" s="2">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="C665">
-        <v>44940</v>
+        <v>45230</v>
       </c>
       <c r="D665" t="s">
         <v>3</v>
@@ -9705,10 +9705,10 @@
         <v>664</v>
       </c>
       <c r="B666" s="2">
-        <v>43853</v>
+        <v>43865</v>
       </c>
       <c r="C666">
-        <v>47995</v>
+        <v>44940</v>
       </c>
       <c r="D666" t="s">
         <v>3</v>
@@ -9719,10 +9719,10 @@
         <v>665</v>
       </c>
       <c r="B667" s="2">
-        <v>43852</v>
+        <v>43853</v>
       </c>
       <c r="C667">
-        <v>48235</v>
+        <v>47995</v>
       </c>
       <c r="D667" t="s">
         <v>3</v>
@@ -9733,10 +9733,10 @@
         <v>666</v>
       </c>
       <c r="B668" s="2">
-        <v>43851</v>
+        <v>43852</v>
       </c>
       <c r="C668">
-        <v>48425</v>
+        <v>48235</v>
       </c>
       <c r="D668" t="s">
         <v>3</v>
@@ -9747,10 +9747,10 @@
         <v>667</v>
       </c>
       <c r="B669" s="2">
-        <v>43847</v>
+        <v>43851</v>
       </c>
       <c r="C669">
-        <v>48930</v>
+        <v>48425</v>
       </c>
       <c r="D669" t="s">
         <v>3</v>
@@ -9761,10 +9761,10 @@
         <v>668</v>
       </c>
       <c r="B670" s="2">
-        <v>43846</v>
+        <v>43847</v>
       </c>
       <c r="C670">
-        <v>48950</v>
+        <v>48930</v>
       </c>
       <c r="D670" t="s">
         <v>3</v>
@@ -9775,10 +9775,10 @@
         <v>669</v>
       </c>
       <c r="B671" s="2">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="C671">
-        <v>49060</v>
+        <v>48950</v>
       </c>
       <c r="D671" t="s">
         <v>3</v>
@@ -9789,10 +9789,10 @@
         <v>670</v>
       </c>
       <c r="B672" s="2">
-        <v>43844</v>
+        <v>43845</v>
       </c>
       <c r="C672">
-        <v>48990</v>
+        <v>49060</v>
       </c>
       <c r="D672" t="s">
         <v>3</v>
@@ -9803,12 +9803,26 @@
         <v>671</v>
       </c>
       <c r="B673" s="2">
+        <v>43844</v>
+      </c>
+      <c r="C673">
+        <v>48990</v>
+      </c>
+      <c r="D673" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4">
+      <c r="A674" s="1">
+        <v>672</v>
+      </c>
+      <c r="B674" s="2">
         <v>43840</v>
       </c>
-      <c r="C673">
+      <c r="C674">
         <v>48605</v>
       </c>
-      <c r="D673" t="s">
+      <c r="D674" t="s">
         <v>3</v>
       </c>
     </row>

--- a/LME/parser_beta/data/shmet_historical.xlsx
+++ b/LME/parser_beta/data/shmet_historical.xlsx
@@ -420,7 +420,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>45159</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>45156</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>45155</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>45154</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>45153</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>45152</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>45149</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>45148</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>45147</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>45146</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>45145</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>45142</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>45141</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>45140</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>45139</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>45138</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>45135</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>45134</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>45133</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>45132</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>45128</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>45127</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
         <v>45126</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
         <v>45125</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
         <v>45121</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>45120</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
         <v>45119</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
         <v>45118</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
         <v>45114</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
         <v>45113</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2">
         <v>45112</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2">
         <v>45111</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2">
         <v>45107</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2">
         <v>45106</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
         <v>45105</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2">
         <v>45104</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
         <v>45098</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2">
         <v>45097</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2">
         <v>45093</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2">
         <v>45092</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2">
         <v>45091</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2">
         <v>45086</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2">
         <v>45085</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2">
         <v>45084</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2">
         <v>45083</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2">
         <v>45079</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2">
         <v>45078</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2">
         <v>45077</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2">
         <v>45076</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2">
         <v>45072</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2">
         <v>45071</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2">
         <v>45070</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2">
         <v>45069</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2">
         <v>45065</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2">
         <v>45064</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2">
         <v>45063</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2">
         <v>45062</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2">
         <v>45058</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2">
         <v>45057</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2">
         <v>45051</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2">
         <v>45050</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2">
         <v>45044</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2">
         <v>45043</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2">
         <v>45042</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2">
         <v>45041</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2">
         <v>45037</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2">
         <v>45036</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2">
         <v>45035</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2">
         <v>45034</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2">
         <v>45030</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2">
         <v>45029</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2">
         <v>45028</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2">
         <v>45027</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2">
         <v>45023</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2">
         <v>45022</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2">
         <v>45020</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2">
         <v>45016</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2">
         <v>45015</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2">
         <v>45014</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2">
         <v>45013</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2">
         <v>45009</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2">
         <v>45008</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2">
         <v>45007</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2">
         <v>45006</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2">
         <v>45002</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2">
         <v>45001</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2">
         <v>45000</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2">
         <v>44999</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2">
         <v>44995</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2">
         <v>44993</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2">
         <v>44992</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2">
         <v>44988</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2">
         <v>44987</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2">
         <v>44986</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2">
         <v>44985</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2">
         <v>44980</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2">
         <v>44979</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2">
         <v>44978</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2">
         <v>44974</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2">
         <v>44973</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2">
         <v>44972</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2">
         <v>44971</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2">
         <v>44967</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2">
         <v>44966</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2">
         <v>44965</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2">
         <v>44964</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2">
         <v>44960</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2">
         <v>44959</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2">
         <v>44958</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2">
         <v>44957</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2">
         <v>44946</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2">
         <v>44945</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2">
         <v>44944</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2">
         <v>44943</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2">
         <v>44939</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2">
         <v>44938</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2">
         <v>44937</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2">
         <v>44936</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2">
         <v>44925</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" s="2">
         <v>44924</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2">
         <v>44923</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2">
         <v>44922</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2">
         <v>44918</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" s="2">
         <v>44917</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" s="2">
         <v>44916</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2">
         <v>44915</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" s="2">
         <v>44911</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2">
         <v>44910</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131" s="2">
         <v>44909</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2">
         <v>44908</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2">
         <v>44904</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2">
         <v>44903</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2">
         <v>44902</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2">
         <v>44901</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" s="2">
         <v>44897</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2">
         <v>44896</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="2">
         <v>44895</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" s="2">
         <v>44894</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" s="2">
         <v>44890</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142" s="2">
         <v>44889</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143" s="2">
         <v>44888</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2">
         <v>44887</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145" s="2">
         <v>44883</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146" s="2">
         <v>44882</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B147" s="2">
         <v>44881</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148" s="2">
         <v>44880</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B149" s="2">
         <v>44876</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150" s="2">
         <v>44875</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" s="2">
         <v>44874</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B152" s="2">
         <v>44873</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B153" s="2">
         <v>44869</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" s="2">
         <v>44868</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B155" s="2">
         <v>44867</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B156" s="2">
         <v>44866</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B157" s="2">
         <v>44862</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158" s="2">
         <v>44861</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B159" s="2">
         <v>44860</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B160" s="2">
         <v>44859</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B161" s="2">
         <v>44855</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B162" s="2">
         <v>44854</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B163" s="2">
         <v>44853</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164" s="2">
         <v>44852</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B165" s="2">
         <v>44848</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B166" s="2">
         <v>44847</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B167" s="2">
         <v>44846</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B168" s="2">
         <v>44845</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B169" s="2">
         <v>44834</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B170" s="2">
         <v>44833</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B171" s="2">
         <v>44832</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B172" s="2">
         <v>44831</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B173" s="2">
         <v>44827</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B174" s="2">
         <v>44826</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B175" s="2">
         <v>44825</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B176" s="2">
         <v>44824</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B177" s="2">
         <v>44820</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="1">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B178" s="2">
         <v>44819</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="1">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B179" s="2">
         <v>44818</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B180" s="2">
         <v>44817</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B181" s="2">
         <v>44813</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B182" s="2">
         <v>44812</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B183" s="2">
         <v>44811</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B184" s="2">
         <v>44810</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B185" s="2">
         <v>44806</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B186" s="2">
         <v>44805</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B187" s="2">
         <v>44804</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B188" s="2">
         <v>44803</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B189" s="2">
         <v>44799</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B190" s="2">
         <v>44798</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B191" s="2">
         <v>44797</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B192" s="2">
         <v>44796</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="1">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B193" s="2">
         <v>44792</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="1">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B194" s="2">
         <v>44791</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B195" s="2">
         <v>44790</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="1">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B196" s="2">
         <v>44789</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="1">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B197" s="2">
         <v>44785</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B198" s="2">
         <v>44784</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B199" s="2">
         <v>44783</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="1">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B200" s="2">
         <v>44782</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B201" s="2">
         <v>44778</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B202" s="2">
         <v>44777</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B203" s="2">
         <v>44776</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="1">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B204" s="2">
         <v>44775</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B205" s="2">
         <v>44771</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B206" s="2">
         <v>44770</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="1">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B207" s="2">
         <v>44769</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B208" s="2">
         <v>44768</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="1">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B209" s="2">
         <v>44764</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="1">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B210" s="2">
         <v>44763</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B211" s="2">
         <v>44762</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="1">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B212" s="2">
         <v>44761</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="1">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B213" s="2">
         <v>44757</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="1">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B214" s="2">
         <v>44756</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="1">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B215" s="2">
         <v>44755</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="1">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B216" s="2">
         <v>44754</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="1">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B217" s="2">
         <v>44750</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="1">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B218" s="2">
         <v>44749</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="1">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B219" s="2">
         <v>44748</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="1">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B220" s="2">
         <v>44747</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="1">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B221" s="2">
         <v>44743</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="1">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B222" s="2">
         <v>44742</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="1">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B223" s="2">
         <v>44741</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B224" s="2">
         <v>44740</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="1">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B225" s="2">
         <v>44736</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="1">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B226" s="2">
         <v>44735</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B227" s="2">
         <v>44734</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="1">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B228" s="2">
         <v>44733</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="1">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B229" s="2">
         <v>44729</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="1">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B230" s="2">
         <v>44728</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="1">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B231" s="2">
         <v>44727</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="1">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B232" s="2">
         <v>44722</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="1">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B233" s="2">
         <v>44721</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="1">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B234" s="2">
         <v>44720</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B235" s="2">
         <v>44719</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B236" s="2">
         <v>44714</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B237" s="2">
         <v>44713</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="1">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B238" s="2">
         <v>44712</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B239" s="2">
         <v>44708</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="1">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B240" s="2">
         <v>44707</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="1">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B241" s="2">
         <v>44706</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B242" s="2">
         <v>44705</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B243" s="2">
         <v>44701</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="1">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B244" s="2">
         <v>44700</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="1">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B245" s="2">
         <v>44699</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="1">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B246" s="2">
         <v>44698</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="1">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B247" s="2">
         <v>44694</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="1">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B248" s="2">
         <v>44693</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="1">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B249" s="2">
         <v>44687</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="1">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B250" s="2">
         <v>44686</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="1">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B251" s="2">
         <v>44680</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B252" s="2">
         <v>44679</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="1">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B253" s="2">
         <v>44678</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="1">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B254" s="2">
         <v>44677</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="1">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B255" s="2">
         <v>44673</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="1">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B256" s="2">
         <v>44672</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="1">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B257" s="2">
         <v>44671</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="1">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B258" s="2">
         <v>44670</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="1">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B259" s="2">
         <v>44666</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="1">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B260" s="2">
         <v>44665</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="1">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B261" s="2">
         <v>44664</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="1">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B262" s="2">
         <v>44663</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="1">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B263" s="2">
         <v>44659</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="1">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B264" s="2">
         <v>44658</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="1">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B265" s="2">
         <v>44657</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="1">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B266" s="2">
         <v>44652</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="1">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B267" s="2">
         <v>44651</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="1">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B268" s="2">
         <v>44650</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="1">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B269" s="2">
         <v>44649</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="1">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B270" s="2">
         <v>44645</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="1">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B271" s="2">
         <v>44644</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B272" s="2">
         <v>44643</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="1">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B273" s="2">
         <v>44642</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="1">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B274" s="2">
         <v>44638</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="1">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B275" s="2">
         <v>44637</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="1">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B276" s="2">
         <v>44636</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="1">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B277" s="2">
         <v>44635</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="1">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B278" s="2">
         <v>44631</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="1">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B279" s="2">
         <v>44630</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="1">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B280" s="2">
         <v>44624</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="1">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B281" s="2">
         <v>44623</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="1">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B282" s="2">
         <v>44622</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="1">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B283" s="2">
         <v>44621</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="1">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B284" s="2">
         <v>44617</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="1">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B285" s="2">
         <v>44615</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="1">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B286" s="2">
         <v>44614</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="1">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B287" s="2">
         <v>44610</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="1">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B288" s="2">
         <v>44609</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="1">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B289" s="2">
         <v>44608</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="1">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B290" s="2">
         <v>44607</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="1">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B291" s="2">
         <v>44603</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="1">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B292" s="2">
         <v>44602</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="1">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B293" s="2">
         <v>44601</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="1">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B294" s="2">
         <v>44600</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="1">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B295" s="2">
         <v>44589</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="1">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B296" s="2">
         <v>44588</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="1">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B297" s="2">
         <v>44587</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="1">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B298" s="2">
         <v>44586</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="1">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B299" s="2">
         <v>44582</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="1">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B300" s="2">
         <v>44581</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="1">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B301" s="2">
         <v>44580</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="1">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B302" s="2">
         <v>44579</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="1">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B303" s="2">
         <v>44575</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="1">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B304" s="2">
         <v>44574</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="1">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B305" s="2">
         <v>44573</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="1">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B306" s="2">
         <v>44572</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="1">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B307" s="2">
         <v>44561</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="1">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B308" s="2">
         <v>44560</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="1">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B309" s="2">
         <v>44559</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="1">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B310" s="2">
         <v>44558</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="1">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B311" s="2">
         <v>44554</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="1">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B312" s="2">
         <v>44553</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="1">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B313" s="2">
         <v>44552</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="1">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B314" s="2">
         <v>44551</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="1">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B315" s="2">
         <v>44547</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="1">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B316" s="2">
         <v>44546</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="1">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B317" s="2">
         <v>44545</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="1">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B318" s="2">
         <v>44544</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="1">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B319" s="2">
         <v>44540</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="1">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B320" s="2">
         <v>44539</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="1">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B321" s="2">
         <v>44538</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="1">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B322" s="2">
         <v>44537</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="1">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B323" s="2">
         <v>44533</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="1">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B324" s="2">
         <v>44532</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="1">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B325" s="2">
         <v>44531</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="1">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B326" s="2">
         <v>44530</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="1">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B327" s="2">
         <v>44526</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="1">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B328" s="2">
         <v>44525</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="1">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B329" s="2">
         <v>44524</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="1">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B330" s="2">
         <v>44523</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="1">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B331" s="2">
         <v>44519</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="1">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B332" s="2">
         <v>44518</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="1">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B333" s="2">
         <v>44517</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="1">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B334" s="2">
         <v>44516</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="1">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B335" s="2">
         <v>44512</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="1">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B336" s="2">
         <v>44511</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="1">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B337" s="2">
         <v>44510</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="1">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B338" s="2">
         <v>44509</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="1">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B339" s="2">
         <v>44504</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="1">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B340" s="2">
         <v>44503</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="1">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B341" s="2">
         <v>44502</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="1">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B342" s="2">
         <v>44498</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="1">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B343" s="2">
         <v>44497</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="1">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B344" s="2">
         <v>44496</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="1">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B345" s="2">
         <v>44495</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="1">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B346" s="2">
         <v>44491</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="1">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B347" s="2">
         <v>44490</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="1">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B348" s="2">
         <v>44489</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="1">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B349" s="2">
         <v>44488</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="1">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B350" s="2">
         <v>44484</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="1">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B351" s="2">
         <v>44483</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="1">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B352" s="2">
         <v>44482</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="1">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B353" s="2">
         <v>44481</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="1">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B354" s="2">
         <v>44477</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="1">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B355" s="2">
         <v>44469</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="1">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B356" s="2">
         <v>44468</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="1">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B357" s="2">
         <v>44467</v>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="1">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B358" s="2">
         <v>44463</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="1">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B359" s="2">
         <v>44462</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="1">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B360" s="2">
         <v>44461</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="1">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B361" s="2">
         <v>44456</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="1">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B362" s="2">
         <v>44455</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="1">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B363" s="2">
         <v>44454</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="1">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B364" s="2">
         <v>44453</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="1">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B365" s="2">
         <v>44449</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="1">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B366" s="2">
         <v>44448</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B367" s="2">
         <v>44447</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="1">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B368" s="2">
         <v>44446</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="1">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B369" s="2">
         <v>44442</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="1">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B370" s="2">
         <v>44441</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="1">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B371" s="2">
         <v>44440</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="1">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B372" s="2">
         <v>44439</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="1">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B373" s="2">
         <v>44435</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="1">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B374" s="2">
         <v>44434</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="1">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B375" s="2">
         <v>44433</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="1">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B376" s="2">
         <v>44432</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="1">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B377" s="2">
         <v>44428</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="1">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B378" s="2">
         <v>44427</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="1">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B379" s="2">
         <v>44426</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="1">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B380" s="2">
         <v>44425</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="1">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B381" s="2">
         <v>44421</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="1">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B382" s="2">
         <v>44420</v>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="1">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B383" s="2">
         <v>44419</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="1">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B384" s="2">
         <v>44418</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="1">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B385" s="2">
         <v>44414</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="1">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B386" s="2">
         <v>44413</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="1">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B387" s="2">
         <v>44412</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="1">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B388" s="2">
         <v>44411</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="1">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B389" s="2">
         <v>44407</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="1">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B390" s="2">
         <v>44406</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="1">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B391" s="2">
         <v>44405</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="1">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B392" s="2">
         <v>44404</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="1">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B393" s="2">
         <v>44400</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="1">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B394" s="2">
         <v>44399</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="1">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B395" s="2">
         <v>44398</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="1">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B396" s="2">
         <v>44397</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="1">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B397" s="2">
         <v>44393</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="1">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B398" s="2">
         <v>44392</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="1">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B399" s="2">
         <v>44391</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="1">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B400" s="2">
         <v>44390</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="1">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B401" s="2">
         <v>44386</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="1">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B402" s="2">
         <v>44385</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B403" s="2">
         <v>44384</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="1">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B404" s="2">
         <v>44383</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="1">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B405" s="2">
         <v>44379</v>
@@ -6062,7 +6062,7 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="1">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B406" s="2">
         <v>44378</v>
@@ -6076,7 +6076,7 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="1">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B407" s="2">
         <v>44377</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="1">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B408" s="2">
         <v>44376</v>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="1">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B409" s="2">
         <v>44372</v>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="1">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B410" s="2">
         <v>44371</v>
@@ -6132,7 +6132,7 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="1">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B411" s="2">
         <v>44370</v>
@@ -6146,7 +6146,7 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="1">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B412" s="2">
         <v>44369</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="1">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B413" s="2">
         <v>44365</v>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="1">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B414" s="2">
         <v>44364</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="1">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B415" s="2">
         <v>44363</v>
@@ -6202,7 +6202,7 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="1">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B416" s="2">
         <v>44358</v>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="1">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B417" s="2">
         <v>44357</v>
@@ -6230,7 +6230,7 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="1">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B418" s="2">
         <v>44356</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="1">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B419" s="2">
         <v>44355</v>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="1">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B420" s="2">
         <v>44351</v>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="1">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B421" s="2">
         <v>44350</v>
@@ -6286,7 +6286,7 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="1">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B422" s="2">
         <v>44349</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="1">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B423" s="2">
         <v>44348</v>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="1">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B424" s="2">
         <v>44344</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="1">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B425" s="2">
         <v>44343</v>
@@ -6342,7 +6342,7 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="1">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B426" s="2">
         <v>44342</v>
@@ -6356,7 +6356,7 @@
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="1">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B427" s="2">
         <v>44341</v>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="1">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B428" s="2">
         <v>44337</v>
@@ -6384,7 +6384,7 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="1">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B429" s="2">
         <v>44336</v>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="1">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B430" s="2">
         <v>44335</v>
@@ -6412,7 +6412,7 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="1">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B431" s="2">
         <v>44334</v>
@@ -6426,7 +6426,7 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="1">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B432" s="2">
         <v>44330</v>
@@ -6440,7 +6440,7 @@
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="1">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B433" s="2">
         <v>44329</v>
@@ -6454,7 +6454,7 @@
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="1">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B434" s="2">
         <v>44328</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="1">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B435" s="2">
         <v>44323</v>
@@ -6482,7 +6482,7 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="1">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B436" s="2">
         <v>44322</v>
@@ -6496,7 +6496,7 @@
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="1">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B437" s="2">
         <v>44316</v>
@@ -6510,7 +6510,7 @@
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="1">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B438" s="2">
         <v>44315</v>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="1">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B439" s="2">
         <v>44314</v>
@@ -6538,7 +6538,7 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="1">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B440" s="2">
         <v>44313</v>
@@ -6552,7 +6552,7 @@
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="1">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B441" s="2">
         <v>44309</v>
@@ -6566,7 +6566,7 @@
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="1">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B442" s="2">
         <v>44308</v>
@@ -6580,7 +6580,7 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="1">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B443" s="2">
         <v>44307</v>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="1">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B444" s="2">
         <v>44306</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="1">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B445" s="2">
         <v>44302</v>
@@ -6622,7 +6622,7 @@
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="1">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B446" s="2">
         <v>44301</v>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="1">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B447" s="2">
         <v>44300</v>
@@ -6650,7 +6650,7 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="1">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B448" s="2">
         <v>44299</v>
@@ -6664,7 +6664,7 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="1">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B449" s="2">
         <v>44295</v>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="1">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B450" s="2">
         <v>44294</v>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="1">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B451" s="2">
         <v>44293</v>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="1">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B452" s="2">
         <v>44292</v>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="1">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B453" s="2">
         <v>44288</v>
@@ -6734,7 +6734,7 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="1">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B454" s="2">
         <v>44287</v>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="1">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B455" s="2">
         <v>44286</v>
@@ -6762,7 +6762,7 @@
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="1">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B456" s="2">
         <v>44285</v>
@@ -6776,7 +6776,7 @@
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="1">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B457" s="2">
         <v>44281</v>
@@ -6790,7 +6790,7 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="1">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B458" s="2">
         <v>44280</v>
@@ -6804,7 +6804,7 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="1">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B459" s="2">
         <v>44279</v>
@@ -6818,7 +6818,7 @@
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="1">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B460" s="2">
         <v>44278</v>
@@ -6832,7 +6832,7 @@
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="1">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B461" s="2">
         <v>44274</v>
@@ -6846,7 +6846,7 @@
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="1">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B462" s="2">
         <v>44273</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="1">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B463" s="2">
         <v>44272</v>
@@ -6874,7 +6874,7 @@
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="1">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B464" s="2">
         <v>44271</v>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="1">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B465" s="2">
         <v>44267</v>
@@ -6902,7 +6902,7 @@
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="1">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B466" s="2">
         <v>44266</v>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="1">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B467" s="2">
         <v>44265</v>
@@ -6930,7 +6930,7 @@
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="1">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B468" s="2">
         <v>44260</v>
@@ -6944,7 +6944,7 @@
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="1">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B469" s="2">
         <v>44259</v>
@@ -6958,7 +6958,7 @@
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="1">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B470" s="2">
         <v>44258</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="1">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B471" s="2">
         <v>44257</v>
@@ -6986,7 +6986,7 @@
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="1">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B472" s="2">
         <v>44253</v>
@@ -7000,7 +7000,7 @@
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="1">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B473" s="2">
         <v>44252</v>
@@ -7014,7 +7014,7 @@
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="1">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B474" s="2">
         <v>44246</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="1">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B475" s="2">
         <v>44245</v>
@@ -7042,7 +7042,7 @@
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="1">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B476" s="2">
         <v>44237</v>
@@ -7056,7 +7056,7 @@
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="1">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B477" s="2">
         <v>44236</v>
@@ -7070,7 +7070,7 @@
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="1">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B478" s="2">
         <v>44232</v>
@@ -7084,7 +7084,7 @@
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="1">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B479" s="2">
         <v>44231</v>
@@ -7098,7 +7098,7 @@
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="1">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B480" s="2">
         <v>44230</v>
@@ -7112,7 +7112,7 @@
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="1">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B481" s="2">
         <v>44229</v>
@@ -7126,7 +7126,7 @@
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="1">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B482" s="2">
         <v>44225</v>
@@ -7140,7 +7140,7 @@
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="1">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B483" s="2">
         <v>44224</v>
@@ -7154,7 +7154,7 @@
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="1">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B484" s="2">
         <v>44223</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="1">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B485" s="2">
         <v>44222</v>
@@ -7182,7 +7182,7 @@
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="1">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B486" s="2">
         <v>44218</v>
@@ -7196,7 +7196,7 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="1">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B487" s="2">
         <v>44217</v>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="1">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B488" s="2">
         <v>44216</v>
@@ -7224,7 +7224,7 @@
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="1">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B489" s="2">
         <v>44215</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="1">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B490" s="2">
         <v>44211</v>
@@ -7252,7 +7252,7 @@
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="1">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B491" s="2">
         <v>44210</v>
@@ -7266,7 +7266,7 @@
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="1">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B492" s="2">
         <v>44209</v>
@@ -7280,7 +7280,7 @@
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="1">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B493" s="2">
         <v>44208</v>
@@ -7294,7 +7294,7 @@
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="1">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B494" s="2">
         <v>44196</v>
@@ -7308,7 +7308,7 @@
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="1">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B495" s="2">
         <v>44195</v>
@@ -7322,7 +7322,7 @@
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="1">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B496" s="2">
         <v>44194</v>
@@ -7336,7 +7336,7 @@
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="1">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B497" s="2">
         <v>44190</v>
@@ -7350,7 +7350,7 @@
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="1">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B498" s="2">
         <v>44189</v>
@@ -7364,7 +7364,7 @@
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="1">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B499" s="2">
         <v>44188</v>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="1">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B500" s="2">
         <v>44187</v>
@@ -7392,7 +7392,7 @@
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="1">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B501" s="2">
         <v>44183</v>
@@ -7406,7 +7406,7 @@
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="1">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B502" s="2">
         <v>44182</v>
@@ -7420,7 +7420,7 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="1">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B503" s="2">
         <v>44181</v>
@@ -7434,7 +7434,7 @@
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="1">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B504" s="2">
         <v>44180</v>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="1">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B505" s="2">
         <v>44176</v>
@@ -7462,7 +7462,7 @@
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="1">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B506" s="2">
         <v>44175</v>
@@ -7476,7 +7476,7 @@
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="1">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B507" s="2">
         <v>44174</v>
@@ -7490,7 +7490,7 @@
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="1">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B508" s="2">
         <v>44173</v>
@@ -7504,7 +7504,7 @@
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="1">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B509" s="2">
         <v>44169</v>
@@ -7518,7 +7518,7 @@
     </row>
     <row r="510" spans="1:4">
       <c r="A510" s="1">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B510" s="2">
         <v>44168</v>
@@ -7532,7 +7532,7 @@
     </row>
     <row r="511" spans="1:4">
       <c r="A511" s="1">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B511" s="2">
         <v>44167</v>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="1">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B512" s="2">
         <v>44166</v>
@@ -7560,7 +7560,7 @@
     </row>
     <row r="513" spans="1:4">
       <c r="A513" s="1">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B513" s="2">
         <v>44162</v>
@@ -7574,7 +7574,7 @@
     </row>
     <row r="514" spans="1:4">
       <c r="A514" s="1">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B514" s="2">
         <v>44161</v>
@@ -7588,7 +7588,7 @@
     </row>
     <row r="515" spans="1:4">
       <c r="A515" s="1">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B515" s="2">
         <v>44160</v>
@@ -7602,7 +7602,7 @@
     </row>
     <row r="516" spans="1:4">
       <c r="A516" s="1">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B516" s="2">
         <v>44159</v>
@@ -7616,7 +7616,7 @@
     </row>
     <row r="517" spans="1:4">
       <c r="A517" s="1">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B517" s="2">
         <v>44155</v>
@@ -7630,7 +7630,7 @@
     </row>
     <row r="518" spans="1:4">
       <c r="A518" s="1">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B518" s="2">
         <v>44154</v>
@@ -7644,7 +7644,7 @@
     </row>
     <row r="519" spans="1:4">
       <c r="A519" s="1">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B519" s="2">
         <v>44153</v>
@@ -7658,7 +7658,7 @@
     </row>
     <row r="520" spans="1:4">
       <c r="A520" s="1">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B520" s="2">
         <v>44152</v>
@@ -7672,7 +7672,7 @@
     </row>
     <row r="521" spans="1:4">
       <c r="A521" s="1">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B521" s="2">
         <v>44148</v>
@@ -7686,7 +7686,7 @@
     </row>
     <row r="522" spans="1:4">
       <c r="A522" s="1">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B522" s="2">
         <v>44147</v>
@@ -7700,7 +7700,7 @@
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="1">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B523" s="2">
         <v>44146</v>
@@ -7714,7 +7714,7 @@
     </row>
     <row r="524" spans="1:4">
       <c r="A524" s="1">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B524" s="2">
         <v>44145</v>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="525" spans="1:4">
       <c r="A525" s="1">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B525" s="2">
         <v>44141</v>
@@ -7742,7 +7742,7 @@
     </row>
     <row r="526" spans="1:4">
       <c r="A526" s="1">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B526" s="2">
         <v>44139</v>
@@ -7756,7 +7756,7 @@
     </row>
     <row r="527" spans="1:4">
       <c r="A527" s="1">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B527" s="2">
         <v>44138</v>
@@ -7770,7 +7770,7 @@
     </row>
     <row r="528" spans="1:4">
       <c r="A528" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B528" s="2">
         <v>44134</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="529" spans="1:4">
       <c r="A529" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B529" s="2">
         <v>44133</v>
@@ -7798,7 +7798,7 @@
     </row>
     <row r="530" spans="1:4">
       <c r="A530" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B530" s="2">
         <v>44132</v>
@@ -7812,7 +7812,7 @@
     </row>
     <row r="531" spans="1:4">
       <c r="A531" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B531" s="2">
         <v>44131</v>
@@ -7826,7 +7826,7 @@
     </row>
     <row r="532" spans="1:4">
       <c r="A532" s="1">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B532" s="2">
         <v>44127</v>
@@ -7840,7 +7840,7 @@
     </row>
     <row r="533" spans="1:4">
       <c r="A533" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B533" s="2">
         <v>44126</v>
@@ -7854,7 +7854,7 @@
     </row>
     <row r="534" spans="1:4">
       <c r="A534" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B534" s="2">
         <v>44125</v>
@@ -7868,7 +7868,7 @@
     </row>
     <row r="535" spans="1:4">
       <c r="A535" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B535" s="2">
         <v>44124</v>
@@ -7882,7 +7882,7 @@
     </row>
     <row r="536" spans="1:4">
       <c r="A536" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B536" s="2">
         <v>44120</v>
@@ -7896,7 +7896,7 @@
     </row>
     <row r="537" spans="1:4">
       <c r="A537" s="1">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B537" s="2">
         <v>44119</v>
@@ -7910,7 +7910,7 @@
     </row>
     <row r="538" spans="1:4">
       <c r="A538" s="1">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B538" s="2">
         <v>44118</v>
@@ -7924,7 +7924,7 @@
     </row>
     <row r="539" spans="1:4">
       <c r="A539" s="1">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B539" s="2">
         <v>44117</v>
@@ -7938,7 +7938,7 @@
     </row>
     <row r="540" spans="1:4">
       <c r="A540" s="1">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B540" s="2">
         <v>44113</v>
@@ -7952,7 +7952,7 @@
     </row>
     <row r="541" spans="1:4">
       <c r="A541" s="1">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B541" s="2">
         <v>44104</v>
@@ -7966,7 +7966,7 @@
     </row>
     <row r="542" spans="1:4">
       <c r="A542" s="1">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B542" s="2">
         <v>44103</v>
@@ -7980,7 +7980,7 @@
     </row>
     <row r="543" spans="1:4">
       <c r="A543" s="1">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B543" s="2">
         <v>44099</v>
@@ -7994,7 +7994,7 @@
     </row>
     <row r="544" spans="1:4">
       <c r="A544" s="1">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B544" s="2">
         <v>44098</v>
@@ -8008,7 +8008,7 @@
     </row>
     <row r="545" spans="1:4">
       <c r="A545" s="1">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B545" s="2">
         <v>44097</v>
@@ -8022,7 +8022,7 @@
     </row>
     <row r="546" spans="1:4">
       <c r="A546" s="1">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B546" s="2">
         <v>44096</v>
@@ -8036,7 +8036,7 @@
     </row>
     <row r="547" spans="1:4">
       <c r="A547" s="1">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B547" s="2">
         <v>44092</v>
@@ -8050,7 +8050,7 @@
     </row>
     <row r="548" spans="1:4">
       <c r="A548" s="1">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B548" s="2">
         <v>44091</v>
@@ -8064,7 +8064,7 @@
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="1">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B549" s="2">
         <v>44090</v>
@@ -8078,7 +8078,7 @@
     </row>
     <row r="550" spans="1:4">
       <c r="A550" s="1">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B550" s="2">
         <v>44089</v>
@@ -8092,7 +8092,7 @@
     </row>
     <row r="551" spans="1:4">
       <c r="A551" s="1">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B551" s="2">
         <v>44085</v>
@@ -8106,7 +8106,7 @@
     </row>
     <row r="552" spans="1:4">
       <c r="A552" s="1">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B552" s="2">
         <v>44084</v>
@@ -8120,7 +8120,7 @@
     </row>
     <row r="553" spans="1:4">
       <c r="A553" s="1">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B553" s="2">
         <v>44083</v>
@@ -8134,7 +8134,7 @@
     </row>
     <row r="554" spans="1:4">
       <c r="A554" s="1">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B554" s="2">
         <v>44082</v>
@@ -8148,7 +8148,7 @@
     </row>
     <row r="555" spans="1:4">
       <c r="A555" s="1">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B555" s="2">
         <v>44078</v>
@@ -8162,7 +8162,7 @@
     </row>
     <row r="556" spans="1:4">
       <c r="A556" s="1">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B556" s="2">
         <v>44077</v>
@@ -8176,7 +8176,7 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557" s="1">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B557" s="2">
         <v>44076</v>
@@ -8190,7 +8190,7 @@
     </row>
     <row r="558" spans="1:4">
       <c r="A558" s="1">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B558" s="2">
         <v>44075</v>
@@ -8204,7 +8204,7 @@
     </row>
     <row r="559" spans="1:4">
       <c r="A559" s="1">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B559" s="2">
         <v>44071</v>
@@ -8218,7 +8218,7 @@
     </row>
     <row r="560" spans="1:4">
       <c r="A560" s="1">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B560" s="2">
         <v>44070</v>
@@ -8232,7 +8232,7 @@
     </row>
     <row r="561" spans="1:4">
       <c r="A561" s="1">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B561" s="2">
         <v>44069</v>
@@ -8246,7 +8246,7 @@
     </row>
     <row r="562" spans="1:4">
       <c r="A562" s="1">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B562" s="2">
         <v>44068</v>
@@ -8260,7 +8260,7 @@
     </row>
     <row r="563" spans="1:4">
       <c r="A563" s="1">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B563" s="2">
         <v>44064</v>
@@ -8274,7 +8274,7 @@
     </row>
     <row r="564" spans="1:4">
       <c r="A564" s="1">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B564" s="2">
         <v>44063</v>
@@ -8288,7 +8288,7 @@
     </row>
     <row r="565" spans="1:4">
       <c r="A565" s="1">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B565" s="2">
         <v>44062</v>
@@ -8302,7 +8302,7 @@
     </row>
     <row r="566" spans="1:4">
       <c r="A566" s="1">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B566" s="2">
         <v>44061</v>
@@ -8316,7 +8316,7 @@
     </row>
     <row r="567" spans="1:4">
       <c r="A567" s="1">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B567" s="2">
         <v>44057</v>
@@ -8330,7 +8330,7 @@
     </row>
     <row r="568" spans="1:4">
       <c r="A568" s="1">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B568" s="2">
         <v>44056</v>
@@ -8344,7 +8344,7 @@
     </row>
     <row r="569" spans="1:4">
       <c r="A569" s="1">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B569" s="2">
         <v>44055</v>
@@ -8358,7 +8358,7 @@
     </row>
     <row r="570" spans="1:4">
       <c r="A570" s="1">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B570" s="2">
         <v>44054</v>
@@ -8372,7 +8372,7 @@
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="1">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B571" s="2">
         <v>44050</v>
@@ -8386,7 +8386,7 @@
     </row>
     <row r="572" spans="1:4">
       <c r="A572" s="1">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B572" s="2">
         <v>44049</v>
@@ -8400,7 +8400,7 @@
     </row>
     <row r="573" spans="1:4">
       <c r="A573" s="1">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B573" s="2">
         <v>44048</v>
@@ -8414,7 +8414,7 @@
     </row>
     <row r="574" spans="1:4">
       <c r="A574" s="1">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B574" s="2">
         <v>44047</v>
@@ -8428,7 +8428,7 @@
     </row>
     <row r="575" spans="1:4">
       <c r="A575" s="1">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B575" s="2">
         <v>44043</v>
@@ -8442,7 +8442,7 @@
     </row>
     <row r="576" spans="1:4">
       <c r="A576" s="1">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B576" s="2">
         <v>44042</v>
@@ -8456,7 +8456,7 @@
     </row>
     <row r="577" spans="1:4">
       <c r="A577" s="1">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B577" s="2">
         <v>44041</v>
@@ -8470,7 +8470,7 @@
     </row>
     <row r="578" spans="1:4">
       <c r="A578" s="1">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B578" s="2">
         <v>44040</v>
@@ -8484,7 +8484,7 @@
     </row>
     <row r="579" spans="1:4">
       <c r="A579" s="1">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B579" s="2">
         <v>44036</v>
@@ -8498,7 +8498,7 @@
     </row>
     <row r="580" spans="1:4">
       <c r="A580" s="1">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B580" s="2">
         <v>44035</v>
@@ -8512,7 +8512,7 @@
     </row>
     <row r="581" spans="1:4">
       <c r="A581" s="1">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B581" s="2">
         <v>44034</v>
@@ -8526,7 +8526,7 @@
     </row>
     <row r="582" spans="1:4">
       <c r="A582" s="1">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B582" s="2">
         <v>44033</v>
@@ -8540,7 +8540,7 @@
     </row>
     <row r="583" spans="1:4">
       <c r="A583" s="1">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B583" s="2">
         <v>44029</v>
@@ -8554,7 +8554,7 @@
     </row>
     <row r="584" spans="1:4">
       <c r="A584" s="1">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B584" s="2">
         <v>44028</v>
@@ -8568,7 +8568,7 @@
     </row>
     <row r="585" spans="1:4">
       <c r="A585" s="1">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B585" s="2">
         <v>44027</v>
@@ -8582,7 +8582,7 @@
     </row>
     <row r="586" spans="1:4">
       <c r="A586" s="1">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B586" s="2">
         <v>44026</v>
@@ -8596,7 +8596,7 @@
     </row>
     <row r="587" spans="1:4">
       <c r="A587" s="1">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B587" s="2">
         <v>44022</v>
@@ -8610,7 +8610,7 @@
     </row>
     <row r="588" spans="1:4">
       <c r="A588" s="1">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B588" s="2">
         <v>44021</v>
@@ -8624,7 +8624,7 @@
     </row>
     <row r="589" spans="1:4">
       <c r="A589" s="1">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B589" s="2">
         <v>44020</v>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="590" spans="1:4">
       <c r="A590" s="1">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B590" s="2">
         <v>44019</v>
@@ -8652,7 +8652,7 @@
     </row>
     <row r="591" spans="1:4">
       <c r="A591" s="1">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B591" s="2">
         <v>44015</v>
@@ -8666,7 +8666,7 @@
     </row>
     <row r="592" spans="1:4">
       <c r="A592" s="1">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B592" s="2">
         <v>44014</v>
@@ -8680,7 +8680,7 @@
     </row>
     <row r="593" spans="1:4">
       <c r="A593" s="1">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B593" s="2">
         <v>44013</v>
@@ -8694,7 +8694,7 @@
     </row>
     <row r="594" spans="1:4">
       <c r="A594" s="1">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B594" s="2">
         <v>44012</v>
@@ -8708,7 +8708,7 @@
     </row>
     <row r="595" spans="1:4">
       <c r="A595" s="1">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B595" s="2">
         <v>44006</v>
@@ -8722,7 +8722,7 @@
     </row>
     <row r="596" spans="1:4">
       <c r="A596" s="1">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B596" s="2">
         <v>44005</v>
@@ -8736,7 +8736,7 @@
     </row>
     <row r="597" spans="1:4">
       <c r="A597" s="1">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B597" s="2">
         <v>44001</v>
@@ -8750,7 +8750,7 @@
     </row>
     <row r="598" spans="1:4">
       <c r="A598" s="1">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B598" s="2">
         <v>44000</v>
@@ -8764,7 +8764,7 @@
     </row>
     <row r="599" spans="1:4">
       <c r="A599" s="1">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B599" s="2">
         <v>43999</v>
@@ -8778,7 +8778,7 @@
     </row>
     <row r="600" spans="1:4">
       <c r="A600" s="1">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B600" s="2">
         <v>43998</v>
@@ -8792,7 +8792,7 @@
     </row>
     <row r="601" spans="1:4">
       <c r="A601" s="1">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B601" s="2">
         <v>43994</v>
@@ -8806,7 +8806,7 @@
     </row>
     <row r="602" spans="1:4">
       <c r="A602" s="1">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B602" s="2">
         <v>43993</v>
@@ -8820,7 +8820,7 @@
     </row>
     <row r="603" spans="1:4">
       <c r="A603" s="1">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B603" s="2">
         <v>43992</v>
@@ -8834,7 +8834,7 @@
     </row>
     <row r="604" spans="1:4">
       <c r="A604" s="1">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B604" s="2">
         <v>43991</v>
@@ -8848,7 +8848,7 @@
     </row>
     <row r="605" spans="1:4">
       <c r="A605" s="1">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B605" s="2">
         <v>43987</v>
@@ -8862,7 +8862,7 @@
     </row>
     <row r="606" spans="1:4">
       <c r="A606" s="1">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B606" s="2">
         <v>43986</v>
@@ -8876,7 +8876,7 @@
     </row>
     <row r="607" spans="1:4">
       <c r="A607" s="1">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B607" s="2">
         <v>43985</v>
@@ -8890,7 +8890,7 @@
     </row>
     <row r="608" spans="1:4">
       <c r="A608" s="1">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B608" s="2">
         <v>43984</v>
@@ -8904,7 +8904,7 @@
     </row>
     <row r="609" spans="1:4">
       <c r="A609" s="1">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B609" s="2">
         <v>43980</v>
@@ -8918,7 +8918,7 @@
     </row>
     <row r="610" spans="1:4">
       <c r="A610" s="1">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B610" s="2">
         <v>43979</v>
@@ -8932,7 +8932,7 @@
     </row>
     <row r="611" spans="1:4">
       <c r="A611" s="1">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B611" s="2">
         <v>43978</v>
@@ -8946,7 +8946,7 @@
     </row>
     <row r="612" spans="1:4">
       <c r="A612" s="1">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B612" s="2">
         <v>43977</v>
@@ -8960,7 +8960,7 @@
     </row>
     <row r="613" spans="1:4">
       <c r="A613" s="1">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B613" s="2">
         <v>43973</v>
@@ -8974,7 +8974,7 @@
     </row>
     <row r="614" spans="1:4">
       <c r="A614" s="1">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B614" s="2">
         <v>43972</v>
@@ -8988,7 +8988,7 @@
     </row>
     <row r="615" spans="1:4">
       <c r="A615" s="1">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B615" s="2">
         <v>43971</v>
@@ -9002,7 +9002,7 @@
     </row>
     <row r="616" spans="1:4">
       <c r="A616" s="1">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B616" s="2">
         <v>43970</v>
@@ -9016,7 +9016,7 @@
     </row>
     <row r="617" spans="1:4">
       <c r="A617" s="1">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B617" s="2">
         <v>43966</v>
@@ -9030,7 +9030,7 @@
     </row>
     <row r="618" spans="1:4">
       <c r="A618" s="1">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B618" s="2">
         <v>43965</v>
@@ -9044,7 +9044,7 @@
     </row>
     <row r="619" spans="1:4">
       <c r="A619" s="1">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B619" s="2">
         <v>43964</v>
@@ -9058,7 +9058,7 @@
     </row>
     <row r="620" spans="1:4">
       <c r="A620" s="1">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B620" s="2">
         <v>43959</v>
@@ -9072,7 +9072,7 @@
     </row>
     <row r="621" spans="1:4">
       <c r="A621" s="1">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B621" s="2">
         <v>43958</v>
@@ -9086,7 +9086,7 @@
     </row>
     <row r="622" spans="1:4">
       <c r="A622" s="1">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B622" s="2">
         <v>43951</v>
@@ -9100,7 +9100,7 @@
     </row>
     <row r="623" spans="1:4">
       <c r="A623" s="1">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B623" s="2">
         <v>43950</v>
@@ -9114,7 +9114,7 @@
     </row>
     <row r="624" spans="1:4">
       <c r="A624" s="1">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B624" s="2">
         <v>43949</v>
@@ -9128,7 +9128,7 @@
     </row>
     <row r="625" spans="1:4">
       <c r="A625" s="1">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B625" s="2">
         <v>43945</v>
@@ -9142,7 +9142,7 @@
     </row>
     <row r="626" spans="1:4">
       <c r="A626" s="1">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B626" s="2">
         <v>43944</v>
@@ -9156,7 +9156,7 @@
     </row>
     <row r="627" spans="1:4">
       <c r="A627" s="1">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B627" s="2">
         <v>43943</v>
@@ -9170,7 +9170,7 @@
     </row>
     <row r="628" spans="1:4">
       <c r="A628" s="1">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B628" s="2">
         <v>43942</v>
@@ -9184,7 +9184,7 @@
     </row>
     <row r="629" spans="1:4">
       <c r="A629" s="1">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B629" s="2">
         <v>43938</v>
@@ -9198,7 +9198,7 @@
     </row>
     <row r="630" spans="1:4">
       <c r="A630" s="1">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B630" s="2">
         <v>43937</v>
@@ -9212,7 +9212,7 @@
     </row>
     <row r="631" spans="1:4">
       <c r="A631" s="1">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B631" s="2">
         <v>43936</v>
@@ -9226,7 +9226,7 @@
     </row>
     <row r="632" spans="1:4">
       <c r="A632" s="1">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B632" s="2">
         <v>43935</v>
@@ -9240,7 +9240,7 @@
     </row>
     <row r="633" spans="1:4">
       <c r="A633" s="1">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B633" s="2">
         <v>43931</v>
@@ -9254,7 +9254,7 @@
     </row>
     <row r="634" spans="1:4">
       <c r="A634" s="1">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B634" s="2">
         <v>43930</v>
@@ -9268,7 +9268,7 @@
     </row>
     <row r="635" spans="1:4">
       <c r="A635" s="1">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B635" s="2">
         <v>43929</v>
@@ -9282,7 +9282,7 @@
     </row>
     <row r="636" spans="1:4">
       <c r="A636" s="1">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B636" s="2">
         <v>43928</v>
@@ -9296,7 +9296,7 @@
     </row>
     <row r="637" spans="1:4">
       <c r="A637" s="1">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B637" s="2">
         <v>43917</v>
@@ -9310,7 +9310,7 @@
     </row>
     <row r="638" spans="1:4">
       <c r="A638" s="1">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B638" s="2">
         <v>43916</v>
@@ -9324,7 +9324,7 @@
     </row>
     <row r="639" spans="1:4">
       <c r="A639" s="1">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B639" s="2">
         <v>43915</v>
@@ -9338,7 +9338,7 @@
     </row>
     <row r="640" spans="1:4">
       <c r="A640" s="1">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B640" s="2">
         <v>43914</v>
@@ -9352,7 +9352,7 @@
     </row>
     <row r="641" spans="1:4">
       <c r="A641" s="1">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B641" s="2">
         <v>43910</v>
@@ -9366,7 +9366,7 @@
     </row>
     <row r="642" spans="1:4">
       <c r="A642" s="1">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B642" s="2">
         <v>43909</v>
@@ -9380,7 +9380,7 @@
     </row>
     <row r="643" spans="1:4">
       <c r="A643" s="1">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B643" s="2">
         <v>43908</v>
@@ -9394,7 +9394,7 @@
     </row>
     <row r="644" spans="1:4">
       <c r="A644" s="1">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B644" s="2">
         <v>43907</v>
@@ -9408,7 +9408,7 @@
     </row>
     <row r="645" spans="1:4">
       <c r="A645" s="1">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B645" s="2">
         <v>43903</v>
@@ -9422,7 +9422,7 @@
     </row>
     <row r="646" spans="1:4">
       <c r="A646" s="1">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B646" s="2">
         <v>43902</v>
@@ -9436,7 +9436,7 @@
     </row>
     <row r="647" spans="1:4">
       <c r="A647" s="1">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B647" s="2">
         <v>43901</v>
@@ -9450,7 +9450,7 @@
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="1">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B648" s="2">
         <v>43896</v>
@@ -9464,7 +9464,7 @@
     </row>
     <row r="649" spans="1:4">
       <c r="A649" s="1">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B649" s="2">
         <v>43895</v>
@@ -9478,7 +9478,7 @@
     </row>
     <row r="650" spans="1:4">
       <c r="A650" s="1">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B650" s="2">
         <v>43894</v>
@@ -9492,7 +9492,7 @@
     </row>
     <row r="651" spans="1:4">
       <c r="A651" s="1">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B651" s="2">
         <v>43893</v>
@@ -9506,7 +9506,7 @@
     </row>
     <row r="652" spans="1:4">
       <c r="A652" s="1">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B652" s="2">
         <v>43889</v>
@@ -9520,7 +9520,7 @@
     </row>
     <row r="653" spans="1:4">
       <c r="A653" s="1">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B653" s="2">
         <v>43888</v>
@@ -9534,7 +9534,7 @@
     </row>
     <row r="654" spans="1:4">
       <c r="A654" s="1">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B654" s="2">
         <v>43887</v>
@@ -9548,7 +9548,7 @@
     </row>
     <row r="655" spans="1:4">
       <c r="A655" s="1">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B655" s="2">
         <v>43882</v>
@@ -9562,7 +9562,7 @@
     </row>
     <row r="656" spans="1:4">
       <c r="A656" s="1">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B656" s="2">
         <v>43881</v>
@@ -9576,7 +9576,7 @@
     </row>
     <row r="657" spans="1:4">
       <c r="A657" s="1">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B657" s="2">
         <v>43880</v>
@@ -9590,7 +9590,7 @@
     </row>
     <row r="658" spans="1:4">
       <c r="A658" s="1">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B658" s="2">
         <v>43879</v>
@@ -9604,7 +9604,7 @@
     </row>
     <row r="659" spans="1:4">
       <c r="A659" s="1">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B659" s="2">
         <v>43875</v>
@@ -9618,7 +9618,7 @@
     </row>
     <row r="660" spans="1:4">
       <c r="A660" s="1">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B660" s="2">
         <v>43874</v>
@@ -9632,7 +9632,7 @@
     </row>
     <row r="661" spans="1:4">
       <c r="A661" s="1">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B661" s="2">
         <v>43873</v>
@@ -9646,7 +9646,7 @@
     </row>
     <row r="662" spans="1:4">
       <c r="A662" s="1">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B662" s="2">
         <v>43872</v>
@@ -9660,7 +9660,7 @@
     </row>
     <row r="663" spans="1:4">
       <c r="A663" s="1">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B663" s="2">
         <v>43868</v>
@@ -9674,7 +9674,7 @@
     </row>
     <row r="664" spans="1:4">
       <c r="A664" s="1">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B664" s="2">
         <v>43867</v>
@@ -9688,7 +9688,7 @@
     </row>
     <row r="665" spans="1:4">
       <c r="A665" s="1">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B665" s="2">
         <v>43866</v>
@@ -9702,7 +9702,7 @@
     </row>
     <row r="666" spans="1:4">
       <c r="A666" s="1">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B666" s="2">
         <v>43865</v>
@@ -9716,7 +9716,7 @@
     </row>
     <row r="667" spans="1:4">
       <c r="A667" s="1">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B667" s="2">
         <v>43853</v>
@@ -9730,7 +9730,7 @@
     </row>
     <row r="668" spans="1:4">
       <c r="A668" s="1">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B668" s="2">
         <v>43852</v>
@@ -9744,7 +9744,7 @@
     </row>
     <row r="669" spans="1:4">
       <c r="A669" s="1">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B669" s="2">
         <v>43851</v>
@@ -9758,7 +9758,7 @@
     </row>
     <row r="670" spans="1:4">
       <c r="A670" s="1">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B670" s="2">
         <v>43847</v>
@@ -9772,7 +9772,7 @@
     </row>
     <row r="671" spans="1:4">
       <c r="A671" s="1">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B671" s="2">
         <v>43846</v>
@@ -9786,7 +9786,7 @@
     </row>
     <row r="672" spans="1:4">
       <c r="A672" s="1">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B672" s="2">
         <v>43845</v>
@@ -9800,7 +9800,7 @@
     </row>
     <row r="673" spans="1:4">
       <c r="A673" s="1">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B673" s="2">
         <v>43844</v>
@@ -9814,7 +9814,7 @@
     </row>
     <row r="674" spans="1:4">
       <c r="A674" s="1">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B674" s="2">
         <v>43840</v>

--- a/LME/parser_beta/data/shmet_historical.xlsx
+++ b/LME/parser_beta/data/shmet_historical.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D676"/>
+  <dimension ref="A1:D677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,10 +459,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45163</v>
+        <v>45166</v>
       </c>
       <c r="C2" t="n">
-        <v>69300</v>
+        <v>69530</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -475,10 +475,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45162</v>
+        <v>45163</v>
       </c>
       <c r="C3" t="n">
-        <v>69700</v>
+        <v>69300</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45160</v>
+        <v>45162</v>
       </c>
       <c r="C4" t="n">
-        <v>68810</v>
+        <v>69700</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -507,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="C5" t="n">
-        <v>68925</v>
+        <v>68810</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -523,10 +523,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45156</v>
+        <v>45159</v>
       </c>
       <c r="C6" t="n">
-        <v>68840</v>
+        <v>68925</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -539,10 +539,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="C7" t="n">
-        <v>68260</v>
+        <v>68840</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="C8" t="n">
-        <v>68270</v>
+        <v>68260</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -571,10 +571,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="C9" t="n">
-        <v>68590</v>
+        <v>68270</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45152</v>
+        <v>45153</v>
       </c>
       <c r="C10" t="n">
         <v>68590</v>
@@ -603,10 +603,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45149</v>
+        <v>45152</v>
       </c>
       <c r="C11" t="n">
-        <v>68690</v>
+        <v>68590</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -619,10 +619,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="C12" t="n">
-        <v>68740</v>
+        <v>68690</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -635,10 +635,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="C13" t="n">
-        <v>68710</v>
+        <v>68740</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -651,10 +651,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="C14" t="n">
-        <v>69130</v>
+        <v>68710</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -667,10 +667,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="C15" t="n">
-        <v>69290</v>
+        <v>69130</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -683,10 +683,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45142</v>
+        <v>45145</v>
       </c>
       <c r="C16" t="n">
-        <v>69875</v>
+        <v>69290</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="C17" t="n">
-        <v>69425</v>
+        <v>69875</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -715,10 +715,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="C18" t="n">
-        <v>69990</v>
+        <v>69425</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -731,10 +731,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="C19" t="n">
-        <v>70925</v>
+        <v>69990</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -747,10 +747,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="C20" t="n">
-        <v>69830</v>
+        <v>70925</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -763,10 +763,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45135</v>
+        <v>45138</v>
       </c>
       <c r="C21" t="n">
-        <v>68950</v>
+        <v>69830</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -779,10 +779,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="C22" t="n">
-        <v>69460</v>
+        <v>68950</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -795,10 +795,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="C23" t="n">
-        <v>69200</v>
+        <v>69460</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -811,10 +811,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="C24" t="n">
-        <v>68980</v>
+        <v>69200</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -827,10 +827,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45128</v>
+        <v>45132</v>
       </c>
       <c r="C25" t="n">
-        <v>68670</v>
+        <v>68980</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -843,10 +843,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="C26" t="n">
-        <v>68650</v>
+        <v>68670</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -859,10 +859,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="C27" t="n">
-        <v>68580</v>
+        <v>68650</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -875,10 +875,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="C28" t="n">
-        <v>68750</v>
+        <v>68580</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -891,10 +891,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45121</v>
+        <v>45125</v>
       </c>
       <c r="C29" t="n">
-        <v>69825</v>
+        <v>68750</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -907,10 +907,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="C30" t="n">
-        <v>68760</v>
+        <v>69825</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -923,10 +923,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="C31" t="n">
-        <v>68040</v>
+        <v>68760</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -939,10 +939,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="C32" t="n">
-        <v>68370</v>
+        <v>68040</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -955,10 +955,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45114</v>
+        <v>45118</v>
       </c>
       <c r="C33" t="n">
-        <v>68150</v>
+        <v>68370</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -971,10 +971,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="C34" t="n">
-        <v>68300</v>
+        <v>68150</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -987,10 +987,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="C35" t="n">
-        <v>68500</v>
+        <v>68300</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1003,10 +1003,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="C36" t="n">
-        <v>68775</v>
+        <v>68500</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1019,10 +1019,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45107</v>
+        <v>45111</v>
       </c>
       <c r="C37" t="n">
-        <v>68000</v>
+        <v>68775</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1035,10 +1035,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="C38" t="n">
-        <v>68025</v>
+        <v>68000</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1051,10 +1051,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="C39" t="n">
-        <v>68300</v>
+        <v>68025</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1067,10 +1067,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="C40" t="n">
-        <v>68660</v>
+        <v>68300</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1083,10 +1083,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>45098</v>
+        <v>45104</v>
       </c>
       <c r="C41" t="n">
-        <v>69650</v>
+        <v>68660</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1099,10 +1099,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="C42" t="n">
-        <v>69100</v>
+        <v>69650</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>45093</v>
+        <v>45097</v>
       </c>
       <c r="C43" t="n">
-        <v>68960</v>
+        <v>69100</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1131,10 +1131,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="C44" t="n">
-        <v>68275</v>
+        <v>68960</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1147,10 +1147,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="C45" t="n">
-        <v>68350</v>
+        <v>68275</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45086</v>
+        <v>45091</v>
       </c>
       <c r="C46" t="n">
-        <v>67370</v>
+        <v>68350</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1179,10 +1179,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="C47" t="n">
-        <v>67180</v>
+        <v>67370</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1195,10 +1195,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="C48" t="n">
-        <v>67300</v>
+        <v>67180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1211,10 +1211,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="C49" t="n">
-        <v>67160</v>
+        <v>67300</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1227,10 +1227,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45079</v>
+        <v>45083</v>
       </c>
       <c r="C50" t="n">
-        <v>66425</v>
+        <v>67160</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1243,10 +1243,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="C51" t="n">
-        <v>65850</v>
+        <v>66425</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1259,10 +1259,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="C52" t="n">
-        <v>65260</v>
+        <v>65850</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1275,10 +1275,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="C53" t="n">
-        <v>65600</v>
+        <v>65260</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1291,10 +1291,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>45072</v>
+        <v>45076</v>
       </c>
       <c r="C54" t="n">
-        <v>64150</v>
+        <v>65600</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1307,10 +1307,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="C55" t="n">
-        <v>63750</v>
+        <v>64150</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1323,10 +1323,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>45070</v>
+        <v>45071</v>
       </c>
       <c r="C56" t="n">
-        <v>64300</v>
+        <v>63750</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1339,10 +1339,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="C57" t="n">
-        <v>65280</v>
+        <v>64300</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1355,10 +1355,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>45065</v>
+        <v>45069</v>
       </c>
       <c r="C58" t="n">
-        <v>65675</v>
+        <v>65280</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1371,10 +1371,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="C59" t="n">
-        <v>66025</v>
+        <v>65675</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1387,10 +1387,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="C60" t="n">
-        <v>64680</v>
+        <v>66025</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1403,10 +1403,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="C61" t="n">
-        <v>65200</v>
+        <v>64680</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1419,10 +1419,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>45058</v>
+        <v>45062</v>
       </c>
       <c r="C62" t="n">
-        <v>64690</v>
+        <v>65200</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1435,10 +1435,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="C63" t="n">
-        <v>66590</v>
+        <v>64690</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1451,10 +1451,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>45051</v>
+        <v>45057</v>
       </c>
       <c r="C64" t="n">
-        <v>66675</v>
+        <v>66590</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1467,10 +1467,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="C65" t="n">
-        <v>67290</v>
+        <v>66675</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1483,10 +1483,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>45044</v>
+        <v>45050</v>
       </c>
       <c r="C66" t="n">
-        <v>67420</v>
+        <v>67290</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1499,10 +1499,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="C67" t="n">
-        <v>66625</v>
+        <v>67420</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1515,10 +1515,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="C68" t="n">
-        <v>67540</v>
+        <v>66625</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="C69" t="n">
-        <v>68290</v>
+        <v>67540</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1547,10 +1547,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>45037</v>
+        <v>45041</v>
       </c>
       <c r="C70" t="n">
-        <v>68890</v>
+        <v>68290</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1563,10 +1563,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="C71" t="n">
-        <v>69500</v>
+        <v>68890</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1579,10 +1579,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="C72" t="n">
-        <v>69680</v>
+        <v>69500</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1595,10 +1595,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="C73" t="n">
-        <v>69650</v>
+        <v>69680</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1611,10 +1611,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>45030</v>
+        <v>45034</v>
       </c>
       <c r="C74" t="n">
-        <v>70310</v>
+        <v>69650</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1627,10 +1627,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="C75" t="n">
-        <v>69405</v>
+        <v>70310</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1643,10 +1643,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="C76" t="n">
-        <v>69150</v>
+        <v>69405</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1659,10 +1659,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="C77" t="n">
-        <v>68580</v>
+        <v>69150</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1675,10 +1675,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>45023</v>
+        <v>45027</v>
       </c>
       <c r="C78" t="n">
-        <v>68875</v>
+        <v>68580</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1691,10 +1691,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="C79" t="n">
-        <v>68830</v>
+        <v>68875</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1707,10 +1707,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>45020</v>
+        <v>45022</v>
       </c>
       <c r="C80" t="n">
-        <v>69225</v>
+        <v>68830</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1723,10 +1723,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>45016</v>
+        <v>45020</v>
       </c>
       <c r="C81" t="n">
-        <v>69650</v>
+        <v>69225</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1739,10 +1739,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="C82" t="n">
-        <v>69620</v>
+        <v>69650</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1755,10 +1755,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="C83" t="n">
-        <v>69580</v>
+        <v>69620</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1771,10 +1771,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="C84" t="n">
-        <v>69770</v>
+        <v>69580</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1787,10 +1787,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>45009</v>
+        <v>45013</v>
       </c>
       <c r="C85" t="n">
-        <v>69230</v>
+        <v>69770</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1803,10 +1803,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="C86" t="n">
-        <v>68630</v>
+        <v>69230</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1819,10 +1819,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="C87" t="n">
-        <v>68100</v>
+        <v>68630</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -1835,10 +1835,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="C88" t="n">
-        <v>67575</v>
+        <v>68100</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -1851,10 +1851,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>45002</v>
+        <v>45006</v>
       </c>
       <c r="C89" t="n">
-        <v>67340</v>
+        <v>67575</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -1867,10 +1867,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="C90" t="n">
-        <v>67100</v>
+        <v>67340</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -1883,10 +1883,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="C91" t="n">
-        <v>68925</v>
+        <v>67100</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -1899,10 +1899,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="C92" t="n">
-        <v>68600</v>
+        <v>68925</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -1915,10 +1915,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>44995</v>
+        <v>44999</v>
       </c>
       <c r="C93" t="n">
-        <v>69025</v>
+        <v>68600</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -1931,10 +1931,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>44993</v>
+        <v>44995</v>
       </c>
       <c r="C94" t="n">
-        <v>68840</v>
+        <v>69025</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -1947,10 +1947,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="C95" t="n">
-        <v>69610</v>
+        <v>68840</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -1963,10 +1963,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="C96" t="n">
-        <v>69400</v>
+        <v>69610</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -1979,10 +1979,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="C97" t="n">
-        <v>69865</v>
+        <v>69400</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -1995,10 +1995,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="C98" t="n">
-        <v>69710</v>
+        <v>69865</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2011,10 +2011,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="C99" t="n">
-        <v>68550</v>
+        <v>69710</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2027,10 +2027,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="C100" t="n">
-        <v>70050</v>
+        <v>68550</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2043,10 +2043,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="C101" t="n">
-        <v>70400</v>
+        <v>70050</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2059,10 +2059,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="C102" t="n">
-        <v>69705</v>
+        <v>70400</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2075,10 +2075,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>44974</v>
+        <v>44978</v>
       </c>
       <c r="C103" t="n">
-        <v>69080</v>
+        <v>69705</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2091,10 +2091,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="C104" t="n">
-        <v>68370</v>
+        <v>69080</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2107,10 +2107,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="C105" t="n">
-        <v>68950</v>
+        <v>68370</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2123,10 +2123,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="C106" t="n">
-        <v>68510</v>
+        <v>68950</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2139,10 +2139,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>44967</v>
+        <v>44971</v>
       </c>
       <c r="C107" t="n">
-        <v>68225</v>
+        <v>68510</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2155,10 +2155,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="C108" t="n">
-        <v>68240</v>
+        <v>68225</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2171,10 +2171,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="C109" t="n">
-        <v>68250</v>
+        <v>68240</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2187,10 +2187,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="C110" t="n">
-        <v>67860</v>
+        <v>68250</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2203,10 +2203,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>44960</v>
+        <v>44964</v>
       </c>
       <c r="C111" t="n">
-        <v>68425</v>
+        <v>67860</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2219,10 +2219,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="C112" t="n">
-        <v>69070</v>
+        <v>68425</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2235,10 +2235,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="C113" t="n">
-        <v>69560</v>
+        <v>69070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2251,10 +2251,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="C114" t="n">
-        <v>69425</v>
+        <v>69560</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2267,10 +2267,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>44946</v>
+        <v>44957</v>
       </c>
       <c r="C115" t="n">
-        <v>70150</v>
+        <v>69425</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2283,10 +2283,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="C116" t="n">
-        <v>69570</v>
+        <v>70150</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2299,10 +2299,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>44944</v>
+        <v>44945</v>
       </c>
       <c r="C117" t="n">
-        <v>69750</v>
+        <v>69570</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2315,10 +2315,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>44943</v>
+        <v>44944</v>
       </c>
       <c r="C118" t="n">
-        <v>68410</v>
+        <v>69750</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2331,10 +2331,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>44939</v>
+        <v>44943</v>
       </c>
       <c r="C119" t="n">
-        <v>68725</v>
+        <v>68410</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2347,10 +2347,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="C120" t="n">
-        <v>68430</v>
+        <v>68725</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2363,10 +2363,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="C121" t="n">
-        <v>67500</v>
+        <v>68430</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2379,10 +2379,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="C122" t="n">
-        <v>66475</v>
+        <v>67500</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2395,10 +2395,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>44925</v>
+        <v>44936</v>
       </c>
       <c r="C123" t="n">
-        <v>66175</v>
+        <v>66475</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2411,10 +2411,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="C124" t="n">
-        <v>66200</v>
+        <v>66175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2427,10 +2427,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="C125" t="n">
-        <v>66270</v>
+        <v>66200</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2443,10 +2443,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>44922</v>
+        <v>44923</v>
       </c>
       <c r="C126" t="n">
-        <v>66400</v>
+        <v>66270</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2459,10 +2459,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>44918</v>
+        <v>44922</v>
       </c>
       <c r="C127" t="n">
-        <v>66000</v>
+        <v>66400</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2475,10 +2475,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="C128" t="n">
-        <v>66750</v>
+        <v>66000</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2491,10 +2491,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="C129" t="n">
-        <v>66225</v>
+        <v>66750</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="C130" t="n">
-        <v>65575</v>
+        <v>66225</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2523,10 +2523,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>44911</v>
+        <v>44915</v>
       </c>
       <c r="C131" t="n">
-        <v>65750</v>
+        <v>65575</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2539,10 +2539,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="C132" t="n">
-        <v>66125</v>
+        <v>65750</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2555,10 +2555,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>44909</v>
+        <v>44910</v>
       </c>
       <c r="C133" t="n">
-        <v>66625</v>
+        <v>66125</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2571,10 +2571,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="C134" t="n">
-        <v>66175</v>
+        <v>66625</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2587,10 +2587,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>44904</v>
+        <v>44908</v>
       </c>
       <c r="C135" t="n">
-        <v>67000</v>
+        <v>66175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2603,10 +2603,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="C136" t="n">
-        <v>66290</v>
+        <v>67000</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2619,10 +2619,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="C137" t="n">
-        <v>66225</v>
+        <v>66290</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2635,10 +2635,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="C138" t="n">
-        <v>66575</v>
+        <v>66225</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2651,10 +2651,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>44897</v>
+        <v>44901</v>
       </c>
       <c r="C139" t="n">
-        <v>66400</v>
+        <v>66575</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2667,10 +2667,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="C140" t="n">
-        <v>66380</v>
+        <v>66400</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2683,10 +2683,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="C141" t="n">
-        <v>65290</v>
+        <v>66380</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2699,10 +2699,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="C142" t="n">
-        <v>65525</v>
+        <v>65290</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2715,10 +2715,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="C143" t="n">
-        <v>65640</v>
+        <v>65525</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -2731,10 +2731,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="C144" t="n">
-        <v>65490</v>
+        <v>65640</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -2747,10 +2747,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="C145" t="n">
-        <v>65260</v>
+        <v>65490</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -2763,10 +2763,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="C146" t="n">
-        <v>65170</v>
+        <v>65260</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -2779,10 +2779,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>44883</v>
+        <v>44887</v>
       </c>
       <c r="C147" t="n">
-        <v>66275</v>
+        <v>65170</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -2795,10 +2795,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="C148" t="n">
-        <v>66540</v>
+        <v>66275</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -2811,10 +2811,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="C149" t="n">
-        <v>67050</v>
+        <v>66540</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -2827,10 +2827,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="C150" t="n">
-        <v>67275</v>
+        <v>67050</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -2843,10 +2843,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>44876</v>
+        <v>44880</v>
       </c>
       <c r="C151" t="n">
-        <v>68575</v>
+        <v>67275</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -2859,10 +2859,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="C152" t="n">
-        <v>67400</v>
+        <v>68575</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -2875,10 +2875,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="C153" t="n">
-        <v>66800</v>
+        <v>67400</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -2891,10 +2891,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="C154" t="n">
-        <v>66225</v>
+        <v>66800</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -2907,10 +2907,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>44869</v>
+        <v>44873</v>
       </c>
       <c r="C155" t="n">
-        <v>64700</v>
+        <v>66225</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -2923,10 +2923,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="C156" t="n">
-        <v>64690</v>
+        <v>64700</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -2939,10 +2939,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="C157" t="n">
-        <v>64950</v>
+        <v>64690</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -2955,10 +2955,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>44866</v>
+        <v>44867</v>
       </c>
       <c r="C158" t="n">
-        <v>64300</v>
+        <v>64950</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -2971,10 +2971,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>44862</v>
+        <v>44866</v>
       </c>
       <c r="C159" t="n">
-        <v>64650</v>
+        <v>64300</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -2987,10 +2987,10 @@
         <v>158</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>44861</v>
+        <v>44862</v>
       </c>
       <c r="C160" t="n">
-        <v>64690</v>
+        <v>64650</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3003,10 +3003,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="C161" t="n">
-        <v>63950</v>
+        <v>64690</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3019,10 +3019,10 @@
         <v>160</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="C162" t="n">
-        <v>64300</v>
+        <v>63950</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3035,10 +3035,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>44855</v>
+        <v>44859</v>
       </c>
       <c r="C163" t="n">
-        <v>64000</v>
+        <v>64300</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3051,10 +3051,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="C164" t="n">
-        <v>62895</v>
+        <v>64000</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3067,10 +3067,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>44853</v>
+        <v>44854</v>
       </c>
       <c r="C165" t="n">
-        <v>62950</v>
+        <v>62895</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3083,10 +3083,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="C166" t="n">
-        <v>63550</v>
+        <v>62950</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3099,10 +3099,10 @@
         <v>165</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>44848</v>
+        <v>44852</v>
       </c>
       <c r="C167" t="n">
-        <v>64760</v>
+        <v>63550</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3115,10 +3115,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="C168" t="n">
-        <v>63960</v>
+        <v>64760</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3131,10 +3131,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="C169" t="n">
-        <v>63800</v>
+        <v>63960</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3147,10 +3147,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>44845</v>
+        <v>44846</v>
       </c>
       <c r="C170" t="n">
-        <v>63975</v>
+        <v>63800</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3163,10 +3163,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>44834</v>
+        <v>44845</v>
       </c>
       <c r="C171" t="n">
-        <v>62670</v>
+        <v>63975</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3179,10 +3179,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="C172" t="n">
-        <v>62430</v>
+        <v>62670</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3195,10 +3195,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="C173" t="n">
-        <v>61430</v>
+        <v>62430</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3211,10 +3211,10 @@
         <v>172</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="C174" t="n">
-        <v>61485</v>
+        <v>61430</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3227,10 +3227,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>44827</v>
+        <v>44831</v>
       </c>
       <c r="C175" t="n">
-        <v>63025</v>
+        <v>61485</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3243,10 +3243,10 @@
         <v>174</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="C176" t="n">
-        <v>63120</v>
+        <v>63025</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="C177" t="n">
         <v>63120</v>
@@ -3275,10 +3275,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="C178" t="n">
-        <v>63370</v>
+        <v>63120</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3291,10 +3291,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>44820</v>
+        <v>44824</v>
       </c>
       <c r="C179" t="n">
-        <v>62865</v>
+        <v>63370</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3307,10 +3307,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="C180" t="n">
-        <v>63370</v>
+        <v>62865</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3323,10 +3323,10 @@
         <v>179</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="C181" t="n">
-        <v>63050</v>
+        <v>63370</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3339,10 +3339,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="C182" t="n">
-        <v>63850</v>
+        <v>63050</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3355,10 +3355,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>44813</v>
+        <v>44817</v>
       </c>
       <c r="C183" t="n">
-        <v>63650</v>
+        <v>63850</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3371,10 +3371,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="C184" t="n">
-        <v>61910</v>
+        <v>63650</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3387,10 +3387,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="C185" t="n">
-        <v>61700</v>
+        <v>61910</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3403,10 +3403,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="2" t="n">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="C186" t="n">
-        <v>61750</v>
+        <v>61700</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3419,10 +3419,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="2" t="n">
-        <v>44806</v>
+        <v>44810</v>
       </c>
       <c r="C187" t="n">
-        <v>60500</v>
+        <v>61750</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3435,10 +3435,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="C188" t="n">
-        <v>61775</v>
+        <v>60500</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3451,10 +3451,10 @@
         <v>187</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="C189" t="n">
-        <v>62770</v>
+        <v>61775</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3467,10 +3467,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="2" t="n">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="C190" t="n">
-        <v>63120</v>
+        <v>62770</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3483,10 +3483,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="2" t="n">
-        <v>44799</v>
+        <v>44803</v>
       </c>
       <c r="C191" t="n">
-        <v>64270</v>
+        <v>63120</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3499,10 +3499,10 @@
         <v>190</v>
       </c>
       <c r="B192" s="2" t="n">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="C192" t="n">
-        <v>63330</v>
+        <v>64270</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3515,10 +3515,10 @@
         <v>191</v>
       </c>
       <c r="B193" s="2" t="n">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="C193" t="n">
-        <v>63715</v>
+        <v>63330</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3531,10 +3531,10 @@
         <v>192</v>
       </c>
       <c r="B194" s="2" t="n">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="C194" t="n">
-        <v>63570</v>
+        <v>63715</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3547,10 +3547,10 @@
         <v>193</v>
       </c>
       <c r="B195" s="2" t="n">
-        <v>44792</v>
+        <v>44796</v>
       </c>
       <c r="C195" t="n">
-        <v>62950</v>
+        <v>63570</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3563,10 +3563,10 @@
         <v>194</v>
       </c>
       <c r="B196" s="2" t="n">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="C196" t="n">
-        <v>62300</v>
+        <v>62950</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3579,10 +3579,10 @@
         <v>195</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="C197" t="n">
-        <v>62470</v>
+        <v>62300</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3595,10 +3595,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="C198" t="n">
-        <v>62460</v>
+        <v>62470</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -3611,10 +3611,10 @@
         <v>197</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>44785</v>
+        <v>44789</v>
       </c>
       <c r="C199" t="n">
-        <v>63000</v>
+        <v>62460</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -3627,10 +3627,10 @@
         <v>198</v>
       </c>
       <c r="B200" s="2" t="n">
-        <v>44784</v>
+        <v>44785</v>
       </c>
       <c r="C200" t="n">
-        <v>62520</v>
+        <v>63000</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -3643,10 +3643,10 @@
         <v>199</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>44783</v>
+        <v>44784</v>
       </c>
       <c r="C201" t="n">
-        <v>61780</v>
+        <v>62520</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -3659,10 +3659,10 @@
         <v>200</v>
       </c>
       <c r="B202" s="2" t="n">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="C202" t="n">
-        <v>61540</v>
+        <v>61780</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -3675,10 +3675,10 @@
         <v>201</v>
       </c>
       <c r="B203" s="2" t="n">
-        <v>44778</v>
+        <v>44782</v>
       </c>
       <c r="C203" t="n">
-        <v>60520</v>
+        <v>61540</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -3691,10 +3691,10 @@
         <v>202</v>
       </c>
       <c r="B204" s="2" t="n">
-        <v>44777</v>
+        <v>44778</v>
       </c>
       <c r="C204" t="n">
-        <v>59930</v>
+        <v>60520</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -3707,10 +3707,10 @@
         <v>203</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="C205" t="n">
-        <v>60260</v>
+        <v>59930</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -3723,10 +3723,10 @@
         <v>204</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>44775</v>
+        <v>44776</v>
       </c>
       <c r="C206" t="n">
-        <v>60180</v>
+        <v>60260</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -3739,10 +3739,10 @@
         <v>205</v>
       </c>
       <c r="B207" s="2" t="n">
-        <v>44771</v>
+        <v>44775</v>
       </c>
       <c r="C207" t="n">
-        <v>60315</v>
+        <v>60180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -3755,10 +3755,10 @@
         <v>206</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>44770</v>
+        <v>44771</v>
       </c>
       <c r="C208" t="n">
-        <v>60090</v>
+        <v>60315</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -3771,10 +3771,10 @@
         <v>207</v>
       </c>
       <c r="B209" s="2" t="n">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="C209" t="n">
-        <v>58710</v>
+        <v>60090</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -3787,10 +3787,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="2" t="n">
-        <v>44768</v>
+        <v>44769</v>
       </c>
       <c r="C210" t="n">
-        <v>58930</v>
+        <v>58710</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -3803,10 +3803,10 @@
         <v>209</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>44764</v>
+        <v>44768</v>
       </c>
       <c r="C211" t="n">
-        <v>57030</v>
+        <v>58930</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -3819,10 +3819,10 @@
         <v>210</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="C212" t="n">
-        <v>56360</v>
+        <v>57030</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -3835,10 +3835,10 @@
         <v>211</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="C213" t="n">
-        <v>56920</v>
+        <v>56360</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -3851,10 +3851,10 @@
         <v>212</v>
       </c>
       <c r="B214" s="2" t="n">
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="C214" t="n">
-        <v>56210</v>
+        <v>56920</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -3867,10 +3867,10 @@
         <v>213</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>44757</v>
+        <v>44761</v>
       </c>
       <c r="C215" t="n">
-        <v>54890</v>
+        <v>56210</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -3883,10 +3883,10 @@
         <v>214</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="C216" t="n">
-        <v>56300</v>
+        <v>54890</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -3899,10 +3899,10 @@
         <v>215</v>
       </c>
       <c r="B217" s="2" t="n">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="C217" t="n">
-        <v>56460</v>
+        <v>56300</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -3915,10 +3915,10 @@
         <v>216</v>
       </c>
       <c r="B218" s="2" t="n">
-        <v>44754</v>
+        <v>44755</v>
       </c>
       <c r="C218" t="n">
-        <v>58430</v>
+        <v>56460</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -3931,10 +3931,10 @@
         <v>217</v>
       </c>
       <c r="B219" s="2" t="n">
-        <v>44750</v>
+        <v>44754</v>
       </c>
       <c r="C219" t="n">
-        <v>59600</v>
+        <v>58430</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -3947,10 +3947,10 @@
         <v>218</v>
       </c>
       <c r="B220" s="2" t="n">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="C220" t="n">
-        <v>58600</v>
+        <v>59600</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -3963,10 +3963,10 @@
         <v>219</v>
       </c>
       <c r="B221" s="2" t="n">
-        <v>44748</v>
+        <v>44749</v>
       </c>
       <c r="C221" t="n">
-        <v>58125</v>
+        <v>58600</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -3979,10 +3979,10 @@
         <v>220</v>
       </c>
       <c r="B222" s="2" t="n">
-        <v>44747</v>
+        <v>44748</v>
       </c>
       <c r="C222" t="n">
-        <v>61225</v>
+        <v>58125</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -3995,10 +3995,10 @@
         <v>221</v>
       </c>
       <c r="B223" s="2" t="n">
-        <v>44743</v>
+        <v>44747</v>
       </c>
       <c r="C223" t="n">
-        <v>62930</v>
+        <v>61225</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4011,10 +4011,10 @@
         <v>222</v>
       </c>
       <c r="B224" s="2" t="n">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="C224" t="n">
-        <v>64230</v>
+        <v>62930</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -4027,10 +4027,10 @@
         <v>223</v>
       </c>
       <c r="B225" s="2" t="n">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="C225" t="n">
-        <v>63940</v>
+        <v>64230</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4043,10 +4043,10 @@
         <v>224</v>
       </c>
       <c r="B226" s="2" t="n">
-        <v>44740</v>
+        <v>44741</v>
       </c>
       <c r="C226" t="n">
-        <v>64150</v>
+        <v>63940</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4059,10 +4059,10 @@
         <v>225</v>
       </c>
       <c r="B227" s="2" t="n">
-        <v>44736</v>
+        <v>44740</v>
       </c>
       <c r="C227" t="n">
-        <v>64340</v>
+        <v>64150</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4075,10 +4075,10 @@
         <v>226</v>
       </c>
       <c r="B228" s="2" t="n">
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="C228" t="n">
-        <v>66050</v>
+        <v>64340</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4091,10 +4091,10 @@
         <v>227</v>
       </c>
       <c r="B229" s="2" t="n">
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="C229" t="n">
-        <v>68160</v>
+        <v>66050</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4107,10 +4107,10 @@
         <v>228</v>
       </c>
       <c r="B230" s="2" t="n">
-        <v>44733</v>
+        <v>44734</v>
       </c>
       <c r="C230" t="n">
-        <v>68700</v>
+        <v>68160</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4123,10 +4123,10 @@
         <v>229</v>
       </c>
       <c r="B231" s="2" t="n">
-        <v>44729</v>
+        <v>44733</v>
       </c>
       <c r="C231" t="n">
-        <v>69975</v>
+        <v>68700</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4139,10 +4139,10 @@
         <v>230</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>44728</v>
+        <v>44729</v>
       </c>
       <c r="C232" t="n">
-        <v>71255</v>
+        <v>69975</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4155,10 +4155,10 @@
         <v>231</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>44727</v>
+        <v>44728</v>
       </c>
       <c r="C233" t="n">
-        <v>71250</v>
+        <v>71255</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4171,10 +4171,10 @@
         <v>232</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>44722</v>
+        <v>44727</v>
       </c>
       <c r="C234" t="n">
-        <v>72750</v>
+        <v>71250</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -4187,10 +4187,10 @@
         <v>233</v>
       </c>
       <c r="B235" s="2" t="n">
-        <v>44721</v>
+        <v>44722</v>
       </c>
       <c r="C235" t="n">
-        <v>73030</v>
+        <v>72750</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -4203,10 +4203,10 @@
         <v>234</v>
       </c>
       <c r="B236" s="2" t="n">
-        <v>44720</v>
+        <v>44721</v>
       </c>
       <c r="C236" t="n">
-        <v>72890</v>
+        <v>73030</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4219,10 +4219,10 @@
         <v>235</v>
       </c>
       <c r="B237" s="2" t="n">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="C237" t="n">
-        <v>72975</v>
+        <v>72890</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4235,10 +4235,10 @@
         <v>236</v>
       </c>
       <c r="B238" s="2" t="n">
-        <v>44714</v>
+        <v>44719</v>
       </c>
       <c r="C238" t="n">
-        <v>72530</v>
+        <v>72975</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -4251,10 +4251,10 @@
         <v>237</v>
       </c>
       <c r="B239" s="2" t="n">
-        <v>44713</v>
+        <v>44714</v>
       </c>
       <c r="C239" t="n">
-        <v>72150</v>
+        <v>72530</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4267,10 +4267,10 @@
         <v>238</v>
       </c>
       <c r="B240" s="2" t="n">
-        <v>44712</v>
+        <v>44713</v>
       </c>
       <c r="C240" t="n">
-        <v>72630</v>
+        <v>72150</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4283,10 +4283,10 @@
         <v>239</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>44708</v>
+        <v>44712</v>
       </c>
       <c r="C241" t="n">
-        <v>72625</v>
+        <v>72630</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -4299,10 +4299,10 @@
         <v>240</v>
       </c>
       <c r="B242" s="2" t="n">
-        <v>44707</v>
+        <v>44708</v>
       </c>
       <c r="C242" t="n">
-        <v>71950</v>
+        <v>72625</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -4315,10 +4315,10 @@
         <v>241</v>
       </c>
       <c r="B243" s="2" t="n">
-        <v>44706</v>
+        <v>44707</v>
       </c>
       <c r="C243" t="n">
-        <v>72220</v>
+        <v>71950</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>242</v>
       </c>
       <c r="B244" s="2" t="n">
-        <v>44705</v>
+        <v>44706</v>
       </c>
       <c r="C244" t="n">
-        <v>72500</v>
+        <v>72220</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4347,10 +4347,10 @@
         <v>243</v>
       </c>
       <c r="B245" s="2" t="n">
-        <v>44701</v>
+        <v>44705</v>
       </c>
       <c r="C245" t="n">
-        <v>72150</v>
+        <v>72500</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4363,10 +4363,10 @@
         <v>244</v>
       </c>
       <c r="B246" s="2" t="n">
-        <v>44700</v>
+        <v>44701</v>
       </c>
       <c r="C246" t="n">
-        <v>71775</v>
+        <v>72150</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4379,10 +4379,10 @@
         <v>245</v>
       </c>
       <c r="B247" s="2" t="n">
-        <v>44699</v>
+        <v>44700</v>
       </c>
       <c r="C247" t="n">
-        <v>72070</v>
+        <v>71775</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4395,10 +4395,10 @@
         <v>246</v>
       </c>
       <c r="B248" s="2" t="n">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="C248" t="n">
-        <v>72175</v>
+        <v>72070</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -4411,10 +4411,10 @@
         <v>247</v>
       </c>
       <c r="B249" s="2" t="n">
-        <v>44694</v>
+        <v>44698</v>
       </c>
       <c r="C249" t="n">
-        <v>71160</v>
+        <v>72175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4427,10 +4427,10 @@
         <v>248</v>
       </c>
       <c r="B250" s="2" t="n">
-        <v>44693</v>
+        <v>44694</v>
       </c>
       <c r="C250" t="n">
-        <v>72050</v>
+        <v>71160</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -4443,10 +4443,10 @@
         <v>249</v>
       </c>
       <c r="B251" s="2" t="n">
-        <v>44687</v>
+        <v>44693</v>
       </c>
       <c r="C251" t="n">
-        <v>72875</v>
+        <v>72050</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -4459,10 +4459,10 @@
         <v>250</v>
       </c>
       <c r="B252" s="2" t="n">
-        <v>44686</v>
+        <v>44687</v>
       </c>
       <c r="C252" t="n">
-        <v>73760</v>
+        <v>72875</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -4475,10 +4475,10 @@
         <v>251</v>
       </c>
       <c r="B253" s="2" t="n">
-        <v>44680</v>
+        <v>44686</v>
       </c>
       <c r="C253" t="n">
-        <v>73930</v>
+        <v>73760</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -4491,10 +4491,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="2" t="n">
-        <v>44679</v>
+        <v>44680</v>
       </c>
       <c r="C254" t="n">
-        <v>74005</v>
+        <v>73930</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -4507,10 +4507,10 @@
         <v>253</v>
       </c>
       <c r="B255" s="2" t="n">
-        <v>44678</v>
+        <v>44679</v>
       </c>
       <c r="C255" t="n">
-        <v>73770</v>
+        <v>74005</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -4523,10 +4523,10 @@
         <v>254</v>
       </c>
       <c r="B256" s="2" t="n">
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="C256" t="n">
-        <v>73950</v>
+        <v>73770</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -4539,10 +4539,10 @@
         <v>255</v>
       </c>
       <c r="B257" s="2" t="n">
-        <v>44673</v>
+        <v>44677</v>
       </c>
       <c r="C257" t="n">
-        <v>75070</v>
+        <v>73950</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -4555,10 +4555,10 @@
         <v>256</v>
       </c>
       <c r="B258" s="2" t="n">
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="C258" t="n">
-        <v>74850</v>
+        <v>75070</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -4571,10 +4571,10 @@
         <v>257</v>
       </c>
       <c r="B259" s="2" t="n">
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="C259" t="n">
-        <v>74740</v>
+        <v>74850</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -4587,10 +4587,10 @@
         <v>258</v>
       </c>
       <c r="B260" s="2" t="n">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="C260" t="n">
-        <v>75575</v>
+        <v>74740</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -4603,10 +4603,10 @@
         <v>259</v>
       </c>
       <c r="B261" s="2" t="n">
-        <v>44666</v>
+        <v>44670</v>
       </c>
       <c r="C261" t="n">
-        <v>75385</v>
+        <v>75575</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -4619,10 +4619,10 @@
         <v>260</v>
       </c>
       <c r="B262" s="2" t="n">
-        <v>44665</v>
+        <v>44666</v>
       </c>
       <c r="C262" t="n">
-        <v>74370</v>
+        <v>75385</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -4635,10 +4635,10 @@
         <v>261</v>
       </c>
       <c r="B263" s="2" t="n">
-        <v>44664</v>
+        <v>44665</v>
       </c>
       <c r="C263" t="n">
-        <v>74550</v>
+        <v>74370</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -4651,10 +4651,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="2" t="n">
-        <v>44663</v>
+        <v>44664</v>
       </c>
       <c r="C264" t="n">
-        <v>73790</v>
+        <v>74550</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -4667,10 +4667,10 @@
         <v>263</v>
       </c>
       <c r="B265" s="2" t="n">
-        <v>44659</v>
+        <v>44663</v>
       </c>
       <c r="C265" t="n">
-        <v>73765</v>
+        <v>73790</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -4683,10 +4683,10 @@
         <v>264</v>
       </c>
       <c r="B266" s="2" t="n">
-        <v>44658</v>
+        <v>44659</v>
       </c>
       <c r="C266" t="n">
-        <v>73690</v>
+        <v>73765</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -4699,10 +4699,10 @@
         <v>265</v>
       </c>
       <c r="B267" s="2" t="n">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C267" t="n">
-        <v>74000</v>
+        <v>73690</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -4715,10 +4715,10 @@
         <v>266</v>
       </c>
       <c r="B268" s="2" t="n">
-        <v>44652</v>
+        <v>44657</v>
       </c>
       <c r="C268" t="n">
-        <v>73635</v>
+        <v>74000</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -4731,10 +4731,10 @@
         <v>267</v>
       </c>
       <c r="B269" s="2" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="C269" t="n">
-        <v>73575</v>
+        <v>73635</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -4747,10 +4747,10 @@
         <v>268</v>
       </c>
       <c r="B270" s="2" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="C270" t="n">
-        <v>73980</v>
+        <v>73575</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -4763,10 +4763,10 @@
         <v>269</v>
       </c>
       <c r="B271" s="2" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="C271" t="n">
-        <v>74100</v>
+        <v>73980</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -4779,10 +4779,10 @@
         <v>270</v>
       </c>
       <c r="B272" s="2" t="n">
-        <v>44645</v>
+        <v>44649</v>
       </c>
       <c r="C272" t="n">
-        <v>73775</v>
+        <v>74100</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -4795,10 +4795,10 @@
         <v>271</v>
       </c>
       <c r="B273" s="2" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="C273" t="n">
-        <v>73880</v>
+        <v>73775</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -4811,10 +4811,10 @@
         <v>272</v>
       </c>
       <c r="B274" s="2" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="C274" t="n">
-        <v>73410</v>
+        <v>73880</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -4827,10 +4827,10 @@
         <v>273</v>
       </c>
       <c r="B275" s="2" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="C275" t="n">
-        <v>73510</v>
+        <v>73410</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -4843,10 +4843,10 @@
         <v>274</v>
       </c>
       <c r="B276" s="2" t="n">
-        <v>44638</v>
+        <v>44642</v>
       </c>
       <c r="C276" t="n">
-        <v>73310</v>
+        <v>73510</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -4859,10 +4859,10 @@
         <v>275</v>
       </c>
       <c r="B277" s="2" t="n">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="C277" t="n">
-        <v>72740</v>
+        <v>73310</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -4875,10 +4875,10 @@
         <v>276</v>
       </c>
       <c r="B278" s="2" t="n">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="C278" t="n">
-        <v>72060</v>
+        <v>72740</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -4891,10 +4891,10 @@
         <v>277</v>
       </c>
       <c r="B279" s="2" t="n">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="C279" t="n">
-        <v>71790</v>
+        <v>72060</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -4907,10 +4907,10 @@
         <v>278</v>
       </c>
       <c r="B280" s="2" t="n">
-        <v>44631</v>
+        <v>44635</v>
       </c>
       <c r="C280" t="n">
-        <v>72170</v>
+        <v>71790</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -4923,10 +4923,10 @@
         <v>279</v>
       </c>
       <c r="B281" s="2" t="n">
-        <v>44630</v>
+        <v>44631</v>
       </c>
       <c r="C281" t="n">
-        <v>72080</v>
+        <v>72170</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -4939,10 +4939,10 @@
         <v>280</v>
       </c>
       <c r="B282" s="2" t="n">
-        <v>44624</v>
+        <v>44630</v>
       </c>
       <c r="C282" t="n">
-        <v>72930</v>
+        <v>72080</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -4955,10 +4955,10 @@
         <v>281</v>
       </c>
       <c r="B283" s="2" t="n">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="C283" t="n">
-        <v>72540</v>
+        <v>72930</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -4971,10 +4971,10 @@
         <v>282</v>
       </c>
       <c r="B284" s="2" t="n">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="C284" t="n">
-        <v>71520</v>
+        <v>72540</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>283</v>
       </c>
       <c r="B285" s="2" t="n">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="C285" t="n">
-        <v>70880</v>
+        <v>71520</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5003,10 +5003,10 @@
         <v>284</v>
       </c>
       <c r="B286" s="2" t="n">
-        <v>44617</v>
+        <v>44621</v>
       </c>
       <c r="C286" t="n">
-        <v>71010</v>
+        <v>70880</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5019,10 +5019,10 @@
         <v>285</v>
       </c>
       <c r="B287" s="2" t="n">
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="C287" t="n">
-        <v>71170</v>
+        <v>71010</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5035,10 +5035,10 @@
         <v>286</v>
       </c>
       <c r="B288" s="2" t="n">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="C288" t="n">
-        <v>71140</v>
+        <v>71170</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5051,10 +5051,10 @@
         <v>287</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>44610</v>
+        <v>44614</v>
       </c>
       <c r="C289" t="n">
-        <v>71525</v>
+        <v>71140</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5067,10 +5067,10 @@
         <v>288</v>
       </c>
       <c r="B290" s="2" t="n">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="C290" t="n">
-        <v>71550</v>
+        <v>71525</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="2" t="n">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="C291" t="n">
         <v>71550</v>
@@ -5099,10 +5099,10 @@
         <v>290</v>
       </c>
       <c r="B292" s="2" t="n">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="C292" t="n">
-        <v>71090</v>
+        <v>71550</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5115,10 +5115,10 @@
         <v>291</v>
       </c>
       <c r="B293" s="2" t="n">
-        <v>44603</v>
+        <v>44607</v>
       </c>
       <c r="C293" t="n">
-        <v>72580</v>
+        <v>71090</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -5131,10 +5131,10 @@
         <v>292</v>
       </c>
       <c r="B294" s="2" t="n">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="C294" t="n">
-        <v>72210</v>
+        <v>72580</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5147,10 +5147,10 @@
         <v>293</v>
       </c>
       <c r="B295" s="2" t="n">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="C295" t="n">
-        <v>70500</v>
+        <v>72210</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5163,10 +5163,10 @@
         <v>294</v>
       </c>
       <c r="B296" s="2" t="n">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="C296" t="n">
-        <v>70690</v>
+        <v>70500</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5179,10 +5179,10 @@
         <v>295</v>
       </c>
       <c r="B297" s="2" t="n">
-        <v>44589</v>
+        <v>44600</v>
       </c>
       <c r="C297" t="n">
-        <v>70480</v>
+        <v>70690</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5195,10 +5195,10 @@
         <v>296</v>
       </c>
       <c r="B298" s="2" t="n">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="C298" t="n">
-        <v>70400</v>
+        <v>70480</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5211,10 +5211,10 @@
         <v>297</v>
       </c>
       <c r="B299" s="2" t="n">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="C299" t="n">
-        <v>70270</v>
+        <v>70400</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5227,10 +5227,10 @@
         <v>298</v>
       </c>
       <c r="B300" s="2" t="n">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="C300" t="n">
-        <v>70040</v>
+        <v>70270</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5243,10 +5243,10 @@
         <v>299</v>
       </c>
       <c r="B301" s="2" t="n">
-        <v>44582</v>
+        <v>44586</v>
       </c>
       <c r="C301" t="n">
-        <v>71000</v>
+        <v>70040</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5259,10 +5259,10 @@
         <v>300</v>
       </c>
       <c r="B302" s="2" t="n">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="C302" t="n">
-        <v>70930</v>
+        <v>71000</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5275,10 +5275,10 @@
         <v>301</v>
       </c>
       <c r="B303" s="2" t="n">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="C303" t="n">
-        <v>70330</v>
+        <v>70930</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5291,10 +5291,10 @@
         <v>302</v>
       </c>
       <c r="B304" s="2" t="n">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="C304" t="n">
-        <v>70525</v>
+        <v>70330</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5307,10 +5307,10 @@
         <v>303</v>
       </c>
       <c r="B305" s="2" t="n">
-        <v>44575</v>
+        <v>44579</v>
       </c>
       <c r="C305" t="n">
-        <v>71570</v>
+        <v>70525</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5323,10 +5323,10 @@
         <v>304</v>
       </c>
       <c r="B306" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C306" t="n">
-        <v>72130</v>
+        <v>71570</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5339,10 +5339,10 @@
         <v>305</v>
       </c>
       <c r="B307" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C307" t="n">
-        <v>70850</v>
+        <v>72130</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5355,10 +5355,10 @@
         <v>306</v>
       </c>
       <c r="B308" s="2" t="n">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="C308" t="n">
-        <v>69900</v>
+        <v>70850</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -5371,10 +5371,10 @@
         <v>307</v>
       </c>
       <c r="B309" s="2" t="n">
-        <v>44561</v>
+        <v>44572</v>
       </c>
       <c r="C309" t="n">
-        <v>69910</v>
+        <v>69900</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -5387,10 +5387,10 @@
         <v>308</v>
       </c>
       <c r="B310" s="2" t="n">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="C310" t="n">
-        <v>70020</v>
+        <v>69910</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -5403,10 +5403,10 @@
         <v>309</v>
       </c>
       <c r="B311" s="2" t="n">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="C311" t="n">
-        <v>70060</v>
+        <v>70020</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -5419,10 +5419,10 @@
         <v>310</v>
       </c>
       <c r="B312" s="2" t="n">
-        <v>44558</v>
+        <v>44559</v>
       </c>
       <c r="C312" t="n">
-        <v>70270</v>
+        <v>70060</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -5435,10 +5435,10 @@
         <v>311</v>
       </c>
       <c r="B313" s="2" t="n">
-        <v>44554</v>
+        <v>44558</v>
       </c>
       <c r="C313" t="n">
-        <v>69840</v>
+        <v>70270</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -5451,10 +5451,10 @@
         <v>312</v>
       </c>
       <c r="B314" s="2" t="n">
-        <v>44553</v>
+        <v>44554</v>
       </c>
       <c r="C314" t="n">
-        <v>69850</v>
+        <v>69840</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -5467,10 +5467,10 @@
         <v>313</v>
       </c>
       <c r="B315" s="2" t="n">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="C315" t="n">
-        <v>69520</v>
+        <v>69850</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -5483,10 +5483,10 @@
         <v>314</v>
       </c>
       <c r="B316" s="2" t="n">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="C316" t="n">
-        <v>69385</v>
+        <v>69520</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -5499,10 +5499,10 @@
         <v>315</v>
       </c>
       <c r="B317" s="2" t="n">
-        <v>44547</v>
+        <v>44551</v>
       </c>
       <c r="C317" t="n">
-        <v>69525</v>
+        <v>69385</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -5515,10 +5515,10 @@
         <v>316</v>
       </c>
       <c r="B318" s="2" t="n">
-        <v>44546</v>
+        <v>44547</v>
       </c>
       <c r="C318" t="n">
-        <v>68570</v>
+        <v>69525</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -5531,10 +5531,10 @@
         <v>317</v>
       </c>
       <c r="B319" s="2" t="n">
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="C319" t="n">
-        <v>68875</v>
+        <v>68570</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -5547,10 +5547,10 @@
         <v>318</v>
       </c>
       <c r="B320" s="2" t="n">
-        <v>44544</v>
+        <v>44545</v>
       </c>
       <c r="C320" t="n">
-        <v>68900</v>
+        <v>68875</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -5563,10 +5563,10 @@
         <v>319</v>
       </c>
       <c r="B321" s="2" t="n">
-        <v>44540</v>
+        <v>44544</v>
       </c>
       <c r="C321" t="n">
-        <v>69750</v>
+        <v>68900</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -5579,10 +5579,10 @@
         <v>320</v>
       </c>
       <c r="B322" s="2" t="n">
-        <v>44539</v>
+        <v>44540</v>
       </c>
       <c r="C322" t="n">
-        <v>69980</v>
+        <v>69750</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -5595,10 +5595,10 @@
         <v>321</v>
       </c>
       <c r="B323" s="2" t="n">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="C323" t="n">
-        <v>69815</v>
+        <v>69980</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -5611,10 +5611,10 @@
         <v>322</v>
       </c>
       <c r="B324" s="2" t="n">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="C324" t="n">
-        <v>69760</v>
+        <v>69815</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -5627,10 +5627,10 @@
         <v>323</v>
       </c>
       <c r="B325" s="2" t="n">
-        <v>44533</v>
+        <v>44537</v>
       </c>
       <c r="C325" t="n">
-        <v>69830</v>
+        <v>69760</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>324</v>
       </c>
       <c r="B326" s="2" t="n">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="C326" t="n">
-        <v>69900</v>
+        <v>69830</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -5659,10 +5659,10 @@
         <v>325</v>
       </c>
       <c r="B327" s="2" t="n">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="C327" t="n">
-        <v>70180</v>
+        <v>69900</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -5675,10 +5675,10 @@
         <v>326</v>
       </c>
       <c r="B328" s="2" t="n">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="C328" t="n">
-        <v>70650</v>
+        <v>70180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -5691,10 +5691,10 @@
         <v>327</v>
       </c>
       <c r="B329" s="2" t="n">
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="C329" t="n">
-        <v>71610</v>
+        <v>70650</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -5707,10 +5707,10 @@
         <v>328</v>
       </c>
       <c r="B330" s="2" t="n">
-        <v>44525</v>
+        <v>44526</v>
       </c>
       <c r="C330" t="n">
-        <v>72330</v>
+        <v>71610</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -5723,10 +5723,10 @@
         <v>329</v>
       </c>
       <c r="B331" s="2" t="n">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="C331" t="n">
-        <v>71820</v>
+        <v>72330</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -5739,10 +5739,10 @@
         <v>330</v>
       </c>
       <c r="B332" s="2" t="n">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="C332" t="n">
-        <v>72510</v>
+        <v>71820</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -5755,10 +5755,10 @@
         <v>331</v>
       </c>
       <c r="B333" s="2" t="n">
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="C333" t="n">
-        <v>72250</v>
+        <v>72510</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -5771,10 +5771,10 @@
         <v>332</v>
       </c>
       <c r="B334" s="2" t="n">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="C334" t="n">
-        <v>70350</v>
+        <v>72250</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -5787,10 +5787,10 @@
         <v>333</v>
       </c>
       <c r="B335" s="2" t="n">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="C335" t="n">
-        <v>70955</v>
+        <v>70350</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -5803,10 +5803,10 @@
         <v>334</v>
       </c>
       <c r="B336" s="2" t="n">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="C336" t="n">
-        <v>71750</v>
+        <v>70955</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -5819,10 +5819,10 @@
         <v>335</v>
       </c>
       <c r="B337" s="2" t="n">
-        <v>44512</v>
+        <v>44516</v>
       </c>
       <c r="C337" t="n">
-        <v>71435</v>
+        <v>71750</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -5835,10 +5835,10 @@
         <v>336</v>
       </c>
       <c r="B338" s="2" t="n">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="C338" t="n">
-        <v>70780</v>
+        <v>71435</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -5851,10 +5851,10 @@
         <v>337</v>
       </c>
       <c r="B339" s="2" t="n">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="C339" t="n">
-        <v>70650</v>
+        <v>70780</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -5867,10 +5867,10 @@
         <v>338</v>
       </c>
       <c r="B340" s="2" t="n">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="C340" t="n">
-        <v>71110</v>
+        <v>70650</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -5883,10 +5883,10 @@
         <v>339</v>
       </c>
       <c r="B341" s="2" t="n">
-        <v>44504</v>
+        <v>44509</v>
       </c>
       <c r="C341" t="n">
-        <v>71270</v>
+        <v>71110</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -5899,10 +5899,10 @@
         <v>340</v>
       </c>
       <c r="B342" s="2" t="n">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="C342" t="n">
-        <v>70910</v>
+        <v>71270</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -5915,10 +5915,10 @@
         <v>341</v>
       </c>
       <c r="B343" s="2" t="n">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="C343" t="n">
-        <v>71180</v>
+        <v>70910</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -5931,10 +5931,10 @@
         <v>342</v>
       </c>
       <c r="B344" s="2" t="n">
-        <v>44498</v>
+        <v>44502</v>
       </c>
       <c r="C344" t="n">
-        <v>71575</v>
+        <v>71180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -5947,10 +5947,10 @@
         <v>343</v>
       </c>
       <c r="B345" s="2" t="n">
-        <v>44497</v>
+        <v>44498</v>
       </c>
       <c r="C345" t="n">
-        <v>70770</v>
+        <v>71575</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -5963,10 +5963,10 @@
         <v>344</v>
       </c>
       <c r="B346" s="2" t="n">
-        <v>44496</v>
+        <v>44497</v>
       </c>
       <c r="C346" t="n">
-        <v>72060</v>
+        <v>70770</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -5979,10 +5979,10 @@
         <v>345</v>
       </c>
       <c r="B347" s="2" t="n">
-        <v>44495</v>
+        <v>44496</v>
       </c>
       <c r="C347" t="n">
-        <v>72585</v>
+        <v>72060</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -5995,10 +5995,10 @@
         <v>346</v>
       </c>
       <c r="B348" s="2" t="n">
-        <v>44491</v>
+        <v>44495</v>
       </c>
       <c r="C348" t="n">
-        <v>73125</v>
+        <v>72585</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -6011,10 +6011,10 @@
         <v>347</v>
       </c>
       <c r="B349" s="2" t="n">
-        <v>44490</v>
+        <v>44491</v>
       </c>
       <c r="C349" t="n">
-        <v>75190</v>
+        <v>73125</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -6027,10 +6027,10 @@
         <v>348</v>
       </c>
       <c r="B350" s="2" t="n">
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="C350" t="n">
-        <v>73430</v>
+        <v>75190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6043,10 +6043,10 @@
         <v>349</v>
       </c>
       <c r="B351" s="2" t="n">
-        <v>44488</v>
+        <v>44489</v>
       </c>
       <c r="C351" t="n">
-        <v>75750</v>
+        <v>73430</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -6059,10 +6059,10 @@
         <v>350</v>
       </c>
       <c r="B352" s="2" t="n">
-        <v>44484</v>
+        <v>44488</v>
       </c>
       <c r="C352" t="n">
-        <v>74060</v>
+        <v>75750</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6075,10 +6075,10 @@
         <v>351</v>
       </c>
       <c r="B353" s="2" t="n">
-        <v>44483</v>
+        <v>44484</v>
       </c>
       <c r="C353" t="n">
-        <v>72540</v>
+        <v>74060</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -6091,10 +6091,10 @@
         <v>352</v>
       </c>
       <c r="B354" s="2" t="n">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="C354" t="n">
-        <v>70160</v>
+        <v>72540</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6107,10 +6107,10 @@
         <v>353</v>
       </c>
       <c r="B355" s="2" t="n">
-        <v>44481</v>
+        <v>44482</v>
       </c>
       <c r="C355" t="n">
-        <v>70320</v>
+        <v>70160</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -6123,10 +6123,10 @@
         <v>354</v>
       </c>
       <c r="B356" s="2" t="n">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="C356" t="n">
-        <v>69940</v>
+        <v>70320</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -6139,10 +6139,10 @@
         <v>355</v>
       </c>
       <c r="B357" s="2" t="n">
-        <v>44469</v>
+        <v>44477</v>
       </c>
       <c r="C357" t="n">
-        <v>68700</v>
+        <v>69940</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -6155,10 +6155,10 @@
         <v>356</v>
       </c>
       <c r="B358" s="2" t="n">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="C358" t="n">
-        <v>68965</v>
+        <v>68700</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -6171,10 +6171,10 @@
         <v>357</v>
       </c>
       <c r="B359" s="2" t="n">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="C359" t="n">
-        <v>69520</v>
+        <v>68965</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -6187,10 +6187,10 @@
         <v>358</v>
       </c>
       <c r="B360" s="2" t="n">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="C360" t="n">
-        <v>69375</v>
+        <v>69520</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -6203,10 +6203,10 @@
         <v>359</v>
       </c>
       <c r="B361" s="2" t="n">
-        <v>44462</v>
+        <v>44463</v>
       </c>
       <c r="C361" t="n">
-        <v>69040</v>
+        <v>69375</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -6219,10 +6219,10 @@
         <v>360</v>
       </c>
       <c r="B362" s="2" t="n">
-        <v>44461</v>
+        <v>44462</v>
       </c>
       <c r="C362" t="n">
-        <v>69075</v>
+        <v>69040</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -6235,10 +6235,10 @@
         <v>361</v>
       </c>
       <c r="B363" s="2" t="n">
-        <v>44456</v>
+        <v>44461</v>
       </c>
       <c r="C363" t="n">
-        <v>69810</v>
+        <v>69075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -6251,10 +6251,10 @@
         <v>362</v>
       </c>
       <c r="B364" s="2" t="n">
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="C364" t="n">
-        <v>70460</v>
+        <v>69810</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -6267,10 +6267,10 @@
         <v>363</v>
       </c>
       <c r="B365" s="2" t="n">
-        <v>44454</v>
+        <v>44455</v>
       </c>
       <c r="C365" t="n">
-        <v>69860</v>
+        <v>70460</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -6283,10 +6283,10 @@
         <v>364</v>
       </c>
       <c r="B366" s="2" t="n">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="C366" t="n">
-        <v>70520</v>
+        <v>69860</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -6299,10 +6299,10 @@
         <v>365</v>
       </c>
       <c r="B367" s="2" t="n">
-        <v>44449</v>
+        <v>44453</v>
       </c>
       <c r="C367" t="n">
-        <v>70035</v>
+        <v>70520</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -6315,10 +6315,10 @@
         <v>366</v>
       </c>
       <c r="B368" s="2" t="n">
-        <v>44448</v>
+        <v>44449</v>
       </c>
       <c r="C368" t="n">
-        <v>68850</v>
+        <v>70035</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -6331,10 +6331,10 @@
         <v>367</v>
       </c>
       <c r="B369" s="2" t="n">
-        <v>44447</v>
+        <v>44448</v>
       </c>
       <c r="C369" t="n">
-        <v>69250</v>
+        <v>68850</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -6347,10 +6347,10 @@
         <v>368</v>
       </c>
       <c r="B370" s="2" t="n">
-        <v>44446</v>
+        <v>44447</v>
       </c>
       <c r="C370" t="n">
-        <v>69580</v>
+        <v>69250</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -6363,10 +6363,10 @@
         <v>369</v>
       </c>
       <c r="B371" s="2" t="n">
-        <v>44442</v>
+        <v>44446</v>
       </c>
       <c r="C371" t="n">
-        <v>69575</v>
+        <v>69580</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -6379,10 +6379,10 @@
         <v>370</v>
       </c>
       <c r="B372" s="2" t="n">
-        <v>44441</v>
+        <v>44442</v>
       </c>
       <c r="C372" t="n">
-        <v>69460</v>
+        <v>69575</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -6395,10 +6395,10 @@
         <v>371</v>
       </c>
       <c r="B373" s="2" t="n">
-        <v>44440</v>
+        <v>44441</v>
       </c>
       <c r="C373" t="n">
-        <v>69940</v>
+        <v>69460</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -6411,10 +6411,10 @@
         <v>372</v>
       </c>
       <c r="B374" s="2" t="n">
-        <v>44439</v>
+        <v>44440</v>
       </c>
       <c r="C374" t="n">
-        <v>70315</v>
+        <v>69940</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -6427,10 +6427,10 @@
         <v>373</v>
       </c>
       <c r="B375" s="2" t="n">
-        <v>44435</v>
+        <v>44439</v>
       </c>
       <c r="C375" t="n">
-        <v>69185</v>
+        <v>70315</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -6443,10 +6443,10 @@
         <v>374</v>
       </c>
       <c r="B376" s="2" t="n">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="C376" t="n">
-        <v>69260</v>
+        <v>69185</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -6459,10 +6459,10 @@
         <v>375</v>
       </c>
       <c r="B377" s="2" t="n">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="C377" t="n">
-        <v>69600</v>
+        <v>69260</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -6475,10 +6475,10 @@
         <v>376</v>
       </c>
       <c r="B378" s="2" t="n">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="C378" t="n">
-        <v>68940</v>
+        <v>69600</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -6491,10 +6491,10 @@
         <v>377</v>
       </c>
       <c r="B379" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="C379" t="n">
-        <v>67260</v>
+        <v>68940</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -6507,10 +6507,10 @@
         <v>378</v>
       </c>
       <c r="B380" s="2" t="n">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="C380" t="n">
-        <v>67700</v>
+        <v>67260</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -6523,10 +6523,10 @@
         <v>379</v>
       </c>
       <c r="B381" s="2" t="n">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="C381" t="n">
-        <v>69240</v>
+        <v>67700</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -6539,10 +6539,10 @@
         <v>380</v>
       </c>
       <c r="B382" s="2" t="n">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="C382" t="n">
-        <v>70080</v>
+        <v>69240</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -6555,10 +6555,10 @@
         <v>381</v>
       </c>
       <c r="B383" s="2" t="n">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="C383" t="n">
-        <v>70240</v>
+        <v>70080</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -6571,10 +6571,10 @@
         <v>382</v>
       </c>
       <c r="B384" s="2" t="n">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="C384" t="n">
-        <v>70430</v>
+        <v>70240</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -6587,10 +6587,10 @@
         <v>383</v>
       </c>
       <c r="B385" s="2" t="n">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="C385" t="n">
-        <v>70000</v>
+        <v>70430</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -6603,10 +6603,10 @@
         <v>384</v>
       </c>
       <c r="B386" s="2" t="n">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="C386" t="n">
-        <v>69560</v>
+        <v>70000</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -6619,10 +6619,10 @@
         <v>385</v>
       </c>
       <c r="B387" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="C387" t="n">
-        <v>69800</v>
+        <v>69560</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -6635,10 +6635,10 @@
         <v>386</v>
       </c>
       <c r="B388" s="2" t="n">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="C388" t="n">
-        <v>69660</v>
+        <v>69800</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -6651,10 +6651,10 @@
         <v>387</v>
       </c>
       <c r="B389" s="2" t="n">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="C389" t="n">
-        <v>70290</v>
+        <v>69660</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -6667,10 +6667,10 @@
         <v>388</v>
       </c>
       <c r="B390" s="2" t="n">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="C390" t="n">
-        <v>71030</v>
+        <v>70290</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -6683,10 +6683,10 @@
         <v>389</v>
       </c>
       <c r="B391" s="2" t="n">
-        <v>44407</v>
+        <v>44411</v>
       </c>
       <c r="C391" t="n">
-        <v>71900</v>
+        <v>71030</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -6699,10 +6699,10 @@
         <v>390</v>
       </c>
       <c r="B392" s="2" t="n">
-        <v>44406</v>
+        <v>44407</v>
       </c>
       <c r="C392" t="n">
-        <v>71700</v>
+        <v>71900</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -6715,10 +6715,10 @@
         <v>391</v>
       </c>
       <c r="B393" s="2" t="n">
-        <v>44405</v>
+        <v>44406</v>
       </c>
       <c r="C393" t="n">
-        <v>72365</v>
+        <v>71700</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -6731,10 +6731,10 @@
         <v>392</v>
       </c>
       <c r="B394" s="2" t="n">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="C394" t="n">
-        <v>72520</v>
+        <v>72365</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -6747,10 +6747,10 @@
         <v>393</v>
       </c>
       <c r="B395" s="2" t="n">
-        <v>44400</v>
+        <v>44404</v>
       </c>
       <c r="C395" t="n">
-        <v>70090</v>
+        <v>72520</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -6763,10 +6763,10 @@
         <v>394</v>
       </c>
       <c r="B396" s="2" t="n">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="C396" t="n">
-        <v>69040</v>
+        <v>70090</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -6779,10 +6779,10 @@
         <v>395</v>
       </c>
       <c r="B397" s="2" t="n">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="C397" t="n">
-        <v>68600</v>
+        <v>69040</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -6795,10 +6795,10 @@
         <v>396</v>
       </c>
       <c r="B398" s="2" t="n">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="C398" t="n">
-        <v>68390</v>
+        <v>68600</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -6811,10 +6811,10 @@
         <v>397</v>
       </c>
       <c r="B399" s="2" t="n">
-        <v>44393</v>
+        <v>44397</v>
       </c>
       <c r="C399" t="n">
-        <v>69660</v>
+        <v>68390</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -6827,10 +6827,10 @@
         <v>398</v>
       </c>
       <c r="B400" s="2" t="n">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="C400" t="n">
-        <v>68830</v>
+        <v>69660</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -6843,10 +6843,10 @@
         <v>399</v>
       </c>
       <c r="B401" s="2" t="n">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="C401" t="n">
-        <v>68810</v>
+        <v>68830</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -6859,10 +6859,10 @@
         <v>400</v>
       </c>
       <c r="B402" s="2" t="n">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="C402" t="n">
-        <v>69370</v>
+        <v>68810</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -6875,10 +6875,10 @@
         <v>401</v>
       </c>
       <c r="B403" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="C403" t="n">
-        <v>68800</v>
+        <v>69370</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -6891,10 +6891,10 @@
         <v>402</v>
       </c>
       <c r="B404" s="2" t="n">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="C404" t="n">
-        <v>68900</v>
+        <v>68800</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -6907,10 +6907,10 @@
         <v>403</v>
       </c>
       <c r="B405" s="2" t="n">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="C405" t="n">
-        <v>68540</v>
+        <v>68900</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -6923,10 +6923,10 @@
         <v>404</v>
       </c>
       <c r="B406" s="2" t="n">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="C406" t="n">
-        <v>69700</v>
+        <v>68540</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -6939,10 +6939,10 @@
         <v>405</v>
       </c>
       <c r="B407" s="2" t="n">
-        <v>44379</v>
+        <v>44383</v>
       </c>
       <c r="C407" t="n">
-        <v>68050</v>
+        <v>69700</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -6955,10 +6955,10 @@
         <v>406</v>
       </c>
       <c r="B408" s="2" t="n">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="C408" t="n">
-        <v>68490</v>
+        <v>68050</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -6971,10 +6971,10 @@
         <v>407</v>
       </c>
       <c r="B409" s="2" t="n">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="C409" t="n">
-        <v>68380</v>
+        <v>68490</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -6987,10 +6987,10 @@
         <v>408</v>
       </c>
       <c r="B410" s="2" t="n">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="C410" t="n">
-        <v>68050</v>
+        <v>68380</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -7003,10 +7003,10 @@
         <v>409</v>
       </c>
       <c r="B411" s="2" t="n">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="C411" t="n">
-        <v>68825</v>
+        <v>68050</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7019,10 +7019,10 @@
         <v>410</v>
       </c>
       <c r="B412" s="2" t="n">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="C412" t="n">
-        <v>68600</v>
+        <v>68825</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7035,10 +7035,10 @@
         <v>411</v>
       </c>
       <c r="B413" s="2" t="n">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="C413" t="n">
-        <v>68270</v>
+        <v>68600</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7051,10 +7051,10 @@
         <v>412</v>
       </c>
       <c r="B414" s="2" t="n">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="C414" t="n">
-        <v>67400</v>
+        <v>68270</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7067,10 +7067,10 @@
         <v>413</v>
       </c>
       <c r="B415" s="2" t="n">
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="C415" t="n">
-        <v>67730</v>
+        <v>67400</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7083,10 +7083,10 @@
         <v>414</v>
       </c>
       <c r="B416" s="2" t="n">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="C416" t="n">
-        <v>69170</v>
+        <v>67730</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7099,10 +7099,10 @@
         <v>415</v>
       </c>
       <c r="B417" s="2" t="n">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="C417" t="n">
-        <v>69260</v>
+        <v>69170</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -7115,10 +7115,10 @@
         <v>416</v>
       </c>
       <c r="B418" s="2" t="n">
-        <v>44358</v>
+        <v>44363</v>
       </c>
       <c r="C418" t="n">
-        <v>70800</v>
+        <v>69260</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -7131,10 +7131,10 @@
         <v>417</v>
       </c>
       <c r="B419" s="2" t="n">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="C419" t="n">
-        <v>71210</v>
+        <v>70800</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -7147,10 +7147,10 @@
         <v>418</v>
       </c>
       <c r="B420" s="2" t="n">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="C420" t="n">
-        <v>71710</v>
+        <v>71210</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -7163,10 +7163,10 @@
         <v>419</v>
       </c>
       <c r="B421" s="2" t="n">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="C421" t="n">
-        <v>71310</v>
+        <v>71710</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -7179,10 +7179,10 @@
         <v>420</v>
       </c>
       <c r="B422" s="2" t="n">
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="C422" t="n">
-        <v>71090</v>
+        <v>71310</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -7195,10 +7195,10 @@
         <v>421</v>
       </c>
       <c r="B423" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="C423" t="n">
-        <v>72950</v>
+        <v>71090</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -7211,10 +7211,10 @@
         <v>422</v>
       </c>
       <c r="B424" s="2" t="n">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="C424" t="n">
-        <v>73580</v>
+        <v>72950</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -7227,10 +7227,10 @@
         <v>423</v>
       </c>
       <c r="B425" s="2" t="n">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="C425" t="n">
-        <v>73790</v>
+        <v>73580</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -7243,10 +7243,10 @@
         <v>424</v>
       </c>
       <c r="B426" s="2" t="n">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="C426" t="n">
-        <v>73380</v>
+        <v>73790</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -7259,10 +7259,10 @@
         <v>425</v>
       </c>
       <c r="B427" s="2" t="n">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="C427" t="n">
-        <v>71350</v>
+        <v>73380</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -7275,10 +7275,10 @@
         <v>426</v>
       </c>
       <c r="B428" s="2" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="C428" t="n">
-        <v>71720</v>
+        <v>71350</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -7291,10 +7291,10 @@
         <v>427</v>
       </c>
       <c r="B429" s="2" t="n">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="C429" t="n">
-        <v>72360</v>
+        <v>71720</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -7307,10 +7307,10 @@
         <v>428</v>
       </c>
       <c r="B430" s="2" t="n">
-        <v>44337</v>
+        <v>44341</v>
       </c>
       <c r="C430" t="n">
-        <v>71950</v>
+        <v>72360</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -7323,10 +7323,10 @@
         <v>429</v>
       </c>
       <c r="B431" s="2" t="n">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="C431" t="n">
-        <v>72525</v>
+        <v>71950</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -7339,10 +7339,10 @@
         <v>430</v>
       </c>
       <c r="B432" s="2" t="n">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="C432" t="n">
-        <v>74840</v>
+        <v>72525</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -7355,10 +7355,10 @@
         <v>431</v>
       </c>
       <c r="B433" s="2" t="n">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="C433" t="n">
-        <v>75720</v>
+        <v>74840</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -7371,10 +7371,10 @@
         <v>432</v>
       </c>
       <c r="B434" s="2" t="n">
-        <v>44330</v>
+        <v>44334</v>
       </c>
       <c r="C434" t="n">
-        <v>74760</v>
+        <v>75720</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -7387,10 +7387,10 @@
         <v>433</v>
       </c>
       <c r="B435" s="2" t="n">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="C435" t="n">
-        <v>75910</v>
+        <v>74760</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -7403,10 +7403,10 @@
         <v>434</v>
       </c>
       <c r="B436" s="2" t="n">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="C436" t="n">
-        <v>76150</v>
+        <v>75910</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -7419,10 +7419,10 @@
         <v>435</v>
       </c>
       <c r="B437" s="2" t="n">
-        <v>44323</v>
+        <v>44328</v>
       </c>
       <c r="C437" t="n">
-        <v>74200</v>
+        <v>76150</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -7435,10 +7435,10 @@
         <v>436</v>
       </c>
       <c r="B438" s="2" t="n">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="C438" t="n">
-        <v>72690</v>
+        <v>74200</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -7451,10 +7451,10 @@
         <v>437</v>
       </c>
       <c r="B439" s="2" t="n">
-        <v>44316</v>
+        <v>44322</v>
       </c>
       <c r="C439" t="n">
-        <v>71680</v>
+        <v>72690</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -7467,10 +7467,10 @@
         <v>438</v>
       </c>
       <c r="B440" s="2" t="n">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="C440" t="n">
-        <v>72335</v>
+        <v>71680</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -7483,10 +7483,10 @@
         <v>439</v>
       </c>
       <c r="B441" s="2" t="n">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="C441" t="n">
-        <v>70920</v>
+        <v>72335</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -7499,10 +7499,10 @@
         <v>440</v>
       </c>
       <c r="B442" s="2" t="n">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="C442" t="n">
-        <v>71940</v>
+        <v>70920</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -7515,10 +7515,10 @@
         <v>441</v>
       </c>
       <c r="B443" s="2" t="n">
-        <v>44309</v>
+        <v>44313</v>
       </c>
       <c r="C443" t="n">
-        <v>69120</v>
+        <v>71940</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -7531,10 +7531,10 @@
         <v>442</v>
       </c>
       <c r="B444" s="2" t="n">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="C444" t="n">
-        <v>68840</v>
+        <v>69120</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -7547,10 +7547,10 @@
         <v>443</v>
       </c>
       <c r="B445" s="2" t="n">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="C445" t="n">
-        <v>68550</v>
+        <v>68840</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -7563,10 +7563,10 @@
         <v>444</v>
       </c>
       <c r="B446" s="2" t="n">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="C446" t="n">
-        <v>68990</v>
+        <v>68550</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -7579,10 +7579,10 @@
         <v>445</v>
       </c>
       <c r="B447" s="2" t="n">
-        <v>44302</v>
+        <v>44306</v>
       </c>
       <c r="C447" t="n">
-        <v>68550</v>
+        <v>68990</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -7595,10 +7595,10 @@
         <v>446</v>
       </c>
       <c r="B448" s="2" t="n">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="C448" t="n">
-        <v>67260</v>
+        <v>68550</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -7611,10 +7611,10 @@
         <v>447</v>
       </c>
       <c r="B449" s="2" t="n">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="C449" t="n">
-        <v>66125</v>
+        <v>67260</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -7627,10 +7627,10 @@
         <v>448</v>
       </c>
       <c r="B450" s="2" t="n">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="C450" t="n">
-        <v>65720</v>
+        <v>66125</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -7643,10 +7643,10 @@
         <v>449</v>
       </c>
       <c r="B451" s="2" t="n">
-        <v>44295</v>
+        <v>44299</v>
       </c>
       <c r="C451" t="n">
-        <v>66750</v>
+        <v>65720</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -7659,10 +7659,10 @@
         <v>450</v>
       </c>
       <c r="B452" s="2" t="n">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="C452" t="n">
-        <v>66500</v>
+        <v>66750</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -7675,10 +7675,10 @@
         <v>451</v>
       </c>
       <c r="B453" s="2" t="n">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="C453" t="n">
-        <v>66890</v>
+        <v>66500</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -7691,10 +7691,10 @@
         <v>452</v>
       </c>
       <c r="B454" s="2" t="n">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="C454" t="n">
-        <v>67140</v>
+        <v>66890</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -7707,10 +7707,10 @@
         <v>453</v>
       </c>
       <c r="B455" s="2" t="n">
-        <v>44288</v>
+        <v>44292</v>
       </c>
       <c r="C455" t="n">
-        <v>66040</v>
+        <v>67140</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -7723,10 +7723,10 @@
         <v>454</v>
       </c>
       <c r="B456" s="2" t="n">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="C456" t="n">
-        <v>65490</v>
+        <v>66040</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -7739,10 +7739,10 @@
         <v>455</v>
       </c>
       <c r="B457" s="2" t="n">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="C457" t="n">
-        <v>65175</v>
+        <v>65490</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -7755,10 +7755,10 @@
         <v>456</v>
       </c>
       <c r="B458" s="2" t="n">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="C458" t="n">
-        <v>66190</v>
+        <v>65175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -7771,10 +7771,10 @@
         <v>457</v>
       </c>
       <c r="B459" s="2" t="n">
-        <v>44281</v>
+        <v>44285</v>
       </c>
       <c r="C459" t="n">
-        <v>65680</v>
+        <v>66190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -7787,10 +7787,10 @@
         <v>458</v>
       </c>
       <c r="B460" s="2" t="n">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="C460" t="n">
-        <v>65770</v>
+        <v>65680</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -7803,10 +7803,10 @@
         <v>459</v>
       </c>
       <c r="B461" s="2" t="n">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="C461" t="n">
-        <v>66075</v>
+        <v>65770</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -7819,10 +7819,10 @@
         <v>460</v>
       </c>
       <c r="B462" s="2" t="n">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="C462" t="n">
-        <v>66740</v>
+        <v>66075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -7835,10 +7835,10 @@
         <v>461</v>
       </c>
       <c r="B463" s="2" t="n">
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="C463" t="n">
-        <v>66550</v>
+        <v>66740</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -7851,10 +7851,10 @@
         <v>462</v>
       </c>
       <c r="B464" s="2" t="n">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="C464" t="n">
-        <v>67050</v>
+        <v>66550</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -7867,10 +7867,10 @@
         <v>463</v>
       </c>
       <c r="B465" s="2" t="n">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="C465" t="n">
-        <v>66200</v>
+        <v>67050</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -7883,10 +7883,10 @@
         <v>464</v>
       </c>
       <c r="B466" s="2" t="n">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="C466" t="n">
-        <v>67150</v>
+        <v>66200</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -7899,10 +7899,10 @@
         <v>465</v>
       </c>
       <c r="B467" s="2" t="n">
-        <v>44267</v>
+        <v>44271</v>
       </c>
       <c r="C467" t="n">
-        <v>66660</v>
+        <v>67150</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -7915,10 +7915,10 @@
         <v>466</v>
       </c>
       <c r="B468" s="2" t="n">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="C468" t="n">
-        <v>65580</v>
+        <v>66660</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -7931,10 +7931,10 @@
         <v>467</v>
       </c>
       <c r="B469" s="2" t="n">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="C469" t="n">
-        <v>65530</v>
+        <v>65580</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -7947,10 +7947,10 @@
         <v>468</v>
       </c>
       <c r="B470" s="2" t="n">
-        <v>44260</v>
+        <v>44265</v>
       </c>
       <c r="C470" t="n">
-        <v>64810</v>
+        <v>65530</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -7963,10 +7963,10 @@
         <v>469</v>
       </c>
       <c r="B471" s="2" t="n">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="C471" t="n">
-        <v>67020</v>
+        <v>64810</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -7979,10 +7979,10 @@
         <v>470</v>
       </c>
       <c r="B472" s="2" t="n">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="C472" t="n">
-        <v>67790</v>
+        <v>67020</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -7995,10 +7995,10 @@
         <v>471</v>
       </c>
       <c r="B473" s="2" t="n">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="C473" t="n">
-        <v>66140</v>
+        <v>67790</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -8011,10 +8011,10 @@
         <v>472</v>
       </c>
       <c r="B474" s="2" t="n">
-        <v>44253</v>
+        <v>44257</v>
       </c>
       <c r="C474" t="n">
-        <v>68410</v>
+        <v>66140</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -8027,10 +8027,10 @@
         <v>473</v>
       </c>
       <c r="B475" s="2" t="n">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="C475" t="n">
-        <v>69900</v>
+        <v>68410</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -8043,10 +8043,10 @@
         <v>474</v>
       </c>
       <c r="B476" s="2" t="n">
-        <v>44246</v>
+        <v>44252</v>
       </c>
       <c r="C476" t="n">
-        <v>63240</v>
+        <v>69900</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -8059,10 +8059,10 @@
         <v>475</v>
       </c>
       <c r="B477" s="2" t="n">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="C477" t="n">
-        <v>62690</v>
+        <v>63240</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -8075,10 +8075,10 @@
         <v>476</v>
       </c>
       <c r="B478" s="2" t="n">
-        <v>44237</v>
+        <v>44245</v>
       </c>
       <c r="C478" t="n">
-        <v>60230</v>
+        <v>62690</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -8091,10 +8091,10 @@
         <v>477</v>
       </c>
       <c r="B479" s="2" t="n">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="C479" t="n">
-        <v>59410</v>
+        <v>60230</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -8107,10 +8107,10 @@
         <v>478</v>
       </c>
       <c r="B480" s="2" t="n">
-        <v>44232</v>
+        <v>44236</v>
       </c>
       <c r="C480" t="n">
-        <v>58040</v>
+        <v>59410</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -8123,10 +8123,10 @@
         <v>479</v>
       </c>
       <c r="B481" s="2" t="n">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="C481" t="n">
-        <v>57825</v>
+        <v>58040</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -8139,10 +8139,10 @@
         <v>480</v>
       </c>
       <c r="B482" s="2" t="n">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="C482" t="n">
-        <v>57170</v>
+        <v>57825</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -8155,10 +8155,10 @@
         <v>481</v>
       </c>
       <c r="B483" s="2" t="n">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="C483" t="n">
-        <v>57700</v>
+        <v>57170</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -8171,10 +8171,10 @@
         <v>482</v>
       </c>
       <c r="B484" s="2" t="n">
-        <v>44225</v>
+        <v>44229</v>
       </c>
       <c r="C484" t="n">
-        <v>58180</v>
+        <v>57700</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -8187,10 +8187,10 @@
         <v>483</v>
       </c>
       <c r="B485" s="2" t="n">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="C485" t="n">
-        <v>57950</v>
+        <v>58180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -8203,10 +8203,10 @@
         <v>484</v>
       </c>
       <c r="B486" s="2" t="n">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="C486" t="n">
-        <v>58745</v>
+        <v>57950</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -8219,10 +8219,10 @@
         <v>485</v>
       </c>
       <c r="B487" s="2" t="n">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="C487" t="n">
-        <v>58820</v>
+        <v>58745</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -8235,10 +8235,10 @@
         <v>486</v>
       </c>
       <c r="B488" s="2" t="n">
-        <v>44218</v>
+        <v>44222</v>
       </c>
       <c r="C488" t="n">
-        <v>58920</v>
+        <v>58820</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -8251,10 +8251,10 @@
         <v>487</v>
       </c>
       <c r="B489" s="2" t="n">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="C489" t="n">
-        <v>59280</v>
+        <v>58920</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -8267,10 +8267,10 @@
         <v>488</v>
       </c>
       <c r="B490" s="2" t="n">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="C490" t="n">
-        <v>59025</v>
+        <v>59280</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -8283,10 +8283,10 @@
         <v>489</v>
       </c>
       <c r="B491" s="2" t="n">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="C491" t="n">
-        <v>59030</v>
+        <v>59025</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -8299,10 +8299,10 @@
         <v>490</v>
       </c>
       <c r="B492" s="2" t="n">
-        <v>44211</v>
+        <v>44215</v>
       </c>
       <c r="C492" t="n">
-        <v>59560</v>
+        <v>59030</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -8315,10 +8315,10 @@
         <v>491</v>
       </c>
       <c r="B493" s="2" t="n">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="C493" t="n">
-        <v>58675</v>
+        <v>59560</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -8331,10 +8331,10 @@
         <v>492</v>
       </c>
       <c r="B494" s="2" t="n">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="C494" t="n">
-        <v>58840</v>
+        <v>58675</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -8347,10 +8347,10 @@
         <v>493</v>
       </c>
       <c r="B495" s="2" t="n">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="C495" t="n">
-        <v>58225</v>
+        <v>58840</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -8363,10 +8363,10 @@
         <v>494</v>
       </c>
       <c r="B496" s="2" t="n">
-        <v>44196</v>
+        <v>44208</v>
       </c>
       <c r="C496" t="n">
-        <v>57810</v>
+        <v>58225</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -8379,10 +8379,10 @@
         <v>495</v>
       </c>
       <c r="B497" s="2" t="n">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="C497" t="n">
-        <v>58150</v>
+        <v>57810</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -8395,10 +8395,10 @@
         <v>496</v>
       </c>
       <c r="B498" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="C498" t="n">
-        <v>58450</v>
+        <v>58150</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -8411,10 +8411,10 @@
         <v>497</v>
       </c>
       <c r="B499" s="2" t="n">
-        <v>44190</v>
+        <v>44194</v>
       </c>
       <c r="C499" t="n">
-        <v>58180</v>
+        <v>58450</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -8427,10 +8427,10 @@
         <v>498</v>
       </c>
       <c r="B500" s="2" t="n">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="C500" t="n">
-        <v>58110</v>
+        <v>58180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -8443,10 +8443,10 @@
         <v>499</v>
       </c>
       <c r="B501" s="2" t="n">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="C501" t="n">
-        <v>57610</v>
+        <v>58110</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -8459,10 +8459,10 @@
         <v>500</v>
       </c>
       <c r="B502" s="2" t="n">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="C502" t="n">
-        <v>58550</v>
+        <v>57610</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -8475,10 +8475,10 @@
         <v>501</v>
       </c>
       <c r="B503" s="2" t="n">
-        <v>44183</v>
+        <v>44187</v>
       </c>
       <c r="C503" t="n">
-        <v>59090</v>
+        <v>58550</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -8491,10 +8491,10 @@
         <v>502</v>
       </c>
       <c r="B504" s="2" t="n">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="C504" t="n">
-        <v>58120</v>
+        <v>59090</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -8507,10 +8507,10 @@
         <v>503</v>
       </c>
       <c r="B505" s="2" t="n">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="C505" t="n">
-        <v>57850</v>
+        <v>58120</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -8523,10 +8523,10 @@
         <v>504</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="C506" t="n">
-        <v>57420</v>
+        <v>57850</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -8539,10 +8539,10 @@
         <v>505</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>44176</v>
+        <v>44180</v>
       </c>
       <c r="C507" t="n">
-        <v>58285</v>
+        <v>57420</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -8555,10 +8555,10 @@
         <v>506</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>44175</v>
+        <v>44176</v>
       </c>
       <c r="C508" t="n">
-        <v>57010</v>
+        <v>58285</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -8571,10 +8571,10 @@
         <v>507</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="C509" t="n">
-        <v>57270</v>
+        <v>57010</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -8587,10 +8587,10 @@
         <v>508</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="C510" t="n">
-        <v>57000</v>
+        <v>57270</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -8603,10 +8603,10 @@
         <v>509</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44169</v>
+        <v>44173</v>
       </c>
       <c r="C511" t="n">
-        <v>57290</v>
+        <v>57000</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -8619,10 +8619,10 @@
         <v>510</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44168</v>
+        <v>44169</v>
       </c>
       <c r="C512" t="n">
-        <v>57300</v>
+        <v>57290</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -8635,10 +8635,10 @@
         <v>511</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="C513" t="n">
-        <v>57280</v>
+        <v>57300</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -8651,10 +8651,10 @@
         <v>512</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="C514" t="n">
-        <v>57375</v>
+        <v>57280</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -8667,10 +8667,10 @@
         <v>513</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44162</v>
+        <v>44166</v>
       </c>
       <c r="C515" t="n">
-        <v>55685</v>
+        <v>57375</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -8683,10 +8683,10 @@
         <v>514</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="C516" t="n">
-        <v>55120</v>
+        <v>55685</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -8699,10 +8699,10 @@
         <v>515</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="C517" t="n">
-        <v>54890</v>
+        <v>55120</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -8715,10 +8715,10 @@
         <v>516</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="C518" t="n">
-        <v>54110</v>
+        <v>54890</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -8731,10 +8731,10 @@
         <v>517</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44155</v>
+        <v>44159</v>
       </c>
       <c r="C519" t="n">
-        <v>53220</v>
+        <v>54110</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -8747,10 +8747,10 @@
         <v>518</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="C520" t="n">
-        <v>52820</v>
+        <v>53220</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -8763,10 +8763,10 @@
         <v>519</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="C521" t="n">
-        <v>52740</v>
+        <v>52820</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -8779,10 +8779,10 @@
         <v>520</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="C522" t="n">
-        <v>53220</v>
+        <v>52740</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -8795,10 +8795,10 @@
         <v>521</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="C523" t="n">
-        <v>52025</v>
+        <v>53220</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -8811,10 +8811,10 @@
         <v>522</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="C524" t="n">
-        <v>51880</v>
+        <v>52025</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -8827,10 +8827,10 @@
         <v>523</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="C525" t="n">
-        <v>51990</v>
+        <v>51880</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -8843,10 +8843,10 @@
         <v>524</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="C526" t="n">
-        <v>52120</v>
+        <v>51990</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -8859,10 +8859,10 @@
         <v>525</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44141</v>
+        <v>44145</v>
       </c>
       <c r="C527" t="n">
-        <v>51640</v>
+        <v>52120</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -8875,10 +8875,10 @@
         <v>526</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44139</v>
+        <v>44141</v>
       </c>
       <c r="C528" t="n">
-        <v>51680</v>
+        <v>51640</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -8891,10 +8891,10 @@
         <v>527</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C529" t="n">
-        <v>51750</v>
+        <v>51680</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -8907,10 +8907,10 @@
         <v>528</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44134</v>
+        <v>44138</v>
       </c>
       <c r="C530" t="n">
-        <v>51530</v>
+        <v>51750</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -8923,10 +8923,10 @@
         <v>529</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="C531" t="n">
-        <v>51585</v>
+        <v>51530</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -8939,10 +8939,10 @@
         <v>530</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="C532" t="n">
-        <v>51730</v>
+        <v>51585</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -8955,10 +8955,10 @@
         <v>531</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="C533" t="n">
-        <v>51540</v>
+        <v>51730</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -8971,10 +8971,10 @@
         <v>532</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44127</v>
+        <v>44131</v>
       </c>
       <c r="C534" t="n">
-        <v>52210</v>
+        <v>51540</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -8987,10 +8987,10 @@
         <v>533</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="C535" t="n">
-        <v>52370</v>
+        <v>52210</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -9003,10 +9003,10 @@
         <v>534</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="C536" t="n">
-        <v>52250</v>
+        <v>52370</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -9019,10 +9019,10 @@
         <v>535</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="C537" t="n">
-        <v>51450</v>
+        <v>52250</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -9035,10 +9035,10 @@
         <v>536</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44120</v>
+        <v>44124</v>
       </c>
       <c r="C538" t="n">
-        <v>51800</v>
+        <v>51450</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -9051,10 +9051,10 @@
         <v>537</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="C539" t="n">
-        <v>51370</v>
+        <v>51800</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -9067,10 +9067,10 @@
         <v>538</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="C540" t="n">
-        <v>51470</v>
+        <v>51370</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -9083,10 +9083,10 @@
         <v>539</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="C541" t="n">
-        <v>51540</v>
+        <v>51470</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -9099,10 +9099,10 @@
         <v>540</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44113</v>
+        <v>44117</v>
       </c>
       <c r="C542" t="n">
-        <v>51565</v>
+        <v>51540</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -9115,10 +9115,10 @@
         <v>541</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44104</v>
+        <v>44113</v>
       </c>
       <c r="C543" t="n">
-        <v>51185</v>
+        <v>51565</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -9131,10 +9131,10 @@
         <v>542</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C544" t="n">
-        <v>51110</v>
+        <v>51185</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -9147,10 +9147,10 @@
         <v>543</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44099</v>
+        <v>44103</v>
       </c>
       <c r="C545" t="n">
-        <v>50890</v>
+        <v>51110</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -9163,10 +9163,10 @@
         <v>544</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C546" t="n">
-        <v>50745</v>
+        <v>50890</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -9179,10 +9179,10 @@
         <v>545</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C547" t="n">
-        <v>51620</v>
+        <v>50745</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -9195,10 +9195,10 @@
         <v>546</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C548" t="n">
-        <v>51920</v>
+        <v>51620</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -9211,10 +9211,10 @@
         <v>547</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44092</v>
+        <v>44096</v>
       </c>
       <c r="C549" t="n">
-        <v>52210</v>
+        <v>51920</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -9227,10 +9227,10 @@
         <v>548</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C550" t="n">
-        <v>51455</v>
+        <v>52210</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -9243,10 +9243,10 @@
         <v>549</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C551" t="n">
-        <v>51900</v>
+        <v>51455</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -9259,10 +9259,10 @@
         <v>550</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C552" t="n">
-        <v>52150</v>
+        <v>51900</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -9275,10 +9275,10 @@
         <v>551</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44085</v>
+        <v>44089</v>
       </c>
       <c r="C553" t="n">
-        <v>51535</v>
+        <v>52150</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -9291,10 +9291,10 @@
         <v>552</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C554" t="n">
-        <v>52130</v>
+        <v>51535</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -9307,10 +9307,10 @@
         <v>553</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C555" t="n">
-        <v>52065</v>
+        <v>52130</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -9323,10 +9323,10 @@
         <v>554</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C556" t="n">
-        <v>52520</v>
+        <v>52065</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -9339,10 +9339,10 @@
         <v>555</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44078</v>
+        <v>44082</v>
       </c>
       <c r="C557" t="n">
-        <v>51495</v>
+        <v>52520</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -9355,10 +9355,10 @@
         <v>556</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C558" t="n">
-        <v>52140</v>
+        <v>51495</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -9371,10 +9371,10 @@
         <v>557</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="C559" t="n">
-        <v>51935</v>
+        <v>52140</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -9387,10 +9387,10 @@
         <v>558</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44075</v>
+        <v>44076</v>
       </c>
       <c r="C560" t="n">
-        <v>52390</v>
+        <v>51935</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -9403,10 +9403,10 @@
         <v>559</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44071</v>
+        <v>44075</v>
       </c>
       <c r="C561" t="n">
-        <v>51800</v>
+        <v>52390</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -9419,10 +9419,10 @@
         <v>560</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="C562" t="n">
-        <v>51420</v>
+        <v>51800</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -9435,10 +9435,10 @@
         <v>561</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44069</v>
+        <v>44070</v>
       </c>
       <c r="C563" t="n">
-        <v>51380</v>
+        <v>51420</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -9451,10 +9451,10 @@
         <v>562</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44068</v>
+        <v>44069</v>
       </c>
       <c r="C564" t="n">
-        <v>51370</v>
+        <v>51380</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -9467,10 +9467,10 @@
         <v>563</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44064</v>
+        <v>44068</v>
       </c>
       <c r="C565" t="n">
-        <v>52065</v>
+        <v>51370</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -9483,10 +9483,10 @@
         <v>564</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="C566" t="n">
-        <v>52200</v>
+        <v>52065</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -9499,10 +9499,10 @@
         <v>565</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44062</v>
+        <v>44063</v>
       </c>
       <c r="C567" t="n">
-        <v>52300</v>
+        <v>52200</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -9515,10 +9515,10 @@
         <v>566</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="C568" t="n">
-        <v>51135</v>
+        <v>52300</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -9531,10 +9531,10 @@
         <v>567</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44057</v>
+        <v>44061</v>
       </c>
       <c r="C569" t="n">
-        <v>50040</v>
+        <v>51135</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -9547,10 +9547,10 @@
         <v>568</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44056</v>
+        <v>44057</v>
       </c>
       <c r="C570" t="n">
-        <v>50530</v>
+        <v>50040</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -9563,10 +9563,10 @@
         <v>569</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44055</v>
+        <v>44056</v>
       </c>
       <c r="C571" t="n">
-        <v>49980</v>
+        <v>50530</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -9579,10 +9579,10 @@
         <v>570</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44054</v>
+        <v>44055</v>
       </c>
       <c r="C572" t="n">
-        <v>50790</v>
+        <v>49980</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -9595,10 +9595,10 @@
         <v>571</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44050</v>
+        <v>44054</v>
       </c>
       <c r="C573" t="n">
-        <v>51440</v>
+        <v>50790</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -9611,10 +9611,10 @@
         <v>572</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="C574" t="n">
-        <v>51385</v>
+        <v>51440</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -9627,10 +9627,10 @@
         <v>573</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="C575" t="n">
-        <v>51370</v>
+        <v>51385</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -9643,10 +9643,10 @@
         <v>574</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44047</v>
+        <v>44048</v>
       </c>
       <c r="C576" t="n">
-        <v>51675</v>
+        <v>51370</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -9659,10 +9659,10 @@
         <v>575</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44043</v>
+        <v>44047</v>
       </c>
       <c r="C577" t="n">
-        <v>51850</v>
+        <v>51675</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -9675,10 +9675,10 @@
         <v>576</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44042</v>
+        <v>44043</v>
       </c>
       <c r="C578" t="n">
-        <v>51890</v>
+        <v>51850</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -9691,10 +9691,10 @@
         <v>577</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="C579" t="n">
-        <v>51830</v>
+        <v>51890</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -9707,10 +9707,10 @@
         <v>578</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44040</v>
+        <v>44041</v>
       </c>
       <c r="C580" t="n">
-        <v>51850</v>
+        <v>51830</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -9723,10 +9723,10 @@
         <v>579</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44036</v>
+        <v>44040</v>
       </c>
       <c r="C581" t="n">
-        <v>51930</v>
+        <v>51850</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -9739,10 +9739,10 @@
         <v>580</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="C582" t="n">
-        <v>51875</v>
+        <v>51930</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -9755,10 +9755,10 @@
         <v>581</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44034</v>
+        <v>44035</v>
       </c>
       <c r="C583" t="n">
-        <v>52600</v>
+        <v>51875</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -9771,10 +9771,10 @@
         <v>582</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44033</v>
+        <v>44034</v>
       </c>
       <c r="C584" t="n">
-        <v>51935</v>
+        <v>52600</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -9787,10 +9787,10 @@
         <v>583</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44029</v>
+        <v>44033</v>
       </c>
       <c r="C585" t="n">
-        <v>51685</v>
+        <v>51935</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -9803,10 +9803,10 @@
         <v>584</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44028</v>
+        <v>44029</v>
       </c>
       <c r="C586" t="n">
-        <v>51240</v>
+        <v>51685</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -9819,10 +9819,10 @@
         <v>585</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="C587" t="n">
-        <v>52435</v>
+        <v>51240</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -9835,10 +9835,10 @@
         <v>586</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="C588" t="n">
-        <v>52150</v>
+        <v>52435</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -9851,10 +9851,10 @@
         <v>587</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>44022</v>
+        <v>44026</v>
       </c>
       <c r="C589" t="n">
-        <v>50600</v>
+        <v>52150</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -9867,10 +9867,10 @@
         <v>588</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="C590" t="n">
-        <v>50575</v>
+        <v>50600</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -9883,10 +9883,10 @@
         <v>589</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="C591" t="n">
-        <v>49845</v>
+        <v>50575</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -9899,10 +9899,10 @@
         <v>590</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="C592" t="n">
-        <v>49610</v>
+        <v>49845</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -9915,10 +9915,10 @@
         <v>591</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>44015</v>
+        <v>44019</v>
       </c>
       <c r="C593" t="n">
-        <v>49260</v>
+        <v>49610</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -9931,10 +9931,10 @@
         <v>592</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="C594" t="n">
-        <v>49460</v>
+        <v>49260</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -9947,10 +9947,10 @@
         <v>593</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="C595" t="n">
-        <v>49450</v>
+        <v>49460</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -9963,10 +9963,10 @@
         <v>594</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="C596" t="n">
-        <v>48930</v>
+        <v>49450</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -9979,10 +9979,10 @@
         <v>595</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>44006</v>
+        <v>44012</v>
       </c>
       <c r="C597" t="n">
-        <v>48160</v>
+        <v>48930</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -9995,10 +9995,10 @@
         <v>596</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="C598" t="n">
-        <v>47880</v>
+        <v>48160</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -10011,10 +10011,10 @@
         <v>597</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>44001</v>
+        <v>44005</v>
       </c>
       <c r="C599" t="n">
-        <v>47475</v>
+        <v>47880</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -10027,10 +10027,10 @@
         <v>598</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="C600" t="n">
-        <v>47110</v>
+        <v>47475</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -10043,10 +10043,10 @@
         <v>599</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="C601" t="n">
-        <v>46910</v>
+        <v>47110</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -10059,10 +10059,10 @@
         <v>600</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="C602" t="n">
-        <v>47080</v>
+        <v>46910</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -10075,10 +10075,10 @@
         <v>601</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>43994</v>
+        <v>43998</v>
       </c>
       <c r="C603" t="n">
-        <v>46760</v>
+        <v>47080</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -10091,10 +10091,10 @@
         <v>602</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="C604" t="n">
-        <v>47425</v>
+        <v>46760</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -10107,10 +10107,10 @@
         <v>603</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="C605" t="n">
-        <v>46855</v>
+        <v>47425</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -10123,10 +10123,10 @@
         <v>604</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="C606" t="n">
-        <v>46355</v>
+        <v>46855</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -10139,10 +10139,10 @@
         <v>605</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>43987</v>
+        <v>43991</v>
       </c>
       <c r="C607" t="n">
-        <v>44990</v>
+        <v>46355</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -10155,10 +10155,10 @@
         <v>606</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="C608" t="n">
-        <v>44850</v>
+        <v>44990</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -10171,10 +10171,10 @@
         <v>607</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="C609" t="n">
-        <v>45110</v>
+        <v>44850</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -10187,10 +10187,10 @@
         <v>608</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="C610" t="n">
-        <v>44895</v>
+        <v>45110</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -10203,10 +10203,10 @@
         <v>609</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>43980</v>
+        <v>43984</v>
       </c>
       <c r="C611" t="n">
-        <v>44135</v>
+        <v>44895</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -10219,10 +10219,10 @@
         <v>610</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="C612" t="n">
-        <v>44030</v>
+        <v>44135</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -10235,10 +10235,10 @@
         <v>611</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="C613" t="n">
-        <v>44170</v>
+        <v>44030</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -10251,10 +10251,10 @@
         <v>612</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="C614" t="n">
-        <v>44030</v>
+        <v>44170</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -10267,10 +10267,10 @@
         <v>613</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>43973</v>
+        <v>43977</v>
       </c>
       <c r="C615" t="n">
-        <v>43770</v>
+        <v>44030</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -10283,10 +10283,10 @@
         <v>614</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="C616" t="n">
-        <v>44620</v>
+        <v>43770</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -10299,10 +10299,10 @@
         <v>615</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="C617" t="n">
-        <v>44040</v>
+        <v>44620</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -10315,10 +10315,10 @@
         <v>616</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="C618" t="n">
-        <v>43995</v>
+        <v>44040</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -10331,10 +10331,10 @@
         <v>617</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>43966</v>
+        <v>43970</v>
       </c>
       <c r="C619" t="n">
-        <v>43325</v>
+        <v>43995</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -10347,10 +10347,10 @@
         <v>618</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="C620" t="n">
-        <v>43150</v>
+        <v>43325</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -10363,10 +10363,10 @@
         <v>619</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="C621" t="n">
-        <v>43080</v>
+        <v>43150</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -10379,10 +10379,10 @@
         <v>620</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>43959</v>
+        <v>43964</v>
       </c>
       <c r="C622" t="n">
-        <v>43600</v>
+        <v>43080</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -10395,10 +10395,10 @@
         <v>621</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="C623" t="n">
-        <v>43030</v>
+        <v>43600</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>622</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>43951</v>
+        <v>43958</v>
       </c>
       <c r="C624" t="n">
         <v>43030</v>
@@ -10427,10 +10427,10 @@
         <v>623</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C625" t="n">
-        <v>42810</v>
+        <v>43030</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -10443,10 +10443,10 @@
         <v>624</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="C626" t="n">
-        <v>42480</v>
+        <v>42810</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -10459,10 +10459,10 @@
         <v>625</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>43945</v>
+        <v>43949</v>
       </c>
       <c r="C627" t="n">
-        <v>42120</v>
+        <v>42480</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -10475,10 +10475,10 @@
         <v>626</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="C628" t="n">
-        <v>41980</v>
+        <v>42120</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -10491,10 +10491,10 @@
         <v>627</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="C629" t="n">
-        <v>40995</v>
+        <v>41980</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -10507,10 +10507,10 @@
         <v>628</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="C630" t="n">
-        <v>42060</v>
+        <v>40995</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -10523,10 +10523,10 @@
         <v>629</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>43938</v>
+        <v>43942</v>
       </c>
       <c r="C631" t="n">
-        <v>42470</v>
+        <v>42060</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -10539,10 +10539,10 @@
         <v>630</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="C632" t="n">
-        <v>41775</v>
+        <v>42470</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -10555,10 +10555,10 @@
         <v>631</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="C633" t="n">
-        <v>41860</v>
+        <v>41775</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -10571,10 +10571,10 @@
         <v>632</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="C634" t="n">
-        <v>41970</v>
+        <v>41860</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -10587,10 +10587,10 @@
         <v>633</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>43931</v>
+        <v>43935</v>
       </c>
       <c r="C635" t="n">
-        <v>40990</v>
+        <v>41970</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -10603,10 +10603,10 @@
         <v>634</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="C636" t="n">
-        <v>40950</v>
+        <v>40990</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -10619,10 +10619,10 @@
         <v>635</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="C637" t="n">
-        <v>40765</v>
+        <v>40950</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -10635,10 +10635,10 @@
         <v>636</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="C638" t="n">
-        <v>40840</v>
+        <v>40765</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -10651,10 +10651,10 @@
         <v>637</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>43917</v>
+        <v>43928</v>
       </c>
       <c r="C639" t="n">
-        <v>38865</v>
+        <v>40840</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -10667,10 +10667,10 @@
         <v>638</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="C640" t="n">
-        <v>38970</v>
+        <v>38865</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -10683,10 +10683,10 @@
         <v>639</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="C641" t="n">
-        <v>38750</v>
+        <v>38970</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -10699,10 +10699,10 @@
         <v>640</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="C642" t="n">
-        <v>37890</v>
+        <v>38750</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -10715,10 +10715,10 @@
         <v>641</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="C643" t="n">
-        <v>38290</v>
+        <v>37890</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -10731,10 +10731,10 @@
         <v>642</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="C644" t="n">
-        <v>37545</v>
+        <v>38290</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -10747,10 +10747,10 @@
         <v>643</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="C645" t="n">
-        <v>41400</v>
+        <v>37545</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -10763,10 +10763,10 @@
         <v>644</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="C646" t="n">
-        <v>42145</v>
+        <v>41400</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -10779,10 +10779,10 @@
         <v>645</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>43903</v>
+        <v>43907</v>
       </c>
       <c r="C647" t="n">
-        <v>42755</v>
+        <v>42145</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -10795,10 +10795,10 @@
         <v>646</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="C648" t="n">
-        <v>43185</v>
+        <v>42755</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -10811,10 +10811,10 @@
         <v>647</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="C649" t="n">
-        <v>44280</v>
+        <v>43185</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -10827,10 +10827,10 @@
         <v>648</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>43896</v>
+        <v>43901</v>
       </c>
       <c r="C650" t="n">
-        <v>44725</v>
+        <v>44280</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -10843,10 +10843,10 @@
         <v>649</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="C651" t="n">
-        <v>45055</v>
+        <v>44725</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -10859,10 +10859,10 @@
         <v>650</v>
       </c>
       <c r="B652" s="2" t="n">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="C652" t="n">
-        <v>45005</v>
+        <v>45055</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -10875,10 +10875,10 @@
         <v>651</v>
       </c>
       <c r="B653" s="2" t="n">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="C653" t="n">
-        <v>45345</v>
+        <v>45005</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -10891,10 +10891,10 @@
         <v>652</v>
       </c>
       <c r="B654" s="2" t="n">
-        <v>43889</v>
+        <v>43893</v>
       </c>
       <c r="C654" t="n">
-        <v>44630</v>
+        <v>45345</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -10907,10 +10907,10 @@
         <v>653</v>
       </c>
       <c r="B655" s="2" t="n">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="C655" t="n">
-        <v>45190</v>
+        <v>44630</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -10923,10 +10923,10 @@
         <v>654</v>
       </c>
       <c r="B656" s="2" t="n">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="C656" t="n">
-        <v>45360</v>
+        <v>45190</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -10939,10 +10939,10 @@
         <v>655</v>
       </c>
       <c r="B657" s="2" t="n">
-        <v>43882</v>
+        <v>43887</v>
       </c>
       <c r="C657" t="n">
-        <v>45910</v>
+        <v>45360</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -10955,10 +10955,10 @@
         <v>656</v>
       </c>
       <c r="B658" s="2" t="n">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="C658" t="n">
-        <v>46010</v>
+        <v>45910</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -10971,10 +10971,10 @@
         <v>657</v>
       </c>
       <c r="B659" s="2" t="n">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="C659" t="n">
-        <v>45990</v>
+        <v>46010</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -10987,10 +10987,10 @@
         <v>658</v>
       </c>
       <c r="B660" s="2" t="n">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="C660" t="n">
-        <v>45955</v>
+        <v>45990</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -11003,10 +11003,10 @@
         <v>659</v>
       </c>
       <c r="B661" s="2" t="n">
-        <v>43875</v>
+        <v>43879</v>
       </c>
       <c r="C661" t="n">
-        <v>45655</v>
+        <v>45955</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -11019,10 +11019,10 @@
         <v>660</v>
       </c>
       <c r="B662" s="2" t="n">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="C662" t="n">
-        <v>45490</v>
+        <v>45655</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -11035,10 +11035,10 @@
         <v>661</v>
       </c>
       <c r="B663" s="2" t="n">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="C663" t="n">
-        <v>45385</v>
+        <v>45490</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -11051,10 +11051,10 @@
         <v>662</v>
       </c>
       <c r="B664" s="2" t="n">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="C664" t="n">
-        <v>45370</v>
+        <v>45385</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -11067,10 +11067,10 @@
         <v>663</v>
       </c>
       <c r="B665" s="2" t="n">
-        <v>43868</v>
+        <v>43872</v>
       </c>
       <c r="C665" t="n">
-        <v>45590</v>
+        <v>45370</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -11083,10 +11083,10 @@
         <v>664</v>
       </c>
       <c r="B666" s="2" t="n">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="C666" t="n">
-        <v>45795</v>
+        <v>45590</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -11099,10 +11099,10 @@
         <v>665</v>
       </c>
       <c r="B667" s="2" t="n">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="C667" t="n">
-        <v>45230</v>
+        <v>45795</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -11115,10 +11115,10 @@
         <v>666</v>
       </c>
       <c r="B668" s="2" t="n">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="C668" t="n">
-        <v>44940</v>
+        <v>45230</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -11131,10 +11131,10 @@
         <v>667</v>
       </c>
       <c r="B669" s="2" t="n">
-        <v>43853</v>
+        <v>43865</v>
       </c>
       <c r="C669" t="n">
-        <v>47995</v>
+        <v>44940</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -11147,10 +11147,10 @@
         <v>668</v>
       </c>
       <c r="B670" s="2" t="n">
-        <v>43852</v>
+        <v>43853</v>
       </c>
       <c r="C670" t="n">
-        <v>48235</v>
+        <v>47995</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -11163,10 +11163,10 @@
         <v>669</v>
       </c>
       <c r="B671" s="2" t="n">
-        <v>43851</v>
+        <v>43852</v>
       </c>
       <c r="C671" t="n">
-        <v>48425</v>
+        <v>48235</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -11179,10 +11179,10 @@
         <v>670</v>
       </c>
       <c r="B672" s="2" t="n">
-        <v>43847</v>
+        <v>43851</v>
       </c>
       <c r="C672" t="n">
-        <v>48930</v>
+        <v>48425</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -11195,10 +11195,10 @@
         <v>671</v>
       </c>
       <c r="B673" s="2" t="n">
-        <v>43846</v>
+        <v>43847</v>
       </c>
       <c r="C673" t="n">
-        <v>48950</v>
+        <v>48930</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -11211,10 +11211,10 @@
         <v>672</v>
       </c>
       <c r="B674" s="2" t="n">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="C674" t="n">
-        <v>49060</v>
+        <v>48950</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -11227,10 +11227,10 @@
         <v>673</v>
       </c>
       <c r="B675" s="2" t="n">
-        <v>43844</v>
+        <v>43845</v>
       </c>
       <c r="C675" t="n">
-        <v>48990</v>
+        <v>49060</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -11243,12 +11243,28 @@
         <v>674</v>
       </c>
       <c r="B676" s="2" t="n">
+        <v>43844</v>
+      </c>
+      <c r="C676" t="n">
+        <v>48990</v>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>Yuan/MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B677" s="2" t="n">
         <v>43840</v>
       </c>
-      <c r="C676" t="n">
+      <c r="C677" t="n">
         <v>48605</v>
       </c>
-      <c r="D676" t="inlineStr">
+      <c r="D677" t="inlineStr">
         <is>
           <t>Yuan/MT</t>
         </is>

--- a/LME/parser_beta/data/shmet_historical.xlsx
+++ b/LME/parser_beta/data/shmet_historical.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D677"/>
+  <dimension ref="A1:D678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,10 +459,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45166</v>
+        <v>45167</v>
       </c>
       <c r="C2" t="n">
-        <v>69530</v>
+        <v>69525</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -475,10 +475,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45163</v>
+        <v>45166</v>
       </c>
       <c r="C3" t="n">
-        <v>69300</v>
+        <v>69530</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45162</v>
+        <v>45163</v>
       </c>
       <c r="C4" t="n">
-        <v>69700</v>
+        <v>69300</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -507,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45160</v>
+        <v>45162</v>
       </c>
       <c r="C5" t="n">
-        <v>68810</v>
+        <v>69700</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -523,10 +523,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="C6" t="n">
-        <v>68925</v>
+        <v>68810</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -539,10 +539,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45156</v>
+        <v>45159</v>
       </c>
       <c r="C7" t="n">
-        <v>68840</v>
+        <v>68925</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="C8" t="n">
-        <v>68260</v>
+        <v>68840</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -571,10 +571,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="C9" t="n">
-        <v>68270</v>
+        <v>68260</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -587,10 +587,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="C10" t="n">
-        <v>68590</v>
+        <v>68270</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -603,7 +603,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45152</v>
+        <v>45153</v>
       </c>
       <c r="C11" t="n">
         <v>68590</v>
@@ -619,10 +619,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45149</v>
+        <v>45152</v>
       </c>
       <c r="C12" t="n">
-        <v>68690</v>
+        <v>68590</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -635,10 +635,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="C13" t="n">
-        <v>68740</v>
+        <v>68690</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -651,10 +651,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="C14" t="n">
-        <v>68710</v>
+        <v>68740</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -667,10 +667,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="C15" t="n">
-        <v>69130</v>
+        <v>68710</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -683,10 +683,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="C16" t="n">
-        <v>69290</v>
+        <v>69130</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45142</v>
+        <v>45145</v>
       </c>
       <c r="C17" t="n">
-        <v>69875</v>
+        <v>69290</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -715,10 +715,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="C18" t="n">
-        <v>69425</v>
+        <v>69875</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -731,10 +731,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="C19" t="n">
-        <v>69990</v>
+        <v>69425</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -747,10 +747,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="C20" t="n">
-        <v>70925</v>
+        <v>69990</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -763,10 +763,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="C21" t="n">
-        <v>69830</v>
+        <v>70925</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -779,10 +779,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45135</v>
+        <v>45138</v>
       </c>
       <c r="C22" t="n">
-        <v>68950</v>
+        <v>69830</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -795,10 +795,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="C23" t="n">
-        <v>69460</v>
+        <v>68950</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -811,10 +811,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="C24" t="n">
-        <v>69200</v>
+        <v>69460</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -827,10 +827,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="C25" t="n">
-        <v>68980</v>
+        <v>69200</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -843,10 +843,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45128</v>
+        <v>45132</v>
       </c>
       <c r="C26" t="n">
-        <v>68670</v>
+        <v>68980</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -859,10 +859,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="C27" t="n">
-        <v>68650</v>
+        <v>68670</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -875,10 +875,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="C28" t="n">
-        <v>68580</v>
+        <v>68650</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -891,10 +891,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="C29" t="n">
-        <v>68750</v>
+        <v>68580</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -907,10 +907,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45121</v>
+        <v>45125</v>
       </c>
       <c r="C30" t="n">
-        <v>69825</v>
+        <v>68750</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -923,10 +923,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="C31" t="n">
-        <v>68760</v>
+        <v>69825</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -939,10 +939,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="C32" t="n">
-        <v>68040</v>
+        <v>68760</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -955,10 +955,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="C33" t="n">
-        <v>68370</v>
+        <v>68040</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -971,10 +971,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45114</v>
+        <v>45118</v>
       </c>
       <c r="C34" t="n">
-        <v>68150</v>
+        <v>68370</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -987,10 +987,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="C35" t="n">
-        <v>68300</v>
+        <v>68150</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1003,10 +1003,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="C36" t="n">
-        <v>68500</v>
+        <v>68300</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1019,10 +1019,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="C37" t="n">
-        <v>68775</v>
+        <v>68500</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1035,10 +1035,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45107</v>
+        <v>45111</v>
       </c>
       <c r="C38" t="n">
-        <v>68000</v>
+        <v>68775</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1051,10 +1051,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="C39" t="n">
-        <v>68025</v>
+        <v>68000</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1067,10 +1067,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="C40" t="n">
-        <v>68300</v>
+        <v>68025</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1083,10 +1083,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="C41" t="n">
-        <v>68660</v>
+        <v>68300</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1099,10 +1099,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>45098</v>
+        <v>45104</v>
       </c>
       <c r="C42" t="n">
-        <v>69650</v>
+        <v>68660</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="C43" t="n">
-        <v>69100</v>
+        <v>69650</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1131,10 +1131,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45093</v>
+        <v>45097</v>
       </c>
       <c r="C44" t="n">
-        <v>68960</v>
+        <v>69100</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1147,10 +1147,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="C45" t="n">
-        <v>68275</v>
+        <v>68960</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="C46" t="n">
-        <v>68350</v>
+        <v>68275</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1179,10 +1179,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>45086</v>
+        <v>45091</v>
       </c>
       <c r="C47" t="n">
-        <v>67370</v>
+        <v>68350</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1195,10 +1195,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="C48" t="n">
-        <v>67180</v>
+        <v>67370</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1211,10 +1211,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="C49" t="n">
-        <v>67300</v>
+        <v>67180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1227,10 +1227,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="C50" t="n">
-        <v>67160</v>
+        <v>67300</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1243,10 +1243,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>45079</v>
+        <v>45083</v>
       </c>
       <c r="C51" t="n">
-        <v>66425</v>
+        <v>67160</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1259,10 +1259,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="C52" t="n">
-        <v>65850</v>
+        <v>66425</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1275,10 +1275,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="C53" t="n">
-        <v>65260</v>
+        <v>65850</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1291,10 +1291,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="C54" t="n">
-        <v>65600</v>
+        <v>65260</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1307,10 +1307,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>45072</v>
+        <v>45076</v>
       </c>
       <c r="C55" t="n">
-        <v>64150</v>
+        <v>65600</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1323,10 +1323,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="C56" t="n">
-        <v>63750</v>
+        <v>64150</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1339,10 +1339,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>45070</v>
+        <v>45071</v>
       </c>
       <c r="C57" t="n">
-        <v>64300</v>
+        <v>63750</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1355,10 +1355,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="C58" t="n">
-        <v>65280</v>
+        <v>64300</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1371,10 +1371,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>45065</v>
+        <v>45069</v>
       </c>
       <c r="C59" t="n">
-        <v>65675</v>
+        <v>65280</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1387,10 +1387,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="C60" t="n">
-        <v>66025</v>
+        <v>65675</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1403,10 +1403,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="C61" t="n">
-        <v>64680</v>
+        <v>66025</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1419,10 +1419,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="C62" t="n">
-        <v>65200</v>
+        <v>64680</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1435,10 +1435,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>45058</v>
+        <v>45062</v>
       </c>
       <c r="C63" t="n">
-        <v>64690</v>
+        <v>65200</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1451,10 +1451,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="C64" t="n">
-        <v>66590</v>
+        <v>64690</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1467,10 +1467,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>45051</v>
+        <v>45057</v>
       </c>
       <c r="C65" t="n">
-        <v>66675</v>
+        <v>66590</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1483,10 +1483,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="C66" t="n">
-        <v>67290</v>
+        <v>66675</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1499,10 +1499,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>45044</v>
+        <v>45050</v>
       </c>
       <c r="C67" t="n">
-        <v>67420</v>
+        <v>67290</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1515,10 +1515,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="C68" t="n">
-        <v>66625</v>
+        <v>67420</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="C69" t="n">
-        <v>67540</v>
+        <v>66625</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1547,10 +1547,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="C70" t="n">
-        <v>68290</v>
+        <v>67540</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1563,10 +1563,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>45037</v>
+        <v>45041</v>
       </c>
       <c r="C71" t="n">
-        <v>68890</v>
+        <v>68290</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1579,10 +1579,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="C72" t="n">
-        <v>69500</v>
+        <v>68890</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1595,10 +1595,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="C73" t="n">
-        <v>69680</v>
+        <v>69500</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1611,10 +1611,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="C74" t="n">
-        <v>69650</v>
+        <v>69680</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1627,10 +1627,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>45030</v>
+        <v>45034</v>
       </c>
       <c r="C75" t="n">
-        <v>70310</v>
+        <v>69650</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1643,10 +1643,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="C76" t="n">
-        <v>69405</v>
+        <v>70310</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1659,10 +1659,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="C77" t="n">
-        <v>69150</v>
+        <v>69405</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1675,10 +1675,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="C78" t="n">
-        <v>68580</v>
+        <v>69150</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1691,10 +1691,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>45023</v>
+        <v>45027</v>
       </c>
       <c r="C79" t="n">
-        <v>68875</v>
+        <v>68580</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1707,10 +1707,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="C80" t="n">
-        <v>68830</v>
+        <v>68875</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1723,10 +1723,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>45020</v>
+        <v>45022</v>
       </c>
       <c r="C81" t="n">
-        <v>69225</v>
+        <v>68830</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1739,10 +1739,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>45016</v>
+        <v>45020</v>
       </c>
       <c r="C82" t="n">
-        <v>69650</v>
+        <v>69225</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1755,10 +1755,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="C83" t="n">
-        <v>69620</v>
+        <v>69650</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1771,10 +1771,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="C84" t="n">
-        <v>69580</v>
+        <v>69620</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1787,10 +1787,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="C85" t="n">
-        <v>69770</v>
+        <v>69580</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1803,10 +1803,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>45009</v>
+        <v>45013</v>
       </c>
       <c r="C86" t="n">
-        <v>69230</v>
+        <v>69770</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1819,10 +1819,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="C87" t="n">
-        <v>68630</v>
+        <v>69230</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -1835,10 +1835,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="C88" t="n">
-        <v>68100</v>
+        <v>68630</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -1851,10 +1851,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="C89" t="n">
-        <v>67575</v>
+        <v>68100</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -1867,10 +1867,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>45002</v>
+        <v>45006</v>
       </c>
       <c r="C90" t="n">
-        <v>67340</v>
+        <v>67575</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -1883,10 +1883,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="C91" t="n">
-        <v>67100</v>
+        <v>67340</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -1899,10 +1899,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="C92" t="n">
-        <v>68925</v>
+        <v>67100</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -1915,10 +1915,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="C93" t="n">
-        <v>68600</v>
+        <v>68925</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -1931,10 +1931,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>44995</v>
+        <v>44999</v>
       </c>
       <c r="C94" t="n">
-        <v>69025</v>
+        <v>68600</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -1947,10 +1947,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>44993</v>
+        <v>44995</v>
       </c>
       <c r="C95" t="n">
-        <v>68840</v>
+        <v>69025</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -1963,10 +1963,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="C96" t="n">
-        <v>69610</v>
+        <v>68840</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -1979,10 +1979,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="C97" t="n">
-        <v>69400</v>
+        <v>69610</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -1995,10 +1995,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="C98" t="n">
-        <v>69865</v>
+        <v>69400</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2011,10 +2011,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="C99" t="n">
-        <v>69710</v>
+        <v>69865</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2027,10 +2027,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="C100" t="n">
-        <v>68550</v>
+        <v>69710</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2043,10 +2043,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="C101" t="n">
-        <v>70050</v>
+        <v>68550</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2059,10 +2059,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="C102" t="n">
-        <v>70400</v>
+        <v>70050</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2075,10 +2075,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="C103" t="n">
-        <v>69705</v>
+        <v>70400</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2091,10 +2091,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>44974</v>
+        <v>44978</v>
       </c>
       <c r="C104" t="n">
-        <v>69080</v>
+        <v>69705</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2107,10 +2107,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="C105" t="n">
-        <v>68370</v>
+        <v>69080</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2123,10 +2123,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="C106" t="n">
-        <v>68950</v>
+        <v>68370</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2139,10 +2139,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="C107" t="n">
-        <v>68510</v>
+        <v>68950</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2155,10 +2155,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>44967</v>
+        <v>44971</v>
       </c>
       <c r="C108" t="n">
-        <v>68225</v>
+        <v>68510</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2171,10 +2171,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="C109" t="n">
-        <v>68240</v>
+        <v>68225</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2187,10 +2187,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="C110" t="n">
-        <v>68250</v>
+        <v>68240</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2203,10 +2203,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="C111" t="n">
-        <v>67860</v>
+        <v>68250</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2219,10 +2219,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>44960</v>
+        <v>44964</v>
       </c>
       <c r="C112" t="n">
-        <v>68425</v>
+        <v>67860</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2235,10 +2235,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="C113" t="n">
-        <v>69070</v>
+        <v>68425</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2251,10 +2251,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="C114" t="n">
-        <v>69560</v>
+        <v>69070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2267,10 +2267,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="C115" t="n">
-        <v>69425</v>
+        <v>69560</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2283,10 +2283,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>44946</v>
+        <v>44957</v>
       </c>
       <c r="C116" t="n">
-        <v>70150</v>
+        <v>69425</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2299,10 +2299,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="C117" t="n">
-        <v>69570</v>
+        <v>70150</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2315,10 +2315,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>44944</v>
+        <v>44945</v>
       </c>
       <c r="C118" t="n">
-        <v>69750</v>
+        <v>69570</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2331,10 +2331,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>44943</v>
+        <v>44944</v>
       </c>
       <c r="C119" t="n">
-        <v>68410</v>
+        <v>69750</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2347,10 +2347,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>44939</v>
+        <v>44943</v>
       </c>
       <c r="C120" t="n">
-        <v>68725</v>
+        <v>68410</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2363,10 +2363,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="C121" t="n">
-        <v>68430</v>
+        <v>68725</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2379,10 +2379,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="C122" t="n">
-        <v>67500</v>
+        <v>68430</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2395,10 +2395,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="C123" t="n">
-        <v>66475</v>
+        <v>67500</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2411,10 +2411,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>44925</v>
+        <v>44936</v>
       </c>
       <c r="C124" t="n">
-        <v>66175</v>
+        <v>66475</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2427,10 +2427,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="C125" t="n">
-        <v>66200</v>
+        <v>66175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2443,10 +2443,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="C126" t="n">
-        <v>66270</v>
+        <v>66200</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2459,10 +2459,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>44922</v>
+        <v>44923</v>
       </c>
       <c r="C127" t="n">
-        <v>66400</v>
+        <v>66270</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2475,10 +2475,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>44918</v>
+        <v>44922</v>
       </c>
       <c r="C128" t="n">
-        <v>66000</v>
+        <v>66400</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2491,10 +2491,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="C129" t="n">
-        <v>66750</v>
+        <v>66000</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="C130" t="n">
-        <v>66225</v>
+        <v>66750</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2523,10 +2523,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="C131" t="n">
-        <v>65575</v>
+        <v>66225</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2539,10 +2539,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>44911</v>
+        <v>44915</v>
       </c>
       <c r="C132" t="n">
-        <v>65750</v>
+        <v>65575</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2555,10 +2555,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="C133" t="n">
-        <v>66125</v>
+        <v>65750</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2571,10 +2571,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>44909</v>
+        <v>44910</v>
       </c>
       <c r="C134" t="n">
-        <v>66625</v>
+        <v>66125</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2587,10 +2587,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="C135" t="n">
-        <v>66175</v>
+        <v>66625</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2603,10 +2603,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>44904</v>
+        <v>44908</v>
       </c>
       <c r="C136" t="n">
-        <v>67000</v>
+        <v>66175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2619,10 +2619,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="C137" t="n">
-        <v>66290</v>
+        <v>67000</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2635,10 +2635,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="C138" t="n">
-        <v>66225</v>
+        <v>66290</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2651,10 +2651,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="C139" t="n">
-        <v>66575</v>
+        <v>66225</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2667,10 +2667,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>44897</v>
+        <v>44901</v>
       </c>
       <c r="C140" t="n">
-        <v>66400</v>
+        <v>66575</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2683,10 +2683,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="C141" t="n">
-        <v>66380</v>
+        <v>66400</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2699,10 +2699,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="C142" t="n">
-        <v>65290</v>
+        <v>66380</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2715,10 +2715,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="C143" t="n">
-        <v>65525</v>
+        <v>65290</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -2731,10 +2731,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="C144" t="n">
-        <v>65640</v>
+        <v>65525</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -2747,10 +2747,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="C145" t="n">
-        <v>65490</v>
+        <v>65640</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -2763,10 +2763,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="C146" t="n">
-        <v>65260</v>
+        <v>65490</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -2779,10 +2779,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="C147" t="n">
-        <v>65170</v>
+        <v>65260</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -2795,10 +2795,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>44883</v>
+        <v>44887</v>
       </c>
       <c r="C148" t="n">
-        <v>66275</v>
+        <v>65170</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -2811,10 +2811,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="C149" t="n">
-        <v>66540</v>
+        <v>66275</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -2827,10 +2827,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="C150" t="n">
-        <v>67050</v>
+        <v>66540</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -2843,10 +2843,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="C151" t="n">
-        <v>67275</v>
+        <v>67050</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -2859,10 +2859,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>44876</v>
+        <v>44880</v>
       </c>
       <c r="C152" t="n">
-        <v>68575</v>
+        <v>67275</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -2875,10 +2875,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="C153" t="n">
-        <v>67400</v>
+        <v>68575</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -2891,10 +2891,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="C154" t="n">
-        <v>66800</v>
+        <v>67400</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -2907,10 +2907,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="C155" t="n">
-        <v>66225</v>
+        <v>66800</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -2923,10 +2923,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>44869</v>
+        <v>44873</v>
       </c>
       <c r="C156" t="n">
-        <v>64700</v>
+        <v>66225</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -2939,10 +2939,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="C157" t="n">
-        <v>64690</v>
+        <v>64700</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -2955,10 +2955,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="C158" t="n">
-        <v>64950</v>
+        <v>64690</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -2971,10 +2971,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>44866</v>
+        <v>44867</v>
       </c>
       <c r="C159" t="n">
-        <v>64300</v>
+        <v>64950</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -2987,10 +2987,10 @@
         <v>158</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>44862</v>
+        <v>44866</v>
       </c>
       <c r="C160" t="n">
-        <v>64650</v>
+        <v>64300</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3003,10 +3003,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>44861</v>
+        <v>44862</v>
       </c>
       <c r="C161" t="n">
-        <v>64690</v>
+        <v>64650</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3019,10 +3019,10 @@
         <v>160</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="C162" t="n">
-        <v>63950</v>
+        <v>64690</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3035,10 +3035,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="C163" t="n">
-        <v>64300</v>
+        <v>63950</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3051,10 +3051,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>44855</v>
+        <v>44859</v>
       </c>
       <c r="C164" t="n">
-        <v>64000</v>
+        <v>64300</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3067,10 +3067,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="C165" t="n">
-        <v>62895</v>
+        <v>64000</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3083,10 +3083,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>44853</v>
+        <v>44854</v>
       </c>
       <c r="C166" t="n">
-        <v>62950</v>
+        <v>62895</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3099,10 +3099,10 @@
         <v>165</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="C167" t="n">
-        <v>63550</v>
+        <v>62950</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3115,10 +3115,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>44848</v>
+        <v>44852</v>
       </c>
       <c r="C168" t="n">
-        <v>64760</v>
+        <v>63550</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3131,10 +3131,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="C169" t="n">
-        <v>63960</v>
+        <v>64760</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3147,10 +3147,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="C170" t="n">
-        <v>63800</v>
+        <v>63960</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3163,10 +3163,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>44845</v>
+        <v>44846</v>
       </c>
       <c r="C171" t="n">
-        <v>63975</v>
+        <v>63800</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3179,10 +3179,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>44834</v>
+        <v>44845</v>
       </c>
       <c r="C172" t="n">
-        <v>62670</v>
+        <v>63975</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3195,10 +3195,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="C173" t="n">
-        <v>62430</v>
+        <v>62670</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3211,10 +3211,10 @@
         <v>172</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="C174" t="n">
-        <v>61430</v>
+        <v>62430</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3227,10 +3227,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="C175" t="n">
-        <v>61485</v>
+        <v>61430</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3243,10 +3243,10 @@
         <v>174</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>44827</v>
+        <v>44831</v>
       </c>
       <c r="C176" t="n">
-        <v>63025</v>
+        <v>61485</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3259,10 +3259,10 @@
         <v>175</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="C177" t="n">
-        <v>63120</v>
+        <v>63025</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="C178" t="n">
         <v>63120</v>
@@ -3291,10 +3291,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="C179" t="n">
-        <v>63370</v>
+        <v>63120</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3307,10 +3307,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>44820</v>
+        <v>44824</v>
       </c>
       <c r="C180" t="n">
-        <v>62865</v>
+        <v>63370</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3323,10 +3323,10 @@
         <v>179</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="C181" t="n">
-        <v>63370</v>
+        <v>62865</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3339,10 +3339,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="C182" t="n">
-        <v>63050</v>
+        <v>63370</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3355,10 +3355,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="C183" t="n">
-        <v>63850</v>
+        <v>63050</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3371,10 +3371,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>44813</v>
+        <v>44817</v>
       </c>
       <c r="C184" t="n">
-        <v>63650</v>
+        <v>63850</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3387,10 +3387,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="C185" t="n">
-        <v>61910</v>
+        <v>63650</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3403,10 +3403,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="2" t="n">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="C186" t="n">
-        <v>61700</v>
+        <v>61910</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3419,10 +3419,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="2" t="n">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="C187" t="n">
-        <v>61750</v>
+        <v>61700</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3435,10 +3435,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>44806</v>
+        <v>44810</v>
       </c>
       <c r="C188" t="n">
-        <v>60500</v>
+        <v>61750</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3451,10 +3451,10 @@
         <v>187</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="C189" t="n">
-        <v>61775</v>
+        <v>60500</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3467,10 +3467,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="2" t="n">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="C190" t="n">
-        <v>62770</v>
+        <v>61775</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3483,10 +3483,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="2" t="n">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="C191" t="n">
-        <v>63120</v>
+        <v>62770</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3499,10 +3499,10 @@
         <v>190</v>
       </c>
       <c r="B192" s="2" t="n">
-        <v>44799</v>
+        <v>44803</v>
       </c>
       <c r="C192" t="n">
-        <v>64270</v>
+        <v>63120</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3515,10 +3515,10 @@
         <v>191</v>
       </c>
       <c r="B193" s="2" t="n">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="C193" t="n">
-        <v>63330</v>
+        <v>64270</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3531,10 +3531,10 @@
         <v>192</v>
       </c>
       <c r="B194" s="2" t="n">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="C194" t="n">
-        <v>63715</v>
+        <v>63330</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3547,10 +3547,10 @@
         <v>193</v>
       </c>
       <c r="B195" s="2" t="n">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="C195" t="n">
-        <v>63570</v>
+        <v>63715</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3563,10 +3563,10 @@
         <v>194</v>
       </c>
       <c r="B196" s="2" t="n">
-        <v>44792</v>
+        <v>44796</v>
       </c>
       <c r="C196" t="n">
-        <v>62950</v>
+        <v>63570</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3579,10 +3579,10 @@
         <v>195</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="C197" t="n">
-        <v>62300</v>
+        <v>62950</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3595,10 +3595,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="C198" t="n">
-        <v>62470</v>
+        <v>62300</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -3611,10 +3611,10 @@
         <v>197</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="C199" t="n">
-        <v>62460</v>
+        <v>62470</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -3627,10 +3627,10 @@
         <v>198</v>
       </c>
       <c r="B200" s="2" t="n">
-        <v>44785</v>
+        <v>44789</v>
       </c>
       <c r="C200" t="n">
-        <v>63000</v>
+        <v>62460</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -3643,10 +3643,10 @@
         <v>199</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>44784</v>
+        <v>44785</v>
       </c>
       <c r="C201" t="n">
-        <v>62520</v>
+        <v>63000</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -3659,10 +3659,10 @@
         <v>200</v>
       </c>
       <c r="B202" s="2" t="n">
-        <v>44783</v>
+        <v>44784</v>
       </c>
       <c r="C202" t="n">
-        <v>61780</v>
+        <v>62520</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -3675,10 +3675,10 @@
         <v>201</v>
       </c>
       <c r="B203" s="2" t="n">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="C203" t="n">
-        <v>61540</v>
+        <v>61780</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -3691,10 +3691,10 @@
         <v>202</v>
       </c>
       <c r="B204" s="2" t="n">
-        <v>44778</v>
+        <v>44782</v>
       </c>
       <c r="C204" t="n">
-        <v>60520</v>
+        <v>61540</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -3707,10 +3707,10 @@
         <v>203</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>44777</v>
+        <v>44778</v>
       </c>
       <c r="C205" t="n">
-        <v>59930</v>
+        <v>60520</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -3723,10 +3723,10 @@
         <v>204</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="C206" t="n">
-        <v>60260</v>
+        <v>59930</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -3739,10 +3739,10 @@
         <v>205</v>
       </c>
       <c r="B207" s="2" t="n">
-        <v>44775</v>
+        <v>44776</v>
       </c>
       <c r="C207" t="n">
-        <v>60180</v>
+        <v>60260</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -3755,10 +3755,10 @@
         <v>206</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>44771</v>
+        <v>44775</v>
       </c>
       <c r="C208" t="n">
-        <v>60315</v>
+        <v>60180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -3771,10 +3771,10 @@
         <v>207</v>
       </c>
       <c r="B209" s="2" t="n">
-        <v>44770</v>
+        <v>44771</v>
       </c>
       <c r="C209" t="n">
-        <v>60090</v>
+        <v>60315</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -3787,10 +3787,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="2" t="n">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="C210" t="n">
-        <v>58710</v>
+        <v>60090</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -3803,10 +3803,10 @@
         <v>209</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>44768</v>
+        <v>44769</v>
       </c>
       <c r="C211" t="n">
-        <v>58930</v>
+        <v>58710</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -3819,10 +3819,10 @@
         <v>210</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>44764</v>
+        <v>44768</v>
       </c>
       <c r="C212" t="n">
-        <v>57030</v>
+        <v>58930</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -3835,10 +3835,10 @@
         <v>211</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="C213" t="n">
-        <v>56360</v>
+        <v>57030</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -3851,10 +3851,10 @@
         <v>212</v>
       </c>
       <c r="B214" s="2" t="n">
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="C214" t="n">
-        <v>56920</v>
+        <v>56360</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -3867,10 +3867,10 @@
         <v>213</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="C215" t="n">
-        <v>56210</v>
+        <v>56920</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -3883,10 +3883,10 @@
         <v>214</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>44757</v>
+        <v>44761</v>
       </c>
       <c r="C216" t="n">
-        <v>54890</v>
+        <v>56210</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -3899,10 +3899,10 @@
         <v>215</v>
       </c>
       <c r="B217" s="2" t="n">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="C217" t="n">
-        <v>56300</v>
+        <v>54890</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -3915,10 +3915,10 @@
         <v>216</v>
       </c>
       <c r="B218" s="2" t="n">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="C218" t="n">
-        <v>56460</v>
+        <v>56300</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -3931,10 +3931,10 @@
         <v>217</v>
       </c>
       <c r="B219" s="2" t="n">
-        <v>44754</v>
+        <v>44755</v>
       </c>
       <c r="C219" t="n">
-        <v>58430</v>
+        <v>56460</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -3947,10 +3947,10 @@
         <v>218</v>
       </c>
       <c r="B220" s="2" t="n">
-        <v>44750</v>
+        <v>44754</v>
       </c>
       <c r="C220" t="n">
-        <v>59600</v>
+        <v>58430</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -3963,10 +3963,10 @@
         <v>219</v>
       </c>
       <c r="B221" s="2" t="n">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="C221" t="n">
-        <v>58600</v>
+        <v>59600</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -3979,10 +3979,10 @@
         <v>220</v>
       </c>
       <c r="B222" s="2" t="n">
-        <v>44748</v>
+        <v>44749</v>
       </c>
       <c r="C222" t="n">
-        <v>58125</v>
+        <v>58600</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -3995,10 +3995,10 @@
         <v>221</v>
       </c>
       <c r="B223" s="2" t="n">
-        <v>44747</v>
+        <v>44748</v>
       </c>
       <c r="C223" t="n">
-        <v>61225</v>
+        <v>58125</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4011,10 +4011,10 @@
         <v>222</v>
       </c>
       <c r="B224" s="2" t="n">
-        <v>44743</v>
+        <v>44747</v>
       </c>
       <c r="C224" t="n">
-        <v>62930</v>
+        <v>61225</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -4027,10 +4027,10 @@
         <v>223</v>
       </c>
       <c r="B225" s="2" t="n">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="C225" t="n">
-        <v>64230</v>
+        <v>62930</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4043,10 +4043,10 @@
         <v>224</v>
       </c>
       <c r="B226" s="2" t="n">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="C226" t="n">
-        <v>63940</v>
+        <v>64230</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4059,10 +4059,10 @@
         <v>225</v>
       </c>
       <c r="B227" s="2" t="n">
-        <v>44740</v>
+        <v>44741</v>
       </c>
       <c r="C227" t="n">
-        <v>64150</v>
+        <v>63940</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4075,10 +4075,10 @@
         <v>226</v>
       </c>
       <c r="B228" s="2" t="n">
-        <v>44736</v>
+        <v>44740</v>
       </c>
       <c r="C228" t="n">
-        <v>64340</v>
+        <v>64150</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4091,10 +4091,10 @@
         <v>227</v>
       </c>
       <c r="B229" s="2" t="n">
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="C229" t="n">
-        <v>66050</v>
+        <v>64340</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4107,10 +4107,10 @@
         <v>228</v>
       </c>
       <c r="B230" s="2" t="n">
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="C230" t="n">
-        <v>68160</v>
+        <v>66050</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4123,10 +4123,10 @@
         <v>229</v>
       </c>
       <c r="B231" s="2" t="n">
-        <v>44733</v>
+        <v>44734</v>
       </c>
       <c r="C231" t="n">
-        <v>68700</v>
+        <v>68160</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4139,10 +4139,10 @@
         <v>230</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>44729</v>
+        <v>44733</v>
       </c>
       <c r="C232" t="n">
-        <v>69975</v>
+        <v>68700</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4155,10 +4155,10 @@
         <v>231</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>44728</v>
+        <v>44729</v>
       </c>
       <c r="C233" t="n">
-        <v>71255</v>
+        <v>69975</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4171,10 +4171,10 @@
         <v>232</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>44727</v>
+        <v>44728</v>
       </c>
       <c r="C234" t="n">
-        <v>71250</v>
+        <v>71255</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -4187,10 +4187,10 @@
         <v>233</v>
       </c>
       <c r="B235" s="2" t="n">
-        <v>44722</v>
+        <v>44727</v>
       </c>
       <c r="C235" t="n">
-        <v>72750</v>
+        <v>71250</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -4203,10 +4203,10 @@
         <v>234</v>
       </c>
       <c r="B236" s="2" t="n">
-        <v>44721</v>
+        <v>44722</v>
       </c>
       <c r="C236" t="n">
-        <v>73030</v>
+        <v>72750</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4219,10 +4219,10 @@
         <v>235</v>
       </c>
       <c r="B237" s="2" t="n">
-        <v>44720</v>
+        <v>44721</v>
       </c>
       <c r="C237" t="n">
-        <v>72890</v>
+        <v>73030</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4235,10 +4235,10 @@
         <v>236</v>
       </c>
       <c r="B238" s="2" t="n">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="C238" t="n">
-        <v>72975</v>
+        <v>72890</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -4251,10 +4251,10 @@
         <v>237</v>
       </c>
       <c r="B239" s="2" t="n">
-        <v>44714</v>
+        <v>44719</v>
       </c>
       <c r="C239" t="n">
-        <v>72530</v>
+        <v>72975</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4267,10 +4267,10 @@
         <v>238</v>
       </c>
       <c r="B240" s="2" t="n">
-        <v>44713</v>
+        <v>44714</v>
       </c>
       <c r="C240" t="n">
-        <v>72150</v>
+        <v>72530</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4283,10 +4283,10 @@
         <v>239</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>44712</v>
+        <v>44713</v>
       </c>
       <c r="C241" t="n">
-        <v>72630</v>
+        <v>72150</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -4299,10 +4299,10 @@
         <v>240</v>
       </c>
       <c r="B242" s="2" t="n">
-        <v>44708</v>
+        <v>44712</v>
       </c>
       <c r="C242" t="n">
-        <v>72625</v>
+        <v>72630</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -4315,10 +4315,10 @@
         <v>241</v>
       </c>
       <c r="B243" s="2" t="n">
-        <v>44707</v>
+        <v>44708</v>
       </c>
       <c r="C243" t="n">
-        <v>71950</v>
+        <v>72625</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>242</v>
       </c>
       <c r="B244" s="2" t="n">
-        <v>44706</v>
+        <v>44707</v>
       </c>
       <c r="C244" t="n">
-        <v>72220</v>
+        <v>71950</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4347,10 +4347,10 @@
         <v>243</v>
       </c>
       <c r="B245" s="2" t="n">
-        <v>44705</v>
+        <v>44706</v>
       </c>
       <c r="C245" t="n">
-        <v>72500</v>
+        <v>72220</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4363,10 +4363,10 @@
         <v>244</v>
       </c>
       <c r="B246" s="2" t="n">
-        <v>44701</v>
+        <v>44705</v>
       </c>
       <c r="C246" t="n">
-        <v>72150</v>
+        <v>72500</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4379,10 +4379,10 @@
         <v>245</v>
       </c>
       <c r="B247" s="2" t="n">
-        <v>44700</v>
+        <v>44701</v>
       </c>
       <c r="C247" t="n">
-        <v>71775</v>
+        <v>72150</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4395,10 +4395,10 @@
         <v>246</v>
       </c>
       <c r="B248" s="2" t="n">
-        <v>44699</v>
+        <v>44700</v>
       </c>
       <c r="C248" t="n">
-        <v>72070</v>
+        <v>71775</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -4411,10 +4411,10 @@
         <v>247</v>
       </c>
       <c r="B249" s="2" t="n">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="C249" t="n">
-        <v>72175</v>
+        <v>72070</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4427,10 +4427,10 @@
         <v>248</v>
       </c>
       <c r="B250" s="2" t="n">
-        <v>44694</v>
+        <v>44698</v>
       </c>
       <c r="C250" t="n">
-        <v>71160</v>
+        <v>72175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -4443,10 +4443,10 @@
         <v>249</v>
       </c>
       <c r="B251" s="2" t="n">
-        <v>44693</v>
+        <v>44694</v>
       </c>
       <c r="C251" t="n">
-        <v>72050</v>
+        <v>71160</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -4459,10 +4459,10 @@
         <v>250</v>
       </c>
       <c r="B252" s="2" t="n">
-        <v>44687</v>
+        <v>44693</v>
       </c>
       <c r="C252" t="n">
-        <v>72875</v>
+        <v>72050</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -4475,10 +4475,10 @@
         <v>251</v>
       </c>
       <c r="B253" s="2" t="n">
-        <v>44686</v>
+        <v>44687</v>
       </c>
       <c r="C253" t="n">
-        <v>73760</v>
+        <v>72875</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -4491,10 +4491,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="2" t="n">
-        <v>44680</v>
+        <v>44686</v>
       </c>
       <c r="C254" t="n">
-        <v>73930</v>
+        <v>73760</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -4507,10 +4507,10 @@
         <v>253</v>
       </c>
       <c r="B255" s="2" t="n">
-        <v>44679</v>
+        <v>44680</v>
       </c>
       <c r="C255" t="n">
-        <v>74005</v>
+        <v>73930</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -4523,10 +4523,10 @@
         <v>254</v>
       </c>
       <c r="B256" s="2" t="n">
-        <v>44678</v>
+        <v>44679</v>
       </c>
       <c r="C256" t="n">
-        <v>73770</v>
+        <v>74005</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -4539,10 +4539,10 @@
         <v>255</v>
       </c>
       <c r="B257" s="2" t="n">
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="C257" t="n">
-        <v>73950</v>
+        <v>73770</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -4555,10 +4555,10 @@
         <v>256</v>
       </c>
       <c r="B258" s="2" t="n">
-        <v>44673</v>
+        <v>44677</v>
       </c>
       <c r="C258" t="n">
-        <v>75070</v>
+        <v>73950</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -4571,10 +4571,10 @@
         <v>257</v>
       </c>
       <c r="B259" s="2" t="n">
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="C259" t="n">
-        <v>74850</v>
+        <v>75070</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -4587,10 +4587,10 @@
         <v>258</v>
       </c>
       <c r="B260" s="2" t="n">
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="C260" t="n">
-        <v>74740</v>
+        <v>74850</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -4603,10 +4603,10 @@
         <v>259</v>
       </c>
       <c r="B261" s="2" t="n">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="C261" t="n">
-        <v>75575</v>
+        <v>74740</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -4619,10 +4619,10 @@
         <v>260</v>
       </c>
       <c r="B262" s="2" t="n">
-        <v>44666</v>
+        <v>44670</v>
       </c>
       <c r="C262" t="n">
-        <v>75385</v>
+        <v>75575</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -4635,10 +4635,10 @@
         <v>261</v>
       </c>
       <c r="B263" s="2" t="n">
-        <v>44665</v>
+        <v>44666</v>
       </c>
       <c r="C263" t="n">
-        <v>74370</v>
+        <v>75385</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -4651,10 +4651,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="2" t="n">
-        <v>44664</v>
+        <v>44665</v>
       </c>
       <c r="C264" t="n">
-        <v>74550</v>
+        <v>74370</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -4667,10 +4667,10 @@
         <v>263</v>
       </c>
       <c r="B265" s="2" t="n">
-        <v>44663</v>
+        <v>44664</v>
       </c>
       <c r="C265" t="n">
-        <v>73790</v>
+        <v>74550</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -4683,10 +4683,10 @@
         <v>264</v>
       </c>
       <c r="B266" s="2" t="n">
-        <v>44659</v>
+        <v>44663</v>
       </c>
       <c r="C266" t="n">
-        <v>73765</v>
+        <v>73790</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -4699,10 +4699,10 @@
         <v>265</v>
       </c>
       <c r="B267" s="2" t="n">
-        <v>44658</v>
+        <v>44659</v>
       </c>
       <c r="C267" t="n">
-        <v>73690</v>
+        <v>73765</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -4715,10 +4715,10 @@
         <v>266</v>
       </c>
       <c r="B268" s="2" t="n">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C268" t="n">
-        <v>74000</v>
+        <v>73690</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -4731,10 +4731,10 @@
         <v>267</v>
       </c>
       <c r="B269" s="2" t="n">
-        <v>44652</v>
+        <v>44657</v>
       </c>
       <c r="C269" t="n">
-        <v>73635</v>
+        <v>74000</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -4747,10 +4747,10 @@
         <v>268</v>
       </c>
       <c r="B270" s="2" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="C270" t="n">
-        <v>73575</v>
+        <v>73635</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -4763,10 +4763,10 @@
         <v>269</v>
       </c>
       <c r="B271" s="2" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="C271" t="n">
-        <v>73980</v>
+        <v>73575</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -4779,10 +4779,10 @@
         <v>270</v>
       </c>
       <c r="B272" s="2" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="C272" t="n">
-        <v>74100</v>
+        <v>73980</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -4795,10 +4795,10 @@
         <v>271</v>
       </c>
       <c r="B273" s="2" t="n">
-        <v>44645</v>
+        <v>44649</v>
       </c>
       <c r="C273" t="n">
-        <v>73775</v>
+        <v>74100</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -4811,10 +4811,10 @@
         <v>272</v>
       </c>
       <c r="B274" s="2" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="C274" t="n">
-        <v>73880</v>
+        <v>73775</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -4827,10 +4827,10 @@
         <v>273</v>
       </c>
       <c r="B275" s="2" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="C275" t="n">
-        <v>73410</v>
+        <v>73880</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -4843,10 +4843,10 @@
         <v>274</v>
       </c>
       <c r="B276" s="2" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="C276" t="n">
-        <v>73510</v>
+        <v>73410</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -4859,10 +4859,10 @@
         <v>275</v>
       </c>
       <c r="B277" s="2" t="n">
-        <v>44638</v>
+        <v>44642</v>
       </c>
       <c r="C277" t="n">
-        <v>73310</v>
+        <v>73510</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -4875,10 +4875,10 @@
         <v>276</v>
       </c>
       <c r="B278" s="2" t="n">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="C278" t="n">
-        <v>72740</v>
+        <v>73310</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -4891,10 +4891,10 @@
         <v>277</v>
       </c>
       <c r="B279" s="2" t="n">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="C279" t="n">
-        <v>72060</v>
+        <v>72740</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -4907,10 +4907,10 @@
         <v>278</v>
       </c>
       <c r="B280" s="2" t="n">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="C280" t="n">
-        <v>71790</v>
+        <v>72060</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -4923,10 +4923,10 @@
         <v>279</v>
       </c>
       <c r="B281" s="2" t="n">
-        <v>44631</v>
+        <v>44635</v>
       </c>
       <c r="C281" t="n">
-        <v>72170</v>
+        <v>71790</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -4939,10 +4939,10 @@
         <v>280</v>
       </c>
       <c r="B282" s="2" t="n">
-        <v>44630</v>
+        <v>44631</v>
       </c>
       <c r="C282" t="n">
-        <v>72080</v>
+        <v>72170</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -4955,10 +4955,10 @@
         <v>281</v>
       </c>
       <c r="B283" s="2" t="n">
-        <v>44624</v>
+        <v>44630</v>
       </c>
       <c r="C283" t="n">
-        <v>72930</v>
+        <v>72080</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -4971,10 +4971,10 @@
         <v>282</v>
       </c>
       <c r="B284" s="2" t="n">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="C284" t="n">
-        <v>72540</v>
+        <v>72930</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>283</v>
       </c>
       <c r="B285" s="2" t="n">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="C285" t="n">
-        <v>71520</v>
+        <v>72540</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5003,10 +5003,10 @@
         <v>284</v>
       </c>
       <c r="B286" s="2" t="n">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="C286" t="n">
-        <v>70880</v>
+        <v>71520</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5019,10 +5019,10 @@
         <v>285</v>
       </c>
       <c r="B287" s="2" t="n">
-        <v>44617</v>
+        <v>44621</v>
       </c>
       <c r="C287" t="n">
-        <v>71010</v>
+        <v>70880</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5035,10 +5035,10 @@
         <v>286</v>
       </c>
       <c r="B288" s="2" t="n">
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="C288" t="n">
-        <v>71170</v>
+        <v>71010</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5051,10 +5051,10 @@
         <v>287</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="C289" t="n">
-        <v>71140</v>
+        <v>71170</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5067,10 +5067,10 @@
         <v>288</v>
       </c>
       <c r="B290" s="2" t="n">
-        <v>44610</v>
+        <v>44614</v>
       </c>
       <c r="C290" t="n">
-        <v>71525</v>
+        <v>71140</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5083,10 +5083,10 @@
         <v>289</v>
       </c>
       <c r="B291" s="2" t="n">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="C291" t="n">
-        <v>71550</v>
+        <v>71525</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="2" t="n">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="C292" t="n">
         <v>71550</v>
@@ -5115,10 +5115,10 @@
         <v>291</v>
       </c>
       <c r="B293" s="2" t="n">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="C293" t="n">
-        <v>71090</v>
+        <v>71550</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -5131,10 +5131,10 @@
         <v>292</v>
       </c>
       <c r="B294" s="2" t="n">
-        <v>44603</v>
+        <v>44607</v>
       </c>
       <c r="C294" t="n">
-        <v>72580</v>
+        <v>71090</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5147,10 +5147,10 @@
         <v>293</v>
       </c>
       <c r="B295" s="2" t="n">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="C295" t="n">
-        <v>72210</v>
+        <v>72580</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5163,10 +5163,10 @@
         <v>294</v>
       </c>
       <c r="B296" s="2" t="n">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="C296" t="n">
-        <v>70500</v>
+        <v>72210</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5179,10 +5179,10 @@
         <v>295</v>
       </c>
       <c r="B297" s="2" t="n">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="C297" t="n">
-        <v>70690</v>
+        <v>70500</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5195,10 +5195,10 @@
         <v>296</v>
       </c>
       <c r="B298" s="2" t="n">
-        <v>44589</v>
+        <v>44600</v>
       </c>
       <c r="C298" t="n">
-        <v>70480</v>
+        <v>70690</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5211,10 +5211,10 @@
         <v>297</v>
       </c>
       <c r="B299" s="2" t="n">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="C299" t="n">
-        <v>70400</v>
+        <v>70480</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5227,10 +5227,10 @@
         <v>298</v>
       </c>
       <c r="B300" s="2" t="n">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="C300" t="n">
-        <v>70270</v>
+        <v>70400</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5243,10 +5243,10 @@
         <v>299</v>
       </c>
       <c r="B301" s="2" t="n">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="C301" t="n">
-        <v>70040</v>
+        <v>70270</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5259,10 +5259,10 @@
         <v>300</v>
       </c>
       <c r="B302" s="2" t="n">
-        <v>44582</v>
+        <v>44586</v>
       </c>
       <c r="C302" t="n">
-        <v>71000</v>
+        <v>70040</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5275,10 +5275,10 @@
         <v>301</v>
       </c>
       <c r="B303" s="2" t="n">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="C303" t="n">
-        <v>70930</v>
+        <v>71000</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5291,10 +5291,10 @@
         <v>302</v>
       </c>
       <c r="B304" s="2" t="n">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="C304" t="n">
-        <v>70330</v>
+        <v>70930</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5307,10 +5307,10 @@
         <v>303</v>
       </c>
       <c r="B305" s="2" t="n">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="C305" t="n">
-        <v>70525</v>
+        <v>70330</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5323,10 +5323,10 @@
         <v>304</v>
       </c>
       <c r="B306" s="2" t="n">
-        <v>44575</v>
+        <v>44579</v>
       </c>
       <c r="C306" t="n">
-        <v>71570</v>
+        <v>70525</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5339,10 +5339,10 @@
         <v>305</v>
       </c>
       <c r="B307" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C307" t="n">
-        <v>72130</v>
+        <v>71570</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5355,10 +5355,10 @@
         <v>306</v>
       </c>
       <c r="B308" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C308" t="n">
-        <v>70850</v>
+        <v>72130</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -5371,10 +5371,10 @@
         <v>307</v>
       </c>
       <c r="B309" s="2" t="n">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="C309" t="n">
-        <v>69900</v>
+        <v>70850</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -5387,10 +5387,10 @@
         <v>308</v>
       </c>
       <c r="B310" s="2" t="n">
-        <v>44561</v>
+        <v>44572</v>
       </c>
       <c r="C310" t="n">
-        <v>69910</v>
+        <v>69900</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -5403,10 +5403,10 @@
         <v>309</v>
       </c>
       <c r="B311" s="2" t="n">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="C311" t="n">
-        <v>70020</v>
+        <v>69910</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -5419,10 +5419,10 @@
         <v>310</v>
       </c>
       <c r="B312" s="2" t="n">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="C312" t="n">
-        <v>70060</v>
+        <v>70020</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -5435,10 +5435,10 @@
         <v>311</v>
       </c>
       <c r="B313" s="2" t="n">
-        <v>44558</v>
+        <v>44559</v>
       </c>
       <c r="C313" t="n">
-        <v>70270</v>
+        <v>70060</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -5451,10 +5451,10 @@
         <v>312</v>
       </c>
       <c r="B314" s="2" t="n">
-        <v>44554</v>
+        <v>44558</v>
       </c>
       <c r="C314" t="n">
-        <v>69840</v>
+        <v>70270</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -5467,10 +5467,10 @@
         <v>313</v>
       </c>
       <c r="B315" s="2" t="n">
-        <v>44553</v>
+        <v>44554</v>
       </c>
       <c r="C315" t="n">
-        <v>69850</v>
+        <v>69840</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -5483,10 +5483,10 @@
         <v>314</v>
       </c>
       <c r="B316" s="2" t="n">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="C316" t="n">
-        <v>69520</v>
+        <v>69850</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -5499,10 +5499,10 @@
         <v>315</v>
       </c>
       <c r="B317" s="2" t="n">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="C317" t="n">
-        <v>69385</v>
+        <v>69520</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -5515,10 +5515,10 @@
         <v>316</v>
       </c>
       <c r="B318" s="2" t="n">
-        <v>44547</v>
+        <v>44551</v>
       </c>
       <c r="C318" t="n">
-        <v>69525</v>
+        <v>69385</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -5531,10 +5531,10 @@
         <v>317</v>
       </c>
       <c r="B319" s="2" t="n">
-        <v>44546</v>
+        <v>44547</v>
       </c>
       <c r="C319" t="n">
-        <v>68570</v>
+        <v>69525</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -5547,10 +5547,10 @@
         <v>318</v>
       </c>
       <c r="B320" s="2" t="n">
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="C320" t="n">
-        <v>68875</v>
+        <v>68570</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -5563,10 +5563,10 @@
         <v>319</v>
       </c>
       <c r="B321" s="2" t="n">
-        <v>44544</v>
+        <v>44545</v>
       </c>
       <c r="C321" t="n">
-        <v>68900</v>
+        <v>68875</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -5579,10 +5579,10 @@
         <v>320</v>
       </c>
       <c r="B322" s="2" t="n">
-        <v>44540</v>
+        <v>44544</v>
       </c>
       <c r="C322" t="n">
-        <v>69750</v>
+        <v>68900</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -5595,10 +5595,10 @@
         <v>321</v>
       </c>
       <c r="B323" s="2" t="n">
-        <v>44539</v>
+        <v>44540</v>
       </c>
       <c r="C323" t="n">
-        <v>69980</v>
+        <v>69750</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -5611,10 +5611,10 @@
         <v>322</v>
       </c>
       <c r="B324" s="2" t="n">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="C324" t="n">
-        <v>69815</v>
+        <v>69980</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -5627,10 +5627,10 @@
         <v>323</v>
       </c>
       <c r="B325" s="2" t="n">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="C325" t="n">
-        <v>69760</v>
+        <v>69815</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>324</v>
       </c>
       <c r="B326" s="2" t="n">
-        <v>44533</v>
+        <v>44537</v>
       </c>
       <c r="C326" t="n">
-        <v>69830</v>
+        <v>69760</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -5659,10 +5659,10 @@
         <v>325</v>
       </c>
       <c r="B327" s="2" t="n">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="C327" t="n">
-        <v>69900</v>
+        <v>69830</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -5675,10 +5675,10 @@
         <v>326</v>
       </c>
       <c r="B328" s="2" t="n">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="C328" t="n">
-        <v>70180</v>
+        <v>69900</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -5691,10 +5691,10 @@
         <v>327</v>
       </c>
       <c r="B329" s="2" t="n">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="C329" t="n">
-        <v>70650</v>
+        <v>70180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -5707,10 +5707,10 @@
         <v>328</v>
       </c>
       <c r="B330" s="2" t="n">
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="C330" t="n">
-        <v>71610</v>
+        <v>70650</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -5723,10 +5723,10 @@
         <v>329</v>
       </c>
       <c r="B331" s="2" t="n">
-        <v>44525</v>
+        <v>44526</v>
       </c>
       <c r="C331" t="n">
-        <v>72330</v>
+        <v>71610</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -5739,10 +5739,10 @@
         <v>330</v>
       </c>
       <c r="B332" s="2" t="n">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="C332" t="n">
-        <v>71820</v>
+        <v>72330</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -5755,10 +5755,10 @@
         <v>331</v>
       </c>
       <c r="B333" s="2" t="n">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="C333" t="n">
-        <v>72510</v>
+        <v>71820</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -5771,10 +5771,10 @@
         <v>332</v>
       </c>
       <c r="B334" s="2" t="n">
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="C334" t="n">
-        <v>72250</v>
+        <v>72510</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -5787,10 +5787,10 @@
         <v>333</v>
       </c>
       <c r="B335" s="2" t="n">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="C335" t="n">
-        <v>70350</v>
+        <v>72250</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -5803,10 +5803,10 @@
         <v>334</v>
       </c>
       <c r="B336" s="2" t="n">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="C336" t="n">
-        <v>70955</v>
+        <v>70350</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -5819,10 +5819,10 @@
         <v>335</v>
       </c>
       <c r="B337" s="2" t="n">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="C337" t="n">
-        <v>71750</v>
+        <v>70955</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -5835,10 +5835,10 @@
         <v>336</v>
       </c>
       <c r="B338" s="2" t="n">
-        <v>44512</v>
+        <v>44516</v>
       </c>
       <c r="C338" t="n">
-        <v>71435</v>
+        <v>71750</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -5851,10 +5851,10 @@
         <v>337</v>
       </c>
       <c r="B339" s="2" t="n">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="C339" t="n">
-        <v>70780</v>
+        <v>71435</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -5867,10 +5867,10 @@
         <v>338</v>
       </c>
       <c r="B340" s="2" t="n">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="C340" t="n">
-        <v>70650</v>
+        <v>70780</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -5883,10 +5883,10 @@
         <v>339</v>
       </c>
       <c r="B341" s="2" t="n">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="C341" t="n">
-        <v>71110</v>
+        <v>70650</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -5899,10 +5899,10 @@
         <v>340</v>
       </c>
       <c r="B342" s="2" t="n">
-        <v>44504</v>
+        <v>44509</v>
       </c>
       <c r="C342" t="n">
-        <v>71270</v>
+        <v>71110</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -5915,10 +5915,10 @@
         <v>341</v>
       </c>
       <c r="B343" s="2" t="n">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="C343" t="n">
-        <v>70910</v>
+        <v>71270</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -5931,10 +5931,10 @@
         <v>342</v>
       </c>
       <c r="B344" s="2" t="n">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="C344" t="n">
-        <v>71180</v>
+        <v>70910</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -5947,10 +5947,10 @@
         <v>343</v>
       </c>
       <c r="B345" s="2" t="n">
-        <v>44498</v>
+        <v>44502</v>
       </c>
       <c r="C345" t="n">
-        <v>71575</v>
+        <v>71180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -5963,10 +5963,10 @@
         <v>344</v>
       </c>
       <c r="B346" s="2" t="n">
-        <v>44497</v>
+        <v>44498</v>
       </c>
       <c r="C346" t="n">
-        <v>70770</v>
+        <v>71575</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -5979,10 +5979,10 @@
         <v>345</v>
       </c>
       <c r="B347" s="2" t="n">
-        <v>44496</v>
+        <v>44497</v>
       </c>
       <c r="C347" t="n">
-        <v>72060</v>
+        <v>70770</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -5995,10 +5995,10 @@
         <v>346</v>
       </c>
       <c r="B348" s="2" t="n">
-        <v>44495</v>
+        <v>44496</v>
       </c>
       <c r="C348" t="n">
-        <v>72585</v>
+        <v>72060</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -6011,10 +6011,10 @@
         <v>347</v>
       </c>
       <c r="B349" s="2" t="n">
-        <v>44491</v>
+        <v>44495</v>
       </c>
       <c r="C349" t="n">
-        <v>73125</v>
+        <v>72585</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -6027,10 +6027,10 @@
         <v>348</v>
       </c>
       <c r="B350" s="2" t="n">
-        <v>44490</v>
+        <v>44491</v>
       </c>
       <c r="C350" t="n">
-        <v>75190</v>
+        <v>73125</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6043,10 +6043,10 @@
         <v>349</v>
       </c>
       <c r="B351" s="2" t="n">
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="C351" t="n">
-        <v>73430</v>
+        <v>75190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -6059,10 +6059,10 @@
         <v>350</v>
       </c>
       <c r="B352" s="2" t="n">
-        <v>44488</v>
+        <v>44489</v>
       </c>
       <c r="C352" t="n">
-        <v>75750</v>
+        <v>73430</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6075,10 +6075,10 @@
         <v>351</v>
       </c>
       <c r="B353" s="2" t="n">
-        <v>44484</v>
+        <v>44488</v>
       </c>
       <c r="C353" t="n">
-        <v>74060</v>
+        <v>75750</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -6091,10 +6091,10 @@
         <v>352</v>
       </c>
       <c r="B354" s="2" t="n">
-        <v>44483</v>
+        <v>44484</v>
       </c>
       <c r="C354" t="n">
-        <v>72540</v>
+        <v>74060</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6107,10 +6107,10 @@
         <v>353</v>
       </c>
       <c r="B355" s="2" t="n">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="C355" t="n">
-        <v>70160</v>
+        <v>72540</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -6123,10 +6123,10 @@
         <v>354</v>
       </c>
       <c r="B356" s="2" t="n">
-        <v>44481</v>
+        <v>44482</v>
       </c>
       <c r="C356" t="n">
-        <v>70320</v>
+        <v>70160</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -6139,10 +6139,10 @@
         <v>355</v>
       </c>
       <c r="B357" s="2" t="n">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="C357" t="n">
-        <v>69940</v>
+        <v>70320</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -6155,10 +6155,10 @@
         <v>356</v>
       </c>
       <c r="B358" s="2" t="n">
-        <v>44469</v>
+        <v>44477</v>
       </c>
       <c r="C358" t="n">
-        <v>68700</v>
+        <v>69940</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -6171,10 +6171,10 @@
         <v>357</v>
       </c>
       <c r="B359" s="2" t="n">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="C359" t="n">
-        <v>68965</v>
+        <v>68700</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -6187,10 +6187,10 @@
         <v>358</v>
       </c>
       <c r="B360" s="2" t="n">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="C360" t="n">
-        <v>69520</v>
+        <v>68965</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -6203,10 +6203,10 @@
         <v>359</v>
       </c>
       <c r="B361" s="2" t="n">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="C361" t="n">
-        <v>69375</v>
+        <v>69520</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -6219,10 +6219,10 @@
         <v>360</v>
       </c>
       <c r="B362" s="2" t="n">
-        <v>44462</v>
+        <v>44463</v>
       </c>
       <c r="C362" t="n">
-        <v>69040</v>
+        <v>69375</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -6235,10 +6235,10 @@
         <v>361</v>
       </c>
       <c r="B363" s="2" t="n">
-        <v>44461</v>
+        <v>44462</v>
       </c>
       <c r="C363" t="n">
-        <v>69075</v>
+        <v>69040</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -6251,10 +6251,10 @@
         <v>362</v>
       </c>
       <c r="B364" s="2" t="n">
-        <v>44456</v>
+        <v>44461</v>
       </c>
       <c r="C364" t="n">
-        <v>69810</v>
+        <v>69075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -6267,10 +6267,10 @@
         <v>363</v>
       </c>
       <c r="B365" s="2" t="n">
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="C365" t="n">
-        <v>70460</v>
+        <v>69810</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -6283,10 +6283,10 @@
         <v>364</v>
       </c>
       <c r="B366" s="2" t="n">
-        <v>44454</v>
+        <v>44455</v>
       </c>
       <c r="C366" t="n">
-        <v>69860</v>
+        <v>70460</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -6299,10 +6299,10 @@
         <v>365</v>
       </c>
       <c r="B367" s="2" t="n">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="C367" t="n">
-        <v>70520</v>
+        <v>69860</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -6315,10 +6315,10 @@
         <v>366</v>
       </c>
       <c r="B368" s="2" t="n">
-        <v>44449</v>
+        <v>44453</v>
       </c>
       <c r="C368" t="n">
-        <v>70035</v>
+        <v>70520</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -6331,10 +6331,10 @@
         <v>367</v>
       </c>
       <c r="B369" s="2" t="n">
-        <v>44448</v>
+        <v>44449</v>
       </c>
       <c r="C369" t="n">
-        <v>68850</v>
+        <v>70035</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -6347,10 +6347,10 @@
         <v>368</v>
       </c>
       <c r="B370" s="2" t="n">
-        <v>44447</v>
+        <v>44448</v>
       </c>
       <c r="C370" t="n">
-        <v>69250</v>
+        <v>68850</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -6363,10 +6363,10 @@
         <v>369</v>
       </c>
       <c r="B371" s="2" t="n">
-        <v>44446</v>
+        <v>44447</v>
       </c>
       <c r="C371" t="n">
-        <v>69580</v>
+        <v>69250</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -6379,10 +6379,10 @@
         <v>370</v>
       </c>
       <c r="B372" s="2" t="n">
-        <v>44442</v>
+        <v>44446</v>
       </c>
       <c r="C372" t="n">
-        <v>69575</v>
+        <v>69580</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -6395,10 +6395,10 @@
         <v>371</v>
       </c>
       <c r="B373" s="2" t="n">
-        <v>44441</v>
+        <v>44442</v>
       </c>
       <c r="C373" t="n">
-        <v>69460</v>
+        <v>69575</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -6411,10 +6411,10 @@
         <v>372</v>
       </c>
       <c r="B374" s="2" t="n">
-        <v>44440</v>
+        <v>44441</v>
       </c>
       <c r="C374" t="n">
-        <v>69940</v>
+        <v>69460</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -6427,10 +6427,10 @@
         <v>373</v>
       </c>
       <c r="B375" s="2" t="n">
-        <v>44439</v>
+        <v>44440</v>
       </c>
       <c r="C375" t="n">
-        <v>70315</v>
+        <v>69940</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -6443,10 +6443,10 @@
         <v>374</v>
       </c>
       <c r="B376" s="2" t="n">
-        <v>44435</v>
+        <v>44439</v>
       </c>
       <c r="C376" t="n">
-        <v>69185</v>
+        <v>70315</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -6459,10 +6459,10 @@
         <v>375</v>
       </c>
       <c r="B377" s="2" t="n">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="C377" t="n">
-        <v>69260</v>
+        <v>69185</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -6475,10 +6475,10 @@
         <v>376</v>
       </c>
       <c r="B378" s="2" t="n">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="C378" t="n">
-        <v>69600</v>
+        <v>69260</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -6491,10 +6491,10 @@
         <v>377</v>
       </c>
       <c r="B379" s="2" t="n">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="C379" t="n">
-        <v>68940</v>
+        <v>69600</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -6507,10 +6507,10 @@
         <v>378</v>
       </c>
       <c r="B380" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="C380" t="n">
-        <v>67260</v>
+        <v>68940</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -6523,10 +6523,10 @@
         <v>379</v>
       </c>
       <c r="B381" s="2" t="n">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="C381" t="n">
-        <v>67700</v>
+        <v>67260</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -6539,10 +6539,10 @@
         <v>380</v>
       </c>
       <c r="B382" s="2" t="n">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="C382" t="n">
-        <v>69240</v>
+        <v>67700</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -6555,10 +6555,10 @@
         <v>381</v>
       </c>
       <c r="B383" s="2" t="n">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="C383" t="n">
-        <v>70080</v>
+        <v>69240</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -6571,10 +6571,10 @@
         <v>382</v>
       </c>
       <c r="B384" s="2" t="n">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="C384" t="n">
-        <v>70240</v>
+        <v>70080</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -6587,10 +6587,10 @@
         <v>383</v>
       </c>
       <c r="B385" s="2" t="n">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="C385" t="n">
-        <v>70430</v>
+        <v>70240</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -6603,10 +6603,10 @@
         <v>384</v>
       </c>
       <c r="B386" s="2" t="n">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="C386" t="n">
-        <v>70000</v>
+        <v>70430</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -6619,10 +6619,10 @@
         <v>385</v>
       </c>
       <c r="B387" s="2" t="n">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="C387" t="n">
-        <v>69560</v>
+        <v>70000</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -6635,10 +6635,10 @@
         <v>386</v>
       </c>
       <c r="B388" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="C388" t="n">
-        <v>69800</v>
+        <v>69560</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -6651,10 +6651,10 @@
         <v>387</v>
       </c>
       <c r="B389" s="2" t="n">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="C389" t="n">
-        <v>69660</v>
+        <v>69800</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -6667,10 +6667,10 @@
         <v>388</v>
       </c>
       <c r="B390" s="2" t="n">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="C390" t="n">
-        <v>70290</v>
+        <v>69660</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -6683,10 +6683,10 @@
         <v>389</v>
       </c>
       <c r="B391" s="2" t="n">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="C391" t="n">
-        <v>71030</v>
+        <v>70290</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -6699,10 +6699,10 @@
         <v>390</v>
       </c>
       <c r="B392" s="2" t="n">
-        <v>44407</v>
+        <v>44411</v>
       </c>
       <c r="C392" t="n">
-        <v>71900</v>
+        <v>71030</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -6715,10 +6715,10 @@
         <v>391</v>
       </c>
       <c r="B393" s="2" t="n">
-        <v>44406</v>
+        <v>44407</v>
       </c>
       <c r="C393" t="n">
-        <v>71700</v>
+        <v>71900</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -6731,10 +6731,10 @@
         <v>392</v>
       </c>
       <c r="B394" s="2" t="n">
-        <v>44405</v>
+        <v>44406</v>
       </c>
       <c r="C394" t="n">
-        <v>72365</v>
+        <v>71700</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -6747,10 +6747,10 @@
         <v>393</v>
       </c>
       <c r="B395" s="2" t="n">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="C395" t="n">
-        <v>72520</v>
+        <v>72365</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -6763,10 +6763,10 @@
         <v>394</v>
       </c>
       <c r="B396" s="2" t="n">
-        <v>44400</v>
+        <v>44404</v>
       </c>
       <c r="C396" t="n">
-        <v>70090</v>
+        <v>72520</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -6779,10 +6779,10 @@
         <v>395</v>
       </c>
       <c r="B397" s="2" t="n">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="C397" t="n">
-        <v>69040</v>
+        <v>70090</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -6795,10 +6795,10 @@
         <v>396</v>
       </c>
       <c r="B398" s="2" t="n">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="C398" t="n">
-        <v>68600</v>
+        <v>69040</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -6811,10 +6811,10 @@
         <v>397</v>
       </c>
       <c r="B399" s="2" t="n">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="C399" t="n">
-        <v>68390</v>
+        <v>68600</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -6827,10 +6827,10 @@
         <v>398</v>
       </c>
       <c r="B400" s="2" t="n">
-        <v>44393</v>
+        <v>44397</v>
       </c>
       <c r="C400" t="n">
-        <v>69660</v>
+        <v>68390</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -6843,10 +6843,10 @@
         <v>399</v>
       </c>
       <c r="B401" s="2" t="n">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="C401" t="n">
-        <v>68830</v>
+        <v>69660</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -6859,10 +6859,10 @@
         <v>400</v>
       </c>
       <c r="B402" s="2" t="n">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="C402" t="n">
-        <v>68810</v>
+        <v>68830</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -6875,10 +6875,10 @@
         <v>401</v>
       </c>
       <c r="B403" s="2" t="n">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="C403" t="n">
-        <v>69370</v>
+        <v>68810</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -6891,10 +6891,10 @@
         <v>402</v>
       </c>
       <c r="B404" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="C404" t="n">
-        <v>68800</v>
+        <v>69370</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -6907,10 +6907,10 @@
         <v>403</v>
       </c>
       <c r="B405" s="2" t="n">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="C405" t="n">
-        <v>68900</v>
+        <v>68800</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -6923,10 +6923,10 @@
         <v>404</v>
       </c>
       <c r="B406" s="2" t="n">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="C406" t="n">
-        <v>68540</v>
+        <v>68900</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -6939,10 +6939,10 @@
         <v>405</v>
       </c>
       <c r="B407" s="2" t="n">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="C407" t="n">
-        <v>69700</v>
+        <v>68540</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -6955,10 +6955,10 @@
         <v>406</v>
       </c>
       <c r="B408" s="2" t="n">
-        <v>44379</v>
+        <v>44383</v>
       </c>
       <c r="C408" t="n">
-        <v>68050</v>
+        <v>69700</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -6971,10 +6971,10 @@
         <v>407</v>
       </c>
       <c r="B409" s="2" t="n">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="C409" t="n">
-        <v>68490</v>
+        <v>68050</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -6987,10 +6987,10 @@
         <v>408</v>
       </c>
       <c r="B410" s="2" t="n">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="C410" t="n">
-        <v>68380</v>
+        <v>68490</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -7003,10 +7003,10 @@
         <v>409</v>
       </c>
       <c r="B411" s="2" t="n">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="C411" t="n">
-        <v>68050</v>
+        <v>68380</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7019,10 +7019,10 @@
         <v>410</v>
       </c>
       <c r="B412" s="2" t="n">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="C412" t="n">
-        <v>68825</v>
+        <v>68050</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7035,10 +7035,10 @@
         <v>411</v>
       </c>
       <c r="B413" s="2" t="n">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="C413" t="n">
-        <v>68600</v>
+        <v>68825</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7051,10 +7051,10 @@
         <v>412</v>
       </c>
       <c r="B414" s="2" t="n">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="C414" t="n">
-        <v>68270</v>
+        <v>68600</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7067,10 +7067,10 @@
         <v>413</v>
       </c>
       <c r="B415" s="2" t="n">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="C415" t="n">
-        <v>67400</v>
+        <v>68270</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7083,10 +7083,10 @@
         <v>414</v>
       </c>
       <c r="B416" s="2" t="n">
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="C416" t="n">
-        <v>67730</v>
+        <v>67400</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7099,10 +7099,10 @@
         <v>415</v>
       </c>
       <c r="B417" s="2" t="n">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="C417" t="n">
-        <v>69170</v>
+        <v>67730</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -7115,10 +7115,10 @@
         <v>416</v>
       </c>
       <c r="B418" s="2" t="n">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="C418" t="n">
-        <v>69260</v>
+        <v>69170</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -7131,10 +7131,10 @@
         <v>417</v>
       </c>
       <c r="B419" s="2" t="n">
-        <v>44358</v>
+        <v>44363</v>
       </c>
       <c r="C419" t="n">
-        <v>70800</v>
+        <v>69260</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -7147,10 +7147,10 @@
         <v>418</v>
       </c>
       <c r="B420" s="2" t="n">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="C420" t="n">
-        <v>71210</v>
+        <v>70800</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -7163,10 +7163,10 @@
         <v>419</v>
       </c>
       <c r="B421" s="2" t="n">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="C421" t="n">
-        <v>71710</v>
+        <v>71210</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -7179,10 +7179,10 @@
         <v>420</v>
       </c>
       <c r="B422" s="2" t="n">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="C422" t="n">
-        <v>71310</v>
+        <v>71710</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -7195,10 +7195,10 @@
         <v>421</v>
       </c>
       <c r="B423" s="2" t="n">
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="C423" t="n">
-        <v>71090</v>
+        <v>71310</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -7211,10 +7211,10 @@
         <v>422</v>
       </c>
       <c r="B424" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="C424" t="n">
-        <v>72950</v>
+        <v>71090</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -7227,10 +7227,10 @@
         <v>423</v>
       </c>
       <c r="B425" s="2" t="n">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="C425" t="n">
-        <v>73580</v>
+        <v>72950</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -7243,10 +7243,10 @@
         <v>424</v>
       </c>
       <c r="B426" s="2" t="n">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="C426" t="n">
-        <v>73790</v>
+        <v>73580</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -7259,10 +7259,10 @@
         <v>425</v>
       </c>
       <c r="B427" s="2" t="n">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="C427" t="n">
-        <v>73380</v>
+        <v>73790</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -7275,10 +7275,10 @@
         <v>426</v>
       </c>
       <c r="B428" s="2" t="n">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="C428" t="n">
-        <v>71350</v>
+        <v>73380</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -7291,10 +7291,10 @@
         <v>427</v>
       </c>
       <c r="B429" s="2" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="C429" t="n">
-        <v>71720</v>
+        <v>71350</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -7307,10 +7307,10 @@
         <v>428</v>
       </c>
       <c r="B430" s="2" t="n">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="C430" t="n">
-        <v>72360</v>
+        <v>71720</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -7323,10 +7323,10 @@
         <v>429</v>
       </c>
       <c r="B431" s="2" t="n">
-        <v>44337</v>
+        <v>44341</v>
       </c>
       <c r="C431" t="n">
-        <v>71950</v>
+        <v>72360</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -7339,10 +7339,10 @@
         <v>430</v>
       </c>
       <c r="B432" s="2" t="n">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="C432" t="n">
-        <v>72525</v>
+        <v>71950</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -7355,10 +7355,10 @@
         <v>431</v>
       </c>
       <c r="B433" s="2" t="n">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="C433" t="n">
-        <v>74840</v>
+        <v>72525</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -7371,10 +7371,10 @@
         <v>432</v>
       </c>
       <c r="B434" s="2" t="n">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="C434" t="n">
-        <v>75720</v>
+        <v>74840</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -7387,10 +7387,10 @@
         <v>433</v>
       </c>
       <c r="B435" s="2" t="n">
-        <v>44330</v>
+        <v>44334</v>
       </c>
       <c r="C435" t="n">
-        <v>74760</v>
+        <v>75720</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -7403,10 +7403,10 @@
         <v>434</v>
       </c>
       <c r="B436" s="2" t="n">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="C436" t="n">
-        <v>75910</v>
+        <v>74760</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -7419,10 +7419,10 @@
         <v>435</v>
       </c>
       <c r="B437" s="2" t="n">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="C437" t="n">
-        <v>76150</v>
+        <v>75910</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -7435,10 +7435,10 @@
         <v>436</v>
       </c>
       <c r="B438" s="2" t="n">
-        <v>44323</v>
+        <v>44328</v>
       </c>
       <c r="C438" t="n">
-        <v>74200</v>
+        <v>76150</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -7451,10 +7451,10 @@
         <v>437</v>
       </c>
       <c r="B439" s="2" t="n">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="C439" t="n">
-        <v>72690</v>
+        <v>74200</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -7467,10 +7467,10 @@
         <v>438</v>
       </c>
       <c r="B440" s="2" t="n">
-        <v>44316</v>
+        <v>44322</v>
       </c>
       <c r="C440" t="n">
-        <v>71680</v>
+        <v>72690</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -7483,10 +7483,10 @@
         <v>439</v>
       </c>
       <c r="B441" s="2" t="n">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="C441" t="n">
-        <v>72335</v>
+        <v>71680</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -7499,10 +7499,10 @@
         <v>440</v>
       </c>
       <c r="B442" s="2" t="n">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="C442" t="n">
-        <v>70920</v>
+        <v>72335</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -7515,10 +7515,10 @@
         <v>441</v>
       </c>
       <c r="B443" s="2" t="n">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="C443" t="n">
-        <v>71940</v>
+        <v>70920</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -7531,10 +7531,10 @@
         <v>442</v>
       </c>
       <c r="B444" s="2" t="n">
-        <v>44309</v>
+        <v>44313</v>
       </c>
       <c r="C444" t="n">
-        <v>69120</v>
+        <v>71940</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -7547,10 +7547,10 @@
         <v>443</v>
       </c>
       <c r="B445" s="2" t="n">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="C445" t="n">
-        <v>68840</v>
+        <v>69120</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -7563,10 +7563,10 @@
         <v>444</v>
       </c>
       <c r="B446" s="2" t="n">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="C446" t="n">
-        <v>68550</v>
+        <v>68840</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -7579,10 +7579,10 @@
         <v>445</v>
       </c>
       <c r="B447" s="2" t="n">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="C447" t="n">
-        <v>68990</v>
+        <v>68550</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -7595,10 +7595,10 @@
         <v>446</v>
       </c>
       <c r="B448" s="2" t="n">
-        <v>44302</v>
+        <v>44306</v>
       </c>
       <c r="C448" t="n">
-        <v>68550</v>
+        <v>68990</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -7611,10 +7611,10 @@
         <v>447</v>
       </c>
       <c r="B449" s="2" t="n">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="C449" t="n">
-        <v>67260</v>
+        <v>68550</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -7627,10 +7627,10 @@
         <v>448</v>
       </c>
       <c r="B450" s="2" t="n">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="C450" t="n">
-        <v>66125</v>
+        <v>67260</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -7643,10 +7643,10 @@
         <v>449</v>
       </c>
       <c r="B451" s="2" t="n">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="C451" t="n">
-        <v>65720</v>
+        <v>66125</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -7659,10 +7659,10 @@
         <v>450</v>
       </c>
       <c r="B452" s="2" t="n">
-        <v>44295</v>
+        <v>44299</v>
       </c>
       <c r="C452" t="n">
-        <v>66750</v>
+        <v>65720</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -7675,10 +7675,10 @@
         <v>451</v>
       </c>
       <c r="B453" s="2" t="n">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="C453" t="n">
-        <v>66500</v>
+        <v>66750</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -7691,10 +7691,10 @@
         <v>452</v>
       </c>
       <c r="B454" s="2" t="n">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="C454" t="n">
-        <v>66890</v>
+        <v>66500</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -7707,10 +7707,10 @@
         <v>453</v>
       </c>
       <c r="B455" s="2" t="n">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="C455" t="n">
-        <v>67140</v>
+        <v>66890</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -7723,10 +7723,10 @@
         <v>454</v>
       </c>
       <c r="B456" s="2" t="n">
-        <v>44288</v>
+        <v>44292</v>
       </c>
       <c r="C456" t="n">
-        <v>66040</v>
+        <v>67140</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -7739,10 +7739,10 @@
         <v>455</v>
       </c>
       <c r="B457" s="2" t="n">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="C457" t="n">
-        <v>65490</v>
+        <v>66040</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -7755,10 +7755,10 @@
         <v>456</v>
       </c>
       <c r="B458" s="2" t="n">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="C458" t="n">
-        <v>65175</v>
+        <v>65490</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -7771,10 +7771,10 @@
         <v>457</v>
       </c>
       <c r="B459" s="2" t="n">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="C459" t="n">
-        <v>66190</v>
+        <v>65175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -7787,10 +7787,10 @@
         <v>458</v>
       </c>
       <c r="B460" s="2" t="n">
-        <v>44281</v>
+        <v>44285</v>
       </c>
       <c r="C460" t="n">
-        <v>65680</v>
+        <v>66190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -7803,10 +7803,10 @@
         <v>459</v>
       </c>
       <c r="B461" s="2" t="n">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="C461" t="n">
-        <v>65770</v>
+        <v>65680</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -7819,10 +7819,10 @@
         <v>460</v>
       </c>
       <c r="B462" s="2" t="n">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="C462" t="n">
-        <v>66075</v>
+        <v>65770</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -7835,10 +7835,10 @@
         <v>461</v>
       </c>
       <c r="B463" s="2" t="n">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="C463" t="n">
-        <v>66740</v>
+        <v>66075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -7851,10 +7851,10 @@
         <v>462</v>
       </c>
       <c r="B464" s="2" t="n">
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="C464" t="n">
-        <v>66550</v>
+        <v>66740</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -7867,10 +7867,10 @@
         <v>463</v>
       </c>
       <c r="B465" s="2" t="n">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="C465" t="n">
-        <v>67050</v>
+        <v>66550</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -7883,10 +7883,10 @@
         <v>464</v>
       </c>
       <c r="B466" s="2" t="n">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="C466" t="n">
-        <v>66200</v>
+        <v>67050</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -7899,10 +7899,10 @@
         <v>465</v>
       </c>
       <c r="B467" s="2" t="n">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="C467" t="n">
-        <v>67150</v>
+        <v>66200</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -7915,10 +7915,10 @@
         <v>466</v>
       </c>
       <c r="B468" s="2" t="n">
-        <v>44267</v>
+        <v>44271</v>
       </c>
       <c r="C468" t="n">
-        <v>66660</v>
+        <v>67150</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -7931,10 +7931,10 @@
         <v>467</v>
       </c>
       <c r="B469" s="2" t="n">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="C469" t="n">
-        <v>65580</v>
+        <v>66660</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -7947,10 +7947,10 @@
         <v>468</v>
       </c>
       <c r="B470" s="2" t="n">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="C470" t="n">
-        <v>65530</v>
+        <v>65580</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -7963,10 +7963,10 @@
         <v>469</v>
       </c>
       <c r="B471" s="2" t="n">
-        <v>44260</v>
+        <v>44265</v>
       </c>
       <c r="C471" t="n">
-        <v>64810</v>
+        <v>65530</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -7979,10 +7979,10 @@
         <v>470</v>
       </c>
       <c r="B472" s="2" t="n">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="C472" t="n">
-        <v>67020</v>
+        <v>64810</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -7995,10 +7995,10 @@
         <v>471</v>
       </c>
       <c r="B473" s="2" t="n">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="C473" t="n">
-        <v>67790</v>
+        <v>67020</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -8011,10 +8011,10 @@
         <v>472</v>
       </c>
       <c r="B474" s="2" t="n">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="C474" t="n">
-        <v>66140</v>
+        <v>67790</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -8027,10 +8027,10 @@
         <v>473</v>
       </c>
       <c r="B475" s="2" t="n">
-        <v>44253</v>
+        <v>44257</v>
       </c>
       <c r="C475" t="n">
-        <v>68410</v>
+        <v>66140</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -8043,10 +8043,10 @@
         <v>474</v>
       </c>
       <c r="B476" s="2" t="n">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="C476" t="n">
-        <v>69900</v>
+        <v>68410</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -8059,10 +8059,10 @@
         <v>475</v>
       </c>
       <c r="B477" s="2" t="n">
-        <v>44246</v>
+        <v>44252</v>
       </c>
       <c r="C477" t="n">
-        <v>63240</v>
+        <v>69900</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -8075,10 +8075,10 @@
         <v>476</v>
       </c>
       <c r="B478" s="2" t="n">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="C478" t="n">
-        <v>62690</v>
+        <v>63240</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -8091,10 +8091,10 @@
         <v>477</v>
       </c>
       <c r="B479" s="2" t="n">
-        <v>44237</v>
+        <v>44245</v>
       </c>
       <c r="C479" t="n">
-        <v>60230</v>
+        <v>62690</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -8107,10 +8107,10 @@
         <v>478</v>
       </c>
       <c r="B480" s="2" t="n">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="C480" t="n">
-        <v>59410</v>
+        <v>60230</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -8123,10 +8123,10 @@
         <v>479</v>
       </c>
       <c r="B481" s="2" t="n">
-        <v>44232</v>
+        <v>44236</v>
       </c>
       <c r="C481" t="n">
-        <v>58040</v>
+        <v>59410</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -8139,10 +8139,10 @@
         <v>480</v>
       </c>
       <c r="B482" s="2" t="n">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="C482" t="n">
-        <v>57825</v>
+        <v>58040</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -8155,10 +8155,10 @@
         <v>481</v>
       </c>
       <c r="B483" s="2" t="n">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="C483" t="n">
-        <v>57170</v>
+        <v>57825</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -8171,10 +8171,10 @@
         <v>482</v>
       </c>
       <c r="B484" s="2" t="n">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="C484" t="n">
-        <v>57700</v>
+        <v>57170</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -8187,10 +8187,10 @@
         <v>483</v>
       </c>
       <c r="B485" s="2" t="n">
-        <v>44225</v>
+        <v>44229</v>
       </c>
       <c r="C485" t="n">
-        <v>58180</v>
+        <v>57700</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -8203,10 +8203,10 @@
         <v>484</v>
       </c>
       <c r="B486" s="2" t="n">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="C486" t="n">
-        <v>57950</v>
+        <v>58180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -8219,10 +8219,10 @@
         <v>485</v>
       </c>
       <c r="B487" s="2" t="n">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="C487" t="n">
-        <v>58745</v>
+        <v>57950</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -8235,10 +8235,10 @@
         <v>486</v>
       </c>
       <c r="B488" s="2" t="n">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="C488" t="n">
-        <v>58820</v>
+        <v>58745</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -8251,10 +8251,10 @@
         <v>487</v>
       </c>
       <c r="B489" s="2" t="n">
-        <v>44218</v>
+        <v>44222</v>
       </c>
       <c r="C489" t="n">
-        <v>58920</v>
+        <v>58820</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -8267,10 +8267,10 @@
         <v>488</v>
       </c>
       <c r="B490" s="2" t="n">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="C490" t="n">
-        <v>59280</v>
+        <v>58920</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -8283,10 +8283,10 @@
         <v>489</v>
       </c>
       <c r="B491" s="2" t="n">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="C491" t="n">
-        <v>59025</v>
+        <v>59280</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -8299,10 +8299,10 @@
         <v>490</v>
       </c>
       <c r="B492" s="2" t="n">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="C492" t="n">
-        <v>59030</v>
+        <v>59025</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -8315,10 +8315,10 @@
         <v>491</v>
       </c>
       <c r="B493" s="2" t="n">
-        <v>44211</v>
+        <v>44215</v>
       </c>
       <c r="C493" t="n">
-        <v>59560</v>
+        <v>59030</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -8331,10 +8331,10 @@
         <v>492</v>
       </c>
       <c r="B494" s="2" t="n">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="C494" t="n">
-        <v>58675</v>
+        <v>59560</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -8347,10 +8347,10 @@
         <v>493</v>
       </c>
       <c r="B495" s="2" t="n">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="C495" t="n">
-        <v>58840</v>
+        <v>58675</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -8363,10 +8363,10 @@
         <v>494</v>
       </c>
       <c r="B496" s="2" t="n">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="C496" t="n">
-        <v>58225</v>
+        <v>58840</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -8379,10 +8379,10 @@
         <v>495</v>
       </c>
       <c r="B497" s="2" t="n">
-        <v>44196</v>
+        <v>44208</v>
       </c>
       <c r="C497" t="n">
-        <v>57810</v>
+        <v>58225</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -8395,10 +8395,10 @@
         <v>496</v>
       </c>
       <c r="B498" s="2" t="n">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="C498" t="n">
-        <v>58150</v>
+        <v>57810</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -8411,10 +8411,10 @@
         <v>497</v>
       </c>
       <c r="B499" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="C499" t="n">
-        <v>58450</v>
+        <v>58150</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -8427,10 +8427,10 @@
         <v>498</v>
       </c>
       <c r="B500" s="2" t="n">
-        <v>44190</v>
+        <v>44194</v>
       </c>
       <c r="C500" t="n">
-        <v>58180</v>
+        <v>58450</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -8443,10 +8443,10 @@
         <v>499</v>
       </c>
       <c r="B501" s="2" t="n">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="C501" t="n">
-        <v>58110</v>
+        <v>58180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -8459,10 +8459,10 @@
         <v>500</v>
       </c>
       <c r="B502" s="2" t="n">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="C502" t="n">
-        <v>57610</v>
+        <v>58110</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -8475,10 +8475,10 @@
         <v>501</v>
       </c>
       <c r="B503" s="2" t="n">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="C503" t="n">
-        <v>58550</v>
+        <v>57610</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -8491,10 +8491,10 @@
         <v>502</v>
       </c>
       <c r="B504" s="2" t="n">
-        <v>44183</v>
+        <v>44187</v>
       </c>
       <c r="C504" t="n">
-        <v>59090</v>
+        <v>58550</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -8507,10 +8507,10 @@
         <v>503</v>
       </c>
       <c r="B505" s="2" t="n">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="C505" t="n">
-        <v>58120</v>
+        <v>59090</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -8523,10 +8523,10 @@
         <v>504</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="C506" t="n">
-        <v>57850</v>
+        <v>58120</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -8539,10 +8539,10 @@
         <v>505</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="C507" t="n">
-        <v>57420</v>
+        <v>57850</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -8555,10 +8555,10 @@
         <v>506</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>44176</v>
+        <v>44180</v>
       </c>
       <c r="C508" t="n">
-        <v>58285</v>
+        <v>57420</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -8571,10 +8571,10 @@
         <v>507</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>44175</v>
+        <v>44176</v>
       </c>
       <c r="C509" t="n">
-        <v>57010</v>
+        <v>58285</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -8587,10 +8587,10 @@
         <v>508</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="C510" t="n">
-        <v>57270</v>
+        <v>57010</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -8603,10 +8603,10 @@
         <v>509</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="C511" t="n">
-        <v>57000</v>
+        <v>57270</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -8619,10 +8619,10 @@
         <v>510</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44169</v>
+        <v>44173</v>
       </c>
       <c r="C512" t="n">
-        <v>57290</v>
+        <v>57000</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -8635,10 +8635,10 @@
         <v>511</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44168</v>
+        <v>44169</v>
       </c>
       <c r="C513" t="n">
-        <v>57300</v>
+        <v>57290</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -8651,10 +8651,10 @@
         <v>512</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="C514" t="n">
-        <v>57280</v>
+        <v>57300</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -8667,10 +8667,10 @@
         <v>513</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="C515" t="n">
-        <v>57375</v>
+        <v>57280</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -8683,10 +8683,10 @@
         <v>514</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44162</v>
+        <v>44166</v>
       </c>
       <c r="C516" t="n">
-        <v>55685</v>
+        <v>57375</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -8699,10 +8699,10 @@
         <v>515</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="C517" t="n">
-        <v>55120</v>
+        <v>55685</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -8715,10 +8715,10 @@
         <v>516</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="C518" t="n">
-        <v>54890</v>
+        <v>55120</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -8731,10 +8731,10 @@
         <v>517</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="C519" t="n">
-        <v>54110</v>
+        <v>54890</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -8747,10 +8747,10 @@
         <v>518</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44155</v>
+        <v>44159</v>
       </c>
       <c r="C520" t="n">
-        <v>53220</v>
+        <v>54110</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -8763,10 +8763,10 @@
         <v>519</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="C521" t="n">
-        <v>52820</v>
+        <v>53220</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -8779,10 +8779,10 @@
         <v>520</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="C522" t="n">
-        <v>52740</v>
+        <v>52820</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -8795,10 +8795,10 @@
         <v>521</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="C523" t="n">
-        <v>53220</v>
+        <v>52740</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -8811,10 +8811,10 @@
         <v>522</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="C524" t="n">
-        <v>52025</v>
+        <v>53220</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -8827,10 +8827,10 @@
         <v>523</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="C525" t="n">
-        <v>51880</v>
+        <v>52025</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -8843,10 +8843,10 @@
         <v>524</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="C526" t="n">
-        <v>51990</v>
+        <v>51880</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -8859,10 +8859,10 @@
         <v>525</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="C527" t="n">
-        <v>52120</v>
+        <v>51990</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -8875,10 +8875,10 @@
         <v>526</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44141</v>
+        <v>44145</v>
       </c>
       <c r="C528" t="n">
-        <v>51640</v>
+        <v>52120</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -8891,10 +8891,10 @@
         <v>527</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44139</v>
+        <v>44141</v>
       </c>
       <c r="C529" t="n">
-        <v>51680</v>
+        <v>51640</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -8907,10 +8907,10 @@
         <v>528</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C530" t="n">
-        <v>51750</v>
+        <v>51680</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -8923,10 +8923,10 @@
         <v>529</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44134</v>
+        <v>44138</v>
       </c>
       <c r="C531" t="n">
-        <v>51530</v>
+        <v>51750</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -8939,10 +8939,10 @@
         <v>530</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="C532" t="n">
-        <v>51585</v>
+        <v>51530</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -8955,10 +8955,10 @@
         <v>531</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="C533" t="n">
-        <v>51730</v>
+        <v>51585</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -8971,10 +8971,10 @@
         <v>532</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="C534" t="n">
-        <v>51540</v>
+        <v>51730</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -8987,10 +8987,10 @@
         <v>533</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44127</v>
+        <v>44131</v>
       </c>
       <c r="C535" t="n">
-        <v>52210</v>
+        <v>51540</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -9003,10 +9003,10 @@
         <v>534</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="C536" t="n">
-        <v>52370</v>
+        <v>52210</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -9019,10 +9019,10 @@
         <v>535</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="C537" t="n">
-        <v>52250</v>
+        <v>52370</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -9035,10 +9035,10 @@
         <v>536</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="C538" t="n">
-        <v>51450</v>
+        <v>52250</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -9051,10 +9051,10 @@
         <v>537</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44120</v>
+        <v>44124</v>
       </c>
       <c r="C539" t="n">
-        <v>51800</v>
+        <v>51450</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -9067,10 +9067,10 @@
         <v>538</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="C540" t="n">
-        <v>51370</v>
+        <v>51800</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -9083,10 +9083,10 @@
         <v>539</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="C541" t="n">
-        <v>51470</v>
+        <v>51370</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -9099,10 +9099,10 @@
         <v>540</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="C542" t="n">
-        <v>51540</v>
+        <v>51470</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -9115,10 +9115,10 @@
         <v>541</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44113</v>
+        <v>44117</v>
       </c>
       <c r="C543" t="n">
-        <v>51565</v>
+        <v>51540</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -9131,10 +9131,10 @@
         <v>542</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44104</v>
+        <v>44113</v>
       </c>
       <c r="C544" t="n">
-        <v>51185</v>
+        <v>51565</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -9147,10 +9147,10 @@
         <v>543</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C545" t="n">
-        <v>51110</v>
+        <v>51185</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -9163,10 +9163,10 @@
         <v>544</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44099</v>
+        <v>44103</v>
       </c>
       <c r="C546" t="n">
-        <v>50890</v>
+        <v>51110</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -9179,10 +9179,10 @@
         <v>545</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C547" t="n">
-        <v>50745</v>
+        <v>50890</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -9195,10 +9195,10 @@
         <v>546</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C548" t="n">
-        <v>51620</v>
+        <v>50745</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -9211,10 +9211,10 @@
         <v>547</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C549" t="n">
-        <v>51920</v>
+        <v>51620</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -9227,10 +9227,10 @@
         <v>548</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44092</v>
+        <v>44096</v>
       </c>
       <c r="C550" t="n">
-        <v>52210</v>
+        <v>51920</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -9243,10 +9243,10 @@
         <v>549</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C551" t="n">
-        <v>51455</v>
+        <v>52210</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -9259,10 +9259,10 @@
         <v>550</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C552" t="n">
-        <v>51900</v>
+        <v>51455</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -9275,10 +9275,10 @@
         <v>551</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C553" t="n">
-        <v>52150</v>
+        <v>51900</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -9291,10 +9291,10 @@
         <v>552</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44085</v>
+        <v>44089</v>
       </c>
       <c r="C554" t="n">
-        <v>51535</v>
+        <v>52150</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -9307,10 +9307,10 @@
         <v>553</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C555" t="n">
-        <v>52130</v>
+        <v>51535</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -9323,10 +9323,10 @@
         <v>554</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C556" t="n">
-        <v>52065</v>
+        <v>52130</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -9339,10 +9339,10 @@
         <v>555</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C557" t="n">
-        <v>52520</v>
+        <v>52065</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -9355,10 +9355,10 @@
         <v>556</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44078</v>
+        <v>44082</v>
       </c>
       <c r="C558" t="n">
-        <v>51495</v>
+        <v>52520</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -9371,10 +9371,10 @@
         <v>557</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C559" t="n">
-        <v>52140</v>
+        <v>51495</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -9387,10 +9387,10 @@
         <v>558</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="C560" t="n">
-        <v>51935</v>
+        <v>52140</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -9403,10 +9403,10 @@
         <v>559</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44075</v>
+        <v>44076</v>
       </c>
       <c r="C561" t="n">
-        <v>52390</v>
+        <v>51935</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -9419,10 +9419,10 @@
         <v>560</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44071</v>
+        <v>44075</v>
       </c>
       <c r="C562" t="n">
-        <v>51800</v>
+        <v>52390</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -9435,10 +9435,10 @@
         <v>561</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="C563" t="n">
-        <v>51420</v>
+        <v>51800</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -9451,10 +9451,10 @@
         <v>562</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44069</v>
+        <v>44070</v>
       </c>
       <c r="C564" t="n">
-        <v>51380</v>
+        <v>51420</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -9467,10 +9467,10 @@
         <v>563</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44068</v>
+        <v>44069</v>
       </c>
       <c r="C565" t="n">
-        <v>51370</v>
+        <v>51380</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -9483,10 +9483,10 @@
         <v>564</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44064</v>
+        <v>44068</v>
       </c>
       <c r="C566" t="n">
-        <v>52065</v>
+        <v>51370</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -9499,10 +9499,10 @@
         <v>565</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="C567" t="n">
-        <v>52200</v>
+        <v>52065</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -9515,10 +9515,10 @@
         <v>566</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44062</v>
+        <v>44063</v>
       </c>
       <c r="C568" t="n">
-        <v>52300</v>
+        <v>52200</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -9531,10 +9531,10 @@
         <v>567</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="C569" t="n">
-        <v>51135</v>
+        <v>52300</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -9547,10 +9547,10 @@
         <v>568</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44057</v>
+        <v>44061</v>
       </c>
       <c r="C570" t="n">
-        <v>50040</v>
+        <v>51135</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -9563,10 +9563,10 @@
         <v>569</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44056</v>
+        <v>44057</v>
       </c>
       <c r="C571" t="n">
-        <v>50530</v>
+        <v>50040</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -9579,10 +9579,10 @@
         <v>570</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44055</v>
+        <v>44056</v>
       </c>
       <c r="C572" t="n">
-        <v>49980</v>
+        <v>50530</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -9595,10 +9595,10 @@
         <v>571</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44054</v>
+        <v>44055</v>
       </c>
       <c r="C573" t="n">
-        <v>50790</v>
+        <v>49980</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -9611,10 +9611,10 @@
         <v>572</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44050</v>
+        <v>44054</v>
       </c>
       <c r="C574" t="n">
-        <v>51440</v>
+        <v>50790</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -9627,10 +9627,10 @@
         <v>573</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="C575" t="n">
-        <v>51385</v>
+        <v>51440</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -9643,10 +9643,10 @@
         <v>574</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="C576" t="n">
-        <v>51370</v>
+        <v>51385</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -9659,10 +9659,10 @@
         <v>575</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44047</v>
+        <v>44048</v>
       </c>
       <c r="C577" t="n">
-        <v>51675</v>
+        <v>51370</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -9675,10 +9675,10 @@
         <v>576</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44043</v>
+        <v>44047</v>
       </c>
       <c r="C578" t="n">
-        <v>51850</v>
+        <v>51675</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -9691,10 +9691,10 @@
         <v>577</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44042</v>
+        <v>44043</v>
       </c>
       <c r="C579" t="n">
-        <v>51890</v>
+        <v>51850</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -9707,10 +9707,10 @@
         <v>578</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="C580" t="n">
-        <v>51830</v>
+        <v>51890</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -9723,10 +9723,10 @@
         <v>579</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44040</v>
+        <v>44041</v>
       </c>
       <c r="C581" t="n">
-        <v>51850</v>
+        <v>51830</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -9739,10 +9739,10 @@
         <v>580</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44036</v>
+        <v>44040</v>
       </c>
       <c r="C582" t="n">
-        <v>51930</v>
+        <v>51850</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -9755,10 +9755,10 @@
         <v>581</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="C583" t="n">
-        <v>51875</v>
+        <v>51930</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -9771,10 +9771,10 @@
         <v>582</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44034</v>
+        <v>44035</v>
       </c>
       <c r="C584" t="n">
-        <v>52600</v>
+        <v>51875</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -9787,10 +9787,10 @@
         <v>583</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44033</v>
+        <v>44034</v>
       </c>
       <c r="C585" t="n">
-        <v>51935</v>
+        <v>52600</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -9803,10 +9803,10 @@
         <v>584</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44029</v>
+        <v>44033</v>
       </c>
       <c r="C586" t="n">
-        <v>51685</v>
+        <v>51935</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -9819,10 +9819,10 @@
         <v>585</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44028</v>
+        <v>44029</v>
       </c>
       <c r="C587" t="n">
-        <v>51240</v>
+        <v>51685</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -9835,10 +9835,10 @@
         <v>586</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="C588" t="n">
-        <v>52435</v>
+        <v>51240</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -9851,10 +9851,10 @@
         <v>587</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="C589" t="n">
-        <v>52150</v>
+        <v>52435</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -9867,10 +9867,10 @@
         <v>588</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>44022</v>
+        <v>44026</v>
       </c>
       <c r="C590" t="n">
-        <v>50600</v>
+        <v>52150</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -9883,10 +9883,10 @@
         <v>589</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="C591" t="n">
-        <v>50575</v>
+        <v>50600</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -9899,10 +9899,10 @@
         <v>590</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="C592" t="n">
-        <v>49845</v>
+        <v>50575</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -9915,10 +9915,10 @@
         <v>591</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="C593" t="n">
-        <v>49610</v>
+        <v>49845</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -9931,10 +9931,10 @@
         <v>592</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>44015</v>
+        <v>44019</v>
       </c>
       <c r="C594" t="n">
-        <v>49260</v>
+        <v>49610</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -9947,10 +9947,10 @@
         <v>593</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="C595" t="n">
-        <v>49460</v>
+        <v>49260</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -9963,10 +9963,10 @@
         <v>594</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="C596" t="n">
-        <v>49450</v>
+        <v>49460</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -9979,10 +9979,10 @@
         <v>595</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="C597" t="n">
-        <v>48930</v>
+        <v>49450</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -9995,10 +9995,10 @@
         <v>596</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>44006</v>
+        <v>44012</v>
       </c>
       <c r="C598" t="n">
-        <v>48160</v>
+        <v>48930</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -10011,10 +10011,10 @@
         <v>597</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="C599" t="n">
-        <v>47880</v>
+        <v>48160</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -10027,10 +10027,10 @@
         <v>598</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>44001</v>
+        <v>44005</v>
       </c>
       <c r="C600" t="n">
-        <v>47475</v>
+        <v>47880</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -10043,10 +10043,10 @@
         <v>599</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="C601" t="n">
-        <v>47110</v>
+        <v>47475</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -10059,10 +10059,10 @@
         <v>600</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="C602" t="n">
-        <v>46910</v>
+        <v>47110</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -10075,10 +10075,10 @@
         <v>601</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="C603" t="n">
-        <v>47080</v>
+        <v>46910</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -10091,10 +10091,10 @@
         <v>602</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>43994</v>
+        <v>43998</v>
       </c>
       <c r="C604" t="n">
-        <v>46760</v>
+        <v>47080</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -10107,10 +10107,10 @@
         <v>603</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="C605" t="n">
-        <v>47425</v>
+        <v>46760</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -10123,10 +10123,10 @@
         <v>604</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="C606" t="n">
-        <v>46855</v>
+        <v>47425</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -10139,10 +10139,10 @@
         <v>605</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="C607" t="n">
-        <v>46355</v>
+        <v>46855</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -10155,10 +10155,10 @@
         <v>606</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>43987</v>
+        <v>43991</v>
       </c>
       <c r="C608" t="n">
-        <v>44990</v>
+        <v>46355</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -10171,10 +10171,10 @@
         <v>607</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="C609" t="n">
-        <v>44850</v>
+        <v>44990</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -10187,10 +10187,10 @@
         <v>608</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="C610" t="n">
-        <v>45110</v>
+        <v>44850</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -10203,10 +10203,10 @@
         <v>609</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="C611" t="n">
-        <v>44895</v>
+        <v>45110</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -10219,10 +10219,10 @@
         <v>610</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>43980</v>
+        <v>43984</v>
       </c>
       <c r="C612" t="n">
-        <v>44135</v>
+        <v>44895</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -10235,10 +10235,10 @@
         <v>611</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="C613" t="n">
-        <v>44030</v>
+        <v>44135</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -10251,10 +10251,10 @@
         <v>612</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="C614" t="n">
-        <v>44170</v>
+        <v>44030</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -10267,10 +10267,10 @@
         <v>613</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="C615" t="n">
-        <v>44030</v>
+        <v>44170</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -10283,10 +10283,10 @@
         <v>614</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>43973</v>
+        <v>43977</v>
       </c>
       <c r="C616" t="n">
-        <v>43770</v>
+        <v>44030</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -10299,10 +10299,10 @@
         <v>615</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="C617" t="n">
-        <v>44620</v>
+        <v>43770</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -10315,10 +10315,10 @@
         <v>616</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="C618" t="n">
-        <v>44040</v>
+        <v>44620</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -10331,10 +10331,10 @@
         <v>617</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="C619" t="n">
-        <v>43995</v>
+        <v>44040</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -10347,10 +10347,10 @@
         <v>618</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>43966</v>
+        <v>43970</v>
       </c>
       <c r="C620" t="n">
-        <v>43325</v>
+        <v>43995</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -10363,10 +10363,10 @@
         <v>619</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="C621" t="n">
-        <v>43150</v>
+        <v>43325</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -10379,10 +10379,10 @@
         <v>620</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="C622" t="n">
-        <v>43080</v>
+        <v>43150</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -10395,10 +10395,10 @@
         <v>621</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>43959</v>
+        <v>43964</v>
       </c>
       <c r="C623" t="n">
-        <v>43600</v>
+        <v>43080</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -10411,10 +10411,10 @@
         <v>622</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="C624" t="n">
-        <v>43030</v>
+        <v>43600</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>623</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>43951</v>
+        <v>43958</v>
       </c>
       <c r="C625" t="n">
         <v>43030</v>
@@ -10443,10 +10443,10 @@
         <v>624</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C626" t="n">
-        <v>42810</v>
+        <v>43030</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -10459,10 +10459,10 @@
         <v>625</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="C627" t="n">
-        <v>42480</v>
+        <v>42810</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -10475,10 +10475,10 @@
         <v>626</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>43945</v>
+        <v>43949</v>
       </c>
       <c r="C628" t="n">
-        <v>42120</v>
+        <v>42480</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -10491,10 +10491,10 @@
         <v>627</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="C629" t="n">
-        <v>41980</v>
+        <v>42120</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -10507,10 +10507,10 @@
         <v>628</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="C630" t="n">
-        <v>40995</v>
+        <v>41980</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -10523,10 +10523,10 @@
         <v>629</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="C631" t="n">
-        <v>42060</v>
+        <v>40995</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -10539,10 +10539,10 @@
         <v>630</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>43938</v>
+        <v>43942</v>
       </c>
       <c r="C632" t="n">
-        <v>42470</v>
+        <v>42060</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -10555,10 +10555,10 @@
         <v>631</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="C633" t="n">
-        <v>41775</v>
+        <v>42470</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -10571,10 +10571,10 @@
         <v>632</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="C634" t="n">
-        <v>41860</v>
+        <v>41775</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -10587,10 +10587,10 @@
         <v>633</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="C635" t="n">
-        <v>41970</v>
+        <v>41860</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -10603,10 +10603,10 @@
         <v>634</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>43931</v>
+        <v>43935</v>
       </c>
       <c r="C636" t="n">
-        <v>40990</v>
+        <v>41970</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -10619,10 +10619,10 @@
         <v>635</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="C637" t="n">
-        <v>40950</v>
+        <v>40990</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -10635,10 +10635,10 @@
         <v>636</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="C638" t="n">
-        <v>40765</v>
+        <v>40950</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -10651,10 +10651,10 @@
         <v>637</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="C639" t="n">
-        <v>40840</v>
+        <v>40765</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -10667,10 +10667,10 @@
         <v>638</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>43917</v>
+        <v>43928</v>
       </c>
       <c r="C640" t="n">
-        <v>38865</v>
+        <v>40840</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -10683,10 +10683,10 @@
         <v>639</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="C641" t="n">
-        <v>38970</v>
+        <v>38865</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -10699,10 +10699,10 @@
         <v>640</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="C642" t="n">
-        <v>38750</v>
+        <v>38970</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -10715,10 +10715,10 @@
         <v>641</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="C643" t="n">
-        <v>37890</v>
+        <v>38750</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -10731,10 +10731,10 @@
         <v>642</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="C644" t="n">
-        <v>38290</v>
+        <v>37890</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -10747,10 +10747,10 @@
         <v>643</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="C645" t="n">
-        <v>37545</v>
+        <v>38290</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -10763,10 +10763,10 @@
         <v>644</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="C646" t="n">
-        <v>41400</v>
+        <v>37545</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -10779,10 +10779,10 @@
         <v>645</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="C647" t="n">
-        <v>42145</v>
+        <v>41400</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -10795,10 +10795,10 @@
         <v>646</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>43903</v>
+        <v>43907</v>
       </c>
       <c r="C648" t="n">
-        <v>42755</v>
+        <v>42145</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -10811,10 +10811,10 @@
         <v>647</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="C649" t="n">
-        <v>43185</v>
+        <v>42755</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -10827,10 +10827,10 @@
         <v>648</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="C650" t="n">
-        <v>44280</v>
+        <v>43185</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -10843,10 +10843,10 @@
         <v>649</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>43896</v>
+        <v>43901</v>
       </c>
       <c r="C651" t="n">
-        <v>44725</v>
+        <v>44280</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -10859,10 +10859,10 @@
         <v>650</v>
       </c>
       <c r="B652" s="2" t="n">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="C652" t="n">
-        <v>45055</v>
+        <v>44725</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -10875,10 +10875,10 @@
         <v>651</v>
       </c>
       <c r="B653" s="2" t="n">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="C653" t="n">
-        <v>45005</v>
+        <v>45055</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -10891,10 +10891,10 @@
         <v>652</v>
       </c>
       <c r="B654" s="2" t="n">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="C654" t="n">
-        <v>45345</v>
+        <v>45005</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -10907,10 +10907,10 @@
         <v>653</v>
       </c>
       <c r="B655" s="2" t="n">
-        <v>43889</v>
+        <v>43893</v>
       </c>
       <c r="C655" t="n">
-        <v>44630</v>
+        <v>45345</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -10923,10 +10923,10 @@
         <v>654</v>
       </c>
       <c r="B656" s="2" t="n">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="C656" t="n">
-        <v>45190</v>
+        <v>44630</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -10939,10 +10939,10 @@
         <v>655</v>
       </c>
       <c r="B657" s="2" t="n">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="C657" t="n">
-        <v>45360</v>
+        <v>45190</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -10955,10 +10955,10 @@
         <v>656</v>
       </c>
       <c r="B658" s="2" t="n">
-        <v>43882</v>
+        <v>43887</v>
       </c>
       <c r="C658" t="n">
-        <v>45910</v>
+        <v>45360</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -10971,10 +10971,10 @@
         <v>657</v>
       </c>
       <c r="B659" s="2" t="n">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="C659" t="n">
-        <v>46010</v>
+        <v>45910</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -10987,10 +10987,10 @@
         <v>658</v>
       </c>
       <c r="B660" s="2" t="n">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="C660" t="n">
-        <v>45990</v>
+        <v>46010</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -11003,10 +11003,10 @@
         <v>659</v>
       </c>
       <c r="B661" s="2" t="n">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="C661" t="n">
-        <v>45955</v>
+        <v>45990</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -11019,10 +11019,10 @@
         <v>660</v>
       </c>
       <c r="B662" s="2" t="n">
-        <v>43875</v>
+        <v>43879</v>
       </c>
       <c r="C662" t="n">
-        <v>45655</v>
+        <v>45955</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -11035,10 +11035,10 @@
         <v>661</v>
       </c>
       <c r="B663" s="2" t="n">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="C663" t="n">
-        <v>45490</v>
+        <v>45655</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -11051,10 +11051,10 @@
         <v>662</v>
       </c>
       <c r="B664" s="2" t="n">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="C664" t="n">
-        <v>45385</v>
+        <v>45490</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -11067,10 +11067,10 @@
         <v>663</v>
       </c>
       <c r="B665" s="2" t="n">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="C665" t="n">
-        <v>45370</v>
+        <v>45385</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -11083,10 +11083,10 @@
         <v>664</v>
       </c>
       <c r="B666" s="2" t="n">
-        <v>43868</v>
+        <v>43872</v>
       </c>
       <c r="C666" t="n">
-        <v>45590</v>
+        <v>45370</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -11099,10 +11099,10 @@
         <v>665</v>
       </c>
       <c r="B667" s="2" t="n">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="C667" t="n">
-        <v>45795</v>
+        <v>45590</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -11115,10 +11115,10 @@
         <v>666</v>
       </c>
       <c r="B668" s="2" t="n">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="C668" t="n">
-        <v>45230</v>
+        <v>45795</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -11131,10 +11131,10 @@
         <v>667</v>
       </c>
       <c r="B669" s="2" t="n">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="C669" t="n">
-        <v>44940</v>
+        <v>45230</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -11147,10 +11147,10 @@
         <v>668</v>
       </c>
       <c r="B670" s="2" t="n">
-        <v>43853</v>
+        <v>43865</v>
       </c>
       <c r="C670" t="n">
-        <v>47995</v>
+        <v>44940</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -11163,10 +11163,10 @@
         <v>669</v>
       </c>
       <c r="B671" s="2" t="n">
-        <v>43852</v>
+        <v>43853</v>
       </c>
       <c r="C671" t="n">
-        <v>48235</v>
+        <v>47995</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -11179,10 +11179,10 @@
         <v>670</v>
       </c>
       <c r="B672" s="2" t="n">
-        <v>43851</v>
+        <v>43852</v>
       </c>
       <c r="C672" t="n">
-        <v>48425</v>
+        <v>48235</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -11195,10 +11195,10 @@
         <v>671</v>
       </c>
       <c r="B673" s="2" t="n">
-        <v>43847</v>
+        <v>43851</v>
       </c>
       <c r="C673" t="n">
-        <v>48930</v>
+        <v>48425</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -11211,10 +11211,10 @@
         <v>672</v>
       </c>
       <c r="B674" s="2" t="n">
-        <v>43846</v>
+        <v>43847</v>
       </c>
       <c r="C674" t="n">
-        <v>48950</v>
+        <v>48930</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -11227,10 +11227,10 @@
         <v>673</v>
       </c>
       <c r="B675" s="2" t="n">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="C675" t="n">
-        <v>49060</v>
+        <v>48950</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -11243,10 +11243,10 @@
         <v>674</v>
       </c>
       <c r="B676" s="2" t="n">
-        <v>43844</v>
+        <v>43845</v>
       </c>
       <c r="C676" t="n">
-        <v>48990</v>
+        <v>49060</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -11259,12 +11259,28 @@
         <v>675</v>
       </c>
       <c r="B677" s="2" t="n">
+        <v>43844</v>
+      </c>
+      <c r="C677" t="n">
+        <v>48990</v>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>Yuan/MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="B678" s="2" t="n">
         <v>43840</v>
       </c>
-      <c r="C677" t="n">
+      <c r="C678" t="n">
         <v>48605</v>
       </c>
-      <c r="D677" t="inlineStr">
+      <c r="D678" t="inlineStr">
         <is>
           <t>Yuan/MT</t>
         </is>

--- a/LME/parser_beta/data/shmet_historical.xlsx
+++ b/LME/parser_beta/data/shmet_historical.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D678"/>
+  <dimension ref="A1:D679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,10 +459,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45167</v>
+        <v>45168</v>
       </c>
       <c r="C2" t="n">
-        <v>69525</v>
+        <v>69880</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -475,10 +475,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45166</v>
+        <v>45167</v>
       </c>
       <c r="C3" t="n">
-        <v>69530</v>
+        <v>69525</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45163</v>
+        <v>45166</v>
       </c>
       <c r="C4" t="n">
-        <v>69300</v>
+        <v>69530</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -507,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45162</v>
+        <v>45163</v>
       </c>
       <c r="C5" t="n">
-        <v>69700</v>
+        <v>69300</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -523,10 +523,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45160</v>
+        <v>45162</v>
       </c>
       <c r="C6" t="n">
-        <v>68810</v>
+        <v>69700</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -539,10 +539,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="C7" t="n">
-        <v>68925</v>
+        <v>68810</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45156</v>
+        <v>45159</v>
       </c>
       <c r="C8" t="n">
-        <v>68840</v>
+        <v>68925</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -571,10 +571,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="C9" t="n">
-        <v>68260</v>
+        <v>68840</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -587,10 +587,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="C10" t="n">
-        <v>68270</v>
+        <v>68260</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -603,10 +603,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="C11" t="n">
-        <v>68590</v>
+        <v>68270</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45152</v>
+        <v>45153</v>
       </c>
       <c r="C12" t="n">
         <v>68590</v>
@@ -635,10 +635,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45149</v>
+        <v>45152</v>
       </c>
       <c r="C13" t="n">
-        <v>68690</v>
+        <v>68590</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -651,10 +651,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="C14" t="n">
-        <v>68740</v>
+        <v>68690</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -667,10 +667,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="C15" t="n">
-        <v>68710</v>
+        <v>68740</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -683,10 +683,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="C16" t="n">
-        <v>69130</v>
+        <v>68710</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="C17" t="n">
-        <v>69290</v>
+        <v>69130</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -715,10 +715,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45142</v>
+        <v>45145</v>
       </c>
       <c r="C18" t="n">
-        <v>69875</v>
+        <v>69290</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -731,10 +731,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="C19" t="n">
-        <v>69425</v>
+        <v>69875</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -747,10 +747,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="C20" t="n">
-        <v>69990</v>
+        <v>69425</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -763,10 +763,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="C21" t="n">
-        <v>70925</v>
+        <v>69990</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -779,10 +779,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="C22" t="n">
-        <v>69830</v>
+        <v>70925</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -795,10 +795,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45135</v>
+        <v>45138</v>
       </c>
       <c r="C23" t="n">
-        <v>68950</v>
+        <v>69830</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -811,10 +811,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="C24" t="n">
-        <v>69460</v>
+        <v>68950</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -827,10 +827,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="C25" t="n">
-        <v>69200</v>
+        <v>69460</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -843,10 +843,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="C26" t="n">
-        <v>68980</v>
+        <v>69200</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -859,10 +859,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45128</v>
+        <v>45132</v>
       </c>
       <c r="C27" t="n">
-        <v>68670</v>
+        <v>68980</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -875,10 +875,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="C28" t="n">
-        <v>68650</v>
+        <v>68670</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -891,10 +891,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="C29" t="n">
-        <v>68580</v>
+        <v>68650</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -907,10 +907,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="C30" t="n">
-        <v>68750</v>
+        <v>68580</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -923,10 +923,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45121</v>
+        <v>45125</v>
       </c>
       <c r="C31" t="n">
-        <v>69825</v>
+        <v>68750</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -939,10 +939,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="C32" t="n">
-        <v>68760</v>
+        <v>69825</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -955,10 +955,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="C33" t="n">
-        <v>68040</v>
+        <v>68760</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -971,10 +971,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="C34" t="n">
-        <v>68370</v>
+        <v>68040</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -987,10 +987,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45114</v>
+        <v>45118</v>
       </c>
       <c r="C35" t="n">
-        <v>68150</v>
+        <v>68370</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1003,10 +1003,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="C36" t="n">
-        <v>68300</v>
+        <v>68150</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1019,10 +1019,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="C37" t="n">
-        <v>68500</v>
+        <v>68300</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1035,10 +1035,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="C38" t="n">
-        <v>68775</v>
+        <v>68500</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1051,10 +1051,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45107</v>
+        <v>45111</v>
       </c>
       <c r="C39" t="n">
-        <v>68000</v>
+        <v>68775</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1067,10 +1067,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="C40" t="n">
-        <v>68025</v>
+        <v>68000</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1083,10 +1083,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="C41" t="n">
-        <v>68300</v>
+        <v>68025</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1099,10 +1099,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="C42" t="n">
-        <v>68660</v>
+        <v>68300</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>45098</v>
+        <v>45104</v>
       </c>
       <c r="C43" t="n">
-        <v>69650</v>
+        <v>68660</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1131,10 +1131,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="C44" t="n">
-        <v>69100</v>
+        <v>69650</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1147,10 +1147,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45093</v>
+        <v>45097</v>
       </c>
       <c r="C45" t="n">
-        <v>68960</v>
+        <v>69100</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="C46" t="n">
-        <v>68275</v>
+        <v>68960</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1179,10 +1179,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="C47" t="n">
-        <v>68350</v>
+        <v>68275</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1195,10 +1195,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45086</v>
+        <v>45091</v>
       </c>
       <c r="C48" t="n">
-        <v>67370</v>
+        <v>68350</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1211,10 +1211,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="C49" t="n">
-        <v>67180</v>
+        <v>67370</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1227,10 +1227,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="C50" t="n">
-        <v>67300</v>
+        <v>67180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1243,10 +1243,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="C51" t="n">
-        <v>67160</v>
+        <v>67300</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1259,10 +1259,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45079</v>
+        <v>45083</v>
       </c>
       <c r="C52" t="n">
-        <v>66425</v>
+        <v>67160</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1275,10 +1275,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="C53" t="n">
-        <v>65850</v>
+        <v>66425</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1291,10 +1291,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="C54" t="n">
-        <v>65260</v>
+        <v>65850</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1307,10 +1307,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="C55" t="n">
-        <v>65600</v>
+        <v>65260</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1323,10 +1323,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>45072</v>
+        <v>45076</v>
       </c>
       <c r="C56" t="n">
-        <v>64150</v>
+        <v>65600</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1339,10 +1339,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="C57" t="n">
-        <v>63750</v>
+        <v>64150</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1355,10 +1355,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>45070</v>
+        <v>45071</v>
       </c>
       <c r="C58" t="n">
-        <v>64300</v>
+        <v>63750</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1371,10 +1371,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="C59" t="n">
-        <v>65280</v>
+        <v>64300</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1387,10 +1387,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>45065</v>
+        <v>45069</v>
       </c>
       <c r="C60" t="n">
-        <v>65675</v>
+        <v>65280</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1403,10 +1403,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="C61" t="n">
-        <v>66025</v>
+        <v>65675</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1419,10 +1419,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="C62" t="n">
-        <v>64680</v>
+        <v>66025</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1435,10 +1435,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="C63" t="n">
-        <v>65200</v>
+        <v>64680</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1451,10 +1451,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>45058</v>
+        <v>45062</v>
       </c>
       <c r="C64" t="n">
-        <v>64690</v>
+        <v>65200</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1467,10 +1467,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="C65" t="n">
-        <v>66590</v>
+        <v>64690</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1483,10 +1483,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>45051</v>
+        <v>45057</v>
       </c>
       <c r="C66" t="n">
-        <v>66675</v>
+        <v>66590</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1499,10 +1499,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="C67" t="n">
-        <v>67290</v>
+        <v>66675</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1515,10 +1515,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>45044</v>
+        <v>45050</v>
       </c>
       <c r="C68" t="n">
-        <v>67420</v>
+        <v>67290</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="C69" t="n">
-        <v>66625</v>
+        <v>67420</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1547,10 +1547,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="C70" t="n">
-        <v>67540</v>
+        <v>66625</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1563,10 +1563,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="C71" t="n">
-        <v>68290</v>
+        <v>67540</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1579,10 +1579,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>45037</v>
+        <v>45041</v>
       </c>
       <c r="C72" t="n">
-        <v>68890</v>
+        <v>68290</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1595,10 +1595,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="C73" t="n">
-        <v>69500</v>
+        <v>68890</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1611,10 +1611,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="C74" t="n">
-        <v>69680</v>
+        <v>69500</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1627,10 +1627,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="C75" t="n">
-        <v>69650</v>
+        <v>69680</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1643,10 +1643,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>45030</v>
+        <v>45034</v>
       </c>
       <c r="C76" t="n">
-        <v>70310</v>
+        <v>69650</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1659,10 +1659,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="C77" t="n">
-        <v>69405</v>
+        <v>70310</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1675,10 +1675,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="C78" t="n">
-        <v>69150</v>
+        <v>69405</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1691,10 +1691,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="C79" t="n">
-        <v>68580</v>
+        <v>69150</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1707,10 +1707,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>45023</v>
+        <v>45027</v>
       </c>
       <c r="C80" t="n">
-        <v>68875</v>
+        <v>68580</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1723,10 +1723,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="C81" t="n">
-        <v>68830</v>
+        <v>68875</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1739,10 +1739,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>45020</v>
+        <v>45022</v>
       </c>
       <c r="C82" t="n">
-        <v>69225</v>
+        <v>68830</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1755,10 +1755,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>45016</v>
+        <v>45020</v>
       </c>
       <c r="C83" t="n">
-        <v>69650</v>
+        <v>69225</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1771,10 +1771,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="C84" t="n">
-        <v>69620</v>
+        <v>69650</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1787,10 +1787,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="C85" t="n">
-        <v>69580</v>
+        <v>69620</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1803,10 +1803,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="C86" t="n">
-        <v>69770</v>
+        <v>69580</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1819,10 +1819,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>45009</v>
+        <v>45013</v>
       </c>
       <c r="C87" t="n">
-        <v>69230</v>
+        <v>69770</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -1835,10 +1835,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="C88" t="n">
-        <v>68630</v>
+        <v>69230</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -1851,10 +1851,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="C89" t="n">
-        <v>68100</v>
+        <v>68630</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -1867,10 +1867,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="C90" t="n">
-        <v>67575</v>
+        <v>68100</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -1883,10 +1883,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>45002</v>
+        <v>45006</v>
       </c>
       <c r="C91" t="n">
-        <v>67340</v>
+        <v>67575</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -1899,10 +1899,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="C92" t="n">
-        <v>67100</v>
+        <v>67340</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -1915,10 +1915,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="C93" t="n">
-        <v>68925</v>
+        <v>67100</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -1931,10 +1931,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="C94" t="n">
-        <v>68600</v>
+        <v>68925</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -1947,10 +1947,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>44995</v>
+        <v>44999</v>
       </c>
       <c r="C95" t="n">
-        <v>69025</v>
+        <v>68600</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -1963,10 +1963,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>44993</v>
+        <v>44995</v>
       </c>
       <c r="C96" t="n">
-        <v>68840</v>
+        <v>69025</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -1979,10 +1979,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="C97" t="n">
-        <v>69610</v>
+        <v>68840</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -1995,10 +1995,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="C98" t="n">
-        <v>69400</v>
+        <v>69610</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2011,10 +2011,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="C99" t="n">
-        <v>69865</v>
+        <v>69400</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2027,10 +2027,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="C100" t="n">
-        <v>69710</v>
+        <v>69865</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2043,10 +2043,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="C101" t="n">
-        <v>68550</v>
+        <v>69710</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2059,10 +2059,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="C102" t="n">
-        <v>70050</v>
+        <v>68550</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2075,10 +2075,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="C103" t="n">
-        <v>70400</v>
+        <v>70050</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2091,10 +2091,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="C104" t="n">
-        <v>69705</v>
+        <v>70400</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2107,10 +2107,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>44974</v>
+        <v>44978</v>
       </c>
       <c r="C105" t="n">
-        <v>69080</v>
+        <v>69705</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2123,10 +2123,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="C106" t="n">
-        <v>68370</v>
+        <v>69080</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2139,10 +2139,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="C107" t="n">
-        <v>68950</v>
+        <v>68370</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2155,10 +2155,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="C108" t="n">
-        <v>68510</v>
+        <v>68950</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2171,10 +2171,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>44967</v>
+        <v>44971</v>
       </c>
       <c r="C109" t="n">
-        <v>68225</v>
+        <v>68510</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2187,10 +2187,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="C110" t="n">
-        <v>68240</v>
+        <v>68225</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2203,10 +2203,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="C111" t="n">
-        <v>68250</v>
+        <v>68240</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2219,10 +2219,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="C112" t="n">
-        <v>67860</v>
+        <v>68250</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2235,10 +2235,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>44960</v>
+        <v>44964</v>
       </c>
       <c r="C113" t="n">
-        <v>68425</v>
+        <v>67860</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2251,10 +2251,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="C114" t="n">
-        <v>69070</v>
+        <v>68425</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2267,10 +2267,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="C115" t="n">
-        <v>69560</v>
+        <v>69070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2283,10 +2283,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="C116" t="n">
-        <v>69425</v>
+        <v>69560</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2299,10 +2299,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>44946</v>
+        <v>44957</v>
       </c>
       <c r="C117" t="n">
-        <v>70150</v>
+        <v>69425</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2315,10 +2315,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="C118" t="n">
-        <v>69570</v>
+        <v>70150</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2331,10 +2331,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>44944</v>
+        <v>44945</v>
       </c>
       <c r="C119" t="n">
-        <v>69750</v>
+        <v>69570</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2347,10 +2347,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>44943</v>
+        <v>44944</v>
       </c>
       <c r="C120" t="n">
-        <v>68410</v>
+        <v>69750</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2363,10 +2363,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>44939</v>
+        <v>44943</v>
       </c>
       <c r="C121" t="n">
-        <v>68725</v>
+        <v>68410</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2379,10 +2379,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="C122" t="n">
-        <v>68430</v>
+        <v>68725</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2395,10 +2395,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="C123" t="n">
-        <v>67500</v>
+        <v>68430</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2411,10 +2411,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="C124" t="n">
-        <v>66475</v>
+        <v>67500</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2427,10 +2427,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>44925</v>
+        <v>44936</v>
       </c>
       <c r="C125" t="n">
-        <v>66175</v>
+        <v>66475</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2443,10 +2443,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="C126" t="n">
-        <v>66200</v>
+        <v>66175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2459,10 +2459,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="C127" t="n">
-        <v>66270</v>
+        <v>66200</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2475,10 +2475,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>44922</v>
+        <v>44923</v>
       </c>
       <c r="C128" t="n">
-        <v>66400</v>
+        <v>66270</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2491,10 +2491,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>44918</v>
+        <v>44922</v>
       </c>
       <c r="C129" t="n">
-        <v>66000</v>
+        <v>66400</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="C130" t="n">
-        <v>66750</v>
+        <v>66000</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2523,10 +2523,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="C131" t="n">
-        <v>66225</v>
+        <v>66750</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2539,10 +2539,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="C132" t="n">
-        <v>65575</v>
+        <v>66225</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2555,10 +2555,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>44911</v>
+        <v>44915</v>
       </c>
       <c r="C133" t="n">
-        <v>65750</v>
+        <v>65575</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2571,10 +2571,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="C134" t="n">
-        <v>66125</v>
+        <v>65750</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2587,10 +2587,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>44909</v>
+        <v>44910</v>
       </c>
       <c r="C135" t="n">
-        <v>66625</v>
+        <v>66125</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2603,10 +2603,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="C136" t="n">
-        <v>66175</v>
+        <v>66625</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2619,10 +2619,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>44904</v>
+        <v>44908</v>
       </c>
       <c r="C137" t="n">
-        <v>67000</v>
+        <v>66175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2635,10 +2635,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="C138" t="n">
-        <v>66290</v>
+        <v>67000</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2651,10 +2651,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="C139" t="n">
-        <v>66225</v>
+        <v>66290</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2667,10 +2667,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="C140" t="n">
-        <v>66575</v>
+        <v>66225</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2683,10 +2683,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>44897</v>
+        <v>44901</v>
       </c>
       <c r="C141" t="n">
-        <v>66400</v>
+        <v>66575</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2699,10 +2699,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="C142" t="n">
-        <v>66380</v>
+        <v>66400</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2715,10 +2715,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="C143" t="n">
-        <v>65290</v>
+        <v>66380</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -2731,10 +2731,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="C144" t="n">
-        <v>65525</v>
+        <v>65290</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -2747,10 +2747,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="C145" t="n">
-        <v>65640</v>
+        <v>65525</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -2763,10 +2763,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="C146" t="n">
-        <v>65490</v>
+        <v>65640</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -2779,10 +2779,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="C147" t="n">
-        <v>65260</v>
+        <v>65490</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -2795,10 +2795,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="C148" t="n">
-        <v>65170</v>
+        <v>65260</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -2811,10 +2811,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>44883</v>
+        <v>44887</v>
       </c>
       <c r="C149" t="n">
-        <v>66275</v>
+        <v>65170</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -2827,10 +2827,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="C150" t="n">
-        <v>66540</v>
+        <v>66275</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -2843,10 +2843,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="C151" t="n">
-        <v>67050</v>
+        <v>66540</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -2859,10 +2859,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="C152" t="n">
-        <v>67275</v>
+        <v>67050</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -2875,10 +2875,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>44876</v>
+        <v>44880</v>
       </c>
       <c r="C153" t="n">
-        <v>68575</v>
+        <v>67275</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -2891,10 +2891,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="C154" t="n">
-        <v>67400</v>
+        <v>68575</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -2907,10 +2907,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="C155" t="n">
-        <v>66800</v>
+        <v>67400</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -2923,10 +2923,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="C156" t="n">
-        <v>66225</v>
+        <v>66800</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -2939,10 +2939,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>44869</v>
+        <v>44873</v>
       </c>
       <c r="C157" t="n">
-        <v>64700</v>
+        <v>66225</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -2955,10 +2955,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="C158" t="n">
-        <v>64690</v>
+        <v>64700</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -2971,10 +2971,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="C159" t="n">
-        <v>64950</v>
+        <v>64690</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -2987,10 +2987,10 @@
         <v>158</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>44866</v>
+        <v>44867</v>
       </c>
       <c r="C160" t="n">
-        <v>64300</v>
+        <v>64950</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3003,10 +3003,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>44862</v>
+        <v>44866</v>
       </c>
       <c r="C161" t="n">
-        <v>64650</v>
+        <v>64300</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3019,10 +3019,10 @@
         <v>160</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>44861</v>
+        <v>44862</v>
       </c>
       <c r="C162" t="n">
-        <v>64690</v>
+        <v>64650</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3035,10 +3035,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="C163" t="n">
-        <v>63950</v>
+        <v>64690</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3051,10 +3051,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="C164" t="n">
-        <v>64300</v>
+        <v>63950</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3067,10 +3067,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>44855</v>
+        <v>44859</v>
       </c>
       <c r="C165" t="n">
-        <v>64000</v>
+        <v>64300</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3083,10 +3083,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="C166" t="n">
-        <v>62895</v>
+        <v>64000</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3099,10 +3099,10 @@
         <v>165</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>44853</v>
+        <v>44854</v>
       </c>
       <c r="C167" t="n">
-        <v>62950</v>
+        <v>62895</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3115,10 +3115,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="C168" t="n">
-        <v>63550</v>
+        <v>62950</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3131,10 +3131,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>44848</v>
+        <v>44852</v>
       </c>
       <c r="C169" t="n">
-        <v>64760</v>
+        <v>63550</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3147,10 +3147,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="C170" t="n">
-        <v>63960</v>
+        <v>64760</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3163,10 +3163,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="C171" t="n">
-        <v>63800</v>
+        <v>63960</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3179,10 +3179,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>44845</v>
+        <v>44846</v>
       </c>
       <c r="C172" t="n">
-        <v>63975</v>
+        <v>63800</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3195,10 +3195,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>44834</v>
+        <v>44845</v>
       </c>
       <c r="C173" t="n">
-        <v>62670</v>
+        <v>63975</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3211,10 +3211,10 @@
         <v>172</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="C174" t="n">
-        <v>62430</v>
+        <v>62670</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3227,10 +3227,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="C175" t="n">
-        <v>61430</v>
+        <v>62430</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3243,10 +3243,10 @@
         <v>174</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="C176" t="n">
-        <v>61485</v>
+        <v>61430</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3259,10 +3259,10 @@
         <v>175</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>44827</v>
+        <v>44831</v>
       </c>
       <c r="C177" t="n">
-        <v>63025</v>
+        <v>61485</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3275,10 +3275,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="C178" t="n">
-        <v>63120</v>
+        <v>63025</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="C179" t="n">
         <v>63120</v>
@@ -3307,10 +3307,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="C180" t="n">
-        <v>63370</v>
+        <v>63120</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3323,10 +3323,10 @@
         <v>179</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>44820</v>
+        <v>44824</v>
       </c>
       <c r="C181" t="n">
-        <v>62865</v>
+        <v>63370</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3339,10 +3339,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="C182" t="n">
-        <v>63370</v>
+        <v>62865</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3355,10 +3355,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="C183" t="n">
-        <v>63050</v>
+        <v>63370</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3371,10 +3371,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="C184" t="n">
-        <v>63850</v>
+        <v>63050</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3387,10 +3387,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>44813</v>
+        <v>44817</v>
       </c>
       <c r="C185" t="n">
-        <v>63650</v>
+        <v>63850</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3403,10 +3403,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="2" t="n">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="C186" t="n">
-        <v>61910</v>
+        <v>63650</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3419,10 +3419,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="2" t="n">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="C187" t="n">
-        <v>61700</v>
+        <v>61910</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3435,10 +3435,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="C188" t="n">
-        <v>61750</v>
+        <v>61700</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3451,10 +3451,10 @@
         <v>187</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>44806</v>
+        <v>44810</v>
       </c>
       <c r="C189" t="n">
-        <v>60500</v>
+        <v>61750</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3467,10 +3467,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="2" t="n">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="C190" t="n">
-        <v>61775</v>
+        <v>60500</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3483,10 +3483,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="2" t="n">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="C191" t="n">
-        <v>62770</v>
+        <v>61775</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3499,10 +3499,10 @@
         <v>190</v>
       </c>
       <c r="B192" s="2" t="n">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="C192" t="n">
-        <v>63120</v>
+        <v>62770</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3515,10 +3515,10 @@
         <v>191</v>
       </c>
       <c r="B193" s="2" t="n">
-        <v>44799</v>
+        <v>44803</v>
       </c>
       <c r="C193" t="n">
-        <v>64270</v>
+        <v>63120</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3531,10 +3531,10 @@
         <v>192</v>
       </c>
       <c r="B194" s="2" t="n">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="C194" t="n">
-        <v>63330</v>
+        <v>64270</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3547,10 +3547,10 @@
         <v>193</v>
       </c>
       <c r="B195" s="2" t="n">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="C195" t="n">
-        <v>63715</v>
+        <v>63330</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3563,10 +3563,10 @@
         <v>194</v>
       </c>
       <c r="B196" s="2" t="n">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="C196" t="n">
-        <v>63570</v>
+        <v>63715</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3579,10 +3579,10 @@
         <v>195</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>44792</v>
+        <v>44796</v>
       </c>
       <c r="C197" t="n">
-        <v>62950</v>
+        <v>63570</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3595,10 +3595,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="C198" t="n">
-        <v>62300</v>
+        <v>62950</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -3611,10 +3611,10 @@
         <v>197</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="C199" t="n">
-        <v>62470</v>
+        <v>62300</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -3627,10 +3627,10 @@
         <v>198</v>
       </c>
       <c r="B200" s="2" t="n">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="C200" t="n">
-        <v>62460</v>
+        <v>62470</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -3643,10 +3643,10 @@
         <v>199</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>44785</v>
+        <v>44789</v>
       </c>
       <c r="C201" t="n">
-        <v>63000</v>
+        <v>62460</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -3659,10 +3659,10 @@
         <v>200</v>
       </c>
       <c r="B202" s="2" t="n">
-        <v>44784</v>
+        <v>44785</v>
       </c>
       <c r="C202" t="n">
-        <v>62520</v>
+        <v>63000</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -3675,10 +3675,10 @@
         <v>201</v>
       </c>
       <c r="B203" s="2" t="n">
-        <v>44783</v>
+        <v>44784</v>
       </c>
       <c r="C203" t="n">
-        <v>61780</v>
+        <v>62520</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -3691,10 +3691,10 @@
         <v>202</v>
       </c>
       <c r="B204" s="2" t="n">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="C204" t="n">
-        <v>61540</v>
+        <v>61780</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -3707,10 +3707,10 @@
         <v>203</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>44778</v>
+        <v>44782</v>
       </c>
       <c r="C205" t="n">
-        <v>60520</v>
+        <v>61540</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -3723,10 +3723,10 @@
         <v>204</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>44777</v>
+        <v>44778</v>
       </c>
       <c r="C206" t="n">
-        <v>59930</v>
+        <v>60520</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -3739,10 +3739,10 @@
         <v>205</v>
       </c>
       <c r="B207" s="2" t="n">
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="C207" t="n">
-        <v>60260</v>
+        <v>59930</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -3755,10 +3755,10 @@
         <v>206</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>44775</v>
+        <v>44776</v>
       </c>
       <c r="C208" t="n">
-        <v>60180</v>
+        <v>60260</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -3771,10 +3771,10 @@
         <v>207</v>
       </c>
       <c r="B209" s="2" t="n">
-        <v>44771</v>
+        <v>44775</v>
       </c>
       <c r="C209" t="n">
-        <v>60315</v>
+        <v>60180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -3787,10 +3787,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="2" t="n">
-        <v>44770</v>
+        <v>44771</v>
       </c>
       <c r="C210" t="n">
-        <v>60090</v>
+        <v>60315</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -3803,10 +3803,10 @@
         <v>209</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="C211" t="n">
-        <v>58710</v>
+        <v>60090</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -3819,10 +3819,10 @@
         <v>210</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>44768</v>
+        <v>44769</v>
       </c>
       <c r="C212" t="n">
-        <v>58930</v>
+        <v>58710</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -3835,10 +3835,10 @@
         <v>211</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>44764</v>
+        <v>44768</v>
       </c>
       <c r="C213" t="n">
-        <v>57030</v>
+        <v>58930</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -3851,10 +3851,10 @@
         <v>212</v>
       </c>
       <c r="B214" s="2" t="n">
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="C214" t="n">
-        <v>56360</v>
+        <v>57030</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -3867,10 +3867,10 @@
         <v>213</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="C215" t="n">
-        <v>56920</v>
+        <v>56360</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -3883,10 +3883,10 @@
         <v>214</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="C216" t="n">
-        <v>56210</v>
+        <v>56920</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -3899,10 +3899,10 @@
         <v>215</v>
       </c>
       <c r="B217" s="2" t="n">
-        <v>44757</v>
+        <v>44761</v>
       </c>
       <c r="C217" t="n">
-        <v>54890</v>
+        <v>56210</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -3915,10 +3915,10 @@
         <v>216</v>
       </c>
       <c r="B218" s="2" t="n">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="C218" t="n">
-        <v>56300</v>
+        <v>54890</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -3931,10 +3931,10 @@
         <v>217</v>
       </c>
       <c r="B219" s="2" t="n">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="C219" t="n">
-        <v>56460</v>
+        <v>56300</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -3947,10 +3947,10 @@
         <v>218</v>
       </c>
       <c r="B220" s="2" t="n">
-        <v>44754</v>
+        <v>44755</v>
       </c>
       <c r="C220" t="n">
-        <v>58430</v>
+        <v>56460</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -3963,10 +3963,10 @@
         <v>219</v>
       </c>
       <c r="B221" s="2" t="n">
-        <v>44750</v>
+        <v>44754</v>
       </c>
       <c r="C221" t="n">
-        <v>59600</v>
+        <v>58430</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -3979,10 +3979,10 @@
         <v>220</v>
       </c>
       <c r="B222" s="2" t="n">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="C222" t="n">
-        <v>58600</v>
+        <v>59600</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -3995,10 +3995,10 @@
         <v>221</v>
       </c>
       <c r="B223" s="2" t="n">
-        <v>44748</v>
+        <v>44749</v>
       </c>
       <c r="C223" t="n">
-        <v>58125</v>
+        <v>58600</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4011,10 +4011,10 @@
         <v>222</v>
       </c>
       <c r="B224" s="2" t="n">
-        <v>44747</v>
+        <v>44748</v>
       </c>
       <c r="C224" t="n">
-        <v>61225</v>
+        <v>58125</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -4027,10 +4027,10 @@
         <v>223</v>
       </c>
       <c r="B225" s="2" t="n">
-        <v>44743</v>
+        <v>44747</v>
       </c>
       <c r="C225" t="n">
-        <v>62930</v>
+        <v>61225</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4043,10 +4043,10 @@
         <v>224</v>
       </c>
       <c r="B226" s="2" t="n">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="C226" t="n">
-        <v>64230</v>
+        <v>62930</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4059,10 +4059,10 @@
         <v>225</v>
       </c>
       <c r="B227" s="2" t="n">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="C227" t="n">
-        <v>63940</v>
+        <v>64230</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4075,10 +4075,10 @@
         <v>226</v>
       </c>
       <c r="B228" s="2" t="n">
-        <v>44740</v>
+        <v>44741</v>
       </c>
       <c r="C228" t="n">
-        <v>64150</v>
+        <v>63940</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4091,10 +4091,10 @@
         <v>227</v>
       </c>
       <c r="B229" s="2" t="n">
-        <v>44736</v>
+        <v>44740</v>
       </c>
       <c r="C229" t="n">
-        <v>64340</v>
+        <v>64150</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4107,10 +4107,10 @@
         <v>228</v>
       </c>
       <c r="B230" s="2" t="n">
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="C230" t="n">
-        <v>66050</v>
+        <v>64340</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4123,10 +4123,10 @@
         <v>229</v>
       </c>
       <c r="B231" s="2" t="n">
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="C231" t="n">
-        <v>68160</v>
+        <v>66050</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4139,10 +4139,10 @@
         <v>230</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>44733</v>
+        <v>44734</v>
       </c>
       <c r="C232" t="n">
-        <v>68700</v>
+        <v>68160</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4155,10 +4155,10 @@
         <v>231</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>44729</v>
+        <v>44733</v>
       </c>
       <c r="C233" t="n">
-        <v>69975</v>
+        <v>68700</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4171,10 +4171,10 @@
         <v>232</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>44728</v>
+        <v>44729</v>
       </c>
       <c r="C234" t="n">
-        <v>71255</v>
+        <v>69975</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -4187,10 +4187,10 @@
         <v>233</v>
       </c>
       <c r="B235" s="2" t="n">
-        <v>44727</v>
+        <v>44728</v>
       </c>
       <c r="C235" t="n">
-        <v>71250</v>
+        <v>71255</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -4203,10 +4203,10 @@
         <v>234</v>
       </c>
       <c r="B236" s="2" t="n">
-        <v>44722</v>
+        <v>44727</v>
       </c>
       <c r="C236" t="n">
-        <v>72750</v>
+        <v>71250</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4219,10 +4219,10 @@
         <v>235</v>
       </c>
       <c r="B237" s="2" t="n">
-        <v>44721</v>
+        <v>44722</v>
       </c>
       <c r="C237" t="n">
-        <v>73030</v>
+        <v>72750</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4235,10 +4235,10 @@
         <v>236</v>
       </c>
       <c r="B238" s="2" t="n">
-        <v>44720</v>
+        <v>44721</v>
       </c>
       <c r="C238" t="n">
-        <v>72890</v>
+        <v>73030</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -4251,10 +4251,10 @@
         <v>237</v>
       </c>
       <c r="B239" s="2" t="n">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="C239" t="n">
-        <v>72975</v>
+        <v>72890</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4267,10 +4267,10 @@
         <v>238</v>
       </c>
       <c r="B240" s="2" t="n">
-        <v>44714</v>
+        <v>44719</v>
       </c>
       <c r="C240" t="n">
-        <v>72530</v>
+        <v>72975</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4283,10 +4283,10 @@
         <v>239</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>44713</v>
+        <v>44714</v>
       </c>
       <c r="C241" t="n">
-        <v>72150</v>
+        <v>72530</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -4299,10 +4299,10 @@
         <v>240</v>
       </c>
       <c r="B242" s="2" t="n">
-        <v>44712</v>
+        <v>44713</v>
       </c>
       <c r="C242" t="n">
-        <v>72630</v>
+        <v>72150</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -4315,10 +4315,10 @@
         <v>241</v>
       </c>
       <c r="B243" s="2" t="n">
-        <v>44708</v>
+        <v>44712</v>
       </c>
       <c r="C243" t="n">
-        <v>72625</v>
+        <v>72630</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>242</v>
       </c>
       <c r="B244" s="2" t="n">
-        <v>44707</v>
+        <v>44708</v>
       </c>
       <c r="C244" t="n">
-        <v>71950</v>
+        <v>72625</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4347,10 +4347,10 @@
         <v>243</v>
       </c>
       <c r="B245" s="2" t="n">
-        <v>44706</v>
+        <v>44707</v>
       </c>
       <c r="C245" t="n">
-        <v>72220</v>
+        <v>71950</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4363,10 +4363,10 @@
         <v>244</v>
       </c>
       <c r="B246" s="2" t="n">
-        <v>44705</v>
+        <v>44706</v>
       </c>
       <c r="C246" t="n">
-        <v>72500</v>
+        <v>72220</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4379,10 +4379,10 @@
         <v>245</v>
       </c>
       <c r="B247" s="2" t="n">
-        <v>44701</v>
+        <v>44705</v>
       </c>
       <c r="C247" t="n">
-        <v>72150</v>
+        <v>72500</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4395,10 +4395,10 @@
         <v>246</v>
       </c>
       <c r="B248" s="2" t="n">
-        <v>44700</v>
+        <v>44701</v>
       </c>
       <c r="C248" t="n">
-        <v>71775</v>
+        <v>72150</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -4411,10 +4411,10 @@
         <v>247</v>
       </c>
       <c r="B249" s="2" t="n">
-        <v>44699</v>
+        <v>44700</v>
       </c>
       <c r="C249" t="n">
-        <v>72070</v>
+        <v>71775</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4427,10 +4427,10 @@
         <v>248</v>
       </c>
       <c r="B250" s="2" t="n">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="C250" t="n">
-        <v>72175</v>
+        <v>72070</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -4443,10 +4443,10 @@
         <v>249</v>
       </c>
       <c r="B251" s="2" t="n">
-        <v>44694</v>
+        <v>44698</v>
       </c>
       <c r="C251" t="n">
-        <v>71160</v>
+        <v>72175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -4459,10 +4459,10 @@
         <v>250</v>
       </c>
       <c r="B252" s="2" t="n">
-        <v>44693</v>
+        <v>44694</v>
       </c>
       <c r="C252" t="n">
-        <v>72050</v>
+        <v>71160</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -4475,10 +4475,10 @@
         <v>251</v>
       </c>
       <c r="B253" s="2" t="n">
-        <v>44687</v>
+        <v>44693</v>
       </c>
       <c r="C253" t="n">
-        <v>72875</v>
+        <v>72050</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -4491,10 +4491,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="2" t="n">
-        <v>44686</v>
+        <v>44687</v>
       </c>
       <c r="C254" t="n">
-        <v>73760</v>
+        <v>72875</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -4507,10 +4507,10 @@
         <v>253</v>
       </c>
       <c r="B255" s="2" t="n">
-        <v>44680</v>
+        <v>44686</v>
       </c>
       <c r="C255" t="n">
-        <v>73930</v>
+        <v>73760</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -4523,10 +4523,10 @@
         <v>254</v>
       </c>
       <c r="B256" s="2" t="n">
-        <v>44679</v>
+        <v>44680</v>
       </c>
       <c r="C256" t="n">
-        <v>74005</v>
+        <v>73930</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -4539,10 +4539,10 @@
         <v>255</v>
       </c>
       <c r="B257" s="2" t="n">
-        <v>44678</v>
+        <v>44679</v>
       </c>
       <c r="C257" t="n">
-        <v>73770</v>
+        <v>74005</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -4555,10 +4555,10 @@
         <v>256</v>
       </c>
       <c r="B258" s="2" t="n">
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="C258" t="n">
-        <v>73950</v>
+        <v>73770</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -4571,10 +4571,10 @@
         <v>257</v>
       </c>
       <c r="B259" s="2" t="n">
-        <v>44673</v>
+        <v>44677</v>
       </c>
       <c r="C259" t="n">
-        <v>75070</v>
+        <v>73950</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -4587,10 +4587,10 @@
         <v>258</v>
       </c>
       <c r="B260" s="2" t="n">
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="C260" t="n">
-        <v>74850</v>
+        <v>75070</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -4603,10 +4603,10 @@
         <v>259</v>
       </c>
       <c r="B261" s="2" t="n">
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="C261" t="n">
-        <v>74740</v>
+        <v>74850</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -4619,10 +4619,10 @@
         <v>260</v>
       </c>
       <c r="B262" s="2" t="n">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="C262" t="n">
-        <v>75575</v>
+        <v>74740</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -4635,10 +4635,10 @@
         <v>261</v>
       </c>
       <c r="B263" s="2" t="n">
-        <v>44666</v>
+        <v>44670</v>
       </c>
       <c r="C263" t="n">
-        <v>75385</v>
+        <v>75575</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -4651,10 +4651,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="2" t="n">
-        <v>44665</v>
+        <v>44666</v>
       </c>
       <c r="C264" t="n">
-        <v>74370</v>
+        <v>75385</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -4667,10 +4667,10 @@
         <v>263</v>
       </c>
       <c r="B265" s="2" t="n">
-        <v>44664</v>
+        <v>44665</v>
       </c>
       <c r="C265" t="n">
-        <v>74550</v>
+        <v>74370</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -4683,10 +4683,10 @@
         <v>264</v>
       </c>
       <c r="B266" s="2" t="n">
-        <v>44663</v>
+        <v>44664</v>
       </c>
       <c r="C266" t="n">
-        <v>73790</v>
+        <v>74550</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -4699,10 +4699,10 @@
         <v>265</v>
       </c>
       <c r="B267" s="2" t="n">
-        <v>44659</v>
+        <v>44663</v>
       </c>
       <c r="C267" t="n">
-        <v>73765</v>
+        <v>73790</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -4715,10 +4715,10 @@
         <v>266</v>
       </c>
       <c r="B268" s="2" t="n">
-        <v>44658</v>
+        <v>44659</v>
       </c>
       <c r="C268" t="n">
-        <v>73690</v>
+        <v>73765</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -4731,10 +4731,10 @@
         <v>267</v>
       </c>
       <c r="B269" s="2" t="n">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C269" t="n">
-        <v>74000</v>
+        <v>73690</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -4747,10 +4747,10 @@
         <v>268</v>
       </c>
       <c r="B270" s="2" t="n">
-        <v>44652</v>
+        <v>44657</v>
       </c>
       <c r="C270" t="n">
-        <v>73635</v>
+        <v>74000</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -4763,10 +4763,10 @@
         <v>269</v>
       </c>
       <c r="B271" s="2" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="C271" t="n">
-        <v>73575</v>
+        <v>73635</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -4779,10 +4779,10 @@
         <v>270</v>
       </c>
       <c r="B272" s="2" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="C272" t="n">
-        <v>73980</v>
+        <v>73575</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -4795,10 +4795,10 @@
         <v>271</v>
       </c>
       <c r="B273" s="2" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="C273" t="n">
-        <v>74100</v>
+        <v>73980</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -4811,10 +4811,10 @@
         <v>272</v>
       </c>
       <c r="B274" s="2" t="n">
-        <v>44645</v>
+        <v>44649</v>
       </c>
       <c r="C274" t="n">
-        <v>73775</v>
+        <v>74100</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -4827,10 +4827,10 @@
         <v>273</v>
       </c>
       <c r="B275" s="2" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="C275" t="n">
-        <v>73880</v>
+        <v>73775</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -4843,10 +4843,10 @@
         <v>274</v>
       </c>
       <c r="B276" s="2" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="C276" t="n">
-        <v>73410</v>
+        <v>73880</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -4859,10 +4859,10 @@
         <v>275</v>
       </c>
       <c r="B277" s="2" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="C277" t="n">
-        <v>73510</v>
+        <v>73410</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -4875,10 +4875,10 @@
         <v>276</v>
       </c>
       <c r="B278" s="2" t="n">
-        <v>44638</v>
+        <v>44642</v>
       </c>
       <c r="C278" t="n">
-        <v>73310</v>
+        <v>73510</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -4891,10 +4891,10 @@
         <v>277</v>
       </c>
       <c r="B279" s="2" t="n">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="C279" t="n">
-        <v>72740</v>
+        <v>73310</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -4907,10 +4907,10 @@
         <v>278</v>
       </c>
       <c r="B280" s="2" t="n">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="C280" t="n">
-        <v>72060</v>
+        <v>72740</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -4923,10 +4923,10 @@
         <v>279</v>
       </c>
       <c r="B281" s="2" t="n">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="C281" t="n">
-        <v>71790</v>
+        <v>72060</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -4939,10 +4939,10 @@
         <v>280</v>
       </c>
       <c r="B282" s="2" t="n">
-        <v>44631</v>
+        <v>44635</v>
       </c>
       <c r="C282" t="n">
-        <v>72170</v>
+        <v>71790</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -4955,10 +4955,10 @@
         <v>281</v>
       </c>
       <c r="B283" s="2" t="n">
-        <v>44630</v>
+        <v>44631</v>
       </c>
       <c r="C283" t="n">
-        <v>72080</v>
+        <v>72170</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -4971,10 +4971,10 @@
         <v>282</v>
       </c>
       <c r="B284" s="2" t="n">
-        <v>44624</v>
+        <v>44630</v>
       </c>
       <c r="C284" t="n">
-        <v>72930</v>
+        <v>72080</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>283</v>
       </c>
       <c r="B285" s="2" t="n">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="C285" t="n">
-        <v>72540</v>
+        <v>72930</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5003,10 +5003,10 @@
         <v>284</v>
       </c>
       <c r="B286" s="2" t="n">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="C286" t="n">
-        <v>71520</v>
+        <v>72540</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5019,10 +5019,10 @@
         <v>285</v>
       </c>
       <c r="B287" s="2" t="n">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="C287" t="n">
-        <v>70880</v>
+        <v>71520</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5035,10 +5035,10 @@
         <v>286</v>
       </c>
       <c r="B288" s="2" t="n">
-        <v>44617</v>
+        <v>44621</v>
       </c>
       <c r="C288" t="n">
-        <v>71010</v>
+        <v>70880</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5051,10 +5051,10 @@
         <v>287</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="C289" t="n">
-        <v>71170</v>
+        <v>71010</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5067,10 +5067,10 @@
         <v>288</v>
       </c>
       <c r="B290" s="2" t="n">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="C290" t="n">
-        <v>71140</v>
+        <v>71170</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5083,10 +5083,10 @@
         <v>289</v>
       </c>
       <c r="B291" s="2" t="n">
-        <v>44610</v>
+        <v>44614</v>
       </c>
       <c r="C291" t="n">
-        <v>71525</v>
+        <v>71140</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5099,10 +5099,10 @@
         <v>290</v>
       </c>
       <c r="B292" s="2" t="n">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="C292" t="n">
-        <v>71550</v>
+        <v>71525</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="2" t="n">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="C293" t="n">
         <v>71550</v>
@@ -5131,10 +5131,10 @@
         <v>292</v>
       </c>
       <c r="B294" s="2" t="n">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="C294" t="n">
-        <v>71090</v>
+        <v>71550</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5147,10 +5147,10 @@
         <v>293</v>
       </c>
       <c r="B295" s="2" t="n">
-        <v>44603</v>
+        <v>44607</v>
       </c>
       <c r="C295" t="n">
-        <v>72580</v>
+        <v>71090</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5163,10 +5163,10 @@
         <v>294</v>
       </c>
       <c r="B296" s="2" t="n">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="C296" t="n">
-        <v>72210</v>
+        <v>72580</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5179,10 +5179,10 @@
         <v>295</v>
       </c>
       <c r="B297" s="2" t="n">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="C297" t="n">
-        <v>70500</v>
+        <v>72210</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5195,10 +5195,10 @@
         <v>296</v>
       </c>
       <c r="B298" s="2" t="n">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="C298" t="n">
-        <v>70690</v>
+        <v>70500</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5211,10 +5211,10 @@
         <v>297</v>
       </c>
       <c r="B299" s="2" t="n">
-        <v>44589</v>
+        <v>44600</v>
       </c>
       <c r="C299" t="n">
-        <v>70480</v>
+        <v>70690</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5227,10 +5227,10 @@
         <v>298</v>
       </c>
       <c r="B300" s="2" t="n">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="C300" t="n">
-        <v>70400</v>
+        <v>70480</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5243,10 +5243,10 @@
         <v>299</v>
       </c>
       <c r="B301" s="2" t="n">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="C301" t="n">
-        <v>70270</v>
+        <v>70400</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5259,10 +5259,10 @@
         <v>300</v>
       </c>
       <c r="B302" s="2" t="n">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="C302" t="n">
-        <v>70040</v>
+        <v>70270</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5275,10 +5275,10 @@
         <v>301</v>
       </c>
       <c r="B303" s="2" t="n">
-        <v>44582</v>
+        <v>44586</v>
       </c>
       <c r="C303" t="n">
-        <v>71000</v>
+        <v>70040</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5291,10 +5291,10 @@
         <v>302</v>
       </c>
       <c r="B304" s="2" t="n">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="C304" t="n">
-        <v>70930</v>
+        <v>71000</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5307,10 +5307,10 @@
         <v>303</v>
       </c>
       <c r="B305" s="2" t="n">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="C305" t="n">
-        <v>70330</v>
+        <v>70930</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5323,10 +5323,10 @@
         <v>304</v>
       </c>
       <c r="B306" s="2" t="n">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="C306" t="n">
-        <v>70525</v>
+        <v>70330</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5339,10 +5339,10 @@
         <v>305</v>
       </c>
       <c r="B307" s="2" t="n">
-        <v>44575</v>
+        <v>44579</v>
       </c>
       <c r="C307" t="n">
-        <v>71570</v>
+        <v>70525</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5355,10 +5355,10 @@
         <v>306</v>
       </c>
       <c r="B308" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C308" t="n">
-        <v>72130</v>
+        <v>71570</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -5371,10 +5371,10 @@
         <v>307</v>
       </c>
       <c r="B309" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C309" t="n">
-        <v>70850</v>
+        <v>72130</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -5387,10 +5387,10 @@
         <v>308</v>
       </c>
       <c r="B310" s="2" t="n">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="C310" t="n">
-        <v>69900</v>
+        <v>70850</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -5403,10 +5403,10 @@
         <v>309</v>
       </c>
       <c r="B311" s="2" t="n">
-        <v>44561</v>
+        <v>44572</v>
       </c>
       <c r="C311" t="n">
-        <v>69910</v>
+        <v>69900</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -5419,10 +5419,10 @@
         <v>310</v>
       </c>
       <c r="B312" s="2" t="n">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="C312" t="n">
-        <v>70020</v>
+        <v>69910</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -5435,10 +5435,10 @@
         <v>311</v>
       </c>
       <c r="B313" s="2" t="n">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="C313" t="n">
-        <v>70060</v>
+        <v>70020</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -5451,10 +5451,10 @@
         <v>312</v>
       </c>
       <c r="B314" s="2" t="n">
-        <v>44558</v>
+        <v>44559</v>
       </c>
       <c r="C314" t="n">
-        <v>70270</v>
+        <v>70060</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -5467,10 +5467,10 @@
         <v>313</v>
       </c>
       <c r="B315" s="2" t="n">
-        <v>44554</v>
+        <v>44558</v>
       </c>
       <c r="C315" t="n">
-        <v>69840</v>
+        <v>70270</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -5483,10 +5483,10 @@
         <v>314</v>
       </c>
       <c r="B316" s="2" t="n">
-        <v>44553</v>
+        <v>44554</v>
       </c>
       <c r="C316" t="n">
-        <v>69850</v>
+        <v>69840</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -5499,10 +5499,10 @@
         <v>315</v>
       </c>
       <c r="B317" s="2" t="n">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="C317" t="n">
-        <v>69520</v>
+        <v>69850</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -5515,10 +5515,10 @@
         <v>316</v>
       </c>
       <c r="B318" s="2" t="n">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="C318" t="n">
-        <v>69385</v>
+        <v>69520</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -5531,10 +5531,10 @@
         <v>317</v>
       </c>
       <c r="B319" s="2" t="n">
-        <v>44547</v>
+        <v>44551</v>
       </c>
       <c r="C319" t="n">
-        <v>69525</v>
+        <v>69385</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -5547,10 +5547,10 @@
         <v>318</v>
       </c>
       <c r="B320" s="2" t="n">
-        <v>44546</v>
+        <v>44547</v>
       </c>
       <c r="C320" t="n">
-        <v>68570</v>
+        <v>69525</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -5563,10 +5563,10 @@
         <v>319</v>
       </c>
       <c r="B321" s="2" t="n">
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="C321" t="n">
-        <v>68875</v>
+        <v>68570</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -5579,10 +5579,10 @@
         <v>320</v>
       </c>
       <c r="B322" s="2" t="n">
-        <v>44544</v>
+        <v>44545</v>
       </c>
       <c r="C322" t="n">
-        <v>68900</v>
+        <v>68875</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -5595,10 +5595,10 @@
         <v>321</v>
       </c>
       <c r="B323" s="2" t="n">
-        <v>44540</v>
+        <v>44544</v>
       </c>
       <c r="C323" t="n">
-        <v>69750</v>
+        <v>68900</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -5611,10 +5611,10 @@
         <v>322</v>
       </c>
       <c r="B324" s="2" t="n">
-        <v>44539</v>
+        <v>44540</v>
       </c>
       <c r="C324" t="n">
-        <v>69980</v>
+        <v>69750</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -5627,10 +5627,10 @@
         <v>323</v>
       </c>
       <c r="B325" s="2" t="n">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="C325" t="n">
-        <v>69815</v>
+        <v>69980</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>324</v>
       </c>
       <c r="B326" s="2" t="n">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="C326" t="n">
-        <v>69760</v>
+        <v>69815</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -5659,10 +5659,10 @@
         <v>325</v>
       </c>
       <c r="B327" s="2" t="n">
-        <v>44533</v>
+        <v>44537</v>
       </c>
       <c r="C327" t="n">
-        <v>69830</v>
+        <v>69760</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -5675,10 +5675,10 @@
         <v>326</v>
       </c>
       <c r="B328" s="2" t="n">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="C328" t="n">
-        <v>69900</v>
+        <v>69830</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -5691,10 +5691,10 @@
         <v>327</v>
       </c>
       <c r="B329" s="2" t="n">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="C329" t="n">
-        <v>70180</v>
+        <v>69900</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -5707,10 +5707,10 @@
         <v>328</v>
       </c>
       <c r="B330" s="2" t="n">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="C330" t="n">
-        <v>70650</v>
+        <v>70180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -5723,10 +5723,10 @@
         <v>329</v>
       </c>
       <c r="B331" s="2" t="n">
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="C331" t="n">
-        <v>71610</v>
+        <v>70650</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -5739,10 +5739,10 @@
         <v>330</v>
       </c>
       <c r="B332" s="2" t="n">
-        <v>44525</v>
+        <v>44526</v>
       </c>
       <c r="C332" t="n">
-        <v>72330</v>
+        <v>71610</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -5755,10 +5755,10 @@
         <v>331</v>
       </c>
       <c r="B333" s="2" t="n">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="C333" t="n">
-        <v>71820</v>
+        <v>72330</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -5771,10 +5771,10 @@
         <v>332</v>
       </c>
       <c r="B334" s="2" t="n">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="C334" t="n">
-        <v>72510</v>
+        <v>71820</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -5787,10 +5787,10 @@
         <v>333</v>
       </c>
       <c r="B335" s="2" t="n">
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="C335" t="n">
-        <v>72250</v>
+        <v>72510</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -5803,10 +5803,10 @@
         <v>334</v>
       </c>
       <c r="B336" s="2" t="n">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="C336" t="n">
-        <v>70350</v>
+        <v>72250</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -5819,10 +5819,10 @@
         <v>335</v>
       </c>
       <c r="B337" s="2" t="n">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="C337" t="n">
-        <v>70955</v>
+        <v>70350</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -5835,10 +5835,10 @@
         <v>336</v>
       </c>
       <c r="B338" s="2" t="n">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="C338" t="n">
-        <v>71750</v>
+        <v>70955</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -5851,10 +5851,10 @@
         <v>337</v>
       </c>
       <c r="B339" s="2" t="n">
-        <v>44512</v>
+        <v>44516</v>
       </c>
       <c r="C339" t="n">
-        <v>71435</v>
+        <v>71750</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -5867,10 +5867,10 @@
         <v>338</v>
       </c>
       <c r="B340" s="2" t="n">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="C340" t="n">
-        <v>70780</v>
+        <v>71435</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -5883,10 +5883,10 @@
         <v>339</v>
       </c>
       <c r="B341" s="2" t="n">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="C341" t="n">
-        <v>70650</v>
+        <v>70780</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -5899,10 +5899,10 @@
         <v>340</v>
       </c>
       <c r="B342" s="2" t="n">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="C342" t="n">
-        <v>71110</v>
+        <v>70650</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -5915,10 +5915,10 @@
         <v>341</v>
       </c>
       <c r="B343" s="2" t="n">
-        <v>44504</v>
+        <v>44509</v>
       </c>
       <c r="C343" t="n">
-        <v>71270</v>
+        <v>71110</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -5931,10 +5931,10 @@
         <v>342</v>
       </c>
       <c r="B344" s="2" t="n">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="C344" t="n">
-        <v>70910</v>
+        <v>71270</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -5947,10 +5947,10 @@
         <v>343</v>
       </c>
       <c r="B345" s="2" t="n">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="C345" t="n">
-        <v>71180</v>
+        <v>70910</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -5963,10 +5963,10 @@
         <v>344</v>
       </c>
       <c r="B346" s="2" t="n">
-        <v>44498</v>
+        <v>44502</v>
       </c>
       <c r="C346" t="n">
-        <v>71575</v>
+        <v>71180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -5979,10 +5979,10 @@
         <v>345</v>
       </c>
       <c r="B347" s="2" t="n">
-        <v>44497</v>
+        <v>44498</v>
       </c>
       <c r="C347" t="n">
-        <v>70770</v>
+        <v>71575</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -5995,10 +5995,10 @@
         <v>346</v>
       </c>
       <c r="B348" s="2" t="n">
-        <v>44496</v>
+        <v>44497</v>
       </c>
       <c r="C348" t="n">
-        <v>72060</v>
+        <v>70770</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -6011,10 +6011,10 @@
         <v>347</v>
       </c>
       <c r="B349" s="2" t="n">
-        <v>44495</v>
+        <v>44496</v>
       </c>
       <c r="C349" t="n">
-        <v>72585</v>
+        <v>72060</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -6027,10 +6027,10 @@
         <v>348</v>
       </c>
       <c r="B350" s="2" t="n">
-        <v>44491</v>
+        <v>44495</v>
       </c>
       <c r="C350" t="n">
-        <v>73125</v>
+        <v>72585</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6043,10 +6043,10 @@
         <v>349</v>
       </c>
       <c r="B351" s="2" t="n">
-        <v>44490</v>
+        <v>44491</v>
       </c>
       <c r="C351" t="n">
-        <v>75190</v>
+        <v>73125</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -6059,10 +6059,10 @@
         <v>350</v>
       </c>
       <c r="B352" s="2" t="n">
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="C352" t="n">
-        <v>73430</v>
+        <v>75190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6075,10 +6075,10 @@
         <v>351</v>
       </c>
       <c r="B353" s="2" t="n">
-        <v>44488</v>
+        <v>44489</v>
       </c>
       <c r="C353" t="n">
-        <v>75750</v>
+        <v>73430</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -6091,10 +6091,10 @@
         <v>352</v>
       </c>
       <c r="B354" s="2" t="n">
-        <v>44484</v>
+        <v>44488</v>
       </c>
       <c r="C354" t="n">
-        <v>74060</v>
+        <v>75750</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6107,10 +6107,10 @@
         <v>353</v>
       </c>
       <c r="B355" s="2" t="n">
-        <v>44483</v>
+        <v>44484</v>
       </c>
       <c r="C355" t="n">
-        <v>72540</v>
+        <v>74060</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -6123,10 +6123,10 @@
         <v>354</v>
       </c>
       <c r="B356" s="2" t="n">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="C356" t="n">
-        <v>70160</v>
+        <v>72540</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -6139,10 +6139,10 @@
         <v>355</v>
       </c>
       <c r="B357" s="2" t="n">
-        <v>44481</v>
+        <v>44482</v>
       </c>
       <c r="C357" t="n">
-        <v>70320</v>
+        <v>70160</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -6155,10 +6155,10 @@
         <v>356</v>
       </c>
       <c r="B358" s="2" t="n">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="C358" t="n">
-        <v>69940</v>
+        <v>70320</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -6171,10 +6171,10 @@
         <v>357</v>
       </c>
       <c r="B359" s="2" t="n">
-        <v>44469</v>
+        <v>44477</v>
       </c>
       <c r="C359" t="n">
-        <v>68700</v>
+        <v>69940</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -6187,10 +6187,10 @@
         <v>358</v>
       </c>
       <c r="B360" s="2" t="n">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="C360" t="n">
-        <v>68965</v>
+        <v>68700</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -6203,10 +6203,10 @@
         <v>359</v>
       </c>
       <c r="B361" s="2" t="n">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="C361" t="n">
-        <v>69520</v>
+        <v>68965</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -6219,10 +6219,10 @@
         <v>360</v>
       </c>
       <c r="B362" s="2" t="n">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="C362" t="n">
-        <v>69375</v>
+        <v>69520</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -6235,10 +6235,10 @@
         <v>361</v>
       </c>
       <c r="B363" s="2" t="n">
-        <v>44462</v>
+        <v>44463</v>
       </c>
       <c r="C363" t="n">
-        <v>69040</v>
+        <v>69375</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -6251,10 +6251,10 @@
         <v>362</v>
       </c>
       <c r="B364" s="2" t="n">
-        <v>44461</v>
+        <v>44462</v>
       </c>
       <c r="C364" t="n">
-        <v>69075</v>
+        <v>69040</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -6267,10 +6267,10 @@
         <v>363</v>
       </c>
       <c r="B365" s="2" t="n">
-        <v>44456</v>
+        <v>44461</v>
       </c>
       <c r="C365" t="n">
-        <v>69810</v>
+        <v>69075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -6283,10 +6283,10 @@
         <v>364</v>
       </c>
       <c r="B366" s="2" t="n">
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="C366" t="n">
-        <v>70460</v>
+        <v>69810</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -6299,10 +6299,10 @@
         <v>365</v>
       </c>
       <c r="B367" s="2" t="n">
-        <v>44454</v>
+        <v>44455</v>
       </c>
       <c r="C367" t="n">
-        <v>69860</v>
+        <v>70460</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -6315,10 +6315,10 @@
         <v>366</v>
       </c>
       <c r="B368" s="2" t="n">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="C368" t="n">
-        <v>70520</v>
+        <v>69860</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -6331,10 +6331,10 @@
         <v>367</v>
       </c>
       <c r="B369" s="2" t="n">
-        <v>44449</v>
+        <v>44453</v>
       </c>
       <c r="C369" t="n">
-        <v>70035</v>
+        <v>70520</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -6347,10 +6347,10 @@
         <v>368</v>
       </c>
       <c r="B370" s="2" t="n">
-        <v>44448</v>
+        <v>44449</v>
       </c>
       <c r="C370" t="n">
-        <v>68850</v>
+        <v>70035</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -6363,10 +6363,10 @@
         <v>369</v>
       </c>
       <c r="B371" s="2" t="n">
-        <v>44447</v>
+        <v>44448</v>
       </c>
       <c r="C371" t="n">
-        <v>69250</v>
+        <v>68850</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -6379,10 +6379,10 @@
         <v>370</v>
       </c>
       <c r="B372" s="2" t="n">
-        <v>44446</v>
+        <v>44447</v>
       </c>
       <c r="C372" t="n">
-        <v>69580</v>
+        <v>69250</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -6395,10 +6395,10 @@
         <v>371</v>
       </c>
       <c r="B373" s="2" t="n">
-        <v>44442</v>
+        <v>44446</v>
       </c>
       <c r="C373" t="n">
-        <v>69575</v>
+        <v>69580</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -6411,10 +6411,10 @@
         <v>372</v>
       </c>
       <c r="B374" s="2" t="n">
-        <v>44441</v>
+        <v>44442</v>
       </c>
       <c r="C374" t="n">
-        <v>69460</v>
+        <v>69575</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -6427,10 +6427,10 @@
         <v>373</v>
       </c>
       <c r="B375" s="2" t="n">
-        <v>44440</v>
+        <v>44441</v>
       </c>
       <c r="C375" t="n">
-        <v>69940</v>
+        <v>69460</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -6443,10 +6443,10 @@
         <v>374</v>
       </c>
       <c r="B376" s="2" t="n">
-        <v>44439</v>
+        <v>44440</v>
       </c>
       <c r="C376" t="n">
-        <v>70315</v>
+        <v>69940</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -6459,10 +6459,10 @@
         <v>375</v>
       </c>
       <c r="B377" s="2" t="n">
-        <v>44435</v>
+        <v>44439</v>
       </c>
       <c r="C377" t="n">
-        <v>69185</v>
+        <v>70315</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -6475,10 +6475,10 @@
         <v>376</v>
       </c>
       <c r="B378" s="2" t="n">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="C378" t="n">
-        <v>69260</v>
+        <v>69185</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -6491,10 +6491,10 @@
         <v>377</v>
       </c>
       <c r="B379" s="2" t="n">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="C379" t="n">
-        <v>69600</v>
+        <v>69260</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -6507,10 +6507,10 @@
         <v>378</v>
       </c>
       <c r="B380" s="2" t="n">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="C380" t="n">
-        <v>68940</v>
+        <v>69600</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -6523,10 +6523,10 @@
         <v>379</v>
       </c>
       <c r="B381" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="C381" t="n">
-        <v>67260</v>
+        <v>68940</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -6539,10 +6539,10 @@
         <v>380</v>
       </c>
       <c r="B382" s="2" t="n">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="C382" t="n">
-        <v>67700</v>
+        <v>67260</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -6555,10 +6555,10 @@
         <v>381</v>
       </c>
       <c r="B383" s="2" t="n">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="C383" t="n">
-        <v>69240</v>
+        <v>67700</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -6571,10 +6571,10 @@
         <v>382</v>
       </c>
       <c r="B384" s="2" t="n">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="C384" t="n">
-        <v>70080</v>
+        <v>69240</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -6587,10 +6587,10 @@
         <v>383</v>
       </c>
       <c r="B385" s="2" t="n">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="C385" t="n">
-        <v>70240</v>
+        <v>70080</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -6603,10 +6603,10 @@
         <v>384</v>
       </c>
       <c r="B386" s="2" t="n">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="C386" t="n">
-        <v>70430</v>
+        <v>70240</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -6619,10 +6619,10 @@
         <v>385</v>
       </c>
       <c r="B387" s="2" t="n">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="C387" t="n">
-        <v>70000</v>
+        <v>70430</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -6635,10 +6635,10 @@
         <v>386</v>
       </c>
       <c r="B388" s="2" t="n">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="C388" t="n">
-        <v>69560</v>
+        <v>70000</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -6651,10 +6651,10 @@
         <v>387</v>
       </c>
       <c r="B389" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="C389" t="n">
-        <v>69800</v>
+        <v>69560</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -6667,10 +6667,10 @@
         <v>388</v>
       </c>
       <c r="B390" s="2" t="n">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="C390" t="n">
-        <v>69660</v>
+        <v>69800</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -6683,10 +6683,10 @@
         <v>389</v>
       </c>
       <c r="B391" s="2" t="n">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="C391" t="n">
-        <v>70290</v>
+        <v>69660</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -6699,10 +6699,10 @@
         <v>390</v>
       </c>
       <c r="B392" s="2" t="n">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="C392" t="n">
-        <v>71030</v>
+        <v>70290</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -6715,10 +6715,10 @@
         <v>391</v>
       </c>
       <c r="B393" s="2" t="n">
-        <v>44407</v>
+        <v>44411</v>
       </c>
       <c r="C393" t="n">
-        <v>71900</v>
+        <v>71030</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -6731,10 +6731,10 @@
         <v>392</v>
       </c>
       <c r="B394" s="2" t="n">
-        <v>44406</v>
+        <v>44407</v>
       </c>
       <c r="C394" t="n">
-        <v>71700</v>
+        <v>71900</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -6747,10 +6747,10 @@
         <v>393</v>
       </c>
       <c r="B395" s="2" t="n">
-        <v>44405</v>
+        <v>44406</v>
       </c>
       <c r="C395" t="n">
-        <v>72365</v>
+        <v>71700</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -6763,10 +6763,10 @@
         <v>394</v>
       </c>
       <c r="B396" s="2" t="n">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="C396" t="n">
-        <v>72520</v>
+        <v>72365</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -6779,10 +6779,10 @@
         <v>395</v>
       </c>
       <c r="B397" s="2" t="n">
-        <v>44400</v>
+        <v>44404</v>
       </c>
       <c r="C397" t="n">
-        <v>70090</v>
+        <v>72520</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -6795,10 +6795,10 @@
         <v>396</v>
       </c>
       <c r="B398" s="2" t="n">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="C398" t="n">
-        <v>69040</v>
+        <v>70090</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -6811,10 +6811,10 @@
         <v>397</v>
       </c>
       <c r="B399" s="2" t="n">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="C399" t="n">
-        <v>68600</v>
+        <v>69040</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -6827,10 +6827,10 @@
         <v>398</v>
       </c>
       <c r="B400" s="2" t="n">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="C400" t="n">
-        <v>68390</v>
+        <v>68600</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -6843,10 +6843,10 @@
         <v>399</v>
       </c>
       <c r="B401" s="2" t="n">
-        <v>44393</v>
+        <v>44397</v>
       </c>
       <c r="C401" t="n">
-        <v>69660</v>
+        <v>68390</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -6859,10 +6859,10 @@
         <v>400</v>
       </c>
       <c r="B402" s="2" t="n">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="C402" t="n">
-        <v>68830</v>
+        <v>69660</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -6875,10 +6875,10 @@
         <v>401</v>
       </c>
       <c r="B403" s="2" t="n">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="C403" t="n">
-        <v>68810</v>
+        <v>68830</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -6891,10 +6891,10 @@
         <v>402</v>
       </c>
       <c r="B404" s="2" t="n">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="C404" t="n">
-        <v>69370</v>
+        <v>68810</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -6907,10 +6907,10 @@
         <v>403</v>
       </c>
       <c r="B405" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="C405" t="n">
-        <v>68800</v>
+        <v>69370</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -6923,10 +6923,10 @@
         <v>404</v>
       </c>
       <c r="B406" s="2" t="n">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="C406" t="n">
-        <v>68900</v>
+        <v>68800</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -6939,10 +6939,10 @@
         <v>405</v>
       </c>
       <c r="B407" s="2" t="n">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="C407" t="n">
-        <v>68540</v>
+        <v>68900</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -6955,10 +6955,10 @@
         <v>406</v>
       </c>
       <c r="B408" s="2" t="n">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="C408" t="n">
-        <v>69700</v>
+        <v>68540</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -6971,10 +6971,10 @@
         <v>407</v>
       </c>
       <c r="B409" s="2" t="n">
-        <v>44379</v>
+        <v>44383</v>
       </c>
       <c r="C409" t="n">
-        <v>68050</v>
+        <v>69700</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -6987,10 +6987,10 @@
         <v>408</v>
       </c>
       <c r="B410" s="2" t="n">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="C410" t="n">
-        <v>68490</v>
+        <v>68050</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -7003,10 +7003,10 @@
         <v>409</v>
       </c>
       <c r="B411" s="2" t="n">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="C411" t="n">
-        <v>68380</v>
+        <v>68490</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7019,10 +7019,10 @@
         <v>410</v>
       </c>
       <c r="B412" s="2" t="n">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="C412" t="n">
-        <v>68050</v>
+        <v>68380</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7035,10 +7035,10 @@
         <v>411</v>
       </c>
       <c r="B413" s="2" t="n">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="C413" t="n">
-        <v>68825</v>
+        <v>68050</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7051,10 +7051,10 @@
         <v>412</v>
       </c>
       <c r="B414" s="2" t="n">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="C414" t="n">
-        <v>68600</v>
+        <v>68825</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7067,10 +7067,10 @@
         <v>413</v>
       </c>
       <c r="B415" s="2" t="n">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="C415" t="n">
-        <v>68270</v>
+        <v>68600</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7083,10 +7083,10 @@
         <v>414</v>
       </c>
       <c r="B416" s="2" t="n">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="C416" t="n">
-        <v>67400</v>
+        <v>68270</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7099,10 +7099,10 @@
         <v>415</v>
       </c>
       <c r="B417" s="2" t="n">
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="C417" t="n">
-        <v>67730</v>
+        <v>67400</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -7115,10 +7115,10 @@
         <v>416</v>
       </c>
       <c r="B418" s="2" t="n">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="C418" t="n">
-        <v>69170</v>
+        <v>67730</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -7131,10 +7131,10 @@
         <v>417</v>
       </c>
       <c r="B419" s="2" t="n">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="C419" t="n">
-        <v>69260</v>
+        <v>69170</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -7147,10 +7147,10 @@
         <v>418</v>
       </c>
       <c r="B420" s="2" t="n">
-        <v>44358</v>
+        <v>44363</v>
       </c>
       <c r="C420" t="n">
-        <v>70800</v>
+        <v>69260</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -7163,10 +7163,10 @@
         <v>419</v>
       </c>
       <c r="B421" s="2" t="n">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="C421" t="n">
-        <v>71210</v>
+        <v>70800</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -7179,10 +7179,10 @@
         <v>420</v>
       </c>
       <c r="B422" s="2" t="n">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="C422" t="n">
-        <v>71710</v>
+        <v>71210</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -7195,10 +7195,10 @@
         <v>421</v>
       </c>
       <c r="B423" s="2" t="n">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="C423" t="n">
-        <v>71310</v>
+        <v>71710</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -7211,10 +7211,10 @@
         <v>422</v>
       </c>
       <c r="B424" s="2" t="n">
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="C424" t="n">
-        <v>71090</v>
+        <v>71310</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -7227,10 +7227,10 @@
         <v>423</v>
       </c>
       <c r="B425" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="C425" t="n">
-        <v>72950</v>
+        <v>71090</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -7243,10 +7243,10 @@
         <v>424</v>
       </c>
       <c r="B426" s="2" t="n">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="C426" t="n">
-        <v>73580</v>
+        <v>72950</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -7259,10 +7259,10 @@
         <v>425</v>
       </c>
       <c r="B427" s="2" t="n">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="C427" t="n">
-        <v>73790</v>
+        <v>73580</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -7275,10 +7275,10 @@
         <v>426</v>
       </c>
       <c r="B428" s="2" t="n">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="C428" t="n">
-        <v>73380</v>
+        <v>73790</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -7291,10 +7291,10 @@
         <v>427</v>
       </c>
       <c r="B429" s="2" t="n">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="C429" t="n">
-        <v>71350</v>
+        <v>73380</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -7307,10 +7307,10 @@
         <v>428</v>
       </c>
       <c r="B430" s="2" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="C430" t="n">
-        <v>71720</v>
+        <v>71350</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -7323,10 +7323,10 @@
         <v>429</v>
       </c>
       <c r="B431" s="2" t="n">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="C431" t="n">
-        <v>72360</v>
+        <v>71720</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -7339,10 +7339,10 @@
         <v>430</v>
       </c>
       <c r="B432" s="2" t="n">
-        <v>44337</v>
+        <v>44341</v>
       </c>
       <c r="C432" t="n">
-        <v>71950</v>
+        <v>72360</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -7355,10 +7355,10 @@
         <v>431</v>
       </c>
       <c r="B433" s="2" t="n">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="C433" t="n">
-        <v>72525</v>
+        <v>71950</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -7371,10 +7371,10 @@
         <v>432</v>
       </c>
       <c r="B434" s="2" t="n">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="C434" t="n">
-        <v>74840</v>
+        <v>72525</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -7387,10 +7387,10 @@
         <v>433</v>
       </c>
       <c r="B435" s="2" t="n">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="C435" t="n">
-        <v>75720</v>
+        <v>74840</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -7403,10 +7403,10 @@
         <v>434</v>
       </c>
       <c r="B436" s="2" t="n">
-        <v>44330</v>
+        <v>44334</v>
       </c>
       <c r="C436" t="n">
-        <v>74760</v>
+        <v>75720</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -7419,10 +7419,10 @@
         <v>435</v>
       </c>
       <c r="B437" s="2" t="n">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="C437" t="n">
-        <v>75910</v>
+        <v>74760</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -7435,10 +7435,10 @@
         <v>436</v>
       </c>
       <c r="B438" s="2" t="n">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="C438" t="n">
-        <v>76150</v>
+        <v>75910</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -7451,10 +7451,10 @@
         <v>437</v>
       </c>
       <c r="B439" s="2" t="n">
-        <v>44323</v>
+        <v>44328</v>
       </c>
       <c r="C439" t="n">
-        <v>74200</v>
+        <v>76150</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -7467,10 +7467,10 @@
         <v>438</v>
       </c>
       <c r="B440" s="2" t="n">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="C440" t="n">
-        <v>72690</v>
+        <v>74200</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -7483,10 +7483,10 @@
         <v>439</v>
       </c>
       <c r="B441" s="2" t="n">
-        <v>44316</v>
+        <v>44322</v>
       </c>
       <c r="C441" t="n">
-        <v>71680</v>
+        <v>72690</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -7499,10 +7499,10 @@
         <v>440</v>
       </c>
       <c r="B442" s="2" t="n">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="C442" t="n">
-        <v>72335</v>
+        <v>71680</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -7515,10 +7515,10 @@
         <v>441</v>
       </c>
       <c r="B443" s="2" t="n">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="C443" t="n">
-        <v>70920</v>
+        <v>72335</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -7531,10 +7531,10 @@
         <v>442</v>
       </c>
       <c r="B444" s="2" t="n">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="C444" t="n">
-        <v>71940</v>
+        <v>70920</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -7547,10 +7547,10 @@
         <v>443</v>
       </c>
       <c r="B445" s="2" t="n">
-        <v>44309</v>
+        <v>44313</v>
       </c>
       <c r="C445" t="n">
-        <v>69120</v>
+        <v>71940</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -7563,10 +7563,10 @@
         <v>444</v>
       </c>
       <c r="B446" s="2" t="n">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="C446" t="n">
-        <v>68840</v>
+        <v>69120</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -7579,10 +7579,10 @@
         <v>445</v>
       </c>
       <c r="B447" s="2" t="n">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="C447" t="n">
-        <v>68550</v>
+        <v>68840</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -7595,10 +7595,10 @@
         <v>446</v>
       </c>
       <c r="B448" s="2" t="n">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="C448" t="n">
-        <v>68990</v>
+        <v>68550</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -7611,10 +7611,10 @@
         <v>447</v>
       </c>
       <c r="B449" s="2" t="n">
-        <v>44302</v>
+        <v>44306</v>
       </c>
       <c r="C449" t="n">
-        <v>68550</v>
+        <v>68990</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -7627,10 +7627,10 @@
         <v>448</v>
       </c>
       <c r="B450" s="2" t="n">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="C450" t="n">
-        <v>67260</v>
+        <v>68550</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -7643,10 +7643,10 @@
         <v>449</v>
       </c>
       <c r="B451" s="2" t="n">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="C451" t="n">
-        <v>66125</v>
+        <v>67260</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -7659,10 +7659,10 @@
         <v>450</v>
       </c>
       <c r="B452" s="2" t="n">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="C452" t="n">
-        <v>65720</v>
+        <v>66125</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -7675,10 +7675,10 @@
         <v>451</v>
       </c>
       <c r="B453" s="2" t="n">
-        <v>44295</v>
+        <v>44299</v>
       </c>
       <c r="C453" t="n">
-        <v>66750</v>
+        <v>65720</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -7691,10 +7691,10 @@
         <v>452</v>
       </c>
       <c r="B454" s="2" t="n">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="C454" t="n">
-        <v>66500</v>
+        <v>66750</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -7707,10 +7707,10 @@
         <v>453</v>
       </c>
       <c r="B455" s="2" t="n">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="C455" t="n">
-        <v>66890</v>
+        <v>66500</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -7723,10 +7723,10 @@
         <v>454</v>
       </c>
       <c r="B456" s="2" t="n">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="C456" t="n">
-        <v>67140</v>
+        <v>66890</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -7739,10 +7739,10 @@
         <v>455</v>
       </c>
       <c r="B457" s="2" t="n">
-        <v>44288</v>
+        <v>44292</v>
       </c>
       <c r="C457" t="n">
-        <v>66040</v>
+        <v>67140</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -7755,10 +7755,10 @@
         <v>456</v>
       </c>
       <c r="B458" s="2" t="n">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="C458" t="n">
-        <v>65490</v>
+        <v>66040</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -7771,10 +7771,10 @@
         <v>457</v>
       </c>
       <c r="B459" s="2" t="n">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="C459" t="n">
-        <v>65175</v>
+        <v>65490</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -7787,10 +7787,10 @@
         <v>458</v>
       </c>
       <c r="B460" s="2" t="n">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="C460" t="n">
-        <v>66190</v>
+        <v>65175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -7803,10 +7803,10 @@
         <v>459</v>
       </c>
       <c r="B461" s="2" t="n">
-        <v>44281</v>
+        <v>44285</v>
       </c>
       <c r="C461" t="n">
-        <v>65680</v>
+        <v>66190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -7819,10 +7819,10 @@
         <v>460</v>
       </c>
       <c r="B462" s="2" t="n">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="C462" t="n">
-        <v>65770</v>
+        <v>65680</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -7835,10 +7835,10 @@
         <v>461</v>
       </c>
       <c r="B463" s="2" t="n">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="C463" t="n">
-        <v>66075</v>
+        <v>65770</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -7851,10 +7851,10 @@
         <v>462</v>
       </c>
       <c r="B464" s="2" t="n">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="C464" t="n">
-        <v>66740</v>
+        <v>66075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -7867,10 +7867,10 @@
         <v>463</v>
       </c>
       <c r="B465" s="2" t="n">
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="C465" t="n">
-        <v>66550</v>
+        <v>66740</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -7883,10 +7883,10 @@
         <v>464</v>
       </c>
       <c r="B466" s="2" t="n">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="C466" t="n">
-        <v>67050</v>
+        <v>66550</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -7899,10 +7899,10 @@
         <v>465</v>
       </c>
       <c r="B467" s="2" t="n">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="C467" t="n">
-        <v>66200</v>
+        <v>67050</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -7915,10 +7915,10 @@
         <v>466</v>
       </c>
       <c r="B468" s="2" t="n">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="C468" t="n">
-        <v>67150</v>
+        <v>66200</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -7931,10 +7931,10 @@
         <v>467</v>
       </c>
       <c r="B469" s="2" t="n">
-        <v>44267</v>
+        <v>44271</v>
       </c>
       <c r="C469" t="n">
-        <v>66660</v>
+        <v>67150</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -7947,10 +7947,10 @@
         <v>468</v>
       </c>
       <c r="B470" s="2" t="n">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="C470" t="n">
-        <v>65580</v>
+        <v>66660</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -7963,10 +7963,10 @@
         <v>469</v>
       </c>
       <c r="B471" s="2" t="n">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="C471" t="n">
-        <v>65530</v>
+        <v>65580</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -7979,10 +7979,10 @@
         <v>470</v>
       </c>
       <c r="B472" s="2" t="n">
-        <v>44260</v>
+        <v>44265</v>
       </c>
       <c r="C472" t="n">
-        <v>64810</v>
+        <v>65530</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -7995,10 +7995,10 @@
         <v>471</v>
       </c>
       <c r="B473" s="2" t="n">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="C473" t="n">
-        <v>67020</v>
+        <v>64810</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -8011,10 +8011,10 @@
         <v>472</v>
       </c>
       <c r="B474" s="2" t="n">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="C474" t="n">
-        <v>67790</v>
+        <v>67020</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -8027,10 +8027,10 @@
         <v>473</v>
       </c>
       <c r="B475" s="2" t="n">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="C475" t="n">
-        <v>66140</v>
+        <v>67790</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -8043,10 +8043,10 @@
         <v>474</v>
       </c>
       <c r="B476" s="2" t="n">
-        <v>44253</v>
+        <v>44257</v>
       </c>
       <c r="C476" t="n">
-        <v>68410</v>
+        <v>66140</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -8059,10 +8059,10 @@
         <v>475</v>
       </c>
       <c r="B477" s="2" t="n">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="C477" t="n">
-        <v>69900</v>
+        <v>68410</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -8075,10 +8075,10 @@
         <v>476</v>
       </c>
       <c r="B478" s="2" t="n">
-        <v>44246</v>
+        <v>44252</v>
       </c>
       <c r="C478" t="n">
-        <v>63240</v>
+        <v>69900</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -8091,10 +8091,10 @@
         <v>477</v>
       </c>
       <c r="B479" s="2" t="n">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="C479" t="n">
-        <v>62690</v>
+        <v>63240</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -8107,10 +8107,10 @@
         <v>478</v>
       </c>
       <c r="B480" s="2" t="n">
-        <v>44237</v>
+        <v>44245</v>
       </c>
       <c r="C480" t="n">
-        <v>60230</v>
+        <v>62690</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -8123,10 +8123,10 @@
         <v>479</v>
       </c>
       <c r="B481" s="2" t="n">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="C481" t="n">
-        <v>59410</v>
+        <v>60230</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -8139,10 +8139,10 @@
         <v>480</v>
       </c>
       <c r="B482" s="2" t="n">
-        <v>44232</v>
+        <v>44236</v>
       </c>
       <c r="C482" t="n">
-        <v>58040</v>
+        <v>59410</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -8155,10 +8155,10 @@
         <v>481</v>
       </c>
       <c r="B483" s="2" t="n">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="C483" t="n">
-        <v>57825</v>
+        <v>58040</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -8171,10 +8171,10 @@
         <v>482</v>
       </c>
       <c r="B484" s="2" t="n">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="C484" t="n">
-        <v>57170</v>
+        <v>57825</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -8187,10 +8187,10 @@
         <v>483</v>
       </c>
       <c r="B485" s="2" t="n">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="C485" t="n">
-        <v>57700</v>
+        <v>57170</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -8203,10 +8203,10 @@
         <v>484</v>
       </c>
       <c r="B486" s="2" t="n">
-        <v>44225</v>
+        <v>44229</v>
       </c>
       <c r="C486" t="n">
-        <v>58180</v>
+        <v>57700</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -8219,10 +8219,10 @@
         <v>485</v>
       </c>
       <c r="B487" s="2" t="n">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="C487" t="n">
-        <v>57950</v>
+        <v>58180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -8235,10 +8235,10 @@
         <v>486</v>
       </c>
       <c r="B488" s="2" t="n">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="C488" t="n">
-        <v>58745</v>
+        <v>57950</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -8251,10 +8251,10 @@
         <v>487</v>
       </c>
       <c r="B489" s="2" t="n">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="C489" t="n">
-        <v>58820</v>
+        <v>58745</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -8267,10 +8267,10 @@
         <v>488</v>
       </c>
       <c r="B490" s="2" t="n">
-        <v>44218</v>
+        <v>44222</v>
       </c>
       <c r="C490" t="n">
-        <v>58920</v>
+        <v>58820</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -8283,10 +8283,10 @@
         <v>489</v>
       </c>
       <c r="B491" s="2" t="n">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="C491" t="n">
-        <v>59280</v>
+        <v>58920</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -8299,10 +8299,10 @@
         <v>490</v>
       </c>
       <c r="B492" s="2" t="n">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="C492" t="n">
-        <v>59025</v>
+        <v>59280</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -8315,10 +8315,10 @@
         <v>491</v>
       </c>
       <c r="B493" s="2" t="n">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="C493" t="n">
-        <v>59030</v>
+        <v>59025</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -8331,10 +8331,10 @@
         <v>492</v>
       </c>
       <c r="B494" s="2" t="n">
-        <v>44211</v>
+        <v>44215</v>
       </c>
       <c r="C494" t="n">
-        <v>59560</v>
+        <v>59030</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -8347,10 +8347,10 @@
         <v>493</v>
       </c>
       <c r="B495" s="2" t="n">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="C495" t="n">
-        <v>58675</v>
+        <v>59560</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -8363,10 +8363,10 @@
         <v>494</v>
       </c>
       <c r="B496" s="2" t="n">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="C496" t="n">
-        <v>58840</v>
+        <v>58675</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -8379,10 +8379,10 @@
         <v>495</v>
       </c>
       <c r="B497" s="2" t="n">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="C497" t="n">
-        <v>58225</v>
+        <v>58840</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -8395,10 +8395,10 @@
         <v>496</v>
       </c>
       <c r="B498" s="2" t="n">
-        <v>44196</v>
+        <v>44208</v>
       </c>
       <c r="C498" t="n">
-        <v>57810</v>
+        <v>58225</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -8411,10 +8411,10 @@
         <v>497</v>
       </c>
       <c r="B499" s="2" t="n">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="C499" t="n">
-        <v>58150</v>
+        <v>57810</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -8427,10 +8427,10 @@
         <v>498</v>
       </c>
       <c r="B500" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="C500" t="n">
-        <v>58450</v>
+        <v>58150</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -8443,10 +8443,10 @@
         <v>499</v>
       </c>
       <c r="B501" s="2" t="n">
-        <v>44190</v>
+        <v>44194</v>
       </c>
       <c r="C501" t="n">
-        <v>58180</v>
+        <v>58450</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -8459,10 +8459,10 @@
         <v>500</v>
       </c>
       <c r="B502" s="2" t="n">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="C502" t="n">
-        <v>58110</v>
+        <v>58180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -8475,10 +8475,10 @@
         <v>501</v>
       </c>
       <c r="B503" s="2" t="n">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="C503" t="n">
-        <v>57610</v>
+        <v>58110</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -8491,10 +8491,10 @@
         <v>502</v>
       </c>
       <c r="B504" s="2" t="n">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="C504" t="n">
-        <v>58550</v>
+        <v>57610</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -8507,10 +8507,10 @@
         <v>503</v>
       </c>
       <c r="B505" s="2" t="n">
-        <v>44183</v>
+        <v>44187</v>
       </c>
       <c r="C505" t="n">
-        <v>59090</v>
+        <v>58550</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -8523,10 +8523,10 @@
         <v>504</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="C506" t="n">
-        <v>58120</v>
+        <v>59090</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -8539,10 +8539,10 @@
         <v>505</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="C507" t="n">
-        <v>57850</v>
+        <v>58120</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -8555,10 +8555,10 @@
         <v>506</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="C508" t="n">
-        <v>57420</v>
+        <v>57850</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -8571,10 +8571,10 @@
         <v>507</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>44176</v>
+        <v>44180</v>
       </c>
       <c r="C509" t="n">
-        <v>58285</v>
+        <v>57420</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -8587,10 +8587,10 @@
         <v>508</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44175</v>
+        <v>44176</v>
       </c>
       <c r="C510" t="n">
-        <v>57010</v>
+        <v>58285</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -8603,10 +8603,10 @@
         <v>509</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="C511" t="n">
-        <v>57270</v>
+        <v>57010</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -8619,10 +8619,10 @@
         <v>510</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="C512" t="n">
-        <v>57000</v>
+        <v>57270</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -8635,10 +8635,10 @@
         <v>511</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44169</v>
+        <v>44173</v>
       </c>
       <c r="C513" t="n">
-        <v>57290</v>
+        <v>57000</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -8651,10 +8651,10 @@
         <v>512</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44168</v>
+        <v>44169</v>
       </c>
       <c r="C514" t="n">
-        <v>57300</v>
+        <v>57290</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -8667,10 +8667,10 @@
         <v>513</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="C515" t="n">
-        <v>57280</v>
+        <v>57300</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -8683,10 +8683,10 @@
         <v>514</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="C516" t="n">
-        <v>57375</v>
+        <v>57280</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -8699,10 +8699,10 @@
         <v>515</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44162</v>
+        <v>44166</v>
       </c>
       <c r="C517" t="n">
-        <v>55685</v>
+        <v>57375</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -8715,10 +8715,10 @@
         <v>516</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="C518" t="n">
-        <v>55120</v>
+        <v>55685</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -8731,10 +8731,10 @@
         <v>517</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="C519" t="n">
-        <v>54890</v>
+        <v>55120</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -8747,10 +8747,10 @@
         <v>518</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="C520" t="n">
-        <v>54110</v>
+        <v>54890</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -8763,10 +8763,10 @@
         <v>519</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44155</v>
+        <v>44159</v>
       </c>
       <c r="C521" t="n">
-        <v>53220</v>
+        <v>54110</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -8779,10 +8779,10 @@
         <v>520</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="C522" t="n">
-        <v>52820</v>
+        <v>53220</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -8795,10 +8795,10 @@
         <v>521</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="C523" t="n">
-        <v>52740</v>
+        <v>52820</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -8811,10 +8811,10 @@
         <v>522</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="C524" t="n">
-        <v>53220</v>
+        <v>52740</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -8827,10 +8827,10 @@
         <v>523</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="C525" t="n">
-        <v>52025</v>
+        <v>53220</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -8843,10 +8843,10 @@
         <v>524</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="C526" t="n">
-        <v>51880</v>
+        <v>52025</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -8859,10 +8859,10 @@
         <v>525</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="C527" t="n">
-        <v>51990</v>
+        <v>51880</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -8875,10 +8875,10 @@
         <v>526</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="C528" t="n">
-        <v>52120</v>
+        <v>51990</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -8891,10 +8891,10 @@
         <v>527</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44141</v>
+        <v>44145</v>
       </c>
       <c r="C529" t="n">
-        <v>51640</v>
+        <v>52120</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -8907,10 +8907,10 @@
         <v>528</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44139</v>
+        <v>44141</v>
       </c>
       <c r="C530" t="n">
-        <v>51680</v>
+        <v>51640</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -8923,10 +8923,10 @@
         <v>529</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C531" t="n">
-        <v>51750</v>
+        <v>51680</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -8939,10 +8939,10 @@
         <v>530</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44134</v>
+        <v>44138</v>
       </c>
       <c r="C532" t="n">
-        <v>51530</v>
+        <v>51750</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -8955,10 +8955,10 @@
         <v>531</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="C533" t="n">
-        <v>51585</v>
+        <v>51530</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -8971,10 +8971,10 @@
         <v>532</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="C534" t="n">
-        <v>51730</v>
+        <v>51585</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -8987,10 +8987,10 @@
         <v>533</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="C535" t="n">
-        <v>51540</v>
+        <v>51730</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -9003,10 +9003,10 @@
         <v>534</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44127</v>
+        <v>44131</v>
       </c>
       <c r="C536" t="n">
-        <v>52210</v>
+        <v>51540</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -9019,10 +9019,10 @@
         <v>535</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="C537" t="n">
-        <v>52370</v>
+        <v>52210</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -9035,10 +9035,10 @@
         <v>536</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="C538" t="n">
-        <v>52250</v>
+        <v>52370</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -9051,10 +9051,10 @@
         <v>537</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="C539" t="n">
-        <v>51450</v>
+        <v>52250</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -9067,10 +9067,10 @@
         <v>538</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44120</v>
+        <v>44124</v>
       </c>
       <c r="C540" t="n">
-        <v>51800</v>
+        <v>51450</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -9083,10 +9083,10 @@
         <v>539</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="C541" t="n">
-        <v>51370</v>
+        <v>51800</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -9099,10 +9099,10 @@
         <v>540</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="C542" t="n">
-        <v>51470</v>
+        <v>51370</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -9115,10 +9115,10 @@
         <v>541</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="C543" t="n">
-        <v>51540</v>
+        <v>51470</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -9131,10 +9131,10 @@
         <v>542</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44113</v>
+        <v>44117</v>
       </c>
       <c r="C544" t="n">
-        <v>51565</v>
+        <v>51540</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -9147,10 +9147,10 @@
         <v>543</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44104</v>
+        <v>44113</v>
       </c>
       <c r="C545" t="n">
-        <v>51185</v>
+        <v>51565</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -9163,10 +9163,10 @@
         <v>544</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C546" t="n">
-        <v>51110</v>
+        <v>51185</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -9179,10 +9179,10 @@
         <v>545</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44099</v>
+        <v>44103</v>
       </c>
       <c r="C547" t="n">
-        <v>50890</v>
+        <v>51110</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -9195,10 +9195,10 @@
         <v>546</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C548" t="n">
-        <v>50745</v>
+        <v>50890</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -9211,10 +9211,10 @@
         <v>547</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C549" t="n">
-        <v>51620</v>
+        <v>50745</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -9227,10 +9227,10 @@
         <v>548</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C550" t="n">
-        <v>51920</v>
+        <v>51620</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -9243,10 +9243,10 @@
         <v>549</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44092</v>
+        <v>44096</v>
       </c>
       <c r="C551" t="n">
-        <v>52210</v>
+        <v>51920</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -9259,10 +9259,10 @@
         <v>550</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C552" t="n">
-        <v>51455</v>
+        <v>52210</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -9275,10 +9275,10 @@
         <v>551</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C553" t="n">
-        <v>51900</v>
+        <v>51455</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -9291,10 +9291,10 @@
         <v>552</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C554" t="n">
-        <v>52150</v>
+        <v>51900</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -9307,10 +9307,10 @@
         <v>553</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44085</v>
+        <v>44089</v>
       </c>
       <c r="C555" t="n">
-        <v>51535</v>
+        <v>52150</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -9323,10 +9323,10 @@
         <v>554</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C556" t="n">
-        <v>52130</v>
+        <v>51535</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -9339,10 +9339,10 @@
         <v>555</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C557" t="n">
-        <v>52065</v>
+        <v>52130</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -9355,10 +9355,10 @@
         <v>556</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C558" t="n">
-        <v>52520</v>
+        <v>52065</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -9371,10 +9371,10 @@
         <v>557</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44078</v>
+        <v>44082</v>
       </c>
       <c r="C559" t="n">
-        <v>51495</v>
+        <v>52520</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -9387,10 +9387,10 @@
         <v>558</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C560" t="n">
-        <v>52140</v>
+        <v>51495</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -9403,10 +9403,10 @@
         <v>559</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="C561" t="n">
-        <v>51935</v>
+        <v>52140</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -9419,10 +9419,10 @@
         <v>560</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44075</v>
+        <v>44076</v>
       </c>
       <c r="C562" t="n">
-        <v>52390</v>
+        <v>51935</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -9435,10 +9435,10 @@
         <v>561</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44071</v>
+        <v>44075</v>
       </c>
       <c r="C563" t="n">
-        <v>51800</v>
+        <v>52390</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -9451,10 +9451,10 @@
         <v>562</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="C564" t="n">
-        <v>51420</v>
+        <v>51800</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -9467,10 +9467,10 @@
         <v>563</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44069</v>
+        <v>44070</v>
       </c>
       <c r="C565" t="n">
-        <v>51380</v>
+        <v>51420</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -9483,10 +9483,10 @@
         <v>564</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44068</v>
+        <v>44069</v>
       </c>
       <c r="C566" t="n">
-        <v>51370</v>
+        <v>51380</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -9499,10 +9499,10 @@
         <v>565</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44064</v>
+        <v>44068</v>
       </c>
       <c r="C567" t="n">
-        <v>52065</v>
+        <v>51370</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -9515,10 +9515,10 @@
         <v>566</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="C568" t="n">
-        <v>52200</v>
+        <v>52065</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -9531,10 +9531,10 @@
         <v>567</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44062</v>
+        <v>44063</v>
       </c>
       <c r="C569" t="n">
-        <v>52300</v>
+        <v>52200</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -9547,10 +9547,10 @@
         <v>568</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="C570" t="n">
-        <v>51135</v>
+        <v>52300</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -9563,10 +9563,10 @@
         <v>569</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44057</v>
+        <v>44061</v>
       </c>
       <c r="C571" t="n">
-        <v>50040</v>
+        <v>51135</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -9579,10 +9579,10 @@
         <v>570</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44056</v>
+        <v>44057</v>
       </c>
       <c r="C572" t="n">
-        <v>50530</v>
+        <v>50040</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -9595,10 +9595,10 @@
         <v>571</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44055</v>
+        <v>44056</v>
       </c>
       <c r="C573" t="n">
-        <v>49980</v>
+        <v>50530</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -9611,10 +9611,10 @@
         <v>572</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44054</v>
+        <v>44055</v>
       </c>
       <c r="C574" t="n">
-        <v>50790</v>
+        <v>49980</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -9627,10 +9627,10 @@
         <v>573</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44050</v>
+        <v>44054</v>
       </c>
       <c r="C575" t="n">
-        <v>51440</v>
+        <v>50790</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -9643,10 +9643,10 @@
         <v>574</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="C576" t="n">
-        <v>51385</v>
+        <v>51440</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -9659,10 +9659,10 @@
         <v>575</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="C577" t="n">
-        <v>51370</v>
+        <v>51385</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -9675,10 +9675,10 @@
         <v>576</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44047</v>
+        <v>44048</v>
       </c>
       <c r="C578" t="n">
-        <v>51675</v>
+        <v>51370</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -9691,10 +9691,10 @@
         <v>577</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44043</v>
+        <v>44047</v>
       </c>
       <c r="C579" t="n">
-        <v>51850</v>
+        <v>51675</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -9707,10 +9707,10 @@
         <v>578</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44042</v>
+        <v>44043</v>
       </c>
       <c r="C580" t="n">
-        <v>51890</v>
+        <v>51850</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -9723,10 +9723,10 @@
         <v>579</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="C581" t="n">
-        <v>51830</v>
+        <v>51890</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -9739,10 +9739,10 @@
         <v>580</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44040</v>
+        <v>44041</v>
       </c>
       <c r="C582" t="n">
-        <v>51850</v>
+        <v>51830</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -9755,10 +9755,10 @@
         <v>581</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44036</v>
+        <v>44040</v>
       </c>
       <c r="C583" t="n">
-        <v>51930</v>
+        <v>51850</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -9771,10 +9771,10 @@
         <v>582</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="C584" t="n">
-        <v>51875</v>
+        <v>51930</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -9787,10 +9787,10 @@
         <v>583</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44034</v>
+        <v>44035</v>
       </c>
       <c r="C585" t="n">
-        <v>52600</v>
+        <v>51875</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -9803,10 +9803,10 @@
         <v>584</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44033</v>
+        <v>44034</v>
       </c>
       <c r="C586" t="n">
-        <v>51935</v>
+        <v>52600</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -9819,10 +9819,10 @@
         <v>585</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44029</v>
+        <v>44033</v>
       </c>
       <c r="C587" t="n">
-        <v>51685</v>
+        <v>51935</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -9835,10 +9835,10 @@
         <v>586</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>44028</v>
+        <v>44029</v>
       </c>
       <c r="C588" t="n">
-        <v>51240</v>
+        <v>51685</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -9851,10 +9851,10 @@
         <v>587</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="C589" t="n">
-        <v>52435</v>
+        <v>51240</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -9867,10 +9867,10 @@
         <v>588</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="C590" t="n">
-        <v>52150</v>
+        <v>52435</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -9883,10 +9883,10 @@
         <v>589</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>44022</v>
+        <v>44026</v>
       </c>
       <c r="C591" t="n">
-        <v>50600</v>
+        <v>52150</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -9899,10 +9899,10 @@
         <v>590</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="C592" t="n">
-        <v>50575</v>
+        <v>50600</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -9915,10 +9915,10 @@
         <v>591</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="C593" t="n">
-        <v>49845</v>
+        <v>50575</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -9931,10 +9931,10 @@
         <v>592</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="C594" t="n">
-        <v>49610</v>
+        <v>49845</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -9947,10 +9947,10 @@
         <v>593</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>44015</v>
+        <v>44019</v>
       </c>
       <c r="C595" t="n">
-        <v>49260</v>
+        <v>49610</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -9963,10 +9963,10 @@
         <v>594</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="C596" t="n">
-        <v>49460</v>
+        <v>49260</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -9979,10 +9979,10 @@
         <v>595</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="C597" t="n">
-        <v>49450</v>
+        <v>49460</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -9995,10 +9995,10 @@
         <v>596</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="C598" t="n">
-        <v>48930</v>
+        <v>49450</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -10011,10 +10011,10 @@
         <v>597</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>44006</v>
+        <v>44012</v>
       </c>
       <c r="C599" t="n">
-        <v>48160</v>
+        <v>48930</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -10027,10 +10027,10 @@
         <v>598</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="C600" t="n">
-        <v>47880</v>
+        <v>48160</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -10043,10 +10043,10 @@
         <v>599</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>44001</v>
+        <v>44005</v>
       </c>
       <c r="C601" t="n">
-        <v>47475</v>
+        <v>47880</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -10059,10 +10059,10 @@
         <v>600</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="C602" t="n">
-        <v>47110</v>
+        <v>47475</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -10075,10 +10075,10 @@
         <v>601</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="C603" t="n">
-        <v>46910</v>
+        <v>47110</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -10091,10 +10091,10 @@
         <v>602</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="C604" t="n">
-        <v>47080</v>
+        <v>46910</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -10107,10 +10107,10 @@
         <v>603</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>43994</v>
+        <v>43998</v>
       </c>
       <c r="C605" t="n">
-        <v>46760</v>
+        <v>47080</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -10123,10 +10123,10 @@
         <v>604</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="C606" t="n">
-        <v>47425</v>
+        <v>46760</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -10139,10 +10139,10 @@
         <v>605</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="C607" t="n">
-        <v>46855</v>
+        <v>47425</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -10155,10 +10155,10 @@
         <v>606</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="C608" t="n">
-        <v>46355</v>
+        <v>46855</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -10171,10 +10171,10 @@
         <v>607</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>43987</v>
+        <v>43991</v>
       </c>
       <c r="C609" t="n">
-        <v>44990</v>
+        <v>46355</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -10187,10 +10187,10 @@
         <v>608</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="C610" t="n">
-        <v>44850</v>
+        <v>44990</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -10203,10 +10203,10 @@
         <v>609</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="C611" t="n">
-        <v>45110</v>
+        <v>44850</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -10219,10 +10219,10 @@
         <v>610</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="C612" t="n">
-        <v>44895</v>
+        <v>45110</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -10235,10 +10235,10 @@
         <v>611</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>43980</v>
+        <v>43984</v>
       </c>
       <c r="C613" t="n">
-        <v>44135</v>
+        <v>44895</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -10251,10 +10251,10 @@
         <v>612</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="C614" t="n">
-        <v>44030</v>
+        <v>44135</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -10267,10 +10267,10 @@
         <v>613</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="C615" t="n">
-        <v>44170</v>
+        <v>44030</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -10283,10 +10283,10 @@
         <v>614</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="C616" t="n">
-        <v>44030</v>
+        <v>44170</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -10299,10 +10299,10 @@
         <v>615</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>43973</v>
+        <v>43977</v>
       </c>
       <c r="C617" t="n">
-        <v>43770</v>
+        <v>44030</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -10315,10 +10315,10 @@
         <v>616</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="C618" t="n">
-        <v>44620</v>
+        <v>43770</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -10331,10 +10331,10 @@
         <v>617</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="C619" t="n">
-        <v>44040</v>
+        <v>44620</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -10347,10 +10347,10 @@
         <v>618</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="C620" t="n">
-        <v>43995</v>
+        <v>44040</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -10363,10 +10363,10 @@
         <v>619</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>43966</v>
+        <v>43970</v>
       </c>
       <c r="C621" t="n">
-        <v>43325</v>
+        <v>43995</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -10379,10 +10379,10 @@
         <v>620</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="C622" t="n">
-        <v>43150</v>
+        <v>43325</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -10395,10 +10395,10 @@
         <v>621</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="C623" t="n">
-        <v>43080</v>
+        <v>43150</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -10411,10 +10411,10 @@
         <v>622</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>43959</v>
+        <v>43964</v>
       </c>
       <c r="C624" t="n">
-        <v>43600</v>
+        <v>43080</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -10427,10 +10427,10 @@
         <v>623</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="C625" t="n">
-        <v>43030</v>
+        <v>43600</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>624</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>43951</v>
+        <v>43958</v>
       </c>
       <c r="C626" t="n">
         <v>43030</v>
@@ -10459,10 +10459,10 @@
         <v>625</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C627" t="n">
-        <v>42810</v>
+        <v>43030</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -10475,10 +10475,10 @@
         <v>626</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="C628" t="n">
-        <v>42480</v>
+        <v>42810</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -10491,10 +10491,10 @@
         <v>627</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>43945</v>
+        <v>43949</v>
       </c>
       <c r="C629" t="n">
-        <v>42120</v>
+        <v>42480</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -10507,10 +10507,10 @@
         <v>628</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="C630" t="n">
-        <v>41980</v>
+        <v>42120</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -10523,10 +10523,10 @@
         <v>629</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="C631" t="n">
-        <v>40995</v>
+        <v>41980</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -10539,10 +10539,10 @@
         <v>630</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="C632" t="n">
-        <v>42060</v>
+        <v>40995</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -10555,10 +10555,10 @@
         <v>631</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>43938</v>
+        <v>43942</v>
       </c>
       <c r="C633" t="n">
-        <v>42470</v>
+        <v>42060</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -10571,10 +10571,10 @@
         <v>632</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="C634" t="n">
-        <v>41775</v>
+        <v>42470</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -10587,10 +10587,10 @@
         <v>633</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="C635" t="n">
-        <v>41860</v>
+        <v>41775</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -10603,10 +10603,10 @@
         <v>634</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="C636" t="n">
-        <v>41970</v>
+        <v>41860</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -10619,10 +10619,10 @@
         <v>635</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>43931</v>
+        <v>43935</v>
       </c>
       <c r="C637" t="n">
-        <v>40990</v>
+        <v>41970</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -10635,10 +10635,10 @@
         <v>636</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="C638" t="n">
-        <v>40950</v>
+        <v>40990</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -10651,10 +10651,10 @@
         <v>637</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="C639" t="n">
-        <v>40765</v>
+        <v>40950</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -10667,10 +10667,10 @@
         <v>638</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="C640" t="n">
-        <v>40840</v>
+        <v>40765</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -10683,10 +10683,10 @@
         <v>639</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>43917</v>
+        <v>43928</v>
       </c>
       <c r="C641" t="n">
-        <v>38865</v>
+        <v>40840</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -10699,10 +10699,10 @@
         <v>640</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="C642" t="n">
-        <v>38970</v>
+        <v>38865</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -10715,10 +10715,10 @@
         <v>641</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="C643" t="n">
-        <v>38750</v>
+        <v>38970</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -10731,10 +10731,10 @@
         <v>642</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="C644" t="n">
-        <v>37890</v>
+        <v>38750</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -10747,10 +10747,10 @@
         <v>643</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="C645" t="n">
-        <v>38290</v>
+        <v>37890</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -10763,10 +10763,10 @@
         <v>644</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="C646" t="n">
-        <v>37545</v>
+        <v>38290</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -10779,10 +10779,10 @@
         <v>645</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="C647" t="n">
-        <v>41400</v>
+        <v>37545</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -10795,10 +10795,10 @@
         <v>646</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="C648" t="n">
-        <v>42145</v>
+        <v>41400</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -10811,10 +10811,10 @@
         <v>647</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>43903</v>
+        <v>43907</v>
       </c>
       <c r="C649" t="n">
-        <v>42755</v>
+        <v>42145</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -10827,10 +10827,10 @@
         <v>648</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="C650" t="n">
-        <v>43185</v>
+        <v>42755</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -10843,10 +10843,10 @@
         <v>649</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="C651" t="n">
-        <v>44280</v>
+        <v>43185</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -10859,10 +10859,10 @@
         <v>650</v>
       </c>
       <c r="B652" s="2" t="n">
-        <v>43896</v>
+        <v>43901</v>
       </c>
       <c r="C652" t="n">
-        <v>44725</v>
+        <v>44280</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -10875,10 +10875,10 @@
         <v>651</v>
       </c>
       <c r="B653" s="2" t="n">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="C653" t="n">
-        <v>45055</v>
+        <v>44725</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -10891,10 +10891,10 @@
         <v>652</v>
       </c>
       <c r="B654" s="2" t="n">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="C654" t="n">
-        <v>45005</v>
+        <v>45055</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -10907,10 +10907,10 @@
         <v>653</v>
       </c>
       <c r="B655" s="2" t="n">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="C655" t="n">
-        <v>45345</v>
+        <v>45005</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -10923,10 +10923,10 @@
         <v>654</v>
       </c>
       <c r="B656" s="2" t="n">
-        <v>43889</v>
+        <v>43893</v>
       </c>
       <c r="C656" t="n">
-        <v>44630</v>
+        <v>45345</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -10939,10 +10939,10 @@
         <v>655</v>
       </c>
       <c r="B657" s="2" t="n">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="C657" t="n">
-        <v>45190</v>
+        <v>44630</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -10955,10 +10955,10 @@
         <v>656</v>
       </c>
       <c r="B658" s="2" t="n">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="C658" t="n">
-        <v>45360</v>
+        <v>45190</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -10971,10 +10971,10 @@
         <v>657</v>
       </c>
       <c r="B659" s="2" t="n">
-        <v>43882</v>
+        <v>43887</v>
       </c>
       <c r="C659" t="n">
-        <v>45910</v>
+        <v>45360</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -10987,10 +10987,10 @@
         <v>658</v>
       </c>
       <c r="B660" s="2" t="n">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="C660" t="n">
-        <v>46010</v>
+        <v>45910</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -11003,10 +11003,10 @@
         <v>659</v>
       </c>
       <c r="B661" s="2" t="n">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="C661" t="n">
-        <v>45990</v>
+        <v>46010</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -11019,10 +11019,10 @@
         <v>660</v>
       </c>
       <c r="B662" s="2" t="n">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="C662" t="n">
-        <v>45955</v>
+        <v>45990</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -11035,10 +11035,10 @@
         <v>661</v>
       </c>
       <c r="B663" s="2" t="n">
-        <v>43875</v>
+        <v>43879</v>
       </c>
       <c r="C663" t="n">
-        <v>45655</v>
+        <v>45955</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -11051,10 +11051,10 @@
         <v>662</v>
       </c>
       <c r="B664" s="2" t="n">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="C664" t="n">
-        <v>45490</v>
+        <v>45655</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -11067,10 +11067,10 @@
         <v>663</v>
       </c>
       <c r="B665" s="2" t="n">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="C665" t="n">
-        <v>45385</v>
+        <v>45490</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -11083,10 +11083,10 @@
         <v>664</v>
       </c>
       <c r="B666" s="2" t="n">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="C666" t="n">
-        <v>45370</v>
+        <v>45385</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -11099,10 +11099,10 @@
         <v>665</v>
       </c>
       <c r="B667" s="2" t="n">
-        <v>43868</v>
+        <v>43872</v>
       </c>
       <c r="C667" t="n">
-        <v>45590</v>
+        <v>45370</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -11115,10 +11115,10 @@
         <v>666</v>
       </c>
       <c r="B668" s="2" t="n">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="C668" t="n">
-        <v>45795</v>
+        <v>45590</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -11131,10 +11131,10 @@
         <v>667</v>
       </c>
       <c r="B669" s="2" t="n">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="C669" t="n">
-        <v>45230</v>
+        <v>45795</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -11147,10 +11147,10 @@
         <v>668</v>
       </c>
       <c r="B670" s="2" t="n">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="C670" t="n">
-        <v>44940</v>
+        <v>45230</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -11163,10 +11163,10 @@
         <v>669</v>
       </c>
       <c r="B671" s="2" t="n">
-        <v>43853</v>
+        <v>43865</v>
       </c>
       <c r="C671" t="n">
-        <v>47995</v>
+        <v>44940</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -11179,10 +11179,10 @@
         <v>670</v>
       </c>
       <c r="B672" s="2" t="n">
-        <v>43852</v>
+        <v>43853</v>
       </c>
       <c r="C672" t="n">
-        <v>48235</v>
+        <v>47995</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -11195,10 +11195,10 @@
         <v>671</v>
       </c>
       <c r="B673" s="2" t="n">
-        <v>43851</v>
+        <v>43852</v>
       </c>
       <c r="C673" t="n">
-        <v>48425</v>
+        <v>48235</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -11211,10 +11211,10 @@
         <v>672</v>
       </c>
       <c r="B674" s="2" t="n">
-        <v>43847</v>
+        <v>43851</v>
       </c>
       <c r="C674" t="n">
-        <v>48930</v>
+        <v>48425</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -11227,10 +11227,10 @@
         <v>673</v>
       </c>
       <c r="B675" s="2" t="n">
-        <v>43846</v>
+        <v>43847</v>
       </c>
       <c r="C675" t="n">
-        <v>48950</v>
+        <v>48930</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -11243,10 +11243,10 @@
         <v>674</v>
       </c>
       <c r="B676" s="2" t="n">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="C676" t="n">
-        <v>49060</v>
+        <v>48950</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -11259,10 +11259,10 @@
         <v>675</v>
       </c>
       <c r="B677" s="2" t="n">
-        <v>43844</v>
+        <v>43845</v>
       </c>
       <c r="C677" t="n">
-        <v>48990</v>
+        <v>49060</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -11275,12 +11275,28 @@
         <v>676</v>
       </c>
       <c r="B678" s="2" t="n">
+        <v>43844</v>
+      </c>
+      <c r="C678" t="n">
+        <v>48990</v>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>Yuan/MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="B679" s="2" t="n">
         <v>43840</v>
       </c>
-      <c r="C678" t="n">
+      <c r="C679" t="n">
         <v>48605</v>
       </c>
-      <c r="D678" t="inlineStr">
+      <c r="D679" t="inlineStr">
         <is>
           <t>Yuan/MT</t>
         </is>

--- a/LME/parser_beta/data/shmet_historical.xlsx
+++ b/LME/parser_beta/data/shmet_historical.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D682"/>
+  <dimension ref="A1:D683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45173</v>
+        <v>45174</v>
       </c>
       <c r="C2" t="n">
         <v>70250</v>
@@ -475,10 +475,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45170</v>
+        <v>45173</v>
       </c>
       <c r="C3" t="n">
-        <v>70175</v>
+        <v>70250</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45169</v>
+        <v>45170</v>
       </c>
       <c r="C4" t="n">
-        <v>70075</v>
+        <v>70175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -507,10 +507,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45168</v>
+        <v>45169</v>
       </c>
       <c r="C5" t="n">
-        <v>69880</v>
+        <v>70075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -523,10 +523,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45167</v>
+        <v>45168</v>
       </c>
       <c r="C6" t="n">
-        <v>69525</v>
+        <v>69880</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -539,10 +539,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45166</v>
+        <v>45167</v>
       </c>
       <c r="C7" t="n">
-        <v>69530</v>
+        <v>69525</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45163</v>
+        <v>45166</v>
       </c>
       <c r="C8" t="n">
-        <v>69300</v>
+        <v>69530</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -571,10 +571,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45162</v>
+        <v>45163</v>
       </c>
       <c r="C9" t="n">
-        <v>69700</v>
+        <v>69300</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -587,10 +587,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45160</v>
+        <v>45162</v>
       </c>
       <c r="C10" t="n">
-        <v>68810</v>
+        <v>69700</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -603,10 +603,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="C11" t="n">
-        <v>68925</v>
+        <v>68810</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -619,10 +619,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45156</v>
+        <v>45159</v>
       </c>
       <c r="C12" t="n">
-        <v>68840</v>
+        <v>68925</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -635,10 +635,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="C13" t="n">
-        <v>68260</v>
+        <v>68840</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -651,10 +651,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="C14" t="n">
-        <v>68270</v>
+        <v>68260</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -667,10 +667,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="C15" t="n">
-        <v>68590</v>
+        <v>68270</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45152</v>
+        <v>45153</v>
       </c>
       <c r="C16" t="n">
         <v>68590</v>
@@ -699,10 +699,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45149</v>
+        <v>45152</v>
       </c>
       <c r="C17" t="n">
-        <v>68690</v>
+        <v>68590</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -715,10 +715,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="C18" t="n">
-        <v>68740</v>
+        <v>68690</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -731,10 +731,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="C19" t="n">
-        <v>68710</v>
+        <v>68740</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -747,10 +747,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="C20" t="n">
-        <v>69130</v>
+        <v>68710</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -763,10 +763,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="C21" t="n">
-        <v>69290</v>
+        <v>69130</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -779,10 +779,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45142</v>
+        <v>45145</v>
       </c>
       <c r="C22" t="n">
-        <v>69875</v>
+        <v>69290</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -795,10 +795,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="C23" t="n">
-        <v>69425</v>
+        <v>69875</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -811,10 +811,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="C24" t="n">
-        <v>69990</v>
+        <v>69425</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -827,10 +827,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="C25" t="n">
-        <v>70925</v>
+        <v>69990</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -843,10 +843,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="C26" t="n">
-        <v>69830</v>
+        <v>70925</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -859,10 +859,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45135</v>
+        <v>45138</v>
       </c>
       <c r="C27" t="n">
-        <v>68950</v>
+        <v>69830</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -875,10 +875,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="C28" t="n">
-        <v>69460</v>
+        <v>68950</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -891,10 +891,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="C29" t="n">
-        <v>69200</v>
+        <v>69460</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -907,10 +907,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="C30" t="n">
-        <v>68980</v>
+        <v>69200</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -923,10 +923,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45128</v>
+        <v>45132</v>
       </c>
       <c r="C31" t="n">
-        <v>68670</v>
+        <v>68980</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -939,10 +939,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="C32" t="n">
-        <v>68650</v>
+        <v>68670</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -955,10 +955,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="C33" t="n">
-        <v>68580</v>
+        <v>68650</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -971,10 +971,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="C34" t="n">
-        <v>68750</v>
+        <v>68580</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -987,10 +987,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45121</v>
+        <v>45125</v>
       </c>
       <c r="C35" t="n">
-        <v>69825</v>
+        <v>68750</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1003,10 +1003,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="C36" t="n">
-        <v>68760</v>
+        <v>69825</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1019,10 +1019,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="C37" t="n">
-        <v>68040</v>
+        <v>68760</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1035,10 +1035,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="C38" t="n">
-        <v>68370</v>
+        <v>68040</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1051,10 +1051,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45114</v>
+        <v>45118</v>
       </c>
       <c r="C39" t="n">
-        <v>68150</v>
+        <v>68370</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1067,10 +1067,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="C40" t="n">
-        <v>68300</v>
+        <v>68150</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1083,10 +1083,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="C41" t="n">
-        <v>68500</v>
+        <v>68300</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1099,10 +1099,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="C42" t="n">
-        <v>68775</v>
+        <v>68500</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>45107</v>
+        <v>45111</v>
       </c>
       <c r="C43" t="n">
-        <v>68000</v>
+        <v>68775</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1131,10 +1131,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="C44" t="n">
-        <v>68025</v>
+        <v>68000</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1147,10 +1147,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="C45" t="n">
-        <v>68300</v>
+        <v>68025</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="C46" t="n">
-        <v>68660</v>
+        <v>68300</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1179,10 +1179,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>45098</v>
+        <v>45104</v>
       </c>
       <c r="C47" t="n">
-        <v>69650</v>
+        <v>68660</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1195,10 +1195,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="C48" t="n">
-        <v>69100</v>
+        <v>69650</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1211,10 +1211,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45093</v>
+        <v>45097</v>
       </c>
       <c r="C49" t="n">
-        <v>68960</v>
+        <v>69100</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1227,10 +1227,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="C50" t="n">
-        <v>68275</v>
+        <v>68960</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1243,10 +1243,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="C51" t="n">
-        <v>68350</v>
+        <v>68275</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1259,10 +1259,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45086</v>
+        <v>45091</v>
       </c>
       <c r="C52" t="n">
-        <v>67370</v>
+        <v>68350</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1275,10 +1275,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="C53" t="n">
-        <v>67180</v>
+        <v>67370</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1291,10 +1291,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="C54" t="n">
-        <v>67300</v>
+        <v>67180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1307,10 +1307,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="C55" t="n">
-        <v>67160</v>
+        <v>67300</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1323,10 +1323,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>45079</v>
+        <v>45083</v>
       </c>
       <c r="C56" t="n">
-        <v>66425</v>
+        <v>67160</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1339,10 +1339,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="C57" t="n">
-        <v>65850</v>
+        <v>66425</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1355,10 +1355,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="C58" t="n">
-        <v>65260</v>
+        <v>65850</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1371,10 +1371,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="C59" t="n">
-        <v>65600</v>
+        <v>65260</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1387,10 +1387,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>45072</v>
+        <v>45076</v>
       </c>
       <c r="C60" t="n">
-        <v>64150</v>
+        <v>65600</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1403,10 +1403,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="C61" t="n">
-        <v>63750</v>
+        <v>64150</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1419,10 +1419,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>45070</v>
+        <v>45071</v>
       </c>
       <c r="C62" t="n">
-        <v>64300</v>
+        <v>63750</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1435,10 +1435,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="C63" t="n">
-        <v>65280</v>
+        <v>64300</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1451,10 +1451,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>45065</v>
+        <v>45069</v>
       </c>
       <c r="C64" t="n">
-        <v>65675</v>
+        <v>65280</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1467,10 +1467,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="C65" t="n">
-        <v>66025</v>
+        <v>65675</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1483,10 +1483,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="C66" t="n">
-        <v>64680</v>
+        <v>66025</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1499,10 +1499,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="C67" t="n">
-        <v>65200</v>
+        <v>64680</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1515,10 +1515,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>45058</v>
+        <v>45062</v>
       </c>
       <c r="C68" t="n">
-        <v>64690</v>
+        <v>65200</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="C69" t="n">
-        <v>66590</v>
+        <v>64690</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1547,10 +1547,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>45051</v>
+        <v>45057</v>
       </c>
       <c r="C70" t="n">
-        <v>66675</v>
+        <v>66590</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1563,10 +1563,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="C71" t="n">
-        <v>67290</v>
+        <v>66675</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1579,10 +1579,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>45044</v>
+        <v>45050</v>
       </c>
       <c r="C72" t="n">
-        <v>67420</v>
+        <v>67290</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1595,10 +1595,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="C73" t="n">
-        <v>66625</v>
+        <v>67420</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1611,10 +1611,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="C74" t="n">
-        <v>67540</v>
+        <v>66625</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1627,10 +1627,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="C75" t="n">
-        <v>68290</v>
+        <v>67540</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1643,10 +1643,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>45037</v>
+        <v>45041</v>
       </c>
       <c r="C76" t="n">
-        <v>68890</v>
+        <v>68290</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1659,10 +1659,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="C77" t="n">
-        <v>69500</v>
+        <v>68890</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1675,10 +1675,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="C78" t="n">
-        <v>69680</v>
+        <v>69500</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1691,10 +1691,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="C79" t="n">
-        <v>69650</v>
+        <v>69680</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1707,10 +1707,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>45030</v>
+        <v>45034</v>
       </c>
       <c r="C80" t="n">
-        <v>70310</v>
+        <v>69650</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1723,10 +1723,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="C81" t="n">
-        <v>69405</v>
+        <v>70310</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1739,10 +1739,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="C82" t="n">
-        <v>69150</v>
+        <v>69405</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1755,10 +1755,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="C83" t="n">
-        <v>68580</v>
+        <v>69150</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1771,10 +1771,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>45023</v>
+        <v>45027</v>
       </c>
       <c r="C84" t="n">
-        <v>68875</v>
+        <v>68580</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1787,10 +1787,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="C85" t="n">
-        <v>68830</v>
+        <v>68875</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1803,10 +1803,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>45020</v>
+        <v>45022</v>
       </c>
       <c r="C86" t="n">
-        <v>69225</v>
+        <v>68830</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1819,10 +1819,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>45016</v>
+        <v>45020</v>
       </c>
       <c r="C87" t="n">
-        <v>69650</v>
+        <v>69225</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -1835,10 +1835,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="C88" t="n">
-        <v>69620</v>
+        <v>69650</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -1851,10 +1851,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="C89" t="n">
-        <v>69580</v>
+        <v>69620</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -1867,10 +1867,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="C90" t="n">
-        <v>69770</v>
+        <v>69580</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -1883,10 +1883,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>45009</v>
+        <v>45013</v>
       </c>
       <c r="C91" t="n">
-        <v>69230</v>
+        <v>69770</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -1899,10 +1899,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="C92" t="n">
-        <v>68630</v>
+        <v>69230</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -1915,10 +1915,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="C93" t="n">
-        <v>68100</v>
+        <v>68630</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -1931,10 +1931,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="C94" t="n">
-        <v>67575</v>
+        <v>68100</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -1947,10 +1947,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>45002</v>
+        <v>45006</v>
       </c>
       <c r="C95" t="n">
-        <v>67340</v>
+        <v>67575</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -1963,10 +1963,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="C96" t="n">
-        <v>67100</v>
+        <v>67340</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -1979,10 +1979,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="C97" t="n">
-        <v>68925</v>
+        <v>67100</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -1995,10 +1995,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="C98" t="n">
-        <v>68600</v>
+        <v>68925</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2011,10 +2011,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>44995</v>
+        <v>44999</v>
       </c>
       <c r="C99" t="n">
-        <v>69025</v>
+        <v>68600</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2027,10 +2027,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>44993</v>
+        <v>44995</v>
       </c>
       <c r="C100" t="n">
-        <v>68840</v>
+        <v>69025</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2043,10 +2043,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="C101" t="n">
-        <v>69610</v>
+        <v>68840</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2059,10 +2059,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="C102" t="n">
-        <v>69400</v>
+        <v>69610</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2075,10 +2075,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="C103" t="n">
-        <v>69865</v>
+        <v>69400</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2091,10 +2091,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="C104" t="n">
-        <v>69710</v>
+        <v>69865</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2107,10 +2107,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="C105" t="n">
-        <v>68550</v>
+        <v>69710</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2123,10 +2123,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="C106" t="n">
-        <v>70050</v>
+        <v>68550</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2139,10 +2139,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="C107" t="n">
-        <v>70400</v>
+        <v>70050</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2155,10 +2155,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="C108" t="n">
-        <v>69705</v>
+        <v>70400</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2171,10 +2171,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>44974</v>
+        <v>44978</v>
       </c>
       <c r="C109" t="n">
-        <v>69080</v>
+        <v>69705</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2187,10 +2187,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="C110" t="n">
-        <v>68370</v>
+        <v>69080</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2203,10 +2203,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="C111" t="n">
-        <v>68950</v>
+        <v>68370</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2219,10 +2219,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="C112" t="n">
-        <v>68510</v>
+        <v>68950</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2235,10 +2235,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>44967</v>
+        <v>44971</v>
       </c>
       <c r="C113" t="n">
-        <v>68225</v>
+        <v>68510</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2251,10 +2251,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="C114" t="n">
-        <v>68240</v>
+        <v>68225</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2267,10 +2267,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="C115" t="n">
-        <v>68250</v>
+        <v>68240</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2283,10 +2283,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="C116" t="n">
-        <v>67860</v>
+        <v>68250</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2299,10 +2299,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>44960</v>
+        <v>44964</v>
       </c>
       <c r="C117" t="n">
-        <v>68425</v>
+        <v>67860</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2315,10 +2315,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="C118" t="n">
-        <v>69070</v>
+        <v>68425</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2331,10 +2331,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="C119" t="n">
-        <v>69560</v>
+        <v>69070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2347,10 +2347,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="C120" t="n">
-        <v>69425</v>
+        <v>69560</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2363,10 +2363,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>44946</v>
+        <v>44957</v>
       </c>
       <c r="C121" t="n">
-        <v>70150</v>
+        <v>69425</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2379,10 +2379,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="C122" t="n">
-        <v>69570</v>
+        <v>70150</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2395,10 +2395,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>44944</v>
+        <v>44945</v>
       </c>
       <c r="C123" t="n">
-        <v>69750</v>
+        <v>69570</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2411,10 +2411,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>44943</v>
+        <v>44944</v>
       </c>
       <c r="C124" t="n">
-        <v>68410</v>
+        <v>69750</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2427,10 +2427,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>44939</v>
+        <v>44943</v>
       </c>
       <c r="C125" t="n">
-        <v>68725</v>
+        <v>68410</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2443,10 +2443,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="C126" t="n">
-        <v>68430</v>
+        <v>68725</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2459,10 +2459,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="C127" t="n">
-        <v>67500</v>
+        <v>68430</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2475,10 +2475,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="C128" t="n">
-        <v>66475</v>
+        <v>67500</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2491,10 +2491,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>44925</v>
+        <v>44936</v>
       </c>
       <c r="C129" t="n">
-        <v>66175</v>
+        <v>66475</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="C130" t="n">
-        <v>66200</v>
+        <v>66175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2523,10 +2523,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="C131" t="n">
-        <v>66270</v>
+        <v>66200</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2539,10 +2539,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>44922</v>
+        <v>44923</v>
       </c>
       <c r="C132" t="n">
-        <v>66400</v>
+        <v>66270</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2555,10 +2555,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>44918</v>
+        <v>44922</v>
       </c>
       <c r="C133" t="n">
-        <v>66000</v>
+        <v>66400</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2571,10 +2571,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="C134" t="n">
-        <v>66750</v>
+        <v>66000</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2587,10 +2587,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="C135" t="n">
-        <v>66225</v>
+        <v>66750</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2603,10 +2603,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="C136" t="n">
-        <v>65575</v>
+        <v>66225</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2619,10 +2619,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>44911</v>
+        <v>44915</v>
       </c>
       <c r="C137" t="n">
-        <v>65750</v>
+        <v>65575</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2635,10 +2635,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="C138" t="n">
-        <v>66125</v>
+        <v>65750</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2651,10 +2651,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>44909</v>
+        <v>44910</v>
       </c>
       <c r="C139" t="n">
-        <v>66625</v>
+        <v>66125</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2667,10 +2667,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="C140" t="n">
-        <v>66175</v>
+        <v>66625</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2683,10 +2683,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>44904</v>
+        <v>44908</v>
       </c>
       <c r="C141" t="n">
-        <v>67000</v>
+        <v>66175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2699,10 +2699,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="C142" t="n">
-        <v>66290</v>
+        <v>67000</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2715,10 +2715,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="C143" t="n">
-        <v>66225</v>
+        <v>66290</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -2731,10 +2731,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="C144" t="n">
-        <v>66575</v>
+        <v>66225</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -2747,10 +2747,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>44897</v>
+        <v>44901</v>
       </c>
       <c r="C145" t="n">
-        <v>66400</v>
+        <v>66575</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -2763,10 +2763,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="C146" t="n">
-        <v>66380</v>
+        <v>66400</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -2779,10 +2779,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="C147" t="n">
-        <v>65290</v>
+        <v>66380</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -2795,10 +2795,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="C148" t="n">
-        <v>65525</v>
+        <v>65290</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -2811,10 +2811,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="C149" t="n">
-        <v>65640</v>
+        <v>65525</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -2827,10 +2827,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="C150" t="n">
-        <v>65490</v>
+        <v>65640</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -2843,10 +2843,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="C151" t="n">
-        <v>65260</v>
+        <v>65490</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -2859,10 +2859,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="C152" t="n">
-        <v>65170</v>
+        <v>65260</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -2875,10 +2875,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>44883</v>
+        <v>44887</v>
       </c>
       <c r="C153" t="n">
-        <v>66275</v>
+        <v>65170</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -2891,10 +2891,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="C154" t="n">
-        <v>66540</v>
+        <v>66275</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -2907,10 +2907,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="C155" t="n">
-        <v>67050</v>
+        <v>66540</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -2923,10 +2923,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="C156" t="n">
-        <v>67275</v>
+        <v>67050</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -2939,10 +2939,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>44876</v>
+        <v>44880</v>
       </c>
       <c r="C157" t="n">
-        <v>68575</v>
+        <v>67275</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -2955,10 +2955,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="C158" t="n">
-        <v>67400</v>
+        <v>68575</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -2971,10 +2971,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="C159" t="n">
-        <v>66800</v>
+        <v>67400</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -2987,10 +2987,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="C160" t="n">
-        <v>66225</v>
+        <v>66800</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3003,10 +3003,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>44869</v>
+        <v>44873</v>
       </c>
       <c r="C161" t="n">
-        <v>64700</v>
+        <v>66225</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3019,10 +3019,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="C162" t="n">
-        <v>64690</v>
+        <v>64700</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3035,10 +3035,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="C163" t="n">
-        <v>64950</v>
+        <v>64690</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3051,10 +3051,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>44866</v>
+        <v>44867</v>
       </c>
       <c r="C164" t="n">
-        <v>64300</v>
+        <v>64950</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3067,10 +3067,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>44862</v>
+        <v>44866</v>
       </c>
       <c r="C165" t="n">
-        <v>64650</v>
+        <v>64300</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3083,10 +3083,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>44861</v>
+        <v>44862</v>
       </c>
       <c r="C166" t="n">
-        <v>64690</v>
+        <v>64650</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3099,10 +3099,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="C167" t="n">
-        <v>63950</v>
+        <v>64690</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3115,10 +3115,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="C168" t="n">
-        <v>64300</v>
+        <v>63950</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3131,10 +3131,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>44855</v>
+        <v>44859</v>
       </c>
       <c r="C169" t="n">
-        <v>64000</v>
+        <v>64300</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3147,10 +3147,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="C170" t="n">
-        <v>62895</v>
+        <v>64000</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3163,10 +3163,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>44853</v>
+        <v>44854</v>
       </c>
       <c r="C171" t="n">
-        <v>62950</v>
+        <v>62895</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3179,10 +3179,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="C172" t="n">
-        <v>63550</v>
+        <v>62950</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3195,10 +3195,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>44848</v>
+        <v>44852</v>
       </c>
       <c r="C173" t="n">
-        <v>64760</v>
+        <v>63550</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3211,10 +3211,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="C174" t="n">
-        <v>63960</v>
+        <v>64760</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3227,10 +3227,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="C175" t="n">
-        <v>63800</v>
+        <v>63960</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3243,10 +3243,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>44845</v>
+        <v>44846</v>
       </c>
       <c r="C176" t="n">
-        <v>63975</v>
+        <v>63800</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3259,10 +3259,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>44834</v>
+        <v>44845</v>
       </c>
       <c r="C177" t="n">
-        <v>62670</v>
+        <v>63975</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3275,10 +3275,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="C178" t="n">
-        <v>62430</v>
+        <v>62670</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3291,10 +3291,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="C179" t="n">
-        <v>61430</v>
+        <v>62430</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3307,10 +3307,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="C180" t="n">
-        <v>61485</v>
+        <v>61430</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3323,10 +3323,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>44827</v>
+        <v>44831</v>
       </c>
       <c r="C181" t="n">
-        <v>63025</v>
+        <v>61485</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3339,10 +3339,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="C182" t="n">
-        <v>63120</v>
+        <v>63025</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="C183" t="n">
         <v>63120</v>
@@ -3371,10 +3371,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="C184" t="n">
-        <v>63370</v>
+        <v>63120</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3387,10 +3387,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>44820</v>
+        <v>44824</v>
       </c>
       <c r="C185" t="n">
-        <v>62865</v>
+        <v>63370</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3403,10 +3403,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="n">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="C186" t="n">
-        <v>63370</v>
+        <v>62865</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3419,10 +3419,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="n">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="C187" t="n">
-        <v>63050</v>
+        <v>63370</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3435,10 +3435,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="C188" t="n">
-        <v>63850</v>
+        <v>63050</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3451,10 +3451,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>44813</v>
+        <v>44817</v>
       </c>
       <c r="C189" t="n">
-        <v>63650</v>
+        <v>63850</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3467,10 +3467,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="n">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="C190" t="n">
-        <v>61910</v>
+        <v>63650</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3483,10 +3483,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="n">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="C191" t="n">
-        <v>61700</v>
+        <v>61910</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3499,10 +3499,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="n">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="C192" t="n">
-        <v>61750</v>
+        <v>61700</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3515,10 +3515,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="n">
-        <v>44806</v>
+        <v>44810</v>
       </c>
       <c r="C193" t="n">
-        <v>60500</v>
+        <v>61750</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3531,10 +3531,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="n">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="C194" t="n">
-        <v>61775</v>
+        <v>60500</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3547,10 +3547,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="n">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="C195" t="n">
-        <v>62770</v>
+        <v>61775</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3563,10 +3563,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="n">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="C196" t="n">
-        <v>63120</v>
+        <v>62770</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3579,10 +3579,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>44799</v>
+        <v>44803</v>
       </c>
       <c r="C197" t="n">
-        <v>64270</v>
+        <v>63120</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3595,10 +3595,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="C198" t="n">
-        <v>63330</v>
+        <v>64270</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -3611,10 +3611,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="C199" t="n">
-        <v>63715</v>
+        <v>63330</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -3627,10 +3627,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="n">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="C200" t="n">
-        <v>63570</v>
+        <v>63715</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -3643,10 +3643,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>44792</v>
+        <v>44796</v>
       </c>
       <c r="C201" t="n">
-        <v>62950</v>
+        <v>63570</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -3659,10 +3659,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="n">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="C202" t="n">
-        <v>62300</v>
+        <v>62950</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -3675,10 +3675,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="n">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="C203" t="n">
-        <v>62470</v>
+        <v>62300</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -3691,10 +3691,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="n">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="C204" t="n">
-        <v>62460</v>
+        <v>62470</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -3707,10 +3707,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>44785</v>
+        <v>44789</v>
       </c>
       <c r="C205" t="n">
-        <v>63000</v>
+        <v>62460</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -3723,10 +3723,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>44784</v>
+        <v>44785</v>
       </c>
       <c r="C206" t="n">
-        <v>62520</v>
+        <v>63000</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -3739,10 +3739,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="n">
-        <v>44783</v>
+        <v>44784</v>
       </c>
       <c r="C207" t="n">
-        <v>61780</v>
+        <v>62520</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -3755,10 +3755,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="C208" t="n">
-        <v>61540</v>
+        <v>61780</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -3771,10 +3771,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="n">
-        <v>44778</v>
+        <v>44782</v>
       </c>
       <c r="C209" t="n">
-        <v>60520</v>
+        <v>61540</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -3787,10 +3787,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="n">
-        <v>44777</v>
+        <v>44778</v>
       </c>
       <c r="C210" t="n">
-        <v>59930</v>
+        <v>60520</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -3803,10 +3803,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="C211" t="n">
-        <v>60260</v>
+        <v>59930</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -3819,10 +3819,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>44775</v>
+        <v>44776</v>
       </c>
       <c r="C212" t="n">
-        <v>60180</v>
+        <v>60260</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -3835,10 +3835,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>44771</v>
+        <v>44775</v>
       </c>
       <c r="C213" t="n">
-        <v>60315</v>
+        <v>60180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -3851,10 +3851,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="n">
-        <v>44770</v>
+        <v>44771</v>
       </c>
       <c r="C214" t="n">
-        <v>60090</v>
+        <v>60315</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -3867,10 +3867,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="C215" t="n">
-        <v>58710</v>
+        <v>60090</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -3883,10 +3883,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>44768</v>
+        <v>44769</v>
       </c>
       <c r="C216" t="n">
-        <v>58930</v>
+        <v>58710</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -3899,10 +3899,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="n">
-        <v>44764</v>
+        <v>44768</v>
       </c>
       <c r="C217" t="n">
-        <v>57030</v>
+        <v>58930</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -3915,10 +3915,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="n">
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="C218" t="n">
-        <v>56360</v>
+        <v>57030</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -3931,10 +3931,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="2" t="n">
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="C219" t="n">
-        <v>56920</v>
+        <v>56360</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -3947,10 +3947,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="n">
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="C220" t="n">
-        <v>56210</v>
+        <v>56920</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -3963,10 +3963,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="2" t="n">
-        <v>44757</v>
+        <v>44761</v>
       </c>
       <c r="C221" t="n">
-        <v>54890</v>
+        <v>56210</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -3979,10 +3979,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="2" t="n">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="C222" t="n">
-        <v>56300</v>
+        <v>54890</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -3995,10 +3995,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="2" t="n">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="C223" t="n">
-        <v>56460</v>
+        <v>56300</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4011,10 +4011,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="2" t="n">
-        <v>44754</v>
+        <v>44755</v>
       </c>
       <c r="C224" t="n">
-        <v>58430</v>
+        <v>56460</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -4027,10 +4027,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="2" t="n">
-        <v>44750</v>
+        <v>44754</v>
       </c>
       <c r="C225" t="n">
-        <v>59600</v>
+        <v>58430</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4043,10 +4043,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="2" t="n">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="C226" t="n">
-        <v>58600</v>
+        <v>59600</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4059,10 +4059,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="2" t="n">
-        <v>44748</v>
+        <v>44749</v>
       </c>
       <c r="C227" t="n">
-        <v>58125</v>
+        <v>58600</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4075,10 +4075,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="2" t="n">
-        <v>44747</v>
+        <v>44748</v>
       </c>
       <c r="C228" t="n">
-        <v>61225</v>
+        <v>58125</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4091,10 +4091,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="n">
-        <v>44743</v>
+        <v>44747</v>
       </c>
       <c r="C229" t="n">
-        <v>62930</v>
+        <v>61225</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4107,10 +4107,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="n">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="C230" t="n">
-        <v>64230</v>
+        <v>62930</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4123,10 +4123,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="n">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="C231" t="n">
-        <v>63940</v>
+        <v>64230</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4139,10 +4139,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>44740</v>
+        <v>44741</v>
       </c>
       <c r="C232" t="n">
-        <v>64150</v>
+        <v>63940</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4155,10 +4155,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>44736</v>
+        <v>44740</v>
       </c>
       <c r="C233" t="n">
-        <v>64340</v>
+        <v>64150</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4171,10 +4171,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="C234" t="n">
-        <v>66050</v>
+        <v>64340</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -4187,10 +4187,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="2" t="n">
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="C235" t="n">
-        <v>68160</v>
+        <v>66050</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -4203,10 +4203,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="2" t="n">
-        <v>44733</v>
+        <v>44734</v>
       </c>
       <c r="C236" t="n">
-        <v>68700</v>
+        <v>68160</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4219,10 +4219,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="2" t="n">
-        <v>44729</v>
+        <v>44733</v>
       </c>
       <c r="C237" t="n">
-        <v>69975</v>
+        <v>68700</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4235,10 +4235,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="2" t="n">
-        <v>44728</v>
+        <v>44729</v>
       </c>
       <c r="C238" t="n">
-        <v>71255</v>
+        <v>69975</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -4251,10 +4251,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="2" t="n">
-        <v>44727</v>
+        <v>44728</v>
       </c>
       <c r="C239" t="n">
-        <v>71250</v>
+        <v>71255</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4267,10 +4267,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="2" t="n">
-        <v>44722</v>
+        <v>44727</v>
       </c>
       <c r="C240" t="n">
-        <v>72750</v>
+        <v>71250</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4283,10 +4283,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>44721</v>
+        <v>44722</v>
       </c>
       <c r="C241" t="n">
-        <v>73030</v>
+        <v>72750</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -4299,10 +4299,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="2" t="n">
-        <v>44720</v>
+        <v>44721</v>
       </c>
       <c r="C242" t="n">
-        <v>72890</v>
+        <v>73030</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -4315,10 +4315,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="2" t="n">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="C243" t="n">
-        <v>72975</v>
+        <v>72890</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="2" t="n">
-        <v>44714</v>
+        <v>44719</v>
       </c>
       <c r="C244" t="n">
-        <v>72530</v>
+        <v>72975</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4347,10 +4347,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="2" t="n">
-        <v>44713</v>
+        <v>44714</v>
       </c>
       <c r="C245" t="n">
-        <v>72150</v>
+        <v>72530</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4363,10 +4363,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="2" t="n">
-        <v>44712</v>
+        <v>44713</v>
       </c>
       <c r="C246" t="n">
-        <v>72630</v>
+        <v>72150</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4379,10 +4379,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="2" t="n">
-        <v>44708</v>
+        <v>44712</v>
       </c>
       <c r="C247" t="n">
-        <v>72625</v>
+        <v>72630</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4395,10 +4395,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="2" t="n">
-        <v>44707</v>
+        <v>44708</v>
       </c>
       <c r="C248" t="n">
-        <v>71950</v>
+        <v>72625</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -4411,10 +4411,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="2" t="n">
-        <v>44706</v>
+        <v>44707</v>
       </c>
       <c r="C249" t="n">
-        <v>72220</v>
+        <v>71950</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4427,10 +4427,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="2" t="n">
-        <v>44705</v>
+        <v>44706</v>
       </c>
       <c r="C250" t="n">
-        <v>72500</v>
+        <v>72220</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -4443,10 +4443,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="2" t="n">
-        <v>44701</v>
+        <v>44705</v>
       </c>
       <c r="C251" t="n">
-        <v>72150</v>
+        <v>72500</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -4459,10 +4459,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="2" t="n">
-        <v>44700</v>
+        <v>44701</v>
       </c>
       <c r="C252" t="n">
-        <v>71775</v>
+        <v>72150</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -4475,10 +4475,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="2" t="n">
-        <v>44699</v>
+        <v>44700</v>
       </c>
       <c r="C253" t="n">
-        <v>72070</v>
+        <v>71775</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -4491,10 +4491,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="2" t="n">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="C254" t="n">
-        <v>72175</v>
+        <v>72070</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -4507,10 +4507,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="2" t="n">
-        <v>44694</v>
+        <v>44698</v>
       </c>
       <c r="C255" t="n">
-        <v>71160</v>
+        <v>72175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -4523,10 +4523,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="2" t="n">
-        <v>44693</v>
+        <v>44694</v>
       </c>
       <c r="C256" t="n">
-        <v>72050</v>
+        <v>71160</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -4539,10 +4539,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="2" t="n">
-        <v>44687</v>
+        <v>44693</v>
       </c>
       <c r="C257" t="n">
-        <v>72875</v>
+        <v>72050</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -4555,10 +4555,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="2" t="n">
-        <v>44686</v>
+        <v>44687</v>
       </c>
       <c r="C258" t="n">
-        <v>73760</v>
+        <v>72875</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -4571,10 +4571,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="n">
-        <v>44680</v>
+        <v>44686</v>
       </c>
       <c r="C259" t="n">
-        <v>73930</v>
+        <v>73760</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -4587,10 +4587,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="2" t="n">
-        <v>44679</v>
+        <v>44680</v>
       </c>
       <c r="C260" t="n">
-        <v>74005</v>
+        <v>73930</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -4603,10 +4603,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="2" t="n">
-        <v>44678</v>
+        <v>44679</v>
       </c>
       <c r="C261" t="n">
-        <v>73770</v>
+        <v>74005</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -4619,10 +4619,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="2" t="n">
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="C262" t="n">
-        <v>73950</v>
+        <v>73770</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -4635,10 +4635,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="2" t="n">
-        <v>44673</v>
+        <v>44677</v>
       </c>
       <c r="C263" t="n">
-        <v>75070</v>
+        <v>73950</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -4651,10 +4651,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="2" t="n">
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="C264" t="n">
-        <v>74850</v>
+        <v>75070</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -4667,10 +4667,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="2" t="n">
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="C265" t="n">
-        <v>74740</v>
+        <v>74850</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -4683,10 +4683,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="2" t="n">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="C266" t="n">
-        <v>75575</v>
+        <v>74740</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -4699,10 +4699,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="2" t="n">
-        <v>44666</v>
+        <v>44670</v>
       </c>
       <c r="C267" t="n">
-        <v>75385</v>
+        <v>75575</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -4715,10 +4715,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="2" t="n">
-        <v>44665</v>
+        <v>44666</v>
       </c>
       <c r="C268" t="n">
-        <v>74370</v>
+        <v>75385</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -4731,10 +4731,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="2" t="n">
-        <v>44664</v>
+        <v>44665</v>
       </c>
       <c r="C269" t="n">
-        <v>74550</v>
+        <v>74370</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -4747,10 +4747,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="2" t="n">
-        <v>44663</v>
+        <v>44664</v>
       </c>
       <c r="C270" t="n">
-        <v>73790</v>
+        <v>74550</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -4763,10 +4763,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="n">
-        <v>44659</v>
+        <v>44663</v>
       </c>
       <c r="C271" t="n">
-        <v>73765</v>
+        <v>73790</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -4779,10 +4779,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="2" t="n">
-        <v>44658</v>
+        <v>44659</v>
       </c>
       <c r="C272" t="n">
-        <v>73690</v>
+        <v>73765</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -4795,10 +4795,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="2" t="n">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C273" t="n">
-        <v>74000</v>
+        <v>73690</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -4811,10 +4811,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="2" t="n">
-        <v>44652</v>
+        <v>44657</v>
       </c>
       <c r="C274" t="n">
-        <v>73635</v>
+        <v>74000</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -4827,10 +4827,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="2" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="C275" t="n">
-        <v>73575</v>
+        <v>73635</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -4843,10 +4843,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="2" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="C276" t="n">
-        <v>73980</v>
+        <v>73575</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -4859,10 +4859,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="2" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="C277" t="n">
-        <v>74100</v>
+        <v>73980</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -4875,10 +4875,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="2" t="n">
-        <v>44645</v>
+        <v>44649</v>
       </c>
       <c r="C278" t="n">
-        <v>73775</v>
+        <v>74100</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -4891,10 +4891,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="2" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="C279" t="n">
-        <v>73880</v>
+        <v>73775</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -4907,10 +4907,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="2" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="C280" t="n">
-        <v>73410</v>
+        <v>73880</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -4923,10 +4923,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="2" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="C281" t="n">
-        <v>73510</v>
+        <v>73410</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -4939,10 +4939,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="2" t="n">
-        <v>44638</v>
+        <v>44642</v>
       </c>
       <c r="C282" t="n">
-        <v>73310</v>
+        <v>73510</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -4955,10 +4955,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="2" t="n">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="C283" t="n">
-        <v>72740</v>
+        <v>73310</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -4971,10 +4971,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="n">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="C284" t="n">
-        <v>72060</v>
+        <v>72740</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -4987,10 +4987,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="2" t="n">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="C285" t="n">
-        <v>71790</v>
+        <v>72060</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5003,10 +5003,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="2" t="n">
-        <v>44631</v>
+        <v>44635</v>
       </c>
       <c r="C286" t="n">
-        <v>72170</v>
+        <v>71790</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5019,10 +5019,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="2" t="n">
-        <v>44630</v>
+        <v>44631</v>
       </c>
       <c r="C287" t="n">
-        <v>72080</v>
+        <v>72170</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5035,10 +5035,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="2" t="n">
-        <v>44624</v>
+        <v>44630</v>
       </c>
       <c r="C288" t="n">
-        <v>72930</v>
+        <v>72080</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5051,10 +5051,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="C289" t="n">
-        <v>72540</v>
+        <v>72930</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5067,10 +5067,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="2" t="n">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="C290" t="n">
-        <v>71520</v>
+        <v>72540</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5083,10 +5083,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="2" t="n">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="C291" t="n">
-        <v>70880</v>
+        <v>71520</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5099,10 +5099,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="2" t="n">
-        <v>44617</v>
+        <v>44621</v>
       </c>
       <c r="C292" t="n">
-        <v>71010</v>
+        <v>70880</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5115,10 +5115,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="2" t="n">
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="C293" t="n">
-        <v>71170</v>
+        <v>71010</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -5131,10 +5131,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="n">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="C294" t="n">
-        <v>71140</v>
+        <v>71170</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5147,10 +5147,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="2" t="n">
-        <v>44610</v>
+        <v>44614</v>
       </c>
       <c r="C295" t="n">
-        <v>71525</v>
+        <v>71140</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5163,10 +5163,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="2" t="n">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="C296" t="n">
-        <v>71550</v>
+        <v>71525</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="2" t="n">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="C297" t="n">
         <v>71550</v>
@@ -5195,10 +5195,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="2" t="n">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="C298" t="n">
-        <v>71090</v>
+        <v>71550</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5211,10 +5211,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="2" t="n">
-        <v>44603</v>
+        <v>44607</v>
       </c>
       <c r="C299" t="n">
-        <v>72580</v>
+        <v>71090</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5227,10 +5227,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="2" t="n">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="C300" t="n">
-        <v>72210</v>
+        <v>72580</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5243,10 +5243,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="2" t="n">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="C301" t="n">
-        <v>70500</v>
+        <v>72210</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5259,10 +5259,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="2" t="n">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="C302" t="n">
-        <v>70690</v>
+        <v>70500</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5275,10 +5275,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="2" t="n">
-        <v>44589</v>
+        <v>44600</v>
       </c>
       <c r="C303" t="n">
-        <v>70480</v>
+        <v>70690</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5291,10 +5291,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="2" t="n">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="C304" t="n">
-        <v>70400</v>
+        <v>70480</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5307,10 +5307,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="2" t="n">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="C305" t="n">
-        <v>70270</v>
+        <v>70400</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5323,10 +5323,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="2" t="n">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="C306" t="n">
-        <v>70040</v>
+        <v>70270</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5339,10 +5339,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="2" t="n">
-        <v>44582</v>
+        <v>44586</v>
       </c>
       <c r="C307" t="n">
-        <v>71000</v>
+        <v>70040</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5355,10 +5355,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="2" t="n">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="C308" t="n">
-        <v>70930</v>
+        <v>71000</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -5371,10 +5371,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="2" t="n">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="C309" t="n">
-        <v>70330</v>
+        <v>70930</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -5387,10 +5387,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="2" t="n">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="C310" t="n">
-        <v>70525</v>
+        <v>70330</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -5403,10 +5403,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="2" t="n">
-        <v>44575</v>
+        <v>44579</v>
       </c>
       <c r="C311" t="n">
-        <v>71570</v>
+        <v>70525</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -5419,10 +5419,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C312" t="n">
-        <v>72130</v>
+        <v>71570</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -5435,10 +5435,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C313" t="n">
-        <v>70850</v>
+        <v>72130</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -5451,10 +5451,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="2" t="n">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="C314" t="n">
-        <v>69900</v>
+        <v>70850</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -5467,10 +5467,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="2" t="n">
-        <v>44561</v>
+        <v>44572</v>
       </c>
       <c r="C315" t="n">
-        <v>69910</v>
+        <v>69900</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -5483,10 +5483,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="2" t="n">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="C316" t="n">
-        <v>70020</v>
+        <v>69910</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -5499,10 +5499,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="2" t="n">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="C317" t="n">
-        <v>70060</v>
+        <v>70020</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -5515,10 +5515,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="2" t="n">
-        <v>44558</v>
+        <v>44559</v>
       </c>
       <c r="C318" t="n">
-        <v>70270</v>
+        <v>70060</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -5531,10 +5531,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="2" t="n">
-        <v>44554</v>
+        <v>44558</v>
       </c>
       <c r="C319" t="n">
-        <v>69840</v>
+        <v>70270</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -5547,10 +5547,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="2" t="n">
-        <v>44553</v>
+        <v>44554</v>
       </c>
       <c r="C320" t="n">
-        <v>69850</v>
+        <v>69840</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -5563,10 +5563,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="2" t="n">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="C321" t="n">
-        <v>69520</v>
+        <v>69850</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -5579,10 +5579,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="2" t="n">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="C322" t="n">
-        <v>69385</v>
+        <v>69520</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -5595,10 +5595,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="2" t="n">
-        <v>44547</v>
+        <v>44551</v>
       </c>
       <c r="C323" t="n">
-        <v>69525</v>
+        <v>69385</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -5611,10 +5611,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="2" t="n">
-        <v>44546</v>
+        <v>44547</v>
       </c>
       <c r="C324" t="n">
-        <v>68570</v>
+        <v>69525</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -5627,10 +5627,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="2" t="n">
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="C325" t="n">
-        <v>68875</v>
+        <v>68570</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="2" t="n">
-        <v>44544</v>
+        <v>44545</v>
       </c>
       <c r="C326" t="n">
-        <v>68900</v>
+        <v>68875</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -5659,10 +5659,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="2" t="n">
-        <v>44540</v>
+        <v>44544</v>
       </c>
       <c r="C327" t="n">
-        <v>69750</v>
+        <v>68900</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -5675,10 +5675,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="2" t="n">
-        <v>44539</v>
+        <v>44540</v>
       </c>
       <c r="C328" t="n">
-        <v>69980</v>
+        <v>69750</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -5691,10 +5691,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="2" t="n">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="C329" t="n">
-        <v>69815</v>
+        <v>69980</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -5707,10 +5707,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="2" t="n">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="C330" t="n">
-        <v>69760</v>
+        <v>69815</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -5723,10 +5723,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="2" t="n">
-        <v>44533</v>
+        <v>44537</v>
       </c>
       <c r="C331" t="n">
-        <v>69830</v>
+        <v>69760</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -5739,10 +5739,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="2" t="n">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="C332" t="n">
-        <v>69900</v>
+        <v>69830</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -5755,10 +5755,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="2" t="n">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="C333" t="n">
-        <v>70180</v>
+        <v>69900</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -5771,10 +5771,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="2" t="n">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="C334" t="n">
-        <v>70650</v>
+        <v>70180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -5787,10 +5787,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="2" t="n">
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="C335" t="n">
-        <v>71610</v>
+        <v>70650</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -5803,10 +5803,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="2" t="n">
-        <v>44525</v>
+        <v>44526</v>
       </c>
       <c r="C336" t="n">
-        <v>72330</v>
+        <v>71610</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -5819,10 +5819,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="2" t="n">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="C337" t="n">
-        <v>71820</v>
+        <v>72330</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -5835,10 +5835,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="2" t="n">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="C338" t="n">
-        <v>72510</v>
+        <v>71820</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -5851,10 +5851,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="2" t="n">
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="C339" t="n">
-        <v>72250</v>
+        <v>72510</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -5867,10 +5867,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="2" t="n">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="C340" t="n">
-        <v>70350</v>
+        <v>72250</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -5883,10 +5883,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="2" t="n">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="C341" t="n">
-        <v>70955</v>
+        <v>70350</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -5899,10 +5899,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="2" t="n">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="C342" t="n">
-        <v>71750</v>
+        <v>70955</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -5915,10 +5915,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="2" t="n">
-        <v>44512</v>
+        <v>44516</v>
       </c>
       <c r="C343" t="n">
-        <v>71435</v>
+        <v>71750</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -5931,10 +5931,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="2" t="n">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="C344" t="n">
-        <v>70780</v>
+        <v>71435</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -5947,10 +5947,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="2" t="n">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="C345" t="n">
-        <v>70650</v>
+        <v>70780</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -5963,10 +5963,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="2" t="n">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="C346" t="n">
-        <v>71110</v>
+        <v>70650</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -5979,10 +5979,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="2" t="n">
-        <v>44504</v>
+        <v>44509</v>
       </c>
       <c r="C347" t="n">
-        <v>71270</v>
+        <v>71110</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -5995,10 +5995,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="2" t="n">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="C348" t="n">
-        <v>70910</v>
+        <v>71270</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -6011,10 +6011,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="2" t="n">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="C349" t="n">
-        <v>71180</v>
+        <v>70910</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -6027,10 +6027,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="2" t="n">
-        <v>44498</v>
+        <v>44502</v>
       </c>
       <c r="C350" t="n">
-        <v>71575</v>
+        <v>71180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6043,10 +6043,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="2" t="n">
-        <v>44497</v>
+        <v>44498</v>
       </c>
       <c r="C351" t="n">
-        <v>70770</v>
+        <v>71575</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -6059,10 +6059,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="2" t="n">
-        <v>44496</v>
+        <v>44497</v>
       </c>
       <c r="C352" t="n">
-        <v>72060</v>
+        <v>70770</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6075,10 +6075,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="2" t="n">
-        <v>44495</v>
+        <v>44496</v>
       </c>
       <c r="C353" t="n">
-        <v>72585</v>
+        <v>72060</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -6091,10 +6091,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="2" t="n">
-        <v>44491</v>
+        <v>44495</v>
       </c>
       <c r="C354" t="n">
-        <v>73125</v>
+        <v>72585</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6107,10 +6107,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="2" t="n">
-        <v>44490</v>
+        <v>44491</v>
       </c>
       <c r="C355" t="n">
-        <v>75190</v>
+        <v>73125</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -6123,10 +6123,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="2" t="n">
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="C356" t="n">
-        <v>73430</v>
+        <v>75190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -6139,10 +6139,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="2" t="n">
-        <v>44488</v>
+        <v>44489</v>
       </c>
       <c r="C357" t="n">
-        <v>75750</v>
+        <v>73430</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -6155,10 +6155,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="2" t="n">
-        <v>44484</v>
+        <v>44488</v>
       </c>
       <c r="C358" t="n">
-        <v>74060</v>
+        <v>75750</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -6171,10 +6171,10 @@
         <v>358</v>
       </c>
       <c r="B359" s="2" t="n">
-        <v>44483</v>
+        <v>44484</v>
       </c>
       <c r="C359" t="n">
-        <v>72540</v>
+        <v>74060</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -6187,10 +6187,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="2" t="n">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="C360" t="n">
-        <v>70160</v>
+        <v>72540</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -6203,10 +6203,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="2" t="n">
-        <v>44481</v>
+        <v>44482</v>
       </c>
       <c r="C361" t="n">
-        <v>70320</v>
+        <v>70160</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -6219,10 +6219,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="2" t="n">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="C362" t="n">
-        <v>69940</v>
+        <v>70320</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -6235,10 +6235,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="2" t="n">
-        <v>44469</v>
+        <v>44477</v>
       </c>
       <c r="C363" t="n">
-        <v>68700</v>
+        <v>69940</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -6251,10 +6251,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="2" t="n">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="C364" t="n">
-        <v>68965</v>
+        <v>68700</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -6267,10 +6267,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="2" t="n">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="C365" t="n">
-        <v>69520</v>
+        <v>68965</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -6283,10 +6283,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="2" t="n">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="C366" t="n">
-        <v>69375</v>
+        <v>69520</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -6299,10 +6299,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="2" t="n">
-        <v>44462</v>
+        <v>44463</v>
       </c>
       <c r="C367" t="n">
-        <v>69040</v>
+        <v>69375</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -6315,10 +6315,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="2" t="n">
-        <v>44461</v>
+        <v>44462</v>
       </c>
       <c r="C368" t="n">
-        <v>69075</v>
+        <v>69040</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -6331,10 +6331,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="2" t="n">
-        <v>44456</v>
+        <v>44461</v>
       </c>
       <c r="C369" t="n">
-        <v>69810</v>
+        <v>69075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -6347,10 +6347,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="2" t="n">
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="C370" t="n">
-        <v>70460</v>
+        <v>69810</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -6363,10 +6363,10 @@
         <v>370</v>
       </c>
       <c r="B371" s="2" t="n">
-        <v>44454</v>
+        <v>44455</v>
       </c>
       <c r="C371" t="n">
-        <v>69860</v>
+        <v>70460</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -6379,10 +6379,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="2" t="n">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="C372" t="n">
-        <v>70520</v>
+        <v>69860</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -6395,10 +6395,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="2" t="n">
-        <v>44449</v>
+        <v>44453</v>
       </c>
       <c r="C373" t="n">
-        <v>70035</v>
+        <v>70520</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -6411,10 +6411,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="2" t="n">
-        <v>44448</v>
+        <v>44449</v>
       </c>
       <c r="C374" t="n">
-        <v>68850</v>
+        <v>70035</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -6427,10 +6427,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="2" t="n">
-        <v>44447</v>
+        <v>44448</v>
       </c>
       <c r="C375" t="n">
-        <v>69250</v>
+        <v>68850</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -6443,10 +6443,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="2" t="n">
-        <v>44446</v>
+        <v>44447</v>
       </c>
       <c r="C376" t="n">
-        <v>69580</v>
+        <v>69250</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -6459,10 +6459,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="2" t="n">
-        <v>44442</v>
+        <v>44446</v>
       </c>
       <c r="C377" t="n">
-        <v>69575</v>
+        <v>69580</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -6475,10 +6475,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="2" t="n">
-        <v>44441</v>
+        <v>44442</v>
       </c>
       <c r="C378" t="n">
-        <v>69460</v>
+        <v>69575</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -6491,10 +6491,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="2" t="n">
-        <v>44440</v>
+        <v>44441</v>
       </c>
       <c r="C379" t="n">
-        <v>69940</v>
+        <v>69460</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -6507,10 +6507,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="2" t="n">
-        <v>44439</v>
+        <v>44440</v>
       </c>
       <c r="C380" t="n">
-        <v>70315</v>
+        <v>69940</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -6523,10 +6523,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="2" t="n">
-        <v>44435</v>
+        <v>44439</v>
       </c>
       <c r="C381" t="n">
-        <v>69185</v>
+        <v>70315</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -6539,10 +6539,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="2" t="n">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="C382" t="n">
-        <v>69260</v>
+        <v>69185</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -6555,10 +6555,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="2" t="n">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="C383" t="n">
-        <v>69600</v>
+        <v>69260</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -6571,10 +6571,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="2" t="n">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="C384" t="n">
-        <v>68940</v>
+        <v>69600</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -6587,10 +6587,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="C385" t="n">
-        <v>67260</v>
+        <v>68940</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -6603,10 +6603,10 @@
         <v>385</v>
       </c>
       <c r="B386" s="2" t="n">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="C386" t="n">
-        <v>67700</v>
+        <v>67260</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -6619,10 +6619,10 @@
         <v>386</v>
       </c>
       <c r="B387" s="2" t="n">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="C387" t="n">
-        <v>69240</v>
+        <v>67700</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -6635,10 +6635,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="2" t="n">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="C388" t="n">
-        <v>70080</v>
+        <v>69240</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -6651,10 +6651,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="2" t="n">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="C389" t="n">
-        <v>70240</v>
+        <v>70080</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -6667,10 +6667,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="2" t="n">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="C390" t="n">
-        <v>70430</v>
+        <v>70240</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -6683,10 +6683,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="2" t="n">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="C391" t="n">
-        <v>70000</v>
+        <v>70430</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -6699,10 +6699,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="2" t="n">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="C392" t="n">
-        <v>69560</v>
+        <v>70000</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -6715,10 +6715,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="C393" t="n">
-        <v>69800</v>
+        <v>69560</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -6731,10 +6731,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="2" t="n">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="C394" t="n">
-        <v>69660</v>
+        <v>69800</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -6747,10 +6747,10 @@
         <v>394</v>
       </c>
       <c r="B395" s="2" t="n">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="C395" t="n">
-        <v>70290</v>
+        <v>69660</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -6763,10 +6763,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="2" t="n">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="C396" t="n">
-        <v>71030</v>
+        <v>70290</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -6779,10 +6779,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="2" t="n">
-        <v>44407</v>
+        <v>44411</v>
       </c>
       <c r="C397" t="n">
-        <v>71900</v>
+        <v>71030</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -6795,10 +6795,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="2" t="n">
-        <v>44406</v>
+        <v>44407</v>
       </c>
       <c r="C398" t="n">
-        <v>71700</v>
+        <v>71900</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -6811,10 +6811,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="2" t="n">
-        <v>44405</v>
+        <v>44406</v>
       </c>
       <c r="C399" t="n">
-        <v>72365</v>
+        <v>71700</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -6827,10 +6827,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="2" t="n">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="C400" t="n">
-        <v>72520</v>
+        <v>72365</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -6843,10 +6843,10 @@
         <v>400</v>
       </c>
       <c r="B401" s="2" t="n">
-        <v>44400</v>
+        <v>44404</v>
       </c>
       <c r="C401" t="n">
-        <v>70090</v>
+        <v>72520</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -6859,10 +6859,10 @@
         <v>401</v>
       </c>
       <c r="B402" s="2" t="n">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="C402" t="n">
-        <v>69040</v>
+        <v>70090</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -6875,10 +6875,10 @@
         <v>402</v>
       </c>
       <c r="B403" s="2" t="n">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="C403" t="n">
-        <v>68600</v>
+        <v>69040</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -6891,10 +6891,10 @@
         <v>403</v>
       </c>
       <c r="B404" s="2" t="n">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="C404" t="n">
-        <v>68390</v>
+        <v>68600</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -6907,10 +6907,10 @@
         <v>404</v>
       </c>
       <c r="B405" s="2" t="n">
-        <v>44393</v>
+        <v>44397</v>
       </c>
       <c r="C405" t="n">
-        <v>69660</v>
+        <v>68390</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -6923,10 +6923,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="2" t="n">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="C406" t="n">
-        <v>68830</v>
+        <v>69660</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -6939,10 +6939,10 @@
         <v>406</v>
       </c>
       <c r="B407" s="2" t="n">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="C407" t="n">
-        <v>68810</v>
+        <v>68830</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -6955,10 +6955,10 @@
         <v>407</v>
       </c>
       <c r="B408" s="2" t="n">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="C408" t="n">
-        <v>69370</v>
+        <v>68810</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -6971,10 +6971,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="C409" t="n">
-        <v>68800</v>
+        <v>69370</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -6987,10 +6987,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="2" t="n">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="C410" t="n">
-        <v>68900</v>
+        <v>68800</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -7003,10 +7003,10 @@
         <v>410</v>
       </c>
       <c r="B411" s="2" t="n">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="C411" t="n">
-        <v>68540</v>
+        <v>68900</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7019,10 +7019,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="2" t="n">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="C412" t="n">
-        <v>69700</v>
+        <v>68540</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7035,10 +7035,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="2" t="n">
-        <v>44379</v>
+        <v>44383</v>
       </c>
       <c r="C413" t="n">
-        <v>68050</v>
+        <v>69700</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7051,10 +7051,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="2" t="n">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="C414" t="n">
-        <v>68490</v>
+        <v>68050</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7067,10 +7067,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="2" t="n">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="C415" t="n">
-        <v>68380</v>
+        <v>68490</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7083,10 +7083,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="2" t="n">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="C416" t="n">
-        <v>68050</v>
+        <v>68380</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7099,10 +7099,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="2" t="n">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="C417" t="n">
-        <v>68825</v>
+        <v>68050</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -7115,10 +7115,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="2" t="n">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="C418" t="n">
-        <v>68600</v>
+        <v>68825</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -7131,10 +7131,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="2" t="n">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="C419" t="n">
-        <v>68270</v>
+        <v>68600</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -7147,10 +7147,10 @@
         <v>419</v>
       </c>
       <c r="B420" s="2" t="n">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="C420" t="n">
-        <v>67400</v>
+        <v>68270</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -7163,10 +7163,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="2" t="n">
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="C421" t="n">
-        <v>67730</v>
+        <v>67400</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -7179,10 +7179,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="2" t="n">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="C422" t="n">
-        <v>69170</v>
+        <v>67730</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -7195,10 +7195,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="2" t="n">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="C423" t="n">
-        <v>69260</v>
+        <v>69170</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -7211,10 +7211,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="2" t="n">
-        <v>44358</v>
+        <v>44363</v>
       </c>
       <c r="C424" t="n">
-        <v>70800</v>
+        <v>69260</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -7227,10 +7227,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="2" t="n">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="C425" t="n">
-        <v>71210</v>
+        <v>70800</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -7243,10 +7243,10 @@
         <v>425</v>
       </c>
       <c r="B426" s="2" t="n">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="C426" t="n">
-        <v>71710</v>
+        <v>71210</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -7259,10 +7259,10 @@
         <v>426</v>
       </c>
       <c r="B427" s="2" t="n">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="C427" t="n">
-        <v>71310</v>
+        <v>71710</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -7275,10 +7275,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="2" t="n">
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="C428" t="n">
-        <v>71090</v>
+        <v>71310</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -7291,10 +7291,10 @@
         <v>428</v>
       </c>
       <c r="B429" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="C429" t="n">
-        <v>72950</v>
+        <v>71090</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -7307,10 +7307,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="2" t="n">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="C430" t="n">
-        <v>73580</v>
+        <v>72950</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -7323,10 +7323,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="2" t="n">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="C431" t="n">
-        <v>73790</v>
+        <v>73580</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -7339,10 +7339,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="2" t="n">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="C432" t="n">
-        <v>73380</v>
+        <v>73790</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -7355,10 +7355,10 @@
         <v>432</v>
       </c>
       <c r="B433" s="2" t="n">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="C433" t="n">
-        <v>71350</v>
+        <v>73380</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -7371,10 +7371,10 @@
         <v>433</v>
       </c>
       <c r="B434" s="2" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="C434" t="n">
-        <v>71720</v>
+        <v>71350</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -7387,10 +7387,10 @@
         <v>434</v>
       </c>
       <c r="B435" s="2" t="n">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="C435" t="n">
-        <v>72360</v>
+        <v>71720</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -7403,10 +7403,10 @@
         <v>435</v>
       </c>
       <c r="B436" s="2" t="n">
-        <v>44337</v>
+        <v>44341</v>
       </c>
       <c r="C436" t="n">
-        <v>71950</v>
+        <v>72360</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -7419,10 +7419,10 @@
         <v>436</v>
       </c>
       <c r="B437" s="2" t="n">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="C437" t="n">
-        <v>72525</v>
+        <v>71950</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -7435,10 +7435,10 @@
         <v>437</v>
       </c>
       <c r="B438" s="2" t="n">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="C438" t="n">
-        <v>74840</v>
+        <v>72525</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -7451,10 +7451,10 @@
         <v>438</v>
       </c>
       <c r="B439" s="2" t="n">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="C439" t="n">
-        <v>75720</v>
+        <v>74840</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -7467,10 +7467,10 @@
         <v>439</v>
       </c>
       <c r="B440" s="2" t="n">
-        <v>44330</v>
+        <v>44334</v>
       </c>
       <c r="C440" t="n">
-        <v>74760</v>
+        <v>75720</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -7483,10 +7483,10 @@
         <v>440</v>
       </c>
       <c r="B441" s="2" t="n">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="C441" t="n">
-        <v>75910</v>
+        <v>74760</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -7499,10 +7499,10 @@
         <v>441</v>
       </c>
       <c r="B442" s="2" t="n">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="C442" t="n">
-        <v>76150</v>
+        <v>75910</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -7515,10 +7515,10 @@
         <v>442</v>
       </c>
       <c r="B443" s="2" t="n">
-        <v>44323</v>
+        <v>44328</v>
       </c>
       <c r="C443" t="n">
-        <v>74200</v>
+        <v>76150</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -7531,10 +7531,10 @@
         <v>443</v>
       </c>
       <c r="B444" s="2" t="n">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="C444" t="n">
-        <v>72690</v>
+        <v>74200</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -7547,10 +7547,10 @@
         <v>444</v>
       </c>
       <c r="B445" s="2" t="n">
-        <v>44316</v>
+        <v>44322</v>
       </c>
       <c r="C445" t="n">
-        <v>71680</v>
+        <v>72690</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -7563,10 +7563,10 @@
         <v>445</v>
       </c>
       <c r="B446" s="2" t="n">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="C446" t="n">
-        <v>72335</v>
+        <v>71680</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -7579,10 +7579,10 @@
         <v>446</v>
       </c>
       <c r="B447" s="2" t="n">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="C447" t="n">
-        <v>70920</v>
+        <v>72335</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -7595,10 +7595,10 @@
         <v>447</v>
       </c>
       <c r="B448" s="2" t="n">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="C448" t="n">
-        <v>71940</v>
+        <v>70920</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -7611,10 +7611,10 @@
         <v>448</v>
       </c>
       <c r="B449" s="2" t="n">
-        <v>44309</v>
+        <v>44313</v>
       </c>
       <c r="C449" t="n">
-        <v>69120</v>
+        <v>71940</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -7627,10 +7627,10 @@
         <v>449</v>
       </c>
       <c r="B450" s="2" t="n">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="C450" t="n">
-        <v>68840</v>
+        <v>69120</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -7643,10 +7643,10 @@
         <v>450</v>
       </c>
       <c r="B451" s="2" t="n">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="C451" t="n">
-        <v>68550</v>
+        <v>68840</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -7659,10 +7659,10 @@
         <v>451</v>
       </c>
       <c r="B452" s="2" t="n">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="C452" t="n">
-        <v>68990</v>
+        <v>68550</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -7675,10 +7675,10 @@
         <v>452</v>
       </c>
       <c r="B453" s="2" t="n">
-        <v>44302</v>
+        <v>44306</v>
       </c>
       <c r="C453" t="n">
-        <v>68550</v>
+        <v>68990</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -7691,10 +7691,10 @@
         <v>453</v>
       </c>
       <c r="B454" s="2" t="n">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="C454" t="n">
-        <v>67260</v>
+        <v>68550</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -7707,10 +7707,10 @@
         <v>454</v>
       </c>
       <c r="B455" s="2" t="n">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="C455" t="n">
-        <v>66125</v>
+        <v>67260</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -7723,10 +7723,10 @@
         <v>455</v>
       </c>
       <c r="B456" s="2" t="n">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="C456" t="n">
-        <v>65720</v>
+        <v>66125</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -7739,10 +7739,10 @@
         <v>456</v>
       </c>
       <c r="B457" s="2" t="n">
-        <v>44295</v>
+        <v>44299</v>
       </c>
       <c r="C457" t="n">
-        <v>66750</v>
+        <v>65720</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -7755,10 +7755,10 @@
         <v>457</v>
       </c>
       <c r="B458" s="2" t="n">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="C458" t="n">
-        <v>66500</v>
+        <v>66750</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -7771,10 +7771,10 @@
         <v>458</v>
       </c>
       <c r="B459" s="2" t="n">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="C459" t="n">
-        <v>66890</v>
+        <v>66500</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -7787,10 +7787,10 @@
         <v>459</v>
       </c>
       <c r="B460" s="2" t="n">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="C460" t="n">
-        <v>67140</v>
+        <v>66890</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -7803,10 +7803,10 @@
         <v>460</v>
       </c>
       <c r="B461" s="2" t="n">
-        <v>44288</v>
+        <v>44292</v>
       </c>
       <c r="C461" t="n">
-        <v>66040</v>
+        <v>67140</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -7819,10 +7819,10 @@
         <v>461</v>
       </c>
       <c r="B462" s="2" t="n">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="C462" t="n">
-        <v>65490</v>
+        <v>66040</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -7835,10 +7835,10 @@
         <v>462</v>
       </c>
       <c r="B463" s="2" t="n">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="C463" t="n">
-        <v>65175</v>
+        <v>65490</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -7851,10 +7851,10 @@
         <v>463</v>
       </c>
       <c r="B464" s="2" t="n">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="C464" t="n">
-        <v>66190</v>
+        <v>65175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -7867,10 +7867,10 @@
         <v>464</v>
       </c>
       <c r="B465" s="2" t="n">
-        <v>44281</v>
+        <v>44285</v>
       </c>
       <c r="C465" t="n">
-        <v>65680</v>
+        <v>66190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -7883,10 +7883,10 @@
         <v>465</v>
       </c>
       <c r="B466" s="2" t="n">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="C466" t="n">
-        <v>65770</v>
+        <v>65680</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -7899,10 +7899,10 @@
         <v>466</v>
       </c>
       <c r="B467" s="2" t="n">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="C467" t="n">
-        <v>66075</v>
+        <v>65770</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -7915,10 +7915,10 @@
         <v>467</v>
       </c>
       <c r="B468" s="2" t="n">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="C468" t="n">
-        <v>66740</v>
+        <v>66075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -7931,10 +7931,10 @@
         <v>468</v>
       </c>
       <c r="B469" s="2" t="n">
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="C469" t="n">
-        <v>66550</v>
+        <v>66740</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -7947,10 +7947,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="2" t="n">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="C470" t="n">
-        <v>67050</v>
+        <v>66550</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -7963,10 +7963,10 @@
         <v>470</v>
       </c>
       <c r="B471" s="2" t="n">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="C471" t="n">
-        <v>66200</v>
+        <v>67050</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -7979,10 +7979,10 @@
         <v>471</v>
       </c>
       <c r="B472" s="2" t="n">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="C472" t="n">
-        <v>67150</v>
+        <v>66200</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -7995,10 +7995,10 @@
         <v>472</v>
       </c>
       <c r="B473" s="2" t="n">
-        <v>44267</v>
+        <v>44271</v>
       </c>
       <c r="C473" t="n">
-        <v>66660</v>
+        <v>67150</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -8011,10 +8011,10 @@
         <v>473</v>
       </c>
       <c r="B474" s="2" t="n">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="C474" t="n">
-        <v>65580</v>
+        <v>66660</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -8027,10 +8027,10 @@
         <v>474</v>
       </c>
       <c r="B475" s="2" t="n">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="C475" t="n">
-        <v>65530</v>
+        <v>65580</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -8043,10 +8043,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="2" t="n">
-        <v>44260</v>
+        <v>44265</v>
       </c>
       <c r="C476" t="n">
-        <v>64810</v>
+        <v>65530</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -8059,10 +8059,10 @@
         <v>476</v>
       </c>
       <c r="B477" s="2" t="n">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="C477" t="n">
-        <v>67020</v>
+        <v>64810</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -8075,10 +8075,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="2" t="n">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="C478" t="n">
-        <v>67790</v>
+        <v>67020</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -8091,10 +8091,10 @@
         <v>478</v>
       </c>
       <c r="B479" s="2" t="n">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="C479" t="n">
-        <v>66140</v>
+        <v>67790</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -8107,10 +8107,10 @@
         <v>479</v>
       </c>
       <c r="B480" s="2" t="n">
-        <v>44253</v>
+        <v>44257</v>
       </c>
       <c r="C480" t="n">
-        <v>68410</v>
+        <v>66140</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -8123,10 +8123,10 @@
         <v>480</v>
       </c>
       <c r="B481" s="2" t="n">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="C481" t="n">
-        <v>69900</v>
+        <v>68410</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -8139,10 +8139,10 @@
         <v>481</v>
       </c>
       <c r="B482" s="2" t="n">
-        <v>44246</v>
+        <v>44252</v>
       </c>
       <c r="C482" t="n">
-        <v>63240</v>
+        <v>69900</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -8155,10 +8155,10 @@
         <v>482</v>
       </c>
       <c r="B483" s="2" t="n">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="C483" t="n">
-        <v>62690</v>
+        <v>63240</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -8171,10 +8171,10 @@
         <v>483</v>
       </c>
       <c r="B484" s="2" t="n">
-        <v>44237</v>
+        <v>44245</v>
       </c>
       <c r="C484" t="n">
-        <v>60230</v>
+        <v>62690</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -8187,10 +8187,10 @@
         <v>484</v>
       </c>
       <c r="B485" s="2" t="n">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="C485" t="n">
-        <v>59410</v>
+        <v>60230</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -8203,10 +8203,10 @@
         <v>485</v>
       </c>
       <c r="B486" s="2" t="n">
-        <v>44232</v>
+        <v>44236</v>
       </c>
       <c r="C486" t="n">
-        <v>58040</v>
+        <v>59410</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -8219,10 +8219,10 @@
         <v>486</v>
       </c>
       <c r="B487" s="2" t="n">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="C487" t="n">
-        <v>57825</v>
+        <v>58040</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -8235,10 +8235,10 @@
         <v>487</v>
       </c>
       <c r="B488" s="2" t="n">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="C488" t="n">
-        <v>57170</v>
+        <v>57825</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -8251,10 +8251,10 @@
         <v>488</v>
       </c>
       <c r="B489" s="2" t="n">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="C489" t="n">
-        <v>57700</v>
+        <v>57170</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -8267,10 +8267,10 @@
         <v>489</v>
       </c>
       <c r="B490" s="2" t="n">
-        <v>44225</v>
+        <v>44229</v>
       </c>
       <c r="C490" t="n">
-        <v>58180</v>
+        <v>57700</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -8283,10 +8283,10 @@
         <v>490</v>
       </c>
       <c r="B491" s="2" t="n">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="C491" t="n">
-        <v>57950</v>
+        <v>58180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -8299,10 +8299,10 @@
         <v>491</v>
       </c>
       <c r="B492" s="2" t="n">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="C492" t="n">
-        <v>58745</v>
+        <v>57950</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -8315,10 +8315,10 @@
         <v>492</v>
       </c>
       <c r="B493" s="2" t="n">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="C493" t="n">
-        <v>58820</v>
+        <v>58745</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -8331,10 +8331,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="2" t="n">
-        <v>44218</v>
+        <v>44222</v>
       </c>
       <c r="C494" t="n">
-        <v>58920</v>
+        <v>58820</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -8347,10 +8347,10 @@
         <v>494</v>
       </c>
       <c r="B495" s="2" t="n">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="C495" t="n">
-        <v>59280</v>
+        <v>58920</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -8363,10 +8363,10 @@
         <v>495</v>
       </c>
       <c r="B496" s="2" t="n">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="C496" t="n">
-        <v>59025</v>
+        <v>59280</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -8379,10 +8379,10 @@
         <v>496</v>
       </c>
       <c r="B497" s="2" t="n">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="C497" t="n">
-        <v>59030</v>
+        <v>59025</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -8395,10 +8395,10 @@
         <v>497</v>
       </c>
       <c r="B498" s="2" t="n">
-        <v>44211</v>
+        <v>44215</v>
       </c>
       <c r="C498" t="n">
-        <v>59560</v>
+        <v>59030</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -8411,10 +8411,10 @@
         <v>498</v>
       </c>
       <c r="B499" s="2" t="n">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="C499" t="n">
-        <v>58675</v>
+        <v>59560</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -8427,10 +8427,10 @@
         <v>499</v>
       </c>
       <c r="B500" s="2" t="n">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="C500" t="n">
-        <v>58840</v>
+        <v>58675</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -8443,10 +8443,10 @@
         <v>500</v>
       </c>
       <c r="B501" s="2" t="n">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="C501" t="n">
-        <v>58225</v>
+        <v>58840</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -8459,10 +8459,10 @@
         <v>501</v>
       </c>
       <c r="B502" s="2" t="n">
-        <v>44196</v>
+        <v>44208</v>
       </c>
       <c r="C502" t="n">
-        <v>57810</v>
+        <v>58225</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -8475,10 +8475,10 @@
         <v>502</v>
       </c>
       <c r="B503" s="2" t="n">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="C503" t="n">
-        <v>58150</v>
+        <v>57810</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -8491,10 +8491,10 @@
         <v>503</v>
       </c>
       <c r="B504" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="C504" t="n">
-        <v>58450</v>
+        <v>58150</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -8507,10 +8507,10 @@
         <v>504</v>
       </c>
       <c r="B505" s="2" t="n">
-        <v>44190</v>
+        <v>44194</v>
       </c>
       <c r="C505" t="n">
-        <v>58180</v>
+        <v>58450</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -8523,10 +8523,10 @@
         <v>505</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="C506" t="n">
-        <v>58110</v>
+        <v>58180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -8539,10 +8539,10 @@
         <v>506</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="C507" t="n">
-        <v>57610</v>
+        <v>58110</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -8555,10 +8555,10 @@
         <v>507</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="C508" t="n">
-        <v>58550</v>
+        <v>57610</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -8571,10 +8571,10 @@
         <v>508</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>44183</v>
+        <v>44187</v>
       </c>
       <c r="C509" t="n">
-        <v>59090</v>
+        <v>58550</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -8587,10 +8587,10 @@
         <v>509</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="C510" t="n">
-        <v>58120</v>
+        <v>59090</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -8603,10 +8603,10 @@
         <v>510</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="C511" t="n">
-        <v>57850</v>
+        <v>58120</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -8619,10 +8619,10 @@
         <v>511</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="C512" t="n">
-        <v>57420</v>
+        <v>57850</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -8635,10 +8635,10 @@
         <v>512</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44176</v>
+        <v>44180</v>
       </c>
       <c r="C513" t="n">
-        <v>58285</v>
+        <v>57420</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -8651,10 +8651,10 @@
         <v>513</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44175</v>
+        <v>44176</v>
       </c>
       <c r="C514" t="n">
-        <v>57010</v>
+        <v>58285</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -8667,10 +8667,10 @@
         <v>514</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="C515" t="n">
-        <v>57270</v>
+        <v>57010</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -8683,10 +8683,10 @@
         <v>515</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="C516" t="n">
-        <v>57000</v>
+        <v>57270</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -8699,10 +8699,10 @@
         <v>516</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44169</v>
+        <v>44173</v>
       </c>
       <c r="C517" t="n">
-        <v>57290</v>
+        <v>57000</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -8715,10 +8715,10 @@
         <v>517</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44168</v>
+        <v>44169</v>
       </c>
       <c r="C518" t="n">
-        <v>57300</v>
+        <v>57290</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -8731,10 +8731,10 @@
         <v>518</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="C519" t="n">
-        <v>57280</v>
+        <v>57300</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -8747,10 +8747,10 @@
         <v>519</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="C520" t="n">
-        <v>57375</v>
+        <v>57280</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -8763,10 +8763,10 @@
         <v>520</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44162</v>
+        <v>44166</v>
       </c>
       <c r="C521" t="n">
-        <v>55685</v>
+        <v>57375</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -8779,10 +8779,10 @@
         <v>521</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="C522" t="n">
-        <v>55120</v>
+        <v>55685</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -8795,10 +8795,10 @@
         <v>522</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="C523" t="n">
-        <v>54890</v>
+        <v>55120</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -8811,10 +8811,10 @@
         <v>523</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="C524" t="n">
-        <v>54110</v>
+        <v>54890</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -8827,10 +8827,10 @@
         <v>524</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44155</v>
+        <v>44159</v>
       </c>
       <c r="C525" t="n">
-        <v>53220</v>
+        <v>54110</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -8843,10 +8843,10 @@
         <v>525</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="C526" t="n">
-        <v>52820</v>
+        <v>53220</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -8859,10 +8859,10 @@
         <v>526</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="C527" t="n">
-        <v>52740</v>
+        <v>52820</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -8875,10 +8875,10 @@
         <v>527</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="C528" t="n">
-        <v>53220</v>
+        <v>52740</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -8891,10 +8891,10 @@
         <v>528</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="C529" t="n">
-        <v>52025</v>
+        <v>53220</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -8907,10 +8907,10 @@
         <v>529</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="C530" t="n">
-        <v>51880</v>
+        <v>52025</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -8923,10 +8923,10 @@
         <v>530</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="C531" t="n">
-        <v>51990</v>
+        <v>51880</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -8939,10 +8939,10 @@
         <v>531</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="C532" t="n">
-        <v>52120</v>
+        <v>51990</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -8955,10 +8955,10 @@
         <v>532</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44141</v>
+        <v>44145</v>
       </c>
       <c r="C533" t="n">
-        <v>51640</v>
+        <v>52120</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -8971,10 +8971,10 @@
         <v>533</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44139</v>
+        <v>44141</v>
       </c>
       <c r="C534" t="n">
-        <v>51680</v>
+        <v>51640</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -8987,10 +8987,10 @@
         <v>534</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C535" t="n">
-        <v>51750</v>
+        <v>51680</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -9003,10 +9003,10 @@
         <v>535</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44134</v>
+        <v>44138</v>
       </c>
       <c r="C536" t="n">
-        <v>51530</v>
+        <v>51750</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -9019,10 +9019,10 @@
         <v>536</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="C537" t="n">
-        <v>51585</v>
+        <v>51530</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -9035,10 +9035,10 @@
         <v>537</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="C538" t="n">
-        <v>51730</v>
+        <v>51585</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -9051,10 +9051,10 @@
         <v>538</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="C539" t="n">
-        <v>51540</v>
+        <v>51730</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -9067,10 +9067,10 @@
         <v>539</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44127</v>
+        <v>44131</v>
       </c>
       <c r="C540" t="n">
-        <v>52210</v>
+        <v>51540</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -9083,10 +9083,10 @@
         <v>540</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="C541" t="n">
-        <v>52370</v>
+        <v>52210</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -9099,10 +9099,10 @@
         <v>541</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="C542" t="n">
-        <v>52250</v>
+        <v>52370</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -9115,10 +9115,10 @@
         <v>542</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="C543" t="n">
-        <v>51450</v>
+        <v>52250</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -9131,10 +9131,10 @@
         <v>543</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44120</v>
+        <v>44124</v>
       </c>
       <c r="C544" t="n">
-        <v>51800</v>
+        <v>51450</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -9147,10 +9147,10 @@
         <v>544</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="C545" t="n">
-        <v>51370</v>
+        <v>51800</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -9163,10 +9163,10 @@
         <v>545</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="C546" t="n">
-        <v>51470</v>
+        <v>51370</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -9179,10 +9179,10 @@
         <v>546</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="C547" t="n">
-        <v>51540</v>
+        <v>51470</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -9195,10 +9195,10 @@
         <v>547</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44113</v>
+        <v>44117</v>
       </c>
       <c r="C548" t="n">
-        <v>51565</v>
+        <v>51540</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -9211,10 +9211,10 @@
         <v>548</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44104</v>
+        <v>44113</v>
       </c>
       <c r="C549" t="n">
-        <v>51185</v>
+        <v>51565</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -9227,10 +9227,10 @@
         <v>549</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C550" t="n">
-        <v>51110</v>
+        <v>51185</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -9243,10 +9243,10 @@
         <v>550</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44099</v>
+        <v>44103</v>
       </c>
       <c r="C551" t="n">
-        <v>50890</v>
+        <v>51110</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -9259,10 +9259,10 @@
         <v>551</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C552" t="n">
-        <v>50745</v>
+        <v>50890</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -9275,10 +9275,10 @@
         <v>552</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C553" t="n">
-        <v>51620</v>
+        <v>50745</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -9291,10 +9291,10 @@
         <v>553</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C554" t="n">
-        <v>51920</v>
+        <v>51620</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -9307,10 +9307,10 @@
         <v>554</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44092</v>
+        <v>44096</v>
       </c>
       <c r="C555" t="n">
-        <v>52210</v>
+        <v>51920</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -9323,10 +9323,10 @@
         <v>555</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C556" t="n">
-        <v>51455</v>
+        <v>52210</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -9339,10 +9339,10 @@
         <v>556</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C557" t="n">
-        <v>51900</v>
+        <v>51455</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -9355,10 +9355,10 @@
         <v>557</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C558" t="n">
-        <v>52150</v>
+        <v>51900</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -9371,10 +9371,10 @@
         <v>558</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44085</v>
+        <v>44089</v>
       </c>
       <c r="C559" t="n">
-        <v>51535</v>
+        <v>52150</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -9387,10 +9387,10 @@
         <v>559</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C560" t="n">
-        <v>52130</v>
+        <v>51535</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -9403,10 +9403,10 @@
         <v>560</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C561" t="n">
-        <v>52065</v>
+        <v>52130</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -9419,10 +9419,10 @@
         <v>561</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C562" t="n">
-        <v>52520</v>
+        <v>52065</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -9435,10 +9435,10 @@
         <v>562</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44078</v>
+        <v>44082</v>
       </c>
       <c r="C563" t="n">
-        <v>51495</v>
+        <v>52520</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -9451,10 +9451,10 @@
         <v>563</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C564" t="n">
-        <v>52140</v>
+        <v>51495</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -9467,10 +9467,10 @@
         <v>564</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="C565" t="n">
-        <v>51935</v>
+        <v>52140</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -9483,10 +9483,10 @@
         <v>565</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44075</v>
+        <v>44076</v>
       </c>
       <c r="C566" t="n">
-        <v>52390</v>
+        <v>51935</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -9499,10 +9499,10 @@
         <v>566</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44071</v>
+        <v>44075</v>
       </c>
       <c r="C5